--- a/Relatorio_Grupo2.xlsx
+++ b/Relatorio_Grupo2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -500,13 +500,13 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>547.5616321869609</v>
+        <v>547.5765345302274</v>
       </c>
       <c r="C3" t="n">
         <v>79.9554111510887</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7762438412444373</v>
+        <v>0.9916830223602473</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="n">
-        <v>545.1246610387824</v>
+        <v>545.1531927665682</v>
       </c>
       <c r="C4" t="n">
         <v>79.91076535651558</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7762431786794338</v>
+        <v>0.9916703027140106</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -539,10 +539,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.1763462288546156</v>
+        <v>0.1763463073640675</v>
       </c>
       <c r="G4" t="n">
-        <v>7.950538267951764e-05</v>
+        <v>7.950453769526132e-05</v>
       </c>
     </row>
     <row r="5">
@@ -550,13 +550,13 @@
         <v>30</v>
       </c>
       <c r="B5" t="n">
-        <v>542.6890913355079</v>
+        <v>542.7299770504731</v>
       </c>
       <c r="C5" t="n">
         <v>79.86606262154254</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7762424654818211</v>
+        <v>0.991657463652683</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.1763262406881889</v>
+        <v>0.1763263917120962</v>
       </c>
       <c r="G5" t="n">
-        <v>7.963546538487951e-05</v>
+        <v>7.963383366030079e-05</v>
       </c>
     </row>
     <row r="6">
@@ -575,13 +575,13 @@
         <v>40</v>
       </c>
       <c r="B6" t="n">
-        <v>540.2549278171346</v>
+        <v>540.3068896939783</v>
       </c>
       <c r="C6" t="n">
         <v>79.82130295143099</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7762417005086526</v>
+        <v>0.9916445036757072</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -589,10 +589,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.1763061949970709</v>
+        <v>0.1763064123952235</v>
       </c>
       <c r="G6" t="n">
-        <v>7.976662423493673e-05</v>
+        <v>7.976426575843207e-05</v>
       </c>
     </row>
     <row r="7">
@@ -600,13 +600,13 @@
         <v>50</v>
       </c>
       <c r="B7" t="n">
-        <v>537.8221751833333</v>
+        <v>537.8839329794159</v>
       </c>
       <c r="C7" t="n">
         <v>79.77648635144192</v>
       </c>
       <c r="D7" t="n">
-        <v>0.776240882596537</v>
+        <v>0.9916314212532544</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -614,10 +614,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.1762860941257614</v>
+        <v>0.1762863716186858</v>
       </c>
       <c r="G7" t="n">
-        <v>7.989887257126486e-05</v>
+        <v>7.989584912237869e-05</v>
       </c>
     </row>
     <row r="8">
@@ -625,13 +625,13 @@
         <v>60</v>
       </c>
       <c r="B8" t="n">
-        <v>535.3908380931721</v>
+        <v>535.4611091591228</v>
       </c>
       <c r="C8" t="n">
         <v>79.73161282683571</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7762400105611499</v>
+        <v>0.9916182148252712</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.176265940449939</v>
+        <v>0.1762662716250774</v>
       </c>
       <c r="G8" t="n">
-        <v>8.003222398765517e-05</v>
+        <v>8.002859918522323e-05</v>
       </c>
     </row>
     <row r="9">
@@ -650,13 +650,13 @@
         <v>70</v>
       </c>
       <c r="B9" t="n">
-        <v>532.9609211648409</v>
+        <v>533.0384204551478</v>
       </c>
       <c r="C9" t="n">
         <v>79.68668238287239</v>
       </c>
       <c r="D9" t="n">
-        <v>0.776239083196716</v>
+        <v>0.9916048828004761</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -664,10 +664,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.176245736375937</v>
+        <v>0.1762461146940527</v>
       </c>
       <c r="G9" t="n">
-        <v>8.016669233837683e-05</v>
+        <v>8.016253169019473e-05</v>
       </c>
     </row>
     <row r="10">
@@ -675,13 +675,13 @@
         <v>80</v>
       </c>
       <c r="B10" t="n">
-        <v>530.5324289753814</v>
+        <v>530.6158690589573</v>
       </c>
       <c r="C10" t="n">
         <v>79.64169502481127</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7762380992754584</v>
+        <v>0.9915914235553056</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.1762254843402138</v>
+        <v>0.1762259031420217</v>
       </c>
       <c r="G10" t="n">
-        <v>8.030229174687512e-05</v>
+        <v>8.029766270096337e-05</v>
       </c>
     </row>
     <row r="11">
@@ -700,13 +700,13 @@
         <v>90</v>
       </c>
       <c r="B11" t="n">
-        <v>528.1053660604177</v>
+        <v>528.1934571311388</v>
       </c>
       <c r="C11" t="n">
         <v>79.59665075791145</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7762370575470121</v>
+        <v>0.9915778354328035</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -714,10 +714,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.1762051868088215</v>
+        <v>0.176205639321841</v>
       </c>
       <c r="G11" t="n">
-        <v>8.043903661492924e-05</v>
+        <v>8.043400861247213e-05</v>
       </c>
     </row>
     <row r="12">
@@ -725,13 +725,13 @@
         <v>100</v>
       </c>
       <c r="B12" t="n">
-        <v>525.6797369138917</v>
+        <v>525.7711868011015</v>
       </c>
       <c r="C12" t="n">
         <v>79.5515495874314</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7762359567378027</v>
+        <v>0.9915641167414534</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.1761848462768691</v>
+        <v>0.1761853256224976</v>
       </c>
       <c r="G12" t="n">
-        <v>8.057694163229613e-05</v>
+        <v>8.057158616233687e-05</v>
       </c>
     </row>
     <row r="13">
@@ -750,13 +750,13 @@
         <v>110</v>
       </c>
       <c r="B13" t="n">
-        <v>523.2555459878004</v>
+        <v>523.3490601667762</v>
       </c>
       <c r="C13" t="n">
         <v>79.50639151862919</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7762347955503839</v>
+        <v>0.9915502657539479</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.1761644652679845</v>
+        <v>0.176164964468789</v>
       </c>
       <c r="G13" t="n">
-        <v>8.071602178686701e-05</v>
+        <v>8.071041244284823e-05</v>
       </c>
     </row>
     <row r="14">
@@ -775,13 +775,13 @@
         <v>120</v>
       </c>
       <c r="B14" t="n">
-        <v>520.8327976919387</v>
+        <v>520.9270792943107</v>
       </c>
       <c r="C14" t="n">
         <v>79.46117655676227</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7762335726627371</v>
+        <v>0.9915362807058934</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -789,10 +789,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.176144046333772</v>
+        <v>0.1761445583209968</v>
       </c>
       <c r="G14" t="n">
-        <v>8.085629237536451e-05</v>
+        <v>8.085050491360981e-05</v>
       </c>
     </row>
     <row r="15">
@@ -800,13 +800,13 @@
         <v>130</v>
       </c>
       <c r="B15" t="n">
-        <v>518.4114963936443</v>
+        <v>518.5052462177636</v>
       </c>
       <c r="C15" t="n">
         <v>79.41590470708775</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7762322867275235</v>
+        <v>0.9915221597944465</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.1761235920532686</v>
+        <v>0.1761241096745567</v>
       </c>
       <c r="G15" t="n">
-        <v>8.099776901460976e-05</v>
+        <v>8.099188141484904e-05</v>
       </c>
     </row>
     <row r="16">
@@ -825,13 +825,13 @@
         <v>140</v>
       </c>
       <c r="B16" t="n">
-        <v>515.9916464175469</v>
+        <v>516.0835629387943</v>
       </c>
       <c r="C16" t="n">
         <v>79.37057597486211</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7762309363712963</v>
+        <v>0.9915079011768755</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.1761031050323968</v>
+        <v>0.1761036210597222</v>
       </c>
       <c r="G16" t="n">
-        <v>8.114046765338837e-05</v>
+        <v>8.113456018143769e-05</v>
       </c>
     </row>
     <row r="17">
@@ -850,13 +850,13 @@
         <v>150</v>
       </c>
       <c r="B17" t="n">
-        <v>513.5732520453222</v>
+        <v>513.6620314263503</v>
       </c>
       <c r="C17" t="n">
         <v>79.32519036534148</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7762295201936603</v>
+        <v>0.9914935029690469</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -864,10 +864,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.1760825879034169</v>
+        <v>0.1760830950412256</v>
       </c>
       <c r="G17" t="n">
-        <v>8.128440458494843e-05</v>
+        <v>8.127855985766328e-05</v>
       </c>
     </row>
     <row r="18">
@@ -875,13 +875,13 @@
         <v>160</v>
       </c>
       <c r="B18" t="n">
-        <v>511.1563175154496</v>
+        <v>511.2406536163504</v>
       </c>
       <c r="C18" t="n">
         <v>79.27974788378145</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7762280367663842</v>
+        <v>0.9914789632438297</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.1760620433243759</v>
+        <v>0.176062534217933</v>
       </c>
       <c r="G18" t="n">
-        <v>8.142959646016039e-05</v>
+        <v>8.142389951279029e-05</v>
       </c>
     </row>
     <row r="19">
@@ -900,13 +900,13 @@
         <v>170</v>
       </c>
       <c r="B19" t="n">
-        <v>508.7408470229743</v>
+        <v>508.819431411364</v>
       </c>
       <c r="C19" t="n">
         <v>79.23424853543713</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7762264846324584</v>
+        <v>0.9914642800294148</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -914,10 +914,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.1760414739785568</v>
+        <v>0.1760419412224966</v>
       </c>
       <c r="G19" t="n">
-        <v>8.157606030137341e-05</v>
+        <v>8.157059865745543e-05</v>
       </c>
     </row>
     <row r="20">
@@ -925,13 +925,13 @@
         <v>180</v>
       </c>
       <c r="B20" t="n">
-        <v>506.3268447192752</v>
+        <v>506.398366680286</v>
       </c>
       <c r="C20" t="n">
         <v>79.18869232556307</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7762248623051</v>
+        <v>0.9914494513075438</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -939,10 +939,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.1760208825739246</v>
+        <v>0.1760213187210022</v>
       </c>
       <c r="G20" t="n">
-        <v>8.172381351700252e-05</v>
+        <v>8.171867726094135e-05</v>
       </c>
     </row>
     <row r="21">
@@ -950,13 +950,13 @@
         <v>190</v>
       </c>
       <c r="B21" t="n">
-        <v>503.9143147118365</v>
+        <v>503.9774612580077</v>
       </c>
       <c r="C21" t="n">
         <v>79.14307925941341</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7762231682666975</v>
+        <v>0.9914344750116435</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -964,10 +964,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.1760002718425736</v>
+        <v>0.1760006694126132</v>
       </c>
       <c r="G21" t="n">
-        <v>8.187287391688109e-05</v>
+        <v>8.186815576937457e-05</v>
       </c>
     </row>
     <row r="22">
@@ -975,13 +975,13 @@
         <v>200</v>
       </c>
       <c r="B22" t="n">
-        <v>501.503261064026</v>
+        <v>501.5567169450823</v>
       </c>
       <c r="C22" t="n">
         <v>79.0974093422418</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7762214009676972</v>
+        <v>0.9914193490248594</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -989,10 +989,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.175979644540172</v>
+        <v>0.1759799960292118</v>
       </c>
       <c r="G22" t="n">
-        <v>8.20232597284161e-05</v>
+        <v>8.20190551248964e-05</v>
       </c>
     </row>
     <row r="23">
@@ -1000,13 +1000,13 @@
         <v>210</v>
       </c>
       <c r="B23" t="n">
-        <v>499.0936877948772</v>
+        <v>499.1361355073848</v>
       </c>
       <c r="C23" t="n">
         <v>79.05168257930137</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7762195588254243</v>
+        <v>0.9914040711779862</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1014,10 +1014,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.1759590034454076</v>
+        <v>0.1759593013350357</v>
       </c>
       <c r="G23" t="n">
-        <v>8.217498961358239e-05</v>
+        <v>8.217139678585592e-05</v>
       </c>
     </row>
     <row r="24">
@@ -1025,13 +1025,13 @@
         <v>220</v>
       </c>
       <c r="B24" t="n">
-        <v>496.6855988788789</v>
+        <v>496.7157186757671</v>
       </c>
       <c r="C24" t="n">
         <v>79.00589897584484</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7762176402228412</v>
+        <v>0.9913886392472877</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1039,10 +1039,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.1759383513594326</v>
+        <v>0.1759385881263125</v>
       </c>
       <c r="G24" t="n">
-        <v>8.23280826867959e-05</v>
+        <v>8.232520274807783e-05</v>
       </c>
     </row>
     <row r="25">
@@ -1050,13 +1050,13 @@
         <v>230</v>
       </c>
       <c r="B25" t="n">
-        <v>494.2789982457696</v>
+        <v>494.2954681457059</v>
       </c>
       <c r="C25" t="n">
         <v>78.96005853712438</v>
       </c>
       <c r="D25" t="n">
-        <v>0.776215643507233</v>
+        <v>0.9913730509521987</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1064,10 +1064,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.1759176911053083</v>
+        <v>0.1759178592308915</v>
       </c>
       <c r="G25" t="n">
-        <v>8.248255853370396e-05</v>
+        <v>8.248049556725811e-05</v>
       </c>
     </row>
     <row r="26">
@@ -1075,13 +1075,13 @@
         <v>240</v>
       </c>
       <c r="B26" t="n">
-        <v>491.8738897803391</v>
+        <v>491.875385576945</v>
       </c>
       <c r="C26" t="n">
         <v>78.91416126839164</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7762135669888253</v>
+        <v>0.9913573039529099</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1089,10 +1089,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.1758970255274507</v>
+        <v>0.1758971175078719</v>
       </c>
       <c r="G26" t="n">
-        <v>8.263843723093469e-05</v>
+        <v>8.263729838254314e-05</v>
       </c>
     </row>
     <row r="27">
@@ -1100,13 +1100,13 @@
         <v>250</v>
       </c>
       <c r="B27" t="n">
-        <v>489.4702773222354</v>
+        <v>489.45547259313</v>
       </c>
       <c r="C27" t="n">
         <v>78.86820717489792</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7762114089393252</v>
+        <v>0.9913413958478212</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1114,10 +1114,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.1758763574910759</v>
+        <v>0.1758763658472291</v>
       </c>
       <c r="G27" t="n">
-        <v>8.27957393668456e-05</v>
+        <v>8.279563494135016e-05</v>
       </c>
     </row>
     <row r="28">
@@ -1125,13 +1125,13 @@
         <v>260</v>
       </c>
       <c r="B28" t="n">
-        <v>487.0681646657798</v>
+        <v>487.0357307814356</v>
       </c>
       <c r="C28" t="n">
         <v>78.82219626189391</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7762091675903854</v>
+        <v>0.9913253241708656</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1139,10 +1139,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.1758556898816468</v>
+        <v>0.1758556071694383</v>
       </c>
       <c r="G28" t="n">
-        <v>8.295448606331576e-05</v>
+        <v>8.295552962548801e-05</v>
       </c>
     </row>
     <row r="29">
@@ -1150,13 +1150,13 @@
         <v>270</v>
       </c>
       <c r="B29" t="n">
-        <v>484.6675555597883</v>
+        <v>484.6161616921849</v>
       </c>
       <c r="C29" t="n">
         <v>78.77612853462989</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7762068411319878</v>
+        <v>0.9913090863886904</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1164,10 +1164,10 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.1758350256043205</v>
+        <v>0.1758348444250966</v>
       </c>
       <c r="G29" t="n">
-        <v>8.311469899862366e-05</v>
+        <v>8.311700747864014e-05</v>
       </c>
     </row>
     <row r="30">
@@ -1175,13 +1175,13 @@
         <v>280</v>
       </c>
       <c r="B30" t="n">
-        <v>482.2684537074003</v>
+        <v>482.1967668384604</v>
       </c>
       <c r="C30" t="n">
         <v>78.73000399835558</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7762044277107432</v>
+        <v>0.9912926798976947</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1189,10 +1189,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.175814367583397</v>
+        <v>0.1758140805945424</v>
       </c>
       <c r="G30" t="n">
-        <v>8.327640043145673e-05</v>
+        <v>8.328009423527322e-05</v>
       </c>
     </row>
     <row r="31">
@@ -1200,13 +1200,13 @@
         <v>290</v>
       </c>
       <c r="B31" t="n">
-        <v>479.8708627659154</v>
+        <v>479.7775476957058</v>
       </c>
       <c r="C31" t="n">
         <v>78.68382265832025</v>
       </c>
       <c r="D31" t="n">
-        <v>0.7762019254281044</v>
+        <v>0.9912761020209127</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1214,10 +1214,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.1757937187617687</v>
+        <v>0.1757933186874735</v>
       </c>
       <c r="G31" t="n">
-        <v>8.343961322609754e-05</v>
+        <v>8.34448163510369e-05</v>
       </c>
     </row>
     <row r="32">
@@ -1225,13 +1225,13 @@
         <v>300</v>
       </c>
       <c r="B32" t="n">
-        <v>477.4747863466378</v>
+        <v>477.3585057013174</v>
       </c>
       <c r="C32" t="n">
         <v>78.6375845197727</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7761993323384901</v>
+        <v>0.9912593500047389</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1239,10 +1239,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.1757730821003727</v>
+        <v>0.1757725617425631</v>
       </c>
       <c r="G32" t="n">
-        <v>8.360436087883367e-05</v>
+        <v>8.361120103472234e-05</v>
       </c>
     </row>
     <row r="33">
@@ -1250,13 +1250,13 @@
         <v>310</v>
       </c>
       <c r="B33" t="n">
-        <v>475.0802280147291</v>
+        <v>474.9396422542267</v>
       </c>
       <c r="C33" t="n">
         <v>78.59128958796128</v>
       </c>
       <c r="D33" t="n">
-        <v>0.776196646447314</v>
+        <v>0.9912424210154847</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1264,10 +1264,10 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.1757524605776434</v>
+        <v>0.1757518128270754</v>
       </c>
       <c r="G33" t="n">
-        <v>8.377066754563962e-05</v>
+        <v>8.377927628184999e-05</v>
       </c>
     </row>
     <row r="34">
@@ -1275,13 +1275,13 @@
         <v>320</v>
       </c>
       <c r="B34" t="n">
-        <v>472.6871912890692</v>
+        <v>472.5209587144705</v>
       </c>
       <c r="C34" t="n">
         <v>78.54493786813373</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7761938657089186</v>
+        <v>0.9912253121357633</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.1757318571889681</v>
+        <v>0.175731075036479</v>
       </c>
       <c r="G34" t="n">
-        <v>8.393855807117824e-05</v>
+        <v>8.394907090995764e-05</v>
       </c>
     </row>
     <row r="35">
@@ -1300,13 +1300,13 @@
         <v>330</v>
       </c>
       <c r="B35" t="n">
-        <v>470.2956796421262</v>
+        <v>470.1024564027506</v>
       </c>
       <c r="C35" t="n">
         <v>78.49852936553742</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7761909880244099</v>
+        <v>0.9912080203606902</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1314,10 +1314,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.1757112749461446</v>
+        <v>0.1757103514940594</v>
       </c>
       <c r="G35" t="n">
-        <v>8.410805801917353e-05</v>
+        <v>8.412061459566421e-05</v>
       </c>
     </row>
     <row r="36">
@@ -1325,13 +1325,13 @@
         <v>340</v>
       </c>
       <c r="B36" t="n">
-        <v>467.9056964998358</v>
+        <v>467.6841365999806</v>
       </c>
       <c r="C36" t="n">
         <v>78.45206408541924</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7761880112393877</v>
+        <v>0.9911905425938973</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1339,10 +1339,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.1756907168768403</v>
+        <v>0.1756896453505309</v>
       </c>
       <c r="G36" t="n">
-        <v>8.427919370420412e-05</v>
+        <v>8.429393791358549e-05</v>
       </c>
     </row>
     <row r="37">
@@ -1350,13 +1350,13 @@
         <v>350</v>
       </c>
       <c r="B37" t="n">
-        <v>465.5172452414886</v>
+        <v>465.2660005468193</v>
       </c>
       <c r="C37" t="n">
         <v>78.40554203302548</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7761849331415694</v>
+        <v>0.991172875643347</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1364,10 +1364,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.1756701860240555</v>
+        <v>0.1756689597836482</v>
       </c>
       <c r="G37" t="n">
-        <v>8.445199222497012e-05</v>
+        <v>8.446907237718024e-05</v>
       </c>
     </row>
     <row r="38">
@@ -1375,13 +1375,13 @@
         <v>360</v>
       </c>
       <c r="B38" t="n">
-        <v>463.1303291996288</v>
+        <v>462.8480494431914</v>
       </c>
       <c r="C38" t="n">
         <v>78.35896321360207</v>
       </c>
       <c r="D38" t="n">
-        <v>0.7761817514583061</v>
+        <v>0.9911550162169425</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1389,10 +1389,10 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.1756496854455873</v>
+        <v>0.1756482979978161</v>
       </c>
       <c r="G38" t="n">
-        <v>8.462648149908667e-05</v>
+        <v>8.464605048160901e-05</v>
       </c>
     </row>
     <row r="39">
@@ -1400,13 +1400,13 @@
         <v>370</v>
       </c>
       <c r="B39" t="n">
-        <v>460.7449516599614</v>
+        <v>460.4302844477926</v>
       </c>
       <c r="C39" t="n">
         <v>78.31232763239439</v>
       </c>
       <c r="D39" t="n">
-        <v>0.7761784638539826</v>
+        <v>0.9911369609179219</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1414,10 +1414,10 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.175629218213498</v>
+        <v>0.1756276632237002</v>
       </c>
       <c r="G39" t="n">
-        <v>8.480269029945778e-05</v>
+        <v>8.482490574868913e-05</v>
       </c>
     </row>
     <row r="40">
@@ -1425,13 +1425,13 @@
         <v>380</v>
       </c>
       <c r="B40" t="n">
-        <v>458.3611158612694</v>
+        <v>458.01270667758</v>
       </c>
       <c r="C40" t="n">
         <v>78.26563529464738</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7761750679273023</v>
+        <v>0.9911187062400318</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1439,10 +1439,10 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.1756087874135859</v>
+        <v>0.1756070587178369</v>
       </c>
       <c r="G40" t="n">
-        <v>8.498064829228668e-05</v>
+        <v>8.500567277403246e-05</v>
       </c>
     </row>
     <row r="41">
@@ -1450,13 +1450,13 @@
         <v>390</v>
       </c>
       <c r="B41" t="n">
-        <v>455.9788249953426</v>
+        <v>455.5953172072452</v>
       </c>
       <c r="C41" t="n">
         <v>78.21888620560543</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7761715612084507</v>
+        <v>0.9911002485624668</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1464,10 +1464,10 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.175588396144859</v>
+        <v>0.1755864877622432</v>
       </c>
       <c r="G41" t="n">
-        <v>8.516038607677765e-05</v>
+        <v>8.518838727645469e-05</v>
       </c>
     </row>
     <row r="42">
@@ -1475,13 +1475,13 @@
         <v>400</v>
       </c>
       <c r="B42" t="n">
-        <v>453.5980822069153</v>
+        <v>453.1781170686719</v>
       </c>
       <c r="C42" t="n">
         <v>78.1720803705125</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7761679411561364</v>
+        <v>0.991081584144568</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1489,10 +1489,10 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.1755680475190126</v>
+        <v>0.1755659536640266</v>
       </c>
       <c r="G42" t="n">
-        <v>8.534193522658913e-05</v>
+        <v>8.537308614974861e-05</v>
       </c>
     </row>
     <row r="43">
@@ -1500,13 +1500,13 @@
         <v>410</v>
       </c>
       <c r="B43" t="n">
-        <v>451.218890593616</v>
+        <v>450.7611072503734</v>
       </c>
       <c r="C43" t="n">
         <v>78.12521779461201</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7761642051545025</v>
+        <v>0.9910627091202716</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1514,10 +1514,10 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.1755477446599098</v>
+        <v>0.1755454597549959</v>
       </c>
       <c r="G43" t="n">
-        <v>8.55253283330946e-05</v>
+        <v>8.555980751691565e-05</v>
       </c>
     </row>
     <row r="44">
@@ -1525,13 +1525,13 @@
         <v>420</v>
       </c>
       <c r="B44" t="n">
-        <v>448.8412532059276</v>
+        <v>448.3442886969125</v>
       </c>
       <c r="C44" t="n">
         <v>78.07829848314697</v>
       </c>
       <c r="D44" t="n">
-        <v>0.7761603505099085</v>
+        <v>0.9910436194922951</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1539,10 +1539,10 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.1755274907030662</v>
+        <v>0.1755250093912715</v>
       </c>
       <c r="G44" t="n">
-        <v>8.57105990505131e-05</v>
+        <v>8.574859078695304e-05</v>
       </c>
     </row>
     <row r="45">
@@ -1550,13 +1550,13 @@
         <v>430</v>
       </c>
       <c r="B45" t="n">
-        <v>446.4651730471588</v>
+        <v>445.9276623083007</v>
       </c>
       <c r="C45" t="n">
         <v>78.03132244135986</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7761563744475758</v>
+        <v>0.9910243111260542</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1564,10 +1564,10 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.1755072887951376</v>
+        <v>0.1755046059528971</v>
       </c>
       <c r="G45" t="n">
-        <v>8.589778214296992e-05</v>
+        <v>8.593947671429794e-05</v>
       </c>
     </row>
     <row r="46">
@@ -1575,13 +1575,13 @@
         <v>440</v>
       </c>
       <c r="B46" t="n">
-        <v>444.0906530734264</v>
+        <v>443.5112289393762</v>
       </c>
       <c r="C46" t="n">
         <v>77.98428967449269</v>
       </c>
       <c r="D46" t="n">
-        <v>0.7761522741080948</v>
+        <v>0.9910047797432961</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1589,10 +1589,10 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.1754871420934125</v>
+        <v>0.1754842528434516</v>
       </c>
       <c r="G46" t="n">
-        <v>8.60869135335502e-05</v>
+        <v>8.613250746103131e-05</v>
       </c>
     </row>
     <row r="47">
@@ -1600,13 +1600,13 @@
         <v>450</v>
       </c>
       <c r="B47" t="n">
-        <v>441.7176961936502</v>
+        <v>441.0949893991595</v>
       </c>
       <c r="C47" t="n">
         <v>77.93720018778697</v>
       </c>
       <c r="D47" t="n">
-        <v>0.7761480465437904</v>
+        <v>0.990985020915443</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1614,10 +1614,10 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.1754670537653078</v>
+        <v>0.1754639534896624</v>
       </c>
       <c r="G47" t="n">
-        <v>8.627803035540996e-05</v>
+        <v>8.632772666194936e-05</v>
       </c>
     </row>
     <row r="48">
@@ -1625,13 +1625,13 @@
         <v>460</v>
       </c>
       <c r="B48" t="n">
-        <v>439.3463052695589</v>
+        <v>438.6789444501862</v>
       </c>
       <c r="C48" t="n">
         <v>77.89005398648374</v>
       </c>
       <c r="D48" t="n">
-        <v>0.7761436887149391</v>
+        <v>0.9909650300566295</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.1754470269878688</v>
+        <v>0.1754437113410193</v>
       </c>
       <c r="G48" t="n">
-        <v>8.647117100500971e-05</v>
+        <v>8.652517949261268e-05</v>
       </c>
     </row>
     <row r="49">
@@ -1650,13 +1650,13 @@
         <v>470</v>
       </c>
       <c r="B49" t="n">
-        <v>436.9764831157071</v>
+        <v>436.2630948078148</v>
       </c>
       <c r="C49" t="n">
         <v>77.84285107582355</v>
       </c>
       <c r="D49" t="n">
-        <v>0.7761391974858366</v>
+        <v>0.9909448024164267</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1664,10 +1664,10 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.1754270649472743</v>
+        <v>0.17542352986939</v>
       </c>
       <c r="G49" t="n">
-        <v>8.666637519753739e-05</v>
+        <v>8.672491274048641e-05</v>
       </c>
     </row>
     <row r="50">
@@ -1675,13 +1675,13 @@
         <v>480</v>
       </c>
       <c r="B50" t="n">
-        <v>434.6082324995057</v>
+        <v>433.8474411395082</v>
       </c>
       <c r="C50" t="n">
         <v>77.79559146104646</v>
       </c>
       <c r="D50" t="n">
-        <v>0.7761345696207113</v>
+        <v>0.9909243330722388</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.1754071708383442</v>
+        <v>0.1754034125686364</v>
       </c>
       <c r="G50" t="n">
-        <v>8.686368402459017e-05</v>
+        <v>8.692697487929037e-05</v>
       </c>
     </row>
     <row r="51">
@@ -1700,13 +1700,13 @@
         <v>490</v>
       </c>
       <c r="B51" t="n">
-        <v>432.2415561412633</v>
+        <v>431.4319840640891</v>
       </c>
       <c r="C51" t="n">
         <v>77.74827514739206</v>
       </c>
       <c r="D51" t="n">
-        <v>0.7761298017794787</v>
+        <v>0.9909036169213614</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1714,10 +1714,10 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.1753873478640539</v>
+        <v>0.1753833629542333</v>
       </c>
       <c r="G51" t="n">
-        <v>8.706314001418482e-05</v>
+        <v>8.713141614667958e-05</v>
       </c>
     </row>
     <row r="52">
@@ -1725,13 +1725,13 @@
         <v>500</v>
       </c>
       <c r="B52" t="n">
-        <v>429.8764567142395</v>
+        <v>429.016724150966</v>
       </c>
       <c r="C52" t="n">
         <v>77.7009021400994</v>
       </c>
       <c r="D52" t="n">
-        <v>0.7761248905133326</v>
+        <v>0.9908826486726861</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1739,10 +1739,10 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.1753675992350512</v>
+        <v>0.1753633845628879</v>
       </c>
       <c r="G52" t="n">
-        <v>8.726478719316795e-05</v>
+        <v>8.7338288625381e-05</v>
       </c>
     </row>
     <row r="53">
@@ -1750,13 +1750,13 @@
         <v>510</v>
       </c>
       <c r="B53" t="n">
-        <v>427.5129368447107</v>
+        <v>426.6016619193302</v>
       </c>
       <c r="C53" t="n">
         <v>77.6534724444071</v>
       </c>
       <c r="D53" t="n">
-        <v>0.7761198322601702</v>
+        <v>0.9908614228380421</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.1753479281691791</v>
+        <v>0.1753434809521613</v>
       </c>
       <c r="G53" t="n">
-        <v>8.74686711521013e-05</v>
+        <v>8.754764632791669e-05</v>
       </c>
     </row>
     <row r="54">
@@ -1775,13 +1775,13 @@
         <v>520</v>
       </c>
       <c r="B54" t="n">
-        <v>425.1509991120479</v>
+        <v>424.186797837321</v>
       </c>
       <c r="C54" t="n">
         <v>77.60598606555334</v>
       </c>
       <c r="D54" t="n">
-        <v>0.7761146233398456</v>
+        <v>0.9908399337231588</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1789,10 +1789,10 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.1753283378910032</v>
+        <v>0.1753236557000925</v>
       </c>
       <c r="G54" t="n">
-        <v>8.767483911269703e-05</v>
+        <v>8.7759545285047e-05</v>
       </c>
     </row>
     <row r="55">
@@ -1800,13 +1800,13 @@
         <v>530</v>
       </c>
       <c r="B55" t="n">
-        <v>422.7906460488063</v>
+        <v>421.7721323211583</v>
       </c>
       <c r="C55" t="n">
         <v>77.55844300877573</v>
       </c>
       <c r="D55" t="n">
-        <v>0.7761092599492475</v>
+        <v>0.990818175418236</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1814,10 +1814,10 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.1753088316313429</v>
+        <v>0.1753039124048239</v>
       </c>
       <c r="G55" t="n">
-        <v>8.788333999788026e-05</v>
+        <v>8.797404363807313e-05</v>
       </c>
     </row>
     <row r="56">
@@ -1825,13 +1825,13 @@
         <v>540</v>
       </c>
       <c r="B56" t="n">
-        <v>420.4318801408268</v>
+        <v>419.3576657342408</v>
       </c>
       <c r="C56" t="n">
         <v>77.51084327931159</v>
       </c>
       <c r="D56" t="n">
-        <v>0.7761037381571969</v>
+        <v>0.9907961417881067</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1839,10 +1839,10 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.1752894126268098</v>
+        <v>0.1752842546842288</v>
       </c>
       <c r="G56" t="n">
-        <v>8.809422450455968e-05</v>
+        <v>8.81912017351429e-05</v>
       </c>
     </row>
     <row r="57">
@@ -1850,13 +1850,13 @@
         <v>550</v>
       </c>
       <c r="B57" t="n">
-        <v>418.0747038273499</v>
+        <v>416.9433983862091</v>
       </c>
       <c r="C57" t="n">
         <v>77.46318688239739</v>
       </c>
       <c r="D57" t="n">
-        <v>0.7760980538991594</v>
+        <v>0.9907738264619796</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1864,10 +1864,10 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0.175270084119348</v>
+        <v>0.1752646861755422</v>
       </c>
       <c r="G57" t="n">
-        <v>8.830754517918743e-05</v>
+        <v>8.841108223170791e-05</v>
       </c>
     </row>
     <row r="58">
@@ -1875,13 +1875,13 @@
         <v>560</v>
       </c>
       <c r="B58" t="n">
-        <v>415.7191195011401</v>
+        <v>414.5293305319697</v>
       </c>
       <c r="C58" t="n">
         <v>77.41547382326939</v>
       </c>
       <c r="D58" t="n">
-        <v>0.7760922029717697</v>
+        <v>0.9907512228227433</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1889,10 +1889,10 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0.1752508493557826</v>
+        <v>0.1752452105349933</v>
       </c>
       <c r="G58" t="n">
-        <v>8.85233564961929e-05</v>
+        <v>8.863375019528724e-05</v>
       </c>
     </row>
     <row r="59">
@@ -1900,13 +1900,13 @@
         <v>570</v>
       </c>
       <c r="B59" t="n">
-        <v>413.3651295086232</v>
+        <v>412.1154623706813</v>
       </c>
       <c r="C59" t="n">
         <v>77.36770410716343</v>
       </c>
       <c r="D59" t="n">
-        <v>0.7760861810271608</v>
+        <v>0.9907283239958172</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1914,10 +1914,10 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.1752317115873708</v>
+        <v>0.1752258314374409</v>
       </c>
       <c r="G59" t="n">
-        <v>8.874171493937712e-05</v>
+        <v>8.885927321469719e-05</v>
       </c>
     </row>
     <row r="60">
@@ -1925,13 +1925,13 @@
         <v>580</v>
       </c>
       <c r="B60" t="n">
-        <v>411.0127361500336</v>
+        <v>409.7017940446991</v>
       </c>
       <c r="C60" t="n">
         <v>77.31987773931462</v>
       </c>
       <c r="D60" t="n">
-        <v>0.7760799835670924</v>
+        <v>0.9907051228375328</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1939,10 +1939,10 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.1752126740693604</v>
+        <v>0.1752065525760119</v>
       </c>
       <c r="G60" t="n">
-        <v>8.896267908635774e-05</v>
+        <v>8.908772151391313e-05</v>
       </c>
     </row>
     <row r="61">
@@ -1950,13 +1950,13 @@
         <v>590</v>
       </c>
       <c r="B61" t="n">
-        <v>408.6619416795733</v>
+        <v>407.2883256384766</v>
       </c>
       <c r="C61" t="n">
         <v>77.27199472495761</v>
       </c>
       <c r="D61" t="n">
-        <v>0.7760736059368791</v>
+        <v>0.9906816119230283</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1964,10 +1964,10 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.1751937400605514</v>
+        <v>0.175187377661742</v>
       </c>
       <c r="G61" t="n">
-        <v>8.918630969615541e-05</v>
+        <v>8.931916807073518e-05</v>
       </c>
     </row>
     <row r="62">
@@ -1975,13 +1975,13 @@
         <v>600</v>
       </c>
       <c r="B62" t="n">
-        <v>406.3127483055818</v>
+        <v>404.8750571774223</v>
       </c>
       <c r="C62" t="n">
         <v>77.22405506932677</v>
       </c>
       <c r="D62" t="n">
-        <v>0.7760670433191054</v>
+        <v>0.990657783533637</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1989,10 +1989,10 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0.1751749128228648</v>
+        <v>0.1751683104232201</v>
       </c>
       <c r="G62" t="n">
-        <v>8.941266980001758e-05</v>
+        <v>8.955368874043698e-05</v>
       </c>
     </row>
     <row r="63">
@@ -2000,13 +2000,13 @@
         <v>610</v>
       </c>
       <c r="B63" t="n">
-        <v>403.9651581907152</v>
+        <v>402.46198862671</v>
       </c>
       <c r="C63" t="n">
         <v>77.17605877765573</v>
       </c>
       <c r="D63" t="n">
-        <v>0.7760602907271279</v>
+        <v>0.9906336296437537</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2014,10 +2014,10 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0.1751561956209157</v>
+        <v>0.1751493546062358</v>
       </c>
       <c r="G63" t="n">
-        <v>8.964182479557782e-05</v>
+        <v>8.979136238458344e-05</v>
       </c>
     </row>
     <row r="64">
@@ -2025,13 +2025,13 @@
         <v>620</v>
       </c>
       <c r="B64" t="n">
-        <v>401.6191734521358</v>
+        <v>400.0491198900389</v>
       </c>
       <c r="C64" t="n">
         <v>77.128005855178</v>
       </c>
       <c r="D64" t="n">
-        <v>0.7760533429983564</v>
+        <v>0.9906091419071567</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2039,10 +2039,10 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.1751375917215924</v>
+        <v>0.1751305139734304</v>
       </c>
       <c r="G64" t="n">
-        <v>8.987384254445066e-05</v>
+        <v>9.003227100520925e-05</v>
       </c>
     </row>
     <row r="65">
@@ -2050,13 +2050,13 @@
         <v>630</v>
       </c>
       <c r="B65" t="n">
-        <v>399.2747961617114</v>
+        <v>397.6364508083445</v>
       </c>
       <c r="C65" t="n">
         <v>77.07989630712626</v>
       </c>
       <c r="D65" t="n">
-        <v>0.7760461947873103</v>
+        <v>0.9905843116427679</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2064,10 +2064,10 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.1751191043936406</v>
+        <v>0.1751117923039503</v>
       </c>
       <c r="G65" t="n">
-        <v>9.010879347336779e-05</v>
+        <v>9.027649988456048e-05</v>
       </c>
     </row>
     <row r="66">
@@ -2075,13 +2075,13 @@
         <v>640</v>
       </c>
       <c r="B66" t="n">
-        <v>396.9320283462225</v>
+        <v>395.2239811584548</v>
       </c>
       <c r="C66" t="n">
         <v>77.031730138733</v>
       </c>
       <c r="D66" t="n">
-        <v>0.7760388405584416</v>
+        <v>0.9905591298198294</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0.1751007369072532</v>
+        <v>0.1750931933931061</v>
       </c>
       <c r="G66" t="n">
-        <v>9.034675067896264e-05</v>
+        <v>9.052413773060665e-05</v>
       </c>
     </row>
     <row r="67">
@@ -2100,13 +2100,13 @@
         <v>650</v>
       </c>
       <c r="B67" t="n">
-        <v>394.5908719875782</v>
+        <v>392.8117106516912</v>
       </c>
       <c r="C67" t="n">
         <v>76.98350735522979</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7760312745787219</v>
+        <v>0.9905335870424732</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2114,10 +2114,10 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0.1750824925336658</v>
+        <v>0.1750747210520332</v>
       </c>
       <c r="G67" t="n">
-        <v>9.058779003631582e-05</v>
+        <v>9.077527682854141e-05</v>
       </c>
     </row>
     <row r="68">
@@ -2125,13 +2125,13 @@
         <v>660</v>
       </c>
       <c r="B68" t="n">
-        <v>392.2513290230393</v>
+        <v>390.3996389324112</v>
       </c>
       <c r="C68" t="n">
         <v>76.93522796184806</v>
       </c>
       <c r="D68" t="n">
-        <v>0.776023490909984</v>
+        <v>0.9905076735336653</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2139,10 +2139,10 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0.1750643745447577</v>
+        <v>0.1750563791073578</v>
       </c>
       <c r="G68" t="n">
-        <v>9.083199031137594e-05</v>
+        <v>9.103001319849742e-05</v>
       </c>
     </row>
     <row r="69">
@@ -2150,13 +2150,13 @@
         <v>670</v>
       </c>
       <c r="B69" t="n">
-        <v>389.9134013454482</v>
+        <v>387.9877655764909</v>
       </c>
       <c r="C69" t="n">
         <v>76.88689196381881</v>
       </c>
       <c r="D69" t="n">
-        <v>0.7760154834010142</v>
+        <v>0.9904813791184969</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2164,10 +2164,10 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0.1750463862126587</v>
+        <v>0.1750381714008669</v>
       </c>
       <c r="G69" t="n">
-        <v>9.107943327737775e-05</v>
+        <v>9.128844675971268e-05</v>
       </c>
     </row>
     <row r="70">
@@ -2175,13 +2175,13 @@
         <v>680</v>
       </c>
       <c r="B70" t="n">
-        <v>387.5770908034646</v>
+        <v>385.576090089744</v>
       </c>
       <c r="C70" t="n">
         <v>76.83849936637239</v>
       </c>
       <c r="D70" t="n">
-        <v>0.7760072456793872</v>
+        <v>0.9904546932067996</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2189,10 +2189,10 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0.1750285308093613</v>
+        <v>0.1750201017891814</v>
       </c>
       <c r="G70" t="n">
-        <v>9.13302038353783e-05</v>
+        <v>9.155068150139179e-05</v>
       </c>
     </row>
     <row r="71">
@@ -2200,13 +2200,13 @@
         <v>690</v>
       </c>
       <c r="B71" t="n">
-        <v>385.2423992018059</v>
+        <v>383.1646119062748</v>
       </c>
       <c r="C71" t="n">
         <v>76.79005017473872</v>
       </c>
       <c r="D71" t="n">
-        <v>0.7759987711430364</v>
+        <v>0.9904276047750616</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2214,10 +2214,10 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0.1750108116063385</v>
+        <v>0.1750021741434346</v>
       </c>
       <c r="G71" t="n">
-        <v>9.158439013904311e-05</v>
+        <v>9.181682566052029e-05</v>
       </c>
     </row>
     <row r="72">
@@ -2225,13 +2225,13 @@
         <v>700</v>
       </c>
       <c r="B72" t="n">
-        <v>382.9093283014918</v>
+        <v>380.7533303867629</v>
       </c>
       <c r="C72" t="n">
         <v>76.74154439414724</v>
       </c>
       <c r="D72" t="n">
-        <v>0.775990052951556</v>
+        <v>0.9904001023476136</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2239,10 +2239,10 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0.1749932318741676</v>
+        <v>0.1749843923489551</v>
       </c>
       <c r="G72" t="n">
-        <v>9.184208372381333e-05</v>
+        <v>9.208699190689881e-05</v>
       </c>
     </row>
     <row r="73">
@@ -2250,13 +2250,13 @@
         <v>710</v>
       </c>
       <c r="B73" t="n">
-        <v>380.5778798200917</v>
+        <v>378.3422448166755</v>
       </c>
       <c r="C73" t="n">
         <v>76.69298202982679</v>
       </c>
       <c r="D73" t="n">
-        <v>0.7759810840172197</v>
+        <v>0.9903721739770608</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2264,10 +2264,10 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0.1749757948821596</v>
+        <v>0.1749667603049536</v>
       </c>
       <c r="G73" t="n">
-        <v>9.210337964059332e-05</v>
+        <v>9.23612975356761e-05</v>
       </c>
     </row>
     <row r="74">
@@ -2275,13 +2275,13 @@
         <v>720</v>
       </c>
       <c r="B74" t="n">
-        <v>378.248055431973</v>
+        <v>375.931354404406</v>
       </c>
       <c r="C74" t="n">
         <v>76.64436308700596</v>
       </c>
       <c r="D74" t="n">
-        <v>0.7759718569957198</v>
+        <v>0.9903438072239311</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2289,10 +2289,10 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0.1749585038979941</v>
+        <v>0.1749492819242156</v>
       </c>
       <c r="G74" t="n">
-        <v>9.236837659410225e-05</v>
+        <v>9.263986466767228e-05</v>
       </c>
     </row>
     <row r="75">
@@ -2300,13 +2300,13 @@
         <v>730</v>
       </c>
       <c r="B75" t="n">
-        <v>375.9198567685508</v>
+        <v>373.5206582793339</v>
       </c>
       <c r="C75" t="n">
         <v>76.59568757091256</v>
       </c>
       <c r="D75" t="n">
-        <v>0.7759623642766065</v>
+        <v>0.9903149891355074</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2314,10 +2314,10 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0.1749413621873605</v>
+        <v>0.1749319611327977</v>
       </c>
       <c r="G75" t="n">
-        <v>9.263717708603834e-05</v>
+        <v>9.292282045779712e-05</v>
       </c>
     </row>
     <row r="76">
@@ -2325,13 +2325,13 @@
         <v>740</v>
       </c>
       <c r="B76" t="n">
-        <v>373.5932854185358</v>
+        <v>371.110155489804</v>
       </c>
       <c r="C76" t="n">
         <v>76.54695548677421</v>
       </c>
       <c r="D76" t="n">
-        <v>0.7759525979734292</v>
+        <v>0.9902857062238164</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2339,10 +2339,10 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0.174924373013604</v>
+        <v>0.1749148018697306</v>
       </c>
       <c r="G76" t="n">
-        <v>9.290988756321136e-05</v>
+        <v>9.321029731188091e-05</v>
       </c>
     </row>
     <row r="77">
@@ -2350,13 +2350,13 @@
         <v>750</v>
       </c>
       <c r="B77" t="n">
-        <v>371.2683429281795</v>
+        <v>368.6998450010209</v>
       </c>
       <c r="C77" t="n">
         <v>76.49816683981777</v>
       </c>
       <c r="D77" t="n">
-        <v>0.7759425499135655</v>
+        <v>0.9902559444427369</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2364,10 +2364,10 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.1749075396373782</v>
+        <v>0.1748978080867256</v>
       </c>
       <c r="G77" t="n">
-        <v>9.318661857080447e-05</v>
+        <v>9.350243311225185e-05</v>
       </c>
     </row>
     <row r="78">
@@ -2375,13 +2375,13 @@
         <v>760</v>
       </c>
       <c r="B78" t="n">
-        <v>368.9450308015161</v>
+        <v>366.2897256928553</v>
       </c>
       <c r="C78" t="n">
         <v>76.44932163526983</v>
       </c>
       <c r="D78" t="n">
-        <v>0.7759322116277299</v>
+        <v>0.9902256891641963</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2389,10 +2389,10 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0.1748908653163034</v>
+        <v>0.1748809837478882</v>
       </c>
       <c r="G78" t="n">
-        <v>9.346748491093255e-05</v>
+        <v>9.379937145240607e-05</v>
       </c>
     </row>
     <row r="79">
@@ -2400,13 +2400,13 @@
         <v>770</v>
       </c>
       <c r="B79" t="n">
-        <v>366.6233505005969</v>
+        <v>363.8797963575583</v>
       </c>
       <c r="C79" t="n">
         <v>76.40041987835662</v>
       </c>
       <c r="D79" t="n">
-        <v>0.7759215743391551</v>
+        <v>0.9901949251534188</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2414,10 +2414,10 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0.1748743533046296</v>
+        <v>0.1748643328294361</v>
       </c>
       <c r="G79" t="n">
-        <v>9.375260580667168e-05</v>
+        <v>9.410126188113642e-05</v>
       </c>
     </row>
     <row r="80">
@@ -2425,13 +2425,13 @@
         <v>780</v>
       </c>
       <c r="B80" t="n">
-        <v>364.3033034457192</v>
+        <v>361.470055697381</v>
       </c>
       <c r="C80" t="n">
         <v>76.35146157430341</v>
       </c>
       <c r="D80" t="n">
-        <v>0.7759106289524352</v>
+        <v>0.9901636365431864</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2439,10 +2439,10 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.1748580068529071</v>
+        <v>0.1748478593194235</v>
       </c>
       <c r="G80" t="n">
-        <v>9.404210507174172e-05</v>
+        <v>9.440826015650021e-05</v>
       </c>
     </row>
     <row r="81">
@@ -2450,13 +2450,13 @@
         <v>790</v>
       </c>
       <c r="B81" t="n">
-        <v>361.9848910156429</v>
+        <v>359.0605023220925</v>
       </c>
       <c r="C81" t="n">
         <v>76.30244672833555</v>
       </c>
       <c r="D81" t="n">
-        <v>0.7758993660420185</v>
+        <v>0.9901318068070752</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2464,10 +2464,10 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.1748418292076606</v>
+        <v>0.1748315672174712</v>
       </c>
       <c r="G81" t="n">
-        <v>9.433611128602979e-05</v>
+        <v>9.472052851002516e-05</v>
       </c>
     </row>
     <row r="82">
@@ -2475,13 +2475,13 @@
         <v>800</v>
       </c>
       <c r="B82" t="n">
-        <v>359.6681145477971</v>
+        <v>356.6511347463958</v>
       </c>
       <c r="C82" t="n">
         <v>76.25337534567745</v>
       </c>
       <c r="D82" t="n">
-        <v>0.7758877758403432</v>
+        <v>0.990099418731626</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2489,10 +2489,10 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.1748258236110716</v>
+        <v>0.174815460534503</v>
       </c>
       <c r="G82" t="n">
-        <v>9.463475797715293e-05</v>
+        <v>9.503823592157291e-05</v>
       </c>
     </row>
     <row r="83">
@@ -2500,13 +2500,13 @@
         <v>810</v>
       </c>
       <c r="B83" t="n">
-        <v>357.3529753384723</v>
+        <v>354.2419513872346</v>
       </c>
       <c r="C83" t="n">
         <v>76.20424743155326</v>
       </c>
       <c r="D83" t="n">
-        <v>0.775875848225603</v>
+        <v>0.9900664543874036</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2514,10 +2514,10 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.1748099933006635</v>
+        <v>0.1747995432924877</v>
       </c>
       <c r="G83" t="n">
-        <v>9.493818380826389e-05</v>
+        <v>9.536155840529726e-05</v>
       </c>
     </row>
     <row r="84">
@@ -2525,13 +2525,13 @@
         <v>820</v>
       </c>
       <c r="B84" t="n">
-        <v>355.0394746429949</v>
+        <v>351.8329505609869</v>
       </c>
       <c r="C84" t="n">
         <v>76.1550629911867</v>
       </c>
       <c r="D84" t="n">
-        <v>0.7758635727091315</v>
+        <v>0.9900328950989037</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2539,10 +2539,10 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.1747943415089958</v>
+        <v>0.174783819524189</v>
       </c>
       <c r="G84" t="n">
-        <v>9.524653277231512e-05</v>
+        <v>9.56906793071589e-05</v>
       </c>
     </row>
     <row r="85">
@@ -2550,13 +2550,13 @@
         <v>830</v>
       </c>
       <c r="B85" t="n">
-        <v>352.7276136758844</v>
+        <v>349.4241304805418</v>
       </c>
       <c r="C85" t="n">
         <v>76.10582202980083</v>
       </c>
       <c r="D85" t="n">
-        <v>0.7758509384223956</v>
+        <v>0.9899987214132575</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2564,10 +2564,10 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0.1747788714633608</v>
+        <v>0.1747682932729204</v>
       </c>
       <c r="G85" t="n">
-        <v>9.55599543930027e-05</v>
+        <v>9.602578961447755e-05</v>
       </c>
     </row>
     <row r="86">
@@ -2575,13 +2575,13 @@
         <v>840</v>
       </c>
       <c r="B86" t="n">
-        <v>350.4173936109877</v>
+        <v>347.0154892522534</v>
       </c>
       <c r="C86" t="n">
         <v>76.05652455261821</v>
       </c>
       <c r="D86" t="n">
-        <v>0.7758379341035792</v>
+        <v>0.9899639130676845</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2589,10 +2589,10 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0.1747635863854888</v>
+        <v>0.1747529685923082</v>
       </c>
       <c r="G86" t="n">
-        <v>9.587860393262408e-05</v>
+        <v>9.636708827802872e-05</v>
       </c>
     </row>
     <row r="87">
@@ -2600,13 +2600,13 @@
         <v>850</v>
       </c>
       <c r="B87" t="n">
-        <v>348.1088155815889</v>
+        <v>344.6070248727667</v>
       </c>
       <c r="C87" t="n">
         <v>76.00717056486133</v>
       </c>
       <c r="D87" t="n">
-        <v>0.7758245480837558</v>
+        <v>0.9899284489556444</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2614,10 +2614,10 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.1747484894912567</v>
+        <v>0.1747378495460611</v>
       </c>
       <c r="G87" t="n">
-        <v>9.620264260709245e-05</v>
+        <v>9.671478254721765e-05</v>
       </c>
     </row>
     <row r="88">
@@ -2625,13 +2625,13 @@
         <v>860</v>
       </c>
       <c r="B88" t="n">
-        <v>345.8018806804922</v>
+        <v>342.1987352257109</v>
       </c>
       <c r="C88" t="n">
         <v>75.95776007175164</v>
       </c>
       <c r="D88" t="n">
-        <v>0.7758107682726237</v>
+        <v>0.9898923070916293</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0.1747335839904041</v>
+        <v>0.1747229402077474</v>
       </c>
       <c r="G88" t="n">
-        <v>9.653223780836105e-05</v>
+        <v>9.706908831888792e-05</v>
       </c>
     </row>
     <row r="89">
@@ -2650,13 +2650,13 @@
         <v>870</v>
       </c>
       <c r="B89" t="n">
-        <v>343.4965899600734</v>
+        <v>339.7906180782538</v>
       </c>
       <c r="C89" t="n">
         <v>75.90829307851044</v>
       </c>
       <c r="D89" t="n">
-        <v>0.7757965821438002</v>
+        <v>0.9898554645745444</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2664,10 +2664,10 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0.1747188730862539</v>
+        <v>0.174708244660579</v>
       </c>
       <c r="G89" t="n">
-        <v>9.686756333452218e-05</v>
+        <v>9.74302305003529e-05</v>
       </c>
     </row>
     <row r="90">
@@ -2675,13 +2675,13 @@
         <v>880</v>
       </c>
       <c r="B90" t="n">
-        <v>341.1929444322972</v>
+        <v>337.3826710775111</v>
       </c>
       <c r="C90" t="n">
         <v>75.85876959035841</v>
       </c>
       <c r="D90" t="n">
-        <v>0.7757819767196532</v>
+        <v>0.9898178975496116</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2689,10 +2689,10 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0.174704359975439</v>
+        <v>0.1746937669972047</v>
       </c>
       <c r="G90" t="n">
-        <v>9.720879962786012e-05</v>
+        <v>9.779844338726825e-05</v>
       </c>
     </row>
     <row r="91">
@@ -2700,13 +2700,13 @@
         <v>890</v>
       </c>
       <c r="B91" t="n">
-        <v>338.890945068697</v>
+        <v>334.9748917468059</v>
       </c>
       <c r="C91" t="n">
         <v>75.80918961251575</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7757669385556593</v>
+        <v>0.9897795811687377</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2714,10 +2714,10 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.1746900478476352</v>
+        <v>0.1746795113195092</v>
       </c>
       <c r="G91" t="n">
-        <v>9.755613402114394e-05</v>
+        <v>9.817397105699305e-05</v>
       </c>
     </row>
     <row r="92">
@@ -2725,13 +2725,13 @@
         <v>900</v>
       </c>
       <c r="B92" t="n">
-        <v>336.5905928003134</v>
+        <v>332.56727748177</v>
       </c>
       <c r="C92" t="n">
         <v>75.75955315020241</v>
       </c>
       <c r="D92" t="n">
-        <v>0.7757514537242702</v>
+        <v>0.9897404895492782</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2739,10 +2739,10 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0.1746759398852985</v>
+        <v>0.1746654817384227</v>
       </c>
       <c r="G92" t="n">
-        <v>9.790976099246724e-05</v>
+        <v>9.855706777812668e-05</v>
       </c>
     </row>
     <row r="93">
@@ -2750,13 +2750,13 @@
         <v>910</v>
       </c>
       <c r="B93" t="n">
-        <v>334.2918885175871</v>
+        <v>330.159825546282</v>
       </c>
       <c r="C93" t="n">
         <v>75.70986020863745</v>
       </c>
       <c r="D93" t="n">
-        <v>0.7757355077982713</v>
+        <v>0.9897005957311288</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2764,10 +2764,10 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0.1746620392634097</v>
+        <v>0.1746516823737378</v>
       </c>
       <c r="G93" t="n">
-        <v>9.826988242894902e-05</v>
+        <v>9.894799843693895e-05</v>
       </c>
     </row>
     <row r="94">
@@ -2775,13 +2775,13 @@
         <v>920</v>
       </c>
       <c r="B94" t="n">
-        <v>331.994833070202</v>
+        <v>327.7525330682341</v>
       </c>
       <c r="C94" t="n">
         <v>75.66011079303985</v>
       </c>
       <c r="D94" t="n">
-        <v>0.7757190858336149</v>
+        <v>0.9896598716320688</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0.1746483491492232</v>
+        <v>0.174638117353935</v>
       </c>
       <c r="G94" t="n">
-        <v>9.863670789962905e-05</v>
+        <v>9.934703898145393e-05</v>
       </c>
     </row>
     <row r="95">
@@ -2800,13 +2800,13 @@
         <v>930</v>
       </c>
       <c r="B95" t="n">
-        <v>329.6994272668754</v>
+        <v>325.3453970351206</v>
       </c>
       <c r="C95" t="n">
         <v>75.61030490862794</v>
       </c>
       <c r="D95" t="n">
-        <v>0.7757021723517092</v>
+        <v>0.989618288001283</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2814,10 +2814,10 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0.1746348727020224</v>
+        <v>0.174624790816018</v>
       </c>
       <c r="G95" t="n">
-        <v>9.901045493790574e-05</v>
+        <v>9.97544768839876e-05</v>
       </c>
     </row>
     <row r="96">
@@ -2825,13 +2825,13 @@
         <v>940</v>
       </c>
       <c r="B96" t="n">
-        <v>327.4056718750885</v>
+        <v>322.9384142894407</v>
       </c>
       <c r="C96" t="n">
         <v>75.56044256061955</v>
       </c>
       <c r="D96" t="n">
-        <v>0.7756847513211456</v>
+        <v>0.989575814370977</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2839,10 +2839,10 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0.1746216130728807</v>
+        <v>0.1746117069053578</v>
       </c>
       <c r="G96" t="n">
-        <v>9.939134933388042e-05</v>
+        <v>0.0001001706116229831</v>
       </c>
     </row>
     <row r="97">
@@ -2850,13 +2850,13 @@
         <v>950</v>
       </c>
       <c r="B97" t="n">
-        <v>325.1135676207548</v>
+        <v>320.5315815239065</v>
       </c>
       <c r="C97" t="n">
         <v>75.51052375423194</v>
       </c>
       <c r="D97" t="n">
-        <v>0.7756668061388408</v>
+        <v>0.9895324190060031</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2864,10 +2864,10 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0.1746085734044276</v>
+        <v>0.174598869775547</v>
       </c>
       <c r="G97" t="n">
-        <v>9.977962543699067e-05</v>
+        <v>0.0001005957551850337</v>
       </c>
     </row>
     <row r="98">
@@ -2875,13 +2875,13 @@
         <v>960</v>
       </c>
       <c r="B98" t="n">
-        <v>322.8231151878204</v>
+        <v>318.1248952764498</v>
       </c>
       <c r="C98" t="n">
         <v>75.46054849468209</v>
       </c>
       <c r="D98" t="n">
-        <v>0.7756483196105773</v>
+        <v>0.9894880688514047</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2889,10 +2889,10 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0.1745957568306213</v>
+        <v>0.1745862835882633</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0001001755264693338</v>
+        <v>0.0001010302325880358</v>
       </c>
     </row>
     <row r="99">
@@ -2900,13 +2900,13 @@
         <v>970</v>
       </c>
       <c r="B99" t="n">
-        <v>320.5343152177903</v>
+        <v>315.7183519250156</v>
       </c>
       <c r="C99" t="n">
         <v>75.41051678718628</v>
       </c>
       <c r="D99" t="n">
-        <v>0.7756292739309145</v>
+        <v>0.9894427294777857</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2914,10 +2914,10 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0.1745831664765263</v>
+        <v>0.1745739525131443</v>
       </c>
       <c r="G99" t="n">
-        <v>0.000100579304850102</v>
+        <v>0.0001014743824264653</v>
       </c>
     </row>
     <row r="100">
@@ -2925,13 +2925,13 @@
         <v>980</v>
       </c>
       <c r="B100" t="n">
-        <v>318.2471683091767</v>
+        <v>313.3119476821368</v>
       </c>
       <c r="C100" t="n">
         <v>75.36042863696048</v>
       </c>
       <c r="D100" t="n">
-        <v>0.7756096506624518</v>
+        <v>0.9893963650244021</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2939,10 +2939,10 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0.1745708054580978</v>
+        <v>0.174561880727672</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0001009912225315694</v>
+        <v>0.0001019285574398268</v>
       </c>
     </row>
     <row r="101">
@@ -2950,13 +2950,13 @@
         <v>990</v>
       </c>
       <c r="B101" t="n">
-        <v>315.9616750168632</v>
+        <v>310.9056785892772</v>
       </c>
       <c r="C101" t="n">
         <v>75.31028404922012</v>
       </c>
       <c r="D101" t="n">
-        <v>0.7755894307144163</v>
+        <v>0.9893489381398713</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2964,10 +2964,10 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0.1745586768819704</v>
+        <v>0.1745500724170695</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0001014115513470985</v>
+        <v>0.0001023931251053909</v>
       </c>
     </row>
     <row r="102">
@@ -2975,13 +2975,13 @@
         <v>1000</v>
       </c>
       <c r="B102" t="n">
-        <v>313.6778358513782</v>
+        <v>308.499540510934</v>
       </c>
       <c r="C102" t="n">
         <v>75.26008302918012</v>
       </c>
       <c r="D102" t="n">
-        <v>0.775568594320551</v>
+        <v>0.9893004099203868</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2989,10 +2989,10 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0.1745467838452541</v>
+        <v>0.1745385317742076</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0001018405733716518</v>
+        <v>0.0001028684682563933</v>
       </c>
     </row>
     <row r="103">
@@ -3000,13 +3000,13 @@
         <v>1010</v>
       </c>
       <c r="B103" t="n">
-        <v>311.3956512780725</v>
+        <v>306.0935291284896</v>
       </c>
       <c r="C103" t="n">
         <v>75.20982558205492</v>
       </c>
       <c r="D103" t="n">
-        <v>0.7755471210162748</v>
+        <v>0.9892507398453179</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -3014,10 +3014,10 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0.1745351294353351</v>
+        <v>0.174527262999525</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0001022785812953244</v>
+        <v>0.0001033549857269446</v>
       </c>
     </row>
     <row r="104">
@@ -3025,13 +3025,13 @@
         <v>1020</v>
       </c>
       <c r="B104" t="n">
-        <v>309.1151217161954</v>
+        <v>303.6876399337992</v>
       </c>
       <c r="C104" t="n">
         <v>75.15951171305852</v>
       </c>
       <c r="D104" t="n">
-        <v>0.7755249896150868</v>
+        <v>0.989199885710071</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -3039,10 +3039,10 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0.174523716729683</v>
+        <v>0.1745162703009593</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0001027258788104364</v>
+        <v>0.0001038530930249721</v>
       </c>
     </row>
     <row r="105">
@@ -3050,13 +3050,13 @@
         <v>1030</v>
       </c>
       <c r="B105" t="n">
-        <v>306.8362475378599</v>
+        <v>301.281868222505</v>
       </c>
       <c r="C105" t="n">
         <v>75.10914142740455</v>
       </c>
       <c r="D105" t="n">
-        <v>0.7755021781841835</v>
+        <v>0.9891478035560773</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -3064,10 +3064,10 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0.1745125487956645</v>
+        <v>0.1745055578938913</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0001031827810127579</v>
+        <v>0.0001043632230345954</v>
       </c>
     </row>
     <row r="106">
@@ -3075,13 +3075,13 @@
         <v>1040</v>
       </c>
       <c r="B106" t="n">
-        <v>304.5590290668948</v>
+        <v>298.8762090870626</v>
       </c>
       <c r="C106" t="n">
         <v>75.05871473030595</v>
       </c>
       <c r="D106" t="n">
-        <v>0.7754786640192611</v>
+        <v>0.9890944475977671</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -3089,10 +3089,10 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0.1745016286903614</v>
+        <v>0.1744951300011028</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0001036496148174634</v>
+        <v>0.0001048858267494244</v>
       </c>
     </row>
     <row r="107">
@@ -3100,13 +3100,13 @@
         <v>1050</v>
       </c>
       <c r="B107" t="n">
-        <v>302.2834665775719</v>
+        <v>296.4706574094672</v>
       </c>
       <c r="C107" t="n">
         <v>75.00823162697515</v>
       </c>
       <c r="D107" t="n">
-        <v>0.7754544236184618</v>
+        <v>0.9890397701463808</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -3114,10 +3114,10 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0.1744909594603969</v>
+        <v>0.1744849908527475</v>
       </c>
       <c r="G107" t="n">
-        <v>0.0001041267193904505</v>
+        <v>0.0001054213740383596</v>
       </c>
     </row>
     <row r="108">
@@ -3125,13 +3125,13 @@
         <v>1060</v>
       </c>
       <c r="B108" t="n">
-        <v>300.0095602932053</v>
+        <v>294.065207853665</v>
       </c>
       <c r="C108" t="n">
         <v>74.95769212262434</v>
       </c>
       <c r="D108" t="n">
-        <v>0.7754294326554361</v>
+        <v>0.9889837215304573</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -3139,10 +3139,10 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0.1744805441417666</v>
+        <v>0.1744751446863364</v>
       </c>
       <c r="G108" t="n">
-        <v>0.000104614446595692</v>
+        <v>0.000105970354445576</v>
       </c>
     </row>
     <row r="109">
@@ -3150,13 +3150,13 @@
         <v>1070</v>
       </c>
       <c r="B109" t="n">
-        <v>297.7373103846134</v>
+        <v>291.6598548576369</v>
       </c>
       <c r="C109" t="n">
         <v>74.90709622246516</v>
       </c>
       <c r="D109" t="n">
-        <v>0.7754036659514799</v>
+        <v>0.9889262500128322</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -3164,10 +3164,10 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0.1744703857596761</v>
+        <v>0.1744655957467376</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0001051131614593231</v>
+        <v>0.0001065332780264777</v>
       </c>
     </row>
     <row r="110">
@@ -3175,13 +3175,13 @@
         <v>1080</v>
       </c>
       <c r="B110" t="n">
-        <v>295.4667169684352</v>
+        <v>289.2545926251366</v>
       </c>
       <c r="C110" t="n">
         <v>74.8564439317085</v>
       </c>
       <c r="D110" t="n">
-        <v>0.7753770974467088</v>
+        <v>0.9888673017039651</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -3189,10 +3189,10 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0.1744604873283856</v>
+        <v>0.1744563482861922</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0001056232426512126</v>
+        <v>0.000107110676221525</v>
       </c>
     </row>
     <row r="111">
@@ -3200,13 +3200,13 @@
         <v>1090</v>
       </c>
       <c r="B111" t="n">
-        <v>293.1977801052966</v>
+        <v>286.8494151170689</v>
       </c>
       <c r="C111" t="n">
         <v>74.80573525556508</v>
       </c>
       <c r="D111" t="n">
-        <v>0.775349700170224</v>
+        <v>0.9888068204714063</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -3214,10 +3214,10 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0.1744508518510603</v>
+        <v>0.174447406564345</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0001061450829848027</v>
+        <v>0.0001077031027699617</v>
       </c>
     </row>
     <row r="112">
@@ -3225,13 +3225,13 @@
         <v>1100</v>
       </c>
       <c r="B112" t="n">
-        <v>290.9304997978145</v>
+        <v>284.4443160424899</v>
       </c>
       <c r="C112" t="n">
         <v>74.75497019924501</v>
       </c>
       <c r="D112" t="n">
-        <v>0.7753214462092318</v>
+        <v>0.9887447478452012</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -3239,10 +3239,10 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0.1744414823196277</v>
+        <v>0.1744387748482926</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0001066790899360523</v>
+        <v>0.0001083111346656045</v>
       </c>
     </row>
     <row r="113">
@@ -3250,13 +3250,13 @@
         <v>1110</v>
       </c>
       <c r="B113" t="n">
-        <v>288.6648759884345</v>
+        <v>282.0392888492115</v>
       </c>
       <c r="C113" t="n">
         <v>74.70414876795797</v>
       </c>
       <c r="D113" t="n">
-        <v>0.7752923066770624</v>
+        <v>0.9886810229190122</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -3264,10 +3264,10 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0.1744323817146416</v>
+        <v>0.1744304574126487</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0001072256861823647</v>
+        <v>0.0001089353731569973</v>
       </c>
     </row>
     <row r="114">
@@ -3275,13 +3275,13 @@
         <v>1120</v>
       </c>
       <c r="B114" t="n">
-        <v>286.4009085570911</v>
+        <v>279.6343267139903</v>
       </c>
       <c r="C114" t="n">
         <v>74.65327096691311</v>
       </c>
       <c r="D114" t="n">
-        <v>0.7752622516800454</v>
+        <v>0.9886155822467325</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -3289,10 +3289,10 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0.1744235530051536</v>
+        <v>0.1744224585396266</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0001077853101624338</v>
+        <v>0.0001095764447943951</v>
       </c>
     </row>
     <row r="115">
@@ -3300,13 +3300,13 @@
         <v>1130</v>
       </c>
       <c r="B115" t="n">
-        <v>284.1385973186844</v>
+        <v>277.2294225322821</v>
       </c>
       <c r="C115" t="n">
         <v>74.60233680131921</v>
       </c>
       <c r="D115" t="n">
-        <v>0.7752312502831835</v>
+        <v>0.9885483597343427</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -3314,10 +3314,10 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0.1744149991485907</v>
+        <v>0.1744147825191411</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0001083584166579985</v>
+        <v>0.0001102350025262071</v>
       </c>
     </row>
     <row r="116">
@@ -3325,13 +3325,13 @@
         <v>1140</v>
       </c>
       <c r="B116" t="n">
-        <v>281.877942020363</v>
+        <v>274.8245689075379</v>
       </c>
       <c r="C116" t="n">
         <v>74.55134627638421</v>
       </c>
       <c r="D116" t="n">
-        <v>0.7751992704745723</v>
+        <v>0.9884792865267485</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -3339,10 +3339,10 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0.1744067230906411</v>
+        <v>0.1744074336489296</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0001089454773985563</v>
+        <v>0.0001109117268477115</v>
       </c>
     </row>
     <row r="117">
@@ -3350,13 +3350,13 @@
         <v>1150</v>
       </c>
       <c r="B117" t="n">
-        <v>279.6189423386056</v>
+        <v>272.4197581400219</v>
       </c>
       <c r="C117" t="n">
         <v>74.5002993973161</v>
       </c>
       <c r="D117" t="n">
-        <v>0.775166279128504</v>
+        <v>0.9884082908893185</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -3364,10 +3364,10 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0.1743987277651469</v>
+        <v>0.1744004162346938</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0001095469816901474</v>
+        <v>0.0001116073270050556</v>
       </c>
     </row>
     <row r="118">
@@ -3375,13 +3375,13 @@
         <v>1160</v>
       </c>
       <c r="B118" t="n">
-        <v>277.652414542567</v>
+        <v>270.382866324446</v>
       </c>
       <c r="C118" t="n">
         <v>74.47020727347456</v>
       </c>
       <c r="D118" t="n">
-        <v>0.7751322419671951</v>
+        <v>0.9883352980838229</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -3389,10 +3389,10 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>0.1743910160940051</v>
+        <v>0.174393734590262</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0001101634370693964</v>
+        <v>0.0001123225422577649</v>
       </c>
     </row>
     <row r="119">
@@ -3400,13 +3400,13 @@
         <v>1170</v>
       </c>
       <c r="B119" t="n">
-        <v>275.6873272128055</v>
+        <v>268.345988335944</v>
       </c>
       <c r="C119" t="n">
         <v>74.44011653995358</v>
       </c>
       <c r="D119" t="n">
-        <v>0.7750971699518246</v>
+        <v>0.9882712320525179</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -3414,10 +3414,10 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0.1743867730575932</v>
+        <v>0.1743903933784566</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0001107203037579873</v>
+        <v>0.0001129512459093459</v>
       </c>
     </row>
     <row r="120">
@@ -3425,13 +3425,13 @@
         <v>1180</v>
       </c>
       <c r="B120" t="n">
-        <v>273.7236781383837</v>
+        <v>266.3091169852335</v>
       </c>
       <c r="C120" t="n">
         <v>74.41002719668893</v>
       </c>
       <c r="D120" t="n">
-        <v>0.7750611929487258</v>
+        <v>0.9882056064936388</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -3439,10 +3439,10 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>0.1743827574737746</v>
+        <v>0.1743873066880226</v>
       </c>
       <c r="G120" t="n">
-        <v>0.0001112894409468768</v>
+        <v>0.0001135952889627678</v>
       </c>
     </row>
     <row r="121">
@@ -3450,13 +3450,13 @@
         <v>1190</v>
       </c>
       <c r="B121" t="n">
-        <v>271.7614650256321</v>
+        <v>264.2722448463841</v>
       </c>
       <c r="C121" t="n">
         <v>74.37993924361638</v>
       </c>
       <c r="D121" t="n">
-        <v>0.7750242844174232</v>
+        <v>0.9881383697110417</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3464,10 +3464,10 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0.1743789712553105</v>
+        <v>0.174384477229691</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0001118712242197887</v>
+        <v>0.0001142551839290444</v>
       </c>
     </row>
     <row r="122">
@@ -3475,13 +3475,13 @@
         <v>1200</v>
       </c>
       <c r="B122" t="n">
-        <v>269.8006854958899</v>
+        <v>262.2353642489619</v>
       </c>
       <c r="C122" t="n">
         <v>74.34985268067169</v>
       </c>
       <c r="D122" t="n">
-        <v>0.7749864170091383</v>
+        <v>0.9880694681700101</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -3489,10 +3489,10 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>0.1743754163081918</v>
+        <v>0.1743819077207879</v>
       </c>
       <c r="G122" t="n">
-        <v>0.0001124660412222586</v>
+        <v>0.0001149314617750247</v>
       </c>
     </row>
     <row r="123">
@@ -3500,13 +3500,13 @@
         <v>1210</v>
       </c>
       <c r="B123" t="n">
-        <v>267.841337083142</v>
+        <v>260.1984672698648</v>
       </c>
       <c r="C123" t="n">
         <v>74.31976750779063</v>
       </c>
       <c r="D123" t="n">
-        <v>0.7749475625418942</v>
+        <v>0.9879988464286026</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -3514,10 +3514,10 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>0.1743720945316506</v>
+        <v>0.1743796008854223</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0001130742920545834</v>
+        <v>0.0001156246726276351</v>
       </c>
     </row>
     <row r="124">
@@ -3525,13 +3525,13 @@
         <v>1220</v>
       </c>
       <c r="B124" t="n">
-        <v>265.8834172315514</v>
+        <v>258.1615457248368</v>
       </c>
       <c r="C124" t="n">
         <v>74.28968372490897</v>
       </c>
       <c r="D124" t="n">
-        <v>0.7749076919747491</v>
+        <v>0.987926447066077</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -3539,10 +3539,10 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>0.1743690078181792</v>
+        <v>0.1743775594546877</v>
       </c>
       <c r="G124" t="n">
-        <v>0.000113696389679217</v>
+        <v>0.0001163353865090324</v>
       </c>
     </row>
     <row r="125">
@@ -3550,13 +3550,13 @@
         <v>1230</v>
       </c>
       <c r="B125" t="n">
-        <v>263.9269232928826</v>
+        <v>256.1245911596455</v>
       </c>
       <c r="C125" t="n">
         <v>74.25960133196247</v>
       </c>
       <c r="D125" t="n">
-        <v>0.7748667753811171</v>
+        <v>0.9878522106082318</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -3564,10 +3564,10 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0.1743661580535509</v>
+        <v>0.1743757861668759</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0001143327603432841</v>
+        <v>0.0001170641941043446</v>
       </c>
     </row>
     <row r="126">
@@ -3575,13 +3575,13 @@
         <v>1240</v>
       </c>
       <c r="B126" t="n">
-        <v>261.9718525238131</v>
+        <v>254.0875948409077</v>
       </c>
       <c r="C126" t="n">
         <v>74.22952032888691</v>
       </c>
       <c r="D126" t="n">
-        <v>0.7748247819211399</v>
+        <v>0.9877760754495021</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -3589,10 +3589,10 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0.1743635471168493</v>
+        <v>0.1743742837677067</v>
       </c>
       <c r="G126" t="n">
-        <v>0.0001149838440169267</v>
+        <v>0.0001178117075637889</v>
       </c>
     </row>
     <row r="127">
@@ -3600,13 +3600,13 @@
         <v>1250</v>
       </c>
       <c r="B127" t="n">
-        <v>260.0182020831308</v>
+        <v>252.0505477465456</v>
       </c>
       <c r="C127" t="n">
         <v>74.19944071561815</v>
       </c>
       <c r="D127" t="n">
-        <v>0.7747816798130562</v>
+        <v>0.9876979777716359</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -3614,10 +3614,10 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>0.1743611768805</v>
+        <v>0.1743730550105705</v>
       </c>
       <c r="G127" t="n">
-        <v>0.0001156500948482345</v>
+        <v>0.0001185785613410708</v>
       </c>
     </row>
     <row r="128">
@@ -3625,13 +3625,13 @@
         <v>1260</v>
       </c>
       <c r="B128" t="n">
-        <v>258.065969028812</v>
+        <v>250.0134405558586</v>
       </c>
       <c r="C128" t="n">
         <v>74.16936249209175</v>
       </c>
       <c r="D128" t="n">
-        <v>0.7747374363035331</v>
+        <v>0.9876178514587615</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -3639,10 +3639,10 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>0.1743590492103097</v>
+        <v>0.1743721026567875</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0001163319816355602</v>
+        <v>0.0001193654130701076</v>
       </c>
     </row>
     <row r="129">
@@ -3650,13 +3650,13 @@
         <v>1270</v>
       </c>
       <c r="B129" t="n">
-        <v>256.1151503149794</v>
+        <v>247.9762636391899</v>
       </c>
       <c r="C129" t="n">
         <v>74.13928565824381</v>
       </c>
       <c r="D129" t="n">
-        <v>0.7746920176368977</v>
+        <v>0.9875356280086475</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -3664,10 +3664,10 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>0.17435716596551</v>
+        <v>0.1743714294758815</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0001170299883180647</v>
+        <v>0.0001201729444822478</v>
       </c>
     </row>
     <row r="130">
@@ -3675,13 +3675,13 @@
         <v>1280</v>
       </c>
       <c r="B130" t="n">
-        <v>254.1657427887355</v>
+        <v>245.9390070471698</v>
       </c>
       <c r="C130" t="n">
         <v>74.10921021400998</v>
       </c>
       <c r="D130" t="n">
-        <v>0.774645389023224</v>
+        <v>0.9874512364399429</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -3689,10 +3689,10 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>0.1743555289988068</v>
+        <v>0.1743710382458723</v>
       </c>
       <c r="G130" t="n">
-        <v>0.000117744614485392</v>
+        <v>0.0001210018623663182</v>
       </c>
     </row>
     <row r="131">
@@ -3700,13 +3700,13 @@
         <v>1290</v>
       </c>
       <c r="B131" t="n">
-        <v>252.2177431868678</v>
+        <v>243.9016604995142</v>
       </c>
       <c r="C131" t="n">
         <v>74.07913615932614</v>
       </c>
       <c r="D131" t="n">
-        <v>0.7745975146052171</v>
+        <v>0.9873646031951697</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -3714,10 +3714,10 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>0.174354140156436</v>
+        <v>0.1743709317535833</v>
       </c>
       <c r="G131" t="n">
-        <v>0.0001184763759074243</v>
+        <v>0.0001218528995739867</v>
       </c>
     </row>
     <row r="132">
@@ -3725,13 +3725,13 @@
         <v>1300</v>
       </c>
       <c r="B132" t="n">
-        <v>250.2711481324245</v>
+        <v>241.8642133733587</v>
       </c>
       <c r="C132" t="n">
         <v>74.04906349412784</v>
       </c>
       <c r="D132" t="n">
-        <v>0.774548357423832</v>
+        <v>0.987275652039221</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>0.1743530012782248</v>
+        <v>0.1743711127949691</v>
       </c>
       <c r="G132" t="n">
-        <v>0.0001192258050851322</v>
+        <v>0.0001227268160731086</v>
       </c>
     </row>
     <row r="133">
@@ -3750,13 +3750,13 @@
         <v>1310</v>
       </c>
       <c r="B133" t="n">
-        <v>248.3259541311551</v>
+        <v>239.8266546911011</v>
       </c>
       <c r="C133" t="n">
         <v>74.01899221835106</v>
       </c>
       <c r="D133" t="n">
-        <v>0.7744978793825681</v>
+        <v>0.9871843039531099</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -3764,10 +3764,10 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>0.1743521141976599</v>
+        <v>0.1743715841754611</v>
       </c>
       <c r="G133" t="n">
-        <v>0.0001199934518235908</v>
+        <v>0.0001236244000519133</v>
       </c>
     </row>
     <row r="134">
@@ -3775,13 +3775,13 @@
         <v>1320</v>
       </c>
       <c r="B134" t="n">
-        <v>246.0933017833082</v>
+        <v>237.4215200655273</v>
       </c>
       <c r="C134" t="n">
         <v>73.97116731200049</v>
       </c>
       <c r="D134" t="n">
-        <v>0.7744460412103701</v>
+        <v>0.9870904770226845</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -3789,10 +3789,10 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>0.1743514807419612</v>
+        <v>0.1743723487103334</v>
       </c>
       <c r="G134" t="n">
-        <v>0.0001207798838283059</v>
+        <v>0.0001245464690770928</v>
       </c>
     </row>
     <row r="135">
@@ -3800,13 +3800,13 @@
         <v>1330</v>
       </c>
       <c r="B135" t="n">
-        <v>243.8623131244613</v>
+        <v>235.016259170972</v>
       </c>
       <c r="C135" t="n">
         <v>73.92335168147258</v>
       </c>
       <c r="D135" t="n">
-        <v>0.7743893975279792</v>
+        <v>0.9869771787552188</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3814,10 +3814,10 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>0.1743489916285171</v>
+        <v>0.1743716998466149</v>
       </c>
       <c r="G135" t="n">
-        <v>0.0001216987585093445</v>
+        <v>0.0001256591157948354</v>
       </c>
     </row>
     <row r="136">
@@ -3825,13 +3825,13 @@
         <v>1340</v>
       </c>
       <c r="B136" t="n">
-        <v>241.6329863140875</v>
+        <v>232.6108570325869</v>
       </c>
       <c r="C136" t="n">
         <v>73.87554532633919</v>
       </c>
       <c r="D136" t="n">
-        <v>0.774330910186052</v>
+        <v>0.9868601962646364</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -3839,10 +3839,10 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>0.1743468418004483</v>
+        <v>0.1743714666070674</v>
       </c>
       <c r="G136" t="n">
-        <v>0.000122643905433857</v>
+        <v>0.0001268081643539461</v>
       </c>
     </row>
     <row r="137">
@@ -3850,13 +3850,13 @@
         <v>1350</v>
       </c>
       <c r="B137" t="n">
-        <v>239.4053193408173</v>
+        <v>230.2052980601956</v>
       </c>
       <c r="C137" t="n">
         <v>73.82774824617161</v>
       </c>
       <c r="D137" t="n">
-        <v>0.7742705161029741</v>
+        <v>0.9867393795313469</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3864,10 +3864,10 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>0.1743450339906323</v>
+        <v>0.1743716535378494</v>
       </c>
       <c r="G137" t="n">
-        <v>0.0001236162744666907</v>
+        <v>0.0001279951142152999</v>
       </c>
     </row>
     <row r="138">
@@ -3875,13 +3875,13 @@
         <v>1360</v>
       </c>
       <c r="B138" t="n">
-        <v>237.1793100140642</v>
+        <v>227.7995660215392</v>
       </c>
       <c r="C138" t="n">
         <v>73.77996044054123</v>
       </c>
       <c r="D138" t="n">
-        <v>0.774208149949951</v>
+        <v>0.9866145719441032</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -3889,10 +3889,10 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>0.1743435709203072</v>
+        <v>0.1743722652021261</v>
       </c>
       <c r="G138" t="n">
-        <v>0.0001246168516126911</v>
+        <v>0.0001292215319878752</v>
       </c>
     </row>
     <row r="139">
@@ -3900,13 +3900,13 @@
         <v>1370</v>
       </c>
       <c r="B139" t="n">
-        <v>234.9549559552971</v>
+        <v>225.3936440141227</v>
       </c>
       <c r="C139" t="n">
         <v>73.7321819090198</v>
       </c>
       <c r="D139" t="n">
-        <v>0.7741437440639177</v>
+        <v>0.9864856099768782</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3914,10 +3914,10 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0.1743424552991851</v>
+        <v>0.1743733061808926</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0001256466605070115</v>
+        <v>0.0001304890548160645</v>
       </c>
     </row>
     <row r="140">
@@ -3925,13 +3925,13 @@
         <v>1380</v>
       </c>
       <c r="B140" t="n">
-        <v>232.7322545889557</v>
+        <v>222.9875144355749</v>
       </c>
       <c r="C140" t="n">
-        <v>73.68441265117838</v>
+        <v>73.6844126511786</v>
       </c>
       <c r="D140" t="n">
-        <v>0.7740772283562305</v>
+        <v>0.9863523228464279</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -3939,10 +3939,10 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>0.174341689825581</v>
+        <v>0.1743747810738542</v>
       </c>
       <c r="G140" t="n">
-        <v>0.0001267067639801544</v>
+        <v>0.0001317993939759659</v>
       </c>
     </row>
     <row r="141">
@@ -3950,13 +3950,13 @@
         <v>1390</v>
       </c>
       <c r="B141" t="n">
-        <v>230.511203133005</v>
+        <v>220.5811589524241</v>
       </c>
       <c r="C141" t="n">
-        <v>73.63665266658893</v>
+        <v>73.63665266658916</v>
       </c>
       <c r="D141" t="n">
-        <v>0.7740085302168765</v>
+        <v>0.9862145321490831</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -3964,10 +3964,10 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>0.1743412771865582</v>
+        <v>0.174376694500366</v>
       </c>
       <c r="G141" t="n">
-        <v>0.0001277982657025317</v>
+        <v>0.0001331543386967737</v>
       </c>
     </row>
     <row r="142">
@@ -3975,13 +3975,13 @@
         <v>1400</v>
       </c>
       <c r="B142" t="n">
-        <v>228.2917985891257</v>
+        <v>218.1745584671864</v>
       </c>
       <c r="C142" t="n">
-        <v>73.58890195482286</v>
+        <v>73.58890195482331</v>
       </c>
       <c r="D142" t="n">
-        <v>0.7739375744139114</v>
+        <v>0.9860720514751896</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -3989,10 +3989,10 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0.1743412200580913</v>
+        <v>0.1743790511004349</v>
       </c>
       <c r="G142" t="n">
-        <v>0.0001289223119137039</v>
+        <v>0.000134555760224875</v>
       </c>
     </row>
     <row r="143">
@@ -4000,13 +4000,13 @@
         <v>1410</v>
       </c>
       <c r="B143" t="n">
-        <v>226.074037732537</v>
+        <v>215.767693083654</v>
       </c>
       <c r="C143" t="n">
-        <v>73.54116051545168</v>
+        <v>73.54116051545213</v>
       </c>
       <c r="D143" t="n">
-        <v>0.7738642829878125</v>
+        <v>0.9859246859994638</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -4014,10 +4014,10 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0.1743415211052469</v>
+        <v>0.1743818555357885</v>
       </c>
       <c r="G143" t="n">
-        <v>0.0001300800932418508</v>
+        <v>0.0001360056161498996</v>
       </c>
     </row>
     <row r="144">
@@ -4025,13 +4025,13 @@
         <v>1420</v>
       </c>
       <c r="B144" t="n">
-        <v>223.8579171014509</v>
+        <v>213.3605420702611</v>
       </c>
       <c r="C144" t="n">
-        <v>73.49342834804702</v>
+        <v>73.49342834804747</v>
       </c>
       <c r="D144" t="n">
-        <v>0.7737885751404152</v>
+        <v>0.9857722320453755</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -4039,10 +4039,10 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0.1743421829823831</v>
+        <v>0.1743851124910151</v>
       </c>
       <c r="G144" t="n">
-        <v>0.000131272846619471</v>
+        <v>0.000137505955013791</v>
       </c>
     </row>
     <row r="145">
@@ -4050,13 +4050,13 @@
         <v>1430</v>
       </c>
       <c r="B145" t="n">
-        <v>221.6434329861534</v>
+        <v>210.9530838213965</v>
       </c>
       <c r="C145" t="n">
-        <v>73.4457054521805</v>
+        <v>73.44570545218096</v>
       </c>
       <c r="D145" t="n">
-        <v>0.7737103671180698</v>
+        <v>0.9856144766214892</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -4064,10 +4064,10 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0.1743432083333685</v>
+        <v>0.1743888266747788</v>
       </c>
       <c r="G145" t="n">
-        <v>0.0001325018573017775</v>
+        <v>0.0001390589212259832</v>
       </c>
     </row>
     <row r="146">
@@ -4075,13 +4075,13 @@
         <v>1440</v>
       </c>
       <c r="B146" t="n">
-        <v>219.4305814177133</v>
+        <v>208.5452958165184</v>
       </c>
       <c r="C146" t="n">
-        <v>73.39799182742388</v>
+        <v>73.39799182742433</v>
       </c>
       <c r="D146" t="n">
-        <v>0.7736295720886288</v>
+        <v>0.9854511969275003</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -4089,10 +4089,10 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0.1743445997918202</v>
+        <v>0.1743930028211143</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0001337684609947739</v>
+        <v>0.0001406667603099974</v>
       </c>
     </row>
     <row r="147">
@@ -4100,13 +4100,13 @@
         <v>1450</v>
       </c>
       <c r="B147" t="n">
-        <v>217.219358156316</v>
+        <v>206.1371545769179</v>
       </c>
       <c r="C147" t="n">
-        <v>73.35028747334854</v>
+        <v>73.350287473349</v>
       </c>
       <c r="D147" t="n">
-        <v>0.7735461000118451</v>
+        <v>0.9852821598274826</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -4114,10 +4114,10 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0.1743463599813646</v>
+        <v>0.1743976456908068</v>
       </c>
       <c r="G147" t="n">
-        <v>0.0001350740461005611</v>
+        <v>0.0001423318245092604</v>
       </c>
     </row>
     <row r="148">
@@ -4125,13 +4125,13 @@
         <v>1460</v>
       </c>
       <c r="B148" t="n">
-        <v>215.0097586792208</v>
+        <v>203.7286356199595</v>
       </c>
       <c r="C148" t="n">
-        <v>73.30259238952647</v>
+        <v>73.30259238952692</v>
       </c>
       <c r="D148" t="n">
-        <v>0.7734598575027257</v>
+        <v>0.9851071212876268</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -4139,10 +4139,10 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>0.1743484915159168</v>
+        <v>0.174402760072863</v>
       </c>
       <c r="G148" t="n">
-        <v>0.0001364200560880357</v>
+        <v>0.000144056578782701</v>
       </c>
     </row>
     <row r="149">
@@ -4150,13 +4150,13 @@
         <v>1470</v>
       </c>
       <c r="B149" t="n">
-        <v>212.8017781683419</v>
+        <v>201.3197134106182</v>
       </c>
       <c r="C149" t="n">
-        <v>73.25490657552939</v>
+        <v>73.25490657552984</v>
       </c>
       <c r="D149" t="n">
-        <v>0.7733707476873478</v>
+        <v>0.9849258257754731</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -4164,10 +4164,10 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0.1743509969999852</v>
+        <v>0.1744083507860781</v>
       </c>
       <c r="G149" t="n">
-        <v>0.0001378079919978175</v>
+        <v>0.0001458436072237542</v>
       </c>
     </row>
     <row r="150">
@@ -4175,13 +4175,13 @@
         <v>1480</v>
       </c>
       <c r="B150" t="n">
-        <v>210.5954114974516</v>
+        <v>198.9103613101095</v>
       </c>
       <c r="C150" t="n">
-        <v>73.20723003092883</v>
+        <v>73.20723003092928</v>
       </c>
       <c r="D150" t="n">
-        <v>0.7732786700506087</v>
+        <v>0.9847380056173503</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -4189,10 +4189,10 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>0.1743538790289965</v>
+        <v>0.1744144226807062</v>
       </c>
       <c r="G150" t="n">
-        <v>0.0001392394150909687</v>
+        <v>0.0001476956199398212</v>
       </c>
     </row>
     <row r="151">
@@ -4200,13 +4200,13 @@
         <v>1490</v>
       </c>
       <c r="B151" t="n">
-        <v>208.3906532190036</v>
+        <v>196.5005515213963</v>
       </c>
       <c r="C151" t="n">
-        <v>73.15956275529641</v>
+        <v>73.15956275529686</v>
       </c>
       <c r="D151" t="n">
-        <v>0.7731835202753314</v>
+        <v>0.9845433803103973</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -4214,10 +4214,10 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>0.1743571401896462</v>
+        <v>0.1744209806402411</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0001407159496518759</v>
+        <v>0.0001496154604330576</v>
       </c>
     </row>
     <row r="152">
@@ -4225,13 +4225,13 @@
         <v>1500</v>
       </c>
       <c r="B152" t="n">
-        <v>206.1874975505787</v>
+        <v>194.0902550313322</v>
       </c>
       <c r="C152" t="n">
-        <v>73.11190474820432</v>
+        <v>73.11190474820455</v>
       </c>
       <c r="D152" t="n">
-        <v>0.7730851900721023</v>
+        <v>0.9843416557851714</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -4239,10 +4239,10 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>0.1743607830602726</v>
+        <v>0.1744280295833146</v>
       </c>
       <c r="G152" t="n">
-        <v>0.0001422392859565374</v>
+        <v>0.0001516061135276246</v>
       </c>
     </row>
     <row r="153">
@@ -4250,13 +4250,13 @@
         <v>1510</v>
       </c>
       <c r="B153" t="n">
-        <v>203.985938360947</v>
+        <v>191.6794415491816</v>
       </c>
       <c r="C153" t="n">
         <v>73.06425600922387</v>
       </c>
       <c r="D153" t="n">
-        <v>0.7729835669991657</v>
+        <v>0.9841325236144335</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -4264,10 +4264,10 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>0.174364810211257</v>
+        <v>0.174435574465721</v>
       </c>
       <c r="G153" t="n">
-        <v>0.0001438111834184618</v>
+        <v>0.0001536707138933178</v>
       </c>
     </row>
     <row r="154">
@@ -4275,13 +4275,13 @@
         <v>1520</v>
       </c>
       <c r="B154" t="n">
-        <v>201.7859691557497</v>
+        <v>189.2680794412298</v>
       </c>
       <c r="C154" t="n">
         <v>73.01661653792701</v>
       </c>
       <c r="D154" t="n">
-        <v>0.7728785342716439</v>
+        <v>0.9839156601632419</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -4289,10 +4289,10 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>0.1743692242054489</v>
+        <v>0.174443620282577</v>
       </c>
       <c r="G154" t="n">
-        <v>0.0001454334739254299</v>
+        <v>0.0001558125552208312</v>
       </c>
     </row>
     <row r="155">
@@ -4300,13 +4300,13 @@
         <v>1530</v>
       </c>
       <c r="B155" t="n">
-        <v>199.5875830627941</v>
+        <v>186.8561356611711</v>
       </c>
       <c r="C155" t="n">
         <v>72.96898633388548</v>
       </c>
       <c r="D155" t="n">
-        <v>0.772769970559282</v>
+        <v>0.9836907256749601</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -4314,10 +4314,10 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>0.1743740275986192</v>
+        <v>0.1744521720706268</v>
       </c>
       <c r="G155" t="n">
-        <v>0.0001471080653815366</v>
+        <v>0.0001580351001099295</v>
       </c>
     </row>
     <row r="156">
@@ -4325,13 +4325,13 @@
         <v>1540</v>
       </c>
       <c r="B156" t="n">
-        <v>197.3907728169616</v>
+        <v>184.443575675929</v>
       </c>
       <c r="C156" t="n">
         <v>72.92136539667115</v>
       </c>
       <c r="D156" t="n">
-        <v>0.7726577497718575</v>
+        <v>0.9834573632872075</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -4339,10 +4339,10 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>0.174379222939941</v>
+        <v>0.1744612349107027</v>
       </c>
       <c r="G156" t="n">
-        <v>0.000148836945470184</v>
+        <v>0.0001603419907385353</v>
       </c>
     </row>
     <row r="157">
@@ -4350,13 +4350,13 @@
         <v>1550</v>
       </c>
       <c r="B157" t="n">
-        <v>195.1955307447233</v>
+        <v>182.0303633865333</v>
       </c>
       <c r="C157" t="n">
         <v>72.87375372585598</v>
       </c>
       <c r="D157" t="n">
-        <v>0.7725417408313124</v>
+        <v>0.9832151979711291</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -4364,10 +4364,10 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>0.1743848127724992</v>
+        <v>0.1744708139303542</v>
       </c>
       <c r="G157" t="n">
-        <v>0.0001506221856551009</v>
+        <v>0.0001627370603883483</v>
       </c>
     </row>
     <row r="158">
@@ -4375,13 +4375,13 @@
         <v>1560</v>
       </c>
       <c r="B158" t="n">
-        <v>193.0018487482583</v>
+        <v>179.6164610436359</v>
       </c>
       <c r="C158" t="n">
-        <v>72.82615132101171</v>
+        <v>72.82615132101193</v>
       </c>
       <c r="D158" t="n">
-        <v>0.7724218074295854</v>
+        <v>0.9829638353866231</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -4389,10 +4389,10 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>0.1743907996338289</v>
+        <v>0.1744809143066568</v>
       </c>
       <c r="G158" t="n">
-        <v>0.0001524659454379884</v>
+        <v>0.0001652243459111599</v>
       </c>
     </row>
     <row r="159">
@@ -4400,13 +4400,13 @@
         <v>1570</v>
       </c>
       <c r="B159" t="n">
-        <v>190.8097182891676</v>
+        <v>177.2018291572081</v>
       </c>
       <c r="C159" t="n">
-        <v>72.77855818171031</v>
+        <v>72.77855818171054</v>
       </c>
       <c r="D159" t="n">
-        <v>0.7722978077710311</v>
+        <v>0.9827028606453401</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -4414,10 +4414,10 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>0.174397186056486</v>
+        <v>0.1744915412692168</v>
       </c>
       <c r="G159" t="n">
-        <v>0.0001543704768930831</v>
+        <v>0.0001678081012297081</v>
       </c>
     </row>
     <row r="160">
@@ -4425,13 +4425,13 @@
         <v>1580</v>
       </c>
       <c r="B160" t="n">
-        <v>188.619130371776</v>
+        <v>174.7864263999129</v>
       </c>
       <c r="C160" t="n">
         <v>72.73097430752387</v>
       </c>
       <c r="D160" t="n">
-        <v>0.7721695942982103</v>
+        <v>0.9824318369723329</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -4439,10 +4439,10 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>0.1744039745686478</v>
+        <v>0.1745027001033855</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0001563381295007892</v>
+        <v>0.0001704928119778436</v>
       </c>
     </row>
     <row r="161">
@@ -4450,13 +4450,13 @@
         <v>1590</v>
       </c>
       <c r="B161" t="n">
-        <v>186.4300755260098</v>
+        <v>172.3702095035939</v>
       </c>
       <c r="C161" t="n">
         <v>72.68339969802389</v>
       </c>
       <c r="D161" t="n">
-        <v>0.7720370133997322</v>
+        <v>0.9821503042561839</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>0.1744111676947472</v>
+        <v>0.1745143961537015</v>
       </c>
       <c r="G161" t="n">
-        <v>0.0001583713553045812</v>
+        <v>0.0001732832113971762</v>
       </c>
     </row>
     <row r="162">
@@ -4475,13 +4475,13 @@
         <v>1600</v>
       </c>
       <c r="B162" t="n">
-        <v>184.2425437898392</v>
+        <v>169.9531331482606</v>
       </c>
       <c r="C162" t="n">
         <v>72.63583435278292</v>
       </c>
       <c r="D162" t="n">
-        <v>0.7718999050986997</v>
+        <v>0.9818577774762385</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -4489,10 +4489,10 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>0.1744187679561399</v>
+        <v>0.174526634827579</v>
       </c>
       <c r="G162" t="n">
-        <v>0.0001604727144176488</v>
+        <v>0.0001761842976214274</v>
       </c>
     </row>
     <row r="163">
@@ -4500,13 +4500,13 @@
         <v>1610</v>
       </c>
       <c r="B163" t="n">
-        <v>182.056524691268</v>
+        <v>167.5351498428842</v>
       </c>
       <c r="C163" t="n">
         <v>72.58827827137236</v>
       </c>
       <c r="D163" t="n">
-        <v>0.7717581027201782</v>
+        <v>0.9815537449942241</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -4514,10 +4514,10 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0.1744267778718072</v>
+        <v>0.1745394215992644</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0001626448809082676</v>
+        <v>0.0001792013524957165</v>
       </c>
     </row>
     <row r="164">
@@ -4525,13 +4525,13 @@
         <v>1620</v>
       </c>
       <c r="B164" t="n">
-        <v>179.8720072298526</v>
+        <v>165.1162097972428</v>
       </c>
       <c r="C164" t="n">
         <v>72.5407314533644</v>
       </c>
       <c r="D164" t="n">
-        <v>0.7716114325359671</v>
+        <v>0.9812376666959929</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -4539,10 +4539,10 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>0.174435199959093</v>
+        <v>0.174552762014081</v>
       </c>
       <c r="G164" t="n">
-        <v>0.0001648906490956442</v>
+        <v>0.0001823399620962207</v>
       </c>
     </row>
     <row r="165">
@@ -4550,13 +4550,13 @@
         <v>1630</v>
       </c>
       <c r="B165" t="n">
-        <v>177.6889798577272</v>
+        <v>162.6962607839658</v>
       </c>
       <c r="C165" t="n">
         <v>72.49319389833113</v>
       </c>
       <c r="D165" t="n">
-        <v>0.7714597133847766</v>
+        <v>0.9809089719673741</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -4564,10 +4564,10 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>0.1744440367344803</v>
+        <v>0.1745666616929917</v>
       </c>
       <c r="G165" t="n">
-        <v>0.0001672129402910814</v>
+        <v>0.000185606039136467</v>
       </c>
     </row>
     <row r="166">
@@ -4575,13 +4575,13 @@
         <v>1640</v>
       </c>
       <c r="B166" t="n">
-        <v>175.5074304601088</v>
+        <v>160.2752479898361</v>
       </c>
       <c r="C166" t="n">
         <v>72.44566560584428</v>
       </c>
       <c r="D166" t="n">
-        <v>0.7713027562657434</v>
+        <v>0.9805670574861289</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -4589,10 +4589,10 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>0.1744532907144035</v>
+        <v>0.1745811263375037</v>
       </c>
       <c r="G166" t="n">
-        <v>0.0001696148100227065</v>
+        <v>0.0001890058474702886</v>
       </c>
     </row>
     <row r="167">
@@ -4600,13 +4600,13 @@
         <v>1650</v>
       </c>
       <c r="B167" t="n">
-        <v>173.3273463352504</v>
+        <v>157.8531138552933</v>
       </c>
       <c r="C167" t="n">
         <v>72.39814657547629</v>
       </c>
       <c r="D167" t="n">
-        <v>0.7711403639030138</v>
+        <v>0.9802112848097173</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -4614,10 +4614,10 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>0.1744629644161031</v>
+        <v>0.1745961617349493</v>
       </c>
       <c r="G167" t="n">
-        <v>0.0001720994557858173</v>
+        <v>0.0001925460289287762</v>
       </c>
     </row>
     <row r="168">
@@ -4625,13 +4625,13 @@
         <v>1660</v>
       </c>
       <c r="B168" t="n">
-        <v>171.148714173807</v>
+        <v>155.42979790096</v>
       </c>
       <c r="C168" t="n">
         <v>72.35063680679912</v>
       </c>
       <c r="D168" t="n">
-        <v>0.7709723302788963</v>
+        <v>0.9798409777359678</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -4639,10 +4639,10 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>0.1744730603585196</v>
+        <v>0.1746117737641768</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0001746702253651174</v>
+        <v>0.0001962336327598788</v>
       </c>
     </row>
     <row r="169">
@@ -4650,13 +4650,13 @@
         <v>1670</v>
       </c>
       <c r="B169" t="n">
-        <v>168.9715200375705</v>
+        <v>153.0052365398724</v>
       </c>
       <c r="C169" t="n">
         <v>72.30313629938485</v>
       </c>
       <c r="D169" t="n">
-        <v>0.7707984401328498</v>
+        <v>0.9794554194107524</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -4664,10 +4664,10 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>0.1744835810632314</v>
+        <v>0.1746279684016893</v>
       </c>
       <c r="G169" t="n">
-        <v>0.0001773306257798172</v>
+        <v>0.0002000761479753911</v>
       </c>
     </row>
     <row r="170">
@@ -4675,13 +4675,13 @@
         <v>1680</v>
       </c>
       <c r="B170" t="n">
-        <v>166.7957493375273</v>
+        <v>150.5793628739309</v>
       </c>
       <c r="C170" t="n">
         <v>72.25564505280568</v>
       </c>
       <c r="D170" t="n">
-        <v>0.7706184684232832</v>
+        <v>0.979053849153309</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -4689,10 +4689,10 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>0.1744945290554373</v>
+        <v>0.1746447517282775</v>
       </c>
       <c r="G170" t="n">
-        <v>0.000180084332907833</v>
+        <v>0.0002040815389517023</v>
       </c>
     </row>
     <row r="171">
@@ -4700,13 +4700,13 @@
         <v>1690</v>
       </c>
       <c r="B171" t="n">
-        <v>164.6213868111807</v>
+        <v>148.1521064729066</v>
       </c>
       <c r="C171" t="n">
-        <v>72.20816306663335</v>
+        <v>72.20816306663357</v>
       </c>
       <c r="D171" t="n">
-        <v>0.7704321797488491</v>
+        <v>0.9786354589658838</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -4714,10 +4714,10 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>0.1745059068649848</v>
+        <v>0.1746621299361913</v>
       </c>
       <c r="G171" t="n">
-        <v>0.000182935201851173</v>
+        <v>0.0002082582846788458</v>
       </c>
     </row>
     <row r="172">
@@ -4725,13 +4725,13 @@
         <v>1700</v>
       </c>
       <c r="B172" t="n">
-        <v>162.4484164990766</v>
+        <v>145.7233931341244</v>
       </c>
       <c r="C172" t="n">
-        <v>72.16069034044051</v>
+        <v>72.16069034044074</v>
       </c>
       <c r="D172" t="n">
-        <v>0.7702393277255684</v>
+        <v>0.9781993896897685</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -4739,10 +4739,10 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>0.1745177170274482</v>
+        <v>0.1746801093369086</v>
       </c>
       <c r="G172" t="n">
-        <v>0.0001858872781111623</v>
+        <v>0.0002126154221082465</v>
       </c>
     </row>
     <row r="173">
@@ -4750,13 +4750,13 @@
         <v>1710</v>
       </c>
       <c r="B173" t="n">
-        <v>160.2768217204594</v>
+        <v>143.2931446207039</v>
       </c>
       <c r="C173" t="n">
-        <v>72.11322687379914</v>
+        <v>72.11322687379936</v>
       </c>
       <c r="D173" t="n">
-        <v>0.7700396543157372</v>
+        <v>0.9777447267644848</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -4764,10 +4764,10 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>0.1745299620852567</v>
+        <v>0.1746986963695597</v>
       </c>
       <c r="G173" t="n">
-        <v>0.0001889448096495063</v>
+        <v>0.000217162594114503</v>
       </c>
     </row>
     <row r="174">
@@ -4775,13 +4775,13 @@
         <v>1720</v>
       </c>
       <c r="B174" t="n">
-        <v>158.1065850479767</v>
+        <v>140.8612783759577</v>
       </c>
       <c r="C174" t="n">
-        <v>72.0657726662813</v>
+        <v>72.06577266628153</v>
       </c>
       <c r="D174" t="n">
-        <v>0.7698328891041486</v>
+        <v>0.9772704955406858</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -4789,10 +4789,10 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>0.1745426445888759</v>
+        <v>0.1747178976100778</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0001921122599194298</v>
+        <v>0.0002219101026622517</v>
       </c>
     </row>
     <row r="175">
@@ -4800,13 +4800,13 @@
         <v>1730</v>
       </c>
       <c r="B175" t="n">
-        <v>155.9376882813403</v>
+        <v>138.427707211226</v>
       </c>
       <c r="C175" t="n">
-        <v>72.01832771745921</v>
+        <v>72.01832771745967</v>
       </c>
       <c r="D175" t="n">
-        <v>0.7696187485166752</v>
+        <v>0.9767756560901486</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -4814,10 +4814,10 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>0.1745557670980456</v>
+        <v>0.1747377197811525</v>
       </c>
       <c r="G175" t="n">
-        <v>0.0001953943219603968</v>
+        <v>0.0002268689678576568</v>
       </c>
     </row>
     <row r="176">
@@ -4825,13 +4825,13 @@
         <v>1740</v>
       </c>
       <c r="B176" t="n">
-        <v>153.7701124198401</v>
+        <v>135.9923389640524</v>
       </c>
       <c r="C176" t="n">
-        <v>71.97089202690506</v>
+        <v>71.97089202690574</v>
       </c>
       <c r="D176" t="n">
-        <v>0.769396934975734</v>
+        <v>0.9762590974478219</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -4839,10 +4839,10 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>0.174569332183077</v>
+        <v>0.1747581697630755</v>
       </c>
       <c r="G176" t="n">
-        <v>0.0001987959336603278</v>
+        <v>0.000232050993667827</v>
       </c>
     </row>
     <row r="177">
@@ -4850,13 +4850,13 @@
         <v>1750</v>
       </c>
       <c r="B177" t="n">
-        <v>151.6038376335927</v>
+        <v>133.5550761231746</v>
       </c>
       <c r="C177" t="n">
-        <v>71.92346559419127</v>
+        <v>71.92346559419195</v>
       </c>
       <c r="D177" t="n">
-        <v>0.7691671359865382</v>
+        <v>0.9757196312110551</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -4864,10 +4864,10 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>0.1745833424262113</v>
+        <v>0.1747792546055766</v>
       </c>
       <c r="G177" t="n">
-        <v>0.0002023222943009826</v>
+        <v>0.0002374688412134452</v>
       </c>
     </row>
     <row r="178">
@@ -4875,13 +4875,13 @@
         <v>1760</v>
       </c>
       <c r="B178" t="n">
-        <v>149.4388432333954</v>
+        <v>131.1158154163013</v>
       </c>
       <c r="C178" t="n">
-        <v>71.87604841889038</v>
+        <v>71.87604841889083</v>
       </c>
       <c r="D178" t="n">
-        <v>0.7689290231473808</v>
+        <v>0.9751559844095727</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -4889,10 +4889,10 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>0.1745978004230453</v>
+        <v>0.1748009815407666</v>
       </c>
       <c r="G178" t="n">
-        <v>0.0002059788825154277</v>
+        <v>0.0002431361106837987</v>
       </c>
     </row>
     <row r="179">
@@ -4900,13 +4900,13 @@
         <v>1770</v>
       </c>
       <c r="B179" t="n">
-        <v>147.2751076390356</v>
+        <v>128.674447356055</v>
       </c>
       <c r="C179" t="n">
-        <v>71.82864050057412</v>
+        <v>71.82864050057458</v>
       </c>
       <c r="D179" t="n">
-        <v>0.7686822510764173</v>
+        <v>0.9745667915461418</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -4914,10 +4914,10 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>0.1746127087840272</v>
+        <v>0.1748233579973131</v>
       </c>
       <c r="G179" t="n">
-        <v>0.0002097714758015012</v>
+        <v>0.000249067433093642</v>
       </c>
     </row>
     <row r="180">
@@ -4925,13 +4925,13 @@
         <v>1780</v>
       </c>
       <c r="B180" t="n">
-        <v>145.112608345894</v>
+        <v>126.23085573878</v>
       </c>
       <c r="C180" t="n">
-        <v>71.78124183881494</v>
+        <v>71.78124183881539</v>
       </c>
       <c r="D180" t="n">
-        <v>0.7684264562465626</v>
+        <v>0.9739505856917843</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -4939,10 +4939,10 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>0.174628070136026</v>
+        <v>0.1748463916160004</v>
       </c>
       <c r="G180" t="n">
-        <v>0.0002137061717521667</v>
+        <v>0.000255278573303464</v>
       </c>
     </row>
     <row r="181">
@@ -4950,13 +4950,13 @@
         <v>1790</v>
       </c>
       <c r="B181" t="n">
-        <v>142.951321889655</v>
+        <v>123.784917090101</v>
       </c>
       <c r="C181" t="n">
-        <v>71.73385243318523</v>
+        <v>71.73385243318592</v>
       </c>
       <c r="D181" t="n">
-        <v>0.7681612557191367</v>
+        <v>0.9733057885003046</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -4964,10 +4964,10 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>0.1746438871239825</v>
+        <v>0.1748700902668406</v>
       </c>
       <c r="G181" t="n">
-        <v>0.0002177894111829217</v>
+        <v>0.0002617865459655422</v>
       </c>
     </row>
     <row r="182">
@@ -4975,13 +4975,13 @@
         <v>1800</v>
       </c>
       <c r="B182" t="n">
-        <v>140.7912238089188</v>
+        <v>121.3365000501723</v>
       </c>
       <c r="C182" t="n">
-        <v>71.68647228325756</v>
+        <v>71.68647228325824</v>
       </c>
       <c r="D182" t="n">
-        <v>0.7678862457658016</v>
+        <v>0.9726306989841904</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -4989,10 +4989,10 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>0.1746601624126441</v>
+        <v>0.1748944620679339</v>
       </c>
       <c r="G182" t="n">
-        <v>0.0002220280033583179</v>
+        <v>0.0002686097463461022</v>
       </c>
     </row>
     <row r="183">
@@ -5000,13 +5000,13 @@
         <v>1810</v>
       </c>
       <c r="B183" t="n">
-        <v>138.6322886054867</v>
+        <v>118.885464690426</v>
       </c>
       <c r="C183" t="n">
-        <v>71.6391013886041</v>
+        <v>71.63910138860456</v>
       </c>
       <c r="D183" t="n">
-        <v>0.7676010003670671</v>
+        <v>0.9719234808668287</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -5014,10 +5014,10 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>0.1746768986883921</v>
+        <v>0.1749195154063004</v>
       </c>
       <c r="G183" t="n">
-        <v>0.0002264291535446076</v>
+        <v>0.0002757680983194844</v>
       </c>
     </row>
     <row r="184">
@@ -5025,13 +5025,13 @@
         <v>1820</v>
       </c>
       <c r="B184" t="n">
-        <v>136.4744897020604</v>
+        <v>116.4316617523007</v>
       </c>
       <c r="C184" t="n">
-        <v>71.59173974879707</v>
+        <v>71.59173974879752</v>
       </c>
       <c r="D184" t="n">
-        <v>0.7673050695742355</v>
+        <v>0.9711821482934685</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -5039,10 +5039,10 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>0.1746940986611676</v>
+        <v>0.1749452589609453</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0002310004931439963</v>
+        <v>0.0002832832222466347</v>
       </c>
     </row>
     <row r="185">
@@ -5050,13 +5050,13 @@
         <v>1830</v>
       </c>
       <c r="B185" t="n">
-        <v>134.3177993970696</v>
+        <v>113.9749317968317</v>
       </c>
       <c r="C185" t="n">
-        <v>71.5443873634091</v>
+        <v>71.54438736340956</v>
       </c>
       <c r="D185" t="n">
-        <v>0.766997977720023</v>
+        <v>0.9704045496442405</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -5064,10 +5064,10 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>0.1747117650665039</v>
+        <v>0.1749717017284601</v>
       </c>
       <c r="G185" t="n">
-        <v>0.0002357501126985327</v>
+        <v>0.0002911786259540765</v>
       </c>
     </row>
     <row r="186">
@@ -5075,13 +5075,13 @@
         <v>1840</v>
       </c>
       <c r="B186" t="n">
-        <v>132.1621888163075</v>
+        <v>111.5151042520883</v>
       </c>
       <c r="C186" t="n">
-        <v>71.49704423201263</v>
+        <v>71.49704423201308</v>
       </c>
       <c r="D186" t="n">
-        <v>0.7666792214612577</v>
+        <v>0.9695883491452597</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -5089,10 +5089,10 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>0.1747299006676748</v>
+        <v>0.1749988530515106</v>
       </c>
       <c r="G186" t="n">
-        <v>0.0002406865980889621</v>
+        <v>0.000299479922641758</v>
       </c>
     </row>
     <row r="187">
@@ -5100,13 +5100,13 @@
         <v>1850</v>
       </c>
       <c r="B187" t="n">
-        <v>130.007627861013</v>
+        <v>109.0519963431506</v>
       </c>
       <c r="C187" t="n">
-        <v>71.44971035417996</v>
+        <v>71.44971035418041</v>
       </c>
       <c r="D187" t="n">
-        <v>0.76634826763494</v>
+        <v>0.9687310059164653</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -5114,10 +5114,10 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>0.1747485082579674</v>
+        <v>0.1750267226506234</v>
       </c>
       <c r="G187" t="n">
-        <v>0.0002458190702966937</v>
+        <v>0.0003082150802955261</v>
       </c>
     </row>
     <row r="188">
@@ -5125,13 +5125,13 @@
         <v>1860</v>
       </c>
       <c r="B188" t="n">
-        <v>127.8540851520022</v>
+        <v>106.5854118865606</v>
       </c>
       <c r="C188" t="n">
-        <v>71.40238572948351</v>
+        <v>71.40238572948397</v>
       </c>
       <c r="D188" t="n">
-        <v>0.7660045509065246</v>
+        <v>0.9678297500248895</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -5139,10 +5139,10 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>0.1747675906630916</v>
+        <v>0.1750553206597548</v>
       </c>
       <c r="G188" t="n">
-        <v>0.0002511572291463163</v>
+        <v>0.0003174147080965626</v>
       </c>
     </row>
     <row r="189">
@@ -5150,13 +5150,13 @@
         <v>1870</v>
       </c>
       <c r="B189" t="n">
-        <v>125.7015279693949</v>
+        <v>104.1151399278345</v>
       </c>
       <c r="C189" t="n">
-        <v>71.35507035749595</v>
+        <v>71.3550703574964</v>
       </c>
       <c r="D189" t="n">
-        <v>0.7656474711865165</v>
+        <v>0.9668815550263564</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -5164,10 +5164,10 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>0.1747871507437381</v>
+        <v>0.1750846576662099</v>
       </c>
       <c r="G189" t="n">
-        <v>0.0002567114015029249</v>
+        <v>0.000327112386449865</v>
       </c>
     </row>
     <row r="190">
@@ -5175,13 +5175,13 @@
         <v>1880</v>
       </c>
       <c r="B190" t="n">
-        <v>123.5499221874354</v>
+        <v>101.6409531965435</v>
       </c>
       <c r="C190" t="n">
-        <v>71.3077642377898</v>
+        <v>71.30776423779025</v>
       </c>
       <c r="D190" t="n">
-        <v>0.7652763907882649</v>
+        <v>0.9658831063731221</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -5189,10 +5189,10 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>0.1748071913982995</v>
+        <v>0.175114744755585</v>
       </c>
       <c r="G190" t="n">
-        <v>0.0002624925944642285</v>
+        <v>0.0003373450486536294</v>
       </c>
     </row>
     <row r="191">
@@ -5200,13 +5200,13 @@
         <v>1890</v>
       </c>
       <c r="B191" t="n">
-        <v>121.3992322038394</v>
+        <v>99.16260634847654</v>
       </c>
       <c r="C191" t="n">
-        <v>71.26046736993737</v>
+        <v>71.26046736993794</v>
       </c>
       <c r="D191" t="n">
-        <v>0.7648906312961635</v>
+        <v>0.964830764934411</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -5214,10 +5214,10 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0.174827715565769</v>
+        <v>0.1751455935625325</v>
       </c>
       <c r="G191" t="n">
-        <v>0.0002685125541635435</v>
+        <v>0.0003481534239752443</v>
       </c>
     </row>
     <row r="192">
@@ -5225,13 +5225,13 @@
         <v>1900</v>
       </c>
       <c r="B192" t="n">
-        <v>119.2494208630294</v>
+        <v>96.67983395824521</v>
       </c>
       <c r="C192" t="n">
-        <v>71.21317975351144</v>
+        <v>71.21317975351201</v>
       </c>
       <c r="D192" t="n">
-        <v>0.7644894701091961</v>
+        <v>0.9637205247143654</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -5239,10 +5239,10 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>0.1748487262288353</v>
+        <v>0.1751772163283038</v>
       </c>
       <c r="G192" t="n">
-        <v>0.0002747838308882299</v>
+        <v>0.0003595825540847348</v>
       </c>
     </row>
     <row r="193">
@@ -5250,13 +5250,13 @@
         <v>1910</v>
       </c>
       <c r="B193" t="n">
-        <v>117.100449372542</v>
+        <v>94.19234821807018</v>
       </c>
       <c r="C193" t="n">
-        <v>71.16590138808454</v>
+        <v>71.1659013880851</v>
       </c>
       <c r="D193" t="n">
-        <v>0.7640721366198294</v>
+        <v>0.9625479636485933</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -5264,10 +5264,10 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>0.1748702264171937</v>
+        <v>0.1752096259662136</v>
       </c>
       <c r="G193" t="n">
-        <v>0.000281319851321146</v>
+        <v>0.0003716823975513048</v>
       </c>
     </row>
     <row r="194">
@@ -5275,13 +5275,13 @@
         <v>1920</v>
       </c>
       <c r="B194" t="n">
-        <v>114.9522772117939</v>
+        <v>91.69983628899406</v>
       </c>
       <c r="C194" t="n">
-        <v>71.1186322732292</v>
+        <v>71.11863227322976</v>
       </c>
       <c r="D194" t="n">
-        <v>0.7636378079825286</v>
+        <v>0.9613081861044694</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -5289,10 +5289,10 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>0.1748922192110954</v>
+        <v>0.175242836136407</v>
       </c>
       <c r="G194" t="n">
-        <v>0.0002881349988330007</v>
+        <v>0.000384508540604011</v>
       </c>
     </row>
     <row r="195">
@@ -5300,13 +5300,13 @@
         <v>1930</v>
       </c>
       <c r="B195" t="n">
-        <v>112.8048620322918</v>
+        <v>89.2019572388533</v>
       </c>
       <c r="C195" t="n">
-        <v>71.07137240851807</v>
+        <v>71.07137240851853</v>
       </c>
       <c r="D195" t="n">
-        <v>0.7631856044194716</v>
+        <v>0.9599957553858155</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -5314,10 +5314,10 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>0.1749147077451602</v>
+        <v>0.175276861331602</v>
       </c>
       <c r="G195" t="n">
-        <v>0.0002952447028943818</v>
+        <v>0.0003981230368230645</v>
       </c>
     </row>
     <row r="196">
@@ -5325,13 +5325,13 @@
         <v>1940</v>
       </c>
       <c r="B196" t="n">
-        <v>110.6581595482432</v>
+        <v>86.69833848630098</v>
       </c>
       <c r="C196" t="n">
-        <v>71.02412179352359</v>
+        <v>71.02412179352405</v>
       </c>
       <c r="D196" t="n">
-        <v>0.7627145840032574</v>
+        <v>0.9586046141284301</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -5339,10 +5339,10 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>0.1749376952124834</v>
+        <v>0.1753117169758489</v>
       </c>
       <c r="G196" t="n">
-        <v>0.0003026655388416966</v>
+        <v>0.0004125954041742526</v>
       </c>
     </row>
     <row r="197">
@@ -5350,13 +5350,13 @@
         <v>1950</v>
       </c>
       <c r="B197" t="n">
-        <v>108.5121234163872</v>
+        <v>84.18857165103853</v>
       </c>
       <c r="C197" t="n">
-        <v>70.97688042781851</v>
+        <v>70.97688042781897</v>
       </c>
       <c r="D197" t="n">
-        <v>0.7622237368472489</v>
+        <v>0.9571279899405223</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -5364,10 +5364,10 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>0.174961184869067</v>
+        <v>0.1753474195388083</v>
       </c>
       <c r="G197" t="n">
-        <v>0.0003104153394261718</v>
+        <v>0.0004280038152496419</v>
       </c>
     </row>
     <row r="198">
@@ -5375,13 +5375,13 @@
         <v>1960</v>
       </c>
       <c r="B198" t="n">
-        <v>106.3667051036962</v>
+        <v>81.67220768588513</v>
       </c>
       <c r="C198" t="n">
-        <v>70.92964831097561</v>
+        <v>70.92964831097595</v>
       </c>
       <c r="D198" t="n">
-        <v>0.7617119786234707</v>
+        <v>0.9555582829523451</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -5389,10 +5389,10 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>0.1749851800386147</v>
+        <v>0.1753839866686402</v>
       </c>
       <c r="G198" t="n">
-        <v>0.0003185133198053634</v>
+        <v>0.0004444365263178523</v>
       </c>
     </row>
     <row r="199">
@@ -5400,13 +5400,13 @@
         <v>1970</v>
       </c>
       <c r="B199" t="n">
-        <v>104.2218537414085</v>
+        <v>79.14875113460903</v>
       </c>
       <c r="C199" t="n">
-        <v>70.8824254425673</v>
+        <v>70.88242544256775</v>
       </c>
       <c r="D199" t="n">
-        <v>0.7611781433153345</v>
+        <v>0.9538869310383326</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -5414,10 +5414,10 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>0.1750096841177333</v>
+        <v>0.1754214373473476</v>
       </c>
       <c r="G199" t="n">
-        <v>0.0003269802179096149</v>
+        <v>0.0004619936036313814</v>
       </c>
     </row>
     <row r="200">
@@ -5425,13 +5425,13 @@
         <v>1980</v>
       </c>
       <c r="B200" t="n">
-        <v>102.0775159636273</v>
+        <v>76.61765331809873</v>
       </c>
       <c r="C200" t="n">
-        <v>70.83521182216657</v>
+        <v>70.83521182216703</v>
       </c>
       <c r="D200" t="n">
-        <v>0.7606209750975326</v>
+        <v>0.9521042472877175</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -5439,10 +5439,10 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>0.1750347005815871</v>
+        <v>0.1754597920733877</v>
       </c>
       <c r="G200" t="n">
-        <v>0.0003358384524405898</v>
+        <v>0.0004807890225337765</v>
       </c>
     </row>
     <row r="201">
@@ -5450,13 +5450,13 @@
         <v>1990</v>
       </c>
       <c r="B201" t="n">
-        <v>99.93363572845682</v>
+        <v>74.07830419702286</v>
       </c>
       <c r="C201" t="n">
-        <v>70.78800744934586</v>
+        <v>70.78800744934642</v>
       </c>
       <c r="D201" t="n">
-        <v>0.7600391192177191</v>
+        <v>0.9501992227201543</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -5464,10 +5464,10 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>0.1750602329900654</v>
+        <v>0.1754990730776333</v>
       </c>
       <c r="G201" t="n">
-        <v>0.0003451123011465119</v>
+        <v>0.0005009532378900844</v>
       </c>
     </row>
     <row r="202">
@@ -5475,13 +5475,13 @@
         <v>2000</v>
       </c>
       <c r="B202" t="n">
-        <v>97.79015411933676</v>
+        <v>71.5300225867412</v>
       </c>
       <c r="C202" t="n">
-        <v>70.74081232367826</v>
+        <v>70.74081232367882</v>
       </c>
       <c r="D202" t="n">
-        <v>0.7594311117335478</v>
+        <v>0.9481592851204674</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>0.175086284994523</v>
+        <v>0.1755393045804236</v>
       </c>
       <c r="G202" t="n">
-        <v>0.0003548281024828807</v>
+        <v>0.0005226363555870361</v>
       </c>
     </row>
     <row r="203">
@@ -5500,13 +5500,13 @@
         <v>2010</v>
       </c>
       <c r="B203" t="n">
-        <v>95.64700912387062</v>
+        <v>68.9720443028999</v>
       </c>
       <c r="C203" t="n">
-        <v>70.69362644473642</v>
+        <v>70.69362644473688</v>
       </c>
       <c r="D203" t="n">
-        <v>0.7587953679334718</v>
+        <v>0.9459700019835242</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -5514,10 +5514,10 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>0.1751128603451713</v>
+        <v>0.175580513099656</v>
       </c>
       <c r="G203" t="n">
-        <v>0.000365014484325516</v>
+        <v>0.0005460120777603903</v>
       </c>
     </row>
     <row r="204">
@@ -5525,13 +5525,13 @@
         <v>2020</v>
       </c>
       <c r="B204" t="n">
-        <v>93.5041353870083</v>
+        <v>66.40350768371796</v>
       </c>
       <c r="C204" t="n">
-        <v>70.6464498120929</v>
+        <v>70.64644981209346</v>
       </c>
       <c r="D204" t="n">
-        <v>0.7581301692395931</v>
+        <v>0.9436147115976287</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -5539,10 +5539,10 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>0.1751399628992039</v>
+        <v>0.1756227278228332</v>
       </c>
       <c r="G204" t="n">
-        <v>0.0003757026240763659</v>
+        <v>0.0005712826541153417</v>
       </c>
     </row>
     <row r="205">
@@ -5550,13 +5550,13 @@
         <v>2030</v>
       </c>
       <c r="B205" t="n">
-        <v>91.36146393492727</v>
+        <v>63.81079223546769</v>
       </c>
       <c r="C205" t="n">
-        <v>70.59928242532067</v>
+        <v>70.59928242532123</v>
       </c>
       <c r="D205" t="n">
-        <v>0.7574336483546124</v>
+        <v>0.9384830468433706</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -5564,10 +5564,10 @@
         </is>
       </c>
       <c r="F205" t="n">
-        <v>0.1751675966297577</v>
+        <v>0.1754437792436645</v>
       </c>
       <c r="G205" t="n">
-        <v>0.0003869265453189555</v>
+        <v>0.0005986851559075084</v>
       </c>
     </row>
     <row r="206">
@@ -5575,13 +5575,13 @@
         <v>2040</v>
       </c>
       <c r="B206" t="n">
-        <v>89.21892186533913</v>
+        <v>61.17454093797569</v>
       </c>
       <c r="C206" t="n">
-        <v>70.5521242839925</v>
+        <v>70.55212428399318</v>
       </c>
       <c r="D206" t="n">
-        <v>0.7567037723711744</v>
+        <v>0.9296091609614686</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -5589,10 +5589,10 @@
         </is>
       </c>
       <c r="F206" t="n">
-        <v>0.1751957656358236</v>
+        <v>0.174991801579299</v>
       </c>
       <c r="G206" t="n">
-        <v>0.0003987234571741089</v>
+        <v>0.000628652554654447</v>
       </c>
     </row>
     <row r="207">
@@ -5600,13 +5600,13 @@
         <v>2050</v>
       </c>
       <c r="B207" t="n">
-        <v>87.07643199920743</v>
+        <v>58.48891766542229</v>
       </c>
       <c r="C207" t="n">
-        <v>70.50497538768127</v>
+        <v>70.50497538768207</v>
       </c>
       <c r="D207" t="n">
-        <v>0.7559383235088657</v>
+        <v>0.9199269794934329</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -5614,10 +5614,10 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>0.1752244741532439</v>
+        <v>0.1745375646264763</v>
       </c>
       <c r="G207" t="n">
-        <v>0.0004111341437216453</v>
+        <v>0.0006617994689589325</v>
       </c>
     </row>
     <row r="208">
@@ -5625,13 +5625,13 @@
         <v>2060</v>
       </c>
       <c r="B208" t="n">
-        <v>84.93391248797035</v>
+        <v>55.7468293411388</v>
       </c>
       <c r="C208" t="n">
-        <v>70.45783573596009</v>
+        <v>70.45783573596077</v>
       </c>
       <c r="D208" t="n">
-        <v>0.7551348770795114</v>
+        <v>0.9093159724863491</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -5639,10 +5639,10 @@
         </is>
       </c>
       <c r="F208" t="n">
-        <v>0.1752537265669538</v>
+        <v>0.174080473073106</v>
       </c>
       <c r="G208" t="n">
-        <v>0.0004242034123463878</v>
+        <v>0.0006987127876568371</v>
       </c>
     </row>
     <row r="209">
@@ -5650,13 +5650,13 @@
         <v>2070</v>
       </c>
       <c r="B209" t="n">
-        <v>82.79127636928038</v>
+        <v>52.93952752430464</v>
       </c>
       <c r="C209" t="n">
-        <v>70.41070532840138</v>
+        <v>70.41070532840206</v>
       </c>
       <c r="D209" t="n">
-        <v>0.7542907762024021</v>
+        <v>0.8976270763109818</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -5664,10 +5664,10 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>0.1752835274246541</v>
+        <v>0.1736198002658058</v>
       </c>
       <c r="G209" t="n">
-        <v>0.0004379806117094871</v>
+        <v>0.0007401461597875992</v>
       </c>
     </row>
     <row r="210">
@@ -5675,13 +5675,13 @@
         <v>2080</v>
       </c>
       <c r="B210" t="n">
-        <v>80.64843106295898</v>
+        <v>50.05603478522503</v>
       </c>
       <c r="C210" t="n">
-        <v>70.36358416457824</v>
+        <v>70.36358416457892</v>
       </c>
       <c r="D210" t="n">
-        <v>0.7534031026939415</v>
+        <v>0.8846727884073692</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -5689,10 +5689,10 @@
         </is>
       </c>
       <c r="F210" t="n">
-        <v>0.1753138814521347</v>
+        <v>0.1731546468808337</v>
       </c>
       <c r="G210" t="n">
-        <v>0.0004525202323325989</v>
+        <v>0.0007870869799776639</v>
       </c>
     </row>
     <row r="211">
@@ -5700,13 +5700,13 @@
         <v>2090</v>
       </c>
       <c r="B211" t="n">
-        <v>78.50527779725589</v>
+        <v>47.08229289596551</v>
       </c>
       <c r="C211" t="n">
-        <v>70.31647224406368</v>
+        <v>70.31647224406436</v>
       </c>
       <c r="D211" t="n">
-        <v>0.75246864343621</v>
+        <v>0.8702125384150915</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -5714,10 +5714,10 @@
         </is>
       </c>
       <c r="F211" t="n">
-        <v>0.1753447935705117</v>
+        <v>0.1726838816462611</v>
       </c>
       <c r="G211" t="n">
-        <v>0.0004678826056352629</v>
+        <v>0.0008408596957360379</v>
       </c>
     </row>
     <row r="212">
@@ -5725,13 +5725,13 @@
         <v>2100</v>
       </c>
       <c r="B212" t="n">
-        <v>76.36171095352772</v>
+        <v>43.99985066143773</v>
       </c>
       <c r="C212" t="n">
-        <v>70.26936956643056</v>
+        <v>70.26936956643124</v>
       </c>
       <c r="D212" t="n">
-        <v>0.751483851379925</v>
+        <v>0.8539303457967233</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -5739,10 +5739,10 @@
         </is>
       </c>
       <c r="F212" t="n">
-        <v>0.1753762689156885</v>
+        <v>0.172206053729693</v>
       </c>
       <c r="G212" t="n">
-        <v>0.0004841347208454549</v>
+        <v>0.0009032913518308968</v>
       </c>
     </row>
     <row r="213">
@@ -5750,13 +5750,13 @@
         <v>2110</v>
       </c>
       <c r="B213" t="n">
-        <v>74.21761731500725</v>
+        <v>40.78375107146888</v>
       </c>
       <c r="C213" t="n">
-        <v>70.22227613125176</v>
+        <v>70.22227613125244</v>
       </c>
       <c r="D213" t="n">
-        <v>0.7504448001511977</v>
+        <v>0.8353993066959542</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -5764,10 +5764,10 @@
         </is>
       </c>
       <c r="F213" t="n">
-        <v>0.1754083128604137</v>
+        <v>0.1717192585584977</v>
       </c>
       <c r="G213" t="n">
-        <v>0.0005013511837220985</v>
+        <v>0.00097698930309619</v>
       </c>
     </row>
     <row r="214">
@@ -5775,13 +5775,13 @@
         <v>2120</v>
       </c>
       <c r="B214" t="n">
-        <v>72.07287520229939</v>
+        <v>37.50991867421381</v>
       </c>
       <c r="C214" t="n">
-        <v>70.1751919381004</v>
+        <v>70.17519193810108</v>
       </c>
       <c r="D214" t="n">
-        <v>0.7493471309977481</v>
+        <v>0.8140223502069316</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -5789,10 +5789,10 @@
         </is>
       </c>
       <c r="F214" t="n">
-        <v>0.1754409310393866</v>
+        <v>0.171220923326057</v>
       </c>
       <c r="G214" t="n">
-        <v>0.0005196153467689553</v>
+        <v>0.001065833852457153</v>
       </c>
     </row>
     <row r="215">
@@ -5800,13 +5800,13 @@
         <v>2130</v>
       </c>
       <c r="B215" t="n">
-        <v>69.92735347444064</v>
+        <v>34.17837244127681</v>
       </c>
       <c r="C215" t="n">
-        <v>70.12811698654934</v>
+        <v>70.12811698655003</v>
       </c>
       <c r="D215" t="n">
-        <v>0.7481859905148598</v>
+        <v>0.789798446408982</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -5814,10 +5814,10 @@
         </is>
       </c>
       <c r="F215" t="n">
-        <v>0.1754741293779507</v>
+        <v>0.1707238937419927</v>
       </c>
       <c r="G215" t="n">
-        <v>0.0005390206479612556</v>
+        <v>0.001171980739913287</v>
       </c>
     </row>
     <row r="216">
@@ -5825,13 +5825,13 @@
         <v>2140</v>
       </c>
       <c r="B216" t="n">
-        <v>67.78091036957584</v>
+        <v>30.77106808535558</v>
       </c>
       <c r="C216" t="n">
-        <v>70.08105127617171</v>
+        <v>70.08105127617239</v>
       </c>
       <c r="D216" t="n">
-        <v>0.7469559572156084</v>
+        <v>0.7621777560003257</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -5839,10 +5839,10 @@
         </is>
       </c>
       <c r="F216" t="n">
-        <v>0.1755079141250383</v>
+        <v>0.1702291803734695</v>
       </c>
       <c r="G216" t="n">
-        <v>0.0005596722044632101</v>
+        <v>0.001300919629350388</v>
       </c>
     </row>
     <row r="217">
@@ -5850,13 +5850,13 @@
         <v>2150</v>
       </c>
       <c r="B217" t="n">
-        <v>65.63339215324038</v>
+        <v>27.26236343960927</v>
       </c>
       <c r="C217" t="n">
-        <v>70.03399480654036</v>
+        <v>70.03399480654116</v>
       </c>
       <c r="D217" t="n">
-        <v>0.7456509545286232</v>
+        <v>0.7302761825420846</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -5864,10 +5864,10 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>0.1755422918911733</v>
+        <v>0.1697353798636584</v>
       </c>
       <c r="G217" t="n">
-        <v>0.0005816887200873227</v>
+        <v>0.001461696077401602</v>
       </c>
     </row>
     <row r="218">
@@ -5875,13 +5875,13 @@
         <v>2160</v>
       </c>
       <c r="B218" t="n">
-        <v>63.47541707416492</v>
+        <v>23.61319041165617</v>
       </c>
       <c r="C218" t="n">
-        <v>69.98694757722865</v>
+        <v>69.98694757722944</v>
       </c>
       <c r="D218" t="n">
-        <v>0.7420651503834046</v>
+        <v>0.692804005510825</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -5889,10 +5889,10 @@
         </is>
       </c>
       <c r="F218" t="n">
-        <v>0.1752369235442355</v>
+        <v>0.1692405111796213</v>
       </c>
       <c r="G218" t="n">
-        <v>0.0006052047813015084</v>
+        <v>0.001669255173232985</v>
       </c>
     </row>
   </sheetData>

--- a/Relatorio_Grupo2.xlsx
+++ b/Relatorio_Grupo2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G218"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>Bg</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Pb_bar</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -494,6 +499,9 @@
       <c r="G2" t="n">
         <v>0</v>
       </c>
+      <c r="H2" t="n">
+        <v>70.039918817274</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -503,7 +511,7 @@
         <v>547.5765345302274</v>
       </c>
       <c r="C3" t="n">
-        <v>79.9554111510887</v>
+        <v>79.95362428004501</v>
       </c>
       <c r="D3" t="n">
         <v>0.9916830223602473</v>
@@ -518,6 +526,9 @@
       </c>
       <c r="G3" t="n">
         <v>7.937636302163967e-05</v>
+      </c>
+      <c r="H3" t="n">
+        <v>70.02736179248055</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +536,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="n">
-        <v>545.1531927665682</v>
+        <v>545.1531894119429</v>
       </c>
       <c r="C4" t="n">
-        <v>79.91076535651558</v>
+        <v>79.90712444580225</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9916703027140106</v>
+        <v>0.9916703294595325</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -539,10 +550,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.1763463073640675</v>
+        <v>0.176346022370279</v>
       </c>
       <c r="G4" t="n">
-        <v>7.950453769526132e-05</v>
+        <v>7.950419031709194e-05</v>
+      </c>
+      <c r="H4" t="n">
+        <v>70.01477336661577</v>
       </c>
     </row>
     <row r="5">
@@ -550,13 +564,13 @@
         <v>30</v>
       </c>
       <c r="B5" t="n">
-        <v>542.7299770504731</v>
+        <v>542.7299668863913</v>
       </c>
       <c r="C5" t="n">
-        <v>79.86606262154254</v>
+        <v>79.86050016096004</v>
       </c>
       <c r="D5" t="n">
-        <v>0.991657463652683</v>
+        <v>0.9916575183753563</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -564,10 +578,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.1763263917120962</v>
+        <v>0.1763258113130346</v>
       </c>
       <c r="G5" t="n">
-        <v>7.963383366030079e-05</v>
+        <v>7.96331233348041e-05</v>
+      </c>
+      <c r="H5" t="n">
+        <v>70.00215346594874</v>
       </c>
     </row>
     <row r="6">
@@ -575,13 +592,13 @@
         <v>40</v>
       </c>
       <c r="B6" t="n">
-        <v>540.3068896939783</v>
+        <v>540.3068691663927</v>
       </c>
       <c r="C6" t="n">
-        <v>79.82130295143099</v>
+        <v>79.81375108782169</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9916445036757072</v>
+        <v>0.9916445876294315</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -589,10 +606,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.1763064123952235</v>
+        <v>0.1763055261406742</v>
       </c>
       <c r="G6" t="n">
-        <v>7.976426575843207e-05</v>
+        <v>7.976317666183574e-05</v>
+      </c>
+      <c r="H6" t="n">
+        <v>69.98950201647884</v>
       </c>
     </row>
     <row r="7">
@@ -600,13 +620,13 @@
         <v>50</v>
       </c>
       <c r="B7" t="n">
-        <v>537.8839329794159</v>
+        <v>537.8838984360726</v>
       </c>
       <c r="C7" t="n">
-        <v>79.77648635144192</v>
+        <v>79.76687688729766</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9916314212532544</v>
+        <v>0.991631535714752</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -614,10 +634,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.1762863716186858</v>
+        <v>0.1762851690193856</v>
       </c>
       <c r="G7" t="n">
-        <v>7.989584912237869e-05</v>
+        <v>7.989436517036605e-05</v>
+      </c>
+      <c r="H7" t="n">
+        <v>69.97681894393452</v>
       </c>
     </row>
     <row r="8">
@@ -625,13 +648,13 @@
         <v>60</v>
       </c>
       <c r="B8" t="n">
-        <v>535.4611091591228</v>
+        <v>535.4610568505897</v>
       </c>
       <c r="C8" t="n">
-        <v>79.73161282683571</v>
+        <v>79.71987721889798</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9916182148252712</v>
+        <v>0.9916183610946608</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -639,10 +662,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.1762662716250774</v>
+        <v>0.1762647421523821</v>
       </c>
       <c r="G8" t="n">
-        <v>8.002859918522323e-05</v>
+        <v>8.002670402677501e-05</v>
+      </c>
+      <c r="H8" t="n">
+        <v>69.9641041737719</v>
       </c>
     </row>
     <row r="9">
@@ -650,13 +676,13 @@
         <v>70</v>
       </c>
       <c r="B9" t="n">
-        <v>533.0384204551478</v>
+        <v>533.038346535862</v>
       </c>
       <c r="C9" t="n">
-        <v>79.68668238287239</v>
+        <v>79.67275174072438</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9916048828004761</v>
+        <v>0.9916050622018714</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -664,10 +690,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.1762461146940527</v>
+        <v>0.1762442477795913</v>
       </c>
       <c r="G9" t="n">
-        <v>8.016253169019473e-05</v>
+        <v>8.016020870118838e-05</v>
+      </c>
+      <c r="H9" t="n">
+        <v>69.95135763117332</v>
       </c>
     </row>
     <row r="10">
@@ -675,13 +704,13 @@
         <v>80</v>
       </c>
       <c r="B10" t="n">
-        <v>530.6158690589573</v>
+        <v>530.6157695882916</v>
       </c>
       <c r="C10" t="n">
-        <v>79.64169502481127</v>
+        <v>79.62550010946256</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9915914235553056</v>
+        <v>0.9915916374374376</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -689,10 +718,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.1762259031420217</v>
+        <v>0.1762236881773376</v>
       </c>
       <c r="G10" t="n">
-        <v>8.029766270096337e-05</v>
+        <v>8.029489497751304e-05</v>
+      </c>
+      <c r="H10" t="n">
+        <v>69.93857924104593</v>
       </c>
     </row>
     <row r="11">
@@ -700,13 +732,13 @@
         <v>90</v>
       </c>
       <c r="B11" t="n">
-        <v>528.1934571311388</v>
+        <v>528.1933280744869</v>
       </c>
       <c r="C11" t="n">
-        <v>79.59665075791145</v>
+        <v>79.57812198037431</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9915778354328035</v>
+        <v>0.9915780851696704</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -714,10 +746,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.176205639321841</v>
+        <v>0.1762030656580184</v>
       </c>
       <c r="G11" t="n">
-        <v>8.043400861247213e-05</v>
+        <v>8.043077896399335e-05</v>
+      </c>
+      <c r="H11" t="n">
+        <v>69.92576892802033</v>
       </c>
     </row>
     <row r="12">
@@ -725,13 +760,13 @@
         <v>100</v>
       </c>
       <c r="B12" t="n">
-        <v>525.7711868011015</v>
+        <v>525.7710240309824</v>
       </c>
       <c r="C12" t="n">
-        <v>79.5515495874314</v>
+        <v>79.53061700728949</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9915641167414534</v>
+        <v>0.9915644037329993</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -739,10 +774,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.1761853256224976</v>
+        <v>0.176182382569775</v>
       </c>
       <c r="G12" t="n">
-        <v>8.057158616233687e-05</v>
+        <v>8.056787710431796e-05</v>
+      </c>
+      <c r="H12" t="n">
+        <v>69.91292661644911</v>
       </c>
     </row>
     <row r="13">
@@ -750,13 +788,13 @@
         <v>110</v>
       </c>
       <c r="B13" t="n">
-        <v>523.3490601667762</v>
+        <v>523.348859463957</v>
       </c>
       <c r="C13" t="n">
-        <v>79.50639151862919</v>
+        <v>79.48298484259817</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9915502657539479</v>
+        <v>0.9915505914267717</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -764,10 +802,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.176164964468789</v>
+        <v>0.1761616412961581</v>
       </c>
       <c r="G13" t="n">
-        <v>8.071041244284823e-05</v>
+        <v>8.070620618930895e-05</v>
+      </c>
+      <c r="H13" t="n">
+        <v>69.90005223040536</v>
       </c>
     </row>
     <row r="14">
@@ -775,13 +816,13 @@
         <v>120</v>
       </c>
       <c r="B14" t="n">
-        <v>520.9270792943107</v>
+        <v>520.9268363489482</v>
       </c>
       <c r="C14" t="n">
-        <v>79.46117655676227</v>
+        <v>79.43522513724241</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9915362807058934</v>
+        <v>0.9915366465139902</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -789,10 +830,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.1761445583209968</v>
+        <v>0.1761408442557877</v>
       </c>
       <c r="G14" t="n">
-        <v>8.085050491360981e-05</v>
+        <v>8.084578336922759e-05</v>
+      </c>
+      <c r="H14" t="n">
+        <v>69.8871456936813</v>
       </c>
     </row>
     <row r="15">
@@ -800,13 +844,13 @@
         <v>130</v>
       </c>
       <c r="B15" t="n">
-        <v>518.5052462177636</v>
+        <v>518.5049566305649</v>
       </c>
       <c r="C15" t="n">
-        <v>79.41590470708775</v>
+        <v>79.3873375407083</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9915221597944465</v>
+        <v>0.9915225672199842</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -814,10 +858,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.1761241096745567</v>
+        <v>0.1761199939020078</v>
       </c>
       <c r="G15" t="n">
-        <v>8.099188141484904e-05</v>
+        <v>8.098662616673078e-05</v>
+      </c>
+      <c r="H15" t="n">
+        <v>69.87420692978682</v>
       </c>
     </row>
     <row r="16">
@@ -825,13 +872,13 @@
         <v>140</v>
       </c>
       <c r="B16" t="n">
-        <v>516.0835629387943</v>
+        <v>516.0832222221964</v>
       </c>
       <c r="C16" t="n">
-        <v>79.37057597486211</v>
+        <v>79.33932170101781</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9915079011768755</v>
+        <v>0.9915083517310072</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -839,10 +886,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.1761036210597222</v>
+        <v>0.1760990927225371</v>
       </c>
       <c r="G16" t="n">
-        <v>8.113456018143769e-05</v>
+        <v>8.112875249051532e-05</v>
+      </c>
+      <c r="H16" t="n">
+        <v>69.86123586194792</v>
       </c>
     </row>
     <row r="17">
@@ -850,13 +900,13 @@
         <v>150</v>
       </c>
       <c r="B17" t="n">
-        <v>513.6620314263503</v>
+        <v>513.6616350057169</v>
       </c>
       <c r="C17" t="n">
-        <v>79.32519036534148</v>
+        <v>79.29117726472037</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9914935029690469</v>
+        <v>0.9914939981927641</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -864,10 +914,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.1760830950412256</v>
+        <v>0.176078143239114</v>
       </c>
       <c r="G17" t="n">
-        <v>8.127855985766328e-05</v>
+        <v>8.127218064968808e-05</v>
+      </c>
+      <c r="H17" t="n">
+        <v>69.84823241310536</v>
       </c>
     </row>
     <row r="18">
@@ -875,13 +928,13 @@
         <v>160</v>
       </c>
       <c r="B18" t="n">
-        <v>511.2406536163504</v>
+        <v>511.2401968311888</v>
       </c>
       <c r="C18" t="n">
-        <v>79.27974788378145</v>
+        <v>79.24290387688501</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9914789632438297</v>
+        <v>0.9914795047088567</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -889,10 +942,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.176062534217933</v>
+        <v>0.176057148007138</v>
       </c>
       <c r="G18" t="n">
-        <v>8.142389951279029e-05</v>
+        <v>8.141692936890142e-05</v>
+      </c>
+      <c r="H18" t="n">
+        <v>69.83519650591309</v>
       </c>
     </row>
     <row r="19">
@@ -900,13 +956,13 @@
         <v>170</v>
       </c>
       <c r="B19" t="n">
-        <v>508.819431411364</v>
+        <v>508.8189095165594</v>
       </c>
       <c r="C19" t="n">
-        <v>79.23424853543713</v>
+        <v>79.1945011810916</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9914642800294148</v>
+        <v>0.991464869339148</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -914,10 +970,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.1760419412224966</v>
+        <v>0.1760361096153065</v>
       </c>
       <c r="G19" t="n">
-        <v>8.157059865745543e-05</v>
+        <v>8.156301780429629e-05</v>
+      </c>
+      <c r="H19" t="n">
+        <v>69.82212806273679</v>
       </c>
     </row>
     <row r="20">
@@ -925,13 +984,13 @@
         <v>180</v>
       </c>
       <c r="B20" t="n">
-        <v>506.398366680286</v>
+        <v>506.3977748473553</v>
       </c>
       <c r="C20" t="n">
-        <v>79.18869232556307</v>
+        <v>79.14596881942265</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9914494513075438</v>
+        <v>0.9914500900980375</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -939,10 +998,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.1760213187210022</v>
+        <v>0.1760150306852476</v>
       </c>
       <c r="G20" t="n">
-        <v>8.171867726094135e-05</v>
+        <v>8.17104655602953e-05</v>
+      </c>
+      <c r="H20" t="n">
+        <v>69.80902700565235</v>
       </c>
     </row>
     <row r="21">
@@ -950,13 +1012,13 @@
         <v>190</v>
       </c>
       <c r="B21" t="n">
-        <v>503.9774612580077</v>
+        <v>503.9767945763707</v>
       </c>
       <c r="C21" t="n">
-        <v>79.14307925941341</v>
+        <v>79.09730643245501</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9914344750116435</v>
+        <v>0.9914351649526469</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -964,10 +1026,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.1760006694126132</v>
+        <v>0.1759939138711489</v>
       </c>
       <c r="G21" t="n">
-        <v>8.186815576937457e-05</v>
+        <v>8.185929270729082e-05</v>
+      </c>
+      <c r="H21" t="n">
+        <v>69.7958932564444</v>
       </c>
     </row>
     <row r="22">
@@ -975,13 +1040,13 @@
         <v>200</v>
       </c>
       <c r="B22" t="n">
-        <v>501.5567169450823</v>
+        <v>501.5559704233522</v>
       </c>
       <c r="C22" t="n">
-        <v>79.0974093422418</v>
+        <v>79.048513659251</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9914193490248594</v>
+        <v>0.9914200918209075</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -989,10 +1054,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.1759799960292118</v>
+        <v>0.1759727618593831</v>
       </c>
       <c r="G22" t="n">
-        <v>8.20190551248964e-05</v>
+        <v>8.200951980027595e-05</v>
+      </c>
+      <c r="H22" t="n">
+        <v>69.78272673660464</v>
       </c>
     </row>
     <row r="23">
@@ -1000,13 +1068,13 @@
         <v>210</v>
       </c>
       <c r="B23" t="n">
-        <v>499.1361355073848</v>
+        <v>499.1353040746768</v>
       </c>
       <c r="C23" t="n">
-        <v>79.05168257930137</v>
+        <v>78.99959013735008</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9914040711779862</v>
+        <v>0.9914048685695457</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1014,10 +1082,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.1759593013350357</v>
+        <v>0.1759515773681302</v>
       </c>
       <c r="G23" t="n">
-        <v>8.217139678585592e-05</v>
+        <v>8.216116789846472e-05</v>
+      </c>
+      <c r="H23" t="n">
+        <v>69.7695273673305</v>
       </c>
     </row>
     <row r="24">
@@ -1025,13 +1096,13 @@
         <v>220</v>
       </c>
       <c r="B24" t="n">
-        <v>496.7157186757671</v>
+        <v>496.7147971830249</v>
       </c>
       <c r="C24" t="n">
-        <v>79.00589897584484</v>
+        <v>78.95053550276026</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9913886392472877</v>
+        <v>0.9913894930119636</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1039,10 +1110,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.1759385881263125</v>
+        <v>0.1759303631469957</v>
       </c>
       <c r="G24" t="n">
-        <v>8.232520274807783e-05</v>
+        <v>8.231425858595462e-05</v>
+      </c>
+      <c r="H24" t="n">
+        <v>69.75629506952347</v>
       </c>
     </row>
     <row r="25">
@@ -1050,13 +1124,13 @@
         <v>230</v>
       </c>
       <c r="B25" t="n">
-        <v>494.2954681457059</v>
+        <v>494.2944513670475</v>
       </c>
       <c r="C25" t="n">
-        <v>78.96005853712438</v>
+        <v>78.9013493899493</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9913730509521987</v>
+        <v>0.9913739629060053</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1064,10 +1138,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.1759178592308915</v>
+        <v>0.1759091219766268</v>
       </c>
       <c r="G25" t="n">
-        <v>8.248049556725811e-05</v>
+        <v>8.246881399348111e-05</v>
+      </c>
+      <c r="H25" t="n">
+        <v>69.74302976378753</v>
       </c>
     </row>
     <row r="26">
@@ -1075,13 +1152,13 @@
         <v>240</v>
       </c>
       <c r="B26" t="n">
-        <v>491.875385576945</v>
+        <v>491.8742682110262</v>
       </c>
       <c r="C26" t="n">
-        <v>78.91416126839164</v>
+        <v>78.852031431836</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9913573039529099</v>
+        <v>0.9913582759516074</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1089,10 +1166,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.1758971175078719</v>
+        <v>0.1758878566683252</v>
       </c>
       <c r="G26" t="n">
-        <v>8.263729838254314e-05</v>
+        <v>8.262485682132023e-05</v>
+      </c>
+      <c r="H26" t="n">
+        <v>69.72973137042771</v>
       </c>
     </row>
     <row r="27">
@@ -1100,13 +1180,13 @@
         <v>250</v>
       </c>
       <c r="B27" t="n">
-        <v>489.45547259313</v>
+        <v>489.4542492645267</v>
       </c>
       <c r="C27" t="n">
-        <v>78.86820717489792</v>
+        <v>78.80258125978128</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9913413958478212</v>
+        <v>0.9913424297883242</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1114,10 +1194,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.1758763658472291</v>
+        <v>0.1758665700636572</v>
       </c>
       <c r="G27" t="n">
-        <v>8.279563494135016e-05</v>
+        <v>8.27824103633945e-05</v>
+      </c>
+      <c r="H27" t="n">
+        <v>69.71639980944833</v>
       </c>
     </row>
     <row r="28">
@@ -1125,13 +1208,13 @@
         <v>260</v>
       </c>
       <c r="B28" t="n">
-        <v>487.0357307814356</v>
+        <v>487.034396042044</v>
       </c>
       <c r="C28" t="n">
-        <v>78.82219626189391</v>
+        <v>78.75299850357953</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9913253241708656</v>
+        <v>0.9913264219927251</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1139,10 +1222,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.1758556071694383</v>
+        <v>0.1758452650340617</v>
       </c>
       <c r="G28" t="n">
-        <v>8.295552962548801e-05</v>
+        <v>8.294149853264018e-05</v>
+      </c>
+      <c r="H28" t="n">
+        <v>69.70303500055161</v>
       </c>
     </row>
     <row r="29">
@@ -1150,13 +1236,13 @@
         <v>270</v>
       </c>
       <c r="B29" t="n">
-        <v>484.6161616921849</v>
+        <v>484.6147100226407</v>
       </c>
       <c r="C29" t="n">
-        <v>78.77612853462989</v>
+        <v>78.70328279144945</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9913090863886904</v>
+        <v>0.9913102500756562</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1164,10 +1250,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.1758348444250966</v>
+        <v>0.1758239444804556</v>
       </c>
       <c r="G29" t="n">
-        <v>8.311700747864014e-05</v>
+        <v>8.310214588769643e-05</v>
+      </c>
+      <c r="H29" t="n">
+        <v>69.68963686313586</v>
       </c>
     </row>
     <row r="30">
@@ -1175,13 +1264,13 @@
         <v>280</v>
       </c>
       <c r="B30" t="n">
-        <v>482.1967668384604</v>
+        <v>482.1951926495762</v>
       </c>
       <c r="C30" t="n">
-        <v>78.73000399835558</v>
+        <v>78.6534337500251</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9912926798976947</v>
+        <v>0.9912939114793587</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1189,10 +1278,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.1758140805945424</v>
+        <v>0.1758026113328374</v>
       </c>
       <c r="G30" t="n">
-        <v>8.328009423527322e-05</v>
+        <v>8.326437766097851e-05</v>
+      </c>
+      <c r="H30" t="n">
+        <v>69.67620531629403</v>
       </c>
     </row>
     <row r="31">
@@ -1200,13 +1292,13 @@
         <v>290</v>
       </c>
       <c r="B31" t="n">
-        <v>479.7775476957058</v>
+        <v>479.7758453299267</v>
       </c>
       <c r="C31" t="n">
-        <v>78.68382265832025</v>
+        <v>78.60345100434688</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9912761020209127</v>
+        <v>0.9912774035744421</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1214,10 +1306,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.1757933186874735</v>
+        <v>0.1757812685498889</v>
       </c>
       <c r="G31" t="n">
-        <v>8.34448163510369e-05</v>
+        <v>8.342821978819881e-05</v>
+      </c>
+      <c r="H31" t="n">
+        <v>69.66274027881208</v>
       </c>
     </row>
     <row r="32">
@@ -1225,13 +1320,13 @@
         <v>300</v>
       </c>
       <c r="B32" t="n">
-        <v>477.3585057013174</v>
+        <v>477.356669434196</v>
       </c>
       <c r="C32" t="n">
-        <v>78.6375845197727</v>
+        <v>78.55333417785249</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9912593500047389</v>
+        <v>0.9912607236566975</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1239,10 +1334,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.1757725617425631</v>
+        <v>0.1757599191185746</v>
       </c>
       <c r="G32" t="n">
-        <v>8.361120103472234e-05</v>
+        <v>8.359369893940296e-05</v>
+      </c>
+      <c r="H32" t="n">
+        <v>69.6492416691672</v>
       </c>
     </row>
     <row r="33">
@@ -1250,13 +1348,13 @@
         <v>310</v>
       </c>
       <c r="B33" t="n">
-        <v>474.9396422542267</v>
+        <v>474.9376662959156</v>
       </c>
       <c r="C33" t="n">
-        <v>78.59128958796128</v>
+        <v>78.50308289236739</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9912424210154847</v>
+        <v>0.9912438689437538</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1264,10 +1362,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.1757518128270754</v>
+        <v>0.1757385660537407</v>
       </c>
       <c r="G33" t="n">
-        <v>8.377927628184999e-05</v>
+        <v>8.376084255158873e-05</v>
+      </c>
+      <c r="H33" t="n">
+        <v>69.63570940552636</v>
       </c>
     </row>
     <row r="34">
@@ -1275,13 +1376,13 @@
         <v>320</v>
       </c>
       <c r="B34" t="n">
-        <v>472.5209587144705</v>
+        <v>472.5188372112346</v>
       </c>
       <c r="C34" t="n">
-        <v>78.54493786813373</v>
+        <v>78.45269676809585</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9912253121357633</v>
+        <v>0.9912268365715607</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1289,10 +1390,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.175731075036479</v>
+        <v>0.1757172123977117</v>
       </c>
       <c r="G34" t="n">
-        <v>8.394907090995764e-05</v>
+        <v>8.392967886297932e-05</v>
+      </c>
+      <c r="H34" t="n">
+        <v>69.62214340574451</v>
       </c>
     </row>
     <row r="35">
@@ -1300,13 +1404,13 @@
         <v>330</v>
       </c>
       <c r="B35" t="n">
-        <v>470.1024564027506</v>
+        <v>470.100183438497</v>
       </c>
       <c r="C35" t="n">
-        <v>78.49852936553742</v>
+        <v>78.40217542361148</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9912080203606902</v>
+        <v>0.9912096235906964</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1314,10 +1418,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.1757103514940594</v>
+        <v>0.1756958612198863</v>
       </c>
       <c r="G35" t="n">
-        <v>8.412061459566421e-05</v>
+        <v>8.410023694902408e-05</v>
+      </c>
+      <c r="H35" t="n">
+        <v>69.60854358736295</v>
       </c>
     </row>
     <row r="36">
@@ -1325,13 +1432,13 @@
         <v>340</v>
       </c>
       <c r="B36" t="n">
-        <v>467.6841365999806</v>
+        <v>467.6817061978084</v>
       </c>
       <c r="C36" t="n">
-        <v>78.45206408541924</v>
+        <v>78.35151847584791</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9911905425938973</v>
+        <v>0.991192226962491</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1339,10 +1446,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.1756896453505309</v>
+        <v>0.1756745156163324</v>
       </c>
       <c r="G36" t="n">
-        <v>8.429393791358549e-05</v>
+        <v>8.427254676020151e-05</v>
+      </c>
+      <c r="H36" t="n">
+        <v>69.59490986760775</v>
       </c>
     </row>
     <row r="37">
@@ -1350,13 +1460,13 @@
         <v>350</v>
       </c>
       <c r="B37" t="n">
-        <v>465.2660005468193</v>
+        <v>465.2634066705878</v>
       </c>
       <c r="C37" t="n">
-        <v>78.40554203302548</v>
+        <v>78.30072554008922</v>
       </c>
       <c r="D37" t="n">
-        <v>0.991172875643347</v>
+        <v>0.9911746435549563</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1364,10 +1474,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.1756689597836482</v>
+        <v>0.1756531787093807</v>
       </c>
       <c r="G37" t="n">
-        <v>8.446907237718024e-05</v>
+        <v>8.444663916170327e-05</v>
+      </c>
+      <c r="H37" t="n">
+        <v>69.58124216338794</v>
       </c>
     </row>
     <row r="38">
@@ -1375,13 +1488,13 @@
         <v>360</v>
       </c>
       <c r="B38" t="n">
-        <v>462.8480494431914</v>
+        <v>462.8452859991075</v>
       </c>
       <c r="C38" t="n">
-        <v>78.35896321360207</v>
+        <v>78.24979622996045</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9911550162169425</v>
+        <v>0.9911568701385168</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1389,10 +1502,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.1756482979978161</v>
+        <v>0.1756318536472187</v>
       </c>
       <c r="G38" t="n">
-        <v>8.464605048160901e-05</v>
+        <v>8.462254597507916e-05</v>
+      </c>
+      <c r="H38" t="n">
+        <v>69.56754039129379</v>
       </c>
     </row>
     <row r="39">
@@ -1400,13 +1516,13 @@
         <v>370</v>
       </c>
       <c r="B39" t="n">
-        <v>460.4302844477926</v>
+        <v>460.4273452860176</v>
       </c>
       <c r="C39" t="n">
-        <v>78.31232763239439</v>
+        <v>78.19873015741803</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9911369609179219</v>
+        <v>0.9911389033815294</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1414,10 +1530,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.1756276632237002</v>
+        <v>0.175610543603483</v>
       </c>
       <c r="G39" t="n">
-        <v>8.482490574868913e-05</v>
+        <v>8.480030002192598e-05</v>
+      </c>
+      <c r="H39" t="n">
+        <v>69.55380446759524</v>
       </c>
     </row>
     <row r="40">
@@ -1425,13 +1544,13 @@
         <v>380</v>
       </c>
       <c r="B40" t="n">
-        <v>458.01270667758</v>
+        <v>458.0095855938552</v>
       </c>
       <c r="C40" t="n">
-        <v>78.26563529464738</v>
+        <v>78.14752693273994</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9911187062400318</v>
+        <v>0.9911207398455869</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1439,10 +1558,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.1756070587178369</v>
+        <v>0.1755892517768519</v>
       </c>
       <c r="G40" t="n">
-        <v>8.500567277403246e-05</v>
+        <v>8.497993516970573e-05</v>
+      </c>
+      <c r="H40" t="n">
+        <v>69.54003430824008</v>
       </c>
     </row>
     <row r="41">
@@ -1450,13 +1572,13 @@
         <v>390</v>
       </c>
       <c r="B41" t="n">
-        <v>455.5953172072452</v>
+        <v>455.5920079445378</v>
       </c>
       <c r="C41" t="n">
-        <v>78.21888620560543</v>
+        <v>78.09618616451627</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9911002485624668</v>
+        <v>0.9911023759805939</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1464,10 +1586,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.1755864877622432</v>
+        <v>0.1755679813906383</v>
       </c>
       <c r="G41" t="n">
-        <v>8.518838727645469e-05</v>
+        <v>8.516148637978137e-05</v>
+      </c>
+      <c r="H41" t="n">
+        <v>69.52622982885218</v>
       </c>
     </row>
     <row r="42">
@@ -1475,13 +1600,13 @@
         <v>400</v>
       </c>
       <c r="B42" t="n">
-        <v>453.1781170686719</v>
+        <v>453.1746133188396</v>
       </c>
       <c r="C42" t="n">
-        <v>78.1720803705125</v>
+        <v>78.04470745963897</v>
       </c>
       <c r="D42" t="n">
-        <v>0.991081584144568</v>
+        <v>0.9910838081196077</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1489,10 +1614,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.1755659536640266</v>
+        <v>0.1755467356923813</v>
       </c>
       <c r="G42" t="n">
-        <v>8.537308614974861e-05</v>
+        <v>8.534498975776156e-05</v>
+      </c>
+      <c r="H42" t="n">
+        <v>69.5123909447298</v>
       </c>
     </row>
     <row r="43">
@@ -1500,13 +1628,13 @@
         <v>410</v>
       </c>
       <c r="B43" t="n">
-        <v>450.7611072503734</v>
+        <v>450.7574026558501</v>
       </c>
       <c r="C43" t="n">
-        <v>78.12521779461201</v>
+        <v>77.99309042329224</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9910627091202716</v>
+        <v>0.9910650324734326</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1514,10 +1642,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.1755454597549959</v>
+        <v>0.1755255179534394</v>
       </c>
       <c r="G43" t="n">
-        <v>8.555980751691565e-05</v>
+        <v>8.553048260624672e-05</v>
+      </c>
+      <c r="H43" t="n">
+        <v>69.49851757084386</v>
       </c>
     </row>
     <row r="44">
@@ -1525,13 +1656,13 @@
         <v>420</v>
       </c>
       <c r="B44" t="n">
-        <v>448.3442886969125</v>
+        <v>448.3403768524127</v>
       </c>
       <c r="C44" t="n">
-        <v>78.07829848314697</v>
+        <v>77.94133465894282</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9910436194922951</v>
+        <v>0.9910460451249593</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1539,10 +1670,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.1755250093912715</v>
+        <v>0.1755043314685831</v>
       </c>
       <c r="G44" t="n">
-        <v>8.574859078695304e-05</v>
+        <v>8.571800348007533e-05</v>
+      </c>
+      <c r="H44" t="n">
+        <v>69.48460962183611</v>
       </c>
     </row>
     <row r="45">
@@ -1550,13 +1684,13 @@
         <v>430</v>
       </c>
       <c r="B45" t="n">
-        <v>445.9276623083007</v>
+        <v>445.9235367625451</v>
       </c>
       <c r="C45" t="n">
-        <v>78.03132244135986</v>
+        <v>77.88943976832934</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9910243111260542</v>
+        <v>0.9910268420232392</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1564,10 +1698,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.1755046059528971</v>
+        <v>0.1754831795555883</v>
       </c>
       <c r="G45" t="n">
-        <v>8.593947671429794e-05</v>
+        <v>8.590759224416861e-05</v>
+      </c>
+      <c r="H45" t="n">
+        <v>69.47066701201732</v>
       </c>
     </row>
     <row r="46">
@@ -1575,13 +1712,13 @@
         <v>440</v>
       </c>
       <c r="B46" t="n">
-        <v>443.5112289393762</v>
+        <v>443.5068831968374</v>
       </c>
       <c r="C46" t="n">
-        <v>77.98428967449269</v>
+        <v>77.83740535145245</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9910047797432961</v>
+        <v>0.9910074189772824</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1589,10 +1726,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.1754842528434516</v>
+        <v>0.1754620655548302</v>
       </c>
       <c r="G46" t="n">
-        <v>8.613250746103131e-05</v>
+        <v>8.609929013407715e-05</v>
+      </c>
+      <c r="H46" t="n">
+        <v>69.45668965536555</v>
       </c>
     </row>
     <row r="47">
@@ -1600,13 +1740,13 @@
         <v>450</v>
       </c>
       <c r="B47" t="n">
-        <v>441.0949893991595</v>
+        <v>441.0904169218285</v>
       </c>
       <c r="C47" t="n">
-        <v>77.93720018778697</v>
+        <v>77.78523100656497</v>
       </c>
       <c r="D47" t="n">
-        <v>0.990985020915443</v>
+        <v>0.9909877716495692</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1614,10 +1754,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.1754639534896624</v>
+        <v>0.1754409928288781</v>
       </c>
       <c r="G47" t="n">
-        <v>8.632772666194936e-05</v>
+        <v>8.629313981933563e-05</v>
+      </c>
+      <c r="H47" t="n">
+        <v>69.44267746552434</v>
       </c>
     </row>
     <row r="48">
@@ -1625,13 +1768,13 @@
         <v>460</v>
       </c>
       <c r="B48" t="n">
-        <v>438.6789444501862</v>
+        <v>438.6741386593601</v>
       </c>
       <c r="C48" t="n">
-        <v>77.89005398648374</v>
+        <v>77.73291633016117</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9909650300566295</v>
+        <v>0.9909678955492632</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1639,10 +1782,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.1754437113410193</v>
+        <v>0.1754199647620913</v>
       </c>
       <c r="G48" t="n">
-        <v>8.652517949261268e-05</v>
+        <v>8.648918546973585e-05</v>
+      </c>
+      <c r="H48" t="n">
+        <v>69.42863035580079</v>
       </c>
     </row>
     <row r="49">
@@ -1650,13 +1796,13 @@
         <v>470</v>
       </c>
       <c r="B49" t="n">
-        <v>436.2630948078148</v>
+        <v>436.2580490859049</v>
       </c>
       <c r="C49" t="n">
-        <v>77.84285107582355</v>
+        <v>77.68046091696675</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9909448024164267</v>
+        <v>0.9909477860251172</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1664,10 +1810,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.17542352986939</v>
+        <v>0.1753989847602159</v>
       </c>
       <c r="G49" t="n">
-        <v>8.672491274048641e-05</v>
+        <v>8.668747282463077e-05</v>
+      </c>
+      <c r="H49" t="n">
+        <v>69.41454823916386</v>
       </c>
     </row>
     <row r="50">
@@ -1675,13 +1824,13 @@
         <v>480</v>
       </c>
       <c r="B50" t="n">
-        <v>433.8474411395082</v>
+        <v>433.8421488318708</v>
       </c>
       <c r="C50" t="n">
-        <v>77.79559146104646</v>
+        <v>77.6278643599282</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9909243330722388</v>
+        <v>0.9909274382580547</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1689,10 +1838,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.1754034125686364</v>
+        <v>0.1753780562499823</v>
       </c>
       <c r="G50" t="n">
-        <v>8.692697487929037e-05</v>
+        <v>8.688804926538687e-05</v>
+      </c>
+      <c r="H50" t="n">
+        <v>69.40043102824247</v>
       </c>
     </row>
     <row r="51">
@@ -1700,13 +1852,13 @@
         <v>490</v>
       </c>
       <c r="B51" t="n">
-        <v>431.4319840640891</v>
+        <v>431.4264384808769</v>
       </c>
       <c r="C51" t="n">
-        <v>77.74827514739206</v>
+        <v>77.57512625020246</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9909036169213614</v>
+        <v>0.990906847253422</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1714,10 +1866,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.1753833629542333</v>
+        <v>0.1753571826787054</v>
       </c>
       <c r="G51" t="n">
-        <v>8.713141614667958e-05</v>
+        <v>8.709096389110534e-05</v>
+      </c>
+      <c r="H51" t="n">
+        <v>69.38627863532354</v>
       </c>
     </row>
     <row r="52">
@@ -1725,13 +1880,13 @@
         <v>500</v>
       </c>
       <c r="B52" t="n">
-        <v>429.016724150966</v>
+        <v>429.0109185690028</v>
       </c>
       <c r="C52" t="n">
-        <v>77.7009021400994</v>
+        <v>77.52224617714614</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9908826486726861</v>
+        <v>0.9908860078328904</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1739,10 +1894,13 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.1753633845628879</v>
+        <v>0.1753363675138851</v>
       </c>
       <c r="G52" t="n">
-        <v>8.7338288625381e-05</v>
+        <v>8.729626759773794e-05</v>
+      </c>
+      <c r="H52" t="n">
+        <v>69.37209097235024</v>
       </c>
     </row>
     <row r="53">
@@ -1750,13 +1908,13 @@
         <v>510</v>
       </c>
       <c r="B53" t="n">
-        <v>426.6016619193302</v>
+        <v>426.5955895840071</v>
       </c>
       <c r="C53" t="n">
-        <v>77.6534724444071</v>
+        <v>77.46922372830551</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9908614228380421</v>
+        <v>0.9908649146260027</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1764,10 +1922,13 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.1753434809521613</v>
+        <v>0.175315614242809</v>
       </c>
       <c r="G53" t="n">
-        <v>8.754764632791669e-05</v>
+        <v>8.750401316072528e-05</v>
+      </c>
+      <c r="H53" t="n">
+        <v>69.35786795092017</v>
       </c>
     </row>
     <row r="54">
@@ -1775,13 +1936,13 @@
         <v>520</v>
       </c>
       <c r="B54" t="n">
-        <v>424.186797837321</v>
+        <v>424.1804519645157</v>
       </c>
       <c r="C54" t="n">
-        <v>77.60598606555334</v>
+        <v>77.41605848940469</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9908399337231588</v>
+        <v>0.9908435620613465</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1789,10 +1950,13 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.1753236557000925</v>
+        <v>0.1752949263721569</v>
       </c>
       <c r="G54" t="n">
-        <v>8.7759545285047e-05</v>
+        <v>8.771425532129265e-05</v>
+      </c>
+      <c r="H54" t="n">
+        <v>69.34360948228318</v>
       </c>
     </row>
     <row r="55">
@@ -1800,13 +1964,13 @@
         <v>530</v>
       </c>
       <c r="B55" t="n">
-        <v>421.7721323211583</v>
+        <v>421.7655060991778</v>
       </c>
       <c r="C55" t="n">
-        <v>77.55844300877573</v>
+        <v>77.36275004433594</v>
       </c>
       <c r="D55" t="n">
-        <v>0.990818175418236</v>
+        <v>0.9908219443573388</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1814,10 +1978,13 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.1753039124048239</v>
+        <v>0.1752743074276073</v>
       </c>
       <c r="G55" t="n">
-        <v>8.797404363807313e-05</v>
+        <v>8.792705087654011e-05</v>
+      </c>
+      <c r="H55" t="n">
+        <v>69.32931547733975</v>
       </c>
     </row>
     <row r="56">
@@ -1825,13 +1992,13 @@
         <v>540</v>
       </c>
       <c r="B56" t="n">
-        <v>419.3576657342408</v>
+        <v>419.3507523257872</v>
       </c>
       <c r="C56" t="n">
-        <v>77.51084327931159</v>
+        <v>77.3092979751479</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9907961417881067</v>
+        <v>0.9908000555126139</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1839,10 +2006,13 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.1752842546842288</v>
+        <v>0.1752537609534456</v>
       </c>
       <c r="G56" t="n">
-        <v>8.81912017351429e-05</v>
+        <v>8.814245877347122e-05</v>
+      </c>
+      <c r="H56" t="n">
+        <v>69.3149858466389</v>
       </c>
     </row>
     <row r="57">
@@ -1850,13 +2020,13 @@
         <v>550</v>
       </c>
       <c r="B57" t="n">
-        <v>416.9433983862091</v>
+        <v>416.9361909303693</v>
       </c>
       <c r="C57" t="n">
-        <v>77.46318688239739</v>
+        <v>77.25570186203538</v>
       </c>
       <c r="D57" t="n">
-        <v>0.9907738264619796</v>
+        <v>0.9907778892959919</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1864,10 +2034,13 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0.1752646861755422</v>
+        <v>0.1752332905121754</v>
       </c>
       <c r="G57" t="n">
-        <v>8.841108223170791e-05</v>
+        <v>8.836054020710755e-05</v>
+      </c>
+      <c r="H57" t="n">
+        <v>69.30062050037631</v>
       </c>
     </row>
     <row r="58">
@@ -1875,13 +2048,13 @@
         <v>560</v>
       </c>
       <c r="B58" t="n">
-        <v>414.5293305319697</v>
+        <v>414.5218221462296</v>
       </c>
       <c r="C58" t="n">
-        <v>77.41547382326939</v>
+        <v>77.20196128332771</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9907512228227433</v>
+        <v>0.9907554392360181</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1889,10 +2062,13 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0.1752452105349933</v>
+        <v>0.1752128996841311</v>
       </c>
       <c r="G58" t="n">
-        <v>8.863375019528724e-05</v>
+        <v>8.858135872284323e-05</v>
+      </c>
+      <c r="H58" t="n">
+        <v>69.28621934839235</v>
       </c>
     </row>
     <row r="59">
@@ -1900,13 +2076,13 @@
         <v>570</v>
       </c>
       <c r="B59" t="n">
-        <v>412.1154623706813</v>
+        <v>412.1076461529651</v>
       </c>
       <c r="C59" t="n">
-        <v>77.36770410716343</v>
+        <v>77.14807581547785</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9907283239958172</v>
+        <v>0.9907326986100553</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1914,10 +2090,13 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.1752258314374409</v>
+        <v>0.1751925920670937</v>
       </c>
       <c r="G59" t="n">
-        <v>8.885927321469719e-05</v>
+        <v>8.880498032319811e-05</v>
+      </c>
+      <c r="H59" t="n">
+        <v>69.27178230017006</v>
       </c>
     </row>
     <row r="60">
@@ -1925,13 +2104,13 @@
         <v>580</v>
       </c>
       <c r="B60" t="n">
-        <v>409.7017940446991</v>
+        <v>409.6936630754328</v>
       </c>
       <c r="C60" t="n">
-        <v>77.31987773931462</v>
+        <v>77.09404503305132</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9907051228375328</v>
+        <v>0.990709660432911</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1939,10 +2118,13 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.1752065525760119</v>
+        <v>0.1751723712759095</v>
       </c>
       <c r="G60" t="n">
-        <v>8.908772151391313e-05</v>
+        <v>8.903147357913429e-05</v>
+      </c>
+      <c r="H60" t="n">
+        <v>69.2573092648333</v>
       </c>
     </row>
     <row r="61">
@@ -1950,13 +2132,13 @@
         <v>590</v>
       </c>
       <c r="B61" t="n">
-        <v>407.2883256384766</v>
+        <v>407.2798729826778</v>
       </c>
       <c r="C61" t="n">
-        <v>77.27199472495761</v>
+        <v>77.03986850871468</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9906816119230283</v>
+        <v>0.9906863174449854</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1964,10 +2146,13 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.175187377661742</v>
+        <v>0.1751522409421105</v>
       </c>
       <c r="G61" t="n">
-        <v>8.931916807073518e-05</v>
+        <v>8.926090974610849e-05</v>
+      </c>
+      <c r="H61" t="n">
+        <v>69.24280015114459</v>
       </c>
     </row>
     <row r="62">
@@ -1975,13 +2160,13 @@
         <v>600</v>
       </c>
       <c r="B62" t="n">
-        <v>404.8750571774223</v>
+        <v>404.8662758868159</v>
       </c>
       <c r="C62" t="n">
-        <v>77.22405506932677</v>
+        <v>76.98554581322418</v>
       </c>
       <c r="D62" t="n">
-        <v>0.990657783533637</v>
+        <v>0.9906626620999194</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1989,10 +2174,13 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0.1751683104232201</v>
+        <v>0.1751322047135394</v>
       </c>
       <c r="G62" t="n">
-        <v>8.955368874043698e-05</v>
+        <v>8.949336288503599e-05</v>
+      </c>
+      <c r="H62" t="n">
+        <v>69.22825486750327</v>
       </c>
     </row>
     <row r="63">
@@ -2000,13 +2188,13 @@
         <v>610</v>
       </c>
       <c r="B63" t="n">
-        <v>402.46198862671</v>
+        <v>402.45287174187</v>
       </c>
       <c r="C63" t="n">
-        <v>77.17605877765573</v>
+        <v>76.93107651541425</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9906336296437537</v>
+        <v>0.9906386865517267</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2014,10 +2202,13 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0.1751493546062358</v>
+        <v>0.1751122662539756</v>
       </c>
       <c r="G63" t="n">
-        <v>8.979136238458344e-05</v>
+        <v>8.972890998835253e-05</v>
+      </c>
+      <c r="H63" t="n">
+        <v>69.21367332194323</v>
       </c>
     </row>
     <row r="64">
@@ -2025,13 +2216,13 @@
         <v>620</v>
       </c>
       <c r="B64" t="n">
-        <v>400.0491198900389</v>
+        <v>400.0396604425584</v>
       </c>
       <c r="C64" t="n">
-        <v>77.128005855178</v>
+        <v>76.87646018218595</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9906091419071567</v>
+        <v>0.9906143826413877</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2039,10 +2230,13 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.1751305139734304</v>
+        <v>0.1750924292427665</v>
       </c>
       <c r="G64" t="n">
-        <v>9.003227100520925e-05</v>
+        <v>8.996763111136392e-05</v>
+      </c>
+      <c r="H64" t="n">
+        <v>69.19905542213117</v>
       </c>
     </row>
     <row r="65">
@@ -2050,13 +2244,13 @@
         <v>630</v>
       </c>
       <c r="B65" t="n">
-        <v>397.6364508083445</v>
+        <v>397.6266418230323</v>
       </c>
       <c r="C65" t="n">
-        <v>77.07989630712626</v>
+        <v>76.82169637849557</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9905843116427679</v>
+        <v>0.9905897418828893</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2064,10 +2258,13 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.1751117923039503</v>
+        <v>0.1750726973744606</v>
       </c>
       <c r="G65" t="n">
-        <v>9.027649988456048e-05</v>
+        <v>9.020960950908503e-05</v>
+      </c>
+      <c r="H65" t="n">
+        <v>69.18440107536428</v>
       </c>
     </row>
     <row r="66">
@@ -2075,13 +2272,13 @@
         <v>640</v>
       </c>
       <c r="B66" t="n">
-        <v>395.2239811584548</v>
+        <v>395.2138156555602</v>
       </c>
       <c r="C66" t="n">
-        <v>77.031730138733</v>
+        <v>76.7667846673429</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9905591298198294</v>
+        <v>0.9905647554486854</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2089,10 +2286,13 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0.1750931933931061</v>
+        <v>0.175053074358445</v>
       </c>
       <c r="G66" t="n">
-        <v>9.052413773060665e-05</v>
+        <v>9.045493177877279e-05</v>
+      </c>
+      <c r="H66" t="n">
+        <v>69.16971018856846</v>
       </c>
     </row>
     <row r="67">
@@ -2100,13 +2300,13 @@
         <v>650</v>
       </c>
       <c r="B67" t="n">
-        <v>392.8117106516912</v>
+        <v>392.8011816491575</v>
       </c>
       <c r="C67" t="n">
-        <v>76.98350735522979</v>
+        <v>76.7117246097589</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9905335870424732</v>
+        <v>0.9905394141545611</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2114,10 +2314,13 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0.1750747210520332</v>
+        <v>0.1750335639185858</v>
       </c>
       <c r="G67" t="n">
-        <v>9.077527682854141e-05</v>
+        <v>9.070368800837133e-05</v>
+      </c>
+      <c r="H67" t="n">
+        <v>69.15498266829587</v>
       </c>
     </row>
     <row r="68">
@@ -2125,13 +2328,13 @@
         <v>660</v>
       </c>
       <c r="B68" t="n">
-        <v>390.3996389324112</v>
+        <v>390.3887394481594</v>
       </c>
       <c r="C68" t="n">
-        <v>76.93522796184806</v>
+        <v>76.65651576479416</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9905076735336653</v>
+        <v>0.9905137084438739</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2139,10 +2342,13 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0.1750563791073578</v>
+        <v>0.1750141697928732</v>
       </c>
       <c r="G68" t="n">
-        <v>9.103001319849742e-05</v>
+        <v>9.095597193109092e-05</v>
+      </c>
+      <c r="H68" t="n">
+        <v>69.14021842072317</v>
       </c>
     </row>
     <row r="69">
@@ -2150,13 +2356,13 @@
         <v>670</v>
       </c>
       <c r="B69" t="n">
-        <v>387.9877655764909</v>
+        <v>387.9764886307317</v>
       </c>
       <c r="C69" t="n">
-        <v>76.88689196381881</v>
+        <v>76.60115768950698</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9904813791184969</v>
+        <v>0.990487628371151</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2164,10 +2370,13 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0.1750381714008669</v>
+        <v>0.1749948957330693</v>
       </c>
       <c r="G69" t="n">
-        <v>9.128844675971268e-05</v>
+        <v>9.121188108635811e-05</v>
+      </c>
+      <c r="H69" t="n">
+        <v>69.12541735164915</v>
       </c>
     </row>
     <row r="70">
@@ -2175,13 +2384,13 @@
         <v>680</v>
       </c>
       <c r="B70" t="n">
-        <v>385.576090089744</v>
+        <v>385.5644287073215</v>
       </c>
       <c r="C70" t="n">
-        <v>76.83849936637239</v>
+        <v>76.54564993895121</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9904546932067996</v>
+        <v>0.99046116358502</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2189,10 +2398,13 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0.1750201017891814</v>
+        <v>0.1749757455043612</v>
       </c>
       <c r="G70" t="n">
-        <v>9.155068150139179e-05</v>
+        <v>9.147151698737689e-05</v>
+      </c>
+      <c r="H70" t="n">
+        <v>69.11057936649284</v>
       </c>
     </row>
     <row r="71">
@@ -2200,13 +2412,13 @@
         <v>690</v>
       </c>
       <c r="B71" t="n">
-        <v>383.1646119062748</v>
+        <v>383.1525591190409</v>
       </c>
       <c r="C71" t="n">
-        <v>76.79005017473872</v>
+        <v>76.48999206616378</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9904276047750616</v>
+        <v>0.9904343033104426</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2214,10 +2426,13 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0.1750021741434346</v>
+        <v>0.1749567228850171</v>
       </c>
       <c r="G71" t="n">
-        <v>9.181682566052029e-05</v>
+        <v>9.173498529555801e-05</v>
+      </c>
+      <c r="H71" t="n">
+        <v>69.09570437029114</v>
       </c>
     </row>
     <row r="72">
@@ -2225,13 +2440,13 @@
         <v>700</v>
       </c>
       <c r="B72" t="n">
-        <v>380.7533303867629</v>
+        <v>380.7408792359831</v>
       </c>
       <c r="C72" t="n">
-        <v>76.74154439414724</v>
+        <v>76.43418362215289</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9904001023476136</v>
+        <v>0.9904070363302303</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2239,10 +2454,13 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0.1749843923489551</v>
+        <v>0.1749378316660481</v>
       </c>
       <c r="G72" t="n">
-        <v>9.208699190689881e-05</v>
+        <v>9.200239600207928e-05</v>
+      </c>
+      <c r="H72" t="n">
+        <v>69.08079226769679</v>
       </c>
     </row>
     <row r="73">
@@ -2250,13 +2468,13 @@
         <v>710</v>
       </c>
       <c r="B73" t="n">
-        <v>378.3422448166755</v>
+        <v>378.3293883554682</v>
       </c>
       <c r="C73" t="n">
-        <v>76.69298202982679</v>
+        <v>76.37822415588528</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9903721739770608</v>
+        <v>0.990379350965812</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2264,10 +2482,13 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0.1749667603049536</v>
+        <v>0.1749190756508727</v>
       </c>
       <c r="G73" t="n">
-        <v>9.23612975356761e-05</v>
+        <v>9.227386361685437e-05</v>
+      </c>
+      <c r="H73" t="n">
+        <v>69.06584296297615</v>
       </c>
     </row>
     <row r="74">
@@ -2275,13 +2496,13 @@
         <v>720</v>
       </c>
       <c r="B74" t="n">
-        <v>375.931354404406</v>
+        <v>375.9180857002139</v>
       </c>
       <c r="C74" t="n">
-        <v>76.64436308700596</v>
+        <v>76.32211321427388</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9903438072239311</v>
+        <v>0.9903512350572243</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2289,10 +2510,13 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0.1749492819242156</v>
+        <v>0.1749004586549877</v>
       </c>
       <c r="G74" t="n">
-        <v>9.263986466767228e-05</v>
+        <v>9.254950736519848e-05</v>
+      </c>
+      <c r="H74" t="n">
+        <v>69.05085636000706</v>
       </c>
     </row>
     <row r="75">
@@ -2300,13 +2524,13 @@
         <v>730</v>
       </c>
       <c r="B75" t="n">
-        <v>373.5206582793339</v>
+        <v>373.5069704164299</v>
       </c>
       <c r="C75" t="n">
-        <v>76.59568757091256</v>
+        <v>76.26585034216521</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9903149891355074</v>
+        <v>0.9903226759422969</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2314,10 +2538,13 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0.1749319611327977</v>
+        <v>0.1748819845056427</v>
       </c>
       <c r="G75" t="n">
-        <v>9.292282045779712e-05</v>
+        <v>9.282945139249204e-05</v>
+      </c>
+      <c r="H75" t="n">
+        <v>69.03583236227648</v>
       </c>
     </row>
     <row r="76">
@@ -2325,13 +2552,13 @@
         <v>740</v>
       </c>
       <c r="B76" t="n">
-        <v>371.110155489804</v>
+        <v>371.096041571832</v>
       </c>
       <c r="C76" t="n">
-        <v>76.54695548677421</v>
+        <v>76.20943508232699</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9902857062238164</v>
+        <v>0.9902936604349998</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2339,10 +2566,13 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0.1749148018697306</v>
+        <v>0.1748636570415203</v>
       </c>
       <c r="G76" t="n">
-        <v>9.321029731188091e-05</v>
+        <v>9.311382497715777e-05</v>
+      </c>
+      <c r="H76" t="n">
+        <v>69.02077087287856</v>
       </c>
     </row>
     <row r="77">
@@ -2350,13 +2580,13 @@
         <v>750</v>
       </c>
       <c r="B77" t="n">
-        <v>368.6998450010209</v>
+        <v>368.6852981535713</v>
       </c>
       <c r="C77" t="n">
-        <v>76.49816683981777</v>
+        <v>76.15286697543496</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9902559444427369</v>
+        <v>0.9902641748029204</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2364,10 +2594,13 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.1748978080867256</v>
+        <v>0.1748454801124204</v>
       </c>
       <c r="G77" t="n">
-        <v>9.350243311225185e-05</v>
+        <v>9.340276275228046e-05</v>
+      </c>
+      <c r="H77" t="n">
+        <v>69.00567179451207</v>
       </c>
     </row>
     <row r="78">
@@ -2375,13 +2608,13 @@
         <v>760</v>
       </c>
       <c r="B78" t="n">
-        <v>366.2897256928553</v>
+        <v>366.2747390660776</v>
       </c>
       <c r="C78" t="n">
-        <v>76.44932163526983</v>
+        <v>76.09614556006022</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9902256891641963</v>
+        <v>0.9902342047438374</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2389,10 +2622,13 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0.1748809837478882</v>
+        <v>0.1748274575789509</v>
       </c>
       <c r="G78" t="n">
-        <v>9.379937145240607e-05</v>
+        <v>9.369640493621324e-05</v>
+      </c>
+      <c r="H78" t="n">
+        <v>68.99053502947835</v>
       </c>
     </row>
     <row r="79">
@@ -2400,13 +2636,13 @@
         <v>770</v>
       </c>
       <c r="B79" t="n">
-        <v>363.8797963575583</v>
+        <v>363.8643631288108</v>
       </c>
       <c r="C79" t="n">
-        <v>76.40041987835662</v>
+        <v>76.03927037265623</v>
       </c>
       <c r="D79" t="n">
-        <v>0.9901949251534188</v>
+        <v>0.9902037353613541</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2414,10 +2650,13 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0.1748643328294361</v>
+        <v>0.174809593312223</v>
       </c>
       <c r="G79" t="n">
-        <v>9.410126188113642e-05</v>
+        <v>9.399489757253176e-05</v>
+      </c>
+      <c r="H79" t="n">
+        <v>68.97536047967891</v>
       </c>
     </row>
     <row r="80">
@@ -2425,13 +2664,13 @@
         <v>780</v>
       </c>
       <c r="B80" t="n">
-        <v>361.470055697381</v>
+        <v>361.4541690739178</v>
       </c>
       <c r="C80" t="n">
-        <v>76.35146157430341</v>
+        <v>75.98224094754602</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9901636365431864</v>
+        <v>0.9901727511395549</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2439,10 +2678,13 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.1748478593194235</v>
+        <v>0.1747918911935524</v>
       </c>
       <c r="G80" t="n">
-        <v>9.440826015650021e-05</v>
+        <v>9.429839277971248e-05</v>
+      </c>
+      <c r="H80" t="n">
+        <v>68.9601480466133</v>
       </c>
     </row>
     <row r="81">
@@ -2450,13 +2692,13 @@
         <v>790</v>
       </c>
       <c r="B81" t="n">
-        <v>359.0605023220925</v>
+        <v>359.0441555437905</v>
       </c>
       <c r="C81" t="n">
-        <v>76.30244672833555</v>
+        <v>75.92505681690875</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9901318068070752</v>
+        <v>0.9901412359166467</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2464,10 +2706,13 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.1748315672174712</v>
+        <v>0.174774355114166</v>
       </c>
       <c r="G81" t="n">
-        <v>9.472052851002516e-05</v>
+        <v>9.460704901093109e-05</v>
+      </c>
+      <c r="H81" t="n">
+        <v>68.94489763137673</v>
       </c>
     </row>
     <row r="82">
@@ -2475,13 +2720,13 @@
         <v>800</v>
       </c>
       <c r="B82" t="n">
-        <v>356.6511347463958</v>
+        <v>356.6343210885209</v>
       </c>
       <c r="C82" t="n">
-        <v>76.25337534567745</v>
+        <v>75.8677175107664</v>
       </c>
       <c r="D82" t="n">
-        <v>0.990099418731626</v>
+        <v>0.9901091728575436</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2489,10 +2734,13 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.174815460534503</v>
+        <v>0.1747569889749151</v>
       </c>
       <c r="G82" t="n">
-        <v>9.503823592157291e-05</v>
+        <v>9.492103132439481e-05</v>
+      </c>
+      <c r="H82" t="n">
+        <v>68.92960913465762</v>
       </c>
     </row>
     <row r="83">
@@ -2500,13 +2748,13 @@
         <v>810</v>
       </c>
       <c r="B83" t="n">
-        <v>354.2419513872346</v>
+        <v>354.2246641632491</v>
       </c>
       <c r="C83" t="n">
-        <v>76.20424743155326</v>
+        <v>75.8102225569707</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9900664543874036</v>
+        <v>0.9900765444253516</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2514,10 +2762,13 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.1747995432924877</v>
+        <v>0.1747397966859936</v>
       </c>
       <c r="G83" t="n">
-        <v>9.536155840529726e-05</v>
+        <v>9.524051166464205e-05</v>
+      </c>
+      <c r="H83" t="n">
+        <v>68.91428245673546</v>
       </c>
     </row>
     <row r="84">
@@ -2525,13 +2776,13 @@
         <v>820</v>
       </c>
       <c r="B84" t="n">
-        <v>351.8329505609869</v>
+        <v>351.8151831253988</v>
       </c>
       <c r="C84" t="n">
-        <v>76.1550629911867</v>
+        <v>75.75257148118942</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9900328950989037</v>
+        <v>0.9900433323517104</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2539,10 +2790,13 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.174783819524189</v>
+        <v>0.1747227821666639</v>
       </c>
       <c r="G84" t="n">
-        <v>9.56906793071589e-05</v>
+        <v>9.556566915526574e-05</v>
+      </c>
+      <c r="H84" t="n">
+        <v>68.89891749747831</v>
       </c>
     </row>
     <row r="85">
@@ -2550,13 +2804,13 @@
         <v>830</v>
       </c>
       <c r="B85" t="n">
-        <v>349.4241304805418</v>
+        <v>349.4058762317972</v>
       </c>
       <c r="C85" t="n">
-        <v>76.10582202980083</v>
+        <v>75.69476380689275</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9899987214132575</v>
+        <v>0.9900095176059435</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2564,10 +2818,13 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0.1747682932729204</v>
+        <v>0.174705949344988</v>
       </c>
       <c r="G85" t="n">
-        <v>9.602578961447755e-05</v>
+        <v>9.589669040353684e-05</v>
+      </c>
+      <c r="H85" t="n">
+        <v>68.88351415634048</v>
       </c>
     </row>
     <row r="86">
@@ -2575,13 +2832,13 @@
         <v>840</v>
       </c>
       <c r="B86" t="n">
-        <v>347.0154892522534</v>
+        <v>346.9967416356726</v>
       </c>
       <c r="C86" t="n">
-        <v>76.05652455261821</v>
+        <v>75.63679905533996</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9899639130676845</v>
+        <v>0.9899750803629696</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2589,10 +2846,13 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0.1747529685923082</v>
+        <v>0.1746893021575659</v>
       </c>
       <c r="G86" t="n">
-        <v>9.636708827802872e-05</v>
+        <v>9.623376981743033e-05</v>
+      </c>
+      <c r="H86" t="n">
+        <v>68.86807233236017</v>
       </c>
     </row>
     <row r="87">
@@ -2600,13 +2860,13 @@
         <v>850</v>
       </c>
       <c r="B87" t="n">
-        <v>344.6070248727667</v>
+        <v>344.5877773835263</v>
       </c>
       <c r="C87" t="n">
-        <v>76.00717056486133</v>
+        <v>75.57867674556542</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9899284489556444</v>
+        <v>0.9899399999699214</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2614,10 +2874,13 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.1747378495460611</v>
+        <v>0.174672844549281</v>
       </c>
       <c r="G87" t="n">
-        <v>9.671478254721765e-05</v>
+        <v>9.657710993557987e-05</v>
+      </c>
+      <c r="H87" t="n">
+        <v>68.85259192415695</v>
       </c>
     </row>
     <row r="88">
@@ -2625,13 +2888,13 @@
         <v>860</v>
       </c>
       <c r="B88" t="n">
-        <v>342.1987352257109</v>
+        <v>342.1789814118716</v>
       </c>
       <c r="C88" t="n">
-        <v>75.95776007175164</v>
+        <v>75.52039639436452</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9898923070916293</v>
+        <v>0.9899042549114208</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2639,10 +2902,13 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0.1747229402077474</v>
+        <v>0.174656580473052</v>
       </c>
       <c r="G88" t="n">
-        <v>9.706908831888792e-05</v>
+        <v>9.692692177071388e-05</v>
+      </c>
+      <c r="H88" t="n">
+        <v>68.83707282992953</v>
       </c>
     </row>
     <row r="89">
@@ -2650,13 +2916,13 @@
         <v>870</v>
       </c>
       <c r="B89" t="n">
-        <v>339.7906180782538</v>
+        <v>339.7703515438365</v>
       </c>
       <c r="C89" t="n">
-        <v>75.90829307851044</v>
+        <v>75.46195751628028</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9898554645745444</v>
+        <v>0.9898678227734483</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2664,10 +2930,13 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0.174708244660579</v>
+        <v>0.1746405138895926</v>
       </c>
       <c r="G89" t="n">
-        <v>9.74302305003529e-05</v>
+        <v>9.728342516715636e-05</v>
+      </c>
+      <c r="H89" t="n">
+        <v>68.82151494745311</v>
       </c>
     </row>
     <row r="90">
@@ -2675,13 +2944,13 @@
         <v>880</v>
       </c>
       <c r="B90" t="n">
-        <v>337.3826710775111</v>
+        <v>337.3618854856219</v>
       </c>
       <c r="C90" t="n">
-        <v>75.85876959035841</v>
+        <v>75.40335962358824</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9898178975496116</v>
+        <v>0.9898306802057557</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2689,10 +2958,13 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0.1746937669972047</v>
+        <v>0.1746246487671786</v>
       </c>
       <c r="G90" t="n">
-        <v>9.779844338726825e-05</v>
+        <v>9.764684917300265e-05</v>
+      </c>
+      <c r="H90" t="n">
+        <v>68.80591817407694</v>
       </c>
     </row>
     <row r="91">
@@ -2700,13 +2972,13 @@
         <v>890</v>
       </c>
       <c r="B91" t="n">
-        <v>334.9748917468059</v>
+        <v>334.953580822811</v>
       </c>
       <c r="C91" t="n">
-        <v>75.80918961251575</v>
+        <v>75.34460222628297</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9897795811687377</v>
+        <v>0.9897928028827501</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2714,10 +2986,13 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.1746795113195092</v>
+        <v>0.1746089890814224</v>
       </c>
       <c r="G91" t="n">
-        <v>9.817397105699305e-05</v>
+        <v>9.801743242761433e-05</v>
+      </c>
+      <c r="H91" t="n">
+        <v>68.7902824067219</v>
       </c>
     </row>
     <row r="92">
@@ -2725,13 +3000,13 @@
         <v>900</v>
       </c>
       <c r="B92" t="n">
-        <v>332.56727748177</v>
+        <v>332.5454350165231</v>
       </c>
       <c r="C92" t="n">
-        <v>75.75955315020241</v>
+        <v>75.28568483206408</v>
       </c>
       <c r="D92" t="n">
-        <v>0.9897404895492782</v>
+        <v>0.9897541654627892</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2739,10 +3014,13 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0.1746654817384227</v>
+        <v>0.1745935388150562</v>
       </c>
       <c r="G92" t="n">
-        <v>9.855706777812668e-05</v>
+        <v>9.839542356511225e-05</v>
+      </c>
+      <c r="H92" t="n">
+        <v>68.77460754187817</v>
       </c>
     </row>
     <row r="93">
@@ -2750,13 +3028,13 @@
         <v>910</v>
       </c>
       <c r="B93" t="n">
-        <v>330.159825546282</v>
+        <v>330.137445399404</v>
       </c>
       <c r="C93" t="n">
-        <v>75.70986020863745</v>
+        <v>75.22660694632089</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9897005957311288</v>
+        <v>0.9897147415458172</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2764,10 +3042,13 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0.1746516823737378</v>
+        <v>0.1745783019577229</v>
       </c>
       <c r="G93" t="n">
-        <v>9.894799843693895e-05</v>
+        <v>9.878108163458049e-05</v>
+      </c>
+      <c r="H93" t="n">
+        <v>68.75889347560233</v>
       </c>
     </row>
     <row r="94">
@@ -2775,13 +3056,13 @@
         <v>920</v>
       </c>
       <c r="B94" t="n">
-        <v>327.7525330682341</v>
+        <v>327.7296091714487</v>
       </c>
       <c r="C94" t="n">
-        <v>75.66011079303985</v>
+        <v>75.16736807211805</v>
       </c>
       <c r="D94" t="n">
-        <v>0.9896598716320688</v>
+        <v>0.9896745036292678</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2789,10 +3070,13 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0.174638117353935</v>
+        <v>0.1745632825057753</v>
       </c>
       <c r="G94" t="n">
-        <v>9.934703898145393e-05</v>
+        <v>9.91746765377343e-05</v>
+      </c>
+      <c r="H94" t="n">
+        <v>68.74314010351503</v>
       </c>
     </row>
     <row r="95">
@@ -2800,13 +3084,13 @@
         <v>930</v>
       </c>
       <c r="B95" t="n">
-        <v>325.3453970351206</v>
+        <v>325.3219233956451</v>
       </c>
       <c r="C95" t="n">
-        <v>75.61030490862794</v>
+        <v>75.10796771018153</v>
       </c>
       <c r="D95" t="n">
-        <v>0.989618288001283</v>
+        <v>0.989633423062157</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2814,10 +3098,13 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0.174624790816018</v>
+        <v>0.1745484844620848</v>
       </c>
       <c r="G95" t="n">
-        <v>9.97544768839876e-05</v>
+        <v>9.957648948484581e-05</v>
+      </c>
+      <c r="H95" t="n">
+        <v>68.7273473207985</v>
       </c>
     </row>
     <row r="96">
@@ -2825,13 +3112,13 @@
         <v>940</v>
       </c>
       <c r="B96" t="n">
-        <v>322.9384142894407</v>
+        <v>322.9143849934352</v>
       </c>
       <c r="C96" t="n">
-        <v>75.56044256061955</v>
+        <v>75.0484053588832</v>
       </c>
       <c r="D96" t="n">
-        <v>0.989575814370977</v>
+        <v>0.9895914699972876</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2839,10 +3126,13 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0.1746117069053578</v>
+        <v>0.174533911835859</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0001001706116229831</v>
+        <v>9.998681346976521e-05</v>
+      </c>
+      <c r="H96" t="n">
+        <v>68.71151502219392</v>
       </c>
     </row>
     <row r="97">
@@ -2850,13 +3140,13 @@
         <v>950</v>
       </c>
       <c r="B97" t="n">
-        <v>320.5315815239065</v>
+        <v>320.5069907399834</v>
       </c>
       <c r="C97" t="n">
-        <v>75.51052375423194</v>
+        <v>74.98868051422596</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9895324190060031</v>
+        <v>0.9895486133414753</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2864,10 +3154,13 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0.174598869775547</v>
+        <v>0.1745195686424677</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0001005957551850337</v>
+        <v>0.000100405953764921</v>
+      </c>
+      <c r="H97" t="n">
+        <v>68.69564310199864</v>
       </c>
     </row>
     <row r="98">
@@ -2875,13 +3168,13 @@
         <v>960</v>
       </c>
       <c r="B98" t="n">
-        <v>318.1248952764498</v>
+        <v>318.0997372592432</v>
       </c>
       <c r="C98" t="n">
-        <v>75.46054849468209</v>
+        <v>74.92879266982908</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9894880688514047</v>
+        <v>0.9895048207037115</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2889,10 +3182,13 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0.1745862835882633</v>
+        <v>0.1745054589032801</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0001010302325880358</v>
+        <v>0.000100834228437233</v>
+      </c>
+      <c r="H98" t="n">
+        <v>68.67973145406386</v>
       </c>
     </row>
     <row r="99">
@@ -2900,13 +3196,13 @@
         <v>970</v>
       </c>
       <c r="B99" t="n">
-        <v>315.7183519250156</v>
+        <v>315.6926210188158</v>
       </c>
       <c r="C99" t="n">
-        <v>75.41051678718628</v>
+        <v>74.86874131691269</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9894427294777857</v>
+        <v>0.9894600583411645</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2914,10 +3210,13 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0.1745739525131443</v>
+        <v>0.1744915866455109</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0001014743824264653</v>
+        <v>0.0001012719688859267</v>
+      </c>
+      <c r="H99" t="n">
+        <v>68.66377997179178</v>
       </c>
     </row>
     <row r="100">
@@ -2925,13 +3224,13 @@
         <v>980</v>
       </c>
       <c r="B100" t="n">
-        <v>313.3119476821368</v>
+        <v>313.2856383245884</v>
       </c>
       <c r="C100" t="n">
-        <v>75.36042863696048</v>
+        <v>74.80852594428279</v>
       </c>
       <c r="D100" t="n">
-        <v>0.9893963650244021</v>
+        <v>0.9894142911029191</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2939,10 +3238,13 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0.174561880727672</v>
+        <v>0.1744779559020772</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0001019285574398268</v>
+        <v>0.0001017195204032906</v>
+      </c>
+      <c r="H100" t="n">
+        <v>68.64778854813309</v>
       </c>
     </row>
     <row r="101">
@@ -2950,13 +3252,13 @@
         <v>990</v>
       </c>
       <c r="B101" t="n">
-        <v>310.9056785892772</v>
+        <v>310.8787853151456</v>
       </c>
       <c r="C101" t="n">
-        <v>75.31028404922012</v>
+        <v>74.74814603831572</v>
       </c>
       <c r="D101" t="n">
-        <v>0.9893489381398713</v>
+        <v>0.9893674823713509</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2964,10 +3266,13 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0.1745500724170695</v>
+        <v>0.1744645707114655</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0001023931251053909</v>
+        <v>0.0001021772427594836</v>
+      </c>
+      <c r="H101" t="n">
+        <v>68.6317570755842</v>
       </c>
     </row>
     <row r="102">
@@ -2975,13 +3280,13 @@
         <v>1000</v>
       </c>
       <c r="B102" t="n">
-        <v>308.499540510934</v>
+        <v>308.4720579559406</v>
       </c>
       <c r="C102" t="n">
-        <v>75.26008302918012</v>
+        <v>74.68760108294248</v>
       </c>
       <c r="D102" t="n">
-        <v>0.9893004099203868</v>
+        <v>0.9893195940010199</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2989,10 +3294,13 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0.1745385317742076</v>
+        <v>0.1744514351176112</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0001028684682563933</v>
+        <v>0.00010264551081256</v>
+      </c>
+      <c r="H102" t="n">
+        <v>68.61568544618447</v>
       </c>
     </row>
     <row r="103">
@@ -3000,13 +3308,13 @@
         <v>1010</v>
       </c>
       <c r="B103" t="n">
-        <v>306.0935291284896</v>
+        <v>306.0654520332182</v>
       </c>
       <c r="C103" t="n">
-        <v>75.20982558205492</v>
+        <v>74.62689055963313</v>
       </c>
       <c r="D103" t="n">
-        <v>0.9892507398453179</v>
+        <v>0.9892705862549671</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -3014,10 +3322,13 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0.174527262999525</v>
+        <v>0.1744385531697876</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0001033549857269446</v>
+        <v>0.0001031247151449533</v>
+      </c>
+      <c r="H103" t="n">
+        <v>68.59957355151364</v>
       </c>
     </row>
     <row r="104">
@@ -3025,13 +3336,13 @@
         <v>1020</v>
       </c>
       <c r="B104" t="n">
-        <v>303.6876399337992</v>
+        <v>303.6589631476766</v>
       </c>
       <c r="C104" t="n">
-        <v>75.15951171305852</v>
+        <v>74.5660139473818</v>
       </c>
       <c r="D104" t="n">
-        <v>0.989199885710071</v>
+        <v>0.9892204177382893</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -3039,10 +3350,13 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0.1745162703009593</v>
+        <v>0.1744259289225086</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0001038530930249721</v>
+        <v>0.0001036152627277322</v>
+      </c>
+      <c r="H104" t="n">
+        <v>68.5834212826891</v>
       </c>
     </row>
     <row r="105">
@@ -3050,13 +3364,13 @@
         <v>1030</v>
       </c>
       <c r="B105" t="n">
-        <v>301.281868222505</v>
+        <v>301.2525867078577</v>
       </c>
       <c r="C105" t="n">
-        <v>75.10914142740455</v>
+        <v>74.50497072268968</v>
       </c>
       <c r="D105" t="n">
-        <v>0.9891478035560773</v>
+        <v>0.9891690453288555</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -3064,10 +3378,13 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0.1745055578938913</v>
+        <v>0.1744135664354424</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0001043632230345954</v>
+        <v>0.0001041175776140229</v>
+      </c>
+      <c r="H105" t="n">
+        <v>68.56722853036304</v>
       </c>
     </row>
     <row r="106">
@@ -3075,13 +3392,13 @@
         <v>1040</v>
       </c>
       <c r="B106" t="n">
-        <v>298.8762090870626</v>
+        <v>298.8463179232512</v>
       </c>
       <c r="C106" t="n">
-        <v>75.05871473030595</v>
+        <v>74.4437603595494</v>
       </c>
       <c r="D106" t="n">
-        <v>0.9890944475977671</v>
+        <v>0.9891164241050285</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -3089,10 +3406,13 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0.1744951300011028</v>
+        <v>0.1744014697733385</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0001048858267494244</v>
+        <v>0.0001046321016630774</v>
+      </c>
+      <c r="H106" t="n">
+        <v>68.55099518471962</v>
       </c>
     </row>
     <row r="107">
@@ -3100,13 +3420,13 @@
         <v>1050</v>
       </c>
       <c r="B107" t="n">
-        <v>296.4706574094672</v>
+        <v>296.4401517971025</v>
       </c>
       <c r="C107" t="n">
-        <v>75.00823162697515</v>
+        <v>74.38238232942905</v>
       </c>
       <c r="D107" t="n">
-        <v>0.9890397701463808</v>
+        <v>0.9890625072702383</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -3114,10 +3434,13 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0.1744849908527475</v>
+        <v>0.1743896430059684</v>
       </c>
       <c r="G107" t="n">
-        <v>0.0001054213740383596</v>
+        <v>0.0001051592952965618</v>
+      </c>
+      <c r="H107" t="n">
+        <v>68.5347211354723</v>
       </c>
     </row>
     <row r="108">
@@ -3125,13 +3448,13 @@
         <v>1060</v>
       </c>
       <c r="B108" t="n">
-        <v>294.065207853665</v>
+        <v>294.0340831189073</v>
       </c>
       <c r="C108" t="n">
-        <v>74.95769212262434</v>
+        <v>74.32083610125613</v>
       </c>
       <c r="D108" t="n">
-        <v>0.9889837215304573</v>
+        <v>0.9890072460742523</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -3139,10 +3462,13 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0.1744751446863364</v>
+        <v>0.1743780902080788</v>
       </c>
       <c r="G108" t="n">
-        <v>0.000105970354445576</v>
+        <v>0.0001056996382887344</v>
+      </c>
+      <c r="H108" t="n">
+        <v>68.51840627186097</v>
       </c>
     </row>
     <row r="109">
@@ -3150,13 +3476,13 @@
         <v>1070</v>
       </c>
       <c r="B109" t="n">
-        <v>291.6598548576369</v>
+        <v>291.6281064565817</v>
       </c>
       <c r="C109" t="n">
-        <v>74.90709622246516</v>
+        <v>74.25912114140056</v>
       </c>
       <c r="D109" t="n">
-        <v>0.9889262500128322</v>
+        <v>0.9889505897309694</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -3164,10 +3490,13 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0.1744655957467376</v>
+        <v>0.1743668154593603</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0001065332780264777</v>
+        <v>0.0001062536305922938</v>
+      </c>
+      <c r="H109" t="n">
+        <v>68.50205048264912</v>
       </c>
     </row>
     <row r="110">
@@ -3175,13 +3504,13 @@
         <v>1080</v>
       </c>
       <c r="B110" t="n">
-        <v>289.2545926251366</v>
+        <v>289.2222161482894</v>
       </c>
       <c r="C110" t="n">
-        <v>74.8564439317085</v>
+        <v>74.19723691365829</v>
       </c>
       <c r="D110" t="n">
-        <v>0.9888673017039651</v>
+        <v>0.9888924853325639</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -3189,10 +3518,13 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0.1744563482861922</v>
+        <v>0.1743558228444304</v>
       </c>
       <c r="G110" t="n">
-        <v>0.000107110676221525</v>
+        <v>0.0001068217932017885</v>
+      </c>
+      <c r="H110" t="n">
+        <v>68.4856536561209</v>
       </c>
     </row>
     <row r="111">
@@ -3200,13 +3532,13 @@
         <v>1090</v>
       </c>
       <c r="B111" t="n">
-        <v>286.8494151170689</v>
+        <v>286.8164062939119</v>
       </c>
       <c r="C111" t="n">
-        <v>74.80573525556508</v>
+        <v>74.135182879235</v>
       </c>
       <c r="D111" t="n">
-        <v>0.9888068204714063</v>
+        <v>0.9888328777597828</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -3214,10 +3546,13 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0.174447406564345</v>
+        <v>0.1743451164528318</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0001077031027699617</v>
+        <v>0.0001074046690566073</v>
+      </c>
+      <c r="H111" t="n">
+        <v>68.46921568007832</v>
       </c>
     </row>
     <row r="112">
@@ -3225,13 +3560,13 @@
         <v>1100</v>
       </c>
       <c r="B112" t="n">
-        <v>284.4443160424899</v>
+        <v>284.410670746144</v>
       </c>
       <c r="C112" t="n">
-        <v>74.75497019924501</v>
+        <v>74.07295849672903</v>
       </c>
       <c r="D112" t="n">
-        <v>0.9887447478452012</v>
+        <v>0.9887717095881997</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -3239,10 +3574,13 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0.1744387748482926</v>
+        <v>0.1743347003790469</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0001083111346656045</v>
+        <v>0.0001080028239856995</v>
+      </c>
+      <c r="H112" t="n">
+        <v>68.45273644183833</v>
       </c>
     </row>
     <row r="113">
@@ -3250,13 +3588,13 @@
         <v>1110</v>
       </c>
       <c r="B113" t="n">
-        <v>282.0392888492115</v>
+        <v>282.0050031011964</v>
       </c>
       <c r="C113" t="n">
-        <v>74.70414876795797</v>
+        <v>74.01056322211429</v>
       </c>
       <c r="D113" t="n">
-        <v>0.9886810229190122</v>
+        <v>0.9887089209902042</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -3264,10 +3602,13 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0.1744304574126487</v>
+        <v>0.1743245787225292</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0001089353731569973</v>
+        <v>0.0001086168476963204</v>
+      </c>
+      <c r="H113" t="n">
+        <v>68.43621582822981</v>
       </c>
     </row>
     <row r="114">
@@ -3275,13 +3616,13 @@
         <v>1120</v>
       </c>
       <c r="B114" t="n">
-        <v>279.6343267139903</v>
+        <v>279.5993966890864</v>
       </c>
       <c r="C114" t="n">
-        <v>74.65327096691311</v>
+        <v>73.94799650872341</v>
       </c>
       <c r="D114" t="n">
-        <v>0.9886155822467325</v>
+        <v>0.9886444496324983</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -3289,10 +3630,13 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0.1744224585396266</v>
+        <v>0.1743147555877514</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0001095764447943951</v>
+        <v>0.0001092473548092529</v>
+      </c>
+      <c r="H114" t="n">
+        <v>68.41965372559066</v>
       </c>
     </row>
     <row r="115">
@@ -3300,13 +3644,13 @@
         <v>1130</v>
       </c>
       <c r="B115" t="n">
-        <v>277.2294225322821</v>
+        <v>277.1938445634969</v>
       </c>
       <c r="C115" t="n">
-        <v>74.60233680131921</v>
+        <v>73.88525780723035</v>
       </c>
       <c r="D115" t="n">
-        <v>0.9885483597343427</v>
+        <v>0.9885782305688556</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -3314,10 +3658,13 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0.1744147825191411</v>
+        <v>0.1743052350842725</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0001102350025262071</v>
+        <v>0.0001098949859431214</v>
+      </c>
+      <c r="H115" t="n">
+        <v>68.4030500197649</v>
       </c>
     </row>
     <row r="116">
@@ -3325,13 +3672,13 @@
         <v>1140</v>
       </c>
       <c r="B116" t="n">
-        <v>274.8245689075379</v>
+        <v>274.7883394911815</v>
       </c>
       <c r="C116" t="n">
-        <v>74.55134627638421</v>
+        <v>73.82234656563293</v>
       </c>
       <c r="D116" t="n">
-        <v>0.9884792865267485</v>
+        <v>0.9885101961278764</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -3339,10 +3686,13 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0.1744074336489296</v>
+        <v>0.1742960213268231</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0001109117268477115</v>
+        <v>0.000110560408850602</v>
+      </c>
+      <c r="H116" t="n">
+        <v>68.38640459609947</v>
       </c>
     </row>
     <row r="117">
@@ -3350,13 +3700,13 @@
         <v>1150</v>
       </c>
       <c r="B117" t="n">
-        <v>272.4197581400219</v>
+        <v>272.3828739408939</v>
       </c>
       <c r="C117" t="n">
-        <v>74.5002993973161</v>
+        <v>73.75926222923579</v>
       </c>
       <c r="D117" t="n">
-        <v>0.9884082908893185</v>
+        <v>0.9884402757954631</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -3364,10 +3714,13 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0.1744004162346938</v>
+        <v>0.1742871184354103</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0001116073270050556</v>
+        <v>0.0001112443196095213</v>
+      </c>
+      <c r="H117" t="n">
+        <v>68.36971733944139</v>
       </c>
     </row>
     <row r="118">
@@ -3375,13 +3728,13 @@
         <v>1160</v>
       </c>
       <c r="B118" t="n">
-        <v>270.382866324446</v>
+        <v>270.345417921644</v>
       </c>
       <c r="C118" t="n">
-        <v>74.47020727347456</v>
+        <v>73.72200503130603</v>
       </c>
       <c r="D118" t="n">
-        <v>0.9883352980838229</v>
+        <v>0.9883683960917118</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -3389,10 +3742,13 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>0.174393734590262</v>
+        <v>0.174278530535444</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0001123225422577649</v>
+        <v>0.000111947443872058</v>
+      </c>
+      <c r="H118" t="n">
+        <v>68.35986381914856</v>
       </c>
     </row>
     <row r="119">
@@ -3400,13 +3756,13 @@
         <v>1170</v>
       </c>
       <c r="B119" t="n">
-        <v>268.345988335944</v>
+        <v>268.3079780414733</v>
       </c>
       <c r="C119" t="n">
-        <v>74.44011653995358</v>
+        <v>73.68474996703048</v>
       </c>
       <c r="D119" t="n">
-        <v>0.9882712320525179</v>
+        <v>0.9883051573746686</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -3414,10 +3770,13 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0.1743903933784566</v>
+        <v>0.1742740420546707</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0001129512459093459</v>
+        <v>0.0001125672179932732</v>
+      </c>
+      <c r="H119" t="n">
+        <v>68.35001224755516</v>
       </c>
     </row>
     <row r="120">
@@ -3425,13 +3784,13 @@
         <v>1180</v>
       </c>
       <c r="B120" t="n">
-        <v>266.3091169852335</v>
+        <v>266.2705472907749</v>
       </c>
       <c r="C120" t="n">
-        <v>74.41002719668893</v>
+        <v>73.64749703628695</v>
       </c>
       <c r="D120" t="n">
-        <v>0.9882056064936388</v>
+        <v>0.9882403794520291</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -3439,10 +3798,13 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>0.1743873066880226</v>
+        <v>0.1742698064420605</v>
       </c>
       <c r="G120" t="n">
-        <v>0.0001135952889627678</v>
+        <v>0.000113202116308182</v>
+      </c>
+      <c r="H120" t="n">
+        <v>68.34016262419655</v>
       </c>
     </row>
     <row r="121">
@@ -3450,13 +3812,13 @@
         <v>1190</v>
       </c>
       <c r="B121" t="n">
-        <v>264.2722448463841</v>
+        <v>264.2331184246698</v>
       </c>
       <c r="C121" t="n">
-        <v>74.37993924361638</v>
+        <v>73.61024623895332</v>
       </c>
       <c r="D121" t="n">
-        <v>0.9881383697110417</v>
+        <v>0.9881740111145515</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3464,10 +3826,13 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0.174384477229691</v>
+        <v>0.1742658263679227</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0001142551839290444</v>
+        <v>0.0001138526458922922</v>
+      </c>
+      <c r="H121" t="n">
+        <v>68.33031494860826</v>
       </c>
     </row>
     <row r="122">
@@ -3475,13 +3840,13 @@
         <v>1200</v>
       </c>
       <c r="B122" t="n">
-        <v>262.2353642489619</v>
+        <v>262.1956839551866</v>
       </c>
       <c r="C122" t="n">
-        <v>74.34985268067169</v>
+        <v>73.57299757490739</v>
       </c>
       <c r="D122" t="n">
-        <v>0.9880694681700101</v>
+        <v>0.9881059993237389</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -3489,10 +3854,13 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>0.1743819077207879</v>
+        <v>0.1742621045088067</v>
       </c>
       <c r="G122" t="n">
-        <v>0.0001149314617750247</v>
+        <v>0.000114519332154733</v>
+      </c>
+      <c r="H122" t="n">
+        <v>68.32046922032588</v>
       </c>
     </row>
     <row r="123">
@@ -3500,13 +3868,13 @@
         <v>1210</v>
       </c>
       <c r="B123" t="n">
-        <v>260.1984672698648</v>
+        <v>260.158236143135</v>
       </c>
       <c r="C123" t="n">
-        <v>74.31976750779063</v>
+        <v>73.53575104402694</v>
       </c>
       <c r="D123" t="n">
-        <v>0.9879988464286026</v>
+        <v>0.9880362891433131</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -3514,10 +3882,13 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>0.1743796008854223</v>
+        <v>0.1742586435476849</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0001156246726276351</v>
+        <v>0.0001152027195398118</v>
+      </c>
+      <c r="H123" t="n">
+        <v>68.31062543888508</v>
       </c>
     </row>
     <row r="124">
@@ -3525,13 +3896,13 @@
         <v>1220</v>
       </c>
       <c r="B124" t="n">
-        <v>258.1615457248368</v>
+        <v>258.1207669896579</v>
       </c>
       <c r="C124" t="n">
-        <v>74.28968372490897</v>
+        <v>73.49850664618987</v>
       </c>
       <c r="D124" t="n">
-        <v>0.987926447066077</v>
+        <v>0.987964823667757</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -3539,10 +3910,13 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>0.1743775594546877</v>
+        <v>0.1742554461741493</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0001163353865090324</v>
+        <v>0.0001159033722594054</v>
+      </c>
+      <c r="H124" t="n">
+        <v>68.30078360382181</v>
       </c>
     </row>
     <row r="125">
@@ -3550,13 +3924,13 @@
         <v>1230</v>
       </c>
       <c r="B125" t="n">
-        <v>256.1245911596455</v>
+        <v>256.0832682274487</v>
       </c>
       <c r="C125" t="n">
-        <v>74.25960133196247</v>
+        <v>73.46126438127396</v>
       </c>
       <c r="D125" t="n">
-        <v>0.9878522106082318</v>
+        <v>0.9878915439477784</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -3564,10 +3938,13 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0.1743757861668759</v>
+        <v>0.1742525150846221</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0001170641941043446</v>
+        <v>0.0001166218750578569</v>
+      </c>
+      <c r="H125" t="n">
+        <v>68.290943714672</v>
       </c>
     </row>
     <row r="126">
@@ -3575,13 +3952,13 @@
         <v>1240</v>
       </c>
       <c r="B126" t="n">
-        <v>254.0875948409077</v>
+        <v>254.0457313116177</v>
       </c>
       <c r="C126" t="n">
-        <v>74.22952032888691</v>
+        <v>73.42402424915713</v>
       </c>
       <c r="D126" t="n">
-        <v>0.9877760754495021</v>
+        <v>0.9878163889125297</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -3589,10 +3966,13 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0.1743742837677067</v>
+        <v>0.1742498529825784</v>
       </c>
       <c r="G126" t="n">
-        <v>0.0001178117075637889</v>
+        <v>0.0001173588340111601</v>
+      </c>
+      <c r="H126" t="n">
+        <v>68.28110577097179</v>
       </c>
     </row>
     <row r="127">
@@ -3600,13 +3980,13 @@
         <v>1250</v>
       </c>
       <c r="B127" t="n">
-        <v>252.0505477465456</v>
+        <v>252.0081474101909</v>
       </c>
       <c r="C127" t="n">
-        <v>74.19944071561815</v>
+        <v>73.38678624971726</v>
       </c>
       <c r="D127" t="n">
-        <v>0.9876979777716359</v>
+        <v>0.9877392952884039</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -3614,10 +3994,13 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>0.1743730550105705</v>
+        <v>0.1742474625787848</v>
       </c>
       <c r="G127" t="n">
-        <v>0.0001185785613410708</v>
+        <v>0.0001181148773623326</v>
+      </c>
+      <c r="H127" t="n">
+        <v>68.27126977225747</v>
       </c>
     </row>
     <row r="128">
@@ -3625,13 +4008,13 @@
         <v>1260</v>
       </c>
       <c r="B128" t="n">
-        <v>250.0134405558586</v>
+        <v>249.9705073942248</v>
       </c>
       <c r="C128" t="n">
-        <v>74.16936249209175</v>
+        <v>73.34955038283215</v>
       </c>
       <c r="D128" t="n">
-        <v>0.9876178514587615</v>
+        <v>0.9876601975142265</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -3639,10 +4022,13 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>0.1743721026567875</v>
+        <v>0.1742453465915525</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0001193654130701076</v>
+        <v>0.0001188906563950061</v>
+      </c>
+      <c r="H128" t="n">
+        <v>68.26143571806533</v>
       </c>
     </row>
     <row r="129">
@@ -3650,13 +4036,13 @@
         <v>1270</v>
       </c>
       <c r="B129" t="n">
-        <v>247.9762636391899</v>
+        <v>247.9328018275184</v>
       </c>
       <c r="C129" t="n">
-        <v>74.13928565824381</v>
+        <v>73.31231664837969</v>
       </c>
       <c r="D129" t="n">
-        <v>0.9875356280086475</v>
+        <v>0.9875790276526409</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -3664,10 +4050,13 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>0.1743714294758815</v>
+        <v>0.1742435077470064</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0001201729444822478</v>
+        <v>0.0001196868463474031</v>
+      </c>
+      <c r="H129" t="n">
+        <v>68.2516036079319</v>
       </c>
     </row>
     <row r="130">
@@ -3675,13 +4064,13 @@
         <v>1280</v>
       </c>
       <c r="B130" t="n">
-        <v>245.9390070471698</v>
+        <v>245.8950209559027</v>
       </c>
       <c r="C130" t="n">
-        <v>74.10921021400998</v>
+        <v>73.27508504623779</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9874512364399429</v>
+        <v>0.9874957152974728</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -3689,10 +4078,13 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>0.1743710382458723</v>
+        <v>0.1742419487793702</v>
       </c>
       <c r="G130" t="n">
-        <v>0.0001210018623663182</v>
+        <v>0.0001205041473690179</v>
+      </c>
+      <c r="H130" t="n">
+        <v>68.24177344139383</v>
       </c>
     </row>
     <row r="131">
@@ -3700,13 +4092,13 @@
         <v>1290</v>
       </c>
       <c r="B131" t="n">
-        <v>243.9016604995142</v>
+        <v>243.8571546960877</v>
       </c>
       <c r="C131" t="n">
-        <v>74.07913615932614</v>
+        <v>73.23785557628423</v>
       </c>
       <c r="D131" t="n">
-        <v>0.9873646031951697</v>
+        <v>0.9874101874768502</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -3714,10 +4106,13 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>0.1743709317535833</v>
+        <v>0.1742406724312689</v>
       </c>
       <c r="G131" t="n">
-        <v>0.0001218528995739867</v>
+        <v>0.0001213432855224811</v>
+      </c>
+      <c r="H131" t="n">
+        <v>68.23194521798783</v>
       </c>
     </row>
     <row r="132">
@@ -3725,13 +4120,13 @@
         <v>1300</v>
       </c>
       <c r="B132" t="n">
-        <v>241.8642133733587</v>
+        <v>241.8191926240456</v>
       </c>
       <c r="C132" t="n">
-        <v>74.04906349412784</v>
+        <v>73.20062823839703</v>
       </c>
       <c r="D132" t="n">
-        <v>0.987275652039221</v>
+        <v>0.9873223685518333</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -3739,10 +4134,13 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>0.1743711127949691</v>
+        <v>0.1742396814540496</v>
       </c>
       <c r="G132" t="n">
-        <v>0.0001227268160731086</v>
+        <v>0.0001222050138332611</v>
+      </c>
+      <c r="H132" t="n">
+        <v>68.22211893725083</v>
       </c>
     </row>
     <row r="133">
@@ -3750,13 +4148,13 @@
         <v>1310</v>
       </c>
       <c r="B133" t="n">
-        <v>239.8266546911011</v>
+        <v>239.7811239629048</v>
       </c>
       <c r="C133" t="n">
-        <v>74.01899221835106</v>
+        <v>73.16340303245397</v>
       </c>
       <c r="D133" t="n">
-        <v>0.9871843039531099</v>
+        <v>0.9872321801102953</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -3764,10 +4162,13 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>0.1743715841754611</v>
+        <v>0.1742389786081204</v>
       </c>
       <c r="G133" t="n">
-        <v>0.0001236244000519133</v>
+        <v>0.0001230901133900483</v>
+      </c>
+      <c r="H133" t="n">
+        <v>68.21229459871979</v>
       </c>
     </row>
     <row r="134">
@@ -3775,13 +4176,13 @@
         <v>1320</v>
       </c>
       <c r="B134" t="n">
-        <v>237.4215200655273</v>
+        <v>237.375371897749</v>
       </c>
       <c r="C134" t="n">
-        <v>73.97116731200049</v>
+        <v>73.1041723466069</v>
       </c>
       <c r="D134" t="n">
-        <v>0.9870904770226845</v>
+        <v>0.9871395408557757</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -3789,10 +4190,13 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>0.1743723487103334</v>
+        <v>0.1742385666633093</v>
       </c>
       <c r="G134" t="n">
-        <v>0.0001245464690770928</v>
+        <v>0.0001239993944988658</v>
+      </c>
+      <c r="H134" t="n">
+        <v>68.19666549854867</v>
       </c>
     </row>
     <row r="135">
@@ -3800,13 +4204,13 @@
         <v>1330</v>
       </c>
       <c r="B135" t="n">
-        <v>235.016259170972</v>
+        <v>234.9694952935538</v>
       </c>
       <c r="C135" t="n">
-        <v>73.92335168147258</v>
+        <v>73.0449766541675</v>
       </c>
       <c r="D135" t="n">
-        <v>0.9869771787552188</v>
+        <v>0.987027860364697</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3814,10 +4218,13 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>0.1743716998466149</v>
+        <v>0.1742360645561247</v>
       </c>
       <c r="G135" t="n">
-        <v>0.0001256591157948354</v>
+        <v>0.00012509457403921</v>
+      </c>
+      <c r="H135" t="n">
+        <v>68.18104912003153</v>
       </c>
     </row>
     <row r="136">
@@ -3825,13 +4232,13 @@
         <v>1340</v>
       </c>
       <c r="B136" t="n">
-        <v>232.6108570325869</v>
+        <v>232.5634795195437</v>
       </c>
       <c r="C136" t="n">
-        <v>73.87554532633919</v>
+        <v>72.98581592614767</v>
       </c>
       <c r="D136" t="n">
-        <v>0.9868601962646364</v>
+        <v>0.9869125419469807</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -3839,10 +4246,13 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>0.1743714666070674</v>
+        <v>0.1742339782083341</v>
       </c>
       <c r="G136" t="n">
-        <v>0.0001268081643539461</v>
+        <v>0.0001262256551948516</v>
+      </c>
+      <c r="H136" t="n">
+        <v>68.16544544856194</v>
       </c>
     </row>
     <row r="137">
@@ -3850,13 +4260,13 @@
         <v>1350</v>
       </c>
       <c r="B137" t="n">
-        <v>230.2052980601956</v>
+        <v>230.1573093325066</v>
       </c>
       <c r="C137" t="n">
-        <v>73.82774824617161</v>
+        <v>72.92669013359398</v>
       </c>
       <c r="D137" t="n">
-        <v>0.9867393795313469</v>
+        <v>0.9867934367932814</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3864,10 +4274,13 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>0.1743716535378494</v>
+        <v>0.1742323120743487</v>
       </c>
       <c r="G137" t="n">
-        <v>0.0001279951142152999</v>
+        <v>0.0001273941230440758</v>
+      </c>
+      <c r="H137" t="n">
+        <v>68.14985446955599</v>
       </c>
     </row>
     <row r="138">
@@ -3875,13 +4288,13 @@
         <v>1360</v>
       </c>
       <c r="B138" t="n">
-        <v>227.7995660215392</v>
+        <v>227.7509688501459</v>
       </c>
       <c r="C138" t="n">
-        <v>73.77996044054123</v>
+        <v>72.86759924758815</v>
       </c>
       <c r="D138" t="n">
-        <v>0.9866145719441032</v>
+        <v>0.9866703895249854</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -3889,10 +4302,13 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>0.1743722652021261</v>
+        <v>0.1742310706250159</v>
       </c>
       <c r="G138" t="n">
-        <v>0.0001292215319878752</v>
+        <v>0.0001286015294488261</v>
+      </c>
+      <c r="H138" t="n">
+        <v>68.1342761684524</v>
       </c>
     </row>
     <row r="139">
@@ -3900,13 +4316,13 @@
         <v>1370</v>
       </c>
       <c r="B139" t="n">
-        <v>225.3936440141227</v>
+        <v>225.3444415230401</v>
       </c>
       <c r="C139" t="n">
-        <v>73.7321819090198</v>
+        <v>72.80854323924746</v>
       </c>
       <c r="D139" t="n">
-        <v>0.9864856099768782</v>
+        <v>0.986543237871316</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3914,10 +4330,13 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0.1743733061808926</v>
+        <v>0.1742302583484302</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0001304890548160645</v>
+        <v>0.0001298494964309943</v>
+      </c>
+      <c r="H139" t="n">
+        <v>68.1187105307126</v>
       </c>
     </row>
     <row r="140">
@@ -3925,13 +4344,13 @@
         <v>1380</v>
       </c>
       <c r="B140" t="n">
-        <v>222.9875144355749</v>
+        <v>222.9377101051198</v>
       </c>
       <c r="C140" t="n">
-        <v>73.6844126511786</v>
+        <v>72.74952207972331</v>
       </c>
       <c r="D140" t="n">
-        <v>0.9863523228464279</v>
+        <v>0.9864118123271379</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -3939,10 +4358,13 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>0.1743747810738542</v>
+        <v>0.1742298797507987</v>
       </c>
       <c r="G140" t="n">
-        <v>0.0001317993939759659</v>
+        <v>0.00013113971975693</v>
+      </c>
+      <c r="H140" t="n">
+        <v>68.10315754182038</v>
       </c>
     </row>
     <row r="141">
@@ -3950,13 +4372,13 @@
         <v>1390</v>
       </c>
       <c r="B141" t="n">
-        <v>220.5811589524241</v>
+        <v>220.5307566225671</v>
       </c>
       <c r="C141" t="n">
-        <v>73.63665266658916</v>
+        <v>72.69053574020302</v>
       </c>
       <c r="D141" t="n">
-        <v>0.9862145321490831</v>
+        <v>0.9862759357900174</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -3964,10 +4386,13 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>0.174376694500366</v>
+        <v>0.1742299393573644</v>
       </c>
       <c r="G141" t="n">
-        <v>0.0001331543386967737</v>
+        <v>0.0001324739727461969</v>
+      </c>
+      <c r="H141" t="n">
+        <v>68.08761718728226</v>
       </c>
     </row>
     <row r="142">
@@ -3975,13 +4400,13 @@
         <v>1400</v>
       </c>
       <c r="B142" t="n">
-        <v>218.1745584671864</v>
+        <v>218.1235623410336</v>
       </c>
       <c r="C142" t="n">
-        <v>73.58890195482331</v>
+        <v>72.6315841919079</v>
       </c>
       <c r="D142" t="n">
-        <v>0.9860720514751896</v>
+        <v>0.9861354231749554</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -3989,10 +4414,13 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0.1743790511004349</v>
+        <v>0.1742304417133929</v>
       </c>
       <c r="G142" t="n">
-        <v>0.000134555760224875</v>
+        <v>0.0001338541103220797</v>
+      </c>
+      <c r="H142" t="n">
+        <v>68.07208945262701</v>
       </c>
     </row>
     <row r="143">
@@ -4000,13 +4428,13 @@
         <v>1410</v>
       </c>
       <c r="B143" t="n">
-        <v>215.767693083654</v>
+        <v>215.7161077310647</v>
       </c>
       <c r="C143" t="n">
-        <v>73.54116051545213</v>
+        <v>72.57266740609487</v>
       </c>
       <c r="D143" t="n">
-        <v>0.9859246859994638</v>
+        <v>0.9859900810050711</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -4014,10 +4442,13 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0.1743818555357885</v>
+        <v>0.1742313913852231</v>
       </c>
       <c r="G143" t="n">
-        <v>0.0001360056161498996</v>
+        <v>0.0001352820733229725</v>
+      </c>
+      <c r="H143" t="n">
+        <v>68.05657432340597</v>
       </c>
     </row>
     <row r="144">
@@ -4025,13 +4456,13 @@
         <v>1420</v>
       </c>
       <c r="B144" t="n">
-        <v>213.3605420702611</v>
+        <v>213.3083724316086</v>
       </c>
       <c r="C144" t="n">
-        <v>73.49342834804747</v>
+        <v>72.51378535405547</v>
       </c>
       <c r="D144" t="n">
-        <v>0.9857722320453755</v>
+        <v>0.9858397069763551</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -4039,10 +4470,13 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0.1743851124910151</v>
+        <v>0.1742327929613895</v>
       </c>
       <c r="G144" t="n">
-        <v>0.000137505955013791</v>
+        <v>0.0001367598930955915</v>
+      </c>
+      <c r="H144" t="n">
+        <v>68.04107178519283</v>
       </c>
     </row>
     <row r="145">
@@ -4050,13 +4484,13 @@
         <v>1430</v>
       </c>
       <c r="B145" t="n">
-        <v>210.9530838213965</v>
+        <v>210.9003352114806</v>
       </c>
       <c r="C145" t="n">
-        <v>73.44570545218096</v>
+        <v>72.4549380071154</v>
       </c>
       <c r="D145" t="n">
-        <v>0.9856144766214892</v>
+        <v>0.9856840894944278</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -4064,10 +4498,13 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0.1743888266747788</v>
+        <v>0.1742346510538162</v>
       </c>
       <c r="G145" t="n">
-        <v>0.0001390589212259832</v>
+        <v>0.0001382896963929479</v>
+      </c>
+      <c r="H145" t="n">
+        <v>68.02558182358348</v>
       </c>
     </row>
     <row r="146">
@@ -4075,13 +4512,13 @@
         <v>1440</v>
       </c>
       <c r="B146" t="n">
-        <v>208.5452958165184</v>
+        <v>208.4919739286372</v>
       </c>
       <c r="C146" t="n">
-        <v>73.39799182742433</v>
+        <v>72.39612533663592</v>
       </c>
       <c r="D146" t="n">
-        <v>0.9854511969275003</v>
+        <v>0.9855230071810517</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -4089,10 +4526,13 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0.1743930028211143</v>
+        <v>0.1742369702990921</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0001406667603099974</v>
+        <v>0.0001398737106022405</v>
+      </c>
+      <c r="H146" t="n">
+        <v>68.01010442419636</v>
       </c>
     </row>
     <row r="147">
@@ -4100,13 +4540,13 @@
         <v>1450</v>
       </c>
       <c r="B147" t="n">
-        <v>206.1371545769179</v>
+        <v>206.0832654871082</v>
       </c>
       <c r="C147" t="n">
-        <v>73.350287473349</v>
+        <v>72.33734731401205</v>
       </c>
       <c r="D147" t="n">
-        <v>0.9852821598274826</v>
+        <v>0.9853562283479245</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -4114,10 +4554,13 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0.1743976456908068</v>
+        <v>0.1742397553598277</v>
       </c>
       <c r="G147" t="n">
-        <v>0.0001423318245092604</v>
+        <v>0.0001415142693302896</v>
+      </c>
+      <c r="H147" t="n">
+        <v>67.99463957267183</v>
       </c>
     </row>
     <row r="148">
@@ -4125,13 +4568,13 @@
         <v>1460</v>
       </c>
       <c r="B148" t="n">
-        <v>203.7286356199595</v>
+        <v>203.6741857914172</v>
       </c>
       <c r="C148" t="n">
-        <v>73.30259238952692</v>
+        <v>72.27860391067418</v>
       </c>
       <c r="D148" t="n">
-        <v>0.9851071212876268</v>
+        <v>0.9851835104350402</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -4139,10 +4582,13 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>0.174402760072863</v>
+        <v>0.174243010926103</v>
       </c>
       <c r="G148" t="n">
-        <v>0.000144056578782701</v>
+        <v>0.00014321381837687</v>
+      </c>
+      <c r="H148" t="n">
+        <v>67.97918725467272</v>
       </c>
     </row>
     <row r="149">
@@ -4150,13 +4596,13 @@
         <v>1470</v>
       </c>
       <c r="B149" t="n">
-        <v>201.3197134106182</v>
+        <v>201.2647096983073</v>
       </c>
       <c r="C149" t="n">
-        <v>73.25490657552984</v>
+        <v>72.21989509808634</v>
       </c>
       <c r="D149" t="n">
-        <v>0.9849258257754731</v>
+        <v>0.985004599410638</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -4164,10 +4610,13 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0.1744083507860781</v>
+        <v>0.1742467417170086</v>
       </c>
       <c r="G149" t="n">
-        <v>0.0001458436072237542</v>
+        <v>0.0001449749221293533</v>
+      </c>
+      <c r="H149" t="n">
+        <v>67.96374745588382</v>
       </c>
     </row>
     <row r="150">
@@ -4175,13 +4624,13 @@
         <v>1480</v>
       </c>
       <c r="B150" t="n">
-        <v>198.9103613101095</v>
+        <v>198.8548109655742</v>
       </c>
       <c r="C150" t="n">
-        <v>73.20723003092928</v>
+        <v>72.16122084774781</v>
       </c>
       <c r="D150" t="n">
-        <v>0.9847380056173503</v>
+        <v>0.9848192291294653</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -4189,10 +4638,13 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>0.1744144226807062</v>
+        <v>0.1742509524822903</v>
       </c>
       <c r="G150" t="n">
-        <v>0.0001476956199398212</v>
+        <v>0.000146800270415463</v>
+      </c>
+      <c r="H150" t="n">
+        <v>67.94832016201219</v>
       </c>
     </row>
     <row r="151">
@@ -4200,13 +4652,13 @@
         <v>1490</v>
       </c>
       <c r="B151" t="n">
-        <v>196.5005515213963</v>
+        <v>196.4444621977879</v>
       </c>
       <c r="C151" t="n">
-        <v>73.15956275529686</v>
+        <v>72.10258113119187</v>
       </c>
       <c r="D151" t="n">
-        <v>0.9845433803103973</v>
+        <v>0.9846271206457428</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -4214,10 +4666,13 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>0.1744209806402411</v>
+        <v>0.1742556480041006</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0001496154604330576</v>
+        <v>0.0001486926858547416</v>
+      </c>
+      <c r="H151" t="n">
+        <v>67.93290535878688</v>
       </c>
     </row>
     <row r="152">
@@ -4225,13 +4680,13 @@
         <v>1500</v>
       </c>
       <c r="B152" t="n">
-        <v>194.0902550313322</v>
+        <v>194.0336347886665</v>
       </c>
       <c r="C152" t="n">
-        <v>73.11190474820455</v>
+        <v>72.04397591998622</v>
       </c>
       <c r="D152" t="n">
-        <v>0.9843416557851714</v>
+        <v>0.9844279814768572</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -4239,10 +4694,13 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>0.1744280295833146</v>
+        <v>0.1742608330988673</v>
       </c>
       <c r="G152" t="n">
-        <v>0.0001516061135276246</v>
+        <v>0.0001506551317535623</v>
+      </c>
+      <c r="H152" t="n">
+        <v>67.91750303195899</v>
       </c>
     </row>
     <row r="153">
@@ -4250,13 +4708,13 @@
         <v>1510</v>
       </c>
       <c r="B153" t="n">
-        <v>191.6794415491816</v>
+        <v>191.6222988598418</v>
       </c>
       <c r="C153" t="n">
-        <v>73.06425600922387</v>
+        <v>71.9854051857327</v>
       </c>
       <c r="D153" t="n">
-        <v>0.9841325236144335</v>
+        <v>0.984221504813393</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -4264,10 +4722,13 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>0.174435574465721</v>
+        <v>0.1742665126192856</v>
       </c>
       <c r="G153" t="n">
-        <v>0.0001536707138933178</v>
+        <v>0.0001526907205932606</v>
+      </c>
+      <c r="H153" t="n">
+        <v>67.90211316730156</v>
       </c>
     </row>
     <row r="154">
@@ -4275,13 +4736,13 @@
         <v>1520</v>
       </c>
       <c r="B154" t="n">
-        <v>189.2680794412298</v>
+        <v>189.2104231957334</v>
       </c>
       <c r="C154" t="n">
-        <v>73.01661653792701</v>
+        <v>71.92686890006769</v>
       </c>
       <c r="D154" t="n">
-        <v>0.9839156601632419</v>
+        <v>0.9840073686706508</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -4289,10 +4750,13 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>0.174443620282577</v>
+        <v>0.1742726914564441</v>
       </c>
       <c r="G154" t="n">
-        <v>0.0001558125552208312</v>
+        <v>0.000154802723166275</v>
+      </c>
+      <c r="H154" t="n">
+        <v>67.88673575060965</v>
       </c>
     </row>
     <row r="155">
@@ -4300,13 +4764,13 @@
         <v>1530</v>
       </c>
       <c r="B155" t="n">
-        <v>186.8561356611711</v>
+        <v>186.7979751742198</v>
       </c>
       <c r="C155" t="n">
-        <v>72.96898633388548</v>
+        <v>71.86836703466145</v>
       </c>
       <c r="D155" t="n">
-        <v>0.9836907256749601</v>
+        <v>0.9837852349762869</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -4314,10 +4778,13 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>0.1744521720706268</v>
+        <v>0.1742793745420928</v>
       </c>
       <c r="G155" t="n">
-        <v>0.0001580351001099295</v>
+        <v>0.0001569945784211455</v>
+      </c>
+      <c r="H155" t="n">
+        <v>67.87137076770016</v>
       </c>
     </row>
     <row r="156">
@@ -4325,13 +4792,13 @@
         <v>1540</v>
       </c>
       <c r="B156" t="n">
-        <v>184.443575675929</v>
+        <v>184.3849206927637</v>
       </c>
       <c r="C156" t="n">
-        <v>72.92136539667115</v>
+        <v>71.80989956121869</v>
       </c>
       <c r="D156" t="n">
-        <v>0.9834573632872075</v>
+        <v>0.9835547485881311</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -4339,10 +4806,13 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>0.1744612349107027</v>
+        <v>0.1742865668510656</v>
       </c>
       <c r="G156" t="n">
-        <v>0.0001603419907385353</v>
+        <v>0.0001592699040839204</v>
+      </c>
+      <c r="H156" t="n">
+        <v>67.8560182044119</v>
       </c>
     </row>
     <row r="157">
@@ -4350,13 +4820,13 @@
         <v>1550</v>
       </c>
       <c r="B157" t="n">
-        <v>182.0303633865333</v>
+        <v>181.9712240896172</v>
       </c>
       <c r="C157" t="n">
-        <v>72.87375372585598</v>
+        <v>71.75146645147811</v>
       </c>
       <c r="D157" t="n">
-        <v>0.9832151979711291</v>
+        <v>0.9833155362355817</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -4364,10 +4834,13 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>0.1744708139303542</v>
+        <v>0.1742942734038672</v>
       </c>
       <c r="G157" t="n">
-        <v>0.0001627370603883483</v>
+        <v>0.0001616325081310656</v>
+      </c>
+      <c r="H157" t="n">
+        <v>67.84067804660553</v>
       </c>
     </row>
     <row r="158">
@@ -4375,13 +4848,13 @@
         <v>1560</v>
       </c>
       <c r="B158" t="n">
-        <v>179.6164610436359</v>
+        <v>179.556848059693</v>
       </c>
       <c r="C158" t="n">
-        <v>72.82615132101193</v>
+        <v>71.69306767721207</v>
       </c>
       <c r="D158" t="n">
-        <v>0.9829638353866231</v>
+        <v>0.9830672053772596</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -4389,10 +4862,13 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>0.1744809143066568</v>
+        <v>0.1743024992694386</v>
       </c>
       <c r="G158" t="n">
-        <v>0.0001652243459111599</v>
+        <v>0.0001640864011974697</v>
+      </c>
+      <c r="H158" t="n">
+        <v>67.82535028016333</v>
       </c>
     </row>
     <row r="159">
@@ -4400,13 +4876,13 @@
         <v>1570</v>
       </c>
       <c r="B159" t="n">
-        <v>177.2018291572081</v>
+        <v>177.1417535646453</v>
       </c>
       <c r="C159" t="n">
-        <v>72.77855818171054</v>
+        <v>71.63470321022726</v>
       </c>
       <c r="D159" t="n">
-        <v>0.9827028606453401</v>
+        <v>0.9828093429667639</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -4414,10 +4890,13 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>0.1744915412692168</v>
+        <v>0.1743112495681136</v>
       </c>
       <c r="G159" t="n">
-        <v>0.0001678081012297081</v>
+        <v>0.0001666358100127442</v>
+      </c>
+      <c r="H159" t="n">
+        <v>67.81003489098944</v>
       </c>
     </row>
     <row r="160">
@@ -4425,13 +4904,13 @@
         <v>1580</v>
       </c>
       <c r="B160" t="n">
-        <v>174.7864263999129</v>
+        <v>174.7258997366589</v>
       </c>
       <c r="C160" t="n">
-        <v>72.73097430752387</v>
+        <v>71.57637302236435</v>
       </c>
       <c r="D160" t="n">
-        <v>0.9824318369723329</v>
+        <v>0.9825415141174542</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -4439,10 +4918,13 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>0.1745027001033855</v>
+        <v>0.1743205294747834</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0001704928119778436</v>
+        <v>0.0001692851919698792</v>
+      </c>
+      <c r="H160" t="n">
+        <v>67.79473186500972</v>
       </c>
     </row>
     <row r="161">
@@ -4450,13 +4932,13 @@
         <v>1590</v>
       </c>
       <c r="B161" t="n">
-        <v>172.3702095035939</v>
+        <v>172.3092437753899</v>
       </c>
       <c r="C161" t="n">
-        <v>72.68339969802389</v>
+        <v>71.51807708549734</v>
       </c>
       <c r="D161" t="n">
-        <v>0.9821503042561839</v>
+        <v>0.9822632606561305</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -4464,10 +4946,13 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>0.1745143961537015</v>
+        <v>0.1743303442222847</v>
       </c>
       <c r="G161" t="n">
-        <v>0.0001732832113971762</v>
+        <v>0.0001720392509426152</v>
+      </c>
+      <c r="H161" t="n">
+        <v>67.7794411881715</v>
       </c>
     </row>
     <row r="162">
@@ -4475,13 +4960,13 @@
         <v>1600</v>
       </c>
       <c r="B162" t="n">
-        <v>169.9531331482606</v>
+        <v>169.8917408374434</v>
       </c>
       <c r="C162" t="n">
-        <v>72.63583435278292</v>
+        <v>71.45981537153466</v>
       </c>
       <c r="D162" t="n">
-        <v>0.9818577774762385</v>
+        <v>0.9819740995542907</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -4489,10 +4974,13 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>0.174526634827579</v>
+        <v>0.1743406991050301</v>
       </c>
       <c r="G162" t="n">
-        <v>0.0001761842976214274</v>
+        <v>0.0001749029544818692</v>
+      </c>
+      <c r="H162" t="n">
+        <v>67.76416284644392</v>
       </c>
     </row>
     <row r="163">
@@ -4500,13 +4988,13 @@
         <v>1610</v>
       </c>
       <c r="B163" t="n">
-        <v>167.5351498428842</v>
+        <v>167.4733439177053</v>
       </c>
       <c r="C163" t="n">
-        <v>72.58827827137236</v>
+        <v>71.4015878524184</v>
       </c>
       <c r="D163" t="n">
-        <v>0.9815537449942241</v>
+        <v>0.9816735212243012</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -4514,10 +5002,13 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0.1745394215992644</v>
+        <v>0.1743515994829026</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0001792013524957165</v>
+        <v>0.0001778815525374353</v>
+      </c>
+      <c r="H163" t="n">
+        <v>67.74889682581764</v>
       </c>
     </row>
     <row r="164">
@@ -4525,13 +5016,13 @@
         <v>1620</v>
       </c>
       <c r="B164" t="n">
-        <v>165.1162097972428</v>
+        <v>165.0540037217723</v>
       </c>
       <c r="C164" t="n">
-        <v>72.5407314533644</v>
+        <v>71.34339450012396</v>
       </c>
       <c r="D164" t="n">
-        <v>0.9812376666959929</v>
+        <v>0.9813609876662808</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -4539,10 +5030,13 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>0.174552762014081</v>
+        <v>0.1743630507854345</v>
       </c>
       <c r="G164" t="n">
-        <v>0.0001823399620962207</v>
+        <v>0.0001809805978692788</v>
+      </c>
+      <c r="H164" t="n">
+        <v>67.73364311230473</v>
       </c>
     </row>
     <row r="165">
@@ -4550,13 +5044,13 @@
         <v>1630</v>
       </c>
       <c r="B165" t="n">
-        <v>162.6962607839658</v>
+        <v>162.6336685286375</v>
       </c>
       <c r="C165" t="n">
-        <v>72.49319389833113</v>
+        <v>71.28523528666051</v>
       </c>
       <c r="D165" t="n">
-        <v>0.9809089719673741</v>
+        <v>0.9810359304497579</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -4564,10 +5058,13 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>0.1745666616929917</v>
+        <v>0.1743750585162975</v>
       </c>
       <c r="G165" t="n">
-        <v>0.000185606039136467</v>
+        <v>0.00018420596833341</v>
+      </c>
+      <c r="H165" t="n">
+        <v>67.71840169193885</v>
       </c>
     </row>
     <row r="166">
@@ -4575,13 +5072,13 @@
         <v>1640</v>
       </c>
       <c r="B166" t="n">
-        <v>160.2752479898361</v>
+        <v>160.2122840426918</v>
       </c>
       <c r="C166" t="n">
-        <v>72.44566560584428</v>
+        <v>71.22711018407119</v>
       </c>
       <c r="D166" t="n">
-        <v>0.9805670574861289</v>
+        <v>0.9806977485121695</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -4589,10 +5086,13 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>0.1745811263375037</v>
+        <v>0.1743876282581319</v>
       </c>
       <c r="G166" t="n">
-        <v>0.0001890058474702886</v>
+        <v>0.000187563891250958</v>
+      </c>
+      <c r="H166" t="n">
+        <v>67.70317255077508</v>
       </c>
     </row>
     <row r="167">
@@ -4600,13 +5100,13 @@
         <v>1650</v>
       </c>
       <c r="B167" t="n">
-        <v>157.8531138552933</v>
+        <v>157.7897932339966</v>
       </c>
       <c r="C167" t="n">
-        <v>72.39814657547629</v>
+        <v>71.16901916443237</v>
       </c>
       <c r="D167" t="n">
-        <v>0.9802112848097173</v>
+        <v>0.980345805753997</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -4614,10 +5114,13 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>0.1745961617349493</v>
+        <v>0.1744007656777441</v>
       </c>
       <c r="G167" t="n">
-        <v>0.0001925460289287762</v>
+        <v>0.0001910609700961647</v>
+      </c>
+      <c r="H167" t="n">
+        <v>67.68795567488991</v>
       </c>
     </row>
     <row r="168">
@@ -4625,13 +5128,13 @@
         <v>1660</v>
       </c>
       <c r="B168" t="n">
-        <v>155.42979790096</v>
+        <v>155.3661361656547</v>
       </c>
       <c r="C168" t="n">
-        <v>72.35063680679912</v>
+        <v>71.11096219985382</v>
       </c>
       <c r="D168" t="n">
-        <v>0.9798409777359678</v>
+        <v>0.9799794284077364</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -4639,10 +5142,13 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>0.1746117737641768</v>
+        <v>0.1744144765317076</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0001962336327598788</v>
+        <v>0.0001947042137701431</v>
+      </c>
+      <c r="H168" t="n">
+        <v>67.67275105038114</v>
       </c>
     </row>
     <row r="169">
@@ -4650,13 +5156,13 @@
         <v>1670</v>
       </c>
       <c r="B169" t="n">
-        <v>153.0052365398724</v>
+        <v>152.9412498069686</v>
       </c>
       <c r="C169" t="n">
-        <v>72.30313629938485</v>
+        <v>71.05293926247884</v>
       </c>
       <c r="D169" t="n">
-        <v>0.9794554194107524</v>
+        <v>0.9795979021549051</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -4664,10 +5170,13 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>0.1746279684016893</v>
+        <v>0.1744287666724069</v>
       </c>
       <c r="G169" t="n">
-        <v>0.0002000761479753911</v>
+        <v>0.000198501068763088</v>
+      </c>
+      <c r="H169" t="n">
+        <v>67.65755866336792</v>
       </c>
     </row>
     <row r="170">
@@ -4675,13 +5184,13 @@
         <v>1680</v>
       </c>
       <c r="B170" t="n">
-        <v>150.5793628739309</v>
+        <v>150.5150678309152</v>
       </c>
       <c r="C170" t="n">
-        <v>72.25564505280568</v>
+        <v>70.99495032448408</v>
       </c>
       <c r="D170" t="n">
-        <v>0.979053849153309</v>
+        <v>0.9792004689618601</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -4689,10 +5198,13 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>0.1746447517282775</v>
+        <v>0.1744436420545648</v>
       </c>
       <c r="G170" t="n">
-        <v>0.0002040815389517023</v>
+        <v>0.0002024594545489912</v>
+      </c>
+      <c r="H170" t="n">
+        <v>67.64237849999063</v>
       </c>
     </row>
     <row r="171">
@@ -4700,13 +5212,13 @@
         <v>1690</v>
       </c>
       <c r="B171" t="n">
-        <v>148.1521064729066</v>
+        <v>148.0875203942804</v>
       </c>
       <c r="C171" t="n">
-        <v>72.20816306663357</v>
+        <v>70.93699535808003</v>
       </c>
       <c r="D171" t="n">
-        <v>0.9786354589658838</v>
+        <v>0.978786323601235</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -4714,10 +5226,13 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>0.1746621299361913</v>
+        <v>0.1744591087423019</v>
       </c>
       <c r="G171" t="n">
-        <v>0.0002082582846788458</v>
+        <v>0.0002065878026047534</v>
+      </c>
+      <c r="H171" t="n">
+        <v>67.62721054641109</v>
       </c>
     </row>
     <row r="172">
@@ -4725,13 +5240,13 @@
         <v>1700</v>
       </c>
       <c r="B172" t="n">
-        <v>145.7233931341244</v>
+        <v>145.6585338985905</v>
       </c>
       <c r="C172" t="n">
-        <v>72.16069034044074</v>
+        <v>70.87907433550947</v>
       </c>
       <c r="D172" t="n">
-        <v>0.9781993896897685</v>
+        <v>0.9783546098212306</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -4739,10 +5254,13 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>0.1746801093369086</v>
+        <v>0.174475172916783</v>
       </c>
       <c r="G172" t="n">
-        <v>0.0002126154221082465</v>
+        <v>0.000210895099501085</v>
+      </c>
+      <c r="H172" t="n">
+        <v>67.61205478881199</v>
       </c>
     </row>
     <row r="173">
@@ -4750,13 +5268,13 @@
         <v>1710</v>
       </c>
       <c r="B173" t="n">
-        <v>143.2931446207039</v>
+        <v>143.2280307297324</v>
       </c>
       <c r="C173" t="n">
-        <v>72.11322687379936</v>
+        <v>70.82118722904909</v>
       </c>
       <c r="D173" t="n">
-        <v>0.9777447267644848</v>
+        <v>0.9779044161196884</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -4764,10 +5282,13 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>0.1746986963695597</v>
+        <v>0.1744918408845081</v>
       </c>
       <c r="G173" t="n">
-        <v>0.000217162594114503</v>
+        <v>0.0002153909345770889</v>
+      </c>
+      <c r="H173" t="n">
+        <v>67.59691121339736</v>
       </c>
     </row>
     <row r="174">
@@ -4775,13 +5296,13 @@
         <v>1720</v>
       </c>
       <c r="B174" t="n">
-        <v>140.8612783759577</v>
+        <v>140.795928973882</v>
       </c>
       <c r="C174" t="n">
-        <v>72.06577266628153</v>
+        <v>70.76333401100862</v>
       </c>
       <c r="D174" t="n">
-        <v>0.9772704955406858</v>
+        <v>0.9774347710737225</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -4789,10 +5310,13 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>0.1747178976100778</v>
+        <v>0.1745091190863185</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0002219101026622517</v>
+        <v>0.0002200855527856427</v>
+      </c>
+      <c r="H174" t="n">
+        <v>67.5817798063924</v>
       </c>
     </row>
     <row r="175">
@@ -4800,13 +5324,13 @@
         <v>1730</v>
       </c>
       <c r="B175" t="n">
-        <v>138.427707211226</v>
+        <v>138.3621421070356</v>
       </c>
       <c r="C175" t="n">
-        <v>72.01832771745967</v>
+        <v>70.70551465373092</v>
       </c>
       <c r="D175" t="n">
-        <v>0.9767756560901486</v>
+        <v>0.9769446381685067</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -4814,10 +5338,13 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>0.1747377197811525</v>
+        <v>0.1745270141071922</v>
       </c>
       <c r="G175" t="n">
-        <v>0.0002268689678576568</v>
+        <v>0.0002249899133846024</v>
+      </c>
+      <c r="H175" t="n">
+        <v>67.56666055404327</v>
       </c>
     </row>
     <row r="176">
@@ -4825,13 +5352,13 @@
         <v>1740</v>
       </c>
       <c r="B176" t="n">
-        <v>135.9923389640524</v>
+        <v>135.926578655073</v>
       </c>
       <c r="C176" t="n">
-        <v>71.97089202690574</v>
+        <v>70.64772912959177</v>
       </c>
       <c r="D176" t="n">
-        <v>0.9762590974478219</v>
+        <v>0.9764329100604521</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -4839,10 +5366,13 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>0.1747581697630755</v>
+        <v>0.1745455326869172</v>
       </c>
       <c r="G176" t="n">
-        <v>0.000232050993667827</v>
+        <v>0.0002301157552519216</v>
+      </c>
+      <c r="H176" t="n">
+        <v>67.55155344261715</v>
       </c>
     </row>
     <row r="177">
@@ -4850,13 +5380,13 @@
         <v>1750</v>
       </c>
       <c r="B177" t="n">
-        <v>133.5550761231746</v>
+        <v>133.4891418208483</v>
       </c>
       <c r="C177" t="n">
-        <v>71.92346559419195</v>
+        <v>70.58997741099995</v>
       </c>
       <c r="D177" t="n">
-        <v>0.9757196312110551</v>
+        <v>0.9758984022001937</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -4864,10 +5394,13 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>0.1747792546055766</v>
+        <v>0.1745646817317394</v>
       </c>
       <c r="G177" t="n">
-        <v>0.0002374688412134452</v>
+        <v>0.0002354756697239757</v>
+      </c>
+      <c r="H177" t="n">
+        <v>67.53645845840227</v>
       </c>
     </row>
     <row r="178">
@@ -4875,13 +5408,13 @@
         <v>1760</v>
       </c>
       <c r="B178" t="n">
-        <v>131.1158154163013</v>
+        <v>131.0497290743079</v>
       </c>
       <c r="C178" t="n">
-        <v>71.87604841889083</v>
+        <v>70.53225947039732</v>
       </c>
       <c r="D178" t="n">
-        <v>0.9751559844095727</v>
+        <v>0.9753398457292978</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -4889,10 +5422,13 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>0.1748009815407666</v>
+        <v>0.174584468327098</v>
       </c>
       <c r="G178" t="n">
-        <v>0.0002431361106837987</v>
+        <v>0.0002410831819993141</v>
+      </c>
+      <c r="H178" t="n">
+        <v>67.52137558770778</v>
       </c>
     </row>
     <row r="179">
@@ -4900,13 +5436,13 @@
         <v>1770</v>
       </c>
       <c r="B179" t="n">
-        <v>128.674447356055</v>
+        <v>128.6082317010494</v>
       </c>
       <c r="C179" t="n">
-        <v>71.82864050057458</v>
+        <v>70.47457528025882</v>
       </c>
       <c r="D179" t="n">
-        <v>0.9745667915461418</v>
+        <v>0.9747558795510303</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -4914,10 +5450,13 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>0.1748233579973131</v>
+        <v>0.1746048997515743</v>
       </c>
       <c r="G179" t="n">
-        <v>0.000249067433093642</v>
+        <v>0.0002469528423191947</v>
+      </c>
+      <c r="H179" t="n">
+        <v>67.50630481686383</v>
       </c>
     </row>
     <row r="180">
@@ -4925,13 +5464,13 @@
         <v>1780</v>
       </c>
       <c r="B180" t="n">
-        <v>126.23085573878</v>
+        <v>126.1645343040551</v>
       </c>
       <c r="C180" t="n">
-        <v>71.78124183881539</v>
+        <v>70.41692481309212</v>
       </c>
       <c r="D180" t="n">
-        <v>0.9739505856917843</v>
+        <v>0.974145041459496</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -4939,10 +5478,13 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>0.1748463916160004</v>
+        <v>0.1746259834922012</v>
       </c>
       <c r="G180" t="n">
-        <v>0.000255278573303464</v>
+        <v>0.0002531003283370537</v>
+      </c>
+      <c r="H180" t="n">
+        <v>67.49124613222136</v>
       </c>
     </row>
     <row r="181">
@@ -4950,13 +5492,13 @@
         <v>1790</v>
       </c>
       <c r="B181" t="n">
-        <v>123.784917090101</v>
+        <v>123.7185142525303</v>
       </c>
       <c r="C181" t="n">
-        <v>71.73385243318592</v>
+        <v>70.35930804143743</v>
       </c>
       <c r="D181" t="n">
-        <v>0.9733057885003046</v>
+        <v>0.9735057581924448</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -4964,10 +5506,13 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>0.1748700902668406</v>
+        <v>0.1746477272612986</v>
       </c>
       <c r="G181" t="n">
-        <v>0.0002617865459655422</v>
+        <v>0.0002595425603282746</v>
+      </c>
+      <c r="H181" t="n">
+        <v>67.47619952015212</v>
       </c>
     </row>
     <row r="182">
@@ -4975,13 +5520,13 @@
         <v>1800</v>
       </c>
       <c r="B182" t="n">
-        <v>121.3365000501723</v>
+        <v>121.2700410708336</v>
       </c>
       <c r="C182" t="n">
-        <v>71.68647228325824</v>
+        <v>70.30172493786802</v>
       </c>
       <c r="D182" t="n">
-        <v>0.9726306989841904</v>
+        <v>0.9728363342504167</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -4989,10 +5534,13 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>0.1748944620679339</v>
+        <v>0.174670139015028</v>
       </c>
       <c r="G182" t="n">
-        <v>0.0002686097463461022</v>
+        <v>0.0002662978311776454</v>
+      </c>
+      <c r="H182" t="n">
+        <v>67.46116496704872</v>
       </c>
     </row>
     <row r="183">
@@ -5000,13 +5548,13 @@
         <v>1810</v>
       </c>
       <c r="B183" t="n">
-        <v>118.885464690426</v>
+        <v>118.8189757593693</v>
       </c>
       <c r="C183" t="n">
-        <v>71.63910138860456</v>
+        <v>70.24417547498979</v>
       </c>
       <c r="D183" t="n">
-        <v>0.9719234808668287</v>
+        <v>0.9721349392978846</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -5014,10 +5562,13 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>0.1749195154063004</v>
+        <v>0.1746932269738856</v>
       </c>
       <c r="G183" t="n">
-        <v>0.0002757680983194844</v>
+        <v>0.0002733859534251721</v>
+      </c>
+      <c r="H183" t="n">
+        <v>67.44614245932448</v>
       </c>
     </row>
     <row r="184">
@@ -5025,13 +5576,13 @@
         <v>1820</v>
       </c>
       <c r="B184" t="n">
-        <v>116.4316617523007</v>
+        <v>116.3651700379855</v>
       </c>
       <c r="C184" t="n">
-        <v>71.59173974879752</v>
+        <v>70.18665962544128</v>
       </c>
       <c r="D184" t="n">
-        <v>0.9711821482934685</v>
+        <v>0.9713995939296595</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -5039,10 +5590,13 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>0.1749452589609453</v>
+        <v>0.1747169996453924</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0002832832222466347</v>
+        <v>0.0002808284260645461</v>
+      </c>
+      <c r="H184" t="n">
+        <v>67.43113198341342</v>
       </c>
     </row>
     <row r="185">
@@ -5050,13 +5604,13 @@
         <v>1830</v>
       </c>
       <c r="B185" t="n">
-        <v>113.9749317968317</v>
+        <v>113.9084655008423</v>
       </c>
       <c r="C185" t="n">
-        <v>71.54438736340956</v>
+        <v>70.12917736189365</v>
       </c>
       <c r="D185" t="n">
-        <v>0.9704045496442405</v>
+        <v>0.9706281535468553</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -5064,10 +5618,13 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>0.1749717017284601</v>
+        <v>0.1747414658492754</v>
       </c>
       <c r="G185" t="n">
-        <v>0.0002911786259540765</v>
+        <v>0.0002886486242890245</v>
+      </c>
+      <c r="H185" t="n">
+        <v>67.41613352577031</v>
       </c>
     </row>
     <row r="186">
@@ -5075,13 +5632,13 @@
         <v>1840</v>
       </c>
       <c r="B186" t="n">
-        <v>111.5151042520883</v>
+        <v>111.4486926698257</v>
       </c>
       <c r="C186" t="n">
-        <v>71.49704423201308</v>
+        <v>70.07172865705047</v>
       </c>
       <c r="D186" t="n">
-        <v>0.9695883491452597</v>
+        <v>0.969818290039602</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -5089,10 +5646,13 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>0.1749988530515106</v>
+        <v>0.1747666347454877</v>
       </c>
       <c r="G186" t="n">
-        <v>0.000299479922641758</v>
+        <v>0.0002968720159876051</v>
+      </c>
+      <c r="H186" t="n">
+        <v>67.40114707287042</v>
       </c>
     </row>
     <row r="187">
@@ -5100,13 +5660,13 @@
         <v>1850</v>
       </c>
       <c r="B187" t="n">
-        <v>109.0519963431506</v>
+        <v>108.9856699313106</v>
       </c>
       <c r="C187" t="n">
-        <v>71.44971035418041</v>
+        <v>70.01431348364804</v>
       </c>
       <c r="D187" t="n">
-        <v>0.9687310059164653</v>
+        <v>0.9689674709165343</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -5114,10 +5674,13 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>0.1750267226506234</v>
+        <v>0.1747925158654716</v>
       </c>
       <c r="G187" t="n">
-        <v>0.0003082150802955261</v>
+        <v>0.0003055264095366806</v>
+      </c>
+      <c r="H187" t="n">
+        <v>67.38617261120976</v>
       </c>
     </row>
     <row r="188">
@@ -5125,13 +5688,13 @@
         <v>1860</v>
       </c>
       <c r="B188" t="n">
-        <v>106.5854118865606</v>
+        <v>106.519202338336</v>
       </c>
       <c r="C188" t="n">
-        <v>71.40238572948397</v>
+        <v>69.95693181445506</v>
       </c>
       <c r="D188" t="n">
-        <v>0.9678297500248895</v>
+        <v>0.9680729354513924</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -5139,10 +5702,13 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>0.1750553206597548</v>
+        <v>0.1748191191471386</v>
       </c>
       <c r="G188" t="n">
-        <v>0.0003174147080965626</v>
+        <v>0.0003146422383427209</v>
+      </c>
+      <c r="H188" t="n">
+        <v>67.37121012730482</v>
       </c>
     </row>
     <row r="189">
@@ -5150,13 +5716,13 @@
         <v>1870</v>
       </c>
       <c r="B189" t="n">
-        <v>104.1151399278345</v>
+        <v>104.0490802569357</v>
       </c>
       <c r="C189" t="n">
-        <v>71.3550703574964</v>
+        <v>69.8995836222723</v>
       </c>
       <c r="D189" t="n">
-        <v>0.9668815550263564</v>
+        <v>0.9671316673316958</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -5164,10 +5730,13 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>0.1750846576662099</v>
+        <v>0.1748464549741244</v>
       </c>
       <c r="G189" t="n">
-        <v>0.000327112386449865</v>
+        <v>0.0003242528887135924</v>
+      </c>
+      <c r="H189" t="n">
+        <v>67.35625960769256</v>
       </c>
     </row>
     <row r="190">
@@ -5175,13 +5744,13 @@
         <v>1880</v>
       </c>
       <c r="B190" t="n">
-        <v>101.6409531965435</v>
+        <v>101.5750778313154</v>
       </c>
       <c r="C190" t="n">
-        <v>71.30776423779025</v>
+        <v>69.84226887993327</v>
       </c>
       <c r="D190" t="n">
-        <v>0.9658831063731221</v>
+        <v>0.9661403631893649</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -5189,10 +5758,13 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>0.175114744755585</v>
+        <v>0.1748745342199821</v>
       </c>
       <c r="G190" t="n">
-        <v>0.0003373450486536294</v>
+        <v>0.000334395079026299</v>
+      </c>
+      <c r="H190" t="n">
+        <v>67.3413210389305</v>
       </c>
     </row>
     <row r="191">
@@ -5200,13 +5772,13 @@
         <v>1890</v>
       </c>
       <c r="B191" t="n">
-        <v>99.16260634847654</v>
+        <v>99.09695123761263</v>
       </c>
       <c r="C191" t="n">
-        <v>71.26046736993794</v>
+        <v>69.78498756030365</v>
       </c>
       <c r="D191" t="n">
-        <v>0.964830764934411</v>
+        <v>0.9650953962631038</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -5214,10 +5786,13 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0.1751455935625325</v>
+        <v>0.1749033682980974</v>
       </c>
       <c r="G191" t="n">
-        <v>0.0003481534239752443</v>
+        <v>0.0003451092998907907</v>
+      </c>
+      <c r="H191" t="n">
+        <v>67.32639440759655</v>
       </c>
     </row>
     <row r="192">
@@ -5225,13 +5800,13 @@
         <v>1900</v>
       </c>
       <c r="B192" t="n">
-        <v>96.67983395824521</v>
+        <v>96.61443668986803</v>
       </c>
       <c r="C192" t="n">
-        <v>71.21317975351201</v>
+        <v>69.7277396362814</v>
       </c>
       <c r="D192" t="n">
-        <v>0.9637205247143654</v>
+        <v>0.9639927742805299</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -5239,10 +5814,13 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>0.1751772163283038</v>
+        <v>0.1749329692182636</v>
       </c>
       <c r="G192" t="n">
-        <v>0.0003595825540847348</v>
+        <v>0.0003564403271794852</v>
+      </c>
+      <c r="H192" t="n">
+        <v>67.31147970028907</v>
       </c>
     </row>
     <row r="193">
@@ -5250,13 +5828,13 @@
         <v>1910</v>
       </c>
       <c r="B193" t="n">
-        <v>94.19234821807018</v>
+        <v>94.12724815427508</v>
       </c>
       <c r="C193" t="n">
-        <v>71.1659013880851</v>
+        <v>69.67052508079655</v>
       </c>
       <c r="D193" t="n">
-        <v>0.9625479636485933</v>
+        <v>0.9628280904454914</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -5264,10 +5842,13 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>0.1752096259662136</v>
+        <v>0.1749633496510408</v>
       </c>
       <c r="G193" t="n">
-        <v>0.0003716823975513048</v>
+        <v>0.0003684378225277536</v>
+      </c>
+      <c r="H193" t="n">
+        <v>67.29657690362673</v>
       </c>
     </row>
     <row r="194">
@@ -5275,13 +5856,13 @@
         <v>1920</v>
       </c>
       <c r="B194" t="n">
-        <v>91.69983628899406</v>
+        <v>91.63507471835126</v>
       </c>
       <c r="C194" t="n">
-        <v>71.11863227322976</v>
+        <v>69.61334386681142</v>
       </c>
       <c r="D194" t="n">
-        <v>0.9613081861044694</v>
+        <v>0.9615964661609561</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -5289,10 +5870,13 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>0.175242836136407</v>
+        <v>0.1749945230012566</v>
       </c>
       <c r="G194" t="n">
-        <v>0.000384508540604011</v>
+        <v>0.000381157039381529</v>
+      </c>
+      <c r="H194" t="n">
+        <v>67.28168600424851</v>
       </c>
     </row>
     <row r="195">
@@ -5300,13 +5884,13 @@
         <v>1930</v>
       </c>
       <c r="B195" t="n">
-        <v>89.2019572388533</v>
+        <v>89.13757754985554</v>
       </c>
       <c r="C195" t="n">
-        <v>71.07137240851853</v>
+        <v>69.55619596732026</v>
       </c>
       <c r="D195" t="n">
-        <v>0.9599957553858155</v>
+        <v>0.9602924837945848</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -5314,10 +5898,13 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>0.175276861331602</v>
+        <v>0.1750265034922898</v>
       </c>
       <c r="G195" t="n">
-        <v>0.0003981230368230645</v>
+        <v>0.0003946596571020965</v>
+      </c>
+      <c r="H195" t="n">
+        <v>67.26680698881373</v>
       </c>
     </row>
     <row r="196">
@@ -5325,13 +5912,13 @@
         <v>1940</v>
       </c>
       <c r="B196" t="n">
-        <v>86.69833848630098</v>
+        <v>86.6343863653518</v>
       </c>
       <c r="C196" t="n">
-        <v>71.02412179352405</v>
+        <v>69.49908135534952</v>
       </c>
       <c r="D196" t="n">
-        <v>0.9586046141284301</v>
+        <v>0.9589101073815522</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -5339,10 +5926,13 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>0.1753117169758489</v>
+        <v>0.1750593062631424</v>
       </c>
       <c r="G196" t="n">
-        <v>0.0004125954041742526</v>
+        <v>0.0004090147713432398</v>
+      </c>
+      <c r="H196" t="n">
+        <v>67.25193984400187</v>
       </c>
     </row>
     <row r="197">
@@ -5350,13 +5940,13 @@
         <v>1950</v>
       </c>
       <c r="B197" t="n">
-        <v>84.18857165103853</v>
+        <v>84.12509530933507</v>
       </c>
       <c r="C197" t="n">
-        <v>70.97688042781897</v>
+        <v>69.44200000395756</v>
       </c>
       <c r="D197" t="n">
-        <v>0.9571279899405223</v>
+        <v>0.9574425886288453</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -5364,10 +5954,13 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>0.1753474195388083</v>
+        <v>0.175092947480759</v>
       </c>
       <c r="G197" t="n">
-        <v>0.0004280038152496419</v>
+        <v>0.0004243000763131296</v>
+      </c>
+      <c r="H197" t="n">
+        <v>67.2370845565127</v>
       </c>
     </row>
     <row r="198">
@@ -5375,13 +5968,13 @@
         <v>1960</v>
       </c>
       <c r="B198" t="n">
-        <v>81.67220768588513</v>
+        <v>81.60925812050229</v>
       </c>
       <c r="C198" t="n">
-        <v>70.92964831097595</v>
+        <v>69.38495188623472</v>
       </c>
       <c r="D198" t="n">
-        <v>0.9555582829523451</v>
+        <v>0.9558823548982354</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -5389,10 +5982,13 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>0.1753839866686402</v>
+        <v>0.175127444470627</v>
       </c>
       <c r="G198" t="n">
-        <v>0.0004444365263178523</v>
+        <v>0.0004406032842029285</v>
+      </c>
+      <c r="H198" t="n">
+        <v>67.22224111306609</v>
       </c>
     </row>
     <row r="199">
@@ -5400,13 +5996,13 @@
         <v>1970</v>
       </c>
       <c r="B199" t="n">
-        <v>79.14875113460903</v>
+        <v>79.08638243029868</v>
       </c>
       <c r="C199" t="n">
-        <v>70.88242544256775</v>
+        <v>69.32793697530303</v>
       </c>
       <c r="D199" t="n">
-        <v>0.9538869310383326</v>
+        <v>0.9542208749477193</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -5414,10 +6010,13 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>0.1754214373473476</v>
+        <v>0.1751628158694346</v>
       </c>
       <c r="G199" t="n">
-        <v>0.0004619936036313814</v>
+        <v>0.000458023839814379</v>
+      </c>
+      <c r="H199" t="n">
+        <v>67.20740950040208</v>
       </c>
     </row>
     <row r="200">
@@ -5425,13 +6024,13 @@
         <v>1980</v>
       </c>
       <c r="B200" t="n">
-        <v>76.61765331809873</v>
+        <v>76.55592299785954</v>
       </c>
       <c r="C200" t="n">
-        <v>70.83521182216703</v>
+        <v>69.27095524431684</v>
       </c>
       <c r="D200" t="n">
-        <v>0.9521042472877175</v>
+        <v>0.9524484970286782</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -5439,10 +6038,13 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>0.1754597920733877</v>
+        <v>0.1751990818045123</v>
       </c>
       <c r="G200" t="n">
-        <v>0.0004807890225337765</v>
+        <v>0.0004766750053876533</v>
+      </c>
+      <c r="H200" t="n">
+        <v>67.19258970528077</v>
       </c>
     </row>
     <row r="201">
@@ -5450,13 +6052,13 @@
         <v>1990</v>
       </c>
       <c r="B201" t="n">
-        <v>74.07830419702286</v>
+        <v>74.0172736314841</v>
       </c>
       <c r="C201" t="n">
-        <v>70.78800744934642</v>
+        <v>69.21400666646184</v>
       </c>
       <c r="D201" t="n">
-        <v>0.9501992227201543</v>
+        <v>0.9505542523629964</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -5464,10 +6066,13 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>0.1754990730776333</v>
+        <v>0.1752362641060282</v>
       </c>
       <c r="G201" t="n">
-        <v>0.0005009532378900844</v>
+        <v>0.0004966864134396508</v>
+      </c>
+      <c r="H201" t="n">
+        <v>67.17778171448234</v>
       </c>
     </row>
     <row r="202">
@@ -5475,13 +6080,13 @@
         <v>2000</v>
       </c>
       <c r="B202" t="n">
-        <v>71.5300225867412</v>
+        <v>71.46975747499206</v>
       </c>
       <c r="C202" t="n">
-        <v>70.74081232367882</v>
+        <v>69.1570912149557</v>
       </c>
       <c r="D202" t="n">
-        <v>0.9481592851204674</v>
+        <v>0.9485256149107558</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -5489,10 +6094,13 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>0.1755393045804236</v>
+        <v>0.1752743865595377</v>
       </c>
       <c r="G202" t="n">
-        <v>0.0005226363555870361</v>
+        <v>0.0005182072164097329</v>
+      </c>
+      <c r="H202" t="n">
+        <v>67.16298551480699</v>
       </c>
     </row>
     <row r="203">
@@ -5500,13 +6108,13 @@
         <v>2010</v>
       </c>
       <c r="B203" t="n">
-        <v>68.9720443028999</v>
+        <v>68.91261524080262</v>
       </c>
       <c r="C203" t="n">
-        <v>70.69362644473688</v>
+        <v>69.10020886304767</v>
       </c>
       <c r="D203" t="n">
-        <v>0.9459700019835242</v>
+        <v>0.9463482054681118</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -5514,10 +6122,13 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>0.175580513099656</v>
+        <v>0.1753134752086555</v>
       </c>
       <c r="G203" t="n">
-        <v>0.0005460120777603903</v>
+        <v>0.000541410004491893</v>
+      </c>
+      <c r="H203" t="n">
+        <v>67.14820109307486</v>
       </c>
     </row>
     <row r="204">
@@ -5525,13 +6136,13 @@
         <v>2020</v>
       </c>
       <c r="B204" t="n">
-        <v>66.40350768371796</v>
+        <v>66.34499084027972</v>
       </c>
       <c r="C204" t="n">
-        <v>70.64644981209346</v>
+        <v>69.04335958401862</v>
       </c>
       <c r="D204" t="n">
-        <v>0.9436147115976287</v>
+        <v>0.9440054241892789</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -5539,10 +6150,13 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>0.1756227278228332</v>
+        <v>0.175353558720526</v>
       </c>
       <c r="G204" t="n">
-        <v>0.0005712826541153417</v>
+        <v>0.0005664957222763714</v>
+      </c>
+      <c r="H204" t="n">
+        <v>67.13342843612601</v>
       </c>
     </row>
     <row r="205">
@@ -5550,13 +6164,13 @@
         <v>2030</v>
       </c>
       <c r="B205" t="n">
-        <v>63.81079223546769</v>
+        <v>63.75722270393041</v>
       </c>
       <c r="C205" t="n">
-        <v>70.59928242532123</v>
+        <v>68.98654335118113</v>
       </c>
       <c r="D205" t="n">
-        <v>0.9384830468433706</v>
+        <v>0.9396965241775049</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -5564,10 +6178,13 @@
         </is>
       </c>
       <c r="F205" t="n">
-        <v>0.1754437792436645</v>
+        <v>0.1752415232224466</v>
       </c>
       <c r="G205" t="n">
-        <v>0.0005986851559075084</v>
+        <v>0.0005936998983599843</v>
+      </c>
+      <c r="H205" t="n">
+        <v>67.11866753082045</v>
       </c>
     </row>
     <row r="206">
@@ -5575,13 +6192,13 @@
         <v>2040</v>
       </c>
       <c r="B206" t="n">
-        <v>61.17454093797569</v>
+        <v>61.12633113417059</v>
       </c>
       <c r="C206" t="n">
-        <v>70.55212428399318</v>
+        <v>68.92976013787927</v>
       </c>
       <c r="D206" t="n">
-        <v>0.9296091609614686</v>
+        <v>0.9308796960714478</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -5589,10 +6206,13 @@
         </is>
       </c>
       <c r="F206" t="n">
-        <v>0.174991801579299</v>
+        <v>0.1747868309570004</v>
       </c>
       <c r="G206" t="n">
-        <v>0.000628652554654447</v>
+        <v>0.0006234052303824741</v>
+      </c>
+      <c r="H206" t="n">
+        <v>67.10391836403802</v>
       </c>
     </row>
     <row r="207">
@@ -5600,13 +6220,13 @@
         <v>2050</v>
       </c>
       <c r="B207" t="n">
-        <v>58.48891766542229</v>
+        <v>58.44654592236142</v>
       </c>
       <c r="C207" t="n">
-        <v>70.50497538768207</v>
+        <v>68.87300991748862</v>
       </c>
       <c r="D207" t="n">
-        <v>0.9199269794934329</v>
+        <v>0.9212587305660076</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -5614,10 +6234,13 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>0.1745375646264763</v>
+        <v>0.1743299201116242</v>
       </c>
       <c r="G207" t="n">
-        <v>0.0006617994689589325</v>
+        <v>0.0006562573880186154</v>
+      </c>
+      <c r="H207" t="n">
+        <v>67.08918092267845</v>
       </c>
     </row>
     <row r="208">
@@ -5625,13 +6248,13 @@
         <v>2060</v>
       </c>
       <c r="B208" t="n">
-        <v>55.7468293411388</v>
+        <v>55.71085768085977</v>
       </c>
       <c r="C208" t="n">
-        <v>70.45783573596077</v>
+        <v>68.81629266341633</v>
       </c>
       <c r="D208" t="n">
-        <v>0.9093159724863491</v>
+        <v>0.9107139183055381</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -5639,10 +6262,13 @@
         </is>
       </c>
       <c r="F208" t="n">
-        <v>0.174080473073106</v>
+        <v>0.1738702017247819</v>
       </c>
       <c r="G208" t="n">
-        <v>0.0006987127876568371</v>
+        <v>0.0006928355262009322</v>
+      </c>
+      <c r="H208" t="n">
+        <v>67.07445519366118</v>
       </c>
     </row>
     <row r="209">
@@ -5650,13 +6276,13 @@
         <v>2070</v>
       </c>
       <c r="B209" t="n">
-        <v>52.93952752430464</v>
+        <v>52.91062640958231</v>
       </c>
       <c r="C209" t="n">
-        <v>70.41070532840206</v>
+        <v>68.75960834910063</v>
       </c>
       <c r="D209" t="n">
-        <v>0.8976270763109818</v>
+        <v>0.8990973006531476</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -5664,10 +6290,13 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>0.1736198002658058</v>
+        <v>0.1734069570153093</v>
       </c>
       <c r="G209" t="n">
-        <v>0.0007401461597875992</v>
+        <v>0.0007338828292210695</v>
+      </c>
+      <c r="H209" t="n">
+        <v>67.05974116392539</v>
       </c>
     </row>
     <row r="210">
@@ -5675,13 +6304,13 @@
         <v>2080</v>
       </c>
       <c r="B210" t="n">
-        <v>50.05603478522503</v>
+        <v>50.03501856712563</v>
       </c>
       <c r="C210" t="n">
-        <v>70.36358416457892</v>
+        <v>68.70295694801143</v>
       </c>
       <c r="D210" t="n">
-        <v>0.8846727884073692</v>
+        <v>0.886222896498192</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -5689,10 +6318,13 @@
         </is>
       </c>
       <c r="F210" t="n">
-        <v>0.1731546468808337</v>
+        <v>0.1729392966634477</v>
       </c>
       <c r="G210" t="n">
-        <v>0.0007870869799776639</v>
+        <v>0.0007803721665337087</v>
+      </c>
+      <c r="H210" t="n">
+        <v>67.04503882043007</v>
       </c>
     </row>
     <row r="211">
@@ -5700,13 +6332,13 @@
         <v>2090</v>
       </c>
       <c r="B211" t="n">
-        <v>47.08229289596551</v>
+        <v>47.07017227298646</v>
       </c>
       <c r="C211" t="n">
-        <v>70.31647224406436</v>
+        <v>68.6463384336497</v>
       </c>
       <c r="D211" t="n">
-        <v>0.8702125384150915</v>
+        <v>0.8718522855312389</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -5714,10 +6346,13 @@
         </is>
       </c>
       <c r="F211" t="n">
-        <v>0.1726838816462611</v>
+        <v>0.1724661024721304</v>
       </c>
       <c r="G211" t="n">
-        <v>0.0008408596957360379</v>
+        <v>0.0008336072108425267</v>
+      </c>
+      <c r="H211" t="n">
+        <v>67.03034815015371</v>
       </c>
     </row>
     <row r="212">
@@ -5725,13 +6360,13 @@
         <v>2100</v>
       </c>
       <c r="B212" t="n">
-        <v>43.99985066143773</v>
+        <v>43.99791341852436</v>
       </c>
       <c r="C212" t="n">
-        <v>70.26936956643124</v>
+        <v>68.58975277954789</v>
       </c>
       <c r="D212" t="n">
-        <v>0.8539303457967233</v>
+        <v>0.8556726207403241</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -5739,10 +6374,13 @@
         </is>
       </c>
       <c r="F212" t="n">
-        <v>0.172206053729693</v>
+        <v>0.1719859412542659</v>
       </c>
       <c r="G212" t="n">
-        <v>0.0009032913518308968</v>
+        <v>0.0008953842107503575</v>
+      </c>
+      <c r="H212" t="n">
+        <v>67.01566914009467</v>
       </c>
     </row>
     <row r="213">
@@ -5750,13 +6388,13 @@
         <v>2110</v>
       </c>
       <c r="B213" t="n">
-        <v>40.78375107146888</v>
+        <v>40.79369241093104</v>
       </c>
       <c r="C213" t="n">
-        <v>70.22227613125244</v>
+        <v>68.53319995926938</v>
       </c>
       <c r="D213" t="n">
-        <v>0.8353993066959542</v>
+        <v>0.8372617382106489</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -5764,10 +6402,13 @@
         </is>
       </c>
       <c r="F213" t="n">
-        <v>0.1717192585584977</v>
+        <v>0.1714969331537</v>
       </c>
       <c r="G213" t="n">
-        <v>0.00097698930309619</v>
+        <v>0.0009682628429975292</v>
+      </c>
+      <c r="H213" t="n">
+        <v>67.00100177727067</v>
       </c>
     </row>
     <row r="214">
@@ -5775,13 +6416,13 @@
         <v>2120</v>
       </c>
       <c r="B214" t="n">
-        <v>37.50991867421381</v>
+        <v>37.52200128216321</v>
       </c>
       <c r="C214" t="n">
-        <v>70.17519193810108</v>
+        <v>68.47667994640881</v>
       </c>
       <c r="D214" t="n">
-        <v>0.8140223502069316</v>
+        <v>0.8160300726418357</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -5789,10 +6430,13 @@
         </is>
       </c>
       <c r="F214" t="n">
-        <v>0.171220923326057</v>
+        <v>0.1709965415454147</v>
       </c>
       <c r="G214" t="n">
-        <v>0.001065833852457153</v>
+        <v>0.001056045517154682</v>
+      </c>
+      <c r="H214" t="n">
+        <v>66.98634604871917</v>
       </c>
     </row>
     <row r="215">
@@ -5800,13 +6444,13 @@
         <v>2130</v>
       </c>
       <c r="B215" t="n">
-        <v>34.17837244127681</v>
+        <v>34.19326662773053</v>
       </c>
       <c r="C215" t="n">
-        <v>70.12811698655003</v>
+        <v>68.4201927145923</v>
       </c>
       <c r="D215" t="n">
-        <v>0.789798446408982</v>
+        <v>0.7918925556367671</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -5814,10 +6458,13 @@
         </is>
       </c>
       <c r="F215" t="n">
-        <v>0.1707238937419927</v>
+        <v>0.1704959589907596</v>
       </c>
       <c r="G215" t="n">
-        <v>0.001171980739913287</v>
+        <v>0.001161209144795194</v>
+      </c>
+      <c r="H215" t="n">
+        <v>66.97170194149713</v>
       </c>
     </row>
     <row r="216">
@@ -5825,13 +6472,13 @@
         <v>2140</v>
       </c>
       <c r="B216" t="n">
-        <v>30.77106808535558</v>
+        <v>30.78961471988777</v>
       </c>
       <c r="C216" t="n">
-        <v>70.08105127617239</v>
+        <v>68.36373823747647</v>
       </c>
       <c r="D216" t="n">
-        <v>0.7621777560003257</v>
+        <v>0.7643662442420288</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -5839,10 +6486,13 @@
         </is>
       </c>
       <c r="F216" t="n">
-        <v>0.1702291803734695</v>
+        <v>0.1699978136493348</v>
       </c>
       <c r="G216" t="n">
-        <v>0.001300919629350388</v>
+        <v>0.00128890748668315</v>
+      </c>
+      <c r="H216" t="n">
+        <v>66.9570694426809</v>
       </c>
     </row>
     <row r="217">
@@ -5850,13 +6500,13 @@
         <v>2150</v>
       </c>
       <c r="B217" t="n">
-        <v>27.26236343960927</v>
+        <v>27.28570394422411</v>
       </c>
       <c r="C217" t="n">
-        <v>70.03399480654116</v>
+        <v>68.30731648874939</v>
       </c>
       <c r="D217" t="n">
-        <v>0.7302761825420846</v>
+        <v>0.7325706966981262</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -5864,10 +6514,13 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>0.1697353798636584</v>
+        <v>0.1695007132615101</v>
       </c>
       <c r="G217" t="n">
-        <v>0.001461696077401602</v>
+        <v>0.001448058616483124</v>
+      </c>
+      <c r="H217" t="n">
+        <v>66.94244853936642</v>
       </c>
     </row>
     <row r="218">
@@ -5875,13 +6528,13 @@
         <v>2160</v>
       </c>
       <c r="B218" t="n">
-        <v>23.61319041165617</v>
+        <v>23.64300943439781</v>
       </c>
       <c r="C218" t="n">
-        <v>69.98694757722944</v>
+        <v>68.25092744212975</v>
       </c>
       <c r="D218" t="n">
-        <v>0.692804005510825</v>
+        <v>0.6952229793933118</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -5889,10 +6542,13 @@
         </is>
       </c>
       <c r="F218" t="n">
-        <v>0.1692405111796213</v>
+        <v>0.1690026986676667</v>
       </c>
       <c r="G218" t="n">
-        <v>0.001669255173232985</v>
+        <v>0.001653375047429942</v>
+      </c>
+      <c r="H218" t="n">
+        <v>66.92783921866892</v>
       </c>
     </row>
   </sheetData>

--- a/Relatorio_Grupo2.xlsx
+++ b/Relatorio_Grupo2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H218"/>
+  <dimension ref="A1:L218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,13 +474,33 @@
           <t>Pb_bar</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Vsg</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>dp_dL</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>rho_o</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>rho_g</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>550</v>
+        <v>380</v>
       </c>
       <c r="C2" t="n">
         <v>80</v>
@@ -501,6 +521,18 @@
       </c>
       <c r="H2" t="n">
         <v>70.039918817274</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>841.0639077201473</v>
+      </c>
+      <c r="L2" t="n">
+        <v>278.020177706767</v>
       </c>
     </row>
     <row r="3">
@@ -508,13 +540,13 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>547.5765345302274</v>
+        <v>378.3991712814756</v>
       </c>
       <c r="C3" t="n">
         <v>79.95362428004501</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9916830223602473</v>
+        <v>0.9902845607414293</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -522,13 +554,25 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.1763661571835508</v>
+        <v>0.175469441889013</v>
       </c>
       <c r="G3" t="n">
-        <v>7.937636302163967e-05</v>
+        <v>9.340577580325447e-05</v>
       </c>
       <c r="H3" t="n">
         <v>70.02736179248055</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.1600828718524468</v>
+      </c>
+      <c r="K3" t="n">
+        <v>841.0639077201473</v>
+      </c>
+      <c r="L3" t="n">
+        <v>278.020177706767</v>
       </c>
     </row>
     <row r="4">
@@ -536,13 +580,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="n">
-        <v>545.1531894119429</v>
+        <v>376.7984115968169</v>
       </c>
       <c r="C4" t="n">
         <v>79.90712444580225</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9916703294595325</v>
+        <v>0.9902654569216569</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -550,13 +594,25 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.176346022370279</v>
+        <v>0.175455599836902</v>
       </c>
       <c r="G4" t="n">
-        <v>7.950419031709194e-05</v>
+        <v>9.359294685262144e-05</v>
       </c>
       <c r="H4" t="n">
         <v>70.01477336661577</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.1600759684658676</v>
+      </c>
+      <c r="K4" t="n">
+        <v>841.1302609767556</v>
+      </c>
+      <c r="L4" t="n">
+        <v>277.4641814468297</v>
       </c>
     </row>
     <row r="5">
@@ -564,13 +620,13 @@
         <v>30</v>
       </c>
       <c r="B5" t="n">
-        <v>542.7299668863913</v>
+        <v>375.1977209267516</v>
       </c>
       <c r="C5" t="n">
         <v>79.86050016096004</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9916575183753563</v>
+        <v>0.9902461513420482</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -578,13 +634,25 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.1763258113130346</v>
+        <v>0.1754418144623149</v>
       </c>
       <c r="G5" t="n">
-        <v>7.96331233348041e-05</v>
+        <v>9.37820751436804e-05</v>
       </c>
       <c r="H5" t="n">
         <v>70.00215346594874</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.1600690670065255</v>
+      </c>
+      <c r="K5" t="n">
+        <v>841.1963529500952</v>
+      </c>
+      <c r="L5" t="n">
+        <v>276.9046254081441</v>
       </c>
     </row>
     <row r="6">
@@ -592,13 +660,13 @@
         <v>40</v>
       </c>
       <c r="B6" t="n">
-        <v>540.3068691663927</v>
+        <v>373.597099244165</v>
       </c>
       <c r="C6" t="n">
         <v>79.81375108782169</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9916445876294315</v>
+        <v>0.9902266400805665</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -606,13 +674,25 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.1763055261406742</v>
+        <v>0.1754280868605942</v>
       </c>
       <c r="G6" t="n">
-        <v>7.976317666183574e-05</v>
+        <v>9.397319916195722e-05</v>
       </c>
       <c r="H6" t="n">
         <v>69.98950201647884</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.1600621682586622</v>
+      </c>
+      <c r="K6" t="n">
+        <v>841.2621782618163</v>
+      </c>
+      <c r="L6" t="n">
+        <v>276.3414528742791</v>
       </c>
     </row>
     <row r="7">
@@ -620,13 +700,13 @@
         <v>50</v>
       </c>
       <c r="B7" t="n">
-        <v>537.8838984360726</v>
+        <v>371.9965465139714</v>
       </c>
       <c r="C7" t="n">
         <v>79.76687688729766</v>
       </c>
       <c r="D7" t="n">
-        <v>0.991631535714752</v>
+        <v>0.9902069191111308</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -634,13 +714,25 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.1762851690193856</v>
+        <v>0.1754144181286909</v>
       </c>
       <c r="G7" t="n">
-        <v>7.989436517036605e-05</v>
+        <v>9.416635841406392e-05</v>
       </c>
       <c r="H7" t="n">
         <v>69.97681894393452</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.160055273019358</v>
+      </c>
+      <c r="K7" t="n">
+        <v>841.3277315230461</v>
+      </c>
+      <c r="L7" t="n">
+        <v>275.7746059741518</v>
       </c>
     </row>
     <row r="8">
@@ -648,13 +740,13 @@
         <v>60</v>
       </c>
       <c r="B8" t="n">
-        <v>535.4610568505897</v>
+        <v>370.3960626929826</v>
       </c>
       <c r="C8" t="n">
         <v>79.71987721889798</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9916183610946608</v>
+        <v>0.9901869843007248</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -662,13 +754,25 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.1762647421523821</v>
+        <v>0.1754008093651167</v>
       </c>
       <c r="G8" t="n">
-        <v>8.002670402677501e-05</v>
+        <v>9.436159345619299e-05</v>
       </c>
       <c r="H8" t="n">
         <v>69.9641041737719</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.160048382098881</v>
+      </c>
+      <c r="K8" t="n">
+        <v>841.3930073346462</v>
+      </c>
+      <c r="L8" t="n">
+        <v>275.2040256687177</v>
       </c>
     </row>
     <row r="9">
@@ -676,13 +780,13 @@
         <v>70</v>
       </c>
       <c r="B9" t="n">
-        <v>533.038346535862</v>
+        <v>368.7956477297721</v>
       </c>
       <c r="C9" t="n">
         <v>79.67275174072438</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9916050622018714</v>
+        <v>0.9901668314064297</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -690,13 +794,25 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.1762442477795913</v>
+        <v>0.1753872616698978</v>
       </c>
       <c r="G9" t="n">
-        <v>8.016020870118838e-05</v>
+        <v>9.455894592337526e-05</v>
       </c>
       <c r="H9" t="n">
         <v>69.95135763117332</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.160041496321045</v>
+      </c>
+      <c r="K9" t="n">
+        <v>841.4580002874649</v>
+      </c>
+      <c r="L9" t="n">
+        <v>274.6296517381092</v>
       </c>
     </row>
     <row r="10">
@@ -704,13 +820,13 @@
         <v>80</v>
       </c>
       <c r="B10" t="n">
-        <v>530.6157695882916</v>
+        <v>367.1953015645364</v>
       </c>
       <c r="C10" t="n">
         <v>79.62550010946256</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9915916374374376</v>
+        <v>0.9901464560723774</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -718,13 +834,25 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.1762236881773376</v>
+        <v>0.1753737761445273</v>
       </c>
       <c r="G10" t="n">
-        <v>8.029489497751304e-05</v>
+        <v>9.475845855952214e-05</v>
       </c>
       <c r="H10" t="n">
         <v>69.93857924104593</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.1600346165235776</v>
+      </c>
+      <c r="K10" t="n">
+        <v>841.5227049625914</v>
+      </c>
+      <c r="L10" t="n">
+        <v>274.0514227692625</v>
       </c>
     </row>
     <row r="11">
@@ -732,13 +860,13 @@
         <v>90</v>
       </c>
       <c r="B11" t="n">
-        <v>528.1933280744869</v>
+        <v>365.5950241289514</v>
       </c>
       <c r="C11" t="n">
         <v>79.57812198037431</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9915780851696704</v>
+        <v>0.990125853826623</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -746,13 +874,25 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.1762030656580184</v>
+        <v>0.1753603538919193</v>
       </c>
       <c r="G11" t="n">
-        <v>8.043077896399335e-05</v>
+        <v>9.49601752482733e-05</v>
       </c>
       <c r="H11" t="n">
         <v>69.92576892802033</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.1600277435584997</v>
+      </c>
+      <c r="K11" t="n">
+        <v>841.5871159316084</v>
+      </c>
+      <c r="L11" t="n">
+        <v>273.4692761440691</v>
       </c>
     </row>
     <row r="12">
@@ -760,13 +900,13 @@
         <v>100</v>
       </c>
       <c r="B12" t="n">
-        <v>525.7710240309824</v>
+        <v>363.9948153460263</v>
       </c>
       <c r="C12" t="n">
         <v>79.53061700728949</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9915644037329993</v>
+        <v>0.9901050200779353</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -774,13 +914,25 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.176182382569775</v>
+        <v>0.1753469960163629</v>
       </c>
       <c r="G12" t="n">
-        <v>8.056787710431796e-05</v>
+        <v>9.51641410446709e-05</v>
       </c>
       <c r="H12" t="n">
         <v>69.91292661644911</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.1600208782925138</v>
+      </c>
+      <c r="K12" t="n">
+        <v>841.6512277568454</v>
+      </c>
+      <c r="L12" t="n">
+        <v>272.8831480280929</v>
       </c>
     </row>
     <row r="13">
@@ -788,13 +940,13 @@
         <v>110</v>
       </c>
       <c r="B13" t="n">
-        <v>523.348859463957</v>
+        <v>362.3946751299522</v>
       </c>
       <c r="C13" t="n">
         <v>79.48298484259817</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9915505914267717</v>
+        <v>0.9900839501125011</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -802,13 +954,25 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.1761616412961581</v>
+        <v>0.1753337036234766</v>
       </c>
       <c r="G13" t="n">
-        <v>8.070620618930895e-05</v>
+        <v>9.537040220768272e-05</v>
       </c>
       <c r="H13" t="n">
         <v>69.90005223040536</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.1600140216074046</v>
+      </c>
+      <c r="K13" t="n">
+        <v>841.7150349916294</v>
+      </c>
+      <c r="L13" t="n">
+        <v>272.2929733598972</v>
       </c>
     </row>
     <row r="14">
@@ -816,13 +980,13 @@
         <v>120</v>
       </c>
       <c r="B14" t="n">
-        <v>520.9268363489482</v>
+        <v>360.7946033859477</v>
       </c>
       <c r="C14" t="n">
         <v>79.43522513724241</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9915366465139902</v>
+        <v>0.9900626390905418</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -830,13 +994,25 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.1761408442557877</v>
+        <v>0.1753204778201626</v>
       </c>
       <c r="G14" t="n">
-        <v>8.084578336922759e-05</v>
+        <v>9.557900623359681e-05</v>
       </c>
       <c r="H14" t="n">
         <v>69.8871456936813</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.1600071744004498</v>
+      </c>
+      <c r="K14" t="n">
+        <v>841.778532180535</v>
+      </c>
+      <c r="L14" t="n">
+        <v>271.6986858410234</v>
       </c>
     </row>
     <row r="15">
@@ -844,13 +1020,13 @@
         <v>130</v>
       </c>
       <c r="B15" t="n">
-        <v>518.5049566305649</v>
+        <v>359.1946000100994</v>
       </c>
       <c r="C15" t="n">
         <v>79.3873375407083</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9915225672199842</v>
+        <v>0.9900410820428426</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -858,13 +1034,25 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.1761199939020078</v>
+        <v>0.1753073197145626</v>
       </c>
       <c r="G15" t="n">
-        <v>8.098662616673078e-05</v>
+        <v>9.579000189031108e-05</v>
       </c>
       <c r="H15" t="n">
         <v>69.87420692978682</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.160000337584842</v>
+      </c>
+      <c r="K15" t="n">
+        <v>841.8417138596358</v>
+      </c>
+      <c r="L15" t="n">
+        <v>271.1002179266677</v>
       </c>
     </row>
     <row r="16">
@@ -872,13 +1060,13 @@
         <v>140</v>
       </c>
       <c r="B16" t="n">
-        <v>516.0832222221964</v>
+        <v>357.5946648891981</v>
       </c>
       <c r="C16" t="n">
         <v>79.33932170101781</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9915083517310072</v>
+        <v>0.9900192738671864</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -886,13 +1074,25 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.1760990927225371</v>
+        <v>0.1752942304160127</v>
       </c>
       <c r="G16" t="n">
-        <v>8.112875249051532e-05</v>
+        <v>9.600343925254251e-05</v>
       </c>
       <c r="H16" t="n">
         <v>69.86123586194792</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.1599935120901244</v>
+      </c>
+      <c r="K16" t="n">
+        <v>841.9045745567528</v>
+      </c>
+      <c r="L16" t="n">
+        <v>270.4975008171022</v>
       </c>
     </row>
     <row r="17">
@@ -900,13 +1100,13 @@
         <v>150</v>
       </c>
       <c r="B17" t="n">
-        <v>513.6616350057169</v>
+        <v>355.9947979005718</v>
       </c>
       <c r="C17" t="n">
         <v>79.29117726472037</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9914939981927641</v>
+        <v>0.9899972093246966</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -914,13 +1114,25 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.176078143239114</v>
+        <v>0.1752812110349991</v>
       </c>
       <c r="G17" t="n">
-        <v>8.127218064968808e-05</v>
+        <v>9.621936973798023e-05</v>
       </c>
       <c r="H17" t="n">
         <v>69.84823241310536</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.1599866988626356</v>
+      </c>
+      <c r="K17" t="n">
+        <v>841.967108791703</v>
+      </c>
+      <c r="L17" t="n">
+        <v>269.8904644498907</v>
       </c>
     </row>
     <row r="18">
@@ -928,13 +1140,13 @@
         <v>160</v>
       </c>
       <c r="B18" t="n">
-        <v>511.2401968311888</v>
+        <v>354.3949989119121</v>
       </c>
       <c r="C18" t="n">
         <v>79.24290387688501</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9914795047088567</v>
+        <v>0.9899748830360794</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -942,13 +1154,25 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.176057148007138</v>
+        <v>0.175268262683115</v>
       </c>
       <c r="G18" t="n">
-        <v>8.141692936890142e-05</v>
+        <v>9.643784614440843e-05</v>
       </c>
       <c r="H18" t="n">
         <v>69.83519650591309</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.1599798988659696</v>
+      </c>
+      <c r="K18" t="n">
+        <v>842.0293110765465</v>
+      </c>
+      <c r="L18" t="n">
+        <v>269.2790374929473</v>
       </c>
     </row>
     <row r="19">
@@ -956,13 +1180,13 @@
         <v>170</v>
       </c>
       <c r="B19" t="n">
-        <v>508.8189095165594</v>
+        <v>352.7952677810976</v>
       </c>
       <c r="C19" t="n">
         <v>79.1945011810916</v>
       </c>
       <c r="D19" t="n">
-        <v>0.991464869339148</v>
+        <v>0.98995228947777</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -970,13 +1194,25 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.1760361096153065</v>
+        <v>0.1752553864730168</v>
       </c>
       <c r="G19" t="n">
-        <v>8.156301780429629e-05</v>
+        <v>9.665892268782627e-05</v>
       </c>
       <c r="H19" t="n">
         <v>69.82212806273679</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.1599731130814462</v>
+      </c>
+      <c r="K19" t="n">
+        <v>842.0911759158333</v>
+      </c>
+      <c r="L19" t="n">
+        <v>268.6631473384907</v>
       </c>
     </row>
     <row r="20">
@@ -984,13 +1220,13 @@
         <v>180</v>
       </c>
       <c r="B20" t="n">
-        <v>506.3977748473553</v>
+        <v>351.1956043560116</v>
       </c>
       <c r="C20" t="n">
         <v>79.14596881942265</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9914500900980375</v>
+        <v>0.9899294229779735</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -998,13 +1234,25 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.1760150306852476</v>
+        <v>0.1752425835183811</v>
       </c>
       <c r="G20" t="n">
-        <v>8.17104655602953e-05</v>
+        <v>9.6882655041591e-05</v>
       </c>
       <c r="H20" t="n">
         <v>69.80902700565235</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.1599663425085966</v>
+      </c>
+      <c r="K20" t="n">
+        <v>842.1526978068481</v>
+      </c>
+      <c r="L20" t="n">
+        <v>268.0427200979482</v>
       </c>
     </row>
     <row r="21">
@@ -1012,13 +1260,13 @@
         <v>190</v>
       </c>
       <c r="B21" t="n">
-        <v>503.9767945763707</v>
+        <v>349.596008474355</v>
       </c>
       <c r="C21" t="n">
         <v>79.09730643245501</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9914351649526469</v>
+        <v>0.9899062777126025</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1026,13 +1274,25 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.1759939138711489</v>
+        <v>0.1752298549338622</v>
       </c>
       <c r="G21" t="n">
-        <v>8.185929270729082e-05</v>
+        <v>9.710910037661325e-05</v>
       </c>
       <c r="H21" t="n">
         <v>69.7958932564444</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.1599595881656614</v>
+      </c>
+      <c r="K21" t="n">
+        <v>842.2138712398565</v>
+      </c>
+      <c r="L21" t="n">
+        <v>267.4176805978658</v>
       </c>
     </row>
     <row r="22">
@@ -1040,13 +1300,13 @@
         <v>200</v>
       </c>
       <c r="B22" t="n">
-        <v>501.5559704233522</v>
+        <v>347.996479963454</v>
       </c>
       <c r="C22" t="n">
         <v>79.048513659251</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9914200918209075</v>
+        <v>0.9898828477011066</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1054,13 +1314,25 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.1759727618593831</v>
+        <v>0.1752172018350499</v>
       </c>
       <c r="G22" t="n">
-        <v>8.200951980027595e-05</v>
+        <v>9.733831740263409e-05</v>
       </c>
       <c r="H22" t="n">
         <v>69.78272673660464</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.1599528510901019</v>
+      </c>
+      <c r="K22" t="n">
+        <v>842.2746906983472</v>
+      </c>
+      <c r="L22" t="n">
+        <v>266.7879523768765</v>
       </c>
     </row>
     <row r="23">
@@ -1068,13 +1340,13 @@
         <v>210</v>
       </c>
       <c r="B23" t="n">
-        <v>499.1353040746768</v>
+        <v>346.3970186400627</v>
       </c>
       <c r="C23" t="n">
         <v>78.99959013735008</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9914048685695457</v>
+        <v>0.9898591268021903</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1082,13 +1354,25 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.1759515773681302</v>
+        <v>0.175204625338428</v>
       </c>
       <c r="G23" t="n">
-        <v>8.216116789846472e-05</v>
+        <v>9.757036641061219e-05</v>
       </c>
       <c r="H23" t="n">
         <v>69.7695273673305</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.1599461323391281</v>
+      </c>
+      <c r="K23" t="n">
+        <v>842.3351506592747</v>
+      </c>
+      <c r="L23" t="n">
+        <v>266.153457683795</v>
       </c>
     </row>
     <row r="24">
@@ -1096,13 +1380,13 @@
         <v>220</v>
       </c>
       <c r="B24" t="n">
-        <v>496.7147971830249</v>
+        <v>344.7976243101603</v>
       </c>
       <c r="C24" t="n">
         <v>78.95053550276026</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9913894930119636</v>
+        <v>0.9898351087094183</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1110,13 +1394,25 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.1759303631469957</v>
+        <v>0.1751921265613325</v>
       </c>
       <c r="G24" t="n">
-        <v>8.231425858595462e-05</v>
+        <v>9.780530931625455e-05</v>
       </c>
       <c r="H24" t="n">
         <v>69.75629506952347</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.1599394329902381</v>
+      </c>
+      <c r="K24" t="n">
+        <v>842.3952455933019</v>
+      </c>
+      <c r="L24" t="n">
+        <v>265.5141174768866</v>
       </c>
     </row>
     <row r="25">
@@ -1124,13 +1420,13 @@
         <v>230</v>
       </c>
       <c r="B25" t="n">
-        <v>494.2944513670475</v>
+        <v>343.1982967687425</v>
       </c>
       <c r="C25" t="n">
         <v>78.9013493899493</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9913739629060053</v>
+        <v>0.9898107869467014</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1138,13 +1434,25 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.1759091219766268</v>
+        <v>0.1751797066219112</v>
       </c>
       <c r="G25" t="n">
-        <v>8.246881399348111e-05</v>
+        <v>9.804320970472086e-05</v>
       </c>
       <c r="H25" t="n">
         <v>69.74302976378753</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.1599327541417758</v>
+      </c>
+      <c r="K25" t="n">
+        <v>842.4549699650387</v>
+      </c>
+      <c r="L25" t="n">
+        <v>264.8698514243851</v>
       </c>
     </row>
     <row r="26">
@@ -1152,13 +1460,13 @@
         <v>240</v>
       </c>
       <c r="B26" t="n">
-        <v>491.8742682110262</v>
+        <v>341.5990357996075</v>
       </c>
       <c r="C26" t="n">
         <v>78.852031431836</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9913582759516074</v>
+        <v>0.9897861548636662</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1166,13 +1474,25 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.1758878566683252</v>
+        <v>0.175167366639083</v>
       </c>
       <c r="G26" t="n">
-        <v>8.262485682132023e-05</v>
+        <v>9.828413287653541e-05</v>
       </c>
       <c r="H26" t="n">
         <v>69.72973137042771</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.159926096913502</v>
+      </c>
+      <c r="K26" t="n">
+        <v>842.514318233283</v>
+      </c>
+      <c r="L26" t="n">
+        <v>264.220577906315</v>
       </c>
     </row>
     <row r="27">
@@ -1180,13 +1500,13 @@
         <v>250</v>
       </c>
       <c r="B27" t="n">
-        <v>489.4542492645267</v>
+        <v>339.9998411751357</v>
       </c>
       <c r="C27" t="n">
         <v>78.80258125978128</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9913424297883242</v>
+        <v>0.9897612056308969</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1194,13 +1514,25 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.1758665700636572</v>
+        <v>0.1751551077324979</v>
       </c>
       <c r="G27" t="n">
-        <v>8.27824103633945e-05</v>
+        <v>9.852814589474155e-05</v>
       </c>
       <c r="H27" t="n">
         <v>69.71639980944833</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.1599194624471829</v>
+      </c>
+      <c r="K27" t="n">
+        <v>842.5732848512572</v>
+      </c>
+      <c r="L27" t="n">
+        <v>263.566214017686</v>
       </c>
     </row>
     <row r="28">
@@ -1208,13 +1540,13 @@
         <v>260</v>
       </c>
       <c r="B28" t="n">
-        <v>487.034396042044</v>
+        <v>338.4007126560637</v>
       </c>
       <c r="C28" t="n">
         <v>78.75299850357953</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9913264219927251</v>
+        <v>0.9897359322350531</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1222,13 +1554,25 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.1758452650340617</v>
+        <v>0.1751429310224973</v>
       </c>
       <c r="G28" t="n">
-        <v>8.294149853264018e-05</v>
+        <v>9.877531763333207e-05</v>
       </c>
       <c r="H28" t="n">
         <v>69.70303500055161</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.1599128519071943</v>
+      </c>
+      <c r="K28" t="n">
+        <v>842.6318642668459</v>
+      </c>
+      <c r="L28" t="n">
+        <v>262.9066755731294</v>
       </c>
     </row>
     <row r="29">
@@ -1236,13 +1580,13 @@
         <v>270</v>
       </c>
       <c r="B29" t="n">
-        <v>484.6147100226407</v>
+        <v>336.8016499912522</v>
       </c>
       <c r="C29" t="n">
         <v>78.70328279144945</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9913102500756562</v>
+        <v>0.9897103274738553</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1250,13 +1594,25 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.1758239444804556</v>
+        <v>0.1751308376300756</v>
       </c>
       <c r="G29" t="n">
-        <v>8.310214588769643e-05</v>
+        <v>9.902571882699452e-05</v>
       </c>
       <c r="H29" t="n">
         <v>69.68963686313586</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.1599062664811434</v>
+      </c>
+      <c r="K29" t="n">
+        <v>842.6900509228317</v>
+      </c>
+      <c r="L29" t="n">
+        <v>262.241877113041</v>
       </c>
     </row>
     <row r="30">
@@ -1264,13 +1620,13 @@
         <v>280</v>
       </c>
       <c r="B30" t="n">
-        <v>482.1951926495762</v>
+        <v>335.2026529174472</v>
       </c>
       <c r="C30" t="n">
         <v>78.6534337500251</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9912939114793587</v>
+        <v>0.9896843839509383</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1278,13 +1634,25 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.1758026113328374</v>
+        <v>0.1751188286768405</v>
       </c>
       <c r="G30" t="n">
-        <v>8.326437766097851e-05</v>
+        <v>9.927942212220736e-05</v>
       </c>
       <c r="H30" t="n">
         <v>69.67620531629403</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.159899707380508</v>
+      </c>
+      <c r="K30" t="n">
+        <v>842.747839257128</v>
+      </c>
+      <c r="L30" t="n">
+        <v>261.5717319113044</v>
       </c>
     </row>
     <row r="31">
@@ -1292,13 +1660,13 @@
         <v>290</v>
       </c>
       <c r="B31" t="n">
-        <v>479.7758453299267</v>
+        <v>333.6037211590343</v>
       </c>
       <c r="C31" t="n">
         <v>78.60345100434688</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9912774035744421</v>
+        <v>0.9896580940705636</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1306,13 +1674,25 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.1757812685498889</v>
+        <v>0.1751069052849759</v>
       </c>
       <c r="G31" t="n">
-        <v>8.342821978819881e-05</v>
+        <v>9.953650212972702e-05</v>
       </c>
       <c r="H31" t="n">
         <v>69.66274027881208</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.1598931758412935</v>
+      </c>
+      <c r="K31" t="n">
+        <v>842.8052237030138</v>
+      </c>
+      <c r="L31" t="n">
+        <v>260.8961519846656</v>
       </c>
     </row>
     <row r="32">
@@ -1320,13 +1700,13 @@
         <v>300</v>
       </c>
       <c r="B32" t="n">
-        <v>477.356669434196</v>
+        <v>332.0048544277872</v>
       </c>
       <c r="C32" t="n">
         <v>78.55333417785249</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9912607236566975</v>
+        <v>0.9896314500321927</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1334,13 +1714,25 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.1757599191185746</v>
+        <v>0.1750950685772033</v>
       </c>
       <c r="G32" t="n">
-        <v>8.359369893940296e-05</v>
+        <v>9.979703547850649e-05</v>
       </c>
       <c r="H32" t="n">
         <v>69.6492416691672</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.1598866731247092</v>
+      </c>
+      <c r="K32" t="n">
+        <v>842.8621986893637</v>
+      </c>
+      <c r="L32" t="n">
+        <v>260.2150481038305</v>
       </c>
     </row>
     <row r="33">
@@ -1348,13 +1740,13 @@
         <v>310</v>
       </c>
       <c r="B33" t="n">
-        <v>474.9376662959156</v>
+        <v>330.4060524226085</v>
       </c>
       <c r="C33" t="n">
         <v>78.50308289236739</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9912438689437538</v>
+        <v>0.9896044438249126</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1362,13 +1754,25 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.1757385660537407</v>
+        <v>0.1750833196767455</v>
       </c>
       <c r="G33" t="n">
-        <v>8.376084255158873e-05</v>
+        <v>0.0001000611008710864</v>
       </c>
       <c r="H33" t="n">
         <v>69.63570940552636</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.1598802005178631</v>
+      </c>
+      <c r="K33" t="n">
+        <v>842.918758640879</v>
+      </c>
+      <c r="L33" t="n">
+        <v>259.5283298063646</v>
       </c>
     </row>
     <row r="34">
@@ -1376,13 +1780,13 @@
         <v>320</v>
       </c>
       <c r="B34" t="n">
-        <v>472.5188372112346</v>
+        <v>328.8073148292638</v>
       </c>
       <c r="C34" t="n">
         <v>78.45269676809585</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9912268365715607</v>
+        <v>0.9895770672217126</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1390,13 +1794,25 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.1757172123977117</v>
+        <v>0.1750716597072892</v>
       </c>
       <c r="G34" t="n">
-        <v>8.392967886297932e-05</v>
+        <v>0.0001003287791405031</v>
       </c>
       <c r="H34" t="n">
         <v>69.62214340574451</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.159873759334477</v>
+      </c>
+      <c r="K34" t="n">
+        <v>842.974897978316</v>
+      </c>
+      <c r="L34" t="n">
+        <v>258.8359054114671</v>
       </c>
     </row>
     <row r="35">
@@ -1404,13 +1820,13 @@
         <v>330</v>
       </c>
       <c r="B35" t="n">
-        <v>470.100183438497</v>
+        <v>327.2086413201076</v>
       </c>
       <c r="C35" t="n">
         <v>78.40217542361148</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9912096235906964</v>
+        <v>0.9895493117736048</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1418,13 +1834,25 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.1756958612198863</v>
+        <v>0.1750600897929491</v>
       </c>
       <c r="G35" t="n">
-        <v>8.410023694902408e-05</v>
+        <v>0.0001006001533087577</v>
       </c>
       <c r="H35" t="n">
         <v>69.60854358736295</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.1598673509156218</v>
+      </c>
+      <c r="K35" t="n">
+        <v>843.0306111187126</v>
+      </c>
+      <c r="L35" t="n">
+        <v>258.1376820366987</v>
       </c>
     </row>
     <row r="36">
@@ -1432,13 +1860,13 @@
         <v>340</v>
       </c>
       <c r="B36" t="n">
-        <v>467.6817061978084</v>
+        <v>325.6100315538029</v>
       </c>
       <c r="C36" t="n">
         <v>78.35151847584791</v>
       </c>
       <c r="D36" t="n">
-        <v>0.991192226962491</v>
+        <v>0.9895211688035876</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1446,13 +1874,25 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.1756745156163324</v>
+        <v>0.1750486110582322</v>
       </c>
       <c r="G36" t="n">
-        <v>8.427254676020151e-05</v>
+        <v>0.0001008753086468931</v>
       </c>
       <c r="H36" t="n">
         <v>69.59490986760775</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.1598609766304741</v>
+      </c>
+      <c r="K36" t="n">
+        <v>843.085892475615</v>
+      </c>
+      <c r="L36" t="n">
+        <v>257.4335656167437</v>
       </c>
     </row>
     <row r="37">
@@ -1460,13 +1900,13 @@
         <v>350</v>
       </c>
       <c r="B37" t="n">
-        <v>465.2634066705878</v>
+        <v>324.0114851750319</v>
       </c>
       <c r="C37" t="n">
         <v>78.30072554008922</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9911746435549563</v>
+        <v>0.9894926294004435</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1474,13 +1914,25 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.1756531787093807</v>
+        <v>0.175037224628003</v>
       </c>
       <c r="G37" t="n">
-        <v>8.444663916170327e-05</v>
+        <v>0.0001011543327367273</v>
       </c>
       <c r="H37" t="n">
         <v>69.58124216338794</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.159854637877094</v>
+      </c>
+      <c r="K37" t="n">
+        <v>843.1407364593009</v>
+      </c>
+      <c r="L37" t="n">
+        <v>256.7234609242842</v>
       </c>
     </row>
     <row r="38">
@@ -1488,13 +1940,13 @@
         <v>360</v>
       </c>
       <c r="B38" t="n">
-        <v>462.8452859991075</v>
+        <v>322.4130018141996</v>
       </c>
       <c r="C38" t="n">
         <v>78.24979622996045</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9911568701385168</v>
+        <v>0.9894636844123712</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1502,13 +1954,25 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.1756318536472187</v>
+        <v>0.1750259316274481</v>
       </c>
       <c r="G38" t="n">
-        <v>8.462254597507916e-05</v>
+        <v>0.000101437315534292</v>
       </c>
       <c r="H38" t="n">
         <v>69.56754039129379</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.1598483360832259</v>
+      </c>
+      <c r="K38" t="n">
+        <v>843.1951374770022</v>
+      </c>
+      <c r="L38" t="n">
+        <v>256.0072715930681</v>
       </c>
     </row>
     <row r="39">
@@ -1516,13 +1980,13 @@
         <v>370</v>
       </c>
       <c r="B39" t="n">
-        <v>460.4273452860176</v>
+        <v>320.8145810871284</v>
       </c>
       <c r="C39" t="n">
         <v>78.19873015741803</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9911389033815294</v>
+        <v>0.9894343244404413</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1530,13 +1994,25 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.175610543603483</v>
+        <v>0.175014733182043</v>
       </c>
       <c r="G39" t="n">
-        <v>8.480030002192598e-05</v>
+        <v>0.0001017243494350299</v>
       </c>
       <c r="H39" t="n">
         <v>69.55380446759524</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.1598420727071223</v>
+      </c>
+      <c r="K39" t="n">
+        <v>843.2490899331254</v>
+      </c>
+      <c r="L39" t="n">
+        <v>255.2849001432556</v>
       </c>
     </row>
     <row r="40">
@@ -1544,13 +2020,13 @@
         <v>380</v>
       </c>
       <c r="B40" t="n">
-        <v>458.0095855938552</v>
+        <v>319.2162225947445</v>
       </c>
       <c r="C40" t="n">
         <v>78.14752693273994</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9911207398455869</v>
+        <v>0.9894045398318754</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1558,13 +2034,25 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.1755892517768519</v>
+        <v>0.1750036304175178</v>
       </c>
       <c r="G40" t="n">
-        <v>8.497993516970573e-05</v>
+        <v>0.0001020155293408021</v>
       </c>
       <c r="H40" t="n">
         <v>69.54003430824008</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.1598358492383913</v>
+      </c>
+      <c r="K40" t="n">
+        <v>843.3025882294708</v>
+      </c>
+      <c r="L40" t="n">
+        <v>254.5562480091237</v>
       </c>
     </row>
     <row r="41">
@@ -1572,13 +2060,13 @@
         <v>390</v>
       </c>
       <c r="B41" t="n">
-        <v>455.5920079445378</v>
+        <v>317.6179259227558</v>
       </c>
       <c r="C41" t="n">
         <v>78.09618616451627</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9911023759805939</v>
+        <v>0.9893743206731411</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1586,13 +2074,25 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.1755679813906383</v>
+        <v>0.1749926244598249</v>
       </c>
       <c r="G41" t="n">
-        <v>8.516148637978137e-05</v>
+        <v>0.0001023109527287637</v>
       </c>
       <c r="H41" t="n">
         <v>69.52622982885218</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.1598296671988683</v>
+      </c>
+      <c r="K41" t="n">
+        <v>843.3556267654493</v>
+      </c>
+      <c r="L41" t="n">
+        <v>253.8212155692146</v>
       </c>
     </row>
     <row r="42">
@@ -1600,13 +2100,13 @@
         <v>400</v>
       </c>
       <c r="B42" t="n">
-        <v>453.1746133188396</v>
+        <v>316.0196906413207</v>
       </c>
       <c r="C42" t="n">
         <v>78.04470745963897</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9910838081196077</v>
+        <v>0.9893436567828564</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1614,13 +2114,25 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.1755467356923813</v>
+        <v>0.174981716435106</v>
       </c>
       <c r="G42" t="n">
-        <v>8.534498975776156e-05</v>
+        <v>0.0001026107197221631</v>
       </c>
       <c r="H42" t="n">
         <v>69.5123909447298</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.1598235281435146</v>
+      </c>
+      <c r="K42" t="n">
+        <v>843.4081999382985</v>
+      </c>
+      <c r="L42" t="n">
+        <v>253.0797021790132</v>
       </c>
     </row>
     <row r="43">
@@ -1628,13 +2140,13 @@
         <v>410</v>
       </c>
       <c r="B43" t="n">
-        <v>450.7574026558501</v>
+        <v>314.4215163047072</v>
       </c>
       <c r="C43" t="n">
         <v>77.99309042329224</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9910650324734326</v>
+        <v>0.9893125377045011</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1642,13 +2154,25 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.1755255179534394</v>
+        <v>0.1749709074696607</v>
       </c>
       <c r="G43" t="n">
-        <v>8.553048260624672e-05</v>
+        <v>0.0001029149331631266</v>
       </c>
       <c r="H43" t="n">
         <v>69.49851757084386</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.1598174336613405</v>
+      </c>
+      <c r="K43" t="n">
+        <v>843.4603021432951</v>
+      </c>
+      <c r="L43" t="n">
+        <v>252.3316062062368</v>
       </c>
     </row>
     <row r="44">
@@ -1656,13 +2180,13 @@
         <v>420</v>
       </c>
       <c r="B44" t="n">
-        <v>448.3403768524127</v>
+        <v>312.8234024509437</v>
       </c>
       <c r="C44" t="n">
         <v>77.94133465894282</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9910460451249593</v>
+        <v>0.9892809526989247</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1670,13 +2194,25 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.1755043314685831</v>
+        <v>0.1749601986899151</v>
       </c>
       <c r="G44" t="n">
-        <v>8.571800348007533e-05</v>
+        <v>0.0001032236986874891</v>
       </c>
       <c r="H44" t="n">
         <v>69.48460962183611</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.1598113853763566</v>
+      </c>
+      <c r="K44" t="n">
+        <v>843.5119277739668</v>
+      </c>
+      <c r="L44" t="n">
+        <v>251.576825068822</v>
       </c>
     </row>
     <row r="45">
@@ -1684,13 +2220,13 @@
         <v>430</v>
       </c>
       <c r="B45" t="n">
-        <v>445.9235367625451</v>
+        <v>311.2253486014581</v>
       </c>
       <c r="C45" t="n">
         <v>77.88943976832934</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9910268420232392</v>
+        <v>0.9892488907366488</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1698,13 +2234,25 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.1754831795555883</v>
+        <v>0.1749495912223911</v>
       </c>
       <c r="G45" t="n">
-        <v>8.590759224416861e-05</v>
+        <v>0.000103537124801737</v>
       </c>
       <c r="H45" t="n">
         <v>69.47066701201732</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.1598053849485531</v>
+      </c>
+      <c r="K45" t="n">
+        <v>843.5630712223024</v>
+      </c>
+      <c r="L45" t="n">
+        <v>250.8152552756958</v>
       </c>
     </row>
     <row r="46">
@@ -1712,13 +2260,13 @@
         <v>440</v>
       </c>
       <c r="B46" t="n">
-        <v>443.5068831968374</v>
+        <v>309.627354260709</v>
       </c>
       <c r="C46" t="n">
         <v>77.83740535145245</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9910074189772824</v>
+        <v>0.9892163404899549</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1726,13 +2274,25 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.1754620655548302</v>
+        <v>0.1749390861936764</v>
       </c>
       <c r="G46" t="n">
-        <v>8.609929013407715e-05</v>
+        <v>0.0001038553229621286</v>
       </c>
       <c r="H46" t="n">
         <v>69.45668965536555</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.1597994340749075</v>
+      </c>
+      <c r="K46" t="n">
+        <v>843.6137268789577</v>
+      </c>
+      <c r="L46" t="n">
+        <v>250.0467924704145</v>
       </c>
     </row>
     <row r="47">
@@ -1740,13 +2300,13 @@
         <v>450</v>
       </c>
       <c r="B47" t="n">
-        <v>441.0904169218285</v>
+        <v>308.0294189158048</v>
       </c>
       <c r="C47" t="n">
         <v>77.78523100656497</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9909877716495692</v>
+        <v>0.9891832903247525</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1754,13 +2314,25 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.1754409928288781</v>
+        <v>0.1749286847303951</v>
       </c>
       <c r="G47" t="n">
-        <v>8.629313981933563e-05</v>
+        <v>0.0001041784076560627</v>
       </c>
       <c r="H47" t="n">
         <v>69.44267746552434</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.1597935344904229</v>
+      </c>
+      <c r="K47" t="n">
+        <v>843.6638891334629</v>
+      </c>
+      <c r="L47" t="n">
+        <v>249.2713314777565</v>
       </c>
     </row>
     <row r="48">
@@ -1768,13 +2340,13 @@
         <v>460</v>
       </c>
       <c r="B48" t="n">
-        <v>438.6741386593601</v>
+        <v>306.4315420361128</v>
       </c>
       <c r="C48" t="n">
         <v>77.73291633016117</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9909678955492632</v>
+        <v>0.9891497282922194</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1782,13 +2354,25 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.1754199647620913</v>
+        <v>0.174918387959179</v>
       </c>
       <c r="G48" t="n">
-        <v>8.648918546973585e-05</v>
+        <v>0.000104506496485768</v>
       </c>
       <c r="H48" t="n">
         <v>69.42863035580079</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.1597876879691967</v>
+      </c>
+      <c r="K48" t="n">
+        <v>843.7135523744236</v>
+      </c>
+      <c r="L48" t="n">
+        <v>248.4887663533505</v>
       </c>
     </row>
     <row r="49">
@@ -1796,13 +2380,13 @@
         <v>470</v>
       </c>
       <c r="B49" t="n">
-        <v>436.2580490859049</v>
+        <v>304.8337230728577</v>
       </c>
       <c r="C49" t="n">
         <v>77.68046091696675</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9909477860251172</v>
+        <v>0.9891156421202082</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1810,13 +2394,25 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.1753989847602159</v>
+        <v>0.1749081970066393</v>
       </c>
       <c r="G49" t="n">
-        <v>8.668747282463077e-05</v>
+        <v>0.000104839710254388</v>
       </c>
       <c r="H49" t="n">
         <v>69.41454823916386</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.1597818963255218</v>
+      </c>
+      <c r="K49" t="n">
+        <v>843.7627109897231</v>
+      </c>
+      <c r="L49" t="n">
+        <v>247.6989904364251</v>
       </c>
     </row>
     <row r="50">
@@ -1824,13 +2420,13 @@
         <v>480</v>
       </c>
       <c r="B50" t="n">
-        <v>433.8421488318708</v>
+        <v>303.2359614587075</v>
       </c>
       <c r="C50" t="n">
         <v>77.6278643599282</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9909274382580547</v>
+        <v>0.9890810192044103</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1838,13 +2434,25 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.1753780562499823</v>
+        <v>0.1748981129993391</v>
       </c>
       <c r="G50" t="n">
-        <v>8.688804926538687e-05</v>
+        <v>0.0001051781730545394</v>
       </c>
       <c r="H50" t="n">
         <v>69.40043102824247</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.1597761614150205</v>
+      </c>
+      <c r="K50" t="n">
+        <v>843.8113593667201</v>
+      </c>
+      <c r="L50" t="n">
+        <v>246.9018964057624</v>
       </c>
     </row>
     <row r="51">
@@ -1852,13 +2460,13 @@
         <v>490</v>
       </c>
       <c r="B51" t="n">
-        <v>431.4264384808769</v>
+        <v>301.6382566073493</v>
       </c>
       <c r="C51" t="n">
         <v>77.57512625020246</v>
       </c>
       <c r="D51" t="n">
-        <v>0.990906847253422</v>
+        <v>0.989045846599272</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1866,13 +2474,25 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.1753571826787054</v>
+        <v>0.1748881370637666</v>
       </c>
       <c r="G51" t="n">
-        <v>8.709096389110534e-05</v>
+        <v>0.0001055220123594259</v>
       </c>
       <c r="H51" t="n">
         <v>69.38627863532354</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.1597704851358131</v>
+      </c>
+      <c r="K51" t="n">
+        <v>843.8594918924462</v>
+      </c>
+      <c r="L51" t="n">
+        <v>246.0973763389335</v>
       </c>
     </row>
     <row r="52">
@@ -1880,13 +2500,13 @@
         <v>500</v>
       </c>
       <c r="B52" t="n">
-        <v>429.0109185690028</v>
+        <v>300.0406079130521</v>
       </c>
       <c r="C52" t="n">
         <v>77.52224617714614</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9908860078328904</v>
+        <v>0.9890101110086502</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1894,13 +2514,25 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.1753363675138851</v>
+        <v>0.174878270326309</v>
       </c>
       <c r="G52" t="n">
-        <v>8.729626759773794e-05</v>
+        <v>0.0001058713591165926</v>
       </c>
       <c r="H52" t="n">
         <v>69.37209097235024</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.1597648694297214</v>
+      </c>
+      <c r="K52" t="n">
+        <v>843.9071029537976</v>
+      </c>
+      <c r="L52" t="n">
+        <v>245.2853217748984</v>
       </c>
     </row>
     <row r="53">
@@ -1908,13 +2540,13 @@
         <v>510</v>
       </c>
       <c r="B53" t="n">
-        <v>426.5955895840071</v>
+        <v>298.4430147502171</v>
       </c>
       <c r="C53" t="n">
         <v>77.46922372830551</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9908649146260027</v>
+        <v>0.9889737987762058</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1922,13 +2554,25 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.175315614242809</v>
+        <v>0.1748685139132272</v>
       </c>
       <c r="G53" t="n">
-        <v>8.750401316072528e-05</v>
+        <v>0.0001062263478444072</v>
       </c>
       <c r="H53" t="n">
         <v>69.35786795092017</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.1597593162835095</v>
+      </c>
+      <c r="K53" t="n">
+        <v>843.9541869377285</v>
+      </c>
+      <c r="L53" t="n">
+        <v>244.4656237800468</v>
       </c>
     </row>
     <row r="54">
@@ -1936,13 +2580,13 @@
         <v>520</v>
       </c>
       <c r="B54" t="n">
-        <v>424.1804519645157</v>
+        <v>296.8454764729154</v>
       </c>
       <c r="C54" t="n">
         <v>77.41605848940469</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9908435620613465</v>
+        <v>0.9889368958755188</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1950,13 +2594,25 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.1752949263721569</v>
+        <v>0.1748588689506306</v>
       </c>
       <c r="G54" t="n">
-        <v>8.771425532129265e-05</v>
+        <v>0.0001065871167313625</v>
       </c>
       <c r="H54" t="n">
         <v>69.34360948228318</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.1597538277301622</v>
+      </c>
+      <c r="K54" t="n">
+        <v>844.000738231438</v>
+      </c>
+      <c r="L54" t="n">
+        <v>243.638173017754</v>
       </c>
     </row>
     <row r="55">
@@ -1964,13 +2620,13 @@
         <v>530</v>
       </c>
       <c r="B55" t="n">
-        <v>421.7655060991778</v>
+        <v>295.2479924144134</v>
       </c>
       <c r="C55" t="n">
         <v>77.36275004433594</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9908219443573388</v>
+        <v>0.9888993878999228</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1978,13 +2634,25 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.1752743074276073</v>
+        <v>0.1748493365644535</v>
       </c>
       <c r="G55" t="n">
-        <v>8.792705087654011e-05</v>
+        <v>0.0001069538077382931</v>
       </c>
       <c r="H55" t="n">
         <v>69.32931547733975</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.1597484058502028</v>
+      </c>
+      <c r="K55" t="n">
+        <v>844.0467512225579</v>
+      </c>
+      <c r="L55" t="n">
+        <v>242.8028598215261</v>
       </c>
     </row>
     <row r="56">
@@ -1992,13 +2660,13 @@
         <v>540</v>
       </c>
       <c r="B56" t="n">
-        <v>419.3507523257872</v>
+        <v>293.6505618866829</v>
       </c>
       <c r="C56" t="n">
         <v>77.3092979751479</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9908000555126139</v>
+        <v>0.9888612600520449</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2006,13 +2674,25 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.1752537609534456</v>
+        <v>0.1748399178804313</v>
       </c>
       <c r="G56" t="n">
-        <v>8.814245877347122e-05</v>
+        <v>0.0001073265667036077</v>
       </c>
       <c r="H56" t="n">
         <v>69.3149858466389</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.1597430527730518</v>
+      </c>
+      <c r="K56" t="n">
+        <v>844.0922202993343</v>
+      </c>
+      <c r="L56" t="n">
+        <v>241.9595742718035</v>
       </c>
     </row>
     <row r="57">
@@ -2020,13 +2700,13 @@
         <v>550</v>
       </c>
       <c r="B57" t="n">
-        <v>416.9361909303693</v>
+        <v>292.0531841798986</v>
       </c>
       <c r="C57" t="n">
         <v>77.25570186203538</v>
       </c>
       <c r="D57" t="n">
-        <v>0.9907778892959919</v>
+        <v>0.9888224971330426</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2034,13 +2714,25 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0.1752332905121754</v>
+        <v>0.1748306140240788</v>
       </c>
       <c r="G57" t="n">
-        <v>8.836054020710755e-05</v>
+        <v>0.0001077055434516399</v>
       </c>
       <c r="H57" t="n">
         <v>69.30062050037631</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.1597377706784279</v>
+      </c>
+      <c r="K57" t="n">
+        <v>844.1371398508089</v>
+      </c>
+      <c r="L57" t="n">
+        <v>241.1082062764881</v>
       </c>
     </row>
     <row r="58">
@@ -2048,13 +2740,13 @@
         <v>560</v>
       </c>
       <c r="B58" t="n">
-        <v>414.5218221462296</v>
+        <v>290.4558585619206</v>
       </c>
       <c r="C58" t="n">
         <v>77.20196128332771</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9907554392360181</v>
+        <v>0.9887830835315298</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2062,13 +2754,25 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0.1752128996841311</v>
+        <v>0.1748214261206673</v>
       </c>
       <c r="G58" t="n">
-        <v>8.858135872284323e-05</v>
+        <v>0.0001080908919042257</v>
       </c>
       <c r="H58" t="n">
         <v>69.28621934839235</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.1597325617977926</v>
+      </c>
+      <c r="K58" t="n">
+        <v>844.1815042669966</v>
+      </c>
+      <c r="L58" t="n">
+        <v>240.2486456552592</v>
       </c>
     </row>
     <row r="59">
@@ -2076,13 +2780,13 @@
         <v>570</v>
       </c>
       <c r="B59" t="n">
-        <v>412.1076461529651</v>
+        <v>288.8585842777623</v>
       </c>
       <c r="C59" t="n">
         <v>77.14807581547785</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9907326986100553</v>
+        <v>0.9887430032121756</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2090,13 +2794,25 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.1751925920670937</v>
+        <v>0.1748123552952047</v>
       </c>
       <c r="G59" t="n">
-        <v>8.880498032319811e-05</v>
+        <v>0.0001084827701956211</v>
       </c>
       <c r="H59" t="n">
         <v>69.27178230017006</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.1597274284158403</v>
+      </c>
+      <c r="K59" t="n">
+        <v>844.2253079390603</v>
+      </c>
+      <c r="L59" t="n">
+        <v>239.3807822277335</v>
       </c>
     </row>
     <row r="60">
@@ -2104,13 +2820,13 @@
         <v>580</v>
       </c>
       <c r="B60" t="n">
-        <v>409.6936630754328</v>
+        <v>287.2613605490419</v>
       </c>
       <c r="C60" t="n">
         <v>77.09404503305132</v>
       </c>
       <c r="D60" t="n">
-        <v>0.990709660432911</v>
+        <v>0.9887022397039719</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2118,13 +2834,25 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.1751723712759095</v>
+        <v>0.1748034026724143</v>
       </c>
       <c r="G60" t="n">
-        <v>8.903147357913429e-05</v>
+        <v>0.0001088813407908762</v>
       </c>
       <c r="H60" t="n">
         <v>69.2573092648333</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.1597223728720354</v>
+      </c>
+      <c r="K60" t="n">
+        <v>844.2685452594814</v>
+      </c>
+      <c r="L60" t="n">
+        <v>238.504505905527</v>
       </c>
     </row>
     <row r="61">
@@ -2132,13 +2860,13 @@
         <v>590</v>
       </c>
       <c r="B61" t="n">
-        <v>407.2798729826778</v>
+        <v>285.66418657342</v>
       </c>
       <c r="C61" t="n">
         <v>77.03986850871468</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9906863174449854</v>
+        <v>0.9886607760881532</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2146,13 +2874,25 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.1751522409421105</v>
+        <v>0.1747945693767161</v>
       </c>
       <c r="G61" t="n">
-        <v>8.926090974610849e-05</v>
+        <v>0.00010928677060779</v>
       </c>
       <c r="H61" t="n">
         <v>69.24280015114459</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.1597173975621985</v>
+      </c>
+      <c r="K61" t="n">
+        <v>844.3112106222299</v>
+      </c>
+      <c r="L61" t="n">
+        <v>237.6197067882632</v>
       </c>
     </row>
     <row r="62">
@@ -2160,13 +2900,13 @@
         <v>600</v>
       </c>
       <c r="B62" t="n">
-        <v>404.8662758868159</v>
+        <v>284.0670615240185</v>
       </c>
       <c r="C62" t="n">
         <v>76.98554581322418</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9906626620999194</v>
+        <v>0.9886185949857575</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2174,13 +2914,25 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0.1751322047135394</v>
+        <v>0.174785856532208</v>
       </c>
       <c r="G62" t="n">
-        <v>8.949336288503599e-05</v>
+        <v>0.0001096992311425726</v>
       </c>
       <c r="H62" t="n">
         <v>69.22825486750327</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.1597125049401427</v>
+      </c>
+      <c r="K62" t="n">
+        <v>844.3532984229279</v>
+      </c>
+      <c r="L62" t="n">
+        <v>236.7262752635755</v>
       </c>
     </row>
     <row r="63">
@@ -2188,13 +2940,13 @@
         <v>610</v>
       </c>
       <c r="B63" t="n">
-        <v>402.45287174187</v>
+        <v>282.4699845488249</v>
       </c>
       <c r="C63" t="n">
         <v>76.93107651541425</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9906386865517267</v>
+        <v>0.9885756785448178</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2202,13 +2954,25 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0.1751122662539756</v>
+        <v>0.1747772652626481</v>
       </c>
       <c r="G63" t="n">
-        <v>8.972890998835253e-05</v>
+        <v>0.0001101188985993501</v>
       </c>
       <c r="H63" t="n">
         <v>69.21367332194323</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.1597076975193635</v>
+      </c>
+      <c r="K63" t="n">
+        <v>844.3948030590122</v>
+      </c>
+      <c r="L63" t="n">
+        <v>235.8241021111385</v>
       </c>
     </row>
     <row r="64">
@@ -2216,13 +2980,13 @@
         <v>620</v>
       </c>
       <c r="B64" t="n">
-        <v>400.0396604425584</v>
+        <v>280.8729547700771</v>
       </c>
       <c r="C64" t="n">
         <v>76.87646018218595</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9906143826413877</v>
+        <v>0.9885320084271694</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2230,13 +2994,25 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.1750924292427665</v>
+        <v>0.1747687966914377</v>
       </c>
       <c r="G64" t="n">
-        <v>8.996763111136392e-05</v>
+        <v>0.0001105459540236498</v>
       </c>
       <c r="H64" t="n">
         <v>69.19905542213117</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.159702977874782</v>
+      </c>
+      <c r="K64" t="n">
+        <v>844.4357189298935</v>
+      </c>
+      <c r="L64" t="n">
+        <v>234.9130786107613</v>
       </c>
     </row>
     <row r="65">
@@ -2244,13 +3020,13 @@
         <v>630</v>
       </c>
       <c r="B65" t="n">
-        <v>397.6266418230323</v>
+        <v>279.2759712836316</v>
       </c>
       <c r="C65" t="n">
         <v>76.82169637849557</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9905897418828893</v>
+        <v>0.9884875657948584</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2258,13 +3034,25 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.1750726973744606</v>
+        <v>0.1747604519416055</v>
       </c>
       <c r="G65" t="n">
-        <v>9.020960950908503e-05</v>
+        <v>0.0001109805834400146</v>
       </c>
       <c r="H65" t="n">
         <v>69.18440107536428</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.1596983486445462</v>
+      </c>
+      <c r="K65" t="n">
+        <v>844.4760404371084</v>
+      </c>
+      <c r="L65" t="n">
+        <v>233.9930966545641</v>
       </c>
     </row>
     <row r="66">
@@ -2272,13 +3060,13 @@
         <v>640</v>
       </c>
       <c r="B66" t="n">
-        <v>395.2138156555602</v>
+        <v>277.6790331583127</v>
       </c>
       <c r="C66" t="n">
         <v>76.7667846673429</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9905647554486854</v>
+        <v>0.988442331296141</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2286,13 +3074,25 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0.175053074358445</v>
+        <v>0.1747522321357926</v>
       </c>
       <c r="G66" t="n">
-        <v>9.045493177877279e-05</v>
+        <v>0.000111422977993896</v>
       </c>
       <c r="H66" t="n">
         <v>69.16971018856846</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.1596938125318899</v>
+      </c>
+      <c r="K66" t="n">
+        <v>844.5157619844737</v>
+      </c>
+      <c r="L66" t="n">
+        <v>233.0640488632594</v>
       </c>
     </row>
     <row r="67">
@@ -2300,13 +3100,13 @@
         <v>650</v>
       </c>
       <c r="B67" t="n">
-        <v>392.8011816491575</v>
+        <v>276.0821394352421</v>
       </c>
       <c r="C67" t="n">
         <v>76.7117246097589</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9905394141545611</v>
+        <v>0.988396285051053</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2314,13 +3114,25 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0.1750335639185858</v>
+        <v>0.1747441383962385</v>
       </c>
       <c r="G67" t="n">
-        <v>9.070368800837133e-05</v>
+        <v>0.0001118733340979878</v>
       </c>
       <c r="H67" t="n">
         <v>69.15498266829587</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.159689372307054</v>
+      </c>
+      <c r="K67" t="n">
+        <v>844.5548779782324</v>
+      </c>
+      <c r="L67" t="n">
+        <v>232.1258287065418</v>
       </c>
     </row>
     <row r="68">
@@ -2328,13 +3140,13 @@
         <v>660</v>
       </c>
       <c r="B68" t="n">
-        <v>390.3887394481594</v>
+        <v>274.4852891271494</v>
       </c>
       <c r="C68" t="n">
         <v>76.65651576479416</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9905137084438739</v>
+        <v>0.9883494066365396</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2342,13 +3154,25 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0.1750141697928732</v>
+        <v>0.1747361718447673</v>
       </c>
       <c r="G68" t="n">
-        <v>9.095597193109092e-05</v>
+        <v>0.0001123318535831651</v>
       </c>
       <c r="H68" t="n">
         <v>69.14021842072317</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.1596850308092709</v>
+      </c>
+      <c r="K68" t="n">
+        <v>844.5933828271975</v>
+      </c>
+      <c r="L68" t="n">
+        <v>231.1783306275925</v>
       </c>
     </row>
     <row r="69">
@@ -2356,13 +3180,13 @@
         <v>670</v>
       </c>
       <c r="B69" t="n">
-        <v>387.9764886307317</v>
+        <v>272.8884812176613</v>
       </c>
       <c r="C69" t="n">
         <v>76.60115768950698</v>
       </c>
       <c r="D69" t="n">
-        <v>0.990487628371151</v>
+        <v>0.9883016750711255</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2370,13 +3194,25 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0.1749948957330693</v>
+        <v>0.1747283336027766</v>
       </c>
       <c r="G69" t="n">
-        <v>9.121188108635811e-05</v>
+        <v>0.0001127987438542055</v>
       </c>
       <c r="H69" t="n">
         <v>69.12541735164915</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.1596807909488145</v>
+      </c>
+      <c r="K69" t="n">
+        <v>844.6312709428904</v>
+      </c>
+      <c r="L69" t="n">
+        <v>230.2214501716816</v>
       </c>
     </row>
     <row r="70">
@@ -2384,13 +3220,13 @@
         <v>680</v>
       </c>
       <c r="B70" t="n">
-        <v>385.5644287073215</v>
+        <v>271.2917146605701</v>
       </c>
       <c r="C70" t="n">
         <v>76.54564993895121</v>
       </c>
       <c r="D70" t="n">
-        <v>0.99046116358502</v>
+        <v>0.9882530687991101</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2398,13 +3234,25 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0.1749757455043612</v>
+        <v>0.1747206247912252</v>
       </c>
       <c r="G70" t="n">
-        <v>9.147151698737689e-05</v>
+        <v>0.0001132742180504729</v>
       </c>
       <c r="H70" t="n">
         <v>69.11057936649284</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.1596766557091203</v>
+      </c>
+      <c r="K70" t="n">
+        <v>844.6685367396782</v>
+      </c>
+      <c r="L70" t="n">
+        <v>229.2550841188599</v>
       </c>
     </row>
     <row r="71">
@@ -2412,13 +3260,13 @@
         <v>690</v>
       </c>
       <c r="B71" t="n">
-        <v>383.1525591190409</v>
+        <v>269.6949883790803</v>
       </c>
       <c r="C71" t="n">
         <v>76.48999206616378</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9904343033104426</v>
+        <v>0.9882035656742681</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2426,13 +3274,25 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0.1749567228850171</v>
+        <v>0.1747130465306238</v>
       </c>
       <c r="G71" t="n">
-        <v>9.173498529555801e-05</v>
+        <v>0.0001137584952117568</v>
       </c>
       <c r="H71" t="n">
         <v>69.09570437029114</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.1596726281489765</v>
+      </c>
+      <c r="K71" t="n">
+        <v>844.7051746349033</v>
+      </c>
+      <c r="L71" t="n">
+        <v>228.2791306207029</v>
       </c>
     </row>
     <row r="72">
@@ -2440,13 +3300,13 @@
         <v>700</v>
       </c>
       <c r="B72" t="n">
-        <v>380.7408792359831</v>
+        <v>268.0983012650324</v>
       </c>
       <c r="C72" t="n">
         <v>76.43418362215289</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9904070363302303</v>
+        <v>0.9881531429430408</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2454,13 +3314,25 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0.1749378316660481</v>
+        <v>0.1747055999410253</v>
       </c>
       <c r="G72" t="n">
-        <v>9.200239600207928e-05</v>
+        <v>0.0001142518004494662</v>
       </c>
       <c r="H72" t="n">
         <v>69.08079226769679</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.1596687114047888</v>
+      </c>
+      <c r="K72" t="n">
+        <v>844.7411790490111</v>
+      </c>
+      <c r="L72" t="n">
+        <v>227.2934893410739</v>
       </c>
     </row>
     <row r="73">
@@ -2468,13 +3340,13 @@
         <v>710</v>
       </c>
       <c r="B73" t="n">
-        <v>378.3293883554682</v>
+        <v>266.5016521781032</v>
       </c>
       <c r="C73" t="n">
         <v>76.37822415588528</v>
       </c>
       <c r="D73" t="n">
-        <v>0.990379350965812</v>
+        <v>0.9881017772271929</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2482,13 +3354,25 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0.1749190756508727</v>
+        <v>0.1746982861420171</v>
       </c>
       <c r="G73" t="n">
-        <v>9.227386361685437e-05</v>
+        <v>0.0001147543651233885</v>
       </c>
       <c r="H73" t="n">
         <v>69.06584296297615</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.1596649086929246</v>
+      </c>
+      <c r="K73" t="n">
+        <v>844.776544405672</v>
+      </c>
+      <c r="L73" t="n">
+        <v>226.298061600852</v>
       </c>
     </row>
     <row r="74">
@@ -2496,13 +3380,13 @@
         <v>720</v>
       </c>
       <c r="B74" t="n">
-        <v>375.9180857002139</v>
+        <v>264.9050399449819</v>
       </c>
       <c r="C74" t="n">
         <v>76.32211321427388</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9903512350572243</v>
+        <v>0.9880494445059207</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2510,13 +3394,25 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0.1749004586549877</v>
+        <v>0.1746911062527144</v>
       </c>
       <c r="G74" t="n">
-        <v>9.254950736519848e-05</v>
+        <v>0.0001152664270242338</v>
       </c>
       <c r="H74" t="n">
         <v>69.05085636000706</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.1596612233121366</v>
+      </c>
+      <c r="K74" t="n">
+        <v>844.8112651318986</v>
+      </c>
+      <c r="L74" t="n">
+        <v>225.2927505265654</v>
       </c>
     </row>
     <row r="75">
@@ -2524,13 +3420,13 @@
         <v>730</v>
       </c>
       <c r="B75" t="n">
-        <v>373.5069704164299</v>
+        <v>263.3084633585212</v>
       </c>
       <c r="C75" t="n">
         <v>76.26585034216521</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9903226759422969</v>
+        <v>0.9879961200973845</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2538,13 +3434,25 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0.1748819845056427</v>
+        <v>0.1746840613917535</v>
       </c>
       <c r="G75" t="n">
-        <v>9.282945139249204e-05</v>
+        <v>0.000115788230562193</v>
       </c>
       <c r="H75" t="n">
         <v>69.03583236227648</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.1596576586460709</v>
+      </c>
+      <c r="K75" t="n">
+        <v>844.8453356581593</v>
+      </c>
+      <c r="L75" t="n">
+        <v>224.2774612028531</v>
       </c>
     </row>
     <row r="76">
@@ -2552,13 +3460,13 @@
         <v>740</v>
       </c>
       <c r="B76" t="n">
-        <v>371.096041571832</v>
+        <v>261.7119211768625</v>
       </c>
       <c r="C76" t="n">
         <v>76.20943508232699</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9902936604349998</v>
+        <v>0.9879417786396477</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2566,13 +3474,25 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0.1748636570415203</v>
+        <v>0.1746771526772886</v>
       </c>
       <c r="G76" t="n">
-        <v>9.311382497715777e-05</v>
+        <v>0.0001163200269617545</v>
       </c>
       <c r="H76" t="n">
         <v>69.02077087287856</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.1596542181658632</v>
+      </c>
+      <c r="K76" t="n">
+        <v>844.8787504184852</v>
+      </c>
+      <c r="L76" t="n">
+        <v>223.2521008286702</v>
       </c>
     </row>
     <row r="77">
@@ -2580,13 +3500,13 @@
         <v>750</v>
       </c>
       <c r="B77" t="n">
-        <v>368.6852981535713</v>
+        <v>260.1154121225343</v>
       </c>
       <c r="C77" t="n">
         <v>76.15286697543496</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9902641748029204</v>
+        <v>0.9878863940709955</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2594,13 +3514,25 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.1748454801124204</v>
+        <v>0.1746703812269869</v>
       </c>
       <c r="G77" t="n">
-        <v>9.340276275228046e-05</v>
+        <v>0.0001168620744630307</v>
       </c>
       <c r="H77" t="n">
         <v>69.00567179451207</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.1596509054328265</v>
+      </c>
+      <c r="K77" t="n">
+        <v>844.9115038505739</v>
+      </c>
+      <c r="L77" t="n">
+        <v>222.2165788771313</v>
       </c>
     </row>
     <row r="78">
@@ -2608,13 +3540,13 @@
         <v>760</v>
       </c>
       <c r="B78" t="n">
-        <v>366.2747390660776</v>
+        <v>258.5189348815219</v>
       </c>
       <c r="C78" t="n">
         <v>76.09614556006022</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9902342047438374</v>
+        <v>0.9878299396096121</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2622,13 +3554,25 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0.1748274575789509</v>
+        <v>0.1746637481580275</v>
       </c>
       <c r="G78" t="n">
-        <v>9.369640493621324e-05</v>
+        <v>0.0001174146385298613</v>
       </c>
       <c r="H78" t="n">
         <v>68.99053502947835</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.1596477241012332</v>
+      </c>
+      <c r="K78" t="n">
+        <v>844.9435903958856</v>
+      </c>
+      <c r="L78" t="n">
+        <v>221.170807258882</v>
       </c>
     </row>
     <row r="79">
@@ -2636,13 +3580,13 @@
         <v>770</v>
       </c>
       <c r="B79" t="n">
-        <v>363.8643631288108</v>
+        <v>256.92248810231</v>
       </c>
       <c r="C79" t="n">
         <v>76.03927037265623</v>
       </c>
       <c r="D79" t="n">
-        <v>0.9902037353613541</v>
+        <v>0.9877723877325864</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2650,13 +3594,25 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0.174809593312223</v>
+        <v>0.1746572545871</v>
       </c>
       <c r="G79" t="n">
-        <v>9.399489757253176e-05</v>
+        <v>0.0001179779920649726</v>
       </c>
       <c r="H79" t="n">
         <v>68.97536047967891</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.1596446779211986</v>
+      </c>
+      <c r="K79" t="n">
+        <v>844.975004499737</v>
+      </c>
+      <c r="L79" t="n">
+        <v>220.1147004888659</v>
       </c>
     </row>
     <row r="80">
@@ -2664,13 +3620,13 @@
         <v>780</v>
       </c>
       <c r="B80" t="n">
-        <v>361.4541690739178</v>
+        <v>255.3260703948933</v>
       </c>
       <c r="C80" t="n">
         <v>75.98224094754602</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9901727511395549</v>
+        <v>0.9877137101542229</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2678,13 +3634,25 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.1747918911935524</v>
+        <v>0.1746509016304048</v>
       </c>
       <c r="G80" t="n">
-        <v>9.429839277971248e-05</v>
+        <v>0.0001185524156324871</v>
       </c>
       <c r="H80" t="n">
         <v>68.9601480466133</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.1596417707416662</v>
+      </c>
+      <c r="K80" t="n">
+        <v>845.0057406113858</v>
+      </c>
+      <c r="L80" t="n">
+        <v>219.0481758563424</v>
       </c>
     </row>
     <row r="81">
@@ -2692,13 +3660,13 @@
         <v>790</v>
       </c>
       <c r="B81" t="n">
-        <v>359.0441555437905</v>
+        <v>253.7296803297582</v>
       </c>
       <c r="C81" t="n">
         <v>75.92505681690875</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9901412359166467</v>
+        <v>0.9876538778036282</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2706,13 +3674,25 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.174774355114166</v>
+        <v>0.1746446904036552</v>
       </c>
       <c r="G81" t="n">
-        <v>9.460704901093109e-05</v>
+        <v>0.0001191381976880906</v>
       </c>
       <c r="H81" t="n">
         <v>68.94489763137673</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.1596390065135031</v>
+      </c>
+      <c r="K81" t="n">
+        <v>845.0357931841125</v>
+      </c>
+      <c r="L81" t="n">
+        <v>217.9711535979964</v>
       </c>
     </row>
     <row r="82">
@@ -2720,13 +3700,13 @@
         <v>800</v>
       </c>
       <c r="B82" t="n">
-        <v>356.6343210885209</v>
+        <v>252.1333164368311</v>
       </c>
       <c r="C82" t="n">
         <v>75.8677175107664</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9901091728575436</v>
+        <v>0.987592860801543</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2734,13 +3714,25 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.1747569889749151</v>
+        <v>0.1746386220220801</v>
       </c>
       <c r="G82" t="n">
-        <v>9.492103132439481e-05</v>
+        <v>0.0001197356348171807</v>
       </c>
       <c r="H82" t="n">
         <v>68.92960913465762</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.1596363892927071</v>
+      </c>
+      <c r="K82" t="n">
+        <v>845.0651566752939</v>
+      </c>
+      <c r="L82" t="n">
+        <v>216.8835570739633</v>
       </c>
     </row>
     <row r="83">
@@ -2748,13 +3740,13 @@
         <v>810</v>
       </c>
       <c r="B83" t="n">
-        <v>354.2246641632491</v>
+        <v>250.5369772043938</v>
       </c>
       <c r="C83" t="n">
         <v>75.8102225569707</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9900765444253516</v>
+        <v>0.9875306284363868</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2762,13 +3754,25 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.1747397966859936</v>
+        <v>0.1746326976004286</v>
       </c>
       <c r="G83" t="n">
-        <v>9.524051166464205e-05</v>
+        <v>0.0001203450319813392</v>
       </c>
       <c r="H83" t="n">
         <v>68.91428245673546</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.1596339232437336</v>
+      </c>
+      <c r="K83" t="n">
+        <v>845.0938255464729</v>
+      </c>
+      <c r="L83" t="n">
+        <v>215.7853129465783</v>
       </c>
     </row>
     <row r="84">
@@ -2776,13 +3780,13 @@
         <v>820</v>
       </c>
       <c r="B84" t="n">
-        <v>351.8151831253988</v>
+        <v>248.9406610779644</v>
       </c>
       <c r="C84" t="n">
         <v>75.75257148118942</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9900433323517104</v>
+        <v>0.9874671491394875</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2790,13 +3794,25 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.1747227821666639</v>
+        <v>0.174626918252976</v>
       </c>
       <c r="G84" t="n">
-        <v>9.556566915526574e-05</v>
+        <v>0.0001209667027734841</v>
       </c>
       <c r="H84" t="n">
         <v>68.89891749747831</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.159631612642945</v>
+      </c>
+      <c r="K84" t="n">
+        <v>845.1217942634194</v>
+      </c>
+      <c r="L84" t="n">
+        <v>214.6763513616374</v>
       </c>
     </row>
     <row r="85">
@@ -2804,13 +3820,13 @@
         <v>830</v>
       </c>
       <c r="B85" t="n">
-        <v>349.4058762317972</v>
+        <v>247.3443664591425</v>
       </c>
       <c r="C85" t="n">
         <v>75.69476380689275</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9900095176059435</v>
+        <v>0.9874023904594548</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2818,13 +3834,25 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0.174705949344988</v>
+        <v>0.1746212850935314</v>
       </c>
       <c r="G85" t="n">
-        <v>9.589669040353684e-05</v>
+        <v>0.0001216009696820803</v>
       </c>
       <c r="H85" t="n">
         <v>68.88351415634048</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.1596294618821897</v>
+      </c>
+      <c r="K85" t="n">
+        <v>845.1490572961856</v>
+      </c>
+      <c r="L85" t="n">
+        <v>213.5566061319502</v>
       </c>
     </row>
     <row r="86">
@@ -2832,13 +3860,13 @@
         <v>840</v>
       </c>
       <c r="B86" t="n">
-        <v>346.9967416356726</v>
+        <v>245.7480917044173</v>
       </c>
       <c r="C86" t="n">
         <v>75.63679905533996</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9899750803629696</v>
+        <v>0.9873363190356657</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2846,13 +3874,25 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0.1746893021575659</v>
+        <v>0.1746157992354465</v>
       </c>
       <c r="G86" t="n">
-        <v>9.623376981743033e-05</v>
+        <v>0.0001222481643648045</v>
       </c>
       <c r="H86" t="n">
         <v>68.86807233236017</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.1596274754725162</v>
+      </c>
+      <c r="K86" t="n">
+        <v>845.1756091191551</v>
+      </c>
+      <c r="L86" t="n">
+        <v>212.426014922934</v>
       </c>
     </row>
     <row r="87">
@@ -2860,13 +3900,13 @@
         <v>850</v>
       </c>
       <c r="B87" t="n">
-        <v>344.5877773835263</v>
+        <v>244.151835123937</v>
       </c>
       <c r="C87" t="n">
         <v>75.57867674556542</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9899399999699214</v>
+        <v>0.9872689005708226</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2874,13 +3914,25 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.174672844549281</v>
+        <v>0.174610461791626</v>
       </c>
       <c r="G87" t="n">
-        <v>9.657710993557987e-05</v>
+        <v>0.0001229086279320827</v>
       </c>
       <c r="H87" t="n">
         <v>68.85259192415695</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.1596256580480285</v>
+      </c>
+      <c r="K87" t="n">
+        <v>845.201444211084</v>
+      </c>
+      <c r="L87" t="n">
+        <v>211.284519439995</v>
       </c>
     </row>
     <row r="88">
@@ -2888,13 +3940,13 @@
         <v>860</v>
       </c>
       <c r="B88" t="n">
-        <v>342.1789814118716</v>
+        <v>242.5555949802381</v>
       </c>
       <c r="C88" t="n">
         <v>75.52039639436452</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9899042549114208</v>
+        <v>0.9872000998025432</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2902,13 +3954,25 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0.174656580473052</v>
+        <v>0.1746052738745404</v>
       </c>
       <c r="G88" t="n">
-        <v>9.692692177071388e-05</v>
+        <v>0.0001235827112409398</v>
       </c>
       <c r="H88" t="n">
         <v>68.83707282992953</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.1596240143698896</v>
+      </c>
+      <c r="K88" t="n">
+        <v>845.2265570551344</v>
+      </c>
+      <c r="L88" t="n">
+        <v>210.1320656174153</v>
       </c>
     </row>
     <row r="89">
@@ -2916,13 +3980,13 @@
         <v>870</v>
       </c>
       <c r="B89" t="n">
-        <v>339.7703515438365</v>
+        <v>240.9593694869333</v>
       </c>
       <c r="C89" t="n">
         <v>75.46195751628028</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9898678227734483</v>
+        <v>0.9871298804739405</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2930,13 +3994,25 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0.1746405138895926</v>
+        <v>0.1746002365962395</v>
       </c>
       <c r="G89" t="n">
-        <v>9.728342516715636e-05</v>
+        <v>0.0001242707751996258</v>
       </c>
       <c r="H89" t="n">
         <v>68.82151494745311</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.1596225493304795</v>
+      </c>
+      <c r="K89" t="n">
+        <v>845.2509421389017</v>
+      </c>
+      <c r="L89" t="n">
+        <v>208.9686038084475</v>
       </c>
     </row>
     <row r="90">
@@ -2944,13 +4020,13 @@
         <v>880</v>
       </c>
       <c r="B90" t="n">
-        <v>337.3618854856219</v>
+        <v>239.3631568073562</v>
       </c>
       <c r="C90" t="n">
         <v>75.40335962358824</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9898306802057557</v>
+        <v>0.9870582053031475</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2958,13 +4034,25 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0.1746246487671786</v>
+        <v>0.1745953510683682</v>
       </c>
       <c r="G90" t="n">
-        <v>9.764684917300265e-05</v>
+        <v>0.0001249731910835064</v>
       </c>
       <c r="H90" t="n">
         <v>68.80591817407694</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.1596212679577159</v>
+      </c>
+      <c r="K90" t="n">
+        <v>845.2745939544325</v>
+      </c>
+      <c r="L90" t="n">
+        <v>207.7940889763078</v>
       </c>
     </row>
     <row r="91">
@@ -2972,13 +4060,13 @@
         <v>890</v>
       </c>
       <c r="B91" t="n">
-        <v>334.953580822811</v>
+        <v>237.7669550531607</v>
       </c>
       <c r="C91" t="n">
         <v>75.34460222628297</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9897928028827501</v>
+        <v>0.9869850359517425</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2986,13 +4074,25 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.1746089890814224</v>
+        <v>0.1745906184021841</v>
       </c>
       <c r="G91" t="n">
-        <v>9.801743242761433e-05</v>
+        <v>0.0001256903408627338</v>
       </c>
       <c r="H91" t="n">
         <v>68.7902824067219</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.159620175419545</v>
+      </c>
+      <c r="K91" t="n">
+        <v>845.297506998236</v>
+      </c>
+      <c r="L91" t="n">
+        <v>206.6084808857318</v>
       </c>
     </row>
     <row r="92">
@@ -3000,13 +4100,13 @@
         <v>900</v>
       </c>
       <c r="B92" t="n">
-        <v>332.5454350165231</v>
+        <v>236.1707622828746</v>
       </c>
       <c r="C92" t="n">
         <v>75.28568483206408</v>
       </c>
       <c r="D92" t="n">
-        <v>0.9897541654627892</v>
+        <v>0.986910332992021</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3014,13 +4114,25 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0.1745935388150562</v>
+        <v>0.1745860397085764</v>
       </c>
       <c r="G92" t="n">
-        <v>9.839542356511225e-05</v>
+        <v>0.0001264226175422417</v>
       </c>
       <c r="H92" t="n">
         <v>68.77460754187817</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.1596192770286091</v>
+      </c>
+      <c r="K92" t="n">
+        <v>845.3196757712852</v>
+      </c>
+      <c r="L92" t="n">
+        <v>205.4117442947445</v>
       </c>
     </row>
     <row r="93">
@@ -3028,13 +4140,13 @@
         <v>910</v>
       </c>
       <c r="B93" t="n">
-        <v>330.137445399404</v>
+        <v>234.5745765004036</v>
       </c>
       <c r="C93" t="n">
         <v>75.22660694632089</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9897147415458172</v>
+        <v>0.9868340558730659</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3042,13 +4154,25 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0.1745783019577229</v>
+        <v>0.1745816160980881</v>
       </c>
       <c r="G93" t="n">
-        <v>9.878108163458049e-05</v>
+        <v>0.000127170425514639</v>
       </c>
       <c r="H93" t="n">
         <v>68.75889347560233</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.159618578247103</v>
+      </c>
+      <c r="K93" t="n">
+        <v>845.3410947790096</v>
+      </c>
+      <c r="L93" t="n">
+        <v>204.2038491462773</v>
       </c>
     </row>
     <row r="94">
@@ -3056,13 +4180,13 @@
         <v>920</v>
       </c>
       <c r="B94" t="n">
-        <v>327.7296091714487</v>
+        <v>232.9783956534854</v>
       </c>
       <c r="C94" t="n">
         <v>75.16736807211805</v>
       </c>
       <c r="D94" t="n">
-        <v>0.9896745036292678</v>
+        <v>0.9867561628855588</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3070,13 +4194,25 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0.1745632825057753</v>
+        <v>0.1745773486809381</v>
       </c>
       <c r="G94" t="n">
-        <v>9.91746765377343e-05</v>
+        <v>0.0001279341809266047</v>
       </c>
       <c r="H94" t="n">
         <v>68.74314010351503</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.1596180846918247</v>
+      </c>
+      <c r="K94" t="n">
+        <v>845.3617585312816</v>
+      </c>
+      <c r="L94" t="n">
+        <v>202.9847707592497</v>
       </c>
     </row>
     <row r="95">
@@ -3084,13 +4220,13 @@
         <v>930</v>
       </c>
       <c r="B95" t="n">
-        <v>325.3219233956451</v>
+        <v>231.382217632091</v>
       </c>
       <c r="C95" t="n">
         <v>75.10796771018153</v>
       </c>
       <c r="D95" t="n">
-        <v>0.989633423062157</v>
+        <v>0.9866766111252755</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -3098,13 +4234,25 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0.1745484844620848</v>
+        <v>0.1745732385670477</v>
       </c>
       <c r="G95" t="n">
-        <v>9.957648948484581e-05</v>
+        <v>0.0001287143120594289</v>
       </c>
       <c r="H95" t="n">
         <v>68.7273473207985</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.1596178021394325</v>
+      </c>
+      <c r="K95" t="n">
+        <v>845.3816615423885</v>
+      </c>
+      <c r="L95" t="n">
+        <v>201.7544900187105</v>
       </c>
     </row>
     <row r="96">
@@ -3112,13 +4260,13 @@
         <v>940</v>
       </c>
       <c r="B96" t="n">
-        <v>322.9143849934352</v>
+        <v>229.7860402667719</v>
       </c>
       <c r="C96" t="n">
         <v>75.0484053588832</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9895914699972876</v>
+        <v>0.9865953564552052</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -3126,13 +4274,25 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0.174533911835859</v>
+        <v>0.174569286866067</v>
       </c>
       <c r="G96" t="n">
-        <v>9.998681346976521e-05</v>
+        <v>0.0001295112597243717</v>
       </c>
       <c r="H96" t="n">
         <v>68.71151502219392</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.1596177365319176</v>
+      </c>
+      <c r="K96" t="n">
+        <v>845.4007983310007</v>
+      </c>
+      <c r="L96" t="n">
+        <v>200.5129935646237</v>
       </c>
     </row>
     <row r="97">
@@ -3140,13 +4300,13 @@
         <v>950</v>
       </c>
       <c r="B97" t="n">
-        <v>320.5069907399834</v>
+        <v>228.1898613269488</v>
       </c>
       <c r="C97" t="n">
         <v>74.98868051422596</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9895486133414753</v>
+        <v>0.986512353466226</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -3154,13 +4314,25 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0.1745195686424677</v>
+        <v>0.1745654946874056</v>
       </c>
       <c r="G97" t="n">
-        <v>0.000100405953764921</v>
+        <v>0.0001303254776735572</v>
       </c>
       <c r="H97" t="n">
         <v>68.69564310199864</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.1596178939823041</v>
+      </c>
+      <c r="K97" t="n">
+        <v>845.4191634201242</v>
+      </c>
+      <c r="L97" t="n">
+        <v>199.2602739788632</v>
       </c>
     </row>
     <row r="98">
@@ -3168,13 +4340,13 @@
         <v>960</v>
       </c>
       <c r="B98" t="n">
-        <v>318.0997372592432</v>
+        <v>226.593678519143</v>
       </c>
       <c r="C98" t="n">
         <v>74.92879266982908</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9895048207037115</v>
+        <v>0.9864275554362701</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -3182,13 +4354,25 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0.1745054589032801</v>
+        <v>0.1745618631402636</v>
       </c>
       <c r="G98" t="n">
-        <v>0.000100834228437233</v>
+        <v>0.0001311574330271567</v>
       </c>
       <c r="H98" t="n">
         <v>68.67973145406386</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.1596182807805858</v>
+      </c>
+      <c r="K98" t="n">
+        <v>845.4367513370463</v>
+      </c>
+      <c r="L98" t="n">
+        <v>197.9963299699706</v>
       </c>
     </row>
     <row r="99">
@@ -3196,13 +4380,13 @@
         <v>970</v>
       </c>
       <c r="B99" t="n">
-        <v>315.6926210188158</v>
+        <v>224.9974894851438</v>
       </c>
       <c r="C99" t="n">
         <v>74.86874131691269</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9894600583411645</v>
+        <v>0.9863409142879092</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -3210,13 +4394,25 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0.1744915866455109</v>
+        <v>0.1745583933336667</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0001012719688859267</v>
+        <v>0.0001320076067176617</v>
       </c>
       <c r="H99" t="n">
         <v>68.66377997179178</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.1596189033999149</v>
+      </c>
+      <c r="K99" t="n">
+        <v>845.4535566132697</v>
+      </c>
+      <c r="L99" t="n">
+        <v>196.7211665552059</v>
       </c>
     </row>
     <row r="100">
@@ -3224,13 +4420,13 @@
         <v>980</v>
       </c>
       <c r="B100" t="n">
-        <v>313.2856383245884</v>
+        <v>223.4012918001133</v>
       </c>
       <c r="C100" t="n">
         <v>74.80852594428279</v>
       </c>
       <c r="D100" t="n">
-        <v>0.9894142911029191</v>
+        <v>0.9862523805442769</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -3238,13 +4434,25 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0.1744779559020772</v>
+        <v>0.1745550863765025</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0001017195204032906</v>
+        <v>0.0001328764939520922</v>
       </c>
       <c r="H100" t="n">
         <v>68.64778854813309</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.1596197685030525</v>
+      </c>
+      <c r="K100" t="n">
+        <v>845.4695737844335</v>
+      </c>
+      <c r="L100" t="n">
+        <v>195.4347952394206</v>
       </c>
     </row>
     <row r="101">
@@ -3252,13 +4460,13 @@
         <v>990</v>
       </c>
       <c r="B101" t="n">
-        <v>310.8787853151456</v>
+        <v>221.8050829706223</v>
       </c>
       <c r="C101" t="n">
         <v>74.74814603831572</v>
       </c>
       <c r="D101" t="n">
-        <v>0.9893674823713509</v>
+        <v>0.9861619032832557</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -3266,13 +4474,25 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0.1744645707114655</v>
+        <v>0.1745519433775601</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0001021772427594836</v>
+        <v>0.0001337646046930365</v>
       </c>
       <c r="H101" t="n">
         <v>68.6317570755842</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.159620882949097</v>
+      </c>
+      <c r="K101" t="n">
+        <v>845.4847973902257</v>
+      </c>
+      <c r="L101" t="n">
+        <v>194.1372341902575</v>
       </c>
     </row>
     <row r="102">
@@ -3280,13 +4500,13 @@
         <v>1000</v>
       </c>
       <c r="B102" t="n">
-        <v>308.4720579559406</v>
+        <v>220.2088604326173</v>
       </c>
       <c r="C102" t="n">
         <v>74.68760108294248</v>
       </c>
       <c r="D102" t="n">
-        <v>0.9893195940010199</v>
+        <v>0.9860694300898368</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -3294,13 +4514,25 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0.1744514351176112</v>
+        <v>0.1745489654455719</v>
       </c>
       <c r="G102" t="n">
-        <v>0.00010264551081256</v>
+        <v>0.0001346724641594709</v>
       </c>
       <c r="H102" t="n">
         <v>68.61568544618447</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.1596222538005037</v>
+      </c>
+      <c r="K102" t="n">
+        <v>845.4992219742803</v>
+      </c>
+      <c r="L102" t="n">
+        <v>192.8285084091779</v>
       </c>
     </row>
     <row r="103">
@@ -3308,13 +4540,13 @@
         <v>1010</v>
       </c>
       <c r="B103" t="n">
-        <v>306.0654520332182</v>
+        <v>218.6126215493132</v>
       </c>
       <c r="C103" t="n">
         <v>74.62689055963313</v>
       </c>
       <c r="D103" t="n">
-        <v>0.9892705862549671</v>
+        <v>0.985974907006565</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -3322,13 +4554,25 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0.1744385531697876</v>
+        <v>0.1745461536892582</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0001031247151449533</v>
+        <v>0.0001356006133483654</v>
       </c>
       <c r="H103" t="n">
         <v>68.59957355151364</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.1596238883304109</v>
+      </c>
+      <c r="K103" t="n">
+        <v>845.5128420840641</v>
+      </c>
+      <c r="L103" t="n">
+        <v>191.5086498978014</v>
       </c>
     </row>
     <row r="104">
@@ -3336,13 +4580,13 @@
         <v>1020</v>
       </c>
       <c r="B104" t="n">
-        <v>303.6589631476766</v>
+        <v>217.0163636090103</v>
       </c>
       <c r="C104" t="n">
         <v>74.5660139473818</v>
       </c>
       <c r="D104" t="n">
-        <v>0.9892204177382893</v>
+        <v>0.9858782784819734</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -3350,13 +4594,25 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0.1744259289225086</v>
+        <v>0.1745435092173752</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0001036152627277322</v>
+        <v>0.0001365496095781415</v>
       </c>
       <c r="H104" t="n">
         <v>68.5834212826891</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.1596257940302891</v>
+      </c>
+      <c r="K104" t="n">
+        <v>845.5256522707485</v>
+      </c>
+      <c r="L104" t="n">
+        <v>190.1776978190368</v>
       </c>
     </row>
     <row r="105">
@@ -3364,13 +4620,13 @@
         <v>1030</v>
       </c>
       <c r="B105" t="n">
-        <v>301.2525867078577</v>
+        <v>215.420083822831</v>
       </c>
       <c r="C105" t="n">
         <v>74.50497072268968</v>
       </c>
       <c r="D105" t="n">
-        <v>0.9891690453288555</v>
+        <v>0.985779487316905</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -3378,13 +4634,25 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0.1744135664354424</v>
+        <v>0.1745410331387649</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0001041175776140229</v>
+        <v>0.0001375200270551129</v>
       </c>
       <c r="H105" t="n">
         <v>68.56722853036304</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.1596279786179315</v>
+      </c>
+      <c r="K105" t="n">
+        <v>845.5376470890693</v>
+      </c>
+      <c r="L105" t="n">
+        <v>188.835698652473</v>
       </c>
     </row>
     <row r="106">
@@ -3392,13 +4660,13 @@
         <v>1040</v>
       </c>
       <c r="B106" t="n">
-        <v>298.8463179232512</v>
+        <v>213.823779322373</v>
       </c>
       <c r="C106" t="n">
         <v>74.4437603595494</v>
       </c>
       <c r="D106" t="n">
-        <v>0.9891164241050285</v>
+        <v>0.9856784746086152</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -3406,13 +4674,25 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0.1744014697733385</v>
+        <v>0.1745387265624091</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0001046321016630774</v>
+        <v>0.0001385124574641075</v>
       </c>
       <c r="H106" t="n">
         <v>68.55099518471962</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.1596304500458025</v>
+      </c>
+      <c r="K106" t="n">
+        <v>845.5488210971711</v>
+      </c>
+      <c r="L106" t="n">
+        <v>187.482706343496</v>
       </c>
     </row>
     <row r="107">
@@ -3420,13 +4700,13 @@
         <v>1050</v>
       </c>
       <c r="B107" t="n">
-        <v>296.4401517971025</v>
+        <v>212.2274471572753</v>
       </c>
       <c r="C107" t="n">
         <v>74.38238232942905</v>
       </c>
       <c r="D107" t="n">
-        <v>0.9890625072702383</v>
+        <v>0.9855751796925406</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -3434,13 +4714,25 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0.1743896430059684</v>
+        <v>0.1745365905974861</v>
       </c>
       <c r="G107" t="n">
-        <v>0.0001051592952965618</v>
+        <v>0.000139527510584547</v>
       </c>
       <c r="H107" t="n">
         <v>68.5347211354723</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.1596332165097654</v>
+      </c>
+      <c r="K107" t="n">
+        <v>845.5591688564369</v>
+      </c>
+      <c r="L107" t="n">
+        <v>186.1187824455842</v>
       </c>
     </row>
     <row r="108">
@@ -3448,13 +4740,13 @@
         <v>1060</v>
       </c>
       <c r="B108" t="n">
-        <v>294.0340831189073</v>
+        <v>210.6310842926932</v>
       </c>
       <c r="C108" t="n">
         <v>74.32083610125613</v>
       </c>
       <c r="D108" t="n">
-        <v>0.9890072460742523</v>
+        <v>0.9854695400816118</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -3462,13 +4754,25 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0.1743780902080788</v>
+        <v>0.1745346263534303</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0001056996382887344</v>
+        <v>0.0001405658149333343</v>
       </c>
       <c r="H108" t="n">
         <v>68.51840627186097</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.1596362864582105</v>
+      </c>
+      <c r="K108" t="n">
+        <v>845.5686849313039</v>
+      </c>
+      <c r="L108" t="n">
+        <v>184.7439962552441</v>
       </c>
     </row>
     <row r="109">
@@ -3476,13 +4780,13 @@
         <v>1070</v>
       </c>
       <c r="B109" t="n">
-        <v>291.6281064565817</v>
+        <v>209.0346876066772</v>
       </c>
       <c r="C109" t="n">
         <v>74.25912114140056</v>
       </c>
       <c r="D109" t="n">
-        <v>0.9889505897309694</v>
+        <v>0.9853614914029862</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -3490,13 +4794,25 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0.1743668154593603</v>
+        <v>0.1745328349399964</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0001062536305922938</v>
+        <v>0.0001416280184359883</v>
       </c>
       <c r="H109" t="n">
         <v>68.50205048264912</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.1596396686016023</v>
+      </c>
+      <c r="K109" t="n">
+        <v>845.5773638890598</v>
+      </c>
+      <c r="L109" t="n">
+        <v>183.3584249390338</v>
       </c>
     </row>
     <row r="110">
@@ -3504,13 +4820,13 @@
         <v>1080</v>
       </c>
       <c r="B110" t="n">
-        <v>289.2222161482894</v>
+        <v>207.4382538874524</v>
       </c>
       <c r="C110" t="n">
         <v>74.19723691365829</v>
       </c>
       <c r="D110" t="n">
-        <v>0.9888924853325639</v>
+        <v>0.9852509673320589</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -3518,13 +4834,25 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0.1743558228444304</v>
+        <v>0.1745312174673261</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0001068217932017885</v>
+        <v>0.0001427147891275522</v>
       </c>
       <c r="H110" t="n">
         <v>68.4856536561209</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.1596433719224756</v>
+      </c>
+      <c r="K110" t="n">
+        <v>845.585200299626</v>
+      </c>
+      <c r="L110" t="n">
+        <v>181.9621536521319</v>
       </c>
     </row>
     <row r="111">
@@ -3532,13 +4860,13 @@
         <v>1090</v>
       </c>
       <c r="B111" t="n">
-        <v>286.8164062939119</v>
+        <v>205.8417798305934</v>
       </c>
       <c r="C111" t="n">
         <v>74.135182879235</v>
       </c>
       <c r="D111" t="n">
-        <v>0.9888328777597828</v>
+        <v>0.9851378995236114</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -3546,13 +4874,25 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0.1743451164528318</v>
+        <v>0.1745297750460191</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0001074046690566073</v>
+        <v>0.0001438268158849013</v>
       </c>
       <c r="H111" t="n">
         <v>68.46921568007832</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.1596474056858999</v>
+      </c>
+      <c r="K111" t="n">
+        <v>845.5921887353213</v>
+      </c>
+      <c r="L111" t="n">
+        <v>180.5552756479078</v>
       </c>
     </row>
     <row r="112">
@@ -3560,13 +4900,13 @@
         <v>1100</v>
       </c>
       <c r="B112" t="n">
-        <v>284.410670746144</v>
+        <v>204.245262036089</v>
       </c>
       <c r="C112" t="n">
         <v>74.07295849672903</v>
       </c>
       <c r="D112" t="n">
-        <v>0.9887717095881997</v>
+        <v>0.9850222175399431</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -3574,13 +4914,25 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0.1743347003790469</v>
+        <v>0.1745285087872077</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0001080028239856995</v>
+        <v>0.0001449648091921804</v>
       </c>
       <c r="H112" t="n">
         <v>68.45273644183833</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.1596517794504421</v>
+      </c>
+      <c r="K112" t="n">
+        <v>845.5983237706075</v>
+      </c>
+      <c r="L112" t="n">
+        <v>179.1378923779525</v>
       </c>
     </row>
     <row r="113">
@@ -3588,13 +4940,13 @@
         <v>1110</v>
       </c>
       <c r="B113" t="n">
-        <v>282.0050031011964</v>
+        <v>202.6486970052924</v>
       </c>
       <c r="C113" t="n">
         <v>74.01056322211429</v>
       </c>
       <c r="D113" t="n">
-        <v>0.9887089209902042</v>
+        <v>0.9849038487758203</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -3602,13 +4954,25 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0.1743245787225292</v>
+        <v>0.1745274198026356</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0001086168476963204</v>
+        <v>0.0001461295019412105</v>
       </c>
       <c r="H113" t="n">
         <v>68.43621582822981</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.1596565030796563</v>
+      </c>
+      <c r="K113" t="n">
+        <v>845.603599981817</v>
+      </c>
+      <c r="L113" t="n">
+        <v>177.7101135820387</v>
       </c>
     </row>
     <row r="114">
@@ -3616,13 +4980,13 @@
         <v>1120</v>
       </c>
       <c r="B114" t="n">
-        <v>279.5993966890864</v>
+        <v>201.0520811377511</v>
       </c>
       <c r="C114" t="n">
         <v>73.94799650872341</v>
       </c>
       <c r="D114" t="n">
-        <v>0.9886444496324983</v>
+        <v>0.9847827183800717</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -3630,13 +4994,25 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0.1743147555877514</v>
+        <v>0.1745265092047416</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0001092473548092529</v>
+        <v>0.0001473216502688254</v>
       </c>
       <c r="H114" t="n">
         <v>68.41965372559066</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.1596615867541289</v>
+      </c>
+      <c r="K114" t="n">
+        <v>845.6080119468581</v>
+      </c>
+      <c r="L114" t="n">
+        <v>176.272057367487</v>
       </c>
     </row>
     <row r="115">
@@ -3644,13 +5020,13 @@
         <v>1130</v>
       </c>
       <c r="B115" t="n">
-        <v>277.1938445634969</v>
+        <v>199.45541072791</v>
       </c>
       <c r="C115" t="n">
         <v>73.88525780723035</v>
       </c>
       <c r="D115" t="n">
-        <v>0.9885782305688556</v>
+        <v>0.9846587491736445</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -3658,13 +5034,25 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0.1743052350842725</v>
+        <v>0.1745257781067459</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0001098949859431214</v>
+        <v>0.0001485420344332308</v>
       </c>
       <c r="H115" t="n">
         <v>68.4030500197649</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.1596670409841153</v>
+      </c>
+      <c r="K115" t="n">
+        <v>845.6115542449036</v>
+      </c>
+      <c r="L115" t="n">
+        <v>174.823850277425</v>
       </c>
     </row>
     <row r="116">
@@ -3672,13 +5060,13 @@
         <v>1140</v>
       </c>
       <c r="B116" t="n">
-        <v>274.7883394911815</v>
+        <v>197.858681961682</v>
       </c>
       <c r="C116" t="n">
         <v>73.82234656563293</v>
       </c>
       <c r="D116" t="n">
-        <v>0.9885101961278764</v>
+        <v>0.9845318615639215</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -3686,13 +5074,25 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0.1742960213268231</v>
+        <v>0.1745252276227433</v>
       </c>
       <c r="G116" t="n">
-        <v>0.000110560408850602</v>
+        <v>0.0001497914597316092</v>
       </c>
       <c r="H116" t="n">
         <v>68.38640459609947</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.1596728766227992</v>
+      </c>
+      <c r="K116" t="n">
+        <v>845.614221456053</v>
+      </c>
+      <c r="L116" t="n">
+        <v>173.3656273474402</v>
       </c>
     </row>
     <row r="117">
@@ -3700,13 +5100,13 @@
         <v>1150</v>
       </c>
       <c r="B117" t="n">
-        <v>272.3828739408939</v>
+        <v>196.2618909128798</v>
       </c>
       <c r="C117" t="n">
         <v>73.75926222923579</v>
       </c>
       <c r="D117" t="n">
-        <v>0.9884402757954631</v>
+        <v>0.9844019734550927</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -3714,13 +5114,25 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0.1742871184354103</v>
+        <v>0.1745248588677997</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0001112443196095213</v>
+        <v>0.0001510707574613515</v>
       </c>
       <c r="H117" t="n">
         <v>68.36971733944139</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.1596791048802154</v>
+      </c>
+      <c r="K117" t="n">
+        <v>845.6160081609761</v>
+      </c>
+      <c r="L117" t="n">
+        <v>171.8975321501438</v>
       </c>
     </row>
     <row r="118">
@@ -3728,13 +5140,13 @@
         <v>1160</v>
       </c>
       <c r="B118" t="n">
-        <v>270.345417921644</v>
+        <v>195.0313342972371</v>
       </c>
       <c r="C118" t="n">
         <v>73.72200503130603</v>
       </c>
       <c r="D118" t="n">
-        <v>0.9883683960917118</v>
+        <v>0.984269000154356</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -3742,13 +5154,25 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>0.174278530535444</v>
+        <v>0.174524672958054</v>
       </c>
       <c r="G118" t="n">
-        <v>0.000111947443872058</v>
+        <v>0.0001523807859274502</v>
       </c>
       <c r="H118" t="n">
         <v>68.35986381914856</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.1230556615642716</v>
+      </c>
+      <c r="K118" t="n">
+        <v>845.61690894053</v>
+      </c>
+      <c r="L118" t="n">
+        <v>170.4197168271803</v>
       </c>
     </row>
     <row r="119">
@@ -3756,13 +5180,13 @@
         <v>1170</v>
       </c>
       <c r="B119" t="n">
-        <v>268.3079780414733</v>
+        <v>193.800690358167</v>
       </c>
       <c r="C119" t="n">
         <v>73.68474996703048</v>
       </c>
       <c r="D119" t="n">
-        <v>0.9883051573746686</v>
+        <v>0.9841633656546802</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -3770,13 +5194,25 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0.1742740420546707</v>
+        <v>0.1745264776594612</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0001125672179932732</v>
+        <v>0.0001534228492014128</v>
       </c>
       <c r="H119" t="n">
         <v>68.35001224755516</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.1230643939070101</v>
+      </c>
+      <c r="K119" t="n">
+        <v>845.6081647886626</v>
+      </c>
+      <c r="L119" t="n">
+        <v>169.2622091352747</v>
       </c>
     </row>
     <row r="120">
@@ -3784,13 +5220,13 @@
         <v>1180</v>
       </c>
       <c r="B120" t="n">
-        <v>266.2705472907749</v>
+        <v>192.5699557588343</v>
       </c>
       <c r="C120" t="n">
         <v>73.64749703628695</v>
       </c>
       <c r="D120" t="n">
-        <v>0.9882403794520291</v>
+        <v>0.9840557712066391</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -3798,13 +5234,25 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>0.1742698064420605</v>
+        <v>0.1745284107227151</v>
       </c>
       <c r="G120" t="n">
-        <v>0.000113202116308182</v>
+        <v>0.0001544844793740815</v>
       </c>
       <c r="H120" t="n">
         <v>68.34016262419655</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.1230734599332669</v>
+      </c>
+      <c r="K120" t="n">
+        <v>845.5987988976669</v>
+      </c>
+      <c r="L120" t="n">
+        <v>168.0990251763513</v>
       </c>
     </row>
     <row r="121">
@@ -3812,13 +5260,13 @@
         <v>1190</v>
       </c>
       <c r="B121" t="n">
-        <v>264.2331184246698</v>
+        <v>191.3391270871126</v>
       </c>
       <c r="C121" t="n">
         <v>73.61024623895332</v>
       </c>
       <c r="D121" t="n">
-        <v>0.9881740111145515</v>
+        <v>0.9839461736255568</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3826,13 +5274,25 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0.1742658263679227</v>
+        <v>0.1745304727693828</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0001138526458922922</v>
+        <v>0.0001555661158456876</v>
       </c>
       <c r="H121" t="n">
         <v>68.33031494860826</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.1230828671721726</v>
+      </c>
+      <c r="K121" t="n">
+        <v>845.5888082974134</v>
+      </c>
+      <c r="L121" t="n">
+        <v>166.9302485730161</v>
       </c>
     </row>
     <row r="122">
@@ -3840,13 +5300,13 @@
         <v>1200</v>
       </c>
       <c r="B122" t="n">
-        <v>262.1956839551866</v>
+        <v>190.1082008536329</v>
       </c>
       <c r="C122" t="n">
         <v>73.57299757490739</v>
       </c>
       <c r="D122" t="n">
-        <v>0.9881059993237389</v>
+        <v>0.9838345286453789</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -3854,13 +5314,25 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>0.1742621045088067</v>
+        <v>0.1745326644232112</v>
       </c>
       <c r="G122" t="n">
-        <v>0.000114519332154733</v>
+        <v>0.0001566682093376176</v>
       </c>
       <c r="H122" t="n">
         <v>68.32046922032588</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.1230926233479758</v>
+      </c>
+      <c r="K122" t="n">
+        <v>845.578190010257</v>
+      </c>
+      <c r="L122" t="n">
+        <v>165.7559660473115</v>
       </c>
     </row>
     <row r="123">
@@ -3868,13 +5340,13 @@
         <v>1210</v>
       </c>
       <c r="B123" t="n">
-        <v>260.158236143135</v>
+        <v>188.8771734897686</v>
       </c>
       <c r="C123" t="n">
         <v>73.53575104402694</v>
       </c>
       <c r="D123" t="n">
-        <v>0.9880362891433131</v>
+        <v>0.9837207908858179</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -3882,13 +5354,25 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>0.1742586435476849</v>
+        <v>0.1745349863101953</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0001152027195398118</v>
+        <v>0.00015779122224827</v>
       </c>
       <c r="H123" t="n">
         <v>68.31062543888508</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.1231027363864243</v>
+      </c>
+      <c r="K123" t="n">
+        <v>845.5669410507512</v>
+      </c>
+      <c r="L123" t="n">
+        <v>164.5762674098557</v>
       </c>
     </row>
     <row r="124">
@@ -3896,13 +5380,13 @@
         <v>1220</v>
       </c>
       <c r="B124" t="n">
-        <v>258.1207669896579</v>
+        <v>187.6460413455546</v>
       </c>
       <c r="C124" t="n">
         <v>73.49850664618987</v>
       </c>
       <c r="D124" t="n">
-        <v>0.987964823667757</v>
+        <v>0.9836049138182344</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -3910,13 +5394,25 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>0.1742554461741493</v>
+        <v>0.1745374390586481</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0001159033722594054</v>
+        <v>0.0001589356290229807</v>
       </c>
       <c r="H124" t="n">
         <v>68.30078360382181</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.1231132144214059</v>
+      </c>
+      <c r="K124" t="n">
+        <v>845.5550584253524</v>
+      </c>
+      <c r="L124" t="n">
+        <v>163.3912455457322</v>
       </c>
     </row>
     <row r="125">
@@ -3924,13 +5420,13 @@
         <v>1230</v>
       </c>
       <c r="B125" t="n">
-        <v>256.0832682274487</v>
+        <v>186.4148006875359</v>
       </c>
       <c r="C125" t="n">
         <v>73.46126438127396</v>
       </c>
       <c r="D125" t="n">
-        <v>0.9878915439477784</v>
+        <v>0.9834868497302027</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -3938,13 +5434,25 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0.1742525150846221</v>
+        <v>0.1745400232992742</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0001166218750578569</v>
+        <v>0.0001601019165386939</v>
       </c>
       <c r="H125" t="n">
         <v>68.290943714672</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.123124065801862</v>
+      </c>
+      <c r="K125" t="n">
+        <v>845.5425391321136</v>
+      </c>
+      <c r="L125" t="n">
+        <v>162.2009963970859</v>
       </c>
     </row>
     <row r="126">
@@ -3952,13 +5460,13 @@
         <v>1240</v>
       </c>
       <c r="B126" t="n">
-        <v>254.0457313116177</v>
+        <v>185.183447696546</v>
       </c>
       <c r="C126" t="n">
         <v>73.42402424915713</v>
       </c>
       <c r="D126" t="n">
-        <v>0.9878163889125297</v>
+        <v>0.9833665496886896</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -3966,13 +5474,25 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0.1742498529825784</v>
+        <v>0.1745427396652452</v>
       </c>
       <c r="G126" t="n">
-        <v>0.0001173588340111601</v>
+        <v>0.000161290584504089</v>
       </c>
       <c r="H126" t="n">
         <v>68.28110577097179</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.1231352990989911</v>
+      </c>
+      <c r="K126" t="n">
+        <v>845.5293801603641</v>
+      </c>
+      <c r="L126" t="n">
+        <v>161.0056189423809</v>
       </c>
     </row>
     <row r="127">
@@ -3980,13 +5500,13 @@
         <v>1250</v>
       </c>
       <c r="B127" t="n">
-        <v>252.0081474101909</v>
+        <v>183.9519784654085</v>
       </c>
       <c r="C127" t="n">
         <v>73.38678624971726</v>
       </c>
       <c r="D127" t="n">
-        <v>0.9877392952884039</v>
+        <v>0.9832439635017903</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -3994,13 +5514,25 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>0.1742474625787848</v>
+        <v>0.1745455887922772</v>
       </c>
       <c r="G127" t="n">
-        <v>0.0001181148773623326</v>
+        <v>0.0001625021458759207</v>
       </c>
       <c r="H127" t="n">
         <v>68.27126977225747</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.1231469231137499</v>
+      </c>
+      <c r="K127" t="n">
+        <v>845.5155784903817</v>
+      </c>
+      <c r="L127" t="n">
+        <v>159.8052151722831</v>
       </c>
     </row>
     <row r="128">
@@ -4008,13 +5540,13 @@
         <v>1260</v>
       </c>
       <c r="B128" t="n">
-        <v>249.9705073942248</v>
+        <v>182.7203889965618</v>
       </c>
       <c r="C128" t="n">
         <v>73.34955038283215</v>
       </c>
       <c r="D128" t="n">
-        <v>0.9876601975142265</v>
+        <v>0.9831190396789439</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -4022,13 +5554,25 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>0.1742453465915525</v>
+        <v>0.1745485713187123</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0001188906563950061</v>
+        <v>0.0001637371272923649</v>
       </c>
       <c r="H128" t="n">
         <v>68.26143571806533</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.1231589468846733</v>
+      </c>
+      <c r="K128" t="n">
+        <v>845.5011310930464</v>
+      </c>
+      <c r="L128" t="n">
+        <v>158.5998900621372</v>
       </c>
     </row>
     <row r="129">
@@ -4036,13 +5580,13 @@
         <v>1270</v>
       </c>
       <c r="B129" t="n">
-        <v>247.9328018275184</v>
+        <v>181.4886751996015</v>
       </c>
       <c r="C129" t="n">
         <v>73.31231664837969</v>
       </c>
       <c r="D129" t="n">
-        <v>0.9875790276526409</v>
+        <v>0.9829917253895589</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -4050,13 +5594,25 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>0.1742435077470064</v>
+        <v>0.1745516878856015</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0001196868463474031</v>
+        <v>0.0001649960695242139</v>
       </c>
       <c r="H129" t="n">
         <v>68.2516036079319</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.1231713796960266</v>
+      </c>
+      <c r="K129" t="n">
+        <v>845.4860349294869</v>
+      </c>
+      <c r="L129" t="n">
+        <v>157.38975154101</v>
       </c>
     </row>
     <row r="130">
@@ -4064,13 +5620,13 @@
         <v>1280</v>
       </c>
       <c r="B130" t="n">
-        <v>245.8950209559027</v>
+        <v>180.2568328887385</v>
       </c>
       <c r="C130" t="n">
         <v>73.27508504623779</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9874957152974728</v>
+        <v>0.982861966419972</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -4078,13 +5634,25 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>0.1742419487793702</v>
+        <v>0.1745549391367916</v>
       </c>
       <c r="G130" t="n">
-        <v>0.0001205041473690179</v>
+        <v>0.0001662795279448096</v>
       </c>
       <c r="H130" t="n">
         <v>68.24177344139383</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.1231842310863061</v>
+      </c>
+      <c r="K130" t="n">
+        <v>845.4702869507078</v>
+      </c>
+      <c r="L130" t="n">
+        <v>156.1749104572789</v>
       </c>
     </row>
     <row r="131">
@@ -4092,13 +5660,13 @@
         <v>1290</v>
       </c>
       <c r="B131" t="n">
-        <v>243.8571546960877</v>
+        <v>179.0248577801674</v>
       </c>
       <c r="C131" t="n">
         <v>73.23785557628423</v>
       </c>
       <c r="D131" t="n">
-        <v>0.9874101874768502</v>
+        <v>0.9827297071286565</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -4106,13 +5674,25 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>0.1742406724312689</v>
+        <v>0.1745583257190148</v>
       </c>
       <c r="G131" t="n">
-        <v>0.0001213432855224811</v>
+        <v>0.0001675880730196569</v>
       </c>
       <c r="H131" t="n">
         <v>68.23194521798783</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.1231975108571091</v>
+      </c>
+      <c r="K131" t="n">
+        <v>845.4538840972076</v>
+      </c>
+      <c r="L131" t="n">
+        <v>154.95548054075</v>
       </c>
     </row>
     <row r="132">
@@ -4120,13 +5700,13 @@
         <v>1300</v>
       </c>
       <c r="B132" t="n">
-        <v>241.8191926240456</v>
+        <v>177.7927454893435</v>
       </c>
       <c r="C132" t="n">
         <v>73.20062823839703</v>
       </c>
       <c r="D132" t="n">
-        <v>0.9873223685518333</v>
+        <v>0.9825948903995944</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -4134,13 +5714,25 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>0.1742396814540496</v>
+        <v>0.1745618482819811</v>
       </c>
       <c r="G132" t="n">
-        <v>0.0001222050138332611</v>
+        <v>0.0001689222908167098</v>
       </c>
       <c r="H132" t="n">
         <v>68.22211893725083</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.1232112290823883</v>
+      </c>
+      <c r="K132" t="n">
+        <v>845.436823298579</v>
+      </c>
+      <c r="L132" t="n">
+        <v>153.7315783612996</v>
       </c>
     </row>
     <row r="133">
@@ -4148,13 +5740,13 @@
         <v>1310</v>
       </c>
       <c r="B133" t="n">
-        <v>239.7811239629048</v>
+        <v>176.5604915281623</v>
       </c>
       <c r="C133" t="n">
         <v>73.16340303245397</v>
       </c>
       <c r="D133" t="n">
-        <v>0.9872321801102953</v>
+        <v>0.9824574575937218</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -4162,13 +5754,25 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>0.1742389786081204</v>
+        <v>0.1745655074784745</v>
       </c>
       <c r="G133" t="n">
-        <v>0.0001230901133900483</v>
+        <v>0.0001702827835383901</v>
       </c>
       <c r="H133" t="n">
         <v>68.21229459871979</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.1232253961181149</v>
+      </c>
+      <c r="K133" t="n">
+        <v>845.4191014730941</v>
+      </c>
+      <c r="L133" t="n">
+        <v>152.5033232840279</v>
       </c>
     </row>
     <row r="134">
@@ -4176,13 +5780,13 @@
         <v>1320</v>
       </c>
       <c r="B134" t="n">
-        <v>237.375371897749</v>
+        <v>174.9625422179141</v>
       </c>
       <c r="C134" t="n">
         <v>73.1041723466069</v>
       </c>
       <c r="D134" t="n">
-        <v>0.9871395408557757</v>
+        <v>0.9823173484983493</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -4190,13 +5794,25 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>0.1742385666633093</v>
+        <v>0.1745693039644525</v>
       </c>
       <c r="G134" t="n">
-        <v>0.0001239993944988658</v>
+        <v>0.000171670170076449</v>
       </c>
       <c r="H134" t="n">
         <v>68.19666549854867</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.1597949310248237</v>
+      </c>
+      <c r="K134" t="n">
+        <v>845.4007155272752</v>
+      </c>
+      <c r="L134" t="n">
+        <v>151.2708374209377</v>
       </c>
     </row>
     <row r="135">
@@ -4204,13 +5820,13 @@
         <v>1330</v>
       </c>
       <c r="B135" t="n">
-        <v>234.9694952935538</v>
+        <v>173.36446240473</v>
       </c>
       <c r="C135" t="n">
         <v>73.0449766541675</v>
       </c>
       <c r="D135" t="n">
-        <v>0.987027860364697</v>
+        <v>0.9821327390392028</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -4218,13 +5834,25 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>0.1742360645561247</v>
+        <v>0.1745726767606217</v>
       </c>
       <c r="G135" t="n">
-        <v>0.00012509457403921</v>
+        <v>0.0001734976190601265</v>
       </c>
       <c r="H135" t="n">
         <v>68.18104912003153</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.1598079813184029</v>
+      </c>
+      <c r="K135" t="n">
+        <v>845.3843821333688</v>
+      </c>
+      <c r="L135" t="n">
+        <v>149.6775029440587</v>
       </c>
     </row>
     <row r="136">
@@ -4232,13 +5860,13 @@
         <v>1340</v>
       </c>
       <c r="B136" t="n">
-        <v>232.5634795195437</v>
+        <v>171.7662459523063</v>
       </c>
       <c r="C136" t="n">
         <v>72.98581592614767</v>
       </c>
       <c r="D136" t="n">
-        <v>0.9869125419469807</v>
+        <v>0.9819434313648363</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -4246,13 +5874,25 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>0.1742339782083341</v>
+        <v>0.1745762846553883</v>
       </c>
       <c r="G136" t="n">
-        <v>0.0001262256551948516</v>
+        <v>0.0001753723130153217</v>
       </c>
       <c r="H136" t="n">
         <v>68.16544544856194</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.1598216452423757</v>
+      </c>
+      <c r="K136" t="n">
+        <v>845.366910929339</v>
+      </c>
+      <c r="L136" t="n">
+        <v>148.0774812235637</v>
       </c>
     </row>
     <row r="137">
@@ -4260,13 +5900,13 @@
         <v>1350</v>
       </c>
       <c r="B137" t="n">
-        <v>230.1573093325066</v>
+        <v>170.1678865246307</v>
       </c>
       <c r="C137" t="n">
         <v>72.92669013359398</v>
       </c>
       <c r="D137" t="n">
-        <v>0.9867934367932814</v>
+        <v>0.981749283806635</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -4274,13 +5914,25 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>0.1742323120743487</v>
+        <v>0.1745801289760675</v>
       </c>
       <c r="G137" t="n">
-        <v>0.0001273941230440758</v>
+        <v>0.000177295711585647</v>
       </c>
       <c r="H137" t="n">
         <v>68.14985446955599</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.1598359427675592</v>
+      </c>
+      <c r="K137" t="n">
+        <v>845.3482956292117</v>
+      </c>
+      <c r="L137" t="n">
+        <v>146.4710576212354</v>
       </c>
     </row>
     <row r="138">
@@ -4288,13 +5940,13 @@
         <v>1360</v>
       </c>
       <c r="B138" t="n">
-        <v>227.7509688501459</v>
+        <v>168.5693775783491</v>
       </c>
       <c r="C138" t="n">
         <v>72.86759924758815</v>
       </c>
       <c r="D138" t="n">
-        <v>0.9866703895249854</v>
+        <v>0.9815501496646453</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -4302,13 +5954,25 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>0.1742310706250159</v>
+        <v>0.1745842110559648</v>
       </c>
       <c r="G138" t="n">
-        <v>0.0001286015294488261</v>
+        <v>0.0001792693280595605</v>
       </c>
       <c r="H138" t="n">
         <v>68.1342761684524</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.1598508946281568</v>
+      </c>
+      <c r="K138" t="n">
+        <v>845.3285299283903</v>
+      </c>
+      <c r="L138" t="n">
+        <v>144.858524705528</v>
       </c>
     </row>
     <row r="139">
@@ -4316,13 +5980,13 @@
         <v>1370</v>
       </c>
       <c r="B139" t="n">
-        <v>225.3444415230401</v>
+        <v>166.9707123547569</v>
       </c>
       <c r="C139" t="n">
         <v>72.80854323924746</v>
       </c>
       <c r="D139" t="n">
-        <v>0.986543237871316</v>
+        <v>0.9813458769834063</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -4330,13 +5994,25 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0.1742302583484302</v>
+        <v>0.1745885322346392</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0001298494964309943</v>
+        <v>0.0001812947318505389</v>
       </c>
       <c r="H139" t="n">
         <v>68.1187105307126</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.1598665223592191</v>
+      </c>
+      <c r="K139" t="n">
+        <v>845.3076075025607</v>
+      </c>
+      <c r="L139" t="n">
+        <v>143.2401820096354</v>
       </c>
     </row>
     <row r="140">
@@ -4344,13 +6020,13 @@
         <v>1380</v>
       </c>
       <c r="B140" t="n">
-        <v>222.9377101051198</v>
+        <v>165.371883871393</v>
       </c>
       <c r="C140" t="n">
         <v>72.74952207972331</v>
       </c>
       <c r="D140" t="n">
-        <v>0.9864118123271379</v>
+        <v>0.9811363083151239</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -4358,13 +6034,25 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>0.1742298797507987</v>
+        <v>0.1745930938581792</v>
       </c>
       <c r="G140" t="n">
-        <v>0.00013113971975693</v>
+        <v>0.0001833735511217285</v>
       </c>
       <c r="H140" t="n">
         <v>68.10315754182038</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.1598828483363942</v>
+      </c>
+      <c r="K140" t="n">
+        <v>845.2855220065328</v>
+      </c>
+      <c r="L140" t="n">
+        <v>141.6163357736389</v>
       </c>
     </row>
     <row r="141">
@@ -4372,13 +6060,13 @@
         <v>1390</v>
       </c>
       <c r="B141" t="n">
-        <v>220.5307566225671</v>
+        <v>163.7728849132117</v>
       </c>
       <c r="C141" t="n">
         <v>72.69053574020302</v>
       </c>
       <c r="D141" t="n">
-        <v>0.9862759357900174</v>
+        <v>0.9809212804693339</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -4386,13 +6074,25 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>0.1742299393573644</v>
+        <v>0.1745978972794923</v>
       </c>
       <c r="G141" t="n">
-        <v>0.0001324739727461969</v>
+        <v>0.0001855074755651987</v>
       </c>
       <c r="H141" t="n">
         <v>68.08761718728226</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.1598998958181335</v>
+      </c>
+      <c r="K141" t="n">
+        <v>845.2622670730236</v>
+      </c>
+      <c r="L141" t="n">
+        <v>139.9872986710568</v>
       </c>
     </row>
     <row r="142">
@@ -4400,13 +6100,13 @@
         <v>1400</v>
       </c>
       <c r="B142" t="n">
-        <v>218.1235623410336</v>
+        <v>162.1737080233063</v>
       </c>
       <c r="C142" t="n">
         <v>72.6315841919079</v>
       </c>
       <c r="D142" t="n">
-        <v>0.9861354231749554</v>
+        <v>0.9807006242481137</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -4414,13 +6114,25 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0.1742304417133929</v>
+        <v>0.1746029438586099</v>
       </c>
       <c r="G142" t="n">
-        <v>0.0001338541103220797</v>
+        <v>0.0001876982593467597</v>
       </c>
       <c r="H142" t="n">
         <v>68.07208945262701</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.1599176889905317</v>
+      </c>
+      <c r="K142" t="n">
+        <v>845.2378363113671</v>
+      </c>
+      <c r="L142" t="n">
+        <v>138.3533895201653</v>
       </c>
     </row>
     <row r="143">
@@ -4428,13 +6140,13 @@
         <v>1410</v>
       </c>
       <c r="B143" t="n">
-        <v>215.7161077310647</v>
+        <v>160.5743454931563</v>
       </c>
       <c r="C143" t="n">
         <v>72.57266740609487</v>
       </c>
       <c r="D143" t="n">
-        <v>0.9859900810050711</v>
+        <v>0.9804741641658384</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -4442,13 +6154,25 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0.1742313913852231</v>
+        <v>0.1746082349630064</v>
       </c>
       <c r="G143" t="n">
-        <v>0.0001352820733229725</v>
+        <v>0.0001899477242281861</v>
       </c>
       <c r="H143" t="n">
         <v>68.05657432340597</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.1599362530150012</v>
+      </c>
+      <c r="K143" t="n">
+        <v>845.2122233061573</v>
+      </c>
+      <c r="L143" t="n">
+        <v>136.7149329805225</v>
       </c>
     </row>
     <row r="144">
@@ -4456,13 +6180,13 @@
         <v>1420</v>
       </c>
       <c r="B144" t="n">
-        <v>213.3083724316086</v>
+        <v>158.9747893523665</v>
       </c>
       <c r="C144" t="n">
         <v>72.51378535405547</v>
       </c>
       <c r="D144" t="n">
-        <v>0.9858397069763551</v>
+        <v>0.980241718152397</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -4470,13 +6194,25 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0.1742327929613895</v>
+        <v>0.1746137719679353</v>
       </c>
       <c r="G144" t="n">
-        <v>0.0001367598930955915</v>
+        <v>0.0001922577628796892</v>
       </c>
       <c r="H144" t="n">
         <v>68.04107178519283</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.1599556140789903</v>
+      </c>
+      <c r="K144" t="n">
+        <v>845.1854216158112</v>
+      </c>
+      <c r="L144" t="n">
+        <v>135.0722592351701</v>
       </c>
     </row>
     <row r="145">
@@ -4484,13 +6220,13 @@
         <v>1430</v>
       </c>
       <c r="B145" t="n">
-        <v>210.9003352114806</v>
+        <v>157.3750313578666</v>
       </c>
       <c r="C145" t="n">
         <v>72.4549380071154</v>
       </c>
       <c r="D145" t="n">
-        <v>0.9856840894944278</v>
+        <v>0.9800030972386868</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -4498,13 +6234,25 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0.1742346510538162</v>
+        <v>0.1746195562567825</v>
       </c>
       <c r="G145" t="n">
-        <v>0.0001382896963929479</v>
+        <v>0.0001946303423965422</v>
       </c>
       <c r="H145" t="n">
         <v>68.02558182358348</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.1599757994499797</v>
+      </c>
+      <c r="K145" t="n">
+        <v>845.1574247710545</v>
+      </c>
+      <c r="L145" t="n">
+        <v>133.4257036590437</v>
       </c>
     </row>
     <row r="146">
@@ -4512,13 +6260,13 @@
         <v>1440</v>
       </c>
       <c r="B146" t="n">
-        <v>208.4919739286372</v>
+        <v>155.7750629825366</v>
       </c>
       <c r="C146" t="n">
         <v>72.39612533663592</v>
       </c>
       <c r="D146" t="n">
-        <v>0.9855230071810517</v>
+        <v>0.9797581052231188</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -4526,13 +6274,25 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0.1742369702990921</v>
+        <v>0.174625589221437</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0001398737106022405</v>
+        <v>0.0001970675080349451</v>
       </c>
       <c r="H146" t="n">
         <v>68.01010442419636</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.159996837533006</v>
+      </c>
+      <c r="K146" t="n">
+        <v>845.1282262733205</v>
+      </c>
+      <c r="L146" t="n">
+        <v>131.775606474175</v>
       </c>
     </row>
     <row r="147">
@@ -4540,13 +6300,13 @@
         <v>1450</v>
       </c>
       <c r="B147" t="n">
-        <v>206.0832654871082</v>
+        <v>154.1748754032167</v>
       </c>
       <c r="C147" t="n">
         <v>72.33734731401205</v>
       </c>
       <c r="D147" t="n">
-        <v>0.9853562283479245</v>
+        <v>0.979506538317747</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -4554,13 +6314,25 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0.1742397553598277</v>
+        <v>0.1746318722626826</v>
       </c>
       <c r="G147" t="n">
-        <v>0.0001415142693302896</v>
+        <v>0.000199571387183513</v>
       </c>
       <c r="H147" t="n">
         <v>67.99463957267183</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.1600187579319912</v>
+      </c>
+      <c r="K147" t="n">
+        <v>845.0978195930583</v>
+      </c>
+      <c r="L147" t="n">
+        <v>130.1223123923076</v>
       </c>
     </row>
     <row r="148">
@@ -4568,13 +6340,13 @@
         <v>1460</v>
       </c>
       <c r="B148" t="n">
-        <v>203.6741857914172</v>
+        <v>152.5744594880649</v>
       </c>
       <c r="C148" t="n">
         <v>72.27860391067418</v>
       </c>
       <c r="D148" t="n">
-        <v>0.9851835104350402</v>
+        <v>0.9792481847725355</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -4582,13 +6354,25 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>0.174243010926103</v>
+        <v>0.1746384067906087</v>
       </c>
       <c r="G148" t="n">
-        <v>0.00014321381837687</v>
+        <v>0.0002021441935881746</v>
       </c>
       <c r="H148" t="n">
         <v>67.97918725467272</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.1600415915151733</v>
+      </c>
+      <c r="K148" t="n">
+        <v>845.0661981679444</v>
+      </c>
+      <c r="L148" t="n">
+        <v>128.4661702456063</v>
       </c>
     </row>
     <row r="149">
@@ -4596,13 +6380,13 @@
         <v>1470</v>
       </c>
       <c r="B149" t="n">
-        <v>201.2647096983073</v>
+        <v>150.9738057832153</v>
       </c>
       <c r="C149" t="n">
         <v>72.21989509808634</v>
       </c>
       <c r="D149" t="n">
-        <v>0.985004599410638</v>
+        <v>0.9789828244761316</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -4610,13 +6394,25 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0.1742467417170086</v>
+        <v>0.1746451942250437</v>
       </c>
       <c r="G149" t="n">
-        <v>0.0001449749221293533</v>
+        <v>0.0002047882318498412</v>
       </c>
       <c r="H149" t="n">
         <v>67.96374745588382</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.1600653704849656</v>
+      </c>
+      <c r="K149" t="n">
+        <v>845.0333554009918</v>
+      </c>
+      <c r="L149" t="n">
+        <v>126.807532606173</v>
       </c>
     </row>
     <row r="150">
@@ -4624,13 +6420,13 @@
         <v>1480</v>
       </c>
       <c r="B150" t="n">
-        <v>198.8548109655742</v>
+        <v>149.3729044986893</v>
       </c>
       <c r="C150" t="n">
         <v>72.16122084774781</v>
       </c>
       <c r="D150" t="n">
-        <v>0.9848192291294653</v>
+        <v>0.9787102285313903</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -4638,13 +6434,25 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>0.1742509524822903</v>
+        <v>0.174652235996012</v>
       </c>
       <c r="G150" t="n">
-        <v>0.000146800270415463</v>
+        <v>0.0002075059022159003</v>
       </c>
       <c r="H150" t="n">
         <v>67.94832016201219</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.1600901284526026</v>
+      </c>
+      <c r="K150" t="n">
+        <v>844.9992846585508</v>
+      </c>
+      <c r="L150" t="n">
+        <v>125.146755395131</v>
       </c>
     </row>
     <row r="151">
@@ -4652,13 +6460,13 @@
         <v>1490</v>
       </c>
       <c r="B151" t="n">
-        <v>196.4444621977879</v>
+        <v>147.7717454935097</v>
       </c>
       <c r="C151" t="n">
         <v>72.10258113119187</v>
       </c>
       <c r="D151" t="n">
-        <v>0.9846271206457428</v>
+        <v>0.97843015880373</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -4666,13 +6474,25 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>0.1742556480041006</v>
+        <v>0.1746595335442156</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0001486926858547416</v>
+        <v>0.0002102997056884896</v>
       </c>
       <c r="H151" t="n">
         <v>67.93290535878688</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.1601159005179591</v>
+      </c>
+      <c r="K151" t="n">
+        <v>844.9639792681915</v>
+      </c>
+      <c r="L151" t="n">
+        <v>123.4841974820728</v>
       </c>
     </row>
     <row r="152">
@@ -4680,13 +6500,13 @@
         <v>1500</v>
       </c>
       <c r="B152" t="n">
-        <v>194.0336347886665</v>
+        <v>146.1703182599599</v>
       </c>
       <c r="C152" t="n">
         <v>72.04397591998622</v>
       </c>
       <c r="D152" t="n">
-        <v>0.9844279814768572</v>
+        <v>0.9781423674402385</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -4694,13 +6514,25 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>0.1742608330988673</v>
+        <v>0.1746670883215416</v>
       </c>
       <c r="G152" t="n">
-        <v>0.0001506551317535623</v>
+        <v>0.0002131722494745652</v>
       </c>
       <c r="H152" t="n">
         <v>67.91750303195899</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.1601427233549709</v>
+      </c>
+      <c r="K152" t="n">
+        <v>844.9274325164639</v>
+      </c>
+      <c r="L152" t="n">
+        <v>121.8202202757058</v>
       </c>
     </row>
     <row r="153">
@@ -4708,13 +6540,13 @@
         <v>1510</v>
       </c>
       <c r="B153" t="n">
-        <v>191.6222988598418</v>
+        <v>144.5686119069287</v>
       </c>
       <c r="C153" t="n">
         <v>71.9854051857327</v>
       </c>
       <c r="D153" t="n">
-        <v>0.984221504813393</v>
+        <v>0.9778465963572598</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -4722,13 +6554,25 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>0.1742665126192856</v>
+        <v>0.1746749017915992</v>
       </c>
       <c r="G153" t="n">
-        <v>0.0001526907205932606</v>
+        <v>0.0002161262528050808</v>
       </c>
       <c r="H153" t="n">
         <v>67.90211316730156</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.1601706353031233</v>
+      </c>
+      <c r="K153" t="n">
+        <v>844.889637646525</v>
+      </c>
+      <c r="L153" t="n">
+        <v>120.1551873065592</v>
       </c>
     </row>
     <row r="154">
@@ -4736,13 +6580,13 @@
         <v>1520</v>
       </c>
       <c r="B154" t="n">
-        <v>189.2104231957334</v>
+        <v>142.9666151422736</v>
       </c>
       <c r="C154" t="n">
         <v>71.92686890006769</v>
       </c>
       <c r="D154" t="n">
-        <v>0.9840073686706508</v>
+        <v>0.9775425766939884</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -4750,13 +6594,25 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>0.1742726914564441</v>
+        <v>0.1746829754302861</v>
       </c>
       <c r="G154" t="n">
-        <v>0.000154802723166275</v>
+        <v>0.0002191645531531183</v>
       </c>
       <c r="H154" t="n">
         <v>67.88673575060965</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.1601996764655177</v>
+      </c>
+      <c r="K154" t="n">
+        <v>844.8505878556231</v>
+      </c>
+      <c r="L154" t="n">
+        <v>118.4894638026449</v>
       </c>
     </row>
     <row r="155">
@@ -4764,13 +6620,13 @@
         <v>1530</v>
       </c>
       <c r="B155" t="n">
-        <v>186.7979751742198</v>
+        <v>141.3643162541327</v>
       </c>
       <c r="C155" t="n">
         <v>71.86836703466145</v>
       </c>
       <c r="D155" t="n">
-        <v>0.9837852349762869</v>
+        <v>0.9772300282293762</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -4778,13 +6634,25 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>0.1742793745420928</v>
+        <v>0.1746913107263872</v>
       </c>
       <c r="G155" t="n">
-        <v>0.0001569945784211455</v>
+        <v>0.0002222901128836035</v>
       </c>
       <c r="H155" t="n">
         <v>67.87137076770016</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.1602298888140807</v>
+      </c>
+      <c r="K155" t="n">
+        <v>844.8102762924335</v>
+      </c>
+      <c r="L155" t="n">
+        <v>116.8234162589907</v>
       </c>
     </row>
     <row r="156">
@@ -4792,13 +6660,13 @@
         <v>1540</v>
       </c>
       <c r="B156" t="n">
-        <v>184.3849206927637</v>
+        <v>139.7617030911074</v>
       </c>
       <c r="C156" t="n">
         <v>71.80989956121869</v>
       </c>
       <c r="D156" t="n">
-        <v>0.9835547485881311</v>
+        <v>0.9769086587594039</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -4806,13 +6674,25 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>0.1742865668510656</v>
+        <v>0.1746999091822086</v>
       </c>
       <c r="G156" t="n">
-        <v>0.0001592699040839204</v>
+        <v>0.0002255060263703378</v>
       </c>
       <c r="H156" t="n">
         <v>67.8560182044119</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.160261316302529</v>
+      </c>
+      <c r="K156" t="n">
+        <v>844.7686960542289</v>
+      </c>
+      <c r="L156" t="n">
+        <v>115.1574120019839</v>
       </c>
     </row>
     <row r="157">
@@ -4820,13 +6700,13 @@
         <v>1550</v>
       </c>
       <c r="B157" t="n">
-        <v>181.9712240896172</v>
+        <v>138.1587630412297</v>
       </c>
       <c r="C157" t="n">
         <v>71.75146645147811</v>
       </c>
       <c r="D157" t="n">
-        <v>0.9833155362355817</v>
+        <v>0.9765781634314987</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -4834,13 +6714,25 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>0.1742942734038672</v>
+        <v>0.1747087723142471</v>
       </c>
       <c r="G157" t="n">
-        <v>0.0001616325081310656</v>
+        <v>0.0002288155276195032</v>
       </c>
       <c r="H157" t="n">
         <v>67.84067804660553</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.1602940049877732</v>
+      </c>
+      <c r="K157" t="n">
+        <v>844.7258401838798</v>
+      </c>
+      <c r="L157" t="n">
+        <v>113.4918187494798</v>
       </c>
     </row>
     <row r="158">
@@ -4848,13 +6740,13 @@
         <v>1560</v>
       </c>
       <c r="B158" t="n">
-        <v>179.556848059693</v>
+        <v>136.5554830096247</v>
       </c>
       <c r="C158" t="n">
         <v>71.69306767721207</v>
       </c>
       <c r="D158" t="n">
-        <v>0.9830672053772596</v>
+        <v>0.9762382240325754</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -4862,13 +6754,25 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>0.1743024992694386</v>
+        <v>0.1747179016539012</v>
       </c>
       <c r="G158" t="n">
-        <v>0.0001640864011974697</v>
+        <v>0.000232221998442604</v>
       </c>
       <c r="H158" t="n">
         <v>67.82535028016333</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.1603280031605042</v>
+      </c>
+      <c r="K158" t="n">
+        <v>844.6817016666664</v>
+      </c>
+      <c r="L158" t="n">
+        <v>111.8270041676421</v>
       </c>
     </row>
     <row r="159">
@@ -4876,13 +6780,13 @@
         <v>1570</v>
       </c>
       <c r="B159" t="n">
-        <v>177.1417535646453</v>
+        <v>134.9518493947668</v>
       </c>
       <c r="C159" t="n">
         <v>71.63470321022726</v>
       </c>
       <c r="D159" t="n">
-        <v>0.9828093429667639</v>
+        <v>0.9758885082268434</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -4890,13 +6794,25 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>0.1743112495681136</v>
+        <v>0.1747272987482231</v>
       </c>
       <c r="G159" t="n">
-        <v>0.0001666358100127442</v>
+        <v>0.0002357289772260316</v>
       </c>
       <c r="H159" t="n">
         <v>67.81003489098944</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.1603633614857883</v>
+      </c>
+      <c r="K159" t="n">
+        <v>844.6362734268927</v>
+      </c>
+      <c r="L159" t="n">
+        <v>110.163335425491</v>
       </c>
     </row>
     <row r="160">
@@ -4904,13 +6820,13 @@
         <v>1580</v>
       </c>
       <c r="B160" t="n">
-        <v>174.7258997366589</v>
+        <v>133.347848063221</v>
       </c>
       <c r="C160" t="n">
         <v>71.57637302236435</v>
       </c>
       <c r="D160" t="n">
-        <v>0.9825415141174542</v>
+        <v>0.9755286687391447</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -4918,13 +6834,25 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>0.1743205294747834</v>
+        <v>0.1747369651607173</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0001692851919698792</v>
+        <v>0.0002393401683491434</v>
       </c>
       <c r="H160" t="n">
         <v>67.79473186500972</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.1604001331545811</v>
+      </c>
+      <c r="K160" t="n">
+        <v>844.589548324285</v>
+      </c>
+      <c r="L160" t="n">
+        <v>108.5011787481355</v>
       </c>
     </row>
     <row r="161">
@@ -4932,13 +6860,13 @@
         <v>1590</v>
       </c>
       <c r="B161" t="n">
-        <v>172.3092437753899</v>
+        <v>131.7434643227493</v>
       </c>
       <c r="C161" t="n">
         <v>71.51807708549734</v>
       </c>
       <c r="D161" t="n">
-        <v>0.9822632606561305</v>
+        <v>0.9751583424791863</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -4946,13 +6874,25 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>0.1743303442222847</v>
+        <v>0.1747469024721879</v>
       </c>
       <c r="G161" t="n">
-        <v>0.0001720392509426152</v>
+        <v>0.0002430594523079754</v>
       </c>
       <c r="H161" t="n">
         <v>67.7794411881715</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.1604383740471641</v>
+      </c>
+      <c r="K161" t="n">
+        <v>844.5415191501605</v>
+      </c>
+      <c r="L161" t="n">
+        <v>106.840898969668</v>
       </c>
     </row>
     <row r="162">
@@ -4960,13 +6900,13 @@
         <v>1600</v>
       </c>
       <c r="B162" t="n">
-        <v>169.8917408374434</v>
+        <v>130.1386828936531</v>
       </c>
       <c r="C162" t="n">
         <v>71.45981537153466</v>
       </c>
       <c r="D162" t="n">
-        <v>0.9819740995542907</v>
+        <v>0.9747771496015527</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -4974,13 +6914,25 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>0.1743406991050301</v>
+        <v>0.1747571122816387</v>
       </c>
       <c r="G162" t="n">
-        <v>0.0001749029544818692</v>
+        <v>0.0002468908966075527</v>
       </c>
       <c r="H162" t="n">
         <v>67.76416284644392</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.1604781429096195</v>
+      </c>
+      <c r="K162" t="n">
+        <v>844.4921786233505</v>
+      </c>
+      <c r="L162" t="n">
+        <v>105.1828590866919</v>
       </c>
     </row>
     <row r="163">
@@ -4988,13 +6940,13 @@
         <v>1610</v>
       </c>
       <c r="B163" t="n">
-        <v>167.4733439177053</v>
+        <v>128.5334878782074</v>
       </c>
       <c r="C163" t="n">
         <v>71.4015878524184</v>
       </c>
       <c r="D163" t="n">
-        <v>0.9816735212243012</v>
+        <v>0.9743846924958924</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -5002,13 +6954,25 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0.1743515994829026</v>
+        <v>0.1747675962072305</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0001778815525374353</v>
+        <v>0.0002508387674922813</v>
       </c>
       <c r="H163" t="n">
         <v>67.74889682581764</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.1605195015445726</v>
+      </c>
+      <c r="K163" t="n">
+        <v>844.4415193858506</v>
+      </c>
+      <c r="L163" t="n">
+        <v>103.5274198134399</v>
       </c>
     </row>
     <row r="164">
@@ -5016,13 +6980,13 @@
         <v>1620</v>
       </c>
       <c r="B164" t="n">
-        <v>165.0540037217723</v>
+        <v>126.9278627280317</v>
       </c>
       <c r="C164" t="n">
         <v>71.34339450012396</v>
       </c>
       <c r="D164" t="n">
-        <v>0.9813609876662808</v>
+        <v>0.973980554701088</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -5030,13 +6994,25 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>0.1743630507854345</v>
+        <v>0.1747783558872996</v>
       </c>
       <c r="G164" t="n">
-        <v>0.0001809805978692788</v>
+        <v>0.0002549075425911925</v>
       </c>
       <c r="H164" t="n">
         <v>67.73364311230473</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.1605625150175741</v>
+      </c>
+      <c r="K164" t="n">
+        <v>844.3895339981891</v>
+      </c>
+      <c r="L164" t="n">
+        <v>101.8749391394294</v>
       </c>
     </row>
     <row r="165">
@@ -5044,13 +7020,13 @@
         <v>1630</v>
       </c>
       <c r="B165" t="n">
-        <v>162.6336685286375</v>
+        <v>125.3217902092253</v>
       </c>
       <c r="C165" t="n">
         <v>71.28523528666051</v>
       </c>
       <c r="D165" t="n">
-        <v>0.9810359304497579</v>
+        <v>0.9735642997365861</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -5058,13 +7034,25 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>0.1743750585162975</v>
+        <v>0.1747893929814423</v>
       </c>
       <c r="G165" t="n">
-        <v>0.00018420596833341</v>
+        <v>0.0002591019245629833</v>
       </c>
       <c r="H165" t="n">
         <v>67.71840169193885</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.1606072518806397</v>
+      </c>
+      <c r="K165" t="n">
+        <v>844.3362149344808</v>
+      </c>
+      <c r="L165" t="n">
+        <v>100.2257718905777</v>
       </c>
     </row>
     <row r="166">
@@ -5072,13 +7060,13 @@
         <v>1640</v>
       </c>
       <c r="B166" t="n">
-        <v>160.2122840426918</v>
+        <v>123.7152523650789</v>
       </c>
       <c r="C166" t="n">
         <v>71.22711018407119</v>
       </c>
       <c r="D166" t="n">
-        <v>0.9806977485121695</v>
+        <v>0.9731354698433596</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -5086,13 +7074,25 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>0.1743876282581319</v>
+        <v>0.1748007091716714</v>
       </c>
       <c r="G166" t="n">
-        <v>0.000187563891250958</v>
+        <v>0.0002634268558349577</v>
       </c>
       <c r="H166" t="n">
         <v>67.70317255077508</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.1606537844146408</v>
+      </c>
+      <c r="K166" t="n">
+        <v>844.2815545771474</v>
+      </c>
+      <c r="L166" t="n">
+        <v>98.5802692946734</v>
       </c>
     </row>
     <row r="167">
@@ -5100,13 +7100,13 @@
         <v>1650</v>
       </c>
       <c r="B167" t="n">
-        <v>157.7897932339966</v>
+        <v>122.1082304761546</v>
       </c>
       <c r="C167" t="n">
         <v>71.16901916443237</v>
       </c>
       <c r="D167" t="n">
-        <v>0.980345805753997</v>
+        <v>0.9726935846261658</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -5114,13 +7114,25 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>0.1744007656777441</v>
+        <v>0.17481230616365</v>
       </c>
       <c r="G167" t="n">
-        <v>0.0001910609700961647</v>
+        <v>0.0002678875345402615</v>
       </c>
       <c r="H167" t="n">
         <v>67.68795567488991</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.1607021888924287</v>
+      </c>
+      <c r="K167" t="n">
+        <v>844.2255452112682</v>
+      </c>
+      <c r="L167" t="n">
+        <v>96.93877855207309</v>
       </c>
     </row>
     <row r="168">
@@ -5128,13 +7140,13 @@
         <v>1660</v>
       </c>
       <c r="B168" t="n">
-        <v>155.3661361656547</v>
+        <v>120.5007050175066</v>
       </c>
       <c r="C168" t="n">
         <v>71.11096219985382</v>
       </c>
       <c r="D168" t="n">
-        <v>0.9799794284077364</v>
+        <v>0.9722381395878822</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -5142,13 +7154,25 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>0.1744144765317076</v>
+        <v>0.1748241856880088</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0001947042137701431</v>
+        <v>0.0002724894317693845</v>
       </c>
       <c r="H168" t="n">
         <v>67.67275105038114</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.1607525458647993</v>
+      </c>
+      <c r="K168" t="n">
+        <v>844.1681790185462</v>
+      </c>
+      <c r="L168" t="n">
+        <v>95.30164241245612</v>
       </c>
     </row>
     <row r="169">
@@ -5156,13 +7180,13 @@
         <v>1670</v>
       </c>
       <c r="B169" t="n">
-        <v>152.9412498069686</v>
+        <v>118.8926556127901</v>
       </c>
       <c r="C169" t="n">
         <v>71.05293926247884</v>
       </c>
       <c r="D169" t="n">
-        <v>0.9795979021549051</v>
+        <v>0.9717686045456945</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -5170,13 +7194,25 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>0.1744287666724069</v>
+        <v>0.174836349501755</v>
       </c>
       <c r="G169" t="n">
-        <v>0.000198501068763088</v>
+        <v>0.0002772383102649565</v>
       </c>
       <c r="H169" t="n">
         <v>67.65755866336792</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.1608049404716466</v>
+      </c>
+      <c r="K169" t="n">
+        <v>844.1094480708381</v>
+      </c>
+      <c r="L169" t="n">
+        <v>93.66919875842906</v>
       </c>
     </row>
     <row r="170">
@@ -5184,13 +7220,13 @@
         <v>1680</v>
       </c>
       <c r="B170" t="n">
-        <v>150.5150678309152</v>
+        <v>117.2840609849807</v>
       </c>
       <c r="C170" t="n">
         <v>70.99495032448408</v>
       </c>
       <c r="D170" t="n">
-        <v>0.9792004689618601</v>
+        <v>0.9712844219177836</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -5198,13 +7234,25 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>0.1744436420545648</v>
+        <v>0.1748487993897795</v>
       </c>
       <c r="G170" t="n">
-        <v>0.0002024594545489912</v>
+        <v>0.0002821402447035942</v>
       </c>
       <c r="H170" t="n">
         <v>67.64237849999063</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.1608594627809392</v>
+      </c>
+      <c r="K170" t="n">
+        <v>844.0493443232252</v>
+      </c>
+      <c r="L170" t="n">
+        <v>92.04178019672791</v>
       </c>
     </row>
     <row r="171">
@@ -5212,13 +7260,13 @@
         <v>1690</v>
       </c>
       <c r="B171" t="n">
-        <v>148.0875203942804</v>
+        <v>115.674898903396</v>
       </c>
       <c r="C171" t="n">
         <v>70.93699535808003</v>
       </c>
       <c r="D171" t="n">
-        <v>0.978786323601235</v>
+        <v>0.9707850048678942</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -5226,13 +7274,25 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>0.1744591087423019</v>
+        <v>0.1748615371664717</v>
       </c>
       <c r="G171" t="n">
-        <v>0.0002065878026047534</v>
+        <v>0.0002872016437252108</v>
       </c>
       <c r="H171" t="n">
         <v>67.62721054641109</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.160916208158469</v>
+      </c>
+      <c r="K171" t="n">
+        <v>843.9878596065781</v>
+      </c>
+      <c r="L171" t="n">
+        <v>90.41971365771708</v>
       </c>
     </row>
     <row r="172">
@@ -5240,13 +7300,13 @@
         <v>1700</v>
       </c>
       <c r="B172" t="n">
-        <v>145.6585338985905</v>
+        <v>114.0651461266791</v>
       </c>
       <c r="C172" t="n">
         <v>70.87907433550947</v>
       </c>
       <c r="D172" t="n">
-        <v>0.9783546098212306</v>
+        <v>0.9702697352937278</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -5254,13 +7314,25 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>0.174475172916783</v>
+        <v>0.1748745646774509</v>
       </c>
       <c r="G172" t="n">
-        <v>0.000210895099501085</v>
+        <v>0.0002924292738890804</v>
       </c>
       <c r="H172" t="n">
         <v>67.61205478881199</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.1609752776716884</v>
+      </c>
+      <c r="K172" t="n">
+        <v>843.9249856195711</v>
+      </c>
+      <c r="L172" t="n">
+        <v>88.80332000382856</v>
       </c>
     </row>
     <row r="173">
@@ -5268,13 +7340,13 @@
         <v>1710</v>
       </c>
       <c r="B173" t="n">
-        <v>143.2280307297324</v>
+        <v>112.4547783413655</v>
       </c>
       <c r="C173" t="n">
         <v>70.82118722904909</v>
       </c>
       <c r="D173" t="n">
-        <v>0.9779044161196884</v>
+        <v>0.9697379616434925</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -5282,13 +7354,25 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>0.1744918408845081</v>
+        <v>0.1748878838014256</v>
       </c>
       <c r="G173" t="n">
-        <v>0.0002153909345770889</v>
+        <v>0.0002978302857573493</v>
       </c>
       <c r="H173" t="n">
         <v>67.59691121339736</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.1610367785313646</v>
+      </c>
+      <c r="K173" t="n">
+        <v>843.8607139201002</v>
+      </c>
+      <c r="L173" t="n">
+        <v>87.19291364752834</v>
       </c>
     </row>
     <row r="174">
@@ -5296,13 +7380,13 @@
         <v>1720</v>
       </c>
       <c r="B174" t="n">
-        <v>140.795928973882</v>
+        <v>110.843770095613</v>
       </c>
       <c r="C174" t="n">
         <v>70.76333401100862</v>
       </c>
       <c r="D174" t="n">
-        <v>0.9774347710737225</v>
+        <v>0.969188996543104</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -5310,13 +7394,25 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>0.1745091190863185</v>
+        <v>0.1749014964521912</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0002200855527856427</v>
+        <v>0.0003034122423310556</v>
       </c>
       <c r="H174" t="n">
         <v>67.5817798063924</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.161100824575253</v>
+      </c>
+      <c r="K174" t="n">
+        <v>843.7950359160443</v>
+      </c>
+      <c r="L174" t="n">
+        <v>85.58880217932865</v>
       </c>
     </row>
     <row r="175">
@@ -5324,13 +7420,13 @@
         <v>1730</v>
       </c>
       <c r="B175" t="n">
-        <v>138.3621421070356</v>
+        <v>109.2320947276276</v>
       </c>
       <c r="C175" t="n">
         <v>70.70551465373092</v>
       </c>
       <c r="D175" t="n">
-        <v>0.9769446381685067</v>
+        <v>0.9686221142144564</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -5338,13 +7434,25 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>0.1745270141071922</v>
+        <v>0.1749154045807802</v>
       </c>
       <c r="G175" t="n">
-        <v>0.0002249899133846024</v>
+        <v>0.0003091831500914361</v>
       </c>
       <c r="H175" t="n">
         <v>67.56666055404327</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.1611675367985366</v>
+      </c>
+      <c r="K175" t="n">
+        <v>843.7279428553135</v>
+      </c>
+      <c r="L175" t="n">
+        <v>83.9912860063021</v>
       </c>
     </row>
     <row r="176">
@@ -5352,13 +7460,13 @@
         <v>1740</v>
       </c>
       <c r="B176" t="n">
-        <v>135.926578655073</v>
+        <v>107.6197242882636</v>
       </c>
       <c r="C176" t="n">
         <v>70.64772912959177</v>
       </c>
       <c r="D176" t="n">
-        <v>0.9764329100604521</v>
+        <v>0.968036547662819</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -5366,13 +7474,25 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>0.1745455326869172</v>
+        <v>0.1749296101777787</v>
       </c>
       <c r="G176" t="n">
-        <v>0.0002301157552519216</v>
+        <v>0.0003151514929309653</v>
       </c>
       <c r="H176" t="n">
         <v>67.55155344261715</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.1612370439363996</v>
+      </c>
+      <c r="K176" t="n">
+        <v>843.6594258151141</v>
+      </c>
+      <c r="L176" t="n">
+        <v>82.40065800147663</v>
       </c>
     </row>
     <row r="177">
@@ -5380,13 +7500,13 @@
         <v>1750</v>
       </c>
       <c r="B177" t="n">
-        <v>133.4891418208483</v>
+        <v>106.0066294572154</v>
       </c>
       <c r="C177" t="n">
         <v>70.58997741099995</v>
       </c>
       <c r="D177" t="n">
-        <v>0.9758984022001937</v>
+        <v>0.9674314856087269</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -5394,13 +7514,25 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>0.1745646817317394</v>
+        <v>0.174944115275825</v>
       </c>
       <c r="G177" t="n">
-        <v>0.0002354756697239757</v>
+        <v>0.0003213262692947879</v>
       </c>
       <c r="H177" t="n">
         <v>67.53645845840227</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.1613094831048188</v>
+      </c>
+      <c r="K177" t="n">
+        <v>843.5894756903567</v>
+      </c>
+      <c r="L177" t="n">
+        <v>80.81720316441137</v>
       </c>
     </row>
     <row r="178">
@@ -5408,13 +7540,13 @@
         <v>1760</v>
       </c>
       <c r="B178" t="n">
-        <v>131.0497290743079</v>
+        <v>104.3927794521506</v>
       </c>
       <c r="C178" t="n">
         <v>70.53225947039732</v>
       </c>
       <c r="D178" t="n">
-        <v>0.9753398457292978</v>
+        <v>0.9668060691366682</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -5422,13 +7554,25 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>0.174584468327098</v>
+        <v>0.1749589219523087</v>
       </c>
       <c r="G178" t="n">
-        <v>0.0002410831819993141</v>
+        <v>0.0003277170328946992</v>
       </c>
       <c r="H178" t="n">
         <v>67.52137558770778</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.1613850005064847</v>
+      </c>
+      <c r="K178" t="n">
+        <v>843.5180831811198</v>
+      </c>
+      <c r="L178" t="n">
+        <v>79.24119829317327</v>
       </c>
     </row>
     <row r="179">
@@ -5436,13 +7580,13 @@
         <v>1770</v>
       </c>
       <c r="B179" t="n">
-        <v>128.6082317010494</v>
+        <v>102.7781419300534</v>
       </c>
       <c r="C179" t="n">
         <v>70.47457528025882</v>
       </c>
       <c r="D179" t="n">
-        <v>0.9747558795510303</v>
+        <v>0.9661593880293567</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -5450,13 +7594,25 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>0.1746048997515743</v>
+        <v>0.1749740323322899</v>
       </c>
       <c r="G179" t="n">
-        <v>0.0002469528423191947</v>
+        <v>0.0003343339374055039</v>
       </c>
       <c r="H179" t="n">
         <v>67.50630481686383</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.1614637522097165</v>
+      </c>
+      <c r="K179" t="n">
+        <v>843.4452387790793</v>
+      </c>
+      <c r="L179" t="n">
+        <v>77.67291166784116</v>
       </c>
     </row>
     <row r="180">
@@ -5464,13 +7620,13 @@
         <v>1780</v>
       </c>
       <c r="B180" t="n">
-        <v>126.1645343040551</v>
+        <v>101.16268287996</v>
       </c>
       <c r="C180" t="n">
         <v>70.41692481309212</v>
       </c>
       <c r="D180" t="n">
-        <v>0.974145041459496</v>
+        <v>0.9654904767523734</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -5478,13 +7634,25 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>0.1746259834922012</v>
+        <v>0.1749894485916609</v>
       </c>
       <c r="G180" t="n">
-        <v>0.0002531003283370537</v>
+        <v>0.0003411877856084718</v>
       </c>
       <c r="H180" t="n">
         <v>67.49124613222136</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.1615459050093402</v>
+      </c>
+      <c r="K180" t="n">
+        <v>843.3709327527963</v>
+      </c>
+      <c r="L180" t="n">
+        <v>76.1126027455727</v>
       </c>
     </row>
     <row r="181">
@@ -5492,13 +7660,13 @@
         <v>1790</v>
       </c>
       <c r="B181" t="n">
-        <v>123.7185142525303</v>
+        <v>99.54636650616219</v>
       </c>
       <c r="C181" t="n">
         <v>70.35930804143743</v>
       </c>
       <c r="D181" t="n">
-        <v>0.9735057581924448</v>
+        <v>0.9647983100493378</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -5506,13 +7674,25 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>0.1746477272612986</v>
+        <v>0.1750051729605758</v>
       </c>
       <c r="G181" t="n">
-        <v>0.0002595425603282746</v>
+        <v>0.0003482900835099317</v>
       </c>
       <c r="H181" t="n">
         <v>67.47619952015212</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.1616316373797836</v>
+      </c>
+      <c r="K181" t="n">
+        <v>843.2951551317448</v>
+      </c>
+      <c r="L181" t="n">
+        <v>74.56052186716573</v>
       </c>
     </row>
     <row r="182">
@@ -5520,13 +7700,13 @@
         <v>1800</v>
       </c>
       <c r="B182" t="n">
-        <v>121.2700410708336</v>
+        <v>97.92915510084086</v>
       </c>
       <c r="C182" t="n">
         <v>70.30172493786802</v>
       </c>
       <c r="D182" t="n">
-        <v>0.9728363342504167</v>
+        <v>0.9640817981024671</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -5534,13 +7714,25 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>0.174670139015028</v>
+        <v>0.1750212077271751</v>
       </c>
       <c r="G182" t="n">
-        <v>0.0002662978311776454</v>
+        <v>0.0003556531000363153</v>
       </c>
       <c r="H182" t="n">
         <v>67.46116496704872</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.1617211405321323</v>
+      </c>
+      <c r="K182" t="n">
+        <v>843.2178956889464</v>
+      </c>
+      <c r="L182" t="n">
+        <v>73.01690997493797</v>
       </c>
     </row>
     <row r="183">
@@ -5548,13 +7740,13 @@
         <v>1810</v>
       </c>
       <c r="B183" t="n">
-        <v>118.8189757593693</v>
+        <v>96.31100890495451</v>
       </c>
       <c r="C183" t="n">
         <v>70.24417547498979</v>
       </c>
       <c r="D183" t="n">
-        <v>0.9721349392978846</v>
+        <v>0.9633397812072635</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -5562,13 +7754,25 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>0.1746932269738856</v>
+        <v>0.1750375552416387</v>
       </c>
       <c r="G183" t="n">
-        <v>0.0002733859534251721</v>
+        <v>0.0003632899329919025</v>
       </c>
       <c r="H183" t="n">
         <v>67.44614245932448</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.1618146195886356</v>
+      </c>
+      <c r="K183" t="n">
+        <v>843.1391439220657</v>
+      </c>
+      <c r="L183" t="n">
+        <v>71.48199834163327</v>
       </c>
     </row>
     <row r="184">
@@ -5576,13 +7780,13 @@
         <v>1820</v>
       </c>
       <c r="B184" t="n">
-        <v>116.3651700379855</v>
+        <v>94.6918859560526</v>
       </c>
       <c r="C184" t="n">
         <v>70.18665962544128</v>
       </c>
       <c r="D184" t="n">
-        <v>0.9713995939296595</v>
+        <v>0.9625710239029874</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -5590,13 +7794,25 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>0.1747169996453924</v>
+        <v>0.1750542179206015</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0002808284260645461</v>
+        <v>0.0003712145820642838</v>
       </c>
       <c r="H184" t="n">
         <v>67.43113198341342</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.1619122948901911</v>
+      </c>
+      <c r="K184" t="n">
+        <v>843.0588890327919</v>
+      </c>
+      <c r="L184" t="n">
+        <v>69.95600830993813</v>
       </c>
     </row>
     <row r="185">
@@ -5604,13 +7820,13 @@
         <v>1830</v>
       </c>
       <c r="B185" t="n">
-        <v>113.9084655008423</v>
+        <v>93.07174192150535</v>
       </c>
       <c r="C185" t="n">
         <v>70.12917736189365</v>
       </c>
       <c r="D185" t="n">
-        <v>0.9706281535468553</v>
+        <v>0.9617742084923687</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -5618,13 +7834,25 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>0.1747414658492754</v>
+        <v>0.1750711982519729</v>
       </c>
       <c r="G185" t="n">
-        <v>0.0002886486242890245</v>
+        <v>0.0003794420297776866</v>
       </c>
       <c r="H185" t="n">
         <v>67.41613352577031</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.1620144034547246</v>
+      </c>
+      <c r="K185" t="n">
+        <v>842.9771199043216</v>
+      </c>
+      <c r="L185" t="n">
+        <v>68.43915104205558</v>
       </c>
     </row>
     <row r="186">
@@ -5632,13 +7860,13 @@
         <v>1840</v>
       </c>
       <c r="B186" t="n">
-        <v>111.4486926698257</v>
+        <v>91.45052991543329</v>
       </c>
       <c r="C186" t="n">
         <v>70.07172865705047</v>
       </c>
       <c r="D186" t="n">
-        <v>0.969818290039602</v>
+        <v>0.9609479278744832</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -5646,13 +7874,25 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>0.1747666347454877</v>
+        <v>0.1750884988002056</v>
       </c>
       <c r="G186" t="n">
-        <v>0.0002968720159876051</v>
+        <v>0.0003879883314288851</v>
       </c>
       <c r="H186" t="n">
         <v>67.40114707287042</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.1621212006072054</v>
+      </c>
+      <c r="K186" t="n">
+        <v>842.8938250767229</v>
+      </c>
+      <c r="L186" t="n">
+        <v>66.93162727863911</v>
       </c>
     </row>
     <row r="187">
@@ -5660,13 +7900,13 @@
         <v>1850</v>
       </c>
       <c r="B187" t="n">
-        <v>108.9856699313106</v>
+        <v>89.82820029737975</v>
       </c>
       <c r="C187" t="n">
         <v>70.01431348364804</v>
       </c>
       <c r="D187" t="n">
-        <v>0.9689674709165343</v>
+        <v>0.9600906776036016</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -5674,13 +7914,25 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>0.1747925158654716</v>
+        <v>0.1751061222120672</v>
       </c>
       <c r="G187" t="n">
-        <v>0.0003055264095366806</v>
+        <v>0.0003968707151981752</v>
       </c>
       <c r="H187" t="n">
         <v>67.38617261120976</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.1622329618053531</v>
+      </c>
+      <c r="K187" t="n">
+        <v>842.8089927199369</v>
+      </c>
+      <c r="L187" t="n">
+        <v>65.43362710622758</v>
       </c>
     </row>
     <row r="188">
@@ -5688,13 +7940,13 @@
         <v>1860</v>
       </c>
       <c r="B188" t="n">
-        <v>106.519202338336</v>
+        <v>88.2047004504894</v>
       </c>
       <c r="C188" t="n">
         <v>69.95693181445506</v>
       </c>
       <c r="D188" t="n">
-        <v>0.9680729354513924</v>
+        <v>0.9592008470738369</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -5702,13 +7954,25 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>0.1748191191471386</v>
+        <v>0.1751240712229709</v>
       </c>
       <c r="G188" t="n">
-        <v>0.0003146422383427209</v>
+        <v>0.000406107693813399</v>
       </c>
       <c r="H188" t="n">
         <v>67.37121012730482</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.1623499846890349</v>
+      </c>
+      <c r="K188" t="n">
+        <v>842.7226106041348</v>
+      </c>
+      <c r="L188" t="n">
+        <v>63.94532973214614</v>
       </c>
     </row>
     <row r="189">
@@ -5716,13 +7980,13 @@
         <v>1870</v>
       </c>
       <c r="B189" t="n">
-        <v>104.0490802569357</v>
+        <v>86.57997453662917</v>
       </c>
       <c r="C189" t="n">
         <v>69.8995836222723</v>
       </c>
       <c r="D189" t="n">
-        <v>0.9671316673316958</v>
+        <v>0.9582767097142044</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -5730,13 +7994,25 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>0.1748464549741244</v>
+        <v>0.1751423486639371</v>
       </c>
       <c r="G189" t="n">
-        <v>0.0003242528887135924</v>
+        <v>0.0004157191893637754</v>
       </c>
       <c r="H189" t="n">
         <v>67.35625960769256</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.1624725913860246</v>
+      </c>
+      <c r="K189" t="n">
+        <v>842.634666067113</v>
+      </c>
+      <c r="L189" t="n">
+        <v>62.46690326564483</v>
       </c>
     </row>
     <row r="190">
@@ -5744,13 +8020,13 @@
         <v>1880</v>
       </c>
       <c r="B190" t="n">
-        <v>101.5750778313154</v>
+        <v>84.95396322550546</v>
       </c>
       <c r="C190" t="n">
         <v>69.84226887993327</v>
       </c>
       <c r="D190" t="n">
-        <v>0.9661403631893649</v>
+        <v>0.9573164120608134</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -5758,13 +8034,25 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>0.1748745342199821</v>
+        <v>0.1751609574692599</v>
       </c>
       <c r="G190" t="n">
-        <v>0.000334395079026299</v>
+        <v>0.0004257266731191779</v>
       </c>
       <c r="H190" t="n">
         <v>67.3413210389305</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.1626011311123703</v>
+      </c>
+      <c r="K190" t="n">
+        <v>842.5451459783578</v>
+      </c>
+      <c r="L190" t="n">
+        <v>60.9985045038265</v>
       </c>
     </row>
     <row r="191">
@@ -5772,13 +8060,13 @@
         <v>1890</v>
       </c>
       <c r="B191" t="n">
-        <v>99.09695123761263</v>
+        <v>83.32660339438257</v>
       </c>
       <c r="C191" t="n">
         <v>69.78498756030365</v>
       </c>
       <c r="D191" t="n">
-        <v>0.9650953962631038</v>
+        <v>0.9563179615518176</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -5786,13 +8074,25 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0.1749033682980974</v>
+        <v>0.1751799006849698</v>
       </c>
       <c r="G191" t="n">
-        <v>0.0003451092998907907</v>
+        <v>0.0004361533225178349</v>
       </c>
       <c r="H191" t="n">
         <v>67.32639440759655</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.1627359831122874</v>
+      </c>
+      <c r="K191" t="n">
+        <v>842.4540366993645</v>
+      </c>
+      <c r="L191" t="n">
+        <v>59.54027872067248</v>
       </c>
     </row>
     <row r="192">
@@ -5800,13 +8100,13 @@
         <v>1900</v>
       </c>
       <c r="B192" t="n">
-        <v>96.61443668986803</v>
+        <v>81.6978277944776</v>
       </c>
       <c r="C192" t="n">
         <v>69.7277396362814</v>
       </c>
       <c r="D192" t="n">
-        <v>0.9639927742805299</v>
+        <v>0.955279212865798</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -5814,13 +8114,25 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>0.1749329692182636</v>
+        <v>0.1751991814781945</v>
       </c>
       <c r="G192" t="n">
-        <v>0.0003564403271794852</v>
+        <v>0.0004470241978515731</v>
       </c>
       <c r="H192" t="n">
         <v>67.31147970028907</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.1628775599904977</v>
+      </c>
+      <c r="K192" t="n">
+        <v>842.3613240397168</v>
+      </c>
+      <c r="L192" t="n">
+        <v>58.09235945719812</v>
       </c>
     </row>
     <row r="193">
@@ -5828,13 +8140,13 @@
         <v>1910</v>
       </c>
       <c r="B193" t="n">
-        <v>94.12724815427508</v>
+        <v>80.06756467948171</v>
       </c>
       <c r="C193" t="n">
         <v>69.67052508079655</v>
       </c>
       <c r="D193" t="n">
-        <v>0.9628280904454914</v>
+        <v>0.9541978525946126</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -5842,13 +8154,25 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>0.1749633496510408</v>
+        <v>0.1752188031475357</v>
       </c>
       <c r="G193" t="n">
-        <v>0.0003684378225277536</v>
+        <v>0.0004583664416155443</v>
       </c>
       <c r="H193" t="n">
         <v>67.29657690362673</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.1630263114995896</v>
+      </c>
+      <c r="K193" t="n">
+        <v>842.2669932083836</v>
+      </c>
+      <c r="L193" t="n">
+        <v>56.65486831045221</v>
       </c>
     </row>
     <row r="194">
@@ -5856,13 +8180,13 @@
         <v>1920</v>
       </c>
       <c r="B194" t="n">
-        <v>91.63507471835126</v>
+        <v>78.43573739091522</v>
       </c>
       <c r="C194" t="n">
         <v>69.61334386681142</v>
       </c>
       <c r="D194" t="n">
-        <v>0.9615964661609561</v>
+        <v>0.9530713820064558</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -5870,13 +8194,25 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>0.1749945230012566</v>
+        <v>0.1752387691345999</v>
       </c>
       <c r="G194" t="n">
-        <v>0.000381157039381529</v>
+        <v>0.0004702095040148419</v>
       </c>
       <c r="H194" t="n">
         <v>67.28168600424851</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.1631827288566478</v>
+      </c>
+      <c r="K194" t="n">
+        <v>842.1710287595688</v>
+      </c>
+      <c r="L194" t="n">
+        <v>55.22791471871133</v>
       </c>
     </row>
     <row r="195">
@@ -5884,13 +8220,13 @@
         <v>1930</v>
       </c>
       <c r="B195" t="n">
-        <v>89.13757754985554</v>
+        <v>76.80226389413926</v>
       </c>
       <c r="C195" t="n">
         <v>69.55619596732026</v>
       </c>
       <c r="D195" t="n">
-        <v>0.9602924837945848</v>
+        <v>0.9518970976126482</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -5898,13 +8234,25 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>0.1750265034922898</v>
+        <v>0.1752590830368417</v>
       </c>
       <c r="G195" t="n">
-        <v>0.0003946596571020965</v>
+        <v>0.0004825853987536222</v>
       </c>
       <c r="H195" t="n">
         <v>67.26680698881373</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.1633473496775971</v>
+      </c>
+      <c r="K195" t="n">
+        <v>842.0734145323761</v>
+      </c>
+      <c r="L195" t="n">
+        <v>53.81159573979822</v>
       </c>
     </row>
     <row r="196">
@@ -5912,13 +8260,13 @@
         <v>1940</v>
       </c>
       <c r="B196" t="n">
-        <v>86.6343863653518</v>
+        <v>75.16705625778906</v>
       </c>
       <c r="C196" t="n">
         <v>69.49908135534952</v>
       </c>
       <c r="D196" t="n">
-        <v>0.9589101073815522</v>
+        <v>0.9506720692010073</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -5926,13 +8274,25 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>0.1750593062631424</v>
+        <v>0.1752797486219064</v>
       </c>
       <c r="G196" t="n">
-        <v>0.0004090147713432398</v>
+        <v>0.0004955289939985137</v>
       </c>
       <c r="H196" t="n">
         <v>67.25193984400187</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.1635207636350195</v>
+      </c>
+      <c r="K196" t="n">
+        <v>841.9741335834044</v>
+      </c>
+      <c r="L196" t="n">
+        <v>52.40599581895937</v>
       </c>
     </row>
     <row r="197">
@@ -5940,13 +8300,13 @@
         <v>1950</v>
       </c>
       <c r="B197" t="n">
-        <v>84.12509530933507</v>
+        <v>73.53002006812464</v>
       </c>
       <c r="C197" t="n">
         <v>69.44200000395756</v>
       </c>
       <c r="D197" t="n">
-        <v>0.9574425886288453</v>
+        <v>0.9493931149375495</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -5954,13 +8314,25 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>0.175092947480759</v>
+        <v>0.1753007698436879</v>
       </c>
       <c r="G197" t="n">
-        <v>0.0004243000763131296</v>
+        <v>0.000509078344339199</v>
       </c>
       <c r="H197" t="n">
         <v>67.2370845565127</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.1637036189664404</v>
+      </c>
+      <c r="K197" t="n">
+        <v>841.8731681112499</v>
+      </c>
+      <c r="L197" t="n">
+        <v>51.01118654215686</v>
       </c>
     </row>
     <row r="198">
@@ -5968,13 +8340,13 @@
         <v>1960</v>
       </c>
       <c r="B198" t="n">
-        <v>81.60925812050229</v>
+        <v>71.89105376826225</v>
       </c>
       <c r="C198" t="n">
         <v>69.38495188623472</v>
       </c>
       <c r="D198" t="n">
-        <v>0.9558823548982354</v>
+        <v>0.948056773064339</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -5982,13 +8354,25 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>0.175127444470627</v>
+        <v>0.1753221508603587</v>
       </c>
       <c r="G198" t="n">
-        <v>0.0004406032842029285</v>
+        <v>0.0005232750707056996</v>
       </c>
       <c r="H198" t="n">
         <v>67.22224111306609</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.1638966299862387</v>
+      </c>
+      <c r="K198" t="n">
+        <v>841.7704993717107</v>
+      </c>
+      <c r="L198" t="n">
+        <v>49.62722636994216</v>
       </c>
     </row>
     <row r="199">
@@ -5996,13 +8380,13 @@
         <v>1970</v>
       </c>
       <c r="B199" t="n">
-        <v>79.08638243029868</v>
+        <v>70.25004791039505</v>
       </c>
       <c r="C199" t="n">
         <v>69.32793697530303</v>
       </c>
       <c r="D199" t="n">
-        <v>0.9542208749477193</v>
+        <v>0.9466592696313758</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -6010,13 +8394,25 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>0.1751628158694346</v>
+        <v>0.1753438960546716</v>
       </c>
       <c r="G199" t="n">
-        <v>0.000458023839814379</v>
+        <v>0.0005381647965961012</v>
       </c>
       <c r="H199" t="n">
         <v>67.20740950040208</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.164100585786721</v>
+      </c>
+      <c r="K199" t="n">
+        <v>841.6661075822753</v>
+      </c>
+      <c r="L199" t="n">
+        <v>48.25416034625734</v>
       </c>
     </row>
     <row r="200">
@@ -6024,13 +8420,13 @@
         <v>1980</v>
       </c>
       <c r="B200" t="n">
-        <v>76.55592299785954</v>
+        <v>68.60688430685295</v>
       </c>
       <c r="C200" t="n">
         <v>69.27095524431684</v>
       </c>
       <c r="D200" t="n">
-        <v>0.9524484970286782</v>
+        <v>0.9451964815905791</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -6038,13 +8434,25 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>0.1751990818045123</v>
+        <v>0.1753660100568903</v>
       </c>
       <c r="G200" t="n">
-        <v>0.0004766750053876533</v>
+        <v>0.0005537976506871242</v>
       </c>
       <c r="H200" t="n">
         <v>67.19258970528077</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.1643163603542096</v>
+      </c>
+      <c r="K200" t="n">
+        <v>841.5599718142073</v>
+      </c>
+      <c r="L200" t="n">
+        <v>46.89201977552379</v>
       </c>
     </row>
     <row r="201">
@@ -6052,13 +8460,13 @@
         <v>1990</v>
       </c>
       <c r="B201" t="n">
-        <v>74.0172736314841</v>
+        <v>66.96143506308856</v>
       </c>
       <c r="C201" t="n">
         <v>69.21400666646184</v>
       </c>
       <c r="D201" t="n">
-        <v>0.9505542523629964</v>
+        <v>0.943663894445073</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -6066,13 +8474,25 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>0.1752362641060282</v>
+        <v>0.1753884977707713</v>
       </c>
       <c r="G201" t="n">
-        <v>0.0004966864134396508</v>
+        <v>0.0005702288480297149</v>
       </c>
       <c r="H201" t="n">
         <v>67.17778171448234</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.1645449243764395</v>
+      </c>
+      <c r="K201" t="n">
+        <v>841.4520698702349</v>
+      </c>
+      <c r="L201" t="n">
+        <v>45.54082186018411</v>
       </c>
     </row>
     <row r="202">
@@ -6080,13 +8500,13 @@
         <v>2000</v>
       </c>
       <c r="B202" t="n">
-        <v>71.46975747499206</v>
+        <v>65.3126907262741</v>
       </c>
       <c r="C202" t="n">
         <v>69.1570912149557</v>
       </c>
       <c r="D202" t="n">
-        <v>0.9485256149107558</v>
+        <v>0.9415715716055981</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -6094,13 +8514,25 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>0.1752743865595377</v>
+        <v>0.1753693137137037</v>
       </c>
       <c r="G202" t="n">
-        <v>0.0005182072164097329</v>
+        <v>0.000587519364685652</v>
       </c>
       <c r="H202" t="n">
         <v>67.16298551480699</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0.004348101520824903</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.1648744336814455</v>
+      </c>
+      <c r="K202" t="n">
+        <v>841.4601304233734</v>
+      </c>
+      <c r="L202" t="n">
+        <v>44.20056928941159</v>
       </c>
     </row>
     <row r="203">
@@ -6108,13 +8540,13 @@
         <v>2010</v>
       </c>
       <c r="B203" t="n">
-        <v>68.91261524080262</v>
+        <v>63.65451238875281</v>
       </c>
       <c r="C203" t="n">
         <v>69.10020886304767</v>
       </c>
       <c r="D203" t="n">
-        <v>0.9463482054681118</v>
+        <v>0.9361314095305522</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -6122,13 +8554,25 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>0.1753134752086555</v>
+        <v>0.1750759339517705</v>
       </c>
       <c r="G203" t="n">
-        <v>0.000541410004491893</v>
+        <v>0.0006057467077195984</v>
       </c>
       <c r="H203" t="n">
         <v>67.14820109307486</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0.03825497592814529</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.1658178337521304</v>
+      </c>
+      <c r="K203" t="n">
+        <v>842.236419495873</v>
+      </c>
+      <c r="L203" t="n">
+        <v>42.87054317706703</v>
       </c>
     </row>
     <row r="204">
@@ -6136,13 +8580,13 @@
         <v>2020</v>
       </c>
       <c r="B204" t="n">
-        <v>66.34499084027972</v>
+        <v>61.98614557636437</v>
       </c>
       <c r="C204" t="n">
         <v>69.04335958401862</v>
       </c>
       <c r="D204" t="n">
-        <v>0.9440054241892789</v>
+        <v>0.9304118475499585</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -6150,13 +8594,25 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>0.175353558720526</v>
+        <v>0.1747829422425015</v>
       </c>
       <c r="G204" t="n">
-        <v>0.0005664957222763714</v>
+        <v>0.0006250598324564064</v>
       </c>
       <c r="H204" t="n">
         <v>67.13342843612601</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0.07436474894178598</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.1668366812388428</v>
+      </c>
+      <c r="K204" t="n">
+        <v>843.0126897537305</v>
+      </c>
+      <c r="L204" t="n">
+        <v>41.54592734843568</v>
       </c>
     </row>
     <row r="205">
@@ -6164,13 +8620,13 @@
         <v>2030</v>
       </c>
       <c r="B205" t="n">
-        <v>63.75722270393041</v>
+        <v>60.30674472329343</v>
       </c>
       <c r="C205" t="n">
         <v>68.98654335118113</v>
       </c>
       <c r="D205" t="n">
-        <v>0.9396965241775049</v>
+        <v>0.9243915467066459</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -6178,13 +8634,25 @@
         </is>
       </c>
       <c r="F205" t="n">
-        <v>0.1752415232224466</v>
+        <v>0.1744902734536893</v>
       </c>
       <c r="G205" t="n">
-        <v>0.0005936998983599843</v>
+        <v>0.0006455637058800966</v>
       </c>
       <c r="H205" t="n">
         <v>67.11866753082045</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0.1128909566124784</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.167940085307095</v>
+      </c>
+      <c r="K205" t="n">
+        <v>843.7890825451011</v>
+      </c>
+      <c r="L205" t="n">
+        <v>40.22637913365365</v>
       </c>
     </row>
     <row r="206">
@@ -6192,13 +8660,13 @@
         <v>2040</v>
       </c>
       <c r="B206" t="n">
-        <v>61.12633113417059</v>
+        <v>58.61535823118182</v>
       </c>
       <c r="C206" t="n">
         <v>68.92976013787927</v>
       </c>
       <c r="D206" t="n">
-        <v>0.9308796960714478</v>
+        <v>0.9180466908756191</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -6206,13 +8674,25 @@
         </is>
       </c>
       <c r="F206" t="n">
-        <v>0.1747868309570004</v>
+        <v>0.1741978532583902</v>
       </c>
       <c r="G206" t="n">
-        <v>0.0006234052303824741</v>
+        <v>0.000667378286110958</v>
       </c>
       <c r="H206" t="n">
         <v>67.10391836403802</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0.1540771494657806</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.16913864921116</v>
+      </c>
+      <c r="K206" t="n">
+        <v>844.5657629078564</v>
+      </c>
+      <c r="L206" t="n">
+        <v>38.91150031114692</v>
       </c>
     </row>
     <row r="207">
@@ -6220,13 +8700,13 @@
         <v>2050</v>
       </c>
       <c r="B207" t="n">
-        <v>58.44654592236142</v>
+        <v>56.91091032823684</v>
       </c>
       <c r="C207" t="n">
         <v>68.87300991748862</v>
       </c>
       <c r="D207" t="n">
-        <v>0.9212587305660076</v>
+        <v>0.9113505726188639</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -6234,13 +8714,25 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>0.1743299201116242</v>
+        <v>0.1739055966043136</v>
       </c>
       <c r="G207" t="n">
-        <v>0.0006562573880186154</v>
+        <v>0.0006906414277512822</v>
       </c>
       <c r="H207" t="n">
         <v>67.08918092267845</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0.1982026739689024</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.1704447902944985</v>
+      </c>
+      <c r="K207" t="n">
+        <v>845.3429235693526</v>
+      </c>
+      <c r="L207" t="n">
+        <v>37.60082923524136</v>
       </c>
     </row>
     <row r="208">
@@ -6248,13 +8740,13 @@
         <v>2060</v>
       </c>
       <c r="B208" t="n">
-        <v>55.71085768085977</v>
+        <v>55.19217886326525</v>
       </c>
       <c r="C208" t="n">
         <v>68.81629266341633</v>
       </c>
       <c r="D208" t="n">
-        <v>0.9107139183055381</v>
+        <v>0.9042730871531102</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -6262,13 +8754,25 @@
         </is>
       </c>
       <c r="F208" t="n">
-        <v>0.1738702017247819</v>
+        <v>0.1736134058556557</v>
       </c>
       <c r="G208" t="n">
-        <v>0.0006928355262009322</v>
+        <v>0.0007155125122005127</v>
       </c>
       <c r="H208" t="n">
         <v>67.07445519366118</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0.2455898922603376</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.1718731464971588</v>
+      </c>
+      <c r="K208" t="n">
+        <v>846.1207898016063</v>
+      </c>
+      <c r="L208" t="n">
+        <v>36.29383126759615</v>
       </c>
     </row>
     <row r="209">
@@ -6276,13 +8780,13 @@
         <v>2070</v>
       </c>
       <c r="B209" t="n">
-        <v>52.91062640958231</v>
+        <v>53.45776788184676</v>
       </c>
       <c r="C209" t="n">
         <v>68.75960834910063</v>
       </c>
       <c r="D209" t="n">
-        <v>0.8990973006531476</v>
+        <v>0.8967801086478548</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -6290,13 +8794,25 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>0.1734069570153093</v>
+        <v>0.1733211685192567</v>
       </c>
       <c r="G209" t="n">
-        <v>0.0007338828292210695</v>
+        <v>0.0007421770281748666</v>
       </c>
       <c r="H209" t="n">
         <v>67.05974116392539</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0.2966132859659979</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.1734410981418484</v>
+      </c>
+      <c r="K209" t="n">
+        <v>846.8996253619332</v>
+      </c>
+      <c r="L209" t="n">
+        <v>34.98988705096472</v>
       </c>
     </row>
     <row r="210">
@@ -6304,13 +8820,13 @@
         <v>2080</v>
       </c>
       <c r="B210" t="n">
-        <v>50.03501856712563</v>
+        <v>51.70607342862139</v>
       </c>
       <c r="C210" t="n">
         <v>68.70295694801143</v>
       </c>
       <c r="D210" t="n">
-        <v>0.886222896498192</v>
+        <v>0.8888327141789101</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -6318,13 +8834,25 @@
         </is>
       </c>
       <c r="F210" t="n">
-        <v>0.1729392966634477</v>
+        <v>0.1730287544378388</v>
       </c>
       <c r="G210" t="n">
-        <v>0.0007803721665337087</v>
+        <v>0.0007708524128097213</v>
       </c>
       <c r="H210" t="n">
         <v>67.04503882043007</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0.3517110581427874</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.1751694453225372</v>
+      </c>
+      <c r="K210" t="n">
+        <v>847.6797398251346</v>
+      </c>
+      <c r="L210" t="n">
+        <v>33.68827801031922</v>
       </c>
     </row>
     <row r="211">
@@ -6332,13 +8860,13 @@
         <v>2090</v>
       </c>
       <c r="B211" t="n">
-        <v>47.07017227298646</v>
+        <v>49.93524044568363</v>
       </c>
       <c r="C211" t="n">
         <v>68.6463384336497</v>
       </c>
       <c r="D211" t="n">
-        <v>0.8718522855312389</v>
+        <v>0.8803862080737062</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -6346,13 +8874,25 @@
         </is>
       </c>
       <c r="F211" t="n">
-        <v>0.1724661024721304</v>
+        <v>0.1727360122923689</v>
       </c>
       <c r="G211" t="n">
-        <v>0.0008336072108425267</v>
+        <v>0.0008017955873939312</v>
       </c>
       <c r="H211" t="n">
         <v>67.03034815015371</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0.4114000916079408</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.1770832982937763</v>
+      </c>
+      <c r="K211" t="n">
+        <v>848.4614977196095</v>
+      </c>
+      <c r="L211" t="n">
+        <v>32.38816825129337</v>
       </c>
     </row>
     <row r="212">
@@ -6360,13 +8900,13 @@
         <v>2100</v>
       </c>
       <c r="B212" t="n">
-        <v>43.99791341852436</v>
+        <v>48.14310780601951</v>
       </c>
       <c r="C212" t="n">
         <v>68.58975277954789</v>
       </c>
       <c r="D212" t="n">
-        <v>0.8556726207403241</v>
+        <v>0.87138888127103</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -6374,13 +8914,25 @@
         </is>
       </c>
       <c r="F212" t="n">
-        <v>0.1719859412542659</v>
+        <v>0.1724427651977631</v>
       </c>
       <c r="G212" t="n">
-        <v>0.0008953842107503575</v>
+        <v>0.0008353128046093367</v>
       </c>
       <c r="H212" t="n">
         <v>67.01566914009467</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0.4762954827614751</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.1792132639664119</v>
+      </c>
+      <c r="K212" t="n">
+        <v>849.2453300307303</v>
+      </c>
+      <c r="L212" t="n">
+        <v>31.08858171975995</v>
       </c>
     </row>
     <row r="213">
@@ -6388,13 +8940,13 @@
         <v>2110</v>
       </c>
       <c r="B213" t="n">
-        <v>40.79369241093104</v>
+        <v>46.32713729484401</v>
       </c>
       <c r="C213" t="n">
         <v>68.53319995926938</v>
       </c>
       <c r="D213" t="n">
-        <v>0.8372617382106489</v>
+        <v>0.8617804137888003</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -6402,13 +8954,25 @@
         </is>
       </c>
       <c r="F213" t="n">
-        <v>0.1714969331537</v>
+        <v>0.1721488050926553</v>
       </c>
       <c r="G213" t="n">
-        <v>0.0009682628429975292</v>
+        <v>0.0008717726997055766</v>
       </c>
       <c r="H213" t="n">
         <v>67.00100177727067</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0.5471364136091973</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.1815970511175502</v>
+      </c>
+      <c r="K213" t="n">
+        <v>850.0317488527979</v>
+      </c>
+      <c r="L213" t="n">
+        <v>29.78837304314489</v>
       </c>
     </row>
     <row r="214">
@@ -6416,13 +8980,13 @@
         <v>2120</v>
       </c>
       <c r="B214" t="n">
-        <v>37.52200128216321</v>
+        <v>44.48432050479476</v>
       </c>
       <c r="C214" t="n">
         <v>68.47667994640881</v>
       </c>
       <c r="D214" t="n">
-        <v>0.8160300726418357</v>
+        <v>0.851489788770903</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -6430,13 +8994,25 @@
         </is>
       </c>
       <c r="F214" t="n">
-        <v>0.1709965415454147</v>
+        <v>0.1718538855011299</v>
       </c>
       <c r="G214" t="n">
-        <v>0.001056045517154682</v>
+        <v>0.0009116238623519674</v>
       </c>
       <c r="H214" t="n">
         <v>66.98634604871917</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0.6248209613023843</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.1842816790049256</v>
+      </c>
+      <c r="K214" t="n">
+        <v>850.8213662915255</v>
+      </c>
+      <c r="L214" t="n">
+        <v>28.48618982028471</v>
       </c>
     </row>
     <row r="215">
@@ -6444,13 +9020,13 @@
         <v>2130</v>
       </c>
       <c r="B215" t="n">
-        <v>34.19326662773053</v>
+        <v>42.61105476357544</v>
       </c>
       <c r="C215" t="n">
         <v>68.4201927145923</v>
       </c>
       <c r="D215" t="n">
-        <v>0.7918925556367671</v>
+        <v>0.8404325261069898</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -6458,13 +9034,25 @@
         </is>
       </c>
       <c r="F215" t="n">
-        <v>0.1704959589907596</v>
+        <v>0.1715577120599218</v>
       </c>
       <c r="G215" t="n">
-        <v>0.001161209144795194</v>
+        <v>0.0009554189150043533</v>
       </c>
       <c r="H215" t="n">
         <v>66.97170194149713</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0.7104537630306861</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.1873265741219317</v>
+      </c>
+      <c r="K215" t="n">
+        <v>851.6149192003875</v>
+      </c>
+      <c r="L215" t="n">
+        <v>27.180423141969</v>
       </c>
     </row>
     <row r="216">
@@ -6472,13 +9060,13 @@
         <v>2140</v>
       </c>
       <c r="B216" t="n">
-        <v>30.78961471988777</v>
+        <v>40.71451951123743</v>
       </c>
       <c r="C216" t="n">
         <v>68.36373823747647</v>
       </c>
       <c r="D216" t="n">
-        <v>0.7643662442420288</v>
+        <v>0.8285069490488536</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -6486,13 +9074,25 @@
         </is>
       </c>
       <c r="F216" t="n">
-        <v>0.1699978136493348</v>
+        <v>0.1712599299213452</v>
       </c>
       <c r="G216" t="n">
-        <v>0.00128890748668315</v>
+        <v>0.001003848167153561</v>
       </c>
       <c r="H216" t="n">
         <v>66.9570694426809</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0.8054125880869106</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.1896535252338013</v>
+      </c>
+      <c r="K216" t="n">
+        <v>852.4133020735652</v>
+      </c>
+      <c r="L216" t="n">
+        <v>25.86914160663775</v>
       </c>
     </row>
     <row r="217">
@@ -6500,13 +9100,13 @@
         <v>2150</v>
       </c>
       <c r="B217" t="n">
-        <v>27.28570394422411</v>
+        <v>38.81230222280632</v>
       </c>
       <c r="C217" t="n">
         <v>68.30731648874939</v>
       </c>
       <c r="D217" t="n">
-        <v>0.7325706966981262</v>
+        <v>0.8156700652921635</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -6514,13 +9114,25 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>0.1695007132615101</v>
+        <v>0.1709618648525112</v>
       </c>
       <c r="G217" t="n">
-        <v>0.001448058616483124</v>
+        <v>0.001057444179801416</v>
       </c>
       <c r="H217" t="n">
         <v>66.94244853936642</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0.9107676659932529</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.1902217288431101</v>
+      </c>
+      <c r="K217" t="n">
+        <v>853.2130176943574</v>
+      </c>
+      <c r="L217" t="n">
+        <v>24.55797751190617</v>
       </c>
     </row>
     <row r="218">
@@ -6528,13 +9140,13 @@
         <v>2160</v>
       </c>
       <c r="B218" t="n">
-        <v>23.64300943439781</v>
+        <v>36.9029486857866</v>
       </c>
       <c r="C218" t="n">
         <v>68.25092744212975</v>
       </c>
       <c r="D218" t="n">
-        <v>0.6952229793933118</v>
+        <v>0.8019562462528249</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -6542,13 +9154,25 @@
         </is>
       </c>
       <c r="F218" t="n">
-        <v>0.1690026986676667</v>
+        <v>0.17066636993009</v>
       </c>
       <c r="G218" t="n">
-        <v>0.001653375047429942</v>
+        <v>0.00111648214572064</v>
       </c>
       <c r="H218" t="n">
         <v>66.92783921866892</v>
+      </c>
+      <c r="I218" t="n">
+        <v>1.027078325405024</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.1909353537019723</v>
+      </c>
+      <c r="K218" t="n">
+        <v>854.0065630503105</v>
+      </c>
+      <c r="L218" t="n">
+        <v>23.25938707322327</v>
       </c>
     </row>
   </sheetData>

--- a/Relatorio_Grupo2.xlsx
+++ b/Relatorio_Grupo2.xlsx
@@ -540,7 +540,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>378.4063184050576</v>
+        <v>378.4063851317591</v>
       </c>
       <c r="C3" t="n">
         <v>79.95362428004501</v>
@@ -566,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1593681594942386</v>
+        <v>0.1593614868240889</v>
       </c>
       <c r="K3" t="n">
         <v>833.2321214565477</v>
@@ -580,13 +580,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="n">
-        <v>376.8126575258952</v>
+        <v>376.812791394286</v>
       </c>
       <c r="C4" t="n">
         <v>79.90712444580225</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9871289989241379</v>
+        <v>0.9871290000408096</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -594,10 +594,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.1786643002743423</v>
+        <v>0.178664300518292</v>
       </c>
       <c r="G4" t="n">
-        <v>9.359204536013092e-05</v>
+        <v>9.359203694385567e-05</v>
       </c>
       <c r="H4" t="n">
         <v>89.37114858536958</v>
@@ -606,13 +606,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1593660879162459</v>
+        <v>0.1593593737473073</v>
       </c>
       <c r="K4" t="n">
-        <v>833.2937675020916</v>
+        <v>833.2937663643058</v>
       </c>
       <c r="L4" t="n">
-        <v>277.466854023062</v>
+        <v>277.4668789743024</v>
       </c>
     </row>
     <row r="5">
@@ -620,13 +620,13 @@
         <v>30</v>
       </c>
       <c r="B5" t="n">
-        <v>375.2190173089907</v>
+        <v>375.2192187389674</v>
       </c>
       <c r="C5" t="n">
         <v>79.86050016096004</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9871036874303728</v>
+        <v>0.9871036896942716</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.1786511583534506</v>
+        <v>0.1786511588347626</v>
       </c>
       <c r="G5" t="n">
-        <v>9.378025953411737e-05</v>
+        <v>9.378024247374479e-05</v>
       </c>
       <c r="H5" t="n">
         <v>89.35512517011024</v>
@@ -646,13 +646,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1593640216904517</v>
+        <v>0.159357265531859</v>
       </c>
       <c r="K5" t="n">
-        <v>833.3550661853635</v>
+        <v>833.3550639401847</v>
       </c>
       <c r="L5" t="n">
-        <v>276.9099863517845</v>
+        <v>276.9100367268678</v>
       </c>
     </row>
     <row r="6">
@@ -660,13 +660,13 @@
         <v>40</v>
       </c>
       <c r="B6" t="n">
-        <v>373.6253976926894</v>
+        <v>373.6256671091488</v>
       </c>
       <c r="C6" t="n">
         <v>79.81375108782169</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9870781074217554</v>
+        <v>0.9870781108644279</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.1786380940170308</v>
+        <v>0.178638094728901</v>
       </c>
       <c r="G6" t="n">
-        <v>9.397045645919573e-05</v>
+        <v>9.397043051949203e-05</v>
       </c>
       <c r="H6" t="n">
         <v>89.33906169751747</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1593619616301217</v>
+        <v>0.1593551629818615</v>
       </c>
       <c r="K6" t="n">
-        <v>833.416011925978</v>
+        <v>833.4160086048274</v>
       </c>
       <c r="L6" t="n">
-        <v>276.3495184141782</v>
+        <v>276.3495946980112</v>
       </c>
     </row>
     <row r="7">
@@ -700,13 +700,13 @@
         <v>50</v>
       </c>
       <c r="B7" t="n">
-        <v>372.0317986070339</v>
+        <v>372.0321364399665</v>
       </c>
       <c r="C7" t="n">
         <v>79.76687688729766</v>
       </c>
       <c r="D7" t="n">
-        <v>0.987052253655561</v>
+        <v>0.9870522583095822</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -714,10 +714,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.1786251084289933</v>
+        <v>0.1786251093643971</v>
       </c>
       <c r="G7" t="n">
-        <v>9.41626752790501e-05</v>
+        <v>9.416264021708723e-05</v>
       </c>
       <c r="H7" t="n">
         <v>89.32295807328909</v>
@@ -726,13 +726,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1593599085655599</v>
+        <v>0.1593530669182376</v>
       </c>
       <c r="K7" t="n">
-        <v>833.4765991361967</v>
+        <v>833.4765947715404</v>
       </c>
       <c r="L7" t="n">
-        <v>275.7853927864869</v>
+        <v>275.7854954766534</v>
       </c>
     </row>
     <row r="8">
@@ -740,13 +740,13 @@
         <v>60</v>
       </c>
       <c r="B8" t="n">
-        <v>370.438219973588</v>
+        <v>370.4386266581747</v>
       </c>
       <c r="C8" t="n">
         <v>79.71987721889798</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9870261207501499</v>
+        <v>0.9870261266491636</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -754,10 +754,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.1786122027542853</v>
+        <v>0.178612203905975</v>
       </c>
       <c r="G8" t="n">
-        <v>9.435695617524935e-05</v>
+        <v>9.435691174011086e-05</v>
       </c>
       <c r="H8" t="n">
         <v>89.30681420277713</v>
@@ -766,13 +766,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1593578633445791</v>
+        <v>0.1593509781791785</v>
       </c>
       <c r="K8" t="n">
-        <v>833.5368222211782</v>
+        <v>833.536816846541</v>
       </c>
       <c r="L8" t="n">
-        <v>275.2175508865244</v>
+        <v>275.2176804936698</v>
       </c>
     </row>
     <row r="9">
@@ -780,13 +780,13 @@
         <v>70</v>
       </c>
       <c r="B9" t="n">
-        <v>368.8446617052582</v>
+        <v>368.8451376819685</v>
       </c>
       <c r="C9" t="n">
         <v>79.67275174072438</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9869997031811186</v>
+        <v>0.9869997103598768</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -794,10 +794,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.1785993781588483</v>
+        <v>0.1785993795193492</v>
       </c>
       <c r="G9" t="n">
-        <v>9.455334039618727e-05</v>
+        <v>9.455328632866287e-05</v>
       </c>
       <c r="H9" t="n">
         <v>89.29062999098605</v>
@@ -806,13 +806,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1593558268329843</v>
+        <v>0.1593488976206204</v>
       </c>
       <c r="K9" t="n">
-        <v>833.596675579219</v>
+        <v>833.5966692292021</v>
       </c>
       <c r="L9" t="n">
-        <v>274.6459329606761</v>
+        <v>274.6460900089</v>
       </c>
     </row>
     <row r="10">
@@ -820,13 +820,13 @@
         <v>80</v>
       </c>
       <c r="B10" t="n">
-        <v>367.2511237061075</v>
+        <v>367.2516694208011</v>
       </c>
       <c r="C10" t="n">
         <v>79.62550010946256</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9869729952773462</v>
+        <v>0.9869730037717528</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.1785866358095748</v>
+        <v>0.1785866373711823</v>
       </c>
       <c r="G10" t="n">
-        <v>9.475187028680093e-05</v>
+        <v>9.475180631906851e-05</v>
       </c>
       <c r="H10" t="n">
         <v>89.27440534257092</v>
@@ -846,13 +846,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1593537999150701</v>
+        <v>0.159346826116733</v>
       </c>
       <c r="K10" t="n">
-        <v>833.6561536020022</v>
+        <v>833.656146312298</v>
       </c>
       <c r="L10" t="n">
-        <v>274.0704780713623</v>
+        <v>274.0706630986213</v>
       </c>
     </row>
     <row r="11">
@@ -860,13 +860,13 @@
         <v>90</v>
       </c>
       <c r="B11" t="n">
-        <v>365.6576058711662</v>
+        <v>365.6582217751969</v>
       </c>
       <c r="C11" t="n">
         <v>79.57812198037431</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9869459912169386</v>
+        <v>0.9869460010640931</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -874,10 +874,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.1785739768742664</v>
+        <v>0.1785739786290424</v>
       </c>
       <c r="G11" t="n">
-        <v>9.495258931908836e-05</v>
+        <v>9.495251517438345e-05</v>
       </c>
       <c r="H11" t="n">
         <v>89.2581401618356</v>
@@ -886,13 +886,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1593517834941303</v>
+        <v>0.159344764560423</v>
       </c>
       <c r="K11" t="n">
-        <v>833.7152506748378</v>
+        <v>833.7152424822474</v>
       </c>
       <c r="L11" t="n">
-        <v>273.4911240850043</v>
+        <v>273.4913376435251</v>
       </c>
     </row>
     <row r="12">
@@ -900,13 +900,13 @@
         <v>100</v>
       </c>
       <c r="B12" t="n">
-        <v>364.0641080862363</v>
+        <v>364.0647946365584</v>
       </c>
       <c r="C12" t="n">
         <v>79.53061700728949</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9869186850230629</v>
+        <v>0.9869186962613066</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -914,10 +914,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.1785614025215917</v>
+        <v>0.178561404461361</v>
       </c>
       <c r="G12" t="n">
-        <v>9.515554212344599e-05</v>
+        <v>9.51554575157182e-05</v>
       </c>
       <c r="H12" t="n">
         <v>89.241834352731</v>
@@ -926,13 +926,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1593497784929835</v>
+        <v>0.1593427138638498</v>
       </c>
       <c r="K12" t="n">
-        <v>833.7739611769071</v>
+        <v>833.7739521193558</v>
       </c>
       <c r="L12" t="n">
-        <v>272.9078076605341</v>
+        <v>272.9080503172361</v>
       </c>
     </row>
     <row r="13">
@@ -940,13 +940,13 @@
         <v>110</v>
       </c>
       <c r="B13" t="n">
-        <v>362.4706302276912</v>
+        <v>362.4713878869688</v>
       </c>
       <c r="C13" t="n">
         <v>79.48298484259817</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9868910705596736</v>
+        <v>0.9868910832286365</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -954,10 +954,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.178548913921045</v>
+        <v>0.1785489160373918</v>
       </c>
       <c r="G13" t="n">
-        <v>9.536077452084917e-05</v>
+        <v>9.536067915440469e-05</v>
       </c>
       <c r="H13" t="n">
         <v>89.22548781885327</v>
@@ -966,13 +966,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1593477858545116</v>
+        <v>0.1593406749589562</v>
       </c>
       <c r="K13" t="n">
-        <v>833.8322794815034</v>
+        <v>833.8322695980588</v>
       </c>
       <c r="L13" t="n">
-        <v>272.3204642384861</v>
+        <v>272.3207365754143</v>
       </c>
     </row>
     <row r="14">
@@ -980,13 +980,13 @@
         <v>120</v>
       </c>
       <c r="B14" t="n">
-        <v>360.8771721622691</v>
+        <v>360.8780013989887</v>
       </c>
       <c r="C14" t="n">
         <v>79.43522513724241</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9868631415271233</v>
+        <v>0.9868631556677742</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -994,10 +994,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.1785365122429052</v>
+        <v>0.1785365145271697</v>
       </c>
       <c r="G14" t="n">
-        <v>9.556833355589741e-05</v>
+        <v>9.556822712502737e-05</v>
       </c>
       <c r="H14" t="n">
         <v>89.20910046344174</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1593458065422142</v>
+        <v>0.1593386487980145</v>
       </c>
       <c r="K14" t="n">
-        <v>833.8901999562727</v>
+        <v>833.8901892871621</v>
       </c>
       <c r="L14" t="n">
-        <v>271.7290280307158</v>
+        <v>271.7293306454837</v>
       </c>
     </row>
     <row r="15">
@@ -1020,13 +1020,13 @@
         <v>130</v>
       </c>
       <c r="B15" t="n">
-        <v>359.2837337468613</v>
+        <v>359.2846350354469</v>
       </c>
       <c r="C15" t="n">
         <v>79.3873375407083</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9868348914576583</v>
+        <v>0.986834907112357</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1034,10 +1034,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.1785241986581948</v>
+        <v>0.1785242011014694</v>
       </c>
       <c r="G15" t="n">
-        <v>9.577826753074824e-05</v>
+        <v>9.577814971934213e-05</v>
       </c>
       <c r="H15" t="n">
         <v>89.19267218937732</v>
@@ -1046,13 +1046,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1593438415407777</v>
+        <v>0.1593366363541854</v>
       </c>
       <c r="K15" t="n">
-        <v>833.9477169634542</v>
+        <v>833.9477055500812</v>
       </c>
       <c r="L15" t="n">
-        <v>271.1334320107886</v>
+        <v>271.1337655170315</v>
       </c>
     </row>
     <row r="16">
@@ -1060,13 +1060,13 @@
         <v>140</v>
       </c>
       <c r="B16" t="n">
-        <v>357.6903148282947</v>
+        <v>357.6912886492259</v>
       </c>
       <c r="C16" t="n">
         <v>79.33932170101781</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9868063137107953</v>
+        <v>0.9868063309233449</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1074,10 +1074,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.1785119743386407</v>
+        <v>0.1785119769317662</v>
       </c>
       <c r="G16" t="n">
-        <v>9.599062603996398e-05</v>
+        <v>9.599049652110778e-05</v>
       </c>
       <c r="H16" t="n">
         <v>89.17620289918058</v>
@@ -1086,13 +1086,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1593418918566608</v>
+        <v>0.1593346386220949</v>
       </c>
       <c r="K16" t="n">
-        <v>834.0048248601166</v>
+        <v>834.0048127450801</v>
       </c>
       <c r="L16" t="n">
-        <v>270.5336079050849</v>
+        <v>270.5339729329232</v>
       </c>
     </row>
     <row r="17">
@@ -1100,13 +1100,13 @@
         <v>150</v>
       </c>
       <c r="B17" t="n">
-        <v>356.0969152431077</v>
+        <v>356.0979620830416</v>
       </c>
       <c r="C17" t="n">
         <v>79.29117726472037</v>
       </c>
       <c r="D17" t="n">
-        <v>0.986777401468574</v>
+        <v>0.9867774202842781</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1114,10 +1114,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.1784998404566336</v>
+        <v>0.1784998431901952</v>
       </c>
       <c r="G17" t="n">
-        <v>9.620546000629589e-05</v>
+        <v>9.620531844185407e-05</v>
       </c>
       <c r="H17" t="n">
         <v>89.15969249500982</v>
@@ -1126,13 +1126,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1593399585186954</v>
+        <v>0.1593326566184254</v>
       </c>
       <c r="K17" t="n">
-        <v>834.0615179983978</v>
+        <v>834.0615052255096</v>
       </c>
       <c r="L17" t="n">
-        <v>269.9294861846698</v>
+        <v>269.929883381183</v>
       </c>
     </row>
     <row r="18">
@@ -1140,13 +1140,13 @@
         <v>160</v>
       </c>
       <c r="B18" t="n">
-        <v>354.5035348173207</v>
+        <v>354.5046551692164</v>
       </c>
       <c r="C18" t="n">
         <v>79.24290387688501</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9867481477306855</v>
+        <v>0.9867481681964053</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.1784877981851894</v>
+        <v>0.1784878010495131</v>
       </c>
       <c r="G18" t="n">
-        <v>9.642282171743163e-05</v>
+        <v>9.642266775761242e-05</v>
       </c>
       <c r="H18" t="n">
         <v>89.14314087865918</v>
@@ -1166,13 +1166,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.159338042578705</v>
+        <v>0.1593306913825236</v>
       </c>
       <c r="K18" t="n">
-        <v>834.1177907257388</v>
+        <v>834.1177773400434</v>
       </c>
       <c r="L18" t="n">
-        <v>269.3209960579752</v>
+        <v>269.3214260876852</v>
       </c>
     </row>
     <row r="19">
@@ -1180,13 +1180,13 @@
         <v>170</v>
       </c>
       <c r="B19" t="n">
-        <v>352.9101733661992</v>
+        <v>352.9113677294461</v>
       </c>
       <c r="C19" t="n">
         <v>79.1945011810916</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9867185453094707</v>
+        <v>0.9867185674736855</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1194,10 +1194,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.1784758486979098</v>
+        <v>0.1784758516830583</v>
       </c>
       <c r="G19" t="n">
-        <v>9.664276486373263e-05</v>
+        <v>9.664259814663594e-05</v>
       </c>
       <c r="H19" t="n">
         <v>89.1265479515569</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1593361451121396</v>
+        <v>0.1593287439770257</v>
       </c>
       <c r="K19" t="n">
-        <v>834.1736373851198</v>
+        <v>834.173623432912</v>
       </c>
       <c r="L19" t="n">
-        <v>268.7080654643458</v>
+        <v>268.7085290097118</v>
       </c>
     </row>
     <row r="20">
@@ -1220,13 +1220,13 @@
         <v>180</v>
       </c>
       <c r="B20" t="n">
-        <v>351.3168306940119</v>
+        <v>351.3180995745611</v>
       </c>
       <c r="C20" t="n">
         <v>79.14596881942265</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9866885868247854</v>
+        <v>0.9866886107376555</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1234,10 +1234,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.1784639931689447</v>
+        <v>0.1784639962647133</v>
       </c>
       <c r="G20" t="n">
-        <v>9.686534457698847e-05</v>
+        <v>9.686516472813569e-05</v>
       </c>
       <c r="H20" t="n">
         <v>89.10991361476307</v>
@@ -1246,13 +1246,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1593342672187288</v>
+        <v>0.1593268154884987</v>
       </c>
       <c r="K20" t="n">
-        <v>834.2290523152933</v>
+        <v>834.2290378441387</v>
       </c>
       <c r="L20" t="n">
-        <v>268.0906210685015</v>
+        <v>268.0911188304243</v>
       </c>
     </row>
     <row r="21">
@@ -1260,13 +1260,13 @@
         <v>190</v>
       </c>
       <c r="B21" t="n">
-        <v>349.7235065937804</v>
+        <v>349.72485050428</v>
       </c>
       <c r="C21" t="n">
         <v>79.09730643245501</v>
       </c>
       <c r="D21" t="n">
-        <v>0.986658264698732</v>
+        <v>0.9866582904121636</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1274,10 +1274,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.1784522327729539</v>
+        <v>0.1784522359688663</v>
       </c>
       <c r="G21" t="n">
-        <v>9.709061747021611e-05</v>
+        <v>9.709042410206107e-05</v>
       </c>
       <c r="H21" t="n">
         <v>89.09323776896817</v>
@@ -1286,13 +1286,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1593324100231524</v>
+        <v>0.1593249070281007</v>
       </c>
       <c r="K21" t="n">
-        <v>834.2840298510168</v>
+        <v>834.2840149097711</v>
       </c>
       <c r="L21" t="n">
-        <v>267.4685882559713</v>
+        <v>267.4691209543082</v>
       </c>
     </row>
     <row r="22">
@@ -1300,13 +1300,13 @@
         <v>200</v>
       </c>
       <c r="B22" t="n">
-        <v>348.1302008470231</v>
+        <v>348.1316203069575</v>
       </c>
       <c r="C22" t="n">
         <v>79.048513659251</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9866275711502469</v>
+        <v>0.98662759871796</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1314,10 +1314,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.1784405686850701</v>
+        <v>0.1784405719703744</v>
       </c>
       <c r="G22" t="n">
-        <v>9.731864167853429e-05</v>
+        <v>9.73184343899548e-05</v>
       </c>
       <c r="H22" t="n">
         <v>89.07652031449058</v>
@@ -1326,13 +1326,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1593305746757308</v>
+        <v>0.1593230197322594</v>
       </c>
       <c r="K22" t="n">
-        <v>834.3385643232835</v>
+        <v>834.3385489621132</v>
       </c>
       <c r="L22" t="n">
-        <v>266.8418911295511</v>
+        <v>266.8424595036408</v>
       </c>
     </row>
     <row r="23">
@@ -1340,13 +1340,13 @@
         <v>210</v>
       </c>
       <c r="B23" t="n">
-        <v>346.5369132234918</v>
+        <v>346.5384087593238</v>
       </c>
       <c r="C23" t="n">
         <v>78.99959013735008</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9865964981895479</v>
+        <v>0.986596527667147</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.178429002080862</v>
+        <v>0.1784290054445258</v>
       </c>
       <c r="G23" t="n">
-        <v>9.754947690114146e-05</v>
+        <v>9.754925527691007e-05</v>
       </c>
       <c r="H23" t="n">
         <v>89.05976115127521</v>
@@ -1366,13 +1366,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1593287623531333</v>
+        <v>0.1593211547633681</v>
       </c>
       <c r="K23" t="n">
-        <v>834.3926500595517</v>
+        <v>834.3926343299544</v>
       </c>
       <c r="L23" t="n">
-        <v>266.2104525068486</v>
+        <v>266.2110573160473</v>
       </c>
     </row>
     <row r="24">
@@ -1380,13 +1380,13 @@
         <v>220</v>
       </c>
       <c r="B24" t="n">
-        <v>344.9436434809007</v>
+        <v>344.9452156262188</v>
       </c>
       <c r="C24" t="n">
         <v>78.95053550276026</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9865650376124329</v>
+        <v>0.98656506905748</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1394,10 +1394,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.1784175341362977</v>
+        <v>0.1784175375670045</v>
       </c>
       <c r="G24" t="n">
-        <v>9.778318444442975e-05</v>
+        <v>9.778294805466377e-05</v>
       </c>
       <c r="H24" t="n">
         <v>89.04296017889112</v>
@@ -1406,13 +1406,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1593269742591073</v>
+        <v>0.1593193133105031</v>
       </c>
       <c r="K24" t="n">
-        <v>834.4462813839732</v>
+        <v>834.4462653387988</v>
       </c>
       <c r="L24" t="n">
-        <v>265.5741939189684</v>
+        <v>265.5748359431946</v>
       </c>
     </row>
     <row r="25">
@@ -1420,13 +1420,13 @@
         <v>230</v>
       </c>
       <c r="B25" t="n">
-        <v>343.3503913646485</v>
+        <v>343.3520406603172</v>
       </c>
       <c r="C25" t="n">
         <v>78.9013493899493</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9865331809944257</v>
+        <v>0.9865332144665169</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1434,10 +1434,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.1784061660277094</v>
+        <v>0.1784061695138533</v>
       </c>
       <c r="G25" t="n">
-        <v>9.801982726626612e-05</v>
+        <v>9.801957566585507e-05</v>
       </c>
       <c r="H25" t="n">
         <v>89.02611729652962</v>
@@ -1446,13 +1446,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1593252116252272</v>
+        <v>0.1593174965901595</v>
       </c>
       <c r="K25" t="n">
-        <v>834.4994526176197</v>
+        <v>834.4994363110918</v>
       </c>
       <c r="L25" t="n">
-        <v>264.9330356104031</v>
+        <v>264.933715650693</v>
       </c>
     </row>
     <row r="26">
@@ -1460,13 +1460,13 @@
         <v>240</v>
       </c>
       <c r="B26" t="n">
-        <v>341.7571566075318</v>
+        <v>341.7588836018471</v>
       </c>
       <c r="C26" t="n">
         <v>78.852031431836</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9865009196847678</v>
+        <v>0.9865009552456122</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1474,10 +1474,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.1783948989317579</v>
+        <v>0.1783949024614395</v>
       </c>
       <c r="G26" t="n">
-        <v>9.825947002147397e-05</v>
+        <v>9.82592027494845e-05</v>
       </c>
       <c r="H26" t="n">
         <v>89.00923240300247</v>
@@ -1486,13 +1486,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1593234757116652</v>
+        <v>0.1593157058470082</v>
       </c>
       <c r="K26" t="n">
-        <v>834.552158078709</v>
+        <v>834.5521415664467</v>
       </c>
       <c r="L26" t="n">
-        <v>264.2868965401905</v>
+        <v>264.2876154192639</v>
       </c>
     </row>
     <row r="27">
@@ -1500,13 +1500,13 @@
         <v>250</v>
       </c>
       <c r="B27" t="n">
-        <v>340.163938929452</v>
+        <v>340.1657441783004</v>
       </c>
       <c r="C27" t="n">
         <v>78.80258125978128</v>
       </c>
       <c r="D27" t="n">
-        <v>0.986468244800249</v>
+        <v>0.9864682825137515</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1514,10 +1514,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.1783837340253977</v>
+        <v>0.1783837375864191</v>
       </c>
       <c r="G27" t="n">
-        <v>9.850217910855018e-05</v>
+        <v>9.850189568760644e-05</v>
       </c>
       <c r="H27" t="n">
         <v>88.99230539673962</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1593217678079828</v>
+        <v>0.159313942354674</v>
       </c>
       <c r="K27" t="n">
-        <v>834.6043920828267</v>
+        <v>834.6043754218681</v>
       </c>
       <c r="L27" t="n">
-        <v>263.6356943844008</v>
+        <v>263.6364529472364</v>
       </c>
     </row>
     <row r="28">
@@ -1540,13 +1540,13 @@
         <v>260</v>
       </c>
       <c r="B28" t="n">
-        <v>338.5707380371126</v>
+        <v>338.572622104135</v>
       </c>
       <c r="C28" t="n">
         <v>78.75299850357953</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9864351472188736</v>
+        <v>0.9864351871512207</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1554,10 +1554,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.1783726724858432</v>
+        <v>0.1783726760657031</v>
       </c>
       <c r="G28" t="n">
-        <v>9.874802271765126e-05</v>
+        <v>9.874772265329089e-05</v>
       </c>
       <c r="H28" t="n">
         <v>88.97533617578743</v>
@@ -1566,13 +1566,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.159320089233945</v>
+        <v>0.159312207416536</v>
       </c>
       <c r="K28" t="n">
-        <v>834.6561489431504</v>
+        <v>834.6561321919739</v>
       </c>
       <c r="L28" t="n">
-        <v>262.9793455400229</v>
+        <v>262.9801446544428</v>
       </c>
     </row>
     <row r="29">
@@ -1580,13 +1580,13 @@
         <v>270</v>
       </c>
       <c r="B29" t="n">
-        <v>336.977553623709</v>
+        <v>336.9795170804695</v>
       </c>
       <c r="C29" t="n">
         <v>78.70328279144945</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9864016175733575</v>
+        <v>0.9864016597931058</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1594,10 +1594,10 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.1783617154905348</v>
+        <v>0.178361719076424</v>
       </c>
       <c r="G29" t="n">
-        <v>9.899707087988722e-05</v>
+        <v>9.899675365989105e-05</v>
       </c>
       <c r="H29" t="n">
         <v>88.95832463780641</v>
@@ -1606,13 +1606,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.1593184413403578</v>
+        <v>0.1593105023665493</v>
       </c>
       <c r="K29" t="n">
-        <v>834.7074229706676</v>
+        <v>834.7074061892171</v>
       </c>
       <c r="L29" t="n">
-        <v>262.3177651303134</v>
+        <v>262.3186056875779</v>
       </c>
     </row>
     <row r="30">
@@ -1620,13 +1620,13 @@
         <v>280</v>
       </c>
       <c r="B30" t="n">
-        <v>335.3843853686097</v>
+        <v>335.3864287947686</v>
       </c>
       <c r="C30" t="n">
         <v>78.6534337500251</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9863676462444514</v>
+        <v>0.986367690822621</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1634,10 +1634,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.1783508642171058</v>
+        <v>0.1783508677959017</v>
       </c>
       <c r="G30" t="n">
-        <v>9.924939551795934e-05</v>
+        <v>9.924906061165395e-05</v>
       </c>
       <c r="H30" t="n">
         <v>88.94127068006935</v>
@@ -1646,13 +1646,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.1593168255099288</v>
+        <v>0.1593088285700911</v>
       </c>
       <c r="K30" t="n">
-        <v>834.7582084743972</v>
+        <v>834.7581917241044</v>
       </c>
       <c r="L30" t="n">
-        <v>261.6508670116803</v>
+        <v>261.6517499270916</v>
       </c>
     </row>
     <row r="31">
@@ -1660,13 +1660,13 @@
         <v>290</v>
       </c>
       <c r="B31" t="n">
-        <v>333.7912329370282</v>
+        <v>333.7933569205203</v>
       </c>
       <c r="C31" t="n">
         <v>78.60345100434688</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9863332233540847</v>
+        <v>0.986333270364256</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1674,10 +1674,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.1783401198433501</v>
+        <v>0.1783401234016116</v>
       </c>
       <c r="G31" t="n">
-        <v>9.950507049818192e-05</v>
+        <v>9.950471735571425e-05</v>
       </c>
       <c r="H31" t="n">
         <v>88.92417419945922</v>
@@ -1686,13 +1686,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.1593152431581532</v>
+        <v>0.1593071874248299</v>
       </c>
       <c r="K31" t="n">
-        <v>834.8084997616037</v>
+        <v>834.808483105414</v>
       </c>
       <c r="L31" t="n">
-        <v>260.9785637821715</v>
+        <v>260.9794899956865</v>
       </c>
     </row>
     <row r="32">
@@ -1700,13 +1700,13 @@
         <v>300</v>
       </c>
       <c r="B32" t="n">
-        <v>332.198095979686</v>
+        <v>332.2003011169041</v>
       </c>
       <c r="C32" t="n">
         <v>78.55333417785249</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9862983387583266</v>
+        <v>0.9862983882767398</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1714,10 +1714,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.1783294835471902</v>
+        <v>0.1783294870711524</v>
       </c>
       <c r="G32" t="n">
-        <v>9.976417168392806e-05</v>
+        <v>9.976379973551047e-05</v>
       </c>
       <c r="H32" t="n">
         <v>88.90703509246701</v>
@@ -1726,13 +1726,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.1593136957342237</v>
+        <v>0.1593055803616197</v>
       </c>
       <c r="K32" t="n">
-        <v>834.8582911380136</v>
+        <v>834.8582746404106</v>
       </c>
       <c r="L32" t="n">
-        <v>260.3007667916395</v>
+        <v>260.3017372684915</v>
       </c>
     </row>
     <row r="33">
@@ -1740,13 +1740,13 @@
         <v>310</v>
       </c>
       <c r="B33" t="n">
-        <v>330.6049741324663</v>
+        <v>330.6072610284499</v>
       </c>
       <c r="C33" t="n">
         <v>78.50308289236739</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9862629820401566</v>
+        <v>0.9862630341458171</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.1783189565066457</v>
+        <v>0.1783189599822147</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0001000267769905414</v>
+        <v>0.0001000263856456662</v>
       </c>
       <c r="H33" t="n">
         <v>88.88985325518981</v>
@@ -1766,13 +1766,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.1593121847219671</v>
+        <v>0.1593040088454192</v>
       </c>
       <c r="K33" t="n">
-        <v>834.9075769080285</v>
+        <v>834.9075606350596</v>
       </c>
       <c r="L33" t="n">
-        <v>259.6173861536582</v>
+        <v>259.618401884987</v>
       </c>
     </row>
     <row r="34">
@@ -1780,13 +1780,13 @@
         <v>320</v>
       </c>
       <c r="B34" t="n">
-        <v>329.0118670160583</v>
+        <v>329.0142362846875</v>
       </c>
       <c r="C34" t="n">
         <v>78.45269676809585</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9862271425020421</v>
+        <v>0.9862271972768282</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1794,10 +1794,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.178308539899803</v>
+        <v>0.17830854331255</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0001002929664417575</v>
+        <v>0.0001002925550883793</v>
       </c>
       <c r="H34" t="n">
         <v>88.87262858332846</v>
@@ -1806,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.1593107116408082</v>
+        <v>0.1593024743762378</v>
       </c>
       <c r="K34" t="n">
-        <v>834.9563513749358</v>
+        <v>834.9563353942389</v>
       </c>
       <c r="L34" t="n">
-        <v>258.928330759265</v>
+        <v>258.9293927627554</v>
       </c>
     </row>
     <row r="35">
@@ -1820,13 +1820,13 @@
         <v>330</v>
       </c>
       <c r="B35" t="n">
-        <v>327.4187742355906</v>
+        <v>327.4212264997864</v>
       </c>
       <c r="C35" t="n">
         <v>78.40217542361148</v>
       </c>
       <c r="D35" t="n">
-        <v>0.986190809158314</v>
+        <v>0.9861908666870909</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1834,10 +1834,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.1782982349047846</v>
+        <v>0.1782982382399404</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0001005628222276792</v>
+        <v>0.0001005623902313646</v>
       </c>
       <c r="H35" t="n">
         <v>88.85536097218566</v>
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.1593092780467602</v>
+        <v>0.1593009784901079</v>
       </c>
       <c r="K35" t="n">
-        <v>835.0046088411195</v>
+        <v>835.0045932219494</v>
       </c>
       <c r="L35" t="n">
-        <v>258.2335082926059</v>
+        <v>258.2346176131343</v>
       </c>
     </row>
     <row r="36">
@@ -1860,13 +1860,13 @@
         <v>340</v>
       </c>
       <c r="B36" t="n">
-        <v>325.8256953802561</v>
+        <v>325.8282312721855</v>
       </c>
       <c r="C36" t="n">
         <v>78.35151847584791</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9861539707273387</v>
+        <v>0.9861540310980749</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1874,10 +1874,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.1782880426997201</v>
+        <v>0.1782880459421694</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0001008364287643533</v>
+        <v>0.0001008359754673954</v>
       </c>
       <c r="H36" t="n">
         <v>88.83805031666385</v>
@@ -1886,13 +1886,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.1593078855334444</v>
+        <v>0.1592995227600849</v>
       </c>
       <c r="K36" t="n">
-        <v>835.0523436082647</v>
+        <v>835.0523284215212</v>
       </c>
       <c r="L36" t="n">
-        <v>257.5328252485618</v>
+        <v>257.5339829588502</v>
       </c>
     </row>
     <row r="37">
@@ -1900,13 +1900,13 @@
         <v>350</v>
       </c>
       <c r="B37" t="n">
-        <v>324.2326300229248</v>
+        <v>324.2352501842127</v>
       </c>
       <c r="C37" t="n">
         <v>78.30072554008922</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9861166156234752</v>
+        <v>0.9861166789273662</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1914,10 +1914,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.1782779644627175</v>
+        <v>0.1782779675969923</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0001011138727549958</v>
+        <v>0.0001011133974754926</v>
       </c>
       <c r="H37" t="n">
         <v>88.82069651126287</v>
@@ -1926,13 +1926,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.159306535733139</v>
+        <v>0.1592981087972771</v>
       </c>
       <c r="K37" t="n">
-        <v>835.0995499775651</v>
+        <v>835.0995352958211</v>
       </c>
       <c r="L37" t="n">
-        <v>256.8261869524346</v>
+        <v>256.8273941537116</v>
       </c>
     </row>
     <row r="38">
@@ -1940,13 +1940,13 @@
         <v>360</v>
       </c>
       <c r="B38" t="n">
-        <v>322.6395777197462</v>
+        <v>322.6422828016937</v>
       </c>
       <c r="C38" t="n">
         <v>78.24979622996045</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9860787319488168</v>
+        <v>0.9860787982804116</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1954,10 +1954,10 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.1782680013718341</v>
+        <v>0.1782680043821084</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0001013952432529166</v>
+        <v>0.0001013947452838119</v>
       </c>
       <c r="H38" t="n">
         <v>88.80329945007784</v>
@@ -1966,13 +1966,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1593052303178587</v>
+        <v>0.1592967382519041</v>
       </c>
       <c r="K38" t="n">
-        <v>835.1462222499248</v>
+        <v>835.1462081474547</v>
       </c>
       <c r="L38" t="n">
-        <v>256.1134975817741</v>
+        <v>256.1147554044426</v>
       </c>
     </row>
     <row r="39">
@@ -1980,13 +1980,13 @@
         <v>370</v>
       </c>
       <c r="B39" t="n">
-        <v>321.0465380097416</v>
+        <v>321.0493286735498</v>
       </c>
       <c r="C39" t="n">
         <v>78.19873015741803</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9860403074847071</v>
+        <v>0.9860403769420408</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1994,10 +1994,10 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.1782581546050502</v>
+        <v>0.1782581574751331</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0001016806317261943</v>
+        <v>0.0001016801103342794</v>
       </c>
       <c r="H39" t="n">
         <v>88.78585902679727</v>
@@ -2006,13 +2006,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.1593039710004646</v>
+        <v>0.1592954128143858</v>
       </c>
       <c r="K39" t="n">
-        <v>835.1923547261597</v>
+        <v>835.1923412789696</v>
       </c>
       <c r="L39" t="n">
-        <v>255.3946601904259</v>
+        <v>255.3959697947377</v>
       </c>
     </row>
     <row r="40">
@@ -2020,13 +2020,13 @@
         <v>380</v>
       </c>
       <c r="B40" t="n">
-        <v>319.4535104143835</v>
+        <v>319.4563873313851</v>
       </c>
       <c r="C40" t="n">
         <v>78.14752693273994</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9860013296830247</v>
+        <v>0.9860014023677565</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2034,10 +2034,10 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.1782484253402412</v>
+        <v>0.1782484280535707</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0001019701321241568</v>
+        <v>0.000101969586549031</v>
       </c>
       <c r="H40" t="n">
         <v>88.76837513470048</v>
@@ -2046,13 +2046,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.159302759535808</v>
+        <v>0.1592941342164635</v>
       </c>
       <c r="K40" t="n">
-        <v>835.2379417071949</v>
+        <v>835.2379289930537</v>
       </c>
       <c r="L40" t="n">
-        <v>254.6695767348843</v>
+        <v>254.67093931162</v>
       </c>
     </row>
     <row r="41">
@@ -2060,13 +2060,13 @@
         <v>390</v>
       </c>
       <c r="B41" t="n">
-        <v>317.8604944371644</v>
+        <v>317.8634582890616</v>
       </c>
       <c r="C41" t="n">
         <v>78.09618616451627</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9859617856572296</v>
+        <v>0.9859618616747861</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2074,10 +2074,10 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.1782388147551522</v>
+        <v>0.1782388172947883</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0001022638409457205</v>
+        <v>0.0001022632703987086</v>
       </c>
       <c r="H41" t="n">
         <v>88.75084766665562</v>
@@ -2086,13 +2086,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.1593015977219064</v>
+        <v>0.1592929042323538</v>
       </c>
       <c r="K41" t="n">
-        <v>835.2829774942619</v>
+        <v>835.2829655927306</v>
       </c>
       <c r="L41" t="n">
-        <v>253.9381481030317</v>
+        <v>253.9395648741855</v>
       </c>
     </row>
     <row r="42">
@@ -2100,13 +2100,13 @@
         <v>400</v>
       </c>
       <c r="B42" t="n">
-        <v>316.2674895631529</v>
+        <v>316.2705410422623</v>
       </c>
       <c r="C42" t="n">
         <v>78.04470745963897</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9859216621731652</v>
+        <v>0.9859217416328904</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2114,10 +2114,10 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.1782293240273719</v>
+        <v>0.1782293263759903</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0001025618573096487</v>
+        <v>0.0001025612609726748</v>
       </c>
       <c r="H42" t="n">
         <v>88.73327651511734</v>
@@ -2126,13 +2126,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.1593004874011545</v>
+        <v>0.1592917246799348</v>
       </c>
       <c r="K42" t="n">
-        <v>835.3274563890913</v>
+        <v>835.3274453815569</v>
       </c>
       <c r="L42" t="n">
-        <v>253.2002741453492</v>
+        <v>253.2017463648193</v>
       </c>
     </row>
     <row r="43">
@@ -2140,13 +2140,13 @@
         <v>410</v>
       </c>
       <c r="B43" t="n">
-        <v>314.6744952585371</v>
+        <v>314.6776350680426</v>
       </c>
       <c r="C43" t="n">
         <v>77.99309042329224</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9858809456396069</v>
+        <v>0.9858810286549172</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2154,10 +2154,10 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.1782199543343083</v>
+        <v>0.1782199564741929</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0001028642830267876</v>
+        <v>0.0001028636600512012</v>
       </c>
       <c r="H43" t="n">
         <v>88.71566157212472</v>
@@ -2166,13 +2166,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.1592994304615712</v>
+        <v>0.1592905974219691</v>
       </c>
       <c r="K43" t="n">
-        <v>835.3713726941041</v>
+        <v>835.3713626638115</v>
       </c>
       <c r="L43" t="n">
-        <v>252.4558537086828</v>
+        <v>252.4573826629649</v>
       </c>
     </row>
     <row r="44">
@@ -2180,13 +2180,13 @@
         <v>420</v>
       </c>
       <c r="B44" t="n">
-        <v>313.0815109701564</v>
+        <v>313.084739824369</v>
       </c>
       <c r="C44" t="n">
         <v>77.94133465894282</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9858396220985514</v>
+        <v>0.9858397087870974</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2194,10 +2194,10 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.1782107068531647</v>
+        <v>0.1782107087662006</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0001031712226743425</v>
+        <v>0.0001031705721796968</v>
       </c>
       <c r="H44" t="n">
         <v>88.69800272929891</v>
@@ -2206,13 +2206,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.1592984288380824</v>
+        <v>0.159289524367361</v>
       </c>
       <c r="K44" t="n">
-        <v>835.4147207126005</v>
+        <v>835.4147117446862</v>
       </c>
       <c r="L44" t="n">
-        <v>251.7047846726484</v>
+        <v>251.7063716815335</v>
       </c>
     </row>
     <row r="45">
@@ -2220,13 +2220,13 @@
         <v>430</v>
       </c>
       <c r="B45" t="n">
-        <v>311.4885361250179</v>
+        <v>311.4918547496444</v>
       </c>
       <c r="C45" t="n">
         <v>77.88943976832934</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9857976772152359</v>
+        <v>0.9857977676990713</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2234,10 +2234,10 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.178201582760916</v>
+        <v>0.1782015844285823</v>
       </c>
       <c r="G45" t="n">
-        <v>0.000103482783672259</v>
+        <v>0.0001034821047450383</v>
       </c>
       <c r="H45" t="n">
         <v>88.68029987784077</v>
@@ -2246,13 +2246,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.1592974845138437</v>
+        <v>0.1592885074724516</v>
       </c>
       <c r="K45" t="n">
-        <v>835.457494748945</v>
+        <v>835.4574869304721</v>
       </c>
       <c r="L45" t="n">
-        <v>250.9469639887622</v>
+        <v>250.9486104060361</v>
       </c>
     </row>
     <row r="46">
@@ -2260,13 +2260,13 @@
         <v>440</v>
       </c>
       <c r="B46" t="n">
-        <v>309.8955701298019</v>
+        <v>309.8989792622209</v>
       </c>
       <c r="C46" t="n">
         <v>77.83740535145245</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9857550962678827</v>
+        <v>0.9857551906736395</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2274,10 +2274,10 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.1781925832342867</v>
+        <v>0.1781925846376486</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0001037990763617763</v>
+        <v>0.0001037983680540703</v>
       </c>
       <c r="H46" t="n">
         <v>88.66255290852872</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.1592965995216007</v>
+        <v>0.1592875487423524</v>
       </c>
       <c r="K46" t="n">
-        <v>835.4996891087503</v>
+        <v>835.4996825287436</v>
       </c>
       <c r="L46" t="n">
-        <v>250.1822877223804</v>
+        <v>250.1839949365265</v>
       </c>
     </row>
     <row r="47">
@@ -2300,13 +2300,13 @@
         <v>450</v>
       </c>
       <c r="B47" t="n">
-        <v>308.302612370351</v>
+        <v>308.3061127598977</v>
       </c>
       <c r="C47" t="n">
         <v>77.78523100656497</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9857118641371579</v>
+        <v>0.9857119625962295</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2314,10 +2314,10 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.1781837094497289</v>
+        <v>0.1781837105694301</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0001041202140862224</v>
+        <v>0.0001041194754143453</v>
       </c>
       <c r="H47" t="n">
         <v>88.6447617117165</v>
@@ -2326,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0.1592957759450912</v>
+        <v>0.159286650232318</v>
       </c>
       <c r="K47" t="n">
-        <v>835.5412980990571</v>
+        <v>835.5412928485398</v>
       </c>
       <c r="L47" t="n">
-        <v>249.410651097533</v>
+        <v>249.4124205324352</v>
       </c>
     </row>
     <row r="48">
@@ -2340,13 +2340,13 @@
         <v>460</v>
       </c>
       <c r="B48" t="n">
-        <v>306.7096622111461</v>
+        <v>306.7132546194061</v>
       </c>
       <c r="C48" t="n">
         <v>77.73291633016117</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9856679652953363</v>
+        <v>0.9856680679440674</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2354,10 +2354,10 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.1781749625834012</v>
+        <v>0.1781749633996561</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0001044463132741238</v>
+        <v>0.0001044455432171758</v>
       </c>
       <c r="H48" t="n">
         <v>88.62692617733057</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0.1592950159204894</v>
+        <v>0.1592858140491611</v>
       </c>
       <c r="K48" t="n">
-        <v>835.5823160285114</v>
+        <v>835.5823122005427</v>
       </c>
       <c r="L48" t="n">
-        <v>248.6319485447353</v>
+        <v>248.6337816603817</v>
       </c>
     </row>
     <row r="49">
@@ -2380,13 +2380,13 @@
         <v>470</v>
       </c>
       <c r="B49" t="n">
-        <v>305.1167189947671</v>
+        <v>305.120404195879</v>
       </c>
       <c r="C49" t="n">
         <v>77.68046091696675</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9856233837951623</v>
+        <v>0.9856234907750476</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.178166343811149</v>
+        <v>0.1781663443037341</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0001047774935247051</v>
+        <v>0.0001047766910230732</v>
       </c>
       <c r="H49" t="n">
         <v>88.6090461948682</v>
@@ -2406,13 +2406,13 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0.1592943216378933</v>
+        <v>0.1592850423527082</v>
       </c>
       <c r="K49" t="n">
-        <v>835.6227372075382</v>
+        <v>835.622734897252</v>
       </c>
       <c r="L49" t="n">
-        <v>247.8460737518614</v>
+        <v>247.8479720450476</v>
       </c>
     </row>
     <row r="50">
@@ -2420,13 +2420,13 @@
         <v>480</v>
       </c>
       <c r="B50" t="n">
-        <v>303.5237820413386</v>
+        <v>303.527560822306</v>
       </c>
       <c r="C50" t="n">
         <v>77.6278643599282</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9855781032584002</v>
+        <v>0.9855782147162905</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.1781578543084851</v>
+        <v>0.1781578544567305</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0001051138776958568</v>
+        <v>0.000105113041649653</v>
       </c>
       <c r="H50" t="n">
         <v>88.59112165339478</v>
@@ -2446,13 +2446,13 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0.1592936953428576</v>
+        <v>0.1592843373573006</v>
       </c>
       <c r="K50" t="n">
-        <v>835.6625559485144</v>
+        <v>835.6625552531581</v>
       </c>
       <c r="L50" t="n">
-        <v>247.0529197181623</v>
+        <v>247.0548847231933</v>
       </c>
     </row>
     <row r="51">
@@ -2460,13 +2460,13 @@
         <v>490</v>
       </c>
       <c r="B51" t="n">
-        <v>301.9308506479588</v>
+        <v>301.9347238089726</v>
       </c>
       <c r="C51" t="n">
         <v>77.57512625020246</v>
       </c>
       <c r="D51" t="n">
-        <v>0.985532106864059</v>
+        <v>0.9855322229523761</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2474,10 +2474,10 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.1781494952505709</v>
+        <v>0.178149495033352</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0001054555919946528</v>
+        <v>0.0001054547212620862</v>
       </c>
       <c r="H51" t="n">
         <v>88.57315244154151</v>
@@ -2486,13 +2486,13 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0.1592931393379738</v>
+        <v>0.1592837013333404</v>
       </c>
       <c r="K51" t="n">
-        <v>835.7017665659349</v>
+        <v>835.7017675849115</v>
       </c>
       <c r="L51" t="n">
-        <v>246.2523788115097</v>
+        <v>246.2544121008993</v>
       </c>
     </row>
     <row r="52">
@@ -2500,13 +2500,13 @@
         <v>500</v>
       </c>
       <c r="B52" t="n">
-        <v>300.3379240881139</v>
+        <v>300.3418924428838</v>
       </c>
       <c r="C52" t="n">
         <v>77.52224617714614</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9854853773362858</v>
+        <v>0.9854854982132472</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2514,10 +2514,10 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.1781412678121991</v>
+        <v>0.1781412672079273</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0001058027660705034</v>
+        <v>0.0001058018594661835</v>
       </c>
       <c r="H52" t="n">
         <v>88.55513844750318</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0.1592926559844977</v>
+        <v>0.1592831366088838</v>
       </c>
       <c r="K52" t="n">
-        <v>835.7403633765788</v>
+        <v>835.7403662114878</v>
       </c>
       <c r="L52" t="n">
-        <v>245.4443428289445</v>
+        <v>245.4464460141118</v>
       </c>
     </row>
     <row r="53">
@@ -2540,13 +2540,13 @@
         <v>510</v>
       </c>
       <c r="B53" t="n">
-        <v>298.7450016110736</v>
+        <v>298.749065987171</v>
       </c>
       <c r="C53" t="n">
         <v>77.46922372830551</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9854378969319152</v>
+        <v>0.9854380227617676</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.1781331731677771</v>
+        <v>0.1781331721543908</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0001061555331110308</v>
+        <v>0.0001061545894041987</v>
       </c>
       <c r="H53" t="n">
         <v>88.53707955903573</v>
@@ -2566,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0.1592922477040278</v>
+        <v>0.1592826455712828</v>
       </c>
       <c r="K53" t="n">
-        <v>835.7783406996696</v>
+        <v>835.7783454543503</v>
       </c>
       <c r="L53" t="n">
-        <v>244.6287030606113</v>
+        <v>244.6308777925725</v>
       </c>
     </row>
     <row r="54">
@@ -2580,13 +2580,13 @@
         <v>520</v>
       </c>
       <c r="B54" t="n">
-        <v>297.1520824412712</v>
+        <v>297.1562436804822</v>
       </c>
       <c r="C54" t="n">
         <v>77.41605848940469</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9853896474276638</v>
+        <v>0.9853897783809256</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2594,10 +2594,10 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.1781252124913113</v>
+        <v>0.178125211046266</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0001065140299407606</v>
+        <v>0.0001065130478534452</v>
       </c>
       <c r="H54" t="n">
         <v>88.51897566345365</v>
@@ -2606,13 +2606,13 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0.1592919169802353</v>
+        <v>0.1592822306688776</v>
       </c>
       <c r="K54" t="n">
-        <v>835.8156928570335</v>
+        <v>835.8156996376098</v>
       </c>
       <c r="L54" t="n">
-        <v>243.8053503571513</v>
+        <v>243.807598327206</v>
       </c>
     </row>
     <row r="55">
@@ -2620,13 +2620,13 @@
         <v>530</v>
       </c>
       <c r="B55" t="n">
-        <v>295.5591657776646</v>
+        <v>295.5634247363548</v>
       </c>
       <c r="C55" t="n">
         <v>77.36275004433594</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9853406101069571</v>
+        <v>0.985340746360673</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2634,10 +2634,10 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.1781173869563917</v>
+        <v>0.1781173850566505</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0001068783971227236</v>
+        <v>0.0001068773753278189</v>
       </c>
       <c r="H55" t="n">
         <v>88.50082664762776</v>
@@ -2646,13 +2646,13 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>0.1592916663606485</v>
+        <v>0.1592818944127415</v>
       </c>
       <c r="K55" t="n">
-        <v>835.8524141732541</v>
+        <v>835.8524230881798</v>
       </c>
       <c r="L55" t="n">
-        <v>242.9741752006308</v>
+        <v>242.976498141042</v>
       </c>
     </row>
     <row r="56">
@@ -2660,13 +2660,13 @@
         <v>540</v>
       </c>
       <c r="B56" t="n">
-        <v>293.9662507930798</v>
+        <v>293.97060834257</v>
       </c>
       <c r="C56" t="n">
         <v>77.3092979751479</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9852907657463789</v>
+        <v>0.985290907484384</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2674,10 +2674,10 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.1781096977361785</v>
+        <v>0.1781096953582022</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0001072487790630694</v>
+        <v>0.0001072477161823294</v>
       </c>
       <c r="H56" t="n">
         <v>88.48263239798264</v>
@@ -2686,13 +2686,13 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>0.1592914984584922</v>
+        <v>0.1592816393784799</v>
       </c>
       <c r="K56" t="n">
-        <v>835.8884989758226</v>
+        <v>835.8885101359283</v>
       </c>
       <c r="L56" t="n">
-        <v>242.1350677790741</v>
+        <v>242.1374674637404</v>
       </c>
     </row>
     <row r="57">
@@ -2700,13 +2700,13 @@
         <v>550</v>
       </c>
       <c r="B57" t="n">
-        <v>292.3733366335339</v>
+        <v>292.3777936604891</v>
       </c>
       <c r="C57" t="n">
         <v>77.25570186203538</v>
       </c>
       <c r="D57" t="n">
-        <v>0.9852400946017285</v>
+        <v>0.9852402420149234</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2714,10 +2714,10 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0.178102146003389</v>
+        <v>0.1781021431231253</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0001076253241187946</v>
+        <v>0.0001076242187207423</v>
       </c>
       <c r="H57" t="n">
         <v>88.46439280049435</v>
@@ -2726,13 +2726,13 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>0.1592914159545855</v>
+        <v>0.1592814682080847</v>
       </c>
       <c r="K57" t="n">
-        <v>835.9239415952841</v>
+        <v>835.9239551138264</v>
       </c>
       <c r="L57" t="n">
-        <v>241.2879180646699</v>
+        <v>241.2903963097883</v>
       </c>
     </row>
     <row r="58">
@@ -2740,13 +2740,13 @@
         <v>560</v>
       </c>
       <c r="B58" t="n">
-        <v>290.780422417541</v>
+        <v>290.7849798243707</v>
       </c>
       <c r="C58" t="n">
         <v>77.20196128332771</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9851885763936737</v>
+        <v>0.9851887296803125</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2754,10 +2754,10 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0.1780947329302859</v>
+        <v>0.1780947295231589</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0001080081847086954</v>
+        <v>0.0001080070353064414</v>
       </c>
       <c r="H58" t="n">
         <v>88.44610774068762</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>0.1592914215992994</v>
+        <v>0.159281383611849</v>
       </c>
       <c r="K58" t="n">
-        <v>835.9587363653803</v>
+        <v>835.9587523580917</v>
       </c>
       <c r="L58" t="n">
-        <v>240.4326158957154</v>
+        <v>240.4351745604345</v>
       </c>
     </row>
     <row r="59">
@@ -2780,13 +2780,13 @@
         <v>570</v>
       </c>
       <c r="B59" t="n">
-        <v>289.1875072353952</v>
+        <v>289.1921659406673</v>
       </c>
       <c r="C59" t="n">
         <v>77.14807581547785</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9851361902929858</v>
+        <v>0.9851363496589753</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2794,10 +2794,10 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.178087459688666</v>
+        <v>0.1780874557295651</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0001083975174276566</v>
+        <v>0.0001083963224766231</v>
       </c>
       <c r="H59" t="n">
         <v>88.42777710363366</v>
@@ -2806,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>0.1592915182145768</v>
+        <v>0.1592813883703397</v>
       </c>
       <c r="K59" t="n">
-        <v>835.9928776231899</v>
+        <v>835.9928962083291</v>
       </c>
       <c r="L59" t="n">
-        <v>239.5690510623594</v>
+        <v>239.5716920494206</v>
       </c>
     </row>
     <row r="60">
@@ -2820,13 +2820,13 @@
         <v>580</v>
       </c>
       <c r="B60" t="n">
-        <v>287.594590148435</v>
+        <v>287.599351087303</v>
       </c>
       <c r="C60" t="n">
         <v>77.09404503305132</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9850829149053414</v>
+        <v>0.9850830805645541</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2834,10 +2834,10 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.1780803274498506</v>
+        <v>0.1780803229131191</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0001087934831643955</v>
+        <v>0.0001087922410599421</v>
       </c>
       <c r="H60" t="n">
         <v>88.40940077394752</v>
@@ -2846,13 +2846,13 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>0.1592917086960169</v>
+        <v>0.1592814853364349</v>
       </c>
       <c r="K60" t="n">
-        <v>836.0263597092606</v>
+        <v>836.0263810076669</v>
       </c>
       <c r="L60" t="n">
-        <v>238.6971133961996</v>
+        <v>238.6998386525659</v>
       </c>
     </row>
     <row r="61">
@@ -2860,13 +2860,13 @@
         <v>590</v>
       </c>
       <c r="B61" t="n">
-        <v>286.0016701882848</v>
+        <v>286.0065343129287</v>
       </c>
       <c r="C61" t="n">
         <v>77.03986850871468</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9850287282556791</v>
+        <v>0.9850289004302786</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2874,10 +2874,10 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.1780733373846766</v>
+        <v>0.1780733322441001</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0001091962472227848</v>
+        <v>0.0001091949562977302</v>
       </c>
       <c r="H61" t="n">
         <v>88.39097863578553</v>
@@ -2886,13 +2886,13 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>0.1592919960150268</v>
+        <v>0.1592816774374251</v>
       </c>
       <c r="K61" t="n">
-        <v>836.0591769677416</v>
+        <v>836.0592011028893</v>
       </c>
       <c r="L61" t="n">
-        <v>237.8166928637878</v>
+        <v>237.8195043812573</v>
       </c>
     </row>
     <row r="62">
@@ -2900,13 +2900,13 @@
         <v>600</v>
       </c>
       <c r="B62" t="n">
-        <v>284.4087463560743</v>
+        <v>284.4137146361569</v>
       </c>
       <c r="C62" t="n">
         <v>76.98554581322418</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9849736077720904</v>
+        <v>0.9849737866928719</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2914,10 +2914,10 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0.1780664906634891</v>
+        <v>0.178066484892283</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0001096059794468817</v>
+        <v>0.0001096046379689172</v>
       </c>
       <c r="H62" t="n">
         <v>88.37251057284283</v>
@@ -2926,13 +2926,13 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>0.1592923832210429</v>
+        <v>0.1592819676771827</v>
       </c>
       <c r="K62" t="n">
-        <v>836.0913237465074</v>
+        <v>836.091350844562</v>
       </c>
       <c r="L62" t="n">
-        <v>236.9276796640865</v>
+        <v>236.9305794798913</v>
       </c>
     </row>
     <row r="63">
@@ -2940,13 +2940,13 @@
         <v>610</v>
       </c>
       <c r="B63" t="n">
-        <v>282.8158176216361</v>
+        <v>282.8208910447729</v>
       </c>
       <c r="C63" t="n">
         <v>76.93107651541425</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9849175302692349</v>
+        <v>0.9849177161759797</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2954,10 +2954,10 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0.1780597884561344</v>
+        <v>0.1780597820269318</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0001100228543497995</v>
+        <v>0.0001100214605187886</v>
       </c>
       <c r="H63" t="n">
         <v>88.35399646835062</v>
@@ -2966,13 +2966,13 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>0.1592928734438241</v>
+        <v>0.159282359138401</v>
       </c>
       <c r="K63" t="n">
-        <v>836.1227943972804</v>
+        <v>836.1228245871567</v>
       </c>
       <c r="L63" t="n">
-        <v>236.0299643299208</v>
+        <v>236.032954527308</v>
       </c>
     </row>
     <row r="64">
@@ -2980,13 +2980,13 @@
         <v>620</v>
       </c>
       <c r="B64" t="n">
-        <v>281.2228829226779</v>
+        <v>281.2280624949238</v>
       </c>
       <c r="C64" t="n">
         <v>76.87646018218595</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9848604719312574</v>
+        <v>0.9848606650731038</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2994,10 +2994,10 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.1780532319319549</v>
+        <v>0.1780532248167935</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0001104470512465589</v>
+        <v>0.0001104456031917185</v>
       </c>
       <c r="H64" t="n">
         <v>88.33543620507375</v>
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>0.1592934698958206</v>
+        <v>0.1592828549849065</v>
       </c>
       <c r="K64" t="n">
-        <v>836.1535832757469</v>
+        <v>836.1536166891696</v>
       </c>
       <c r="L64" t="n">
-        <v>235.1234378334599</v>
+        <v>235.1265205422541</v>
       </c>
     </row>
     <row r="65">
@@ -3020,13 +3020,13 @@
         <v>630</v>
       </c>
       <c r="B65" t="n">
-        <v>279.6299411639317</v>
+        <v>279.6352279102834</v>
       </c>
       <c r="C65" t="n">
         <v>76.82169637849557</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9848024082941937</v>
+        <v>0.9848026089300231</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3034,10 +3034,10 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.1780468222597848</v>
+        <v>0.1780468144300936</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0001108787543910706</v>
+        <v>0.0001108772501680266</v>
       </c>
       <c r="H65" t="n">
         <v>88.31682966530811</v>
@@ -3046,13 +3046,13 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>0.1592941758746205</v>
+        <v>0.1592834584640467</v>
       </c>
       <c r="K65" t="n">
-        <v>836.1836847416679</v>
+        <v>836.1837215132331</v>
       </c>
       <c r="L65" t="n">
-        <v>234.2079916957525</v>
+        <v>234.2111690928981</v>
       </c>
     </row>
     <row r="66">
@@ -3060,13 +3060,13 @@
         <v>640</v>
       </c>
       <c r="B66" t="n">
-        <v>278.0369912162769</v>
+        <v>278.0423861811918</v>
       </c>
       <c r="C66" t="n">
         <v>76.7667846673429</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9847433142278439</v>
+        <v>0.9847435226266837</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3074,10 +3074,10 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0.1780405606079473</v>
+        <v>0.1780405520345327</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0001113181531173971</v>
+        <v>0.0001113165907051094</v>
       </c>
       <c r="H66" t="n">
         <v>88.29817673087797</v>
@@ -3086,13 +3086,13 @@
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>0.1592949947654776</v>
+        <v>0.1592841729091569</v>
       </c>
       <c r="K66" t="n">
-        <v>836.2130931589869</v>
+        <v>836.2131334262264</v>
       </c>
       <c r="L66" t="n">
-        <v>233.2835181003446</v>
+        <v>233.2867924104263</v>
       </c>
     </row>
     <row r="67">
@@ -3100,13 +3100,13 @@
         <v>650</v>
       </c>
       <c r="B67" t="n">
-        <v>276.4440319158377</v>
+        <v>276.4495361637707</v>
       </c>
       <c r="C67" t="n">
         <v>76.7117246097589</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9846831639170943</v>
+        <v>0.9846833803585405</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3114,10 +3114,10 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0.1780344481442526</v>
+        <v>0.1780344387972843</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0001117654419854586</v>
+        <v>0.0001117638192830089</v>
       </c>
       <c r="H67" t="n">
         <v>88.27947728313319</v>
@@ -3126,13 +3126,13 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>0.1592959300439239</v>
+        <v>0.1592850017421075</v>
       </c>
       <c r="K67" t="n">
-        <v>836.2418028959296</v>
+        <v>836.2418467993772</v>
       </c>
       <c r="L67" t="n">
-        <v>232.3499100109848</v>
+        <v>232.3532835067242</v>
       </c>
     </row>
     <row r="68">
@@ -3140,13 +3140,13 @@
         <v>660</v>
       </c>
       <c r="B68" t="n">
-        <v>274.851062063053</v>
+        <v>274.8566766790113</v>
       </c>
       <c r="C68" t="n">
         <v>76.65651576479416</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9846219308426709</v>
+        <v>0.9846221556173268</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3154,10 +3154,10 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0.1780284860359977</v>
+        <v>0.1780284758849938</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0001122208209313468</v>
+        <v>0.000112219135754582</v>
       </c>
       <c r="H68" t="n">
         <v>88.26073120294676</v>
@@ -3166,13 +3166,13 @@
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>0.159296985278469</v>
+        <v>0.1592859484759389</v>
       </c>
       <c r="K68" t="n">
-        <v>836.2698083251012</v>
+        <v>836.2698560083608</v>
       </c>
       <c r="L68" t="n">
-        <v>231.4070612934304</v>
+        <v>231.4105362961585</v>
       </c>
     </row>
     <row r="69">
@@ -3180,13 +3180,13 @@
         <v>670</v>
       </c>
       <c r="B69" t="n">
-        <v>273.2580804217191</v>
+        <v>273.2638065118355</v>
       </c>
       <c r="C69" t="n">
         <v>76.60115768950698</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9845595877612995</v>
+        <v>0.9845598211712353</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3194,10 +3194,10 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0.1780226754499669</v>
+        <v>0.1780226644637791</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0001126844954224262</v>
+        <v>0.0001126827455004512</v>
       </c>
       <c r="H69" t="n">
         <v>88.24193837071202</v>
@@ -3206,13 +3206,13 @@
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>0.1592981641333924</v>
+        <v>0.1592870167175816</v>
       </c>
       <c r="K69" t="n">
-        <v>836.2971038235758</v>
+        <v>836.2971554333922</v>
       </c>
       <c r="L69" t="n">
-        <v>230.4548668413437</v>
+        <v>230.4584457214459</v>
       </c>
     </row>
     <row r="70">
@@ -3220,13 +3220,13 @@
         <v>680</v>
       </c>
       <c r="B70" t="n">
-        <v>271.6650857180028</v>
+        <v>271.6709244101288</v>
       </c>
       <c r="C70" t="n">
         <v>76.54564993895121</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9844961066852522</v>
+        <v>0.9844963490444858</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3234,10 +3234,10 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0.1780170175524347</v>
+        <v>0.1780170056992322</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0001131566766174031</v>
+        <v>0.0001131548595889141</v>
       </c>
       <c r="H70" t="n">
         <v>88.22309866633999</v>
@@ -3246,13 +3246,13 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>0.1592994703716288</v>
+        <v>0.1592882101706707</v>
       </c>
       <c r="K70" t="n">
-        <v>836.3236837729814</v>
+        <v>836.3237394593131</v>
       </c>
       <c r="L70" t="n">
-        <v>229.4932227062716</v>
+        <v>229.4969078836046</v>
       </c>
     </row>
     <row r="71">
@@ -3260,13 +3260,13 @@
         <v>690</v>
       </c>
       <c r="B71" t="n">
-        <v>270.0720766394252</v>
+        <v>270.0780290837443</v>
       </c>
       <c r="C71" t="n">
         <v>76.48999206616378</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9844314588612597</v>
+        <v>0.9844317104962573</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3274,10 +3274,10 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0.178011513509169</v>
+        <v>0.1780115007564223</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0001136375815315564</v>
+        <v>0.0001136356949410083</v>
       </c>
       <c r="H71" t="n">
         <v>88.20421196925663</v>
@@ -3286,13 +3286,13 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>0.1593009078577538</v>
+        <v>0.1592895326384559</v>
       </c>
       <c r="K71" t="n">
-        <v>836.3495425595781</v>
+        <v>836.3496024756726</v>
       </c>
       <c r="L71" t="n">
-        <v>228.522026231682</v>
+        <v>228.5258201759611</v>
       </c>
     </row>
     <row r="72">
@@ -3300,13 +3300,13 @@
         <v>700</v>
       </c>
       <c r="B72" t="n">
-        <v>268.4790518338145</v>
+        <v>268.4851192034762</v>
       </c>
       <c r="C72" t="n">
         <v>76.43418362215289</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9843656147487608</v>
+        <v>0.9843658759989616</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3314,10 +3314,10 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0.1780061644854362</v>
+        <v>0.1780061507999004</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0001141274332073318</v>
+        <v>0.0001141254745009302</v>
       </c>
       <c r="H72" t="n">
         <v>88.18527815840001</v>
@@ -3326,13 +3326,13 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>0.1593024805610729</v>
+        <v>0.1592909880268099</v>
       </c>
       <c r="K72" t="n">
-        <v>836.3746745743318</v>
+        <v>836.374738876804</v>
       </c>
       <c r="L72" t="n">
-        <v>227.5411761910278</v>
+        <v>227.5450814221814</v>
       </c>
     </row>
     <row r="73">
@@ -3340,13 +3340,13 @@
         <v>710</v>
       </c>
       <c r="B73" t="n">
-        <v>266.8860099082264</v>
+        <v>266.8921934000027</v>
       </c>
       <c r="C73" t="n">
         <v>76.37822415588528</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9842985439974695</v>
+        <v>0.9842988152158331</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3354,10 +3354,10 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0.1780009716460079</v>
+        <v>0.1780009569937053</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0001146264608905094</v>
+        <v>0.0001146244274120186</v>
       </c>
       <c r="H73" t="n">
         <v>88.16629711221775</v>
@@ -3366,13 +3366,13 @@
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>0.1593041925588163</v>
+        <v>0.1592925803473421</v>
       </c>
       <c r="K73" t="n">
-        <v>836.399074212979</v>
+        <v>836.3991430618916</v>
       </c>
       <c r="L73" t="n">
-        <v>226.5505729297914</v>
+        <v>226.5545920182837</v>
       </c>
     </row>
     <row r="74">
@@ -3380,13 +3380,13 @@
         <v>720</v>
       </c>
       <c r="B74" t="n">
-        <v>265.2929494278319</v>
+        <v>265.2992502627965</v>
       </c>
       <c r="C74" t="n">
         <v>76.32211321427388</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9842302154242285</v>
+        <v>0.9842304969778075</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3394,10 +3394,10 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0.1779959361551689</v>
+        <v>0.1779959205013709</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0001151349002121678</v>
+        <v>0.0001151327891985258</v>
       </c>
       <c r="H74" t="n">
         <v>88.147268708664</v>
@@ -3406,13 +3406,13 @@
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>0.1593060480394472</v>
+        <v>0.1592943137206201</v>
       </c>
       <c r="K74" t="n">
-        <v>836.4227358760871</v>
+        <v>836.4228094350342</v>
       </c>
       <c r="L74" t="n">
-        <v>225.5501185114571</v>
+        <v>225.5542540785743</v>
       </c>
     </row>
     <row r="75">
@@ -3420,13 +3420,13 @@
         <v>730</v>
       </c>
       <c r="B75" t="n">
-        <v>263.699868914771</v>
+        <v>263.7062883390015</v>
       </c>
       <c r="C75" t="n">
         <v>76.26585034216521</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9841605969891249</v>
+        <v>0.9841608892596643</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3434,10 +3434,10 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0.1779910591767271</v>
+        <v>0.1779910424859358</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0001156529933766747</v>
+        <v>0.0001156508019534051</v>
       </c>
       <c r="H75" t="n">
         <v>88.12819282519681</v>
@@ -3446,13 +3446,13 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>0.1593080513060859</v>
+        <v>0.1592961923795038</v>
       </c>
       <c r="K75" t="n">
-        <v>836.4456539691079</v>
+        <v>836.4457324053013</v>
       </c>
       <c r="L75" t="n">
-        <v>224.5397168673431</v>
+        <v>224.5439715854443</v>
       </c>
     </row>
     <row r="76">
@@ -3460,13 +3460,13 @@
         <v>740</v>
       </c>
       <c r="B76" t="n">
-        <v>262.1067668469705</v>
+        <v>262.1133061322756</v>
       </c>
       <c r="C76" t="n">
         <v>76.20943508232699</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9840896557708396</v>
+        <v>0.9840899591554025</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3474,10 +3474,10 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0.1779863418740246</v>
+        <v>0.1779863241099531</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0001161809893559487</v>
+        <v>0.0001161787145323588</v>
       </c>
       <c r="H76" t="n">
         <v>88.10906933877531</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>0.1593102067800559</v>
+        <v>0.1592982206725971</v>
       </c>
       <c r="K76" t="n">
-        <v>836.4678229024228</v>
+        <v>836.4679063867819</v>
       </c>
       <c r="L76" t="n">
-        <v>223.5192739502143</v>
+        <v>223.5236505429425</v>
       </c>
     </row>
     <row r="77">
@@ -3500,13 +3500,13 @@
         <v>750</v>
       </c>
       <c r="B77" t="n">
-        <v>260.5136416569249</v>
+        <v>260.5203021015973</v>
       </c>
       <c r="C77" t="n">
         <v>76.15286697543496</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9840173579411972</v>
+        <v>0.9840176728528207</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3514,10 +3514,10 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.1779817854099508</v>
+        <v>0.1779817665355036</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0001167191440902488</v>
+        <v>0.0001167167827544026</v>
       </c>
       <c r="H77" t="n">
         <v>88.08989812585673</v>
@@ -3526,13 +3526,13 @@
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>0.1593125190045563</v>
+        <v>0.1593004030678225</v>
       </c>
       <c r="K77" t="n">
-        <v>836.4892370913815</v>
+        <v>836.489325798625</v>
       </c>
       <c r="L77" t="n">
-        <v>222.4886978915807</v>
+        <v>222.4931991340353</v>
       </c>
     </row>
     <row r="78">
@@ -3540,13 +3540,13 @@
         <v>760</v>
       </c>
       <c r="B78" t="n">
-        <v>258.9204917304402</v>
+        <v>258.9272746600361</v>
       </c>
       <c r="C78" t="n">
         <v>76.09614556006022</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9839436687388878</v>
+        <v>0.9839439956072684</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3554,10 +3554,10 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0.1779773909469568</v>
+        <v>0.1779773709242089</v>
       </c>
       <c r="G78" t="n">
-        <v>0.000117267720695756</v>
+        <v>0.0001172652696092119</v>
       </c>
       <c r="H78" t="n">
         <v>88.07067906239359</v>
@@ -3566,13 +3566,13 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>0.1593149926484678</v>
+        <v>0.1593027441561239</v>
       </c>
       <c r="K78" t="n">
-        <v>836.5098909563343</v>
+        <v>836.5099850650772</v>
       </c>
       <c r="L78" t="n">
-        <v>221.4478991625789</v>
+        <v>221.4525278814457</v>
       </c>
     </row>
     <row r="79">
@@ -3580,13 +3580,13 @@
         <v>770</v>
       </c>
       <c r="B79" t="n">
-        <v>257.3273154053372</v>
+        <v>257.3342221734831</v>
       </c>
       <c r="C79" t="n">
         <v>76.03927037265623</v>
       </c>
       <c r="D79" t="n">
-        <v>0.9838685524423282</v>
+        <v>0.9838688917145387</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3594,10 +3594,10 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0.1779731596470723</v>
+        <v>0.1779731384372479</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0001178269896792334</v>
+        <v>0.0001178244454715317</v>
       </c>
       <c r="H79" t="n">
         <v>88.05141202383088</v>
@@ -3606,13 +3606,13 @@
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>0.1593176325102958</v>
+        <v>0.1593052486553022</v>
       </c>
       <c r="K79" t="n">
-        <v>836.5297789226547</v>
+        <v>836.5298786155068</v>
       </c>
       <c r="L79" t="n">
-        <v>220.3967907383119</v>
+        <v>220.4015498119505</v>
       </c>
     </row>
     <row r="80">
@@ -3620,13 +3620,13 @@
         <v>780</v>
       </c>
       <c r="B80" t="n">
-        <v>255.7341109701146</v>
+        <v>255.7411429593432</v>
       </c>
       <c r="C80" t="n">
         <v>75.98224094754602</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9837919723416231</v>
+        <v>0.9837923244828647</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3634,10 +3634,10 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.1779690926719235</v>
+        <v>0.1779690702353735</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0001183972291600565</v>
+        <v>0.0001183945883229459</v>
       </c>
       <c r="H80" t="n">
         <v>88.03209688510309</v>
@@ -3646,13 +3646,13 @@
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>0.1593204435222582</v>
+        <v>0.1593079214139905</v>
       </c>
       <c r="K80" t="n">
-        <v>836.5488954207558</v>
+        <v>836.5490008844245</v>
       </c>
       <c r="L80" t="n">
-        <v>219.3352882655152</v>
+        <v>219.3401806240015</v>
       </c>
     </row>
     <row r="81">
@@ -3660,13 +3660,13 @@
         <v>790</v>
       </c>
       <c r="B81" t="n">
-        <v>254.1408766625694</v>
+        <v>254.1480352851854</v>
       </c>
       <c r="C81" t="n">
         <v>75.92505681690875</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9837138907095963</v>
+        <v>0.9837142562039843</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3674,10 +3674,10 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.1779651911827535</v>
+        <v>0.177965167478933</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0001189787250999269</v>
+        <v>0.0001189759839813145</v>
       </c>
       <c r="H81" t="n">
         <v>88.01273352063137</v>
@@ -3686,13 +3686,13 @@
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>0.1593234307545245</v>
+        <v>0.1593107674157762</v>
       </c>
       <c r="K81" t="n">
-        <v>836.567234886097</v>
+        <v>836.5673463114952</v>
       </c>
       <c r="L81" t="n">
-        <v>218.2633102333957</v>
+        <v>218.2683388585188</v>
       </c>
     </row>
     <row r="82">
@@ -3700,13 +3700,13 @@
         <v>800</v>
       </c>
       <c r="B82" t="n">
-        <v>252.5476106683733</v>
+        <v>252.5548973673507</v>
       </c>
       <c r="C82" t="n">
         <v>75.8677175107664</v>
       </c>
       <c r="D82" t="n">
-        <v>0.983634268771848</v>
+        <v>0.9836346481232362</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3714,10 +3714,10 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.1779614563404446</v>
+        <v>0.1779614313278882</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0001195717715405954</v>
+        <v>0.0001195689263382062</v>
       </c>
       <c r="H82" t="n">
         <v>87.99332180432042</v>
@@ -3726,13 +3726,13 @@
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>0.1593265994196115</v>
+        <v>0.159313791783473</v>
       </c>
       <c r="K82" t="n">
-        <v>836.5847917591826</v>
+        <v>836.5849093415382</v>
       </c>
       <c r="L82" t="n">
-        <v>217.1807781474803</v>
+        <v>217.1859460726913</v>
       </c>
     </row>
     <row r="83">
@@ -3740,13 +3740,13 @@
         <v>810</v>
       </c>
       <c r="B83" t="n">
-        <v>250.9543111196039</v>
+        <v>250.9617273695152</v>
       </c>
       <c r="C83" t="n">
         <v>75.8102225569707</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9835530666758031</v>
+        <v>0.9835534604086463</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3754,10 +3754,10 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.1779578893055417</v>
+        <v>0.1779578629418396</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0001201766708499374</v>
+        <v>0.0001201737176046672</v>
       </c>
       <c r="H83" t="n">
         <v>87.97386160955566</v>
@@ -3766,13 +3766,13 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>0.1593299548769449</v>
+        <v>0.1593169997835537</v>
       </c>
       <c r="K83" t="n">
-        <v>836.601560485554</v>
+        <v>836.6016844245244</v>
       </c>
       <c r="L83" t="n">
-        <v>216.08761670629</v>
+        <v>216.0929270166033</v>
       </c>
     </row>
     <row r="84">
@@ -3780,13 +3780,13 @@
         <v>820</v>
       </c>
       <c r="B84" t="n">
-        <v>249.3609760932279</v>
+        <v>249.3685234012077</v>
       </c>
       <c r="C84" t="n">
         <v>75.75257148118942</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9834702434587034</v>
+        <v>0.9834706521189615</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3794,10 +3794,10 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.1779544912382797</v>
+        <v>0.1779544634800514</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0001207937339767429</v>
+        <v>0.0001207906685656887</v>
       </c>
       <c r="H84" t="n">
         <v>87.95435280920012</v>
@@ -3806,13 +3806,13 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>0.1593335026375921</v>
+        <v>0.1593203968307482</v>
       </c>
       <c r="K84" t="n">
-        <v>836.6175355157669</v>
+        <v>836.6176660155594</v>
       </c>
       <c r="L84" t="n">
-        <v>214.9837539806422</v>
+        <v>214.9892098124855</v>
       </c>
     </row>
     <row r="85">
@@ -3820,13 +3820,13 @@
         <v>830</v>
       </c>
       <c r="B85" t="n">
-        <v>247.7676036095362</v>
+        <v>247.7752835162795</v>
       </c>
       <c r="C85" t="n">
         <v>75.69476380689275</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9833857570145031</v>
+        <v>0.9833861811705892</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -3834,10 +3834,10 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0.1779512632986106</v>
+        <v>0.1779512341014785</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0001214232807146014</v>
+        <v>0.0001214200988437504</v>
       </c>
       <c r="H85" t="n">
         <v>87.93479527559155</v>
@@ -3846,13 +3846,13 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>0.1593372483691763</v>
+        <v>0.1593239884928164</v>
       </c>
       <c r="K85" t="n">
-        <v>836.6327113053663</v>
+        <v>836.63284857486</v>
       </c>
       <c r="L85" t="n">
-        <v>213.8691215953651</v>
+        <v>213.8747261363795</v>
       </c>
     </row>
     <row r="86">
@@ -3860,13 +3860,13 @@
         <v>840</v>
       </c>
       <c r="B86" t="n">
-        <v>246.1741916305264</v>
+        <v>246.1820057113245</v>
       </c>
       <c r="C86" t="n">
         <v>75.63679905533996</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9832995640596202</v>
+        <v>0.9833000043033935</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3874,10 +3874,10 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0.177948206646235</v>
+        <v>0.1779481759647966</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0001220656399752814</v>
+        <v>0.0001220623371718413</v>
       </c>
       <c r="H86" t="n">
         <v>87.91518888053932</v>
@@ -3886,13 +3886,13 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>0.1593411979009778</v>
+        <v>0.1593277804955011</v>
       </c>
       <c r="K86" t="n">
-        <v>836.6470823148455</v>
+        <v>836.6472265677199</v>
       </c>
       <c r="L86" t="n">
-        <v>212.7436549131923</v>
+        <v>212.7494114019799</v>
       </c>
     </row>
     <row r="87">
@@ -3900,13 +3900,13 @@
         <v>850</v>
       </c>
       <c r="B87" t="n">
-        <v>244.5807380582341</v>
+        <v>244.5886879240478</v>
       </c>
       <c r="C87" t="n">
         <v>75.57867674556542</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9832116200974919</v>
+        <v>0.9832120770453003</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3914,10 +3914,10 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.1779453224406346</v>
+        <v>0.1779452902284339</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0001227211500720273</v>
+        <v>0.0001227177216763769</v>
       </c>
       <c r="H87" t="n">
         <v>87.8955334953213</v>
@@ -3926,13 +3926,13 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0.1593453572292343</v>
+        <v>0.1593317787276735</v>
       </c>
       <c r="K87" t="n">
-        <v>836.6606430095986</v>
+        <v>836.6607944644671</v>
       </c>
       <c r="L87" t="n">
-        <v>211.6072932205878</v>
+        <v>211.6132049464068</v>
       </c>
     </row>
     <row r="88">
@@ -3940,13 +3940,13 @@
         <v>860</v>
       </c>
       <c r="B88" t="n">
-        <v>242.9872407330076</v>
+        <v>242.995328031581</v>
       </c>
       <c r="C88" t="n">
         <v>75.52039639436452</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9831218793818887</v>
+        <v>0.983122353675661</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3954,10 +3954,10 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0.1779426118411075</v>
+        <v>0.177942578050605</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0001233901590132163</v>
+        <v>0.000123386600170456</v>
       </c>
       <c r="H88" t="n">
         <v>87.87582899068094</v>
@@ -3966,13 +3966,13 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>0.1593497325226468</v>
+        <v>0.1593359892466762</v>
       </c>
       <c r="K88" t="n">
-        <v>836.6733878598615</v>
+        <v>836.6735467404087</v>
       </c>
       <c r="L88" t="n">
-        <v>210.4599799152357</v>
+        <v>210.4660502176415</v>
       </c>
     </row>
     <row r="89">
@@ -3980,13 +3980,13 @@
         <v>870</v>
       </c>
       <c r="B89" t="n">
-        <v>241.3936974317266</v>
+        <v>241.4019238487423</v>
       </c>
       <c r="C89" t="n">
         <v>75.46195751628028</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9830302948789252</v>
+        <v>0.9830307871873183</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3994,10 +3994,10 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0.1779400760068059</v>
+        <v>0.1779400405893479</v>
       </c>
       <c r="G89" t="n">
-        <v>0.000124073024806846</v>
+        <v>0.0001240693304579254</v>
       </c>
       <c r="H89" t="n">
         <v>87.85607523682401</v>
@@ -4006,13 +4006,13 @@
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>0.1593543301281024</v>
+        <v>0.1593404182838757</v>
       </c>
       <c r="K89" t="n">
-        <v>836.6853113406405</v>
+        <v>836.6854778757657</v>
       </c>
       <c r="L89" t="n">
-        <v>209.3016626949064</v>
+        <v>209.3078949633389</v>
       </c>
     </row>
     <row r="90">
@@ -4020,13 +4020,13 @@
         <v>880</v>
       </c>
       <c r="B90" t="n">
-        <v>239.8001058659603</v>
+        <v>239.8084731262379</v>
       </c>
       <c r="C90" t="n">
         <v>75.40335962358824</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9829368182277175</v>
+        <v>0.9829373292473189</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -4034,10 +4034,10 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0.1779377160967767</v>
+        <v>0.1779376790025625</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0001247701157763446</v>
+        <v>0.0001247662806487431</v>
       </c>
       <c r="H90" t="n">
         <v>87.83627210341545</v>
@@ -4046,13 +4046,13 @@
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>0.1593591565766249</v>
+        <v>0.159345072250434</v>
       </c>
       <c r="K90" t="n">
-        <v>836.6964079316325</v>
+        <v>836.6965823555989</v>
       </c>
       <c r="L90" t="n">
-        <v>208.1322937473999</v>
+        <v>208.1386914207164</v>
       </c>
     </row>
     <row r="91">
@@ -4060,13 +4060,13 @@
         <v>890</v>
       </c>
       <c r="B91" t="n">
-        <v>238.2064636800647</v>
+        <v>238.2149735488048</v>
       </c>
       <c r="C91" t="n">
         <v>75.34460222628297</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9828413996996208</v>
+        <v>0.9828419301562131</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -4074,10 +4074,10 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.1779355332700034</v>
+        <v>0.1779354944480527</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0001254818108882238</v>
+        <v>0.0001254778294861597</v>
       </c>
       <c r="H91" t="n">
         <v>87.81641945957637</v>
@@ -4086,13 +4086,13 @@
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>0.1593642185895623</v>
+        <v>0.1593499577433083</v>
       </c>
       <c r="K91" t="n">
-        <v>836.7066721171315</v>
+        <v>836.7068546697204</v>
       </c>
       <c r="L91" t="n">
-        <v>206.9518299412457</v>
+        <v>206.9583965071981</v>
       </c>
     </row>
     <row r="92">
@@ -4100,13 +4100,13 @@
         <v>900</v>
       </c>
       <c r="B92" t="n">
-        <v>236.6127684492145</v>
+        <v>236.6214227332899</v>
       </c>
       <c r="C92" t="n">
         <v>75.28568483206408</v>
       </c>
       <c r="D92" t="n">
-        <v>0.9827439881559906</v>
+        <v>0.982744538805877</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -4114,10 +4114,10 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0.177933528685453</v>
+        <v>0.1779334880835704</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0001262085000921277</v>
+        <v>0.0001262043666862675</v>
       </c>
       <c r="H92" t="n">
         <v>87.7965171738808</v>
@@ -4126,13 +4126,13 @@
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>0.159369523085025</v>
+        <v>0.1593550815514923</v>
       </c>
       <c r="K92" t="n">
-        <v>836.7160983859221</v>
+        <v>836.7162893125943</v>
       </c>
       <c r="L92" t="n">
-        <v>205.7602330168176</v>
+        <v>205.7669720114759</v>
       </c>
     </row>
     <row r="93">
@@ -4140,13 +4140,13 @@
         <v>910</v>
       </c>
       <c r="B93" t="n">
-        <v>235.0190176773686</v>
+        <v>235.0278182266648</v>
       </c>
       <c r="C93" t="n">
         <v>75.22660694632089</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9826445310043929</v>
+        <v>0.982645102635792</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -4154,10 +4154,10 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0.1779317035021233</v>
+        <v>0.1779316610668626</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0001269505846738535</v>
+        <v>0.0001269462932904936</v>
       </c>
       <c r="H93" t="n">
         <v>87.77656511435249</v>
@@ -4166,13 +4166,13 @@
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>0.1593750771845851</v>
+        <v>0.159360450662509</v>
       </c>
       <c r="K93" t="n">
-        <v>836.7246812311618</v>
+        <v>836.7248807832242</v>
       </c>
       <c r="L93" t="n">
-        <v>204.5574697775118</v>
+        <v>204.5643847846316</v>
       </c>
     </row>
     <row r="94">
@@ -4180,13 +4180,13 @@
         <v>920</v>
       </c>
       <c r="B94" t="n">
-        <v>233.4252087951661</v>
+        <v>233.4341575039732</v>
       </c>
       <c r="C94" t="n">
         <v>75.16736807211805</v>
       </c>
       <c r="D94" t="n">
-        <v>0.9825429741532001</v>
+        <v>0.982543567587709</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -4194,10 +4194,10 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0.1779300588790952</v>
+        <v>0.1779300145557215</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0001277084776219589</v>
+        <v>0.0001277040220316488</v>
       </c>
       <c r="H94" t="n">
         <v>87.75656314846155</v>
@@ -4206,13 +4206,13 @@
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>0.1593808882202518</v>
+        <v>0.159366072269168</v>
       </c>
       <c r="K94" t="n">
-        <v>836.7324151502513</v>
+        <v>836.7326235850312</v>
       </c>
       <c r="L94" t="n">
-        <v>203.3435122806134</v>
+        <v>203.3506069309504</v>
       </c>
     </row>
     <row r="95">
@@ -4220,13 +4220,13 @@
         <v>930</v>
       </c>
       <c r="B95" t="n">
-        <v>231.8313391577488</v>
+        <v>231.8404379662072</v>
       </c>
       <c r="C95" t="n">
         <v>75.10796771018153</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9824392619644937</v>
+        <v>0.9824398780586274</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -4234,10 +4234,10 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0.1779285959755862</v>
+        <v>0.1779285497080373</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0001284826040086034</v>
+        <v>0.0001284779777141774</v>
       </c>
       <c r="H95" t="n">
         <v>87.73651114312143</v>
@@ -4246,13 +4246,13 @@
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>0.1593869637417344</v>
+        <v>0.1593719537766013</v>
       </c>
       <c r="K95" t="n">
-        <v>836.739294644688</v>
+        <v>836.739512225713</v>
       </c>
       <c r="L95" t="n">
-        <v>202.1183380274604</v>
+        <v>202.1256159980297</v>
       </c>
     </row>
     <row r="96">
@@ -4260,13 +4260,13 @@
         <v>940</v>
       </c>
       <c r="B96" t="n">
-        <v>230.2374060425087</v>
+        <v>230.2466569381113</v>
       </c>
       <c r="C96" t="n">
         <v>75.0484053588832</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9823333372051952</v>
+        <v>0.9823339768520053</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -4274,10 +4274,10 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0.1779273159510088</v>
+        <v>0.1779272676818538</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0001292734013853073</v>
+        <v>0.0001292685976092905</v>
       </c>
       <c r="H96" t="n">
         <v>87.71640896468564</v>
@@ -4286,13 +4286,13 @@
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>0.1593933115240097</v>
+        <v>0.1593781028095907</v>
       </c>
       <c r="K96" t="n">
-        <v>836.745314219908</v>
+        <v>836.745541217095</v>
       </c>
       <c r="L96" t="n">
-        <v>200.8819301524988</v>
+        <v>200.8893951657821</v>
       </c>
     </row>
     <row r="97">
@@ -4300,13 +4300,13 @@
         <v>950</v>
       </c>
       <c r="B97" t="n">
-        <v>228.6434066467566</v>
+        <v>228.6528116659093</v>
       </c>
       <c r="C97" t="n">
         <v>74.98868051422596</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9822251409963474</v>
+        <v>0.9822258051271232</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -4314,10 +4314,10 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0.1779262199650307</v>
+        <v>0.1779261696354282</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0001300813201943521</v>
+        <v>0.0001300763318657027</v>
       </c>
       <c r="H97" t="n">
         <v>87.69625647894412</v>
@@ -4326,13 +4326,13 @@
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>0.1593999395752081</v>
+        <v>0.1593845272202007</v>
       </c>
       <c r="K97" t="n">
-        <v>836.7504683851109</v>
+        <v>836.750705074961</v>
       </c>
       <c r="L97" t="n">
-        <v>199.6342776108046</v>
+        <v>199.6419334339057</v>
       </c>
     </row>
     <row r="98">
@@ -4340,13 +4340,13 @@
         <v>960</v>
       </c>
       <c r="B98" t="n">
-        <v>227.0493380853082</v>
+        <v>227.0588993149519</v>
       </c>
       <c r="C98" t="n">
         <v>74.92879266982908</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9821146127604501</v>
+        <v>0.9821153023465093</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -4354,10 +4354,10 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0.1779253091776392</v>
+        <v>0.1779252567272931</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0001309068241965856</v>
+        <v>0.000130901643936735</v>
       </c>
       <c r="H98" t="n">
         <v>87.67605355112038</v>
@@ -4366,13 +4366,13 @@
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>0.1594068561448343</v>
+        <v>0.1593912350957354</v>
       </c>
       <c r="K98" t="n">
-        <v>836.7547516530727</v>
+        <v>836.754998318876</v>
       </c>
       <c r="L98" t="n">
-        <v>198.3753753636366</v>
+        <v>198.3832258073853</v>
       </c>
     </row>
     <row r="99">
@@ -4380,13 +4380,13 @@
         <v>970</v>
       </c>
       <c r="B99" t="n">
-        <v>225.4551973879848</v>
+        <v>225.4649169672816</v>
       </c>
       <c r="C99" t="n">
         <v>74.86874131691269</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9820016901667664</v>
+        <v>0.9820024062213393</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -4394,10 +4394,10 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0.1779245847492091</v>
+        <v>0.1779245301163225</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0001317503909164456</v>
+        <v>0.0001317450110245928</v>
       </c>
       <c r="H99" t="n">
         <v>87.65580004586778</v>
@@ -4406,13 +4406,13 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>0.1594140697323417</v>
+        <v>0.1593982347670334</v>
       </c>
       <c r="K99" t="n">
-        <v>836.75815853994</v>
+        <v>836.7584154719863</v>
       </c>
       <c r="L99" t="n">
-        <v>197.1052245615594</v>
+        <v>197.1132734795679</v>
       </c>
     </row>
     <row r="100">
@@ -4420,13 +4420,13 @@
         <v>980</v>
       </c>
       <c r="B100" t="n">
-        <v>223.8609814970241</v>
+        <v>223.8708616191104</v>
       </c>
       <c r="C100" t="n">
         <v>74.80852594428279</v>
       </c>
       <c r="D100" t="n">
-        <v>0.9818863090744953</v>
+        <v>0.9818870526547089</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -4434,10 +4434,10 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0.1779240478405738</v>
+        <v>0.1779239909618016</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0001326125121050545</v>
+        <v>0.0001326069245426708</v>
       </c>
       <c r="H100" t="n">
         <v>87.63549582726644</v>
@@ -4446,13 +4446,13 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>0.1594215890960771</v>
+        <v>0.1594055348171182</v>
       </c>
       <c r="K100" t="n">
-        <v>836.7606835650079</v>
+        <v>836.7609510608078</v>
       </c>
       <c r="L100" t="n">
-        <v>195.8238327246758</v>
+        <v>195.8320840123468</v>
       </c>
     </row>
     <row r="101">
@@ -4460,13 +4460,13 @@
         <v>990</v>
       </c>
       <c r="B101" t="n">
-        <v>222.2666872643979</v>
+        <v>222.2767301782081</v>
       </c>
       <c r="C101" t="n">
         <v>74.74814603831572</v>
       </c>
       <c r="D101" t="n">
-        <v>0.9817684034737106</v>
+        <v>0.9817691756826772</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -4474,10 +4474,10 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0.1779236996131007</v>
+        <v>0.1779236404234996</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0001334936942222963</v>
+        <v>0.0001334878905967909</v>
       </c>
       <c r="H101" t="n">
         <v>87.61514075881963</v>
@@ -4486,13 +4486,13 @@
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>0.1594294232626166</v>
+        <v>0.1594131440902262</v>
       </c>
       <c r="K101" t="n">
-        <v>836.762321250482</v>
+        <v>836.7625996149982</v>
       </c>
       <c r="L101" t="n">
-        <v>194.5312139194805</v>
+        <v>194.5396715129719</v>
       </c>
     </row>
     <row r="102">
@@ -4500,13 +4500,13 @@
         <v>1000</v>
       </c>
       <c r="B102" t="n">
-        <v>220.6723114490328</v>
+        <v>220.6825194611959</v>
       </c>
       <c r="C102" t="n">
         <v>74.68760108294248</v>
       </c>
       <c r="D102" t="n">
-        <v>0.9816479054239554</v>
+        <v>0.9816487074129735</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -4514,10 +4514,10 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0.1779235412287705</v>
+        <v>0.177923479661747</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0001343944589388362</v>
+        <v>0.0001343884304863321</v>
       </c>
       <c r="H102" t="n">
         <v>87.59473470345041</v>
@@ -4526,13 +4526,13 @@
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>0.1594375815365123</v>
+        <v>0.1594210717012273</v>
       </c>
       <c r="K102" t="n">
-        <v>836.7630661212222</v>
+        <v>836.7633556671072</v>
       </c>
       <c r="L102" t="n">
-        <v>193.227388931844</v>
+        <v>193.2360568069911</v>
       </c>
     </row>
     <row r="103">
@@ -4540,13 +4540,13 @@
         <v>1010</v>
       </c>
       <c r="B103" t="n">
-        <v>219.077850713928</v>
+        <v>219.0882261907412</v>
       </c>
       <c r="C103" t="n">
         <v>74.62689055963313</v>
       </c>
       <c r="D103" t="n">
-        <v>0.9815247449903765</v>
+        <v>0.9815255779612503</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -4554,10 +4554,10 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0.1779235738502599</v>
+        <v>0.1779235098375165</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0001353153436591031</v>
+        <v>0.0001353090812262673</v>
       </c>
       <c r="H103" t="n">
         <v>87.57427752349814</v>
@@ -4566,13 +4566,13 @@
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>0.1594460735104736</v>
+        <v>0.1594293270454627</v>
       </c>
       <c r="K103" t="n">
-        <v>836.7629127044662</v>
+        <v>836.7632137523135</v>
       </c>
       <c r="L103" t="n">
-        <v>191.9123854356205</v>
+        <v>191.9212676068189</v>
       </c>
     </row>
     <row r="104">
@@ -4580,13 +4580,13 @@
         <v>1020</v>
       </c>
       <c r="B104" t="n">
-        <v>217.483301623168</v>
+        <v>217.493846992651</v>
       </c>
       <c r="C104" t="n">
         <v>74.5660139473818</v>
       </c>
       <c r="D104" t="n">
-        <v>0.9813988501772759</v>
+        <v>0.9813997153847602</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -4594,10 +4594,10 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0.1779237986410299</v>
+        <v>0.1779237321125086</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0001362569020663177</v>
+        <v>0.0001362503960911874</v>
       </c>
       <c r="H104" t="n">
         <v>87.55376908071527</v>
@@ -4606,13 +4606,13 @@
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>0.1594549090760047</v>
+        <v>0.1594379198090215</v>
       </c>
       <c r="K104" t="n">
-        <v>836.7618555295356</v>
+        <v>836.7621684081397</v>
       </c>
       <c r="L104" t="n">
-        <v>190.5862381563614</v>
+        <v>190.5953386754145</v>
       </c>
     </row>
     <row r="105">
@@ -4620,13 +4620,13 @@
         <v>1030</v>
       </c>
       <c r="B105" t="n">
-        <v>215.8886606388227</v>
+        <v>215.8993783928562</v>
       </c>
       <c r="C105" t="n">
         <v>74.50497072268968</v>
       </c>
       <c r="D105" t="n">
-        <v>0.9812701468589491</v>
+        <v>0.9812710456133286</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -4634,10 +4634,10 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0.1779242167654175</v>
+        <v>0.177924147649241</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0001372197046907118</v>
+        <v>0.0001372129451824529</v>
       </c>
       <c r="H105" t="n">
         <v>87.53320923626342</v>
@@ -4646,13 +4646,13 @@
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>0.1594640984345237</v>
+        <v>0.1594468599794785</v>
       </c>
       <c r="K105" t="n">
-        <v>836.7598891275205</v>
+        <v>836.7602141741484</v>
       </c>
       <c r="L105" t="n">
-        <v>189.2489890296129</v>
+        <v>189.2583119845471</v>
       </c>
     </row>
     <row r="106">
@@ -4660,13 +4660,13 @@
         <v>1040</v>
       </c>
       <c r="B106" t="n">
-        <v>214.2939241177328</v>
+        <v>214.304816814285</v>
       </c>
       <c r="C106" t="n">
         <v>74.4437603595494</v>
       </c>
       <c r="D106" t="n">
-        <v>0.9811385587076744</v>
+        <v>0.9811394923774833</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -4674,10 +4674,10 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0.1779248293887323</v>
+        <v>0.1779247576111426</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0001382043395021578</v>
+        <v>0.0001381973160196882</v>
       </c>
       <c r="H106" t="n">
         <v>87.51259785071015</v>
@@ -4686,13 +4686,13 @@
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>0.1594736521089917</v>
+        <v>0.1594561578571206</v>
       </c>
       <c r="K106" t="n">
-        <v>836.7570080309434</v>
+        <v>836.7573455916179</v>
       </c>
       <c r="L106" t="n">
-        <v>187.9006873532635</v>
+        <v>187.9102368671157</v>
       </c>
     </row>
     <row r="107">
@@ -4700,13 +4700,13 @@
         <v>1050</v>
       </c>
       <c r="B107" t="n">
-        <v>212.6990883081721</v>
+        <v>212.7101585736181</v>
       </c>
       <c r="C107" t="n">
         <v>74.38238232942905</v>
       </c>
       <c r="D107" t="n">
-        <v>0.9810040071187029</v>
+        <v>0.9810049771335971</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -4714,10 +4714,10 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0.1779256376773579</v>
+        <v>0.1779255631626526</v>
       </c>
       <c r="G107" t="n">
-        <v>0.0001392114125285029</v>
+        <v>0.0001392041141579078</v>
       </c>
       <c r="H107" t="n">
         <v>87.49193478402519</v>
@@ -4726,13 +4726,13 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>0.1594835809560766</v>
+        <v>0.1594658240666869</v>
       </c>
       <c r="K107" t="n">
-        <v>836.7532067734023</v>
+        <v>836.7535572031971</v>
       </c>
       <c r="L107" t="n">
-        <v>186.5413899334027</v>
+        <v>186.5511701629835</v>
       </c>
     </row>
     <row r="108">
@@ -4740,13 +4740,13 @@
         <v>1060</v>
       </c>
       <c r="B108" t="n">
-        <v>211.1041493463832</v>
+        <v>211.1153998779216</v>
       </c>
       <c r="C108" t="n">
         <v>74.32083610125613</v>
       </c>
       <c r="D108" t="n">
-        <v>0.9808664111320993</v>
+        <v>0.9808674189858876</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -4754,10 +4754,10 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0.1779266427988588</v>
+        <v>0.1779265654693241</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0001402415485009807</v>
+        <v>0.0001402339638316424</v>
       </c>
       <c r="H108" t="n">
         <v>87.47121989557711</v>
@@ -4766,13 +4766,13 @@
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>0.1594938961788856</v>
+        <v>0.1594758695696524</v>
       </c>
       <c r="K108" t="n">
-        <v>836.748479889188</v>
+        <v>836.748843552537</v>
       </c>
       <c r="L108" t="n">
-        <v>185.1711612231495</v>
+        <v>185.1811763577894</v>
       </c>
     </row>
     <row r="109">
@@ -4780,13 +4780,13 @@
         <v>1070</v>
       </c>
       <c r="B109" t="n">
-        <v>209.5091032529803</v>
+        <v>209.5205368211507</v>
       </c>
       <c r="C109" t="n">
         <v>74.25912114140056</v>
       </c>
       <c r="D109" t="n">
-        <v>0.9807256873512643</v>
+        <v>0.9807267346051108</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -4794,10 +4794,10 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0.1779278459220924</v>
+        <v>0.1779277656979333</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0001412953915281633</v>
+        <v>0.0001412875086275223</v>
       </c>
       <c r="H109" t="n">
         <v>87.45045304412957</v>
@@ -4806,13 +4806,13 @@
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>0.1595046093402948</v>
+        <v>0.1594863056770858</v>
       </c>
       <c r="K109" t="n">
-        <v>836.74282191288</v>
+        <v>836.7431991838979</v>
       </c>
       <c r="L109" t="n">
-        <v>183.7900734539039</v>
+        <v>183.8003277141843</v>
       </c>
     </row>
     <row r="110">
@@ -4820,13 +4820,13 @@
         <v>1080</v>
       </c>
       <c r="B110" t="n">
-        <v>207.9139459292111</v>
+        <v>207.9255653805196</v>
       </c>
       <c r="C110" t="n">
         <v>74.19723691365829</v>
       </c>
       <c r="D110" t="n">
-        <v>0.9805817498579682</v>
+        <v>0.9805828381437752</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -4834,10 +4834,10 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0.1779292482173256</v>
+        <v>0.1779291650165933</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0001423736058000053</v>
+        <v>0.0001423654121868623</v>
       </c>
       <c r="H110" t="n">
         <v>87.42963408783756</v>
@@ -4846,13 +4846,13 @@
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>0.1595157323769131</v>
+        <v>0.1594971440631116</v>
       </c>
       <c r="K110" t="n">
-        <v>836.7362273789159</v>
+        <v>836.7366186417355</v>
       </c>
       <c r="L110" t="n">
-        <v>182.3982067584768</v>
+        <v>182.4087043949546</v>
       </c>
     </row>
     <row r="111">
@@ -4860,13 +4860,13 @@
         <v>1090</v>
       </c>
       <c r="B111" t="n">
-        <v>206.318673153074</v>
+        <v>206.3304814127294</v>
       </c>
       <c r="C111" t="n">
         <v>74.135182879235</v>
       </c>
       <c r="D111" t="n">
-        <v>0.9804345101237053</v>
+        <v>0.9804356411476908</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -4874,10 +4874,10 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0.1779308508563584</v>
+        <v>0.1779307645948744</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0001434768763236351</v>
+        <v>0.0001434683589398987</v>
       </c>
       <c r="H111" t="n">
         <v>87.40876288424393</v>
@@ -4886,13 +4886,13 @@
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>0.1595272776137147</v>
+        <v>0.1595083967790151</v>
       </c>
       <c r="K111" t="n">
-        <v>836.7286908211363</v>
+        <v>836.7290964702594</v>
       </c>
       <c r="L111" t="n">
-        <v>180.9956492855524</v>
+        <v>181.0063945774828</v>
       </c>
     </row>
     <row r="112">
@@ -4900,13 +4900,13 @@
         <v>1100</v>
       </c>
       <c r="B112" t="n">
-        <v>204.7232805752802</v>
+        <v>204.7352806500492</v>
       </c>
       <c r="C112" t="n">
         <v>74.07295849672903</v>
       </c>
       <c r="D112" t="n">
-        <v>0.9802838769171773</v>
+        <v>0.9802850524636559</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -4914,10 +4914,10 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0.1779326550126532</v>
+        <v>0.1779325656039293</v>
       </c>
       <c r="G112" t="n">
-        <v>0.000144605909692652</v>
+        <v>0.0001445970548734281</v>
       </c>
       <c r="H112" t="n">
         <v>87.38783929027569</v>
@@ -4926,13 +4926,13 @@
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>0.1595392577793798</v>
+        <v>0.1595200762680245</v>
       </c>
       <c r="K112" t="n">
-        <v>836.7202067723009</v>
+        <v>836.7206272129644</v>
       </c>
       <c r="L112" t="n">
-        <v>179.5824973049413</v>
+        <v>179.5934945590056</v>
       </c>
     </row>
     <row r="113">
@@ -4940,13 +4940,13 @@
         <v>1110</v>
       </c>
       <c r="B113" t="n">
-        <v>203.1277637150563</v>
+        <v>203.1399586962411</v>
       </c>
       <c r="C113" t="n">
         <v>74.01056322211429</v>
       </c>
       <c r="D113" t="n">
-        <v>0.9801297562076906</v>
+        <v>0.9801309781430768</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -4954,10 +4954,10 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0.1779346618614694</v>
+        <v>0.1779345692166253</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0001457614348918043</v>
+        <v>0.0001457522283337163</v>
       </c>
       <c r="H113" t="n">
         <v>87.36686316224009</v>
@@ -4966,13 +4966,13 @@
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>0.1595516860223851</v>
+        <v>0.1595321953808091</v>
       </c>
       <c r="K113" t="n">
-        <v>836.7107697635759</v>
+        <v>836.711205412136</v>
       </c>
       <c r="L113" t="n">
-        <v>178.1588553030866</v>
+        <v>178.1701088521335</v>
       </c>
     </row>
     <row r="114">
@@ -4980,13 +4980,13 @@
         <v>1120</v>
       </c>
       <c r="B114" t="n">
-        <v>201.5321179557774</v>
+        <v>201.5445110223237</v>
       </c>
       <c r="C114" t="n">
         <v>73.94799650872341</v>
       </c>
       <c r="D114" t="n">
-        <v>0.9799720510642499</v>
+        <v>0.9799733213412911</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -4994,10 +4994,10 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0.1779368725800059</v>
+        <v>0.1779367766076818</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0001469442041390456</v>
+        <v>0.0001469346308666659</v>
       </c>
       <c r="H114" t="n">
         <v>87.3458343558211</v>
@@ -5006,13 +5006,13 @@
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>0.1595645759278884</v>
+        <v>0.1595447673917391</v>
       </c>
       <c r="K114" t="n">
-        <v>836.7003743239934</v>
+        <v>836.7008256083263</v>
       </c>
       <c r="L114" t="n">
-        <v>176.7248360682973</v>
+        <v>176.7363502701023</v>
       </c>
     </row>
     <row r="115">
@@ -5020,13 +5020,13 @@
         <v>1130</v>
       </c>
       <c r="B115" t="n">
-        <v>199.9363385404229</v>
+        <v>199.9489329621642</v>
       </c>
       <c r="C115" t="n">
         <v>73.88525780723035</v>
       </c>
       <c r="D115" t="n">
-        <v>0.979810661550103</v>
+        <v>0.9798119822123665</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -5034,10 +5034,10 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0.1779392883475495</v>
+        <v>0.1779391889538157</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0001481549937670976</v>
+        <v>0.0001481450380973622</v>
       </c>
       <c r="H115" t="n">
         <v>87.3247527260754</v>
@@ -5046,13 +5046,13 @@
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>0.1595779415354536</v>
+        <v>0.1595578060159464</v>
       </c>
       <c r="K115" t="n">
-        <v>836.689014979878</v>
+        <v>836.6894823397985</v>
       </c>
       <c r="L115" t="n">
-        <v>175.2805607651842</v>
+        <v>175.2923400012385</v>
       </c>
     </row>
     <row r="116">
@@ -5060,13 +5060,13 @@
         <v>1140</v>
       </c>
       <c r="B116" t="n">
-        <v>198.3404205668462</v>
+        <v>198.3532197078918</v>
       </c>
       <c r="C116" t="n">
         <v>73.82234656563293</v>
       </c>
       <c r="D116" t="n">
-        <v>0.9796454846124947</v>
+        <v>0.9796468577991164</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -5074,10 +5074,10 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0.1779419103456309</v>
+        <v>0.1779418074338927</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0001493946051467939</v>
+        <v>0.0001493842506512605</v>
       </c>
       <c r="H116" t="n">
         <v>87.30361812742875</v>
@@ -5086,13 +5086,13 @@
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>0.1595917973576689</v>
+        <v>0.1595713254272416</v>
       </c>
       <c r="K116" t="n">
-        <v>836.676686254241</v>
+        <v>836.6771701419417</v>
       </c>
       <c r="L116" t="n">
-        <v>173.826158997794</v>
+        <v>173.8382076721294</v>
       </c>
     </row>
     <row r="117">
@@ -5100,13 +5100,13 @@
         <v>1150</v>
       </c>
       <c r="B117" t="n">
-        <v>196.7443589828491</v>
+        <v>196.7573663051225</v>
       </c>
       <c r="C117" t="n">
         <v>73.75926222923579</v>
       </c>
       <c r="D117" t="n">
-        <v>0.9794764139673484</v>
+        <v>0.9794778419180682</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -5114,10 +5114,10 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0.1779447397581879</v>
+        <v>0.1779446332290862</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0001506638656546248</v>
+        <v>0.0001506530951194269</v>
       </c>
       <c r="H117" t="n">
         <v>87.28243041367206</v>
@@ -5126,13 +5126,13 @@
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>0.1596061583997092</v>
+        <v>0.1595853402769315</v>
       </c>
       <c r="K117" t="n">
-        <v>836.6633826661415</v>
+        <v>836.6638835466509</v>
       </c>
       <c r="L117" t="n">
-        <v>172.3617688609471</v>
+        <v>172.374091399006</v>
       </c>
     </row>
     <row r="118">
@@ -5140,13 +5140,13 @@
         <v>1160</v>
       </c>
       <c r="B118" t="n">
-        <v>195.5114404391267</v>
+        <v>195.5246121777159</v>
       </c>
       <c r="C118" t="n">
         <v>73.72200503130603</v>
       </c>
       <c r="D118" t="n">
-        <v>0.9793033399785974</v>
+        <v>0.9793048250390975</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -5154,10 +5154,10 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>0.1779477777717369</v>
+        <v>0.1779476675230442</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0001519636296870778</v>
+        <v>0.0001519524250704117</v>
       </c>
       <c r="H118" t="n">
         <v>87.2699194556555</v>
@@ -5166,13 +5166,13 @@
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>0.1232918543722426</v>
+        <v>0.123275412740663</v>
       </c>
       <c r="K118" t="n">
-        <v>836.6490987300094</v>
+        <v>836.6496170816725</v>
       </c>
       <c r="L118" t="n">
-        <v>170.8875369793006</v>
+        <v>170.9001378268618</v>
       </c>
     </row>
     <row r="119">
@@ -5180,13 +5180,13 @@
         <v>1170</v>
       </c>
       <c r="B119" t="n">
-        <v>194.2783534772451</v>
+        <v>194.2916918672387</v>
       </c>
       <c r="C119" t="n">
         <v>73.68474996703048</v>
       </c>
       <c r="D119" t="n">
-        <v>0.9791655206679636</v>
+        <v>0.979167051803317</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -5194,10 +5194,10 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0.1779521744744191</v>
+        <v>0.1779520612580581</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0001530000962502712</v>
+        <v>0.0001529885411611023</v>
       </c>
       <c r="H119" t="n">
         <v>87.25741097189142</v>
@@ -5206,13 +5206,13 @@
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>0.1233086961881636</v>
+        <v>0.1232920310477158</v>
       </c>
       <c r="K119" t="n">
-        <v>836.6284274606232</v>
+        <v>836.6289597389534</v>
       </c>
       <c r="L119" t="n">
-        <v>169.7298957588937</v>
+        <v>169.7427153077648</v>
       </c>
     </row>
     <row r="120">
@@ -5220,13 +5220,13 @@
         <v>1180</v>
       </c>
       <c r="B120" t="n">
-        <v>193.0450937448028</v>
+        <v>193.0586010735594</v>
       </c>
       <c r="C120" t="n">
         <v>73.64749703628695</v>
       </c>
       <c r="D120" t="n">
-        <v>0.9790251425204579</v>
+        <v>0.9790267212730356</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -5234,10 +5234,10 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>0.1779567171662656</v>
+        <v>0.1779566009164997</v>
       </c>
       <c r="G120" t="n">
-        <v>0.0001540561098145828</v>
+        <v>0.0001540441923660395</v>
       </c>
       <c r="H120" t="n">
         <v>87.24490496178987</v>
@@ -5246,13 +5246,13 @@
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>0.123325973244228</v>
+        <v>0.1233090793679283</v>
       </c>
       <c r="K120" t="n">
-        <v>836.607070890349</v>
+        <v>836.607617402114</v>
       </c>
       <c r="L120" t="n">
-        <v>168.5664425702711</v>
+        <v>168.5794835156946</v>
       </c>
     </row>
     <row r="121">
@@ -5260,13 +5260,13 @@
         <v>1190</v>
       </c>
       <c r="B121" t="n">
-        <v>191.811656787916</v>
+        <v>191.8253353966442</v>
       </c>
       <c r="C121" t="n">
         <v>73.61024623895332</v>
       </c>
       <c r="D121" t="n">
-        <v>0.9788821489995643</v>
+        <v>0.9788837769692903</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0.1779614065408065</v>
+        <v>0.1779612871903629</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0001551321130276618</v>
+        <v>0.0001551198208814626</v>
       </c>
       <c r="H121" t="n">
         <v>87.23240142476105</v>
@@ -5286,13 +5286,13 @@
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>0.1233436956886746</v>
+        <v>0.1233265676915229</v>
       </c>
       <c r="K121" t="n">
-        <v>836.5850258639846</v>
+        <v>836.585586923053</v>
       </c>
       <c r="L121" t="n">
-        <v>167.3972582519309</v>
+        <v>167.4105232980101</v>
       </c>
     </row>
     <row r="122">
@@ -5300,13 +5300,13 @@
         <v>1200</v>
       </c>
       <c r="B122" t="n">
-        <v>190.5780380484987</v>
+        <v>190.5918903338943</v>
       </c>
       <c r="C122" t="n">
         <v>73.57299757490739</v>
       </c>
       <c r="D122" t="n">
-        <v>0.9787364821470433</v>
+        <v>0.9787381609938332</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -5314,10 +5314,10 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>0.1779662432950527</v>
+        <v>0.1779661207750748</v>
       </c>
       <c r="G122" t="n">
-        <v>0.0001562285600862746</v>
+        <v>0.0001562158804332012</v>
       </c>
       <c r="H122" t="n">
         <v>87.21990036021533</v>
@@ -5326,13 +5326,13 @@
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>0.1233618739417366</v>
+        <v>0.1233445062749906</v>
       </c>
       <c r="K122" t="n">
-        <v>836.5622892140376</v>
+        <v>836.5628651415946</v>
       </c>
       <c r="L122" t="n">
-        <v>166.2224267657493</v>
+        <v>166.2359186252105</v>
       </c>
     </row>
     <row r="123">
@@ -5340,13 +5340,13 @@
         <v>1210</v>
       </c>
       <c r="B123" t="n">
-        <v>189.3442328614512</v>
+        <v>189.3582612773948</v>
       </c>
       <c r="C123" t="n">
         <v>73.53575104402694</v>
       </c>
       <c r="D123" t="n">
-        <v>0.9785880825394913</v>
+        <v>0.9785898139858097</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -5354,10 +5354,10 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>0.1779712281296039</v>
+        <v>0.177971102369603</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0001573459171048912</v>
+        <v>0.0001573328366442901</v>
       </c>
       <c r="H123" t="n">
         <v>87.20740176756318</v>
@@ -5366,13 +5366,13 @@
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>0.1233805187047438</v>
+        <v>0.1233629056499491</v>
       </c>
       <c r="K123" t="n">
-        <v>836.5388577602723</v>
+        <v>836.5394488850454</v>
       </c>
       <c r="L123" t="n">
-        <v>165.0420351889257</v>
+        <v>165.0557565829136</v>
       </c>
     </row>
     <row r="124">
@@ -5380,13 +5380,13 @@
         <v>1220</v>
       </c>
       <c r="B124" t="n">
-        <v>188.1102364517552</v>
+        <v>188.1244435110711</v>
       </c>
       <c r="C124" t="n">
         <v>73.49850664618987</v>
       </c>
       <c r="D124" t="n">
-        <v>0.978436889243219</v>
+        <v>0.978438675076763</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -5394,10 +5394,10 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>0.1779763617487608</v>
+        <v>0.177976232676565</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0001584846624990735</v>
+        <v>0.0001584711674173294</v>
       </c>
       <c r="H124" t="n">
         <v>87.19490564621539</v>
@@ -5406,13 +5406,13 @@
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>0.1233996409696037</v>
+        <v>0.1233817766323658</v>
       </c>
       <c r="K124" t="n">
-        <v>836.5147283092399</v>
+        <v>836.5153349677317</v>
       </c>
       <c r="L124" t="n">
-        <v>163.8561737026828</v>
+        <v>163.8701273605906</v>
       </c>
     </row>
     <row r="125">
@@ -5420,13 +5420,13 @@
         <v>1230</v>
       </c>
       <c r="B125" t="n">
-        <v>186.8760439314683</v>
+        <v>186.8904322077495</v>
       </c>
       <c r="C125" t="n">
         <v>73.46126438127396</v>
       </c>
       <c r="D125" t="n">
-        <v>0.9782828397673757</v>
+        <v>0.9782846818438894</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -5434,10 +5434,10 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0.1779816448606416</v>
+        <v>0.1779815124023428</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0001596452873843837</v>
+        <v>0.000159631363332308</v>
       </c>
       <c r="H125" t="n">
         <v>87.18241199558271</v>
@@ -5446,13 +5446,13 @@
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>0.1234192520286831</v>
+        <v>0.12340113033217</v>
       </c>
       <c r="K125" t="n">
-        <v>836.4898976537924</v>
+        <v>836.4905201905228</v>
       </c>
       <c r="L125" t="n">
-        <v>162.6649355776692</v>
+        <v>162.6791242370064</v>
       </c>
     </row>
     <row r="126">
@@ -5460,13 +5460,13 @@
         <v>1240</v>
       </c>
       <c r="B126" t="n">
-        <v>185.6416502966173</v>
+        <v>185.6562224261168</v>
       </c>
       <c r="C126" t="n">
         <v>73.42402424915713</v>
       </c>
       <c r="D126" t="n">
-        <v>0.9781258700152264</v>
+        <v>0.9781277702614577</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -5474,10 +5474,10 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0.1779870781773013</v>
+        <v>0.1779869422572009</v>
       </c>
       <c r="G126" t="n">
-        <v>0.0001608282959915777</v>
+        <v>0.0001608139280606478</v>
       </c>
       <c r="H126" t="n">
         <v>87.1699208150762</v>
@@ -5486,13 +5486,13 @@
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>0.1234393634851082</v>
+        <v>0.1234209781632689</v>
       </c>
       <c r="K126" t="n">
-        <v>836.4643625725765</v>
+        <v>836.4650013403349</v>
       </c>
       <c r="L126" t="n">
-        <v>161.4684171560157</v>
+        <v>161.4828435623166</v>
       </c>
     </row>
     <row r="127">
@@ -5500,13 +5500,13 @@
         <v>1250</v>
       </c>
       <c r="B127" t="n">
-        <v>184.4070504239822</v>
+        <v>184.4218091075769</v>
       </c>
       <c r="C127" t="n">
         <v>73.38678624971726</v>
       </c>
       <c r="D127" t="n">
-        <v>0.9779659142335024</v>
+        <v>0.9779678746503052</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -5514,10 +5514,10 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>0.1779926624148568</v>
+        <v>0.1779925229554085</v>
       </c>
       <c r="G127" t="n">
-        <v>0.0001620342060988912</v>
+        <v>0.0001620193787962736</v>
       </c>
       <c r="H127" t="n">
         <v>87.15743210410706</v>
@@ -5526,13 +5526,13 @@
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>0.1234599872635065</v>
+        <v>0.1234413318539914</v>
       </c>
       <c r="K127" t="n">
-        <v>836.4381198295109</v>
+        <v>836.438775189617</v>
       </c>
       <c r="L127" t="n">
-        <v>160.2667178300012</v>
+        <v>160.2813847367777</v>
       </c>
     </row>
     <row r="128">
@@ -5540,13 +5540,13 @@
         <v>1260</v>
       </c>
       <c r="B128" t="n">
-        <v>183.1722390677701</v>
+        <v>183.1871870729971</v>
       </c>
       <c r="C128" t="n">
         <v>73.34955038283215</v>
       </c>
       <c r="D128" t="n">
-        <v>0.9778029049597258</v>
+        <v>0.9778049276253201</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -5554,10 +5554,10 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>0.1779983982936147</v>
+        <v>0.1779982552153655</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0001632635494822663</v>
+        <v>0.0001632482467045541</v>
       </c>
       <c r="H128" t="n">
         <v>87.14494586208656</v>
@@ -5566,13 +5566,13 @@
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>0.1234811356212118</v>
+        <v>0.123462203457979</v>
       </c>
       <c r="K128" t="n">
-        <v>836.4111661732428</v>
+        <v>836.4118384958182</v>
       </c>
       <c r="L128" t="n">
-        <v>159.0599400172907</v>
+        <v>159.0748501860314</v>
       </c>
     </row>
     <row r="129">
@@ -5580,13 +5580,13 @@
         <v>1270</v>
       </c>
       <c r="B129" t="n">
-        <v>181.9372108561705</v>
+        <v>181.9523510193416</v>
       </c>
       <c r="C129" t="n">
         <v>73.31231664837969</v>
       </c>
       <c r="D129" t="n">
-        <v>0.9776367729674108</v>
+        <v>0.9776388600408076</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -5594,10 +5594,10 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>0.1780042865382051</v>
+        <v>0.1780041397597333</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0001645168723844281</v>
+        <v>0.0001645010773900154</v>
       </c>
       <c r="H129" t="n">
         <v>87.13246208842621</v>
@@ -5606,13 +5606,13 @@
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>0.123502821159957</v>
+        <v>0.1234836053655489</v>
       </c>
       <c r="K129" t="n">
-        <v>836.3834983365839</v>
+        <v>836.3841880008347</v>
       </c>
       <c r="L129" t="n">
-        <v>157.8481891327108</v>
+        <v>157.8633453329312</v>
       </c>
     </row>
     <row r="130">
@@ -5620,13 +5620,13 @@
         <v>1280</v>
       </c>
       <c r="B130" t="n">
-        <v>180.7019602877897</v>
+        <v>180.7172955161861</v>
       </c>
       <c r="C130" t="n">
         <v>73.27508504623779</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9774674472090393</v>
+        <v>0.9774696009336409</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -5634,10 +5634,10 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>0.1780103278777187</v>
+        <v>0.1780101773155709</v>
       </c>
       <c r="G130" t="n">
-        <v>0.00016579473600376</v>
+        <v>0.0001657784313837726</v>
       </c>
       <c r="H130" t="n">
         <v>87.11998078253774</v>
@@ -5646,13 +5646,13 @@
         <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>0.1235250568380799</v>
+        <v>0.1235055503155526</v>
       </c>
       <c r="K130" t="n">
-        <v>836.3551130359261</v>
+        <v>836.3558204304361</v>
       </c>
       <c r="L130" t="n">
-        <v>156.631573556535</v>
+        <v>156.6469785658812</v>
       </c>
     </row>
     <row r="131">
@@ -5660,13 +5660,13 @@
         <v>1290</v>
       </c>
       <c r="B131" t="n">
-        <v>179.466481727957</v>
+        <v>179.4820150021085</v>
       </c>
       <c r="C131" t="n">
         <v>73.23785557628423</v>
       </c>
       <c r="D131" t="n">
-        <v>0.9772948547566974</v>
+        <v>0.9772970774640823</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -5674,10 +5674,10 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>0.1780165230458502</v>
+        <v>0.178016368614474</v>
       </c>
       <c r="G131" t="n">
-        <v>0.0001670977170039927</v>
+        <v>0.0001670808846516894</v>
       </c>
       <c r="H131" t="n">
         <v>87.10750194383283</v>
@@ -5686,13 +5686,13 @@
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>0.1235478559832696</v>
+        <v>0.1235280514077566</v>
       </c>
       <c r="K131" t="n">
-        <v>836.3260069706337</v>
+        <v>836.32673249367</v>
       </c>
       <c r="L131" t="n">
-        <v>155.4102045992569</v>
+        <v>155.4258612036662</v>
       </c>
     </row>
     <row r="132">
@@ -5700,13 +5700,13 @@
         <v>1300</v>
       </c>
       <c r="B132" t="n">
-        <v>178.2307694048982</v>
+        <v>178.2465037809508</v>
       </c>
       <c r="C132" t="n">
         <v>73.20062823839703</v>
       </c>
       <c r="D132" t="n">
-        <v>0.9771189207402591</v>
+        <v>0.9771212148541634</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -5714,10 +5714,10 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>0.1780228727810457</v>
+        <v>0.1780227143927209</v>
       </c>
       <c r="G132" t="n">
-        <v>0.0001684264080457749</v>
+        <v>0.0001684090291243258</v>
       </c>
       <c r="H132" t="n">
         <v>87.0950255717236</v>
@@ -5726,13 +5726,13 @@
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>0.1235712323058809</v>
+        <v>0.1235511221157717</v>
       </c>
       <c r="K132" t="n">
-        <v>836.2961768224148</v>
+        <v>836.2969208822442</v>
       </c>
       <c r="L132" t="n">
-        <v>154.1841964628343</v>
+        <v>154.2001074567575</v>
       </c>
     </row>
     <row r="133">
@@ -5740,13 +5740,13 @@
         <v>1310</v>
       </c>
       <c r="B133" t="n">
-        <v>176.9948174057697</v>
+        <v>177.0107560179452</v>
       </c>
       <c r="C133" t="n">
         <v>73.16340303245397</v>
       </c>
       <c r="D133" t="n">
-        <v>0.9769395682829901</v>
+        <v>0.9769419363234975</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -5754,10 +5754,10 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>0.1780293778266561</v>
+        <v>0.1780292153914229</v>
       </c>
       <c r="G133" t="n">
-        <v>0.0001697814183412642</v>
+        <v>0.0001697634732498103</v>
       </c>
       <c r="H133" t="n">
         <v>87.08255166562211</v>
@@ -5766,13 +5766,13 @@
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>0.1235951999128487</v>
+        <v>0.1235747763005624</v>
       </c>
       <c r="K133" t="n">
-        <v>836.2656192546673</v>
+        <v>836.2663822698868</v>
       </c>
       <c r="L133" t="n">
-        <v>152.9536661983918</v>
+        <v>152.9698343850788</v>
       </c>
     </row>
     <row r="134">
@@ -5780,13 +5780,13 @@
         <v>1320</v>
       </c>
       <c r="B134" t="n">
-        <v>175.396328490425</v>
+        <v>175.4125334131458</v>
       </c>
       <c r="C134" t="n">
         <v>73.1041723466069</v>
       </c>
       <c r="D134" t="n">
-        <v>0.9767567184344471</v>
+        <v>0.9767591630223977</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -5794,10 +5794,10 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>0.1780360389310958</v>
+        <v>0.1780358723566796</v>
       </c>
       <c r="G134" t="n">
-        <v>0.000171163374232938</v>
+        <v>0.0001711448425708227</v>
       </c>
       <c r="H134" t="n">
         <v>87.06270748706801</v>
@@ -5806,13 +5806,13 @@
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>0.1598488915344708</v>
+        <v>0.1598222604799412</v>
       </c>
       <c r="K134" t="n">
-        <v>836.2343309117981</v>
+        <v>836.2351133116794</v>
       </c>
       <c r="L134" t="n">
-        <v>151.718733660381</v>
+        <v>151.735161852236</v>
       </c>
     </row>
     <row r="135">
@@ -5820,13 +5820,13 @@
         <v>1330</v>
       </c>
       <c r="B135" t="n">
-        <v>173.7976045757319</v>
+        <v>173.8140812020315</v>
       </c>
       <c r="C135" t="n">
         <v>73.0449766541675</v>
       </c>
       <c r="D135" t="n">
-        <v>0.9765164769539061</v>
+        <v>0.9765190239659725</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -5834,10 +5834,10 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>0.1780430401266459</v>
+        <v>0.1780428681033445</v>
       </c>
       <c r="G135" t="n">
-        <v>0.0001729786691615025</v>
+        <v>0.0001729593522756097</v>
       </c>
       <c r="H135" t="n">
         <v>87.04287946112481</v>
@@ -5846,13 +5846,13 @@
         <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>0.1598723914693078</v>
+        <v>0.1598452211114245</v>
       </c>
       <c r="K135" t="n">
-        <v>836.2014476265412</v>
+        <v>836.2022555563125</v>
       </c>
       <c r="L135" t="n">
-        <v>150.1265474728183</v>
+        <v>150.1433142873841</v>
       </c>
     </row>
     <row r="136">
@@ -5860,13 +5860,13 @@
         <v>1340</v>
       </c>
       <c r="B136" t="n">
-        <v>172.1986375236641</v>
+        <v>172.2153914262274</v>
       </c>
       <c r="C136" t="n">
         <v>72.98581592614767</v>
       </c>
       <c r="D136" t="n">
-        <v>0.97627013938372</v>
+        <v>0.9762727935517922</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -5874,10 +5874,10 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>0.1780503052695202</v>
+        <v>0.1780501276374543</v>
       </c>
       <c r="G136" t="n">
-        <v>0.000174840981807388</v>
+        <v>0.0001748208428060931</v>
       </c>
       <c r="H136" t="n">
         <v>87.02306756924675</v>
@@ -5886,13 +5886,13 @@
         <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>0.1598967052067858</v>
+        <v>0.1598689775804065</v>
       </c>
       <c r="K136" t="n">
-        <v>836.1673273649695</v>
+        <v>836.1681615689761</v>
       </c>
       <c r="L136" t="n">
-        <v>148.5274797659706</v>
+        <v>148.5445898259572</v>
       </c>
     </row>
     <row r="137">
@@ -5900,13 +5900,13 @@
         <v>1350</v>
       </c>
       <c r="B137" t="n">
-        <v>170.5994189237434</v>
+        <v>170.6164558625633</v>
       </c>
       <c r="C137" t="n">
         <v>72.92669013359398</v>
       </c>
       <c r="D137" t="n">
-        <v>0.9760175223948179</v>
+        <v>0.9760202886991838</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -5914,10 +5914,10 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>0.1780578358227529</v>
+        <v>0.1780576524166818</v>
       </c>
       <c r="G137" t="n">
-        <v>0.0001767517716535726</v>
+        <v>0.0001767307716667812</v>
       </c>
       <c r="H137" t="n">
         <v>87.00327179291673</v>
@@ -5926,13 +5926,13 @@
         <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>0.1599218599920657</v>
+        <v>0.1598935563664171</v>
       </c>
       <c r="K137" t="n">
-        <v>836.1319635600515</v>
+        <v>836.132824807385</v>
       </c>
       <c r="L137" t="n">
-        <v>146.9218109935384</v>
+        <v>146.9392689385308</v>
       </c>
     </row>
     <row r="138">
@@ -5940,13 +5940,13 @@
         <v>1360</v>
       </c>
       <c r="B138" t="n">
-        <v>168.9999400822994</v>
+        <v>169.0172660127263</v>
       </c>
       <c r="C138" t="n">
         <v>72.86759924758815</v>
       </c>
       <c r="D138" t="n">
-        <v>0.9757584361663032</v>
+        <v>0.9757613198507125</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -5954,10 +5954,10 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>0.1780656332589615</v>
+        <v>0.1780654439080478</v>
       </c>
       <c r="G138" t="n">
-        <v>0.0001787125522199477</v>
+        <v>0.0001786906502762002</v>
       </c>
       <c r="H138" t="n">
         <v>86.98349211364639</v>
@@ -5966,13 +5966,13 @@
         <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>0.1599478841444062</v>
+        <v>0.1599189849836941</v>
       </c>
       <c r="K138" t="n">
-        <v>836.0953496131126</v>
+        <v>836.0962386986919</v>
       </c>
       <c r="L138" t="n">
-        <v>145.3098289128493</v>
+        <v>145.3276394009408</v>
       </c>
     </row>
     <row r="139">
@@ -5980,13 +5980,13 @@
         <v>1370</v>
       </c>
       <c r="B139" t="n">
-        <v>167.4001920111896</v>
+        <v>167.4178130924005</v>
       </c>
       <c r="C139" t="n">
         <v>72.80854323924746</v>
       </c>
       <c r="D139" t="n">
-        <v>0.9754926840967613</v>
+        <v>0.9754956906845489</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -5994,10 +5994,10 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0.1780736990607675</v>
+        <v>0.1780735035883296</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0001807248935842042</v>
+        <v>0.0001807020464789273</v>
       </c>
       <c r="H139" t="n">
         <v>86.9637285129762</v>
@@ -6006,13 +6006,13 @@
         <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>0.1599748071109749</v>
+        <v>0.1599452920325804</v>
       </c>
       <c r="K139" t="n">
-        <v>836.0574788920768</v>
+        <v>836.058396637785</v>
       </c>
       <c r="L139" t="n">
-        <v>143.6918283510279</v>
+        <v>143.7099960607674</v>
       </c>
     </row>
     <row r="140">
@@ -6020,13 +6020,13 @@
         <v>1380</v>
       </c>
       <c r="B140" t="n">
-        <v>165.8001654159496</v>
+        <v>165.8180880198596</v>
       </c>
       <c r="C140" t="n">
         <v>72.74952207972331</v>
       </c>
       <c r="D140" t="n">
-        <v>0.9752200624992615</v>
+        <v>0.9752231978106151</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -6034,10 +6034,10 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>0.178082034721239</v>
+        <v>0.1780818329444898</v>
       </c>
       <c r="G140" t="n">
-        <v>0.0001827904250509932</v>
+        <v>0.000182766587205168</v>
       </c>
       <c r="H140" t="n">
         <v>86.943980972475</v>
@@ -6046,13 +6046,13 @@
         <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>0.1600026595240066</v>
+        <v>0.1599725072540951</v>
       </c>
       <c r="K140" t="n">
-        <v>836.0183447296129</v>
+        <v>836.0192919854959</v>
       </c>
       <c r="L140" t="n">
-        <v>142.0681109550171</v>
+        <v>142.0866405876891</v>
       </c>
     </row>
     <row r="141">
@@ -6060,13 +6060,13 @@
         <v>1390</v>
       </c>
       <c r="B141" t="n">
-        <v>164.1998506833339</v>
+        <v>164.2180814039805</v>
       </c>
       <c r="C141" t="n">
         <v>72.69053574020302</v>
       </c>
       <c r="D141" t="n">
-        <v>0.9749403602789365</v>
+        <v>0.9749436304494009</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -6074,10 +6074,10 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>0.1780906417443544</v>
+        <v>0.178090433474126</v>
       </c>
       <c r="G141" t="n">
-        <v>0.0001849108379798658</v>
+        <v>0.0001848859612883107</v>
       </c>
       <c r="H141" t="n">
         <v>86.92424947374047</v>
@@ -6086,13 +6086,13 @@
         <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>0.1600314732615587</v>
+        <v>0.1600006615879132</v>
       </c>
       <c r="K141" t="n">
-        <v>835.9779404211804</v>
+        <v>835.9789180667123</v>
       </c>
       <c r="L141" t="n">
-        <v>140.4389849257341</v>
+        <v>140.4578812079936</v>
       </c>
     </row>
     <row r="142">
@@ -6100,13 +6100,13 @@
         <v>1400</v>
       </c>
       <c r="B142" t="n">
-        <v>162.5992378682126</v>
+        <v>162.6177835316404</v>
       </c>
       <c r="C142" t="n">
         <v>72.6315841919079</v>
       </c>
       <c r="D142" t="n">
-        <v>0.9746533585919334</v>
+        <v>0.9746567700922545</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -6114,10 +6114,10 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0.1780995216454904</v>
+        <v>0.1780993066859441</v>
       </c>
       <c r="G142" t="n">
-        <v>0.0001870878887833671</v>
+        <v>0.0001870619224517622</v>
       </c>
       <c r="H142" t="n">
         <v>86.90453399839862</v>
@@ -6126,13 +6126,13 @@
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>0.1600612815121333</v>
+        <v>0.1600297872340062</v>
       </c>
       <c r="K142" t="n">
-        <v>835.9362592229705</v>
+        <v>835.9372681683861</v>
       </c>
       <c r="L142" t="n">
-        <v>138.8047647366897</v>
+        <v>138.8240324235725</v>
       </c>
     </row>
     <row r="143">
@@ -6140,13 +6140,13 @@
         <v>1410</v>
       </c>
       <c r="B143" t="n">
-        <v>160.998316679778</v>
+        <v>161.0171843544582</v>
       </c>
       <c r="C143" t="n">
         <v>72.57266740609487</v>
       </c>
       <c r="D143" t="n">
-        <v>0.9743588304844327</v>
+        <v>0.9743623901418523</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -6154,10 +6154,10 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0.1781086759519345</v>
+        <v>0.1781084541002537</v>
       </c>
       <c r="G143" t="n">
-        <v>0.0001893234021075921</v>
+        <v>0.0001892962924772852</v>
       </c>
       <c r="H143" t="n">
         <v>86.88483452810405</v>
@@ -6166,13 +6166,13 @@
         <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>0.160092118843457</v>
+        <v>0.1600599177182214</v>
       </c>
       <c r="K143" t="n">
-        <v>835.8932943497337</v>
+        <v>835.8943355374367</v>
       </c>
       <c r="L143" t="n">
-        <v>137.1657708374652</v>
+        <v>137.1854147157974</v>
       </c>
     </row>
     <row r="144">
@@ -6180,13 +6180,13 @@
         <v>1420</v>
       </c>
       <c r="B144" t="n">
-        <v>159.3970764670206</v>
+        <v>159.4162734748372</v>
       </c>
       <c r="C144" t="n">
         <v>72.51378535405547</v>
       </c>
       <c r="D144" t="n">
-        <v>0.9740565405103325</v>
+        <v>0.9740602555314546</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -6194,10 +6194,10 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0.178118106203424</v>
+        <v>0.1781178772494912</v>
       </c>
       <c r="G144" t="n">
-        <v>0.000191619274208559</v>
+        <v>0.0001915909645681015</v>
       </c>
       <c r="H144" t="n">
         <v>86.86515104453977</v>
@@ -6206,13 +6206,13 @@
         <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>0.1601240212757397</v>
+        <v>0.1600910879620967</v>
       </c>
       <c r="K144" t="n">
-        <v>835.849038972489</v>
+        <v>835.8501133785377</v>
       </c>
       <c r="L144" t="n">
-        <v>135.5223293424796</v>
+        <v>135.5423542347092</v>
       </c>
     </row>
     <row r="145">
@@ -6220,13 +6220,13 @@
         <v>1430</v>
       </c>
       <c r="B145" t="n">
-        <v>157.7955062034231</v>
+        <v>157.8150401312648</v>
       </c>
       <c r="C145" t="n">
         <v>72.4549380071154</v>
       </c>
       <c r="D145" t="n">
-        <v>0.9737462443260656</v>
+        <v>0.9737501223214287</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -6234,10 +6234,10 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0.1781278139527137</v>
+        <v>0.1781275776787677</v>
       </c>
       <c r="G145" t="n">
-        <v>0.0001939774765388756</v>
+        <v>0.0001939479069211355</v>
       </c>
       <c r="H145" t="n">
         <v>86.84548352941695</v>
@@ -6246,13 +6246,13 @@
         <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>0.1601570263597561</v>
+        <v>0.1601233343572381</v>
       </c>
       <c r="K145" t="n">
-        <v>835.8034862161043</v>
+        <v>835.8045948517816</v>
       </c>
       <c r="L145" t="n">
-        <v>133.8747717055428</v>
+        <v>133.8951824740178</v>
       </c>
     </row>
     <row r="146">
@@ -6260,13 +6260,13 @@
         <v>1440</v>
       </c>
       <c r="B146" t="n">
-        <v>156.1935944708218</v>
+        <v>156.2134731828187</v>
       </c>
       <c r="C146" t="n">
         <v>72.39612533663592</v>
       </c>
       <c r="D146" t="n">
-        <v>0.9734276882609076</v>
+        <v>0.9734317372714083</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -6274,10 +6274,10 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0.178137800766172</v>
+        <v>0.1781375569464471</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0001964000595604212</v>
+        <v>0.0001963691665240053</v>
       </c>
       <c r="H146" t="n">
         <v>86.82583196447538</v>
@@ -6286,13 +6286,13 @@
         <v>0</v>
       </c>
       <c r="J146" t="n">
-        <v>0.1601911732601314</v>
+        <v>0.1601566948446152</v>
       </c>
       <c r="K146" t="n">
-        <v>835.756629156745</v>
+        <v>835.7577730702174</v>
       </c>
       <c r="L146" t="n">
-        <v>132.2234343807322</v>
+        <v>132.2442359324507</v>
       </c>
     </row>
     <row r="147">
@@ -6300,13 +6300,13 @@
         <v>1450</v>
       </c>
       <c r="B147" t="n">
-        <v>154.5913294423794</v>
+        <v>154.6115610928271</v>
       </c>
       <c r="C147" t="n">
         <v>72.33734731401205</v>
       </c>
       <c r="D147" t="n">
-        <v>0.973100608860984</v>
+        <v>0.9731048373863128</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -6314,10 +6314,10 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0.1781480682244106</v>
+        <v>0.1781478166247542</v>
       </c>
       <c r="G147" t="n">
-        <v>0.0001988891568001361</v>
+        <v>0.0001988568731937278</v>
       </c>
       <c r="H147" t="n">
         <v>86.80619633148278</v>
@@ -6326,13 +6326,13 @@
         <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>0.1602265028442378</v>
+        <v>0.1601912089991585</v>
       </c>
       <c r="K147" t="n">
-        <v>835.7084608191759</v>
+        <v>835.7096410972482</v>
       </c>
       <c r="L147" t="n">
-        <v>130.568658470181</v>
+        <v>130.5898557620402</v>
       </c>
     </row>
     <row r="148">
@@ -6340,13 +6340,13 @@
         <v>1460</v>
       </c>
       <c r="B148" t="n">
-        <v>152.9886988646078</v>
+        <v>153.0092919116262</v>
       </c>
       <c r="C148" t="n">
         <v>72.27860391067418</v>
       </c>
       <c r="D148" t="n">
-        <v>0.9727647324050362</v>
+        <v>0.9727691494343009</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -6354,10 +6354,10 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>0.1781586179229465</v>
+        <v>0.1781583583004144</v>
       </c>
       <c r="G148" t="n">
-        <v>0.0002014469891674928</v>
+        <v>0.0002014132438755718</v>
       </c>
       <c r="H148" t="n">
         <v>86.78657661223528</v>
@@ -6366,13 +6366,13 @@
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>0.1602630577771584</v>
+        <v>0.1602269181200847</v>
       </c>
       <c r="K148" t="n">
-        <v>835.6589741739137</v>
+        <v>835.660191943885</v>
       </c>
       <c r="L148" t="n">
-        <v>128.9107893594161</v>
+        <v>128.9323874039885</v>
       </c>
     </row>
     <row r="149">
@@ -6380,13 +6380,13 @@
         <v>1470</v>
       </c>
       <c r="B149" t="n">
-        <v>151.3856900383757</v>
+        <v>151.4066532583522</v>
       </c>
       <c r="C149" t="n">
         <v>72.21989509808634</v>
       </c>
       <c r="D149" t="n">
-        <v>0.9724197743898437</v>
+        <v>0.9724243894345734</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -6394,10 +6394,10 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0.1781694514729012</v>
+        <v>0.1781691835753295</v>
       </c>
       <c r="G149" t="n">
-        <v>0.0002040758695538896</v>
+        <v>0.0002040405872221439</v>
       </c>
       <c r="H149" t="n">
         <v>86.76697278855693</v>
@@ -6406,13 +6406,13 @@
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>0.1603008826232021</v>
+        <v>0.1602638653274057</v>
       </c>
       <c r="K149" t="n">
-        <v>835.6081621342124</v>
+        <v>835.6094185658411</v>
       </c>
       <c r="L149" t="n">
-        <v>127.250176340921</v>
+        <v>127.2721802127853</v>
       </c>
     </row>
     <row r="150">
@@ -6420,13 +6420,13 @@
         <v>1480</v>
       </c>
       <c r="B150" t="n">
-        <v>149.7822897988306</v>
+        <v>149.8036323017009</v>
       </c>
       <c r="C150" t="n">
         <v>72.16122084774781</v>
       </c>
       <c r="D150" t="n">
-        <v>0.9720654389830108</v>
+        <v>0.9720702621127558</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -6434,10 +6434,10 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>0.1781805705017373</v>
+        <v>0.1781802940672891</v>
       </c>
       <c r="G150" t="n">
-        <v>0.0002067782077360041</v>
+        <v>0.0002067413084745698</v>
       </c>
       <c r="H150" t="n">
         <v>86.74738484230006</v>
@@ -6446,13 +6446,13 @@
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>0.1603400239545142</v>
+        <v>0.1603020956651281</v>
       </c>
       <c r="K150" t="n">
-        <v>835.5560175528798</v>
+        <v>835.5573138604645</v>
       </c>
       <c r="L150" t="n">
-        <v>125.5871722266484</v>
+        <v>125.6095870693085</v>
       </c>
     </row>
     <row r="151">
@@ -6460,13 +6460,13 @@
         <v>1490</v>
       </c>
       <c r="B151" t="n">
-        <v>148.1784844941569</v>
+        <v>148.200215739584</v>
       </c>
       <c r="C151" t="n">
         <v>72.10258113119187</v>
       </c>
       <c r="D151" t="n">
-        <v>0.9717014184406338</v>
+        <v>0.9717064603213921</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -6474,10 +6474,10 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>0.178191976654037</v>
+        <v>0.1781916914107212</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0002095565156071588</v>
+        <v>0.0002095179146696311</v>
       </c>
       <c r="H151" t="n">
         <v>86.727812755345</v>
@@ -6486,13 +6486,13 @@
         <v>0</v>
       </c>
       <c r="J151" t="n">
-        <v>0.1603805304673653</v>
+        <v>0.1603416562116925</v>
       </c>
       <c r="K151" t="n">
-        <v>835.502533218904</v>
+        <v>835.5038706634899</v>
       </c>
       <c r="L151" t="n">
-        <v>123.9221329502394</v>
+        <v>123.9449639836613</v>
       </c>
     </row>
     <row r="152">
@@ -6500,13 +6500,13 @@
         <v>1500</v>
       </c>
       <c r="B152" t="n">
-        <v>146.5742599630893</v>
+        <v>146.5963897776014</v>
       </c>
       <c r="C152" t="n">
         <v>72.04397591998622</v>
       </c>
       <c r="D152" t="n">
-        <v>0.9713273924871371</v>
+        <v>0.9713326644228691</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -6514,10 +6514,10 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>0.1782036715923239</v>
+        <v>0.1782033772574856</v>
       </c>
       <c r="G152" t="n">
-        <v>0.000212413412762944</v>
+        <v>0.0002123730201988846</v>
       </c>
       <c r="H152" t="n">
         <v>86.70825650959992</v>
@@ -6526,13 +6526,13 @@
         <v>0</v>
       </c>
       <c r="J152" t="n">
-        <v>0.1604224531067668</v>
+        <v>0.160382596198255</v>
       </c>
       <c r="K152" t="n">
-        <v>835.4477018538863</v>
+        <v>835.4490817456032</v>
       </c>
       <c r="L152" t="n">
-        <v>122.255417159747</v>
+        <v>122.2786696885504</v>
       </c>
     </row>
     <row r="153">
@@ -6540,13 +6540,13 @@
         <v>1510</v>
       </c>
       <c r="B153" t="n">
-        <v>144.9696015110881</v>
+        <v>144.9921401062467</v>
       </c>
       <c r="C153" t="n">
         <v>71.9854051857327</v>
       </c>
       <c r="D153" t="n">
-        <v>0.9709430276543294</v>
+        <v>0.9709485416318449</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -6554,10 +6554,10 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>0.1782156569979317</v>
+        <v>0.1782153532777114</v>
       </c>
       <c r="G153" t="n">
-        <v>0.000215351632469791</v>
+        <v>0.0002153093527482152</v>
       </c>
       <c r="H153" t="n">
         <v>86.68871608700096</v>
@@ -6566,13 +6566,13 @@
         <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>0.160465845200118</v>
+        <v>0.1604249671354743</v>
       </c>
       <c r="K153" t="n">
-        <v>835.3915161082591</v>
+        <v>835.3929398088028</v>
       </c>
       <c r="L153" t="n">
-        <v>120.5873858016937</v>
+        <v>120.6110652240327</v>
       </c>
     </row>
     <row r="154">
@@ -6580,13 +6580,13 @@
         <v>1520</v>
       </c>
       <c r="B154" t="n">
-        <v>143.3644938850815</v>
+        <v>143.3874518767514</v>
       </c>
       <c r="C154" t="n">
         <v>71.92686890006769</v>
       </c>
       <c r="D154" t="n">
-        <v>0.970547976576461</v>
+        <v>0.970553745313992</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -6594,10 +6594,10 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>0.1782279345719234</v>
+        <v>0.1782276211606822</v>
       </c>
       <c r="G154" t="n">
-        <v>0.0002183740280478797</v>
+        <v>0.0002183297596489373</v>
       </c>
       <c r="H154" t="n">
         <v>86.6691914695122</v>
@@ -6606,13 +6606,13 @@
         <v>0</v>
       </c>
       <c r="J154" t="n">
-        <v>0.1605107626006634</v>
+        <v>0.1604688229495279</v>
       </c>
       <c r="K154" t="n">
-        <v>835.3339685572781</v>
+        <v>835.3354374825446</v>
       </c>
       <c r="L154" t="n">
-        <v>118.9184016973184</v>
+        <v>118.9425135144908</v>
       </c>
     </row>
     <row r="155">
@@ -6620,13 +6620,13 @@
         <v>1530</v>
       </c>
       <c r="B155" t="n">
-        <v>141.7589212466654</v>
+        <v>141.7823096754698</v>
       </c>
       <c r="C155" t="n">
         <v>71.86836703466145</v>
       </c>
       <c r="D155" t="n">
-        <v>0.9701418772377691</v>
+        <v>0.970147914237582</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -6634,10 +6634,10 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>0.1782405060360633</v>
+        <v>0.1782401826157729</v>
       </c>
       <c r="G155" t="n">
-        <v>0.0002214835797027513</v>
+        <v>0.000221437214674508</v>
       </c>
       <c r="H155" t="n">
         <v>86.64968263912543</v>
@@ -6646,13 +6646,13 @@
         <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>0.1605572638416134</v>
+        <v>0.160514220128156</v>
       </c>
       <c r="K155" t="n">
-        <v>835.2750516967727</v>
+        <v>835.2765673196575</v>
       </c>
       <c r="L155" t="n">
-        <v>117.2488291118976</v>
+        <v>117.2733789387244</v>
       </c>
     </row>
     <row r="156">
@@ -6660,13 +6660,13 @@
         <v>1540</v>
       </c>
       <c r="B156" t="n">
-        <v>140.1528671436467</v>
+        <v>140.1766974966937</v>
       </c>
       <c r="C156" t="n">
         <v>71.80989956121869</v>
       </c>
       <c r="D156" t="n">
-        <v>0.9697243521686745</v>
+        <v>0.9697306717740994</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>0.1782533731338476</v>
+        <v>0.1782530393734417</v>
       </c>
       <c r="G156" t="n">
-        <v>0.0002246834018433042</v>
+        <v>0.0002246348253201933</v>
       </c>
       <c r="H156" t="n">
         <v>86.63018957786028</v>
@@ -6686,13 +6686,13 @@
         <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>0.1606054103018691</v>
+        <v>0.1605612178776105</v>
       </c>
       <c r="K156" t="n">
-        <v>835.2147579386349</v>
+        <v>835.2163217920064</v>
       </c>
       <c r="L156" t="n">
-        <v>115.5790333180463</v>
+        <v>115.6040268940651</v>
       </c>
     </row>
     <row r="157">
@@ -6700,13 +6700,13 @@
         <v>1550</v>
       </c>
       <c r="B157" t="n">
-        <v>138.5463144798028</v>
+        <v>138.570598713779</v>
       </c>
       <c r="C157" t="n">
         <v>71.75146645147811</v>
       </c>
       <c r="D157" t="n">
-        <v>0.9692950075864272</v>
+        <v>0.969301625043742</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -6714,10 +6714,10 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>0.178266537631596</v>
+        <v>0.1782661931862798</v>
       </c>
       <c r="G157" t="n">
-        <v>0.000227976750927528</v>
+        <v>0.0002279258406066553</v>
       </c>
       <c r="H157" t="n">
         <v>86.6107122677641</v>
@@ -6726,13 +6726,13 @@
         <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>0.160655266384387</v>
+        <v>0.1606098782914735</v>
       </c>
       <c r="K157" t="n">
-        <v>835.1530796060302</v>
+        <v>835.1546932858955</v>
       </c>
       <c r="L157" t="n">
-        <v>113.9093801539197</v>
+        <v>113.9348233554391</v>
       </c>
     </row>
     <row r="158">
@@ -6740,13 +6740,13 @@
         <v>1560</v>
       </c>
       <c r="B158" t="n">
-        <v>136.9392454827195</v>
+        <v>136.9639960484548</v>
       </c>
       <c r="C158" t="n">
         <v>71.69306767721207</v>
       </c>
       <c r="D158" t="n">
-        <v>0.9688534324756063</v>
+        <v>0.968860364001242</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -6754,10 +6754,10 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>0.1782800013196098</v>
+        <v>0.1782796458301255</v>
       </c>
       <c r="G158" t="n">
-        <v>0.0002313670338814109</v>
+        <v>0.0002313136594524671</v>
       </c>
       <c r="H158" t="n">
         <v>86.59125069091171</v>
@@ -6766,13 +6766,13 @@
         <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>0.160706899708327</v>
+        <v>0.1606602665324122</v>
       </c>
       <c r="K158" t="n">
-        <v>835.0900089283078</v>
+        <v>835.0916740971791</v>
       </c>
       <c r="L158" t="n">
-        <v>112.2402355772504</v>
+        <v>112.266134430317</v>
       </c>
     </row>
     <row r="159">
@@ -6780,13 +6780,13 @@
         <v>1570</v>
       </c>
       <c r="B159" t="n">
-        <v>135.331641669557</v>
+        <v>135.3568715381744</v>
       </c>
       <c r="C159" t="n">
         <v>71.63470321022726</v>
       </c>
       <c r="D159" t="n">
-        <v>0.9683991976034322</v>
+        <v>0.9684064604570333</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -6794,10 +6794,10 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>0.1782937660134011</v>
+        <v>0.1782933991052452</v>
       </c>
       <c r="G159" t="n">
-        <v>0.0002348578171409988</v>
+        <v>0.0002348018396650462</v>
       </c>
       <c r="H159" t="n">
         <v>86.57180482940566</v>
@@ -6806,13 +6806,13 @@
         <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>0.1607603813162474</v>
+        <v>0.1607124510280447</v>
       </c>
       <c r="K159" t="n">
-        <v>835.0255380355892</v>
+        <v>835.0272564260728</v>
       </c>
       <c r="L159" t="n">
-        <v>110.5719652161662</v>
+        <v>110.5983259104979</v>
       </c>
     </row>
     <row r="160">
@@ -6820,13 +6820,13 @@
         <v>1580</v>
       </c>
       <c r="B160" t="n">
-        <v>133.7234838105796</v>
+        <v>133.7492065013522</v>
       </c>
       <c r="C160" t="n">
         <v>71.57637302236435</v>
       </c>
       <c r="D160" t="n">
-        <v>0.9679318544643601</v>
+        <v>0.9679394670282832</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>0.1783078335549992</v>
+        <v>0.1783074548375879</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0002384528363726512</v>
+        <v>0.0002383941076045028</v>
       </c>
       <c r="H160" t="n">
         <v>86.55237466537611</v>
@@ -6846,13 +6846,13 @@
         <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>0.1608157858977434</v>
+        <v>0.1607665036822165</v>
       </c>
       <c r="K160" t="n">
-        <v>834.9596589530072</v>
+        <v>834.9614323716276</v>
       </c>
       <c r="L160" t="n">
-        <v>108.9049339177316</v>
+        <v>108.9317628216778</v>
       </c>
     </row>
     <row r="161">
@@ -6860,13 +6860,13 @@
         <v>1590</v>
       </c>
       <c r="B161" t="n">
-        <v>132.1147518902688</v>
+        <v>132.140981500321</v>
       </c>
       <c r="C161" t="n">
         <v>71.51807708549734</v>
       </c>
       <c r="D161" t="n">
-        <v>0.9674509341478787</v>
+        <v>0.9674589160137861</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -6874,10 +6874,10 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>0.1783222058143387</v>
+        <v>0.1783218148801181</v>
       </c>
       <c r="G161" t="n">
-        <v>0.0002421560069321836</v>
+        <v>0.0002420943685804727</v>
       </c>
       <c r="H161" t="n">
         <v>86.53296018098045</v>
@@ -6886,13 +6886,13 @@
         <v>0</v>
       </c>
       <c r="J161" t="n">
-        <v>0.1608731920310765</v>
+        <v>0.160822500103125</v>
       </c>
       <c r="K161" t="n">
-        <v>834.8923635945763</v>
+        <v>834.8941939258546</v>
       </c>
       <c r="L161" t="n">
-        <v>107.2395052951622</v>
+        <v>107.2668089717551</v>
       </c>
     </row>
     <row r="162">
@@ -6900,13 +6900,13 @@
         <v>1600</v>
       </c>
       <c r="B162" t="n">
-        <v>130.5054250658237</v>
+        <v>130.5321763018221</v>
       </c>
       <c r="C162" t="n">
         <v>71.45981537153466</v>
       </c>
       <c r="D162" t="n">
-        <v>0.9669559461228275</v>
+        <v>0.9669643181861055</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -6914,10 +6914,10 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>0.1783368846907374</v>
+        <v>0.178336481114233</v>
       </c>
       <c r="G162" t="n">
-        <v>0.0002459714351299</v>
+        <v>0.0002459067180482375</v>
       </c>
       <c r="H162" t="n">
         <v>86.51356135840381</v>
@@ -6926,13 +6926,13 @@
         <v>0</v>
       </c>
       <c r="J162" t="n">
-        <v>0.1609326824445118</v>
+        <v>0.1608805198498869</v>
       </c>
       <c r="K162" t="n">
-        <v>834.8236437566541</v>
+        <v>834.8255329674641</v>
       </c>
       <c r="L162" t="n">
-        <v>105.5760412746501</v>
+        <v>105.6038264988156</v>
       </c>
     </row>
     <row r="163">
@@ -6940,13 +6940,13 @@
         <v>1610</v>
       </c>
       <c r="B163" t="n">
-        <v>128.895481622831</v>
+        <v>128.922769834829</v>
       </c>
       <c r="C163" t="n">
         <v>71.4015878524184</v>
       </c>
       <c r="D163" t="n">
-        <v>0.9664463769308762</v>
+        <v>0.9664551614936913</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -6954,10 +6954,10 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0.1783518721144703</v>
+        <v>0.1783514554512712</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0002499034303755908</v>
+        <v>0.0002498354536774095</v>
       </c>
       <c r="H163" t="n">
         <v>86.49417817985858</v>
@@ -6966,13 +6966,13 @@
         <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>0.1609943442992675</v>
+        <v>0.1609406466993152</v>
       </c>
       <c r="K163" t="n">
-        <v>834.7534911109723</v>
+        <v>834.7554412551923</v>
       </c>
       <c r="L163" t="n">
-        <v>103.9149016427256</v>
+        <v>103.9431754197318</v>
       </c>
     </row>
     <row r="164">
@@ -6980,13 +6980,13 @@
         <v>1620</v>
       </c>
       <c r="B164" t="n">
-        <v>127.2848989278691</v>
+        <v>127.3127401454803</v>
       </c>
       <c r="C164" t="n">
         <v>71.34339450012396</v>
       </c>
       <c r="D164" t="n">
-        <v>0.965921688781043</v>
+        <v>0.9659309096649509</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -6994,10 +6994,10 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>0.1783671700484464</v>
+        <v>0.1783667398341202</v>
       </c>
       <c r="G164" t="n">
-        <v>0.0002539565182854765</v>
+        <v>0.000253885088374259</v>
       </c>
       <c r="H164" t="n">
         <v>86.4748106275844</v>
@@ -7006,13 +7006,13 @@
         <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>0.1610582694961977</v>
+        <v>0.1610029689348702</v>
       </c>
       <c r="K164" t="n">
-        <v>834.6818971971935</v>
+        <v>834.6839104206812</v>
       </c>
       <c r="L164" t="n">
-        <v>102.2564435950702</v>
+        <v>102.2852131802955</v>
       </c>
     </row>
     <row r="165">
@@ -7020,13 +7020,13 @@
         <v>1630</v>
       </c>
       <c r="B165" t="n">
-        <v>125.6736533777834</v>
+        <v>125.7020643488806</v>
       </c>
       <c r="C165" t="n">
         <v>71.28523528666051</v>
       </c>
       <c r="D165" t="n">
-        <v>0.9653813180362972</v>
+        <v>0.9653910007054243</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -7034,10 +7034,10 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>0.1783827804899999</v>
+        <v>0.1783823362389295</v>
       </c>
       <c r="G165" t="n">
-        <v>0.0002581354548419733</v>
+        <v>0.0002580603643475319</v>
       </c>
       <c r="H165" t="n">
         <v>86.45545868384824</v>
@@ -7046,13 +7046,13 @@
         <v>0</v>
       </c>
       <c r="J165" t="n">
-        <v>0.1611245550085679</v>
+        <v>0.1610675796599727</v>
       </c>
       <c r="K165" t="n">
-        <v>834.608853414962</v>
+        <v>834.6109319608784</v>
       </c>
       <c r="L165" t="n">
-        <v>100.6010212876681</v>
+        <v>100.6302942077808</v>
       </c>
     </row>
     <row r="166">
@@ -7060,13 +7060,13 @@
         <v>1640</v>
       </c>
       <c r="B166" t="n">
-        <v>124.0617203453478</v>
+        <v>124.0907185774994</v>
       </c>
       <c r="C166" t="n">
         <v>71.22711018407119</v>
       </c>
       <c r="D166" t="n">
-        <v>0.9648246735823367</v>
+        <v>0.9648348452782792</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -7074,10 +7074,10 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>0.1783987054728006</v>
+        <v>0.17839824667694</v>
       </c>
       <c r="G166" t="n">
-        <v>0.0002624452417071454</v>
+        <v>0.0002623662683174503</v>
       </c>
       <c r="H166" t="n">
         <v>86.43612233094434</v>
@@ -7086,13 +7086,13 @@
         <v>0</v>
       </c>
       <c r="J166" t="n">
-        <v>0.1611933032435567</v>
+        <v>0.1611345771381123</v>
       </c>
       <c r="K166" t="n">
-        <v>834.5343510154034</v>
+        <v>834.5364972299142</v>
       </c>
       <c r="L166" t="n">
-        <v>98.94898539115792</v>
+        <v>98.97876946680661</v>
       </c>
     </row>
     <row r="167">
@@ -7100,13 +7100,13 @@
         <v>1650</v>
       </c>
       <c r="B167" t="n">
-        <v>122.4490741209936</v>
+        <v>122.4786779258747</v>
       </c>
       <c r="C167" t="n">
         <v>71.16901916443237</v>
       </c>
       <c r="D167" t="n">
-        <v>0.9642511350675746</v>
+        <v>0.9642618249573061</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -7114,10 +7114,10 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>0.1784149470688982</v>
+        <v>0.178414473196438</v>
       </c>
       <c r="G167" t="n">
-        <v>0.0002668911428019524</v>
+        <v>0.0002668080479786685</v>
       </c>
       <c r="H167" t="n">
         <v>86.41680155119413</v>
@@ -7126,13 +7126,13 @@
         <v>0</v>
       </c>
       <c r="J167" t="n">
-        <v>0.1612646224354235</v>
+        <v>0.1612040651624707</v>
       </c>
       <c r="K167" t="n">
-        <v>834.4583810920226</v>
+        <v>834.460597430411</v>
       </c>
       <c r="L167" t="n">
-        <v>97.30068264921553</v>
+        <v>97.33098601934026</v>
       </c>
     </row>
     <row r="168">
@@ -7140,13 +7140,13 @@
         <v>1660</v>
       </c>
       <c r="B168" t="n">
-        <v>120.8356878502572</v>
+        <v>120.8659163912937</v>
       </c>
       <c r="C168" t="n">
         <v>71.11096219985382</v>
       </c>
       <c r="D168" t="n">
-        <v>0.9636600510021843</v>
+        <v>0.9636712903404157</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -7154,10 +7154,10 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>0.1784315073909092</v>
+        <v>0.1784310178848439</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0002714787022760894</v>
+        <v>0.0002713912298404507</v>
       </c>
       <c r="H168" t="n">
         <v>86.39749632694601</v>
@@ -7166,13 +7166,13 @@
         <v>0</v>
       </c>
       <c r="J168" t="n">
-        <v>0.1613386270736335</v>
+        <v>0.1612761534580989</v>
       </c>
       <c r="K168" t="n">
-        <v>834.3809345709584</v>
+        <v>834.3832236041833</v>
       </c>
       <c r="L168" t="n">
-        <v>95.65645544175879</v>
+        <v>95.68728658964433</v>
       </c>
     </row>
     <row r="169">
@@ -7180,13 +7180,13 @@
         <v>1670</v>
       </c>
       <c r="B169" t="n">
-        <v>119.221533466561</v>
+        <v>119.2524068100932</v>
       </c>
       <c r="C169" t="n">
         <v>71.05293926247884</v>
       </c>
       <c r="D169" t="n">
-        <v>0.963050736702706</v>
+        <v>0.9630625590103347</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -7194,10 +7194,10 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>0.1784483885943589</v>
+        <v>0.178447882870949</v>
       </c>
       <c r="G169" t="n">
-        <v>0.0002762137640075484</v>
+        <v>0.0002761216385814527</v>
       </c>
       <c r="H169" t="n">
         <v>86.37820664057558</v>
@@ -7206,13 +7206,13 @@
         <v>0</v>
       </c>
       <c r="J169" t="n">
-        <v>0.1614154383696257</v>
+        <v>0.1613509581200474</v>
       </c>
       <c r="K169" t="n">
-        <v>834.3020022005289</v>
+        <v>834.3043666222674</v>
       </c>
       <c r="L169" t="n">
-        <v>94.01664135372185</v>
+        <v>94.04800913492615</v>
       </c>
     </row>
     <row r="170">
@@ -7220,13 +7220,13 @@
         <v>1680</v>
       </c>
       <c r="B170" t="n">
-        <v>117.6065816188974</v>
+        <v>117.6381207891806</v>
       </c>
       <c r="C170" t="n">
         <v>70.99495032448408</v>
       </c>
       <c r="D170" t="n">
-        <v>0.9624224720672218</v>
+        <v>0.962434913327709</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -7234,10 +7234,10 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>0.1784655928801939</v>
+        <v>0.1784650703273122</v>
       </c>
       <c r="G170" t="n">
-        <v>0.000281102492787253</v>
+        <v>0.0002810054180724427</v>
       </c>
       <c r="H170" t="n">
         <v>86.35893247448534</v>
@@ -7246,13 +7246,13 @@
         <v>0</v>
       </c>
       <c r="J170" t="n">
-        <v>0.1614951847663639</v>
+        <v>0.1614286020912663</v>
       </c>
       <c r="K170" t="n">
-        <v>834.2215745400094</v>
+        <v>834.2240171742291</v>
       </c>
       <c r="L170" t="n">
-        <v>92.38157275009706</v>
+        <v>92.41348642240256</v>
       </c>
     </row>
     <row r="171">
@@ -7260,13 +7260,13 @@
         <v>1690</v>
       </c>
       <c r="B171" t="n">
-        <v>115.9908015939442</v>
+        <v>116.023028632335</v>
       </c>
       <c r="C171" t="n">
         <v>70.93699535808003</v>
       </c>
       <c r="D171" t="n">
-        <v>0.9617744991643965</v>
+        <v>0.9617875980401598</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -7274,10 +7274,10 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>0.1784831224974784</v>
+        <v>0.1784825824728299</v>
       </c>
       <c r="G171" t="n">
-        <v>0.000286151397362498</v>
+        <v>0.0002860490542383886</v>
       </c>
       <c r="H171" t="n">
         <v>86.33967381110507</v>
@@ -7286,13 +7286,13 @@
         <v>0</v>
       </c>
       <c r="J171" t="n">
-        <v>0.1615780024953213</v>
+        <v>0.1615092156845548</v>
       </c>
       <c r="K171" t="n">
-        <v>834.1396419475741</v>
+        <v>834.1421657566808</v>
       </c>
       <c r="L171" t="n">
-        <v>90.75157635788855</v>
+        <v>90.78404561344</v>
       </c>
     </row>
     <row r="172">
@@ -7300,13 +7300,13 @@
         <v>1700</v>
       </c>
       <c r="B172" t="n">
-        <v>114.3741612320827</v>
+        <v>114.4070992608012</v>
       </c>
       <c r="C172" t="n">
         <v>70.87907433550947</v>
       </c>
       <c r="D172" t="n">
-        <v>0.9611060196177715</v>
+        <v>0.9611198176889466</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -7314,10 +7314,10 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>0.1785009797462928</v>
+        <v>0.1785004215754971</v>
       </c>
       <c r="G172" t="n">
-        <v>0.0002913673555338269</v>
+        <v>0.0002912593999518776</v>
       </c>
       <c r="H172" t="n">
         <v>86.32043063289099</v>
@@ -7326,13 +7326,13 @@
         <v>0</v>
       </c>
       <c r="J172" t="n">
-        <v>0.1616640361861405</v>
+        <v>0.1615929371533833</v>
       </c>
       <c r="K172" t="n">
-        <v>834.0561945673227</v>
+        <v>834.0588026609373</v>
       </c>
       <c r="L172" t="n">
-        <v>89.12697285555846</v>
+        <v>89.16000785536824</v>
       </c>
     </row>
     <row r="173">
@@ -7340,13 +7340,13 @@
         <v>1710</v>
       </c>
       <c r="B173" t="n">
-        <v>112.7566268367339</v>
+        <v>112.790300127631</v>
       </c>
       <c r="C173" t="n">
         <v>70.82118722904909</v>
       </c>
       <c r="D173" t="n">
-        <v>0.9604161917645109</v>
+        <v>0.9604307337927667</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -7354,10 +7354,10 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>0.1785191669808511</v>
+        <v>0.1785185899553754</v>
       </c>
       <c r="G173" t="n">
-        <v>0.0002967576415237339</v>
+        <v>0.0002966437021731824</v>
       </c>
       <c r="H173" t="n">
         <v>86.30120292232641</v>
@@ -7366,13 +7366,13 @@
         <v>0</v>
       </c>
       <c r="J173" t="n">
-        <v>0.1617534395348841</v>
+        <v>0.1616799133170165</v>
       </c>
       <c r="K173" t="n">
-        <v>833.9712223153119</v>
+        <v>833.9739179597342</v>
       </c>
       <c r="L173" t="n">
-        <v>87.50807647048353</v>
+        <v>87.54168788150626</v>
       </c>
     </row>
     <row r="174">
@@ -7380,13 +7380,13 @@
         <v>1720</v>
       </c>
       <c r="B174" t="n">
-        <v>111.1381630763584</v>
+        <v>111.1725971251703</v>
       </c>
       <c r="C174" t="n">
         <v>70.76333401100862</v>
       </c>
       <c r="D174" t="n">
-        <v>0.9597041275653463</v>
+        <v>0.9597194617857904</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -7394,10 +7394,10 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>0.1785376866128614</v>
+        <v>0.1785370899877871</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0003023299558627038</v>
+        <v>0.0003022096315789313</v>
       </c>
       <c r="H174" t="n">
         <v>86.28199066192157</v>
@@ -7406,13 +7406,13 @@
         <v>0</v>
       </c>
       <c r="J174" t="n">
-        <v>0.1618463760375555</v>
+        <v>0.1617703002460738</v>
       </c>
       <c r="K174" t="n">
-        <v>833.8847148644904</v>
+        <v>833.8875014929163</v>
       </c>
       <c r="L174" t="n">
-        <v>85.89519458486052</v>
+        <v>85.92939361986126</v>
       </c>
     </row>
     <row r="175">
@@ -7420,13 +7420,13 @@
         <v>1730</v>
       </c>
       <c r="B175" t="n">
-        <v>109.5187328783937</v>
+        <v>109.5539544850157</v>
       </c>
       <c r="C175" t="n">
         <v>70.70551465373092</v>
       </c>
       <c r="D175" t="n">
-        <v>0.9589688892396513</v>
+        <v>0.9589850676842939</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -7434,10 +7434,10 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>0.1785565411151484</v>
+        <v>0.1785559241067582</v>
       </c>
       <c r="G175" t="n">
-        <v>0.0003080924580690545</v>
+        <v>0.0003079653149517194</v>
       </c>
       <c r="H175" t="n">
         <v>86.26279383421331</v>
@@ -7446,13 +7446,13 @@
         <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>0.1619430197964674</v>
+        <v>0.161864264015462</v>
       </c>
       <c r="K175" t="n">
-        <v>833.7966616284381</v>
+        <v>833.7995428520015</v>
       </c>
       <c r="L175" t="n">
-        <v>84.28862735042588</v>
+        <v>84.32342581089181</v>
       </c>
     </row>
     <row r="176">
@@ -7460,13 +7460,13 @@
         <v>1740</v>
       </c>
       <c r="B176" t="n">
-        <v>107.8982973143133</v>
+        <v>107.9343346696902</v>
       </c>
       <c r="C176" t="n">
         <v>70.64772912959177</v>
       </c>
       <c r="D176" t="n">
-        <v>0.95820948559639</v>
+        <v>0.9582265644531178</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -7474,10 +7474,10 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>0.1785757330255673</v>
+        <v>0.1785750948087342</v>
       </c>
       <c r="G176" t="n">
-        <v>0.0003140538024345167</v>
+        <v>0.0003139193706378084</v>
       </c>
       <c r="H176" t="n">
         <v>86.24361242176514</v>
@@ -7486,13 +7486,13 @@
         <v>0</v>
       </c>
       <c r="J176" t="n">
-        <v>0.1620435564080454</v>
+        <v>0.1619619815325498</v>
       </c>
       <c r="K176" t="n">
-        <v>833.7070517437891</v>
+        <v>833.7100313635107</v>
       </c>
       <c r="L176" t="n">
-        <v>82.68866731226403</v>
+        <v>82.72407763463951</v>
       </c>
     </row>
     <row r="177">
@@ -7500,13 +7500,13 @@
         <v>1750</v>
       </c>
       <c r="B177" t="n">
-        <v>106.2768154748948</v>
+        <v>106.3136982551951</v>
       </c>
       <c r="C177" t="n">
         <v>70.58997741099995</v>
       </c>
       <c r="D177" t="n">
-        <v>0.9574248680280352</v>
+        <v>0.9574429080396181</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -7514,10 +7514,10 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>0.1785952649512348</v>
+        <v>0.1785946046565925</v>
       </c>
       <c r="G177" t="n">
-        <v>0.0003202231772681809</v>
+        <v>0.0003200809474199569</v>
       </c>
       <c r="H177" t="n">
         <v>86.22444640716729</v>
@@ -7526,13 +7526,13 @@
         <v>0</v>
       </c>
       <c r="J177" t="n">
-        <v>0.1621481839418429</v>
+        <v>0.1620636414495109</v>
       </c>
       <c r="K177" t="n">
-        <v>833.615874051214</v>
+        <v>833.6189560709444</v>
       </c>
       <c r="L177" t="n">
-        <v>81.0955990418862</v>
+        <v>81.13163434744354</v>
       </c>
     </row>
     <row r="178">
@@ -7540,13 +7540,13 @@
         <v>1760</v>
       </c>
       <c r="B178" t="n">
-        <v>104.6542443346758</v>
+        <v>104.692003803495</v>
       </c>
       <c r="C178" t="n">
         <v>70.53225947039732</v>
       </c>
       <c r="D178" t="n">
-        <v>0.9566139261303932</v>
+        <v>0.9566329930386969</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -7554,10 +7554,10 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>0.1786151395731125</v>
+        <v>0.1786144562839865</v>
       </c>
       <c r="G178" t="n">
-        <v>0.0003266103479982296</v>
+        <v>0.0003264597671982851</v>
       </c>
       <c r="H178" t="n">
         <v>86.20529577303657</v>
@@ -7566,13 +7566,13 @@
         <v>0</v>
       </c>
       <c r="J178" t="n">
-        <v>0.1622571140219001</v>
+        <v>0.1621694451700075</v>
       </c>
       <c r="K178" t="n">
-        <v>833.5231170748027</v>
+        <v>833.5263057152634</v>
       </c>
       <c r="L178" t="n">
-        <v>79.50969877966023</v>
+        <v>79.54637292835655</v>
       </c>
     </row>
     <row r="179">
@@ -7580,13 +7580,13 @@
         <v>1770</v>
       </c>
       <c r="B179" t="n">
-        <v>103.0305386044441</v>
+        <v>103.0692077238769</v>
       </c>
       <c r="C179" t="n">
         <v>70.47457528025882</v>
       </c>
       <c r="D179" t="n">
-        <v>0.9557754829064885</v>
+        <v>0.9557956479478414</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -7594,10 +7594,10 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>0.1786353596509763</v>
+        <v>0.1786346524000493</v>
       </c>
       <c r="G179" t="n">
-        <v>0.0003332257045848231</v>
+        <v>0.0003330661719249105</v>
       </c>
       <c r="H179" t="n">
         <v>86.18616050201646</v>
@@ -7606,13 +7606,13 @@
         <v>0</v>
       </c>
       <c r="J179" t="n">
-        <v>0.1623705730231671</v>
+        <v>0.1622796079618064</v>
       </c>
       <c r="K179" t="n">
-        <v>833.4287689996988</v>
+        <v>833.4320687137331</v>
       </c>
       <c r="L179" t="n">
-        <v>77.93123408656152</v>
+        <v>77.96856173527542</v>
       </c>
     </row>
     <row r="180">
@@ -7620,13 +7620,13 @@
         <v>1780</v>
       </c>
       <c r="B180" t="n">
-        <v>101.4056505704686</v>
+        <v>101.4452641219911</v>
       </c>
       <c r="C180" t="n">
         <v>70.41692481309212</v>
       </c>
       <c r="D180" t="n">
-        <v>0.9549082895071828</v>
+        <v>0.9549296299657347</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -7634,10 +7634,10 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>0.1786559280288133</v>
+        <v>0.178655195794499</v>
       </c>
       <c r="G180" t="n">
-        <v>0.0003400803137598327</v>
+        <v>0.0003399111752990959</v>
       </c>
       <c r="H180" t="n">
         <v>86.16704057677683</v>
@@ -7646,13 +7646,13 @@
         <v>0</v>
       </c>
       <c r="J180" t="n">
-        <v>0.1624888033975522</v>
+        <v>0.1623943601885844</v>
       </c>
       <c r="K180" t="n">
-        <v>833.3328176477894</v>
+        <v>833.336233136948</v>
       </c>
       <c r="L180" t="n">
-        <v>76.36046350509584</v>
+        <v>76.39846017068656</v>
       </c>
     </row>
     <row r="181">
@@ -7660,13 +7660,13 @@
         <v>1790</v>
       </c>
       <c r="B181" t="n">
-        <v>99.77952991900564</v>
+        <v>99.82012463523</v>
       </c>
       <c r="C181" t="n">
         <v>70.35930804143743</v>
       </c>
       <c r="D181" t="n">
-        <v>0.954011019454892</v>
+        <v>0.954033619281849</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -7674,10 +7674,10 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>0.1786768476406918</v>
+        <v>0.1786760893431847</v>
       </c>
       <c r="G181" t="n">
-        <v>0.0003471859766813139</v>
+        <v>0.0003470065198002676</v>
       </c>
       <c r="H181" t="n">
         <v>86.14793598001394</v>
@@ -7686,13 +7686,13 @@
         <v>0</v>
       </c>
       <c r="J181" t="n">
-        <v>0.1626120651462975</v>
+        <v>0.162513948676108</v>
       </c>
       <c r="K181" t="n">
-        <v>833.2352504512502</v>
+        <v>833.2387866838573</v>
       </c>
       <c r="L181" t="n">
-        <v>74.79763622911594</v>
+        <v>74.83631835680345</v>
       </c>
     </row>
     <row r="182">
@@ -7700,13 +7700,13 @@
         <v>1800</v>
       </c>
       <c r="B182" t="n">
-        <v>98.15212354442664</v>
+        <v>98.19373825292767</v>
       </c>
       <c r="C182" t="n">
         <v>70.30172493786802</v>
       </c>
       <c r="D182" t="n">
-        <v>0.9530822622894723</v>
+        <v>0.9531062127973243</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -7714,10 +7714,10 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>0.1786981215171558</v>
+        <v>0.1786973360141222</v>
       </c>
       <c r="G182" t="n">
-        <v>0.0003545552926744611</v>
+        <v>0.0003543647397182154</v>
       </c>
       <c r="H182" t="n">
         <v>86.1288466944506</v>
@@ -7726,13 +7726,13 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>0.1627406374578997</v>
+        <v>0.1626386382302324</v>
       </c>
       <c r="K182" t="n">
-        <v>833.1360544237091</v>
+        <v>833.139716654567</v>
       </c>
       <c r="L182" t="n">
-        <v>73.24299178211022</v>
+        <v>73.28237681973971</v>
       </c>
     </row>
     <row r="183">
@@ -7740,13 +7740,13 @@
         <v>1810</v>
       </c>
       <c r="B183" t="n">
-        <v>96.52337533908933</v>
+        <v>96.56605111965973</v>
       </c>
       <c r="C183" t="n">
         <v>70.24417547498979</v>
       </c>
       <c r="D183" t="n">
-        <v>0.9521205165669253</v>
+        <v>0.9521459172092281</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -7754,10 +7754,10 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>0.1787197527922028</v>
+        <v>0.1787189388740726</v>
       </c>
       <c r="G183" t="n">
-        <v>0.0003622017298284044</v>
+        <v>0.0003619992309351308</v>
       </c>
       <c r="H183" t="n">
         <v>86.10977270283588</v>
@@ -7766,13 +7766,13 @@
         <v>0</v>
       </c>
       <c r="J183" t="n">
-        <v>0.1628748205337304</v>
+        <v>0.1627687133267942</v>
       </c>
       <c r="K183" t="n">
-        <v>833.0352161287631</v>
+        <v>833.0390099206787</v>
       </c>
       <c r="L183" t="n">
-        <v>71.69675970338986</v>
+        <v>71.73686618221782</v>
       </c>
     </row>
     <row r="184">
@@ -7780,13 +7780,13 @@
         <v>1820</v>
       </c>
       <c r="B184" t="n">
-        <v>94.89322596281964</v>
+        <v>94.93700631969394</v>
       </c>
       <c r="C184" t="n">
         <v>70.18665962544128</v>
       </c>
       <c r="D184" t="n">
-        <v>0.9511241821317926</v>
+        <v>0.9511511413807712</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -7794,10 +7794,10 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>0.1787417447109086</v>
+        <v>0.1787409010957247</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0003701397033322015</v>
+        <v>0.0003699243283253824</v>
       </c>
       <c r="H184" t="n">
         <v>86.09071398794511</v>
@@ -7806,13 +7806,13 @@
         <v>0</v>
       </c>
       <c r="J184" t="n">
-        <v>0.163014937626969</v>
+        <v>0.1629044799965794</v>
       </c>
       <c r="K184" t="n">
-        <v>832.9327216455529</v>
+        <v>832.9366528928882</v>
       </c>
       <c r="L184" t="n">
-        <v>70.15915924142909</v>
+        <v>70.20000686415356</v>
       </c>
     </row>
     <row r="185">
@@ -7820,13 +7820,13 @@
         <v>1830</v>
       </c>
       <c r="B185" t="n">
-        <v>93.26161258957418</v>
+        <v>93.30654364037206</v>
       </c>
       <c r="C185" t="n">
         <v>70.12917736189365</v>
       </c>
       <c r="D185" t="n">
-        <v>0.9500915515727479</v>
+        <v>0.9501201879090042</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -7834,10 +7834,10 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>0.1787641006377774</v>
+        <v>0.1787632259655493</v>
       </c>
       <c r="G185" t="n">
-        <v>0.0003783846625668499</v>
+        <v>0.0003781553917690843</v>
       </c>
       <c r="H185" t="n">
         <v>86.07167053258</v>
@@ -7846,13 +7846,13 @@
         <v>0</v>
       </c>
       <c r="J185" t="n">
-        <v>0.1631613373245439</v>
+        <v>0.1630462679321872</v>
       </c>
       <c r="K185" t="n">
-        <v>832.8285565310509</v>
+        <v>832.8326314855345</v>
       </c>
       <c r="L185" t="n">
-        <v>68.63039905342703</v>
+        <v>68.6720087902824</v>
       </c>
     </row>
     <row r="186">
@@ -7860,13 +7860,13 @@
         <v>1840</v>
       </c>
       <c r="B186" t="n">
-        <v>91.62846862850824</v>
+        <v>91.67459931189293</v>
       </c>
       <c r="C186" t="n">
         <v>70.07172865705047</v>
       </c>
       <c r="D186" t="n">
-        <v>0.9490208007576275</v>
+        <v>0.949051243788642</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -7874,10 +7874,10 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>0.1787868240658986</v>
+        <v>0.1787859168924041</v>
       </c>
       <c r="G186" t="n">
-        <v>0.0003869531881268916</v>
+        <v>0.0003867089019282227</v>
       </c>
       <c r="H186" t="n">
         <v>86.05264231956828</v>
@@ -7886,13 +7886,13 @@
         <v>0</v>
       </c>
       <c r="J186" t="n">
-        <v>0.163314396106595</v>
+        <v>0.1631944328479128</v>
       </c>
       <c r="K186" t="n">
-        <v>832.7227057786789</v>
+        <v>832.7269310777413</v>
       </c>
       <c r="L186" t="n">
-        <v>67.11067690995083</v>
+        <v>67.15307110380229</v>
       </c>
     </row>
     <row r="187">
@@ -7900,13 +7900,13 @@
         <v>1850</v>
       </c>
       <c r="B187" t="n">
-        <v>89.99372341627118</v>
+        <v>90.04110572060416</v>
       </c>
       <c r="C187" t="n">
         <v>70.01431348364804</v>
       </c>
       <c r="D187" t="n">
-        <v>0.9479099783286475</v>
+        <v>0.9479423700556027</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -7914,10 +7914,10 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>0.1788099186270099</v>
+        <v>0.1788089774169774</v>
       </c>
       <c r="G187" t="n">
-        <v>0.0003958631001298385</v>
+        <v>0.0003956025671138603</v>
       </c>
       <c r="H187" t="n">
         <v>86.03362933176402</v>
@@ -7926,13 +7926,13 @@
         <v>0</v>
       </c>
       <c r="J187" t="n">
-        <v>0.1634745212237047</v>
+        <v>0.1633493591288768</v>
       </c>
       <c r="K187" t="n">
-        <v>832.6151537728113</v>
+        <v>832.6195364707452</v>
       </c>
       <c r="L187" t="n">
-        <v>65.60017940328819</v>
+        <v>65.64338188479213</v>
       </c>
     </row>
     <row r="188">
@@ -7940,13 +7940,13 @@
         <v>1860</v>
       </c>
       <c r="B188" t="n">
-        <v>88.35730187688165</v>
+        <v>88.40599109248738</v>
       </c>
       <c r="C188" t="n">
         <v>69.95693181445506</v>
       </c>
       <c r="D188" t="n">
-        <v>0.9467569940203574</v>
+        <v>0.9467914902762311</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -7954,10 +7954,10 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>0.1788333881025772</v>
+        <v>0.1788324112221743</v>
       </c>
       <c r="G188" t="n">
-        <v>0.0004051335793898759</v>
+        <v>0.0004048554427851482</v>
       </c>
       <c r="H188" t="n">
         <v>86.01463155204725</v>
@@ -7966,13 +7966,13 @@
         <v>0</v>
       </c>
       <c r="J188" t="n">
-        <v>0.163642153938954</v>
+        <v>0.1635114628116769</v>
       </c>
       <c r="K188" t="n">
-        <v>832.5058842386612</v>
+        <v>832.5104318409556</v>
       </c>
       <c r="L188" t="n">
-        <v>64.09908165787598</v>
+        <v>64.1431178719277</v>
       </c>
     </row>
     <row r="189">
@@ -7980,13 +7980,13 @@
         <v>1870</v>
       </c>
       <c r="B189" t="n">
-        <v>86.71912414498149</v>
+        <v>86.7691791430267</v>
       </c>
       <c r="C189" t="n">
         <v>69.8995836222723</v>
       </c>
       <c r="D189" t="n">
-        <v>0.9455596056414833</v>
+        <v>0.945596377727434</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -7994,10 +7994,10 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>0.1788572364360182</v>
+        <v>0.1788562221445583</v>
       </c>
       <c r="G189" t="n">
-        <v>0.0004147853032910457</v>
+        <v>0.0004144880654722662</v>
       </c>
       <c r="H189" t="n">
         <v>85.99564896332406</v>
@@ -8006,13 +8006,13 @@
         <v>0</v>
       </c>
       <c r="J189" t="n">
-        <v>0.1638177731900162</v>
+        <v>0.1636811949460686</v>
       </c>
       <c r="K189" t="n">
-        <v>832.3948801869686</v>
+        <v>832.3996006882074</v>
       </c>
       <c r="L189" t="n">
-        <v>62.60754704087861</v>
+        <v>62.6524441857466</v>
       </c>
     </row>
     <row r="190">
@@ -8020,13 +8020,13 @@
         <v>1880</v>
       </c>
       <c r="B190" t="n">
-        <v>85.07910514761883</v>
+        <v>85.13058868906855</v>
       </c>
       <c r="C190" t="n">
         <v>69.84226887993327</v>
       </c>
       <c r="D190" t="n">
-        <v>0.9443154045365435</v>
+        <v>0.9443546410885271</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -8034,10 +8034,10 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>0.1788814677462166</v>
+        <v>0.178880414186985</v>
       </c>
       <c r="G190" t="n">
-        <v>0.0004248405985030113</v>
+        <v>0.0004245226032142115</v>
       </c>
       <c r="H190" t="n">
         <v>85.97668154852661</v>
@@ -8046,13 +8046,13 @@
         <v>0</v>
       </c>
       <c r="J190" t="n">
-        <v>0.1640018997362649</v>
+        <v>0.1638590453958162</v>
       </c>
       <c r="K190" t="n">
-        <v>832.2821238528246</v>
+        <v>832.2870257786101</v>
       </c>
       <c r="L190" t="n">
-        <v>61.12572687065164</v>
+        <v>61.17151405140988</v>
       </c>
     </row>
     <row r="191">
@@ -8060,13 +8060,13 @@
         <v>1890</v>
       </c>
       <c r="B191" t="n">
-        <v>83.43433561735999</v>
+        <v>83.48752003017539</v>
       </c>
       <c r="C191" t="n">
         <v>69.78498756030365</v>
       </c>
       <c r="D191" t="n">
-        <v>0.9414638225013182</v>
+        <v>0.941595905574204</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -8074,25 +8074,25 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0.1787187549255718</v>
+        <v>0.1787283931557363</v>
       </c>
       <c r="G191" t="n">
-        <v>0.0004353236130501602</v>
+        <v>0.0004349830249587782</v>
       </c>
       <c r="H191" t="n">
         <v>85.95772929061293</v>
       </c>
       <c r="I191" t="n">
-        <v>0.01399280165245682</v>
+        <v>0.01318067437149565</v>
       </c>
       <c r="J191" t="n">
-        <v>0.1644769530258841</v>
+        <v>0.1643068658893145</v>
       </c>
       <c r="K191" t="n">
-        <v>832.6819235096799</v>
+        <v>832.6575293031457</v>
       </c>
       <c r="L191" t="n">
-        <v>59.653760120444</v>
+        <v>59.70046851855933</v>
       </c>
     </row>
     <row r="192">
@@ -8100,13 +8100,13 @@
         <v>1900</v>
       </c>
       <c r="B192" t="n">
-        <v>81.7821920564366</v>
+        <v>81.83725010490086</v>
       </c>
       <c r="C192" t="n">
         <v>69.7277396362814</v>
       </c>
       <c r="D192" t="n">
-        <v>0.937215388847253</v>
+        <v>0.9373568507766343</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -8114,25 +8114,25 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>0.1784055831006403</v>
+        <v>0.1784154813596298</v>
       </c>
       <c r="G192" t="n">
-        <v>0.0004462799543806557</v>
+        <v>0.0004459132946296995</v>
       </c>
       <c r="H192" t="n">
         <v>85.93879217256708</v>
       </c>
       <c r="I192" t="n">
-        <v>0.04025987727115964</v>
+        <v>0.03938144849514875</v>
       </c>
       <c r="J192" t="n">
-        <v>0.1652143560923399</v>
+        <v>0.1650269925274545</v>
       </c>
       <c r="K192" t="n">
-        <v>833.4958289854129</v>
+        <v>833.4707346333627</v>
       </c>
       <c r="L192" t="n">
-        <v>58.1892377928971</v>
+        <v>58.23708487818122</v>
       </c>
     </row>
     <row r="193">
@@ -8140,13 +8140,13 @@
         <v>1910</v>
       </c>
       <c r="B193" t="n">
-        <v>80.12221038385591</v>
+        <v>80.17933157509965</v>
       </c>
       <c r="C193" t="n">
         <v>69.67052508079655</v>
       </c>
       <c r="D193" t="n">
-        <v>0.9327887682600223</v>
+        <v>0.9329406614512306</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -8154,25 +8154,25 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>0.1780928019919069</v>
+        <v>0.1781029876255097</v>
       </c>
       <c r="G193" t="n">
-        <v>0.0004577587054891272</v>
+        <v>0.0004573627985705841</v>
       </c>
       <c r="H193" t="n">
         <v>85.91987017739881</v>
       </c>
       <c r="I193" t="n">
-        <v>0.06790466046496235</v>
+        <v>0.06695168553682183</v>
       </c>
       <c r="J193" t="n">
-        <v>0.1659981672580684</v>
+        <v>0.1657918529801201</v>
       </c>
       <c r="K193" t="n">
-        <v>834.3100878056996</v>
+        <v>834.284222249217</v>
       </c>
       <c r="L193" t="n">
-        <v>56.73008525290856</v>
+        <v>56.77919251154734</v>
       </c>
     </row>
     <row r="194">
@@ -8180,13 +8180,13 @@
         <v>1920</v>
       </c>
       <c r="B194" t="n">
-        <v>78.4538824352593</v>
+        <v>78.51327513229575</v>
       </c>
       <c r="C194" t="n">
         <v>69.61334386681142</v>
       </c>
       <c r="D194" t="n">
-        <v>0.9281732452201443</v>
+        <v>0.9283367653111652</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -8194,25 +8194,25 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>0.1777803702242224</v>
+        <v>0.1777908729444085</v>
       </c>
       <c r="G194" t="n">
-        <v>0.0004697986760586948</v>
+        <v>0.0004693698690853647</v>
       </c>
       <c r="H194" t="n">
         <v>85.90096328814369</v>
       </c>
       <c r="I194" t="n">
-        <v>0.09703286676196431</v>
+        <v>0.09599584512521732</v>
       </c>
       <c r="J194" t="n">
-        <v>0.1668327948596605</v>
+        <v>0.1666056442803904</v>
       </c>
       <c r="K194" t="n">
-        <v>835.1247834472024</v>
+        <v>835.0980693354471</v>
       </c>
       <c r="L194" t="n">
-        <v>55.27621023864872</v>
+        <v>55.32670948449036</v>
       </c>
     </row>
     <row r="195">
@@ -8220,13 +8220,13 @@
         <v>1930</v>
       </c>
       <c r="B195" t="n">
-        <v>76.7766503925956</v>
+        <v>76.83854427083297</v>
       </c>
       <c r="C195" t="n">
         <v>69.55619596732026</v>
       </c>
       <c r="D195" t="n">
-        <v>0.9233571682285138</v>
+        <v>0.9235336771281151</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -8234,25 +8234,25 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>0.1774682416736227</v>
+        <v>0.1774790938399553</v>
       </c>
       <c r="G195" t="n">
-        <v>0.000482442906689048</v>
+        <v>0.0004819769834886185</v>
       </c>
       <c r="H195" t="n">
         <v>85.8820714878632</v>
       </c>
       <c r="I195" t="n">
-        <v>0.1277615510571389</v>
+        <v>0.126629498435277</v>
       </c>
       <c r="J195" t="n">
-        <v>0.1677232042663703</v>
+        <v>0.1674730861462785</v>
       </c>
       <c r="K195" t="n">
-        <v>835.9400114573716</v>
+        <v>835.9123644051247</v>
       </c>
       <c r="L195" t="n">
-        <v>53.82748927925892</v>
+        <v>53.87952387206157</v>
       </c>
     </row>
     <row r="196">
@@ -8260,13 +8260,13 @@
         <v>1940</v>
       </c>
       <c r="B196" t="n">
-        <v>75.08990030705957</v>
+        <v>75.15454922394828</v>
       </c>
       <c r="C196" t="n">
         <v>69.49908135534952</v>
       </c>
       <c r="D196" t="n">
-        <v>0.918327831791339</v>
+        <v>0.9185188851191561</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -8274,25 +8274,25 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>0.1771563648594802</v>
+        <v>0.1771676018046877</v>
       </c>
       <c r="G196" t="n">
-        <v>0.0004957392916142275</v>
+        <v>0.000495231368401583</v>
       </c>
       <c r="H196" t="n">
         <v>85.86319475964433</v>
       </c>
       <c r="I196" t="n">
-        <v>0.1602207635161436</v>
+        <v>0.1589809351564913</v>
       </c>
       <c r="J196" t="n">
-        <v>0.1686750085536032</v>
+        <v>0.1683995046884688</v>
       </c>
       <c r="K196" t="n">
-        <v>836.7558810447122</v>
+        <v>836.7272087738545</v>
       </c>
       <c r="L196" t="n">
-        <v>52.38376466610086</v>
+        <v>52.43749092767734</v>
       </c>
     </row>
     <row r="197">
@@ -8300,13 +8300,13 @@
         <v>1950</v>
       </c>
       <c r="B197" t="n">
-        <v>73.39295453123879</v>
+        <v>73.46063989584091</v>
       </c>
       <c r="C197" t="n">
         <v>69.44200000395756</v>
       </c>
       <c r="D197" t="n">
-        <v>0.9130713386450782</v>
+        <v>0.9132787185747272</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -8314,25 +8314,25 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>0.1768446822379672</v>
+        <v>0.176856342646411</v>
       </c>
       <c r="G197" t="n">
-        <v>0.0005097413183195564</v>
+        <v>0.0005091857162778545</v>
       </c>
       <c r="H197" t="n">
         <v>85.84433308659985</v>
       </c>
       <c r="I197" t="n">
-        <v>0.1945555154833722</v>
+        <v>0.1931930680691138</v>
       </c>
       <c r="J197" t="n">
-        <v>0.1696945775820782</v>
+        <v>0.1693909328107375</v>
       </c>
       <c r="K197" t="n">
-        <v>837.5725169271885</v>
+        <v>837.5427182691895</v>
       </c>
       <c r="L197" t="n">
-        <v>50.94484095044359</v>
+        <v>51.00042981859402</v>
       </c>
     </row>
     <row r="198">
@@ -8340,13 +8340,13 @@
         <v>1960</v>
       </c>
       <c r="B198" t="n">
-        <v>71.68506283100211</v>
+        <v>71.75609758240273</v>
       </c>
       <c r="C198" t="n">
         <v>69.38495188623472</v>
       </c>
       <c r="D198" t="n">
-        <v>0.9075724380768324</v>
+        <v>0.9077981928520493</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -8354,25 +8354,25 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>0.17653312937691</v>
+        <v>0.1765452557267899</v>
       </c>
       <c r="G198" t="n">
-        <v>0.0005245089510738528</v>
+        <v>0.0005238990397898034</v>
       </c>
       <c r="H198" t="n">
         <v>85.82548645186806</v>
       </c>
       <c r="I198" t="n">
-        <v>0.2309281269065518</v>
+        <v>0.2294257030676307</v>
       </c>
       <c r="J198" t="n">
-        <v>0.1707891700236673</v>
+        <v>0.1704542313438178</v>
       </c>
       <c r="K198" t="n">
-        <v>838.3900614908463</v>
+        <v>838.3590252218052</v>
       </c>
       <c r="L198" t="n">
-        <v>49.51048086880552</v>
+        <v>49.56811983865878</v>
       </c>
     </row>
     <row r="199">
@@ -8380,13 +8380,13 @@
         <v>1970</v>
       </c>
       <c r="B199" t="n">
-        <v>69.96539188890311</v>
+        <v>70.04012522122694</v>
       </c>
       <c r="C199" t="n">
         <v>69.32793697530303</v>
       </c>
       <c r="D199" t="n">
-        <v>0.9018143351403886</v>
+        <v>0.9020608268875334</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -8394,25 +8394,25 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>0.176221633987226</v>
+        <v>0.1762342730700731</v>
       </c>
       <c r="G199" t="n">
-        <v>0.0005401096928954419</v>
+        <v>0.0005394376967328947</v>
       </c>
       <c r="H199" t="n">
         <v>85.80665483861283</v>
       </c>
       <c r="I199" t="n">
-        <v>0.2695210466183589</v>
+        <v>0.2678582610376727</v>
       </c>
       <c r="J199" t="n">
-        <v>0.1719670942098996</v>
+        <v>0.1715972361175784</v>
       </c>
       <c r="K199" t="n">
-        <v>839.2086773234849</v>
+        <v>839.1762807961742</v>
       </c>
       <c r="L199" t="n">
-        <v>48.08040057278965</v>
+        <v>48.14029598772697</v>
       </c>
     </row>
     <row r="200">
@@ -8420,13 +8420,13 @@
         <v>1980</v>
       </c>
       <c r="B200" t="n">
-        <v>68.23301283415596</v>
+        <v>68.31183584389059</v>
       </c>
       <c r="C200" t="n">
         <v>69.27095524431684</v>
       </c>
       <c r="D200" t="n">
-        <v>0.8957784641932082</v>
+        <v>0.8960484271219337</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -8434,25 +8434,25 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>0.1759101147798292</v>
+        <v>0.1759233183143517</v>
       </c>
       <c r="G200" t="n">
-        <v>0.0005566198704326502</v>
+        <v>0.0005558766274027937</v>
       </c>
       <c r="H200" t="n">
         <v>85.7878382300236</v>
       </c>
       <c r="I200" t="n">
-        <v>0.3105402631361555</v>
+        <v>0.3086930625538628</v>
       </c>
       <c r="J200" t="n">
-        <v>0.173237905474716</v>
+        <v>0.1728289377336362</v>
       </c>
       <c r="K200" t="n">
-        <v>840.0285502047134</v>
+        <v>839.9946577328448</v>
       </c>
       <c r="L200" t="n">
-        <v>46.65426400871078</v>
+        <v>46.71664377937962</v>
       </c>
     </row>
     <row r="201">
@@ -8460,13 +8460,13 @@
         <v>1990</v>
       </c>
       <c r="B201" t="n">
-        <v>66.48688633311923</v>
+        <v>66.57023881484319</v>
       </c>
       <c r="C201" t="n">
         <v>69.21400666646184</v>
       </c>
       <c r="D201" t="n">
-        <v>0.8894442183717439</v>
+        <v>0.8897408300826516</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -8474,25 +8474,25 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>0.1755984801086633</v>
+        <v>0.1756123054706168</v>
       </c>
       <c r="G201" t="n">
-        <v>0.0005741261996011489</v>
+        <v>0.0005733008588241936</v>
       </c>
       <c r="H201" t="n">
         <v>85.76903660931519</v>
       </c>
       <c r="I201" t="n">
-        <v>0.3542194589315026</v>
+        <v>0.3521593191749472</v>
       </c>
       <c r="J201" t="n">
-        <v>0.1746126501036726</v>
+        <v>0.1741597029047388</v>
       </c>
       <c r="K201" t="n">
-        <v>840.849892655204</v>
+        <v>840.8143535930683</v>
       </c>
       <c r="L201" t="n">
-        <v>45.23167625114469</v>
+        <v>45.29679310252474</v>
       </c>
     </row>
     <row r="202">
@@ -8500,13 +8500,13 @@
         <v>2000</v>
       </c>
       <c r="B202" t="n">
-        <v>64.72584463955238</v>
+        <v>64.81422332382903</v>
       </c>
       <c r="C202" t="n">
         <v>69.1570912149557</v>
       </c>
       <c r="D202" t="n">
-        <v>0.8827886242214188</v>
+        <v>0.8831155936874463</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -8514,25 +8514,25 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>0.1752866263497013</v>
+        <v>0.1753011374455455</v>
       </c>
       <c r="G202" t="n">
-        <v>0.0005927277079356314</v>
+        <v>0.000591807346986218</v>
       </c>
       <c r="H202" t="n">
         <v>85.75024995972792</v>
       </c>
       <c r="I202" t="n">
-        <v>0.4008251089500139</v>
+        <v>0.3985180193981263</v>
       </c>
       <c r="J202" t="n">
-        <v>0.1761041693566857</v>
+        <v>0.1756015491014165</v>
       </c>
       <c r="K202" t="n">
-        <v>841.6729481762436</v>
+        <v>841.6355946209035</v>
       </c>
       <c r="L202" t="n">
-        <v>43.81217554027249</v>
+        <v>43.88031091520734</v>
       </c>
     </row>
     <row r="203">
@@ -8540,13 +8540,13 @@
         <v>2010</v>
       </c>
       <c r="B203" t="n">
-        <v>62.94856982255891</v>
+        <v>63.04253844164886</v>
       </c>
       <c r="C203" t="n">
         <v>69.10020886304767</v>
       </c>
       <c r="D203" t="n">
-        <v>0.8757859474747106</v>
+        <v>0.8761476244223617</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -8554,25 +8554,25 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>0.1749744359513711</v>
+        <v>0.1749897042716138</v>
       </c>
       <c r="G203" t="n">
-        <v>0.0006125381144589861</v>
+        <v>0.0006115072511470055</v>
       </c>
       <c r="H203" t="n">
         <v>85.73147826452737</v>
       </c>
       <c r="I203" t="n">
-        <v>0.4506627897385497</v>
+        <v>0.4480679577854279</v>
       </c>
       <c r="J203" t="n">
-        <v>0.1777274816993463</v>
+        <v>0.1771684882180173</v>
       </c>
       <c r="K203" t="n">
-        <v>842.4979963482549</v>
+        <v>842.4586403701347</v>
       </c>
       <c r="L203" t="n">
-        <v>42.39522370064375</v>
+        <v>42.46669248639278</v>
       </c>
     </row>
     <row r="204">
@@ -8580,13 +8580,13 @@
         <v>2020</v>
       </c>
       <c r="B204" t="n">
-        <v>61.15356714297582</v>
+        <v>61.25376883637496</v>
       </c>
       <c r="C204" t="n">
         <v>69.04335958401862</v>
       </c>
       <c r="D204" t="n">
-        <v>0.8684072115947234</v>
+        <v>0.8688087236154494</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -8594,25 +8594,25 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>0.1746617750725374</v>
+        <v>0.1746778809716681</v>
       </c>
       <c r="G204" t="n">
-        <v>0.0006336888023775185</v>
+        <v>0.0006325287659315297</v>
       </c>
       <c r="H204" t="n">
         <v>85.71272150700445</v>
       </c>
       <c r="I204" t="n">
-        <v>0.5040850565759247</v>
+        <v>0.5011532392951998</v>
       </c>
       <c r="J204" t="n">
-        <v>0.1795002679583095</v>
+        <v>0.1788769605273899</v>
       </c>
       <c r="K204" t="n">
-        <v>843.3253590074693</v>
+        <v>843.2837892863478</v>
       </c>
       <c r="L204" t="n">
-        <v>40.98019452170855</v>
+        <v>41.0553508177845</v>
       </c>
     </row>
     <row r="205">
@@ -8620,13 +8620,13 @@
         <v>2030</v>
       </c>
       <c r="B205" t="n">
-        <v>59.33913220772147</v>
+        <v>59.44630495562572</v>
       </c>
       <c r="C205" t="n">
         <v>68.98654335118113</v>
       </c>
       <c r="D205" t="n">
-        <v>0.8606196046855369</v>
+        <v>0.86106703065604</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -8634,25 +8634,25 @@
         </is>
       </c>
       <c r="F205" t="n">
-        <v>0.1743484906978942</v>
+        <v>0.174365524962864</v>
       </c>
       <c r="G205" t="n">
-        <v>0.0006563325684843907</v>
+        <v>0.000655020681282746</v>
       </c>
       <c r="H205" t="n">
         <v>85.6939796704754</v>
       </c>
       <c r="I205" t="n">
-        <v>0.5615013741127255</v>
+        <v>0.5581727077622693</v>
       </c>
       <c r="J205" t="n">
-        <v>0.181443493525435</v>
+        <v>0.1807463880749244</v>
       </c>
       <c r="K205" t="n">
-        <v>844.1554077885916</v>
+        <v>844.1113854925553</v>
       </c>
       <c r="L205" t="n">
-        <v>39.56635954791393</v>
+        <v>39.6456037644552</v>
       </c>
     </row>
     <row r="206">
@@ -8660,13 +8660,13 @@
         <v>2040</v>
       </c>
       <c r="B206" t="n">
-        <v>57.5033100537394</v>
+        <v>57.61830607557056</v>
       </c>
       <c r="C206" t="n">
         <v>68.92976013787927</v>
       </c>
       <c r="D206" t="n">
-        <v>0.852385741987595</v>
+        <v>0.852886333573681</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -8674,25 +8674,25 @@
         </is>
       </c>
       <c r="F206" t="n">
-        <v>0.1740344070844289</v>
+        <v>0.1740524728745017</v>
       </c>
       <c r="G206" t="n">
-        <v>0.0006806484025433866</v>
+        <v>0.0006791569032968353</v>
       </c>
       <c r="H206" t="n">
         <v>85.67525273828163</v>
       </c>
       <c r="I206" t="n">
-        <v>0.6233907689674014</v>
+        <v>0.6195919134543585</v>
       </c>
       <c r="J206" t="n">
-        <v>0.183582215398206</v>
+        <v>0.1827998880055162</v>
       </c>
       <c r="K206" t="n">
-        <v>844.9885734158686</v>
+        <v>844.941827106093</v>
       </c>
       <c r="L206" t="n">
-        <v>38.15287054317874</v>
+        <v>38.23665821785699</v>
       </c>
     </row>
     <row r="207">
@@ -8700,13 +8700,13 @@
         <v>2050</v>
       </c>
       <c r="B207" t="n">
-        <v>55.6438436335384</v>
+        <v>55.76765404653143</v>
       </c>
       <c r="C207" t="n">
         <v>68.87300991748862</v>
       </c>
       <c r="D207" t="n">
-        <v>0.8436627393225459</v>
+        <v>0.8442252069532745</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -8714,25 +8714,25 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>0.1737193213420744</v>
+        <v>0.1737385366122274</v>
       </c>
       <c r="G207" t="n">
-        <v>0.000706847650653615</v>
+        <v>0.0007051422598011726</v>
       </c>
       <c r="H207" t="n">
         <v>85.65654069378978</v>
       </c>
       <c r="I207" t="n">
-        <v>0.6903181381850527</v>
+        <v>0.6859584739488573</v>
       </c>
       <c r="J207" t="n">
-        <v>0.1859466420201002</v>
+        <v>0.1850652029039129</v>
       </c>
       <c r="K207" t="n">
-        <v>845.8253572570437</v>
+        <v>845.7755765243628</v>
       </c>
       <c r="L207" t="n">
-        <v>36.73873763836698</v>
+        <v>36.82759049923002</v>
       </c>
     </row>
     <row r="208">
@@ -8740,13 +8740,13 @@
         <v>2060</v>
       </c>
       <c r="B208" t="n">
-        <v>53.75810819120615</v>
+        <v>53.89189474742658</v>
       </c>
       <c r="C208" t="n">
         <v>68.81629266341633</v>
       </c>
       <c r="D208" t="n">
-        <v>0.8344010358192124</v>
+        <v>0.8350359222858821</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -8754,25 +8754,25 @@
         </is>
       </c>
       <c r="F208" t="n">
-        <v>0.1734029978799865</v>
+        <v>0.1734234984419812</v>
       </c>
       <c r="G208" t="n">
-        <v>0.0007351820654036893</v>
+        <v>0.000733220047768125</v>
       </c>
       <c r="H208" t="n">
         <v>85.63784352039156</v>
       </c>
       <c r="I208" t="n">
-        <v>0.7629555394742012</v>
+        <v>0.7579220334798363</v>
       </c>
       <c r="J208" t="n">
-        <v>0.1885735442332254</v>
+        <v>0.1875759299104853</v>
       </c>
       <c r="K208" t="n">
-        <v>846.6663458419487</v>
+        <v>846.6131732713001</v>
       </c>
       <c r="L208" t="n">
-        <v>35.32280180610745</v>
+        <v>35.41732180769781</v>
       </c>
     </row>
     <row r="209">
@@ -8780,13 +8780,13 @@
         <v>2070</v>
       </c>
       <c r="B209" t="n">
-        <v>51.86488937866447</v>
+        <v>52.00803714979549</v>
       </c>
       <c r="C209" t="n">
         <v>68.75960834910063</v>
       </c>
       <c r="D209" t="n">
-        <v>0.8245428793435332</v>
+        <v>0.8252630542922595</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -8794,25 +8794,25 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>0.1730851613465388</v>
+        <v>0.1731071047827482</v>
       </c>
       <c r="G209" t="n">
-        <v>0.0007659544697412011</v>
+        <v>0.0007636819787434147</v>
       </c>
       <c r="H209" t="n">
         <v>85.61916120150373</v>
       </c>
       <c r="I209" t="n">
-        <v>0.8421103792878758</v>
+        <v>0.8362605500215365</v>
       </c>
       <c r="J209" t="n">
-        <v>0.1893218812541677</v>
+        <v>0.1883857597631082</v>
       </c>
       <c r="K209" t="n">
-        <v>847.5122293175036</v>
+        <v>847.4552502166441</v>
       </c>
       <c r="L209" t="n">
-        <v>33.90369978052806</v>
+        <v>34.00458713244603</v>
       </c>
     </row>
     <row r="210">
@@ -8820,13 +8820,13 @@
         <v>2080</v>
       </c>
       <c r="B210" t="n">
-        <v>49.96698934211978</v>
+        <v>50.12060977838694</v>
       </c>
       <c r="C210" t="n">
         <v>68.70295694801143</v>
       </c>
       <c r="D210" t="n">
-        <v>0.8141442736112579</v>
+        <v>0.8149538969933687</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -8834,25 +8834,25 @@
         </is>
       </c>
       <c r="F210" t="n">
-        <v>0.1727690369736922</v>
+        <v>0.1727922873280074</v>
       </c>
       <c r="G210" t="n">
-        <v>0.0007991327155945728</v>
+        <v>0.0007965195504072426</v>
       </c>
       <c r="H210" t="n">
         <v>85.60049372056812</v>
       </c>
       <c r="I210" t="n">
-        <v>0.927729198437495</v>
+        <v>0.9209808687394159</v>
       </c>
       <c r="J210" t="n">
-        <v>0.1897900036544689</v>
+        <v>0.1887427371408551</v>
       </c>
       <c r="K210" t="n">
-        <v>848.3545983438567</v>
+        <v>848.2941608994884</v>
       </c>
       <c r="L210" t="n">
-        <v>32.49609217705216</v>
+        <v>32.60270306533221</v>
       </c>
     </row>
     <row r="211">
@@ -8860,13 +8860,13 @@
         <v>2090</v>
       </c>
       <c r="B211" t="n">
-        <v>48.06348346367795</v>
+        <v>48.22885040039703</v>
       </c>
       <c r="C211" t="n">
         <v>68.6463384336497</v>
       </c>
       <c r="D211" t="n">
-        <v>0.8031824542344023</v>
+        <v>0.8040961194783289</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -8874,25 +8874,25 @@
         </is>
       </c>
       <c r="F211" t="n">
-        <v>0.172455166426177</v>
+        <v>0.1724798675135403</v>
       </c>
       <c r="G211" t="n">
-        <v>0.0008349478073650494</v>
+        <v>0.0008319257538982703</v>
       </c>
       <c r="H211" t="n">
         <v>85.58184106105153</v>
       </c>
       <c r="I211" t="n">
-        <v>1.020432499890157</v>
+        <v>1.012604902243354</v>
       </c>
       <c r="J211" t="n">
-        <v>0.1903505878441828</v>
+        <v>0.189175937798991</v>
       </c>
       <c r="K211" t="n">
-        <v>849.1919892545328</v>
+        <v>849.1277155843183</v>
       </c>
       <c r="L211" t="n">
-        <v>31.10217208619534</v>
+        <v>31.21515383551253</v>
       </c>
     </row>
     <row r="212">
@@ -8900,13 +8900,13 @@
         <v>2100</v>
       </c>
       <c r="B212" t="n">
-        <v>46.15332907348572</v>
+        <v>46.33191144428476</v>
       </c>
       <c r="C212" t="n">
         <v>68.58975277954789</v>
       </c>
       <c r="D212" t="n">
-        <v>0.7916108778483164</v>
+        <v>0.7926460835177574</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -8914,25 +8914,25 @@
         </is>
       </c>
       <c r="F212" t="n">
-        <v>0.1721434846123604</v>
+        <v>0.1721697991702441</v>
       </c>
       <c r="G212" t="n">
-        <v>0.0008737398711636269</v>
+        <v>0.0008702237450194797</v>
       </c>
       <c r="H212" t="n">
         <v>85.56320320644573</v>
       </c>
       <c r="I212" t="n">
-        <v>1.121124234146553</v>
+        <v>1.111991656585459</v>
       </c>
       <c r="J212" t="n">
-        <v>0.1910154390192228</v>
+        <v>0.1896938956112263</v>
       </c>
       <c r="K212" t="n">
-        <v>850.0245127119261</v>
+        <v>849.9559752363198</v>
       </c>
       <c r="L212" t="n">
-        <v>29.72130635754866</v>
+        <v>29.84139485538623</v>
       </c>
     </row>
     <row r="213">
@@ -8940,13 +8940,13 @@
         <v>2110</v>
       </c>
       <c r="B213" t="n">
-        <v>44.23533530743795</v>
+        <v>44.42883850338553</v>
       </c>
       <c r="C213" t="n">
         <v>68.53319995926938</v>
       </c>
       <c r="D213" t="n">
-        <v>0.7793769190105295</v>
+        <v>0.7805547806274978</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -8954,25 +8954,25 @@
         </is>
       </c>
       <c r="F213" t="n">
-        <v>0.1718339187797947</v>
+        <v>0.1718620320861718</v>
       </c>
       <c r="G213" t="n">
-        <v>0.0009159128980482424</v>
+        <v>0.0009117953504702679</v>
       </c>
       <c r="H213" t="n">
         <v>85.5445801402673</v>
       </c>
       <c r="I213" t="n">
-        <v>1.230876387216187</v>
+        <v>1.220154456925108</v>
       </c>
       <c r="J213" t="n">
-        <v>0.1917993766047775</v>
+        <v>0.1903072940899234</v>
       </c>
       <c r="K213" t="n">
-        <v>850.8522997715653</v>
+        <v>850.7790117598363</v>
       </c>
       <c r="L213" t="n">
-        <v>28.35279472862215</v>
+        <v>28.48083221115968</v>
       </c>
     </row>
     <row r="214">
@@ -8980,13 +8980,13 @@
         <v>2120</v>
       </c>
       <c r="B214" t="n">
-        <v>42.30812531658636</v>
+        <v>42.51854412075896</v>
       </c>
       <c r="C214" t="n">
         <v>68.47667994640881</v>
       </c>
       <c r="D214" t="n">
-        <v>0.7664206631984257</v>
+        <v>0.7677668401651376</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -8994,25 +8994,25 @@
         </is>
       </c>
       <c r="F214" t="n">
-        <v>0.1715263857629684</v>
+        <v>0.1715565101739936</v>
       </c>
       <c r="G214" t="n">
-        <v>0.0009619510745405175</v>
+        <v>0.0009570954614718396</v>
       </c>
       <c r="H214" t="n">
         <v>85.52597184605766</v>
       </c>
       <c r="I214" t="n">
-        <v>1.350971788469074</v>
+        <v>1.338298655620543</v>
       </c>
       <c r="J214" t="n">
-        <v>0.1927209990851584</v>
+        <v>0.1910294382626573</v>
       </c>
       <c r="K214" t="n">
-        <v>851.6755090399018</v>
+        <v>851.5969127537387</v>
       </c>
       <c r="L214" t="n">
-        <v>26.99585360935676</v>
+        <v>27.13281112808131</v>
       </c>
     </row>
     <row r="215">
@@ -9020,13 +9020,13 @@
         <v>2130</v>
       </c>
       <c r="B215" t="n">
-        <v>40.37008794747489</v>
+        <v>40.59977520452406</v>
       </c>
       <c r="C215" t="n">
         <v>68.4201927145923</v>
       </c>
       <c r="D215" t="n">
-        <v>0.7526733747990135</v>
+        <v>0.754219292156292</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -9034,25 +9034,25 @@
         </is>
       </c>
       <c r="F215" t="n">
-        <v>0.1712207886125873</v>
+        <v>0.1712531693235201</v>
       </c>
       <c r="G215" t="n">
-        <v>0.001012440522237616</v>
+        <v>0.001006670964519083</v>
       </c>
       <c r="H215" t="n">
         <v>85.50737830738315</v>
       </c>
       <c r="I215" t="n">
-        <v>1.482961071247598</v>
+        <v>1.46787120288722</v>
       </c>
       <c r="J215" t="n">
-        <v>0.1938037369111467</v>
+        <v>0.1918768916234899</v>
       </c>
       <c r="K215" t="n">
-        <v>852.494335455676</v>
+        <v>852.40978709769</v>
       </c>
       <c r="L215" t="n">
-        <v>25.64959601801131</v>
+        <v>25.79660216987112</v>
       </c>
     </row>
     <row r="216">
@@ -9060,13 +9060,13 @@
         <v>2140</v>
       </c>
       <c r="B216" t="n">
-        <v>38.41931476528197</v>
+        <v>38.67107180665471</v>
       </c>
       <c r="C216" t="n">
         <v>68.36373823747647</v>
       </c>
       <c r="D216" t="n">
-        <v>0.7380555256784984</v>
+        <v>0.7398400063324621</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -9074,25 +9074,25 @@
         </is>
       </c>
       <c r="F216" t="n">
-        <v>0.1709170123531011</v>
+        <v>0.1709519348103231</v>
       </c>
       <c r="G216" t="n">
-        <v>0.001068098705933298</v>
+        <v>0.001061185998749507</v>
       </c>
       <c r="H216" t="n">
         <v>85.48879950783476</v>
       </c>
       <c r="I216" t="n">
-        <v>1.628739689177628</v>
+        <v>1.610626751170808</v>
       </c>
       <c r="J216" t="n">
-        <v>0.1950773182192923</v>
+        <v>0.1928703397869362</v>
       </c>
       <c r="K216" t="n">
-        <v>853.309021353374</v>
+        <v>853.2177717031569</v>
       </c>
       <c r="L216" t="n">
-        <v>24.31300613267568</v>
+        <v>24.47138429856835</v>
       </c>
     </row>
     <row r="217">
@@ -9100,13 +9100,13 @@
         <v>2150</v>
       </c>
       <c r="B217" t="n">
-        <v>36.45351635274411</v>
+        <v>36.73071408036242</v>
       </c>
       <c r="C217" t="n">
         <v>68.30731648874939</v>
       </c>
       <c r="D217" t="n">
-        <v>0.7224742192710873</v>
+        <v>0.7245456976596182</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -9114,25 +9114,25 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>0.1706149185094839</v>
+        <v>0.1706527180882224</v>
       </c>
       <c r="G217" t="n">
-        <v>0.001129814935003021</v>
+        <v>0.001121456193549956</v>
       </c>
       <c r="H217" t="n">
         <v>85.47023543102817</v>
       </c>
       <c r="I217" t="n">
-        <v>1.79065393230769</v>
+        <v>1.768717217300291</v>
       </c>
       <c r="J217" t="n">
-        <v>0.1965798412537859</v>
+        <v>0.1940357726292287</v>
       </c>
       <c r="K217" t="n">
-        <v>854.1198707431613</v>
+        <v>854.0210398758348</v>
       </c>
       <c r="L217" t="n">
-        <v>22.98490627368968</v>
+        <v>23.15622361088904</v>
       </c>
     </row>
     <row r="218">
@@ -9140,13 +9140,13 @@
         <v>2160</v>
       </c>
       <c r="B218" t="n">
-        <v>34.46990872941729</v>
+        <v>34.77665284213866</v>
       </c>
       <c r="C218" t="n">
         <v>68.25092744212975</v>
       </c>
       <c r="D218" t="n">
-        <v>0.7058197667240405</v>
+        <v>0.708239342264654</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -9154,25 +9154,25 @@
         </is>
       </c>
       <c r="F218" t="n">
-        <v>0.1703143378790298</v>
+        <v>0.1703554127284327</v>
       </c>
       <c r="G218" t="n">
-        <v>0.001198707280878843</v>
+        <v>0.001188495908305403</v>
       </c>
       <c r="H218" t="n">
         <v>85.45168606060373</v>
       </c>
       <c r="I218" t="n">
-        <v>1.971649838835885</v>
+        <v>1.944815292463687</v>
       </c>
       <c r="J218" t="n">
-        <v>0.1983607623326822</v>
+        <v>0.1954061238223762</v>
       </c>
       <c r="K218" t="n">
-        <v>854.927268172691</v>
+        <v>854.8198119053689</v>
       </c>
       <c r="L218" t="n">
-        <v>21.66391311865569</v>
+        <v>21.85004610128297</v>
       </c>
     </row>
   </sheetData>

--- a/Relatorio_Grupo2.xlsx
+++ b/Relatorio_Grupo2.xlsx
@@ -540,7 +540,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>378.4063851317591</v>
+        <v>378.4063184050576</v>
       </c>
       <c r="C3" t="n">
         <v>79.95362428004501</v>
@@ -566,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1593614868240889</v>
+        <v>0.1593681594942386</v>
       </c>
       <c r="K3" t="n">
         <v>833.2321214565477</v>
@@ -580,13 +580,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="n">
-        <v>376.812791394286</v>
+        <v>376.8126575258952</v>
       </c>
       <c r="C4" t="n">
         <v>79.90712444580225</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9871290000408096</v>
+        <v>0.9871289989241379</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -594,10 +594,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.178664300518292</v>
+        <v>0.1786643002743423</v>
       </c>
       <c r="G4" t="n">
-        <v>9.359203694385567e-05</v>
+        <v>9.359204536013092e-05</v>
       </c>
       <c r="H4" t="n">
         <v>89.37114858536958</v>
@@ -606,13 +606,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1593593737473073</v>
+        <v>0.1593660879162459</v>
       </c>
       <c r="K4" t="n">
-        <v>833.2937663643058</v>
+        <v>833.2937675020916</v>
       </c>
       <c r="L4" t="n">
-        <v>277.4668789743024</v>
+        <v>277.466854023062</v>
       </c>
     </row>
     <row r="5">
@@ -620,13 +620,13 @@
         <v>30</v>
       </c>
       <c r="B5" t="n">
-        <v>375.2192187389674</v>
+        <v>375.2190173089907</v>
       </c>
       <c r="C5" t="n">
         <v>79.86050016096004</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9871036896942716</v>
+        <v>0.9871036874303728</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -634,10 +634,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.1786511588347626</v>
+        <v>0.1786511583534506</v>
       </c>
       <c r="G5" t="n">
-        <v>9.378024247374479e-05</v>
+        <v>9.378025953411737e-05</v>
       </c>
       <c r="H5" t="n">
         <v>89.35512517011024</v>
@@ -646,13 +646,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.159357265531859</v>
+        <v>0.1593640216904517</v>
       </c>
       <c r="K5" t="n">
-        <v>833.3550639401847</v>
+        <v>833.3550661853635</v>
       </c>
       <c r="L5" t="n">
-        <v>276.9100367268678</v>
+        <v>276.9099863517845</v>
       </c>
     </row>
     <row r="6">
@@ -660,13 +660,13 @@
         <v>40</v>
       </c>
       <c r="B6" t="n">
-        <v>373.6256671091488</v>
+        <v>373.6253976926894</v>
       </c>
       <c r="C6" t="n">
         <v>79.81375108782169</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9870781108644279</v>
+        <v>0.9870781074217554</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.178638094728901</v>
+        <v>0.1786380940170308</v>
       </c>
       <c r="G6" t="n">
-        <v>9.397043051949203e-05</v>
+        <v>9.397045645919573e-05</v>
       </c>
       <c r="H6" t="n">
         <v>89.33906169751747</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1593551629818615</v>
+        <v>0.1593619616301217</v>
       </c>
       <c r="K6" t="n">
-        <v>833.4160086048274</v>
+        <v>833.416011925978</v>
       </c>
       <c r="L6" t="n">
-        <v>276.3495946980112</v>
+        <v>276.3495184141782</v>
       </c>
     </row>
     <row r="7">
@@ -700,13 +700,13 @@
         <v>50</v>
       </c>
       <c r="B7" t="n">
-        <v>372.0321364399665</v>
+        <v>372.0317986070339</v>
       </c>
       <c r="C7" t="n">
         <v>79.76687688729766</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9870522583095822</v>
+        <v>0.987052253655561</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -714,10 +714,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.1786251093643971</v>
+        <v>0.1786251084289933</v>
       </c>
       <c r="G7" t="n">
-        <v>9.416264021708723e-05</v>
+        <v>9.41626752790501e-05</v>
       </c>
       <c r="H7" t="n">
         <v>89.32295807328909</v>
@@ -726,13 +726,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1593530669182376</v>
+        <v>0.1593599085655599</v>
       </c>
       <c r="K7" t="n">
-        <v>833.4765947715404</v>
+        <v>833.4765991361967</v>
       </c>
       <c r="L7" t="n">
-        <v>275.7854954766534</v>
+        <v>275.7853927864869</v>
       </c>
     </row>
     <row r="8">
@@ -740,13 +740,13 @@
         <v>60</v>
       </c>
       <c r="B8" t="n">
-        <v>370.4386266581747</v>
+        <v>370.438219973588</v>
       </c>
       <c r="C8" t="n">
         <v>79.71987721889798</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9870261266491636</v>
+        <v>0.9870261207501499</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -754,10 +754,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.178612203905975</v>
+        <v>0.1786122027542853</v>
       </c>
       <c r="G8" t="n">
-        <v>9.435691174011086e-05</v>
+        <v>9.435695617524935e-05</v>
       </c>
       <c r="H8" t="n">
         <v>89.30681420277713</v>
@@ -766,13 +766,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1593509781791785</v>
+        <v>0.1593578633445791</v>
       </c>
       <c r="K8" t="n">
-        <v>833.536816846541</v>
+        <v>833.5368222211782</v>
       </c>
       <c r="L8" t="n">
-        <v>275.2176804936698</v>
+        <v>275.2175508865244</v>
       </c>
     </row>
     <row r="9">
@@ -780,13 +780,13 @@
         <v>70</v>
       </c>
       <c r="B9" t="n">
-        <v>368.8451376819685</v>
+        <v>368.8446617052582</v>
       </c>
       <c r="C9" t="n">
         <v>79.67275174072438</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9869997103598768</v>
+        <v>0.9869997031811186</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -794,10 +794,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.1785993795193492</v>
+        <v>0.1785993781588483</v>
       </c>
       <c r="G9" t="n">
-        <v>9.455328632866287e-05</v>
+        <v>9.455334039618727e-05</v>
       </c>
       <c r="H9" t="n">
         <v>89.29062999098605</v>
@@ -806,13 +806,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1593488976206204</v>
+        <v>0.1593558268329843</v>
       </c>
       <c r="K9" t="n">
-        <v>833.5966692292021</v>
+        <v>833.596675579219</v>
       </c>
       <c r="L9" t="n">
-        <v>274.6460900089</v>
+        <v>274.6459329606761</v>
       </c>
     </row>
     <row r="10">
@@ -820,13 +820,13 @@
         <v>80</v>
       </c>
       <c r="B10" t="n">
-        <v>367.2516694208011</v>
+        <v>367.2511237061075</v>
       </c>
       <c r="C10" t="n">
         <v>79.62550010946256</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9869730037717528</v>
+        <v>0.9869729952773462</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.1785866373711823</v>
+        <v>0.1785866358095748</v>
       </c>
       <c r="G10" t="n">
-        <v>9.475180631906851e-05</v>
+        <v>9.475187028680093e-05</v>
       </c>
       <c r="H10" t="n">
         <v>89.27440534257092</v>
@@ -846,13 +846,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.159346826116733</v>
+        <v>0.1593537999150701</v>
       </c>
       <c r="K10" t="n">
-        <v>833.656146312298</v>
+        <v>833.6561536020022</v>
       </c>
       <c r="L10" t="n">
-        <v>274.0706630986213</v>
+        <v>274.0704780713623</v>
       </c>
     </row>
     <row r="11">
@@ -860,13 +860,13 @@
         <v>90</v>
       </c>
       <c r="B11" t="n">
-        <v>365.6582217751969</v>
+        <v>365.6576058711662</v>
       </c>
       <c r="C11" t="n">
         <v>79.57812198037431</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9869460010640931</v>
+        <v>0.9869459912169386</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -874,10 +874,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.1785739786290424</v>
+        <v>0.1785739768742664</v>
       </c>
       <c r="G11" t="n">
-        <v>9.495251517438345e-05</v>
+        <v>9.495258931908836e-05</v>
       </c>
       <c r="H11" t="n">
         <v>89.2581401618356</v>
@@ -886,13 +886,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.159344764560423</v>
+        <v>0.1593517834941303</v>
       </c>
       <c r="K11" t="n">
-        <v>833.7152424822474</v>
+        <v>833.7152506748378</v>
       </c>
       <c r="L11" t="n">
-        <v>273.4913376435251</v>
+        <v>273.4911240850043</v>
       </c>
     </row>
     <row r="12">
@@ -900,13 +900,13 @@
         <v>100</v>
       </c>
       <c r="B12" t="n">
-        <v>364.0647946365584</v>
+        <v>364.0641080862363</v>
       </c>
       <c r="C12" t="n">
         <v>79.53061700728949</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9869186962613066</v>
+        <v>0.9869186850230629</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -914,10 +914,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.178561404461361</v>
+        <v>0.1785614025215917</v>
       </c>
       <c r="G12" t="n">
-        <v>9.51554575157182e-05</v>
+        <v>9.515554212344599e-05</v>
       </c>
       <c r="H12" t="n">
         <v>89.241834352731</v>
@@ -926,13 +926,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1593427138638498</v>
+        <v>0.1593497784929835</v>
       </c>
       <c r="K12" t="n">
-        <v>833.7739521193558</v>
+        <v>833.7739611769071</v>
       </c>
       <c r="L12" t="n">
-        <v>272.9080503172361</v>
+        <v>272.9078076605341</v>
       </c>
     </row>
     <row r="13">
@@ -940,13 +940,13 @@
         <v>110</v>
       </c>
       <c r="B13" t="n">
-        <v>362.4713878869688</v>
+        <v>362.4706302276912</v>
       </c>
       <c r="C13" t="n">
         <v>79.48298484259817</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9868910832286365</v>
+        <v>0.9868910705596736</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -954,10 +954,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.1785489160373918</v>
+        <v>0.178548913921045</v>
       </c>
       <c r="G13" t="n">
-        <v>9.536067915440469e-05</v>
+        <v>9.536077452084917e-05</v>
       </c>
       <c r="H13" t="n">
         <v>89.22548781885327</v>
@@ -966,13 +966,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1593406749589562</v>
+        <v>0.1593477858545116</v>
       </c>
       <c r="K13" t="n">
-        <v>833.8322695980588</v>
+        <v>833.8322794815034</v>
       </c>
       <c r="L13" t="n">
-        <v>272.3207365754143</v>
+        <v>272.3204642384861</v>
       </c>
     </row>
     <row r="14">
@@ -980,13 +980,13 @@
         <v>120</v>
       </c>
       <c r="B14" t="n">
-        <v>360.8780013989887</v>
+        <v>360.8771721622691</v>
       </c>
       <c r="C14" t="n">
         <v>79.43522513724241</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9868631556677742</v>
+        <v>0.9868631415271233</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -994,10 +994,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.1785365145271697</v>
+        <v>0.1785365122429052</v>
       </c>
       <c r="G14" t="n">
-        <v>9.556822712502737e-05</v>
+        <v>9.556833355589741e-05</v>
       </c>
       <c r="H14" t="n">
         <v>89.20910046344174</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1593386487980145</v>
+        <v>0.1593458065422142</v>
       </c>
       <c r="K14" t="n">
-        <v>833.8901892871621</v>
+        <v>833.8901999562727</v>
       </c>
       <c r="L14" t="n">
-        <v>271.7293306454837</v>
+        <v>271.7290280307158</v>
       </c>
     </row>
     <row r="15">
@@ -1020,13 +1020,13 @@
         <v>130</v>
       </c>
       <c r="B15" t="n">
-        <v>359.2846350354469</v>
+        <v>359.2837337468613</v>
       </c>
       <c r="C15" t="n">
         <v>79.3873375407083</v>
       </c>
       <c r="D15" t="n">
-        <v>0.986834907112357</v>
+        <v>0.9868348914576583</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1034,10 +1034,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.1785242011014694</v>
+        <v>0.1785241986581948</v>
       </c>
       <c r="G15" t="n">
-        <v>9.577814971934213e-05</v>
+        <v>9.577826753074824e-05</v>
       </c>
       <c r="H15" t="n">
         <v>89.19267218937732</v>
@@ -1046,13 +1046,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1593366363541854</v>
+        <v>0.1593438415407777</v>
       </c>
       <c r="K15" t="n">
-        <v>833.9477055500812</v>
+        <v>833.9477169634542</v>
       </c>
       <c r="L15" t="n">
-        <v>271.1337655170315</v>
+        <v>271.1334320107886</v>
       </c>
     </row>
     <row r="16">
@@ -1060,13 +1060,13 @@
         <v>140</v>
       </c>
       <c r="B16" t="n">
-        <v>357.6912886492259</v>
+        <v>357.6903148282947</v>
       </c>
       <c r="C16" t="n">
         <v>79.33932170101781</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9868063309233449</v>
+        <v>0.9868063137107953</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1074,10 +1074,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.1785119769317662</v>
+        <v>0.1785119743386407</v>
       </c>
       <c r="G16" t="n">
-        <v>9.599049652110778e-05</v>
+        <v>9.599062603996398e-05</v>
       </c>
       <c r="H16" t="n">
         <v>89.17620289918058</v>
@@ -1086,13 +1086,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1593346386220949</v>
+        <v>0.1593418918566608</v>
       </c>
       <c r="K16" t="n">
-        <v>834.0048127450801</v>
+        <v>834.0048248601166</v>
       </c>
       <c r="L16" t="n">
-        <v>270.5339729329232</v>
+        <v>270.5336079050849</v>
       </c>
     </row>
     <row r="17">
@@ -1100,13 +1100,13 @@
         <v>150</v>
       </c>
       <c r="B17" t="n">
-        <v>356.0979620830416</v>
+        <v>356.0969152431077</v>
       </c>
       <c r="C17" t="n">
         <v>79.29117726472037</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9867774202842781</v>
+        <v>0.986777401468574</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1114,10 +1114,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.1784998431901952</v>
+        <v>0.1784998404566336</v>
       </c>
       <c r="G17" t="n">
-        <v>9.620531844185407e-05</v>
+        <v>9.620546000629589e-05</v>
       </c>
       <c r="H17" t="n">
         <v>89.15969249500982</v>
@@ -1126,13 +1126,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1593326566184254</v>
+        <v>0.1593399585186954</v>
       </c>
       <c r="K17" t="n">
-        <v>834.0615052255096</v>
+        <v>834.0615179983978</v>
       </c>
       <c r="L17" t="n">
-        <v>269.929883381183</v>
+        <v>269.9294861846698</v>
       </c>
     </row>
     <row r="18">
@@ -1140,13 +1140,13 @@
         <v>160</v>
       </c>
       <c r="B18" t="n">
-        <v>354.5046551692164</v>
+        <v>354.5035348173207</v>
       </c>
       <c r="C18" t="n">
         <v>79.24290387688501</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9867481681964053</v>
+        <v>0.9867481477306855</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.1784878010495131</v>
+        <v>0.1784877981851894</v>
       </c>
       <c r="G18" t="n">
-        <v>9.642266775761242e-05</v>
+        <v>9.642282171743163e-05</v>
       </c>
       <c r="H18" t="n">
         <v>89.14314087865918</v>
@@ -1166,13 +1166,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1593306913825236</v>
+        <v>0.159338042578705</v>
       </c>
       <c r="K18" t="n">
-        <v>834.1177773400434</v>
+        <v>834.1177907257388</v>
       </c>
       <c r="L18" t="n">
-        <v>269.3214260876852</v>
+        <v>269.3209960579752</v>
       </c>
     </row>
     <row r="19">
@@ -1180,13 +1180,13 @@
         <v>170</v>
       </c>
       <c r="B19" t="n">
-        <v>352.9113677294461</v>
+        <v>352.9101733661992</v>
       </c>
       <c r="C19" t="n">
         <v>79.1945011810916</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9867185674736855</v>
+        <v>0.9867185453094707</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1194,10 +1194,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.1784758516830583</v>
+        <v>0.1784758486979098</v>
       </c>
       <c r="G19" t="n">
-        <v>9.664259814663594e-05</v>
+        <v>9.664276486373263e-05</v>
       </c>
       <c r="H19" t="n">
         <v>89.1265479515569</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1593287439770257</v>
+        <v>0.1593361451121396</v>
       </c>
       <c r="K19" t="n">
-        <v>834.173623432912</v>
+        <v>834.1736373851198</v>
       </c>
       <c r="L19" t="n">
-        <v>268.7085290097118</v>
+        <v>268.7080654643458</v>
       </c>
     </row>
     <row r="20">
@@ -1220,13 +1220,13 @@
         <v>180</v>
       </c>
       <c r="B20" t="n">
-        <v>351.3180995745611</v>
+        <v>351.3168306940119</v>
       </c>
       <c r="C20" t="n">
         <v>79.14596881942265</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9866886107376555</v>
+        <v>0.9866885868247854</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1234,10 +1234,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.1784639962647133</v>
+        <v>0.1784639931689447</v>
       </c>
       <c r="G20" t="n">
-        <v>9.686516472813569e-05</v>
+        <v>9.686534457698847e-05</v>
       </c>
       <c r="H20" t="n">
         <v>89.10991361476307</v>
@@ -1246,13 +1246,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1593268154884987</v>
+        <v>0.1593342672187288</v>
       </c>
       <c r="K20" t="n">
-        <v>834.2290378441387</v>
+        <v>834.2290523152933</v>
       </c>
       <c r="L20" t="n">
-        <v>268.0911188304243</v>
+        <v>268.0906210685015</v>
       </c>
     </row>
     <row r="21">
@@ -1260,13 +1260,13 @@
         <v>190</v>
       </c>
       <c r="B21" t="n">
-        <v>349.72485050428</v>
+        <v>349.7235065937804</v>
       </c>
       <c r="C21" t="n">
         <v>79.09730643245501</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9866582904121636</v>
+        <v>0.986658264698732</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1274,10 +1274,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.1784522359688663</v>
+        <v>0.1784522327729539</v>
       </c>
       <c r="G21" t="n">
-        <v>9.709042410206107e-05</v>
+        <v>9.709061747021611e-05</v>
       </c>
       <c r="H21" t="n">
         <v>89.09323776896817</v>
@@ -1286,13 +1286,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1593249070281007</v>
+        <v>0.1593324100231524</v>
       </c>
       <c r="K21" t="n">
-        <v>834.2840149097711</v>
+        <v>834.2840298510168</v>
       </c>
       <c r="L21" t="n">
-        <v>267.4691209543082</v>
+        <v>267.4685882559713</v>
       </c>
     </row>
     <row r="22">
@@ -1300,13 +1300,13 @@
         <v>200</v>
       </c>
       <c r="B22" t="n">
-        <v>348.1316203069575</v>
+        <v>348.1302008470231</v>
       </c>
       <c r="C22" t="n">
         <v>79.048513659251</v>
       </c>
       <c r="D22" t="n">
-        <v>0.98662759871796</v>
+        <v>0.9866275711502469</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1314,10 +1314,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.1784405719703744</v>
+        <v>0.1784405686850701</v>
       </c>
       <c r="G22" t="n">
-        <v>9.73184343899548e-05</v>
+        <v>9.731864167853429e-05</v>
       </c>
       <c r="H22" t="n">
         <v>89.07652031449058</v>
@@ -1326,13 +1326,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1593230197322594</v>
+        <v>0.1593305746757308</v>
       </c>
       <c r="K22" t="n">
-        <v>834.3385489621132</v>
+        <v>834.3385643232835</v>
       </c>
       <c r="L22" t="n">
-        <v>266.8424595036408</v>
+        <v>266.8418911295511</v>
       </c>
     </row>
     <row r="23">
@@ -1340,13 +1340,13 @@
         <v>210</v>
       </c>
       <c r="B23" t="n">
-        <v>346.5384087593238</v>
+        <v>346.5369132234918</v>
       </c>
       <c r="C23" t="n">
         <v>78.99959013735008</v>
       </c>
       <c r="D23" t="n">
-        <v>0.986596527667147</v>
+        <v>0.9865964981895479</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.1784290054445258</v>
+        <v>0.178429002080862</v>
       </c>
       <c r="G23" t="n">
-        <v>9.754925527691007e-05</v>
+        <v>9.754947690114146e-05</v>
       </c>
       <c r="H23" t="n">
         <v>89.05976115127521</v>
@@ -1366,13 +1366,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1593211547633681</v>
+        <v>0.1593287623531333</v>
       </c>
       <c r="K23" t="n">
-        <v>834.3926343299544</v>
+        <v>834.3926500595517</v>
       </c>
       <c r="L23" t="n">
-        <v>266.2110573160473</v>
+        <v>266.2104525068486</v>
       </c>
     </row>
     <row r="24">
@@ -1380,13 +1380,13 @@
         <v>220</v>
       </c>
       <c r="B24" t="n">
-        <v>344.9452156262188</v>
+        <v>344.9436434809007</v>
       </c>
       <c r="C24" t="n">
         <v>78.95053550276026</v>
       </c>
       <c r="D24" t="n">
-        <v>0.98656506905748</v>
+        <v>0.9865650376124329</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1394,10 +1394,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.1784175375670045</v>
+        <v>0.1784175341362977</v>
       </c>
       <c r="G24" t="n">
-        <v>9.778294805466377e-05</v>
+        <v>9.778318444442975e-05</v>
       </c>
       <c r="H24" t="n">
         <v>89.04296017889112</v>
@@ -1406,13 +1406,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1593193133105031</v>
+        <v>0.1593269742591073</v>
       </c>
       <c r="K24" t="n">
-        <v>834.4462653387988</v>
+        <v>834.4462813839732</v>
       </c>
       <c r="L24" t="n">
-        <v>265.5748359431946</v>
+        <v>265.5741939189684</v>
       </c>
     </row>
     <row r="25">
@@ -1420,13 +1420,13 @@
         <v>230</v>
       </c>
       <c r="B25" t="n">
-        <v>343.3520406603172</v>
+        <v>343.3503913646485</v>
       </c>
       <c r="C25" t="n">
         <v>78.9013493899493</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9865332144665169</v>
+        <v>0.9865331809944257</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1434,10 +1434,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.1784061695138533</v>
+        <v>0.1784061660277094</v>
       </c>
       <c r="G25" t="n">
-        <v>9.801957566585507e-05</v>
+        <v>9.801982726626612e-05</v>
       </c>
       <c r="H25" t="n">
         <v>89.02611729652962</v>
@@ -1446,13 +1446,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1593174965901595</v>
+        <v>0.1593252116252272</v>
       </c>
       <c r="K25" t="n">
-        <v>834.4994363110918</v>
+        <v>834.4994526176197</v>
       </c>
       <c r="L25" t="n">
-        <v>264.933715650693</v>
+        <v>264.9330356104031</v>
       </c>
     </row>
     <row r="26">
@@ -1460,13 +1460,13 @@
         <v>240</v>
       </c>
       <c r="B26" t="n">
-        <v>341.7588836018471</v>
+        <v>341.7571566075318</v>
       </c>
       <c r="C26" t="n">
         <v>78.852031431836</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9865009552456122</v>
+        <v>0.9865009196847678</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1474,10 +1474,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.1783949024614395</v>
+        <v>0.1783948989317579</v>
       </c>
       <c r="G26" t="n">
-        <v>9.82592027494845e-05</v>
+        <v>9.825947002147397e-05</v>
       </c>
       <c r="H26" t="n">
         <v>89.00923240300247</v>
@@ -1486,13 +1486,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1593157058470082</v>
+        <v>0.1593234757116652</v>
       </c>
       <c r="K26" t="n">
-        <v>834.5521415664467</v>
+        <v>834.552158078709</v>
       </c>
       <c r="L26" t="n">
-        <v>264.2876154192639</v>
+        <v>264.2868965401905</v>
       </c>
     </row>
     <row r="27">
@@ -1500,13 +1500,13 @@
         <v>250</v>
       </c>
       <c r="B27" t="n">
-        <v>340.1657441783004</v>
+        <v>340.163938929452</v>
       </c>
       <c r="C27" t="n">
         <v>78.80258125978128</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9864682825137515</v>
+        <v>0.986468244800249</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1514,10 +1514,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.1783837375864191</v>
+        <v>0.1783837340253977</v>
       </c>
       <c r="G27" t="n">
-        <v>9.850189568760644e-05</v>
+        <v>9.850217910855018e-05</v>
       </c>
       <c r="H27" t="n">
         <v>88.99230539673962</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.159313942354674</v>
+        <v>0.1593217678079828</v>
       </c>
       <c r="K27" t="n">
-        <v>834.6043754218681</v>
+        <v>834.6043920828267</v>
       </c>
       <c r="L27" t="n">
-        <v>263.6364529472364</v>
+        <v>263.6356943844008</v>
       </c>
     </row>
     <row r="28">
@@ -1540,13 +1540,13 @@
         <v>260</v>
       </c>
       <c r="B28" t="n">
-        <v>338.572622104135</v>
+        <v>338.5707380371126</v>
       </c>
       <c r="C28" t="n">
         <v>78.75299850357953</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9864351871512207</v>
+        <v>0.9864351472188736</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1554,10 +1554,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.1783726760657031</v>
+        <v>0.1783726724858432</v>
       </c>
       <c r="G28" t="n">
-        <v>9.874772265329089e-05</v>
+        <v>9.874802271765126e-05</v>
       </c>
       <c r="H28" t="n">
         <v>88.97533617578743</v>
@@ -1566,13 +1566,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.159312207416536</v>
+        <v>0.159320089233945</v>
       </c>
       <c r="K28" t="n">
-        <v>834.6561321919739</v>
+        <v>834.6561489431504</v>
       </c>
       <c r="L28" t="n">
-        <v>262.9801446544428</v>
+        <v>262.9793455400229</v>
       </c>
     </row>
     <row r="29">
@@ -1580,13 +1580,13 @@
         <v>270</v>
       </c>
       <c r="B29" t="n">
-        <v>336.9795170804695</v>
+        <v>336.977553623709</v>
       </c>
       <c r="C29" t="n">
         <v>78.70328279144945</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9864016597931058</v>
+        <v>0.9864016175733575</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1594,10 +1594,10 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.178361719076424</v>
+        <v>0.1783617154905348</v>
       </c>
       <c r="G29" t="n">
-        <v>9.899675365989105e-05</v>
+        <v>9.899707087988722e-05</v>
       </c>
       <c r="H29" t="n">
         <v>88.95832463780641</v>
@@ -1606,13 +1606,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.1593105023665493</v>
+        <v>0.1593184413403578</v>
       </c>
       <c r="K29" t="n">
-        <v>834.7074061892171</v>
+        <v>834.7074229706676</v>
       </c>
       <c r="L29" t="n">
-        <v>262.3186056875779</v>
+        <v>262.3177651303134</v>
       </c>
     </row>
     <row r="30">
@@ -1620,13 +1620,13 @@
         <v>280</v>
       </c>
       <c r="B30" t="n">
-        <v>335.3864287947686</v>
+        <v>335.3843853686097</v>
       </c>
       <c r="C30" t="n">
         <v>78.6534337500251</v>
       </c>
       <c r="D30" t="n">
-        <v>0.986367690822621</v>
+        <v>0.9863676462444514</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1634,10 +1634,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.1783508677959017</v>
+        <v>0.1783508642171058</v>
       </c>
       <c r="G30" t="n">
-        <v>9.924906061165395e-05</v>
+        <v>9.924939551795934e-05</v>
       </c>
       <c r="H30" t="n">
         <v>88.94127068006935</v>
@@ -1646,13 +1646,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.1593088285700911</v>
+        <v>0.1593168255099288</v>
       </c>
       <c r="K30" t="n">
-        <v>834.7581917241044</v>
+        <v>834.7582084743972</v>
       </c>
       <c r="L30" t="n">
-        <v>261.6517499270916</v>
+        <v>261.6508670116803</v>
       </c>
     </row>
     <row r="31">
@@ -1660,13 +1660,13 @@
         <v>290</v>
       </c>
       <c r="B31" t="n">
-        <v>333.7933569205203</v>
+        <v>333.7912329370282</v>
       </c>
       <c r="C31" t="n">
         <v>78.60345100434688</v>
       </c>
       <c r="D31" t="n">
-        <v>0.986333270364256</v>
+        <v>0.9863332233540847</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1674,10 +1674,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.1783401234016116</v>
+        <v>0.1783401198433501</v>
       </c>
       <c r="G31" t="n">
-        <v>9.950471735571425e-05</v>
+        <v>9.950507049818192e-05</v>
       </c>
       <c r="H31" t="n">
         <v>88.92417419945922</v>
@@ -1686,13 +1686,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.1593071874248299</v>
+        <v>0.1593152431581532</v>
       </c>
       <c r="K31" t="n">
-        <v>834.808483105414</v>
+        <v>834.8084997616037</v>
       </c>
       <c r="L31" t="n">
-        <v>260.9794899956865</v>
+        <v>260.9785637821715</v>
       </c>
     </row>
     <row r="32">
@@ -1700,13 +1700,13 @@
         <v>300</v>
       </c>
       <c r="B32" t="n">
-        <v>332.2003011169041</v>
+        <v>332.198095979686</v>
       </c>
       <c r="C32" t="n">
         <v>78.55333417785249</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9862983882767398</v>
+        <v>0.9862983387583266</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1714,10 +1714,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.1783294870711524</v>
+        <v>0.1783294835471902</v>
       </c>
       <c r="G32" t="n">
-        <v>9.976379973551047e-05</v>
+        <v>9.976417168392806e-05</v>
       </c>
       <c r="H32" t="n">
         <v>88.90703509246701</v>
@@ -1726,13 +1726,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.1593055803616197</v>
+        <v>0.1593136957342237</v>
       </c>
       <c r="K32" t="n">
-        <v>834.8582746404106</v>
+        <v>834.8582911380136</v>
       </c>
       <c r="L32" t="n">
-        <v>260.3017372684915</v>
+        <v>260.3007667916395</v>
       </c>
     </row>
     <row r="33">
@@ -1740,13 +1740,13 @@
         <v>310</v>
       </c>
       <c r="B33" t="n">
-        <v>330.6072610284499</v>
+        <v>330.6049741324663</v>
       </c>
       <c r="C33" t="n">
         <v>78.50308289236739</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9862630341458171</v>
+        <v>0.9862629820401566</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.1783189599822147</v>
+        <v>0.1783189565066457</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0001000263856456662</v>
+        <v>0.0001000267769905414</v>
       </c>
       <c r="H33" t="n">
         <v>88.88985325518981</v>
@@ -1766,13 +1766,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.1593040088454192</v>
+        <v>0.1593121847219671</v>
       </c>
       <c r="K33" t="n">
-        <v>834.9075606350596</v>
+        <v>834.9075769080285</v>
       </c>
       <c r="L33" t="n">
-        <v>259.618401884987</v>
+        <v>259.6173861536582</v>
       </c>
     </row>
     <row r="34">
@@ -1780,13 +1780,13 @@
         <v>320</v>
       </c>
       <c r="B34" t="n">
-        <v>329.0142362846875</v>
+        <v>329.0118670160583</v>
       </c>
       <c r="C34" t="n">
         <v>78.45269676809585</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9862271972768282</v>
+        <v>0.9862271425020421</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1794,10 +1794,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.17830854331255</v>
+        <v>0.178308539899803</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0001002925550883793</v>
+        <v>0.0001002929664417575</v>
       </c>
       <c r="H34" t="n">
         <v>88.87262858332846</v>
@@ -1806,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.1593024743762378</v>
+        <v>0.1593107116408082</v>
       </c>
       <c r="K34" t="n">
-        <v>834.9563353942389</v>
+        <v>834.9563513749358</v>
       </c>
       <c r="L34" t="n">
-        <v>258.9293927627554</v>
+        <v>258.928330759265</v>
       </c>
     </row>
     <row r="35">
@@ -1820,13 +1820,13 @@
         <v>330</v>
       </c>
       <c r="B35" t="n">
-        <v>327.4212264997864</v>
+        <v>327.4187742355906</v>
       </c>
       <c r="C35" t="n">
         <v>78.40217542361148</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9861908666870909</v>
+        <v>0.986190809158314</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1834,10 +1834,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.1782982382399404</v>
+        <v>0.1782982349047846</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0001005623902313646</v>
+        <v>0.0001005628222276792</v>
       </c>
       <c r="H35" t="n">
         <v>88.85536097218566</v>
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.1593009784901079</v>
+        <v>0.1593092780467602</v>
       </c>
       <c r="K35" t="n">
-        <v>835.0045932219494</v>
+        <v>835.0046088411195</v>
       </c>
       <c r="L35" t="n">
-        <v>258.2346176131343</v>
+        <v>258.2335082926059</v>
       </c>
     </row>
     <row r="36">
@@ -1860,13 +1860,13 @@
         <v>340</v>
       </c>
       <c r="B36" t="n">
-        <v>325.8282312721855</v>
+        <v>325.8256953802561</v>
       </c>
       <c r="C36" t="n">
         <v>78.35151847584791</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9861540310980749</v>
+        <v>0.9861539707273387</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1874,10 +1874,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.1782880459421694</v>
+        <v>0.1782880426997201</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0001008359754673954</v>
+        <v>0.0001008364287643533</v>
       </c>
       <c r="H36" t="n">
         <v>88.83805031666385</v>
@@ -1886,13 +1886,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.1592995227600849</v>
+        <v>0.1593078855334444</v>
       </c>
       <c r="K36" t="n">
-        <v>835.0523284215212</v>
+        <v>835.0523436082647</v>
       </c>
       <c r="L36" t="n">
-        <v>257.5339829588502</v>
+        <v>257.5328252485618</v>
       </c>
     </row>
     <row r="37">
@@ -1900,13 +1900,13 @@
         <v>350</v>
       </c>
       <c r="B37" t="n">
-        <v>324.2352501842127</v>
+        <v>324.2326300229248</v>
       </c>
       <c r="C37" t="n">
         <v>78.30072554008922</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9861166789273662</v>
+        <v>0.9861166156234752</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1914,10 +1914,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.1782779675969923</v>
+        <v>0.1782779644627175</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0001011133974754926</v>
+        <v>0.0001011138727549958</v>
       </c>
       <c r="H37" t="n">
         <v>88.82069651126287</v>
@@ -1926,13 +1926,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1592981087972771</v>
+        <v>0.159306535733139</v>
       </c>
       <c r="K37" t="n">
-        <v>835.0995352958211</v>
+        <v>835.0995499775651</v>
       </c>
       <c r="L37" t="n">
-        <v>256.8273941537116</v>
+        <v>256.8261869524346</v>
       </c>
     </row>
     <row r="38">
@@ -1940,13 +1940,13 @@
         <v>360</v>
       </c>
       <c r="B38" t="n">
-        <v>322.6422828016937</v>
+        <v>322.6395777197462</v>
       </c>
       <c r="C38" t="n">
         <v>78.24979622996045</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9860787982804116</v>
+        <v>0.9860787319488168</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1954,10 +1954,10 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.1782680043821084</v>
+        <v>0.1782680013718341</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0001013947452838119</v>
+        <v>0.0001013952432529166</v>
       </c>
       <c r="H38" t="n">
         <v>88.80329945007784</v>
@@ -1966,13 +1966,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1592967382519041</v>
+        <v>0.1593052303178587</v>
       </c>
       <c r="K38" t="n">
-        <v>835.1462081474547</v>
+        <v>835.1462222499248</v>
       </c>
       <c r="L38" t="n">
-        <v>256.1147554044426</v>
+        <v>256.1134975817741</v>
       </c>
     </row>
     <row r="39">
@@ -1980,13 +1980,13 @@
         <v>370</v>
       </c>
       <c r="B39" t="n">
-        <v>321.0493286735498</v>
+        <v>321.0465380097416</v>
       </c>
       <c r="C39" t="n">
         <v>78.19873015741803</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9860403769420408</v>
+        <v>0.9860403074847071</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1994,10 +1994,10 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.1782581574751331</v>
+        <v>0.1782581546050502</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0001016801103342794</v>
+        <v>0.0001016806317261943</v>
       </c>
       <c r="H39" t="n">
         <v>88.78585902679727</v>
@@ -2006,13 +2006,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.1592954128143858</v>
+        <v>0.1593039710004646</v>
       </c>
       <c r="K39" t="n">
-        <v>835.1923412789696</v>
+        <v>835.1923547261597</v>
       </c>
       <c r="L39" t="n">
-        <v>255.3959697947377</v>
+        <v>255.3946601904259</v>
       </c>
     </row>
     <row r="40">
@@ -2020,13 +2020,13 @@
         <v>380</v>
       </c>
       <c r="B40" t="n">
-        <v>319.4563873313851</v>
+        <v>319.4535104143835</v>
       </c>
       <c r="C40" t="n">
         <v>78.14752693273994</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9860014023677565</v>
+        <v>0.9860013296830247</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2034,10 +2034,10 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.1782484280535707</v>
+        <v>0.1782484253402412</v>
       </c>
       <c r="G40" t="n">
-        <v>0.000101969586549031</v>
+        <v>0.0001019701321241568</v>
       </c>
       <c r="H40" t="n">
         <v>88.76837513470048</v>
@@ -2046,13 +2046,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.1592941342164635</v>
+        <v>0.159302759535808</v>
       </c>
       <c r="K40" t="n">
-        <v>835.2379289930537</v>
+        <v>835.2379417071949</v>
       </c>
       <c r="L40" t="n">
-        <v>254.67093931162</v>
+        <v>254.6695767348843</v>
       </c>
     </row>
     <row r="41">
@@ -2060,13 +2060,13 @@
         <v>390</v>
       </c>
       <c r="B41" t="n">
-        <v>317.8634582890616</v>
+        <v>317.8604944371644</v>
       </c>
       <c r="C41" t="n">
         <v>78.09618616451627</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9859618616747861</v>
+        <v>0.9859617856572296</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2074,10 +2074,10 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.1782388172947883</v>
+        <v>0.1782388147551522</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0001022632703987086</v>
+        <v>0.0001022638409457205</v>
       </c>
       <c r="H41" t="n">
         <v>88.75084766665562</v>
@@ -2086,13 +2086,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.1592929042323538</v>
+        <v>0.1593015977219064</v>
       </c>
       <c r="K41" t="n">
-        <v>835.2829655927306</v>
+        <v>835.2829774942619</v>
       </c>
       <c r="L41" t="n">
-        <v>253.9395648741855</v>
+        <v>253.9381481030317</v>
       </c>
     </row>
     <row r="42">
@@ -2100,13 +2100,13 @@
         <v>400</v>
       </c>
       <c r="B42" t="n">
-        <v>316.2705410422623</v>
+        <v>316.2674895631529</v>
       </c>
       <c r="C42" t="n">
         <v>78.04470745963897</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9859217416328904</v>
+        <v>0.9859216621731652</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2114,10 +2114,10 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.1782293263759903</v>
+        <v>0.1782293240273719</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0001025612609726748</v>
+        <v>0.0001025618573096487</v>
       </c>
       <c r="H42" t="n">
         <v>88.73327651511734</v>
@@ -2126,13 +2126,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.1592917246799348</v>
+        <v>0.1593004874011545</v>
       </c>
       <c r="K42" t="n">
-        <v>835.3274453815569</v>
+        <v>835.3274563890913</v>
       </c>
       <c r="L42" t="n">
-        <v>253.2017463648193</v>
+        <v>253.2002741453492</v>
       </c>
     </row>
     <row r="43">
@@ -2140,13 +2140,13 @@
         <v>410</v>
       </c>
       <c r="B43" t="n">
-        <v>314.6776350680426</v>
+        <v>314.6744952585371</v>
       </c>
       <c r="C43" t="n">
         <v>77.99309042329224</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9858810286549172</v>
+        <v>0.9858809456396069</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2154,10 +2154,10 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.1782199564741929</v>
+        <v>0.1782199543343083</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0001028636600512012</v>
+        <v>0.0001028642830267876</v>
       </c>
       <c r="H43" t="n">
         <v>88.71566157212472</v>
@@ -2166,13 +2166,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.1592905974219691</v>
+        <v>0.1592994304615712</v>
       </c>
       <c r="K43" t="n">
-        <v>835.3713626638115</v>
+        <v>835.3713726941041</v>
       </c>
       <c r="L43" t="n">
-        <v>252.4573826629649</v>
+        <v>252.4558537086828</v>
       </c>
     </row>
     <row r="44">
@@ -2180,13 +2180,13 @@
         <v>420</v>
       </c>
       <c r="B44" t="n">
-        <v>313.084739824369</v>
+        <v>313.0815109701564</v>
       </c>
       <c r="C44" t="n">
         <v>77.94133465894282</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9858397087870974</v>
+        <v>0.9858396220985514</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2194,10 +2194,10 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.1782107087662006</v>
+        <v>0.1782107068531647</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0001031705721796968</v>
+        <v>0.0001031712226743425</v>
       </c>
       <c r="H44" t="n">
         <v>88.69800272929891</v>
@@ -2206,13 +2206,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.159289524367361</v>
+        <v>0.1592984288380824</v>
       </c>
       <c r="K44" t="n">
-        <v>835.4147117446862</v>
+        <v>835.4147207126005</v>
       </c>
       <c r="L44" t="n">
-        <v>251.7063716815335</v>
+        <v>251.7047846726484</v>
       </c>
     </row>
     <row r="45">
@@ -2220,13 +2220,13 @@
         <v>430</v>
       </c>
       <c r="B45" t="n">
-        <v>311.4918547496444</v>
+        <v>311.4885361250179</v>
       </c>
       <c r="C45" t="n">
         <v>77.88943976832934</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9857977676990713</v>
+        <v>0.9857976772152359</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2234,10 +2234,10 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.1782015844285823</v>
+        <v>0.178201582760916</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0001034821047450383</v>
+        <v>0.000103482783672259</v>
       </c>
       <c r="H45" t="n">
         <v>88.68029987784077</v>
@@ -2246,13 +2246,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.1592885074724516</v>
+        <v>0.1592974845138437</v>
       </c>
       <c r="K45" t="n">
-        <v>835.4574869304721</v>
+        <v>835.457494748945</v>
       </c>
       <c r="L45" t="n">
-        <v>250.9486104060361</v>
+        <v>250.9469639887622</v>
       </c>
     </row>
     <row r="46">
@@ -2260,13 +2260,13 @@
         <v>440</v>
       </c>
       <c r="B46" t="n">
-        <v>309.8989792622209</v>
+        <v>309.8955701298019</v>
       </c>
       <c r="C46" t="n">
         <v>77.83740535145245</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9857551906736395</v>
+        <v>0.9857550962678827</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2274,10 +2274,10 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.1781925846376486</v>
+        <v>0.1781925832342867</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0001037983680540703</v>
+        <v>0.0001037990763617763</v>
       </c>
       <c r="H46" t="n">
         <v>88.66255290852872</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.1592875487423524</v>
+        <v>0.1592965995216007</v>
       </c>
       <c r="K46" t="n">
-        <v>835.4996825287436</v>
+        <v>835.4996891087503</v>
       </c>
       <c r="L46" t="n">
-        <v>250.1839949365265</v>
+        <v>250.1822877223804</v>
       </c>
     </row>
     <row r="47">
@@ -2300,13 +2300,13 @@
         <v>450</v>
       </c>
       <c r="B47" t="n">
-        <v>308.3061127598977</v>
+        <v>308.302612370351</v>
       </c>
       <c r="C47" t="n">
         <v>77.78523100656497</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9857119625962295</v>
+        <v>0.9857118641371579</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2314,10 +2314,10 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.1781837105694301</v>
+        <v>0.1781837094497289</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0001041194754143453</v>
+        <v>0.0001041202140862224</v>
       </c>
       <c r="H47" t="n">
         <v>88.6447617117165</v>
@@ -2326,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0.159286650232318</v>
+        <v>0.1592957759450912</v>
       </c>
       <c r="K47" t="n">
-        <v>835.5412928485398</v>
+        <v>835.5412980990571</v>
       </c>
       <c r="L47" t="n">
-        <v>249.4124205324352</v>
+        <v>249.410651097533</v>
       </c>
     </row>
     <row r="48">
@@ -2340,13 +2340,13 @@
         <v>460</v>
       </c>
       <c r="B48" t="n">
-        <v>306.7132546194061</v>
+        <v>306.7096622111461</v>
       </c>
       <c r="C48" t="n">
         <v>77.73291633016117</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9856680679440674</v>
+        <v>0.9856679652953363</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2354,10 +2354,10 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.1781749633996561</v>
+        <v>0.1781749625834012</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0001044455432171758</v>
+        <v>0.0001044463132741238</v>
       </c>
       <c r="H48" t="n">
         <v>88.62692617733057</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0.1592858140491611</v>
+        <v>0.1592950159204894</v>
       </c>
       <c r="K48" t="n">
-        <v>835.5823122005427</v>
+        <v>835.5823160285114</v>
       </c>
       <c r="L48" t="n">
-        <v>248.6337816603817</v>
+        <v>248.6319485447353</v>
       </c>
     </row>
     <row r="49">
@@ -2380,13 +2380,13 @@
         <v>470</v>
       </c>
       <c r="B49" t="n">
-        <v>305.120404195879</v>
+        <v>305.1167189947671</v>
       </c>
       <c r="C49" t="n">
         <v>77.68046091696675</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9856234907750476</v>
+        <v>0.9856233837951623</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.1781663443037341</v>
+        <v>0.178166343811149</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0001047766910230732</v>
+        <v>0.0001047774935247051</v>
       </c>
       <c r="H49" t="n">
         <v>88.6090461948682</v>
@@ -2406,13 +2406,13 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0.1592850423527082</v>
+        <v>0.1592943216378933</v>
       </c>
       <c r="K49" t="n">
-        <v>835.622734897252</v>
+        <v>835.6227372075382</v>
       </c>
       <c r="L49" t="n">
-        <v>247.8479720450476</v>
+        <v>247.8460737518614</v>
       </c>
     </row>
     <row r="50">
@@ -2420,13 +2420,13 @@
         <v>480</v>
       </c>
       <c r="B50" t="n">
-        <v>303.527560822306</v>
+        <v>303.5237820413386</v>
       </c>
       <c r="C50" t="n">
         <v>77.6278643599282</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9855782147162905</v>
+        <v>0.9855781032584002</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.1781578544567305</v>
+        <v>0.1781578543084851</v>
       </c>
       <c r="G50" t="n">
-        <v>0.000105113041649653</v>
+        <v>0.0001051138776958568</v>
       </c>
       <c r="H50" t="n">
         <v>88.59112165339478</v>
@@ -2446,13 +2446,13 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0.1592843373573006</v>
+        <v>0.1592936953428576</v>
       </c>
       <c r="K50" t="n">
-        <v>835.6625552531581</v>
+        <v>835.6625559485144</v>
       </c>
       <c r="L50" t="n">
-        <v>247.0548847231933</v>
+        <v>247.0529197181623</v>
       </c>
     </row>
     <row r="51">
@@ -2460,13 +2460,13 @@
         <v>490</v>
       </c>
       <c r="B51" t="n">
-        <v>301.9347238089726</v>
+        <v>301.9308506479588</v>
       </c>
       <c r="C51" t="n">
         <v>77.57512625020246</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9855322229523761</v>
+        <v>0.985532106864059</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2474,10 +2474,10 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.178149495033352</v>
+        <v>0.1781494952505709</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0001054547212620862</v>
+        <v>0.0001054555919946528</v>
       </c>
       <c r="H51" t="n">
         <v>88.57315244154151</v>
@@ -2486,13 +2486,13 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0.1592837013333404</v>
+        <v>0.1592931393379738</v>
       </c>
       <c r="K51" t="n">
-        <v>835.7017675849115</v>
+        <v>835.7017665659349</v>
       </c>
       <c r="L51" t="n">
-        <v>246.2544121008993</v>
+        <v>246.2523788115097</v>
       </c>
     </row>
     <row r="52">
@@ -2500,13 +2500,13 @@
         <v>500</v>
       </c>
       <c r="B52" t="n">
-        <v>300.3418924428838</v>
+        <v>300.3379240881139</v>
       </c>
       <c r="C52" t="n">
         <v>77.52224617714614</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9854854982132472</v>
+        <v>0.9854853773362858</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2514,10 +2514,10 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.1781412672079273</v>
+        <v>0.1781412678121991</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0001058018594661835</v>
+        <v>0.0001058027660705034</v>
       </c>
       <c r="H52" t="n">
         <v>88.55513844750318</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0.1592831366088838</v>
+        <v>0.1592926559844977</v>
       </c>
       <c r="K52" t="n">
-        <v>835.7403662114878</v>
+        <v>835.7403633765788</v>
       </c>
       <c r="L52" t="n">
-        <v>245.4464460141118</v>
+        <v>245.4443428289445</v>
       </c>
     </row>
     <row r="53">
@@ -2540,13 +2540,13 @@
         <v>510</v>
       </c>
       <c r="B53" t="n">
-        <v>298.749065987171</v>
+        <v>298.7450016110736</v>
       </c>
       <c r="C53" t="n">
         <v>77.46922372830551</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9854380227617676</v>
+        <v>0.9854378969319152</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.1781331721543908</v>
+        <v>0.1781331731677771</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0001061545894041987</v>
+        <v>0.0001061555331110308</v>
       </c>
       <c r="H53" t="n">
         <v>88.53707955903573</v>
@@ -2566,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0.1592826455712828</v>
+        <v>0.1592922477040278</v>
       </c>
       <c r="K53" t="n">
-        <v>835.7783454543503</v>
+        <v>835.7783406996696</v>
       </c>
       <c r="L53" t="n">
-        <v>244.6308777925725</v>
+        <v>244.6287030606113</v>
       </c>
     </row>
     <row r="54">
@@ -2580,13 +2580,13 @@
         <v>520</v>
       </c>
       <c r="B54" t="n">
-        <v>297.1562436804822</v>
+        <v>297.1520824412712</v>
       </c>
       <c r="C54" t="n">
         <v>77.41605848940469</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9853897783809256</v>
+        <v>0.9853896474276638</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2594,10 +2594,10 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.178125211046266</v>
+        <v>0.1781252124913113</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0001065130478534452</v>
+        <v>0.0001065140299407606</v>
       </c>
       <c r="H54" t="n">
         <v>88.51897566345365</v>
@@ -2606,13 +2606,13 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0.1592822306688776</v>
+        <v>0.1592919169802353</v>
       </c>
       <c r="K54" t="n">
-        <v>835.8156996376098</v>
+        <v>835.8156928570335</v>
       </c>
       <c r="L54" t="n">
-        <v>243.807598327206</v>
+        <v>243.8053503571513</v>
       </c>
     </row>
     <row r="55">
@@ -2620,13 +2620,13 @@
         <v>530</v>
       </c>
       <c r="B55" t="n">
-        <v>295.5634247363548</v>
+        <v>295.5591657776646</v>
       </c>
       <c r="C55" t="n">
         <v>77.36275004433594</v>
       </c>
       <c r="D55" t="n">
-        <v>0.985340746360673</v>
+        <v>0.9853406101069571</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2634,10 +2634,10 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.1781173850566505</v>
+        <v>0.1781173869563917</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0001068773753278189</v>
+        <v>0.0001068783971227236</v>
       </c>
       <c r="H55" t="n">
         <v>88.50082664762776</v>
@@ -2646,13 +2646,13 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>0.1592818944127415</v>
+        <v>0.1592916663606485</v>
       </c>
       <c r="K55" t="n">
-        <v>835.8524230881798</v>
+        <v>835.8524141732541</v>
       </c>
       <c r="L55" t="n">
-        <v>242.976498141042</v>
+        <v>242.9741752006308</v>
       </c>
     </row>
     <row r="56">
@@ -2660,13 +2660,13 @@
         <v>540</v>
       </c>
       <c r="B56" t="n">
-        <v>293.97060834257</v>
+        <v>293.9662507930798</v>
       </c>
       <c r="C56" t="n">
         <v>77.3092979751479</v>
       </c>
       <c r="D56" t="n">
-        <v>0.985290907484384</v>
+        <v>0.9852907657463789</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2674,10 +2674,10 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.1781096953582022</v>
+        <v>0.1781096977361785</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0001072477161823294</v>
+        <v>0.0001072487790630694</v>
       </c>
       <c r="H56" t="n">
         <v>88.48263239798264</v>
@@ -2686,13 +2686,13 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>0.1592816393784799</v>
+        <v>0.1592914984584922</v>
       </c>
       <c r="K56" t="n">
-        <v>835.8885101359283</v>
+        <v>835.8884989758226</v>
       </c>
       <c r="L56" t="n">
-        <v>242.1374674637404</v>
+        <v>242.1350677790741</v>
       </c>
     </row>
     <row r="57">
@@ -2700,13 +2700,13 @@
         <v>550</v>
       </c>
       <c r="B57" t="n">
-        <v>292.3777936604891</v>
+        <v>292.3733366335339</v>
       </c>
       <c r="C57" t="n">
         <v>77.25570186203538</v>
       </c>
       <c r="D57" t="n">
-        <v>0.9852402420149234</v>
+        <v>0.9852400946017285</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2714,10 +2714,10 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0.1781021431231253</v>
+        <v>0.178102146003389</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0001076242187207423</v>
+        <v>0.0001076253241187946</v>
       </c>
       <c r="H57" t="n">
         <v>88.46439280049435</v>
@@ -2726,13 +2726,13 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>0.1592814682080847</v>
+        <v>0.1592914159545855</v>
       </c>
       <c r="K57" t="n">
-        <v>835.9239551138264</v>
+        <v>835.9239415952841</v>
       </c>
       <c r="L57" t="n">
-        <v>241.2903963097883</v>
+        <v>241.2879180646699</v>
       </c>
     </row>
     <row r="58">
@@ -2740,13 +2740,13 @@
         <v>560</v>
       </c>
       <c r="B58" t="n">
-        <v>290.7849798243707</v>
+        <v>290.780422417541</v>
       </c>
       <c r="C58" t="n">
         <v>77.20196128332771</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9851887296803125</v>
+        <v>0.9851885763936737</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2754,10 +2754,10 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0.1780947295231589</v>
+        <v>0.1780947329302859</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0001080070353064414</v>
+        <v>0.0001080081847086954</v>
       </c>
       <c r="H58" t="n">
         <v>88.44610774068762</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>0.159281383611849</v>
+        <v>0.1592914215992994</v>
       </c>
       <c r="K58" t="n">
-        <v>835.9587523580917</v>
+        <v>835.9587363653803</v>
       </c>
       <c r="L58" t="n">
-        <v>240.4351745604345</v>
+        <v>240.4326158957154</v>
       </c>
     </row>
     <row r="59">
@@ -2780,13 +2780,13 @@
         <v>570</v>
       </c>
       <c r="B59" t="n">
-        <v>289.1921659406673</v>
+        <v>289.1875072353952</v>
       </c>
       <c r="C59" t="n">
         <v>77.14807581547785</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9851363496589753</v>
+        <v>0.9851361902929858</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2794,10 +2794,10 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.1780874557295651</v>
+        <v>0.178087459688666</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0001083963224766231</v>
+        <v>0.0001083975174276566</v>
       </c>
       <c r="H59" t="n">
         <v>88.42777710363366</v>
@@ -2806,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>0.1592813883703397</v>
+        <v>0.1592915182145768</v>
       </c>
       <c r="K59" t="n">
-        <v>835.9928962083291</v>
+        <v>835.9928776231899</v>
       </c>
       <c r="L59" t="n">
-        <v>239.5716920494206</v>
+        <v>239.5690510623594</v>
       </c>
     </row>
     <row r="60">
@@ -2820,13 +2820,13 @@
         <v>580</v>
       </c>
       <c r="B60" t="n">
-        <v>287.599351087303</v>
+        <v>287.594590148435</v>
       </c>
       <c r="C60" t="n">
         <v>77.09404503305132</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9850830805645541</v>
+        <v>0.9850829149053414</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2834,10 +2834,10 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.1780803229131191</v>
+        <v>0.1780803274498506</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0001087922410599421</v>
+        <v>0.0001087934831643955</v>
       </c>
       <c r="H60" t="n">
         <v>88.40940077394752</v>
@@ -2846,13 +2846,13 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>0.1592814853364349</v>
+        <v>0.1592917086960169</v>
       </c>
       <c r="K60" t="n">
-        <v>836.0263810076669</v>
+        <v>836.0263597092606</v>
       </c>
       <c r="L60" t="n">
-        <v>238.6998386525659</v>
+        <v>238.6971133961996</v>
       </c>
     </row>
     <row r="61">
@@ -2860,13 +2860,13 @@
         <v>590</v>
       </c>
       <c r="B61" t="n">
-        <v>286.0065343129287</v>
+        <v>286.0016701882848</v>
       </c>
       <c r="C61" t="n">
         <v>77.03986850871468</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9850289004302786</v>
+        <v>0.9850287282556791</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2874,10 +2874,10 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.1780733322441001</v>
+        <v>0.1780733373846766</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0001091949562977302</v>
+        <v>0.0001091962472227848</v>
       </c>
       <c r="H61" t="n">
         <v>88.39097863578553</v>
@@ -2886,13 +2886,13 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>0.1592816774374251</v>
+        <v>0.1592919960150268</v>
       </c>
       <c r="K61" t="n">
-        <v>836.0592011028893</v>
+        <v>836.0591769677416</v>
       </c>
       <c r="L61" t="n">
-        <v>237.8195043812573</v>
+        <v>237.8166928637878</v>
       </c>
     </row>
     <row r="62">
@@ -2900,13 +2900,13 @@
         <v>600</v>
       </c>
       <c r="B62" t="n">
-        <v>284.4137146361569</v>
+        <v>284.4087463560743</v>
       </c>
       <c r="C62" t="n">
         <v>76.98554581322418</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9849737866928719</v>
+        <v>0.9849736077720904</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2914,10 +2914,10 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0.178066484892283</v>
+        <v>0.1780664906634891</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0001096046379689172</v>
+        <v>0.0001096059794468817</v>
       </c>
       <c r="H62" t="n">
         <v>88.37251057284283</v>
@@ -2926,13 +2926,13 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>0.1592819676771827</v>
+        <v>0.1592923832210429</v>
       </c>
       <c r="K62" t="n">
-        <v>836.091350844562</v>
+        <v>836.0913237465074</v>
       </c>
       <c r="L62" t="n">
-        <v>236.9305794798913</v>
+        <v>236.9276796640865</v>
       </c>
     </row>
     <row r="63">
@@ -2940,13 +2940,13 @@
         <v>610</v>
       </c>
       <c r="B63" t="n">
-        <v>282.8208910447729</v>
+        <v>282.8158176216361</v>
       </c>
       <c r="C63" t="n">
         <v>76.93107651541425</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9849177161759797</v>
+        <v>0.9849175302692349</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2954,10 +2954,10 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0.1780597820269318</v>
+        <v>0.1780597884561344</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0001100214605187886</v>
+        <v>0.0001100228543497995</v>
       </c>
       <c r="H63" t="n">
         <v>88.35399646835062</v>
@@ -2966,13 +2966,13 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>0.159282359138401</v>
+        <v>0.1592928734438241</v>
       </c>
       <c r="K63" t="n">
-        <v>836.1228245871567</v>
+        <v>836.1227943972804</v>
       </c>
       <c r="L63" t="n">
-        <v>236.032954527308</v>
+        <v>236.0299643299208</v>
       </c>
     </row>
     <row r="64">
@@ -2980,13 +2980,13 @@
         <v>620</v>
       </c>
       <c r="B64" t="n">
-        <v>281.2280624949238</v>
+        <v>281.2228829226779</v>
       </c>
       <c r="C64" t="n">
         <v>76.87646018218595</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9848606650731038</v>
+        <v>0.9848604719312574</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2994,10 +2994,10 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.1780532248167935</v>
+        <v>0.1780532319319549</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0001104456031917185</v>
+        <v>0.0001104470512465589</v>
       </c>
       <c r="H64" t="n">
         <v>88.33543620507375</v>
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>0.1592828549849065</v>
+        <v>0.1592934698958206</v>
       </c>
       <c r="K64" t="n">
-        <v>836.1536166891696</v>
+        <v>836.1535832757469</v>
       </c>
       <c r="L64" t="n">
-        <v>235.1265205422541</v>
+        <v>235.1234378334599</v>
       </c>
     </row>
     <row r="65">
@@ -3020,13 +3020,13 @@
         <v>630</v>
       </c>
       <c r="B65" t="n">
-        <v>279.6352279102834</v>
+        <v>279.6299411639317</v>
       </c>
       <c r="C65" t="n">
         <v>76.82169637849557</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9848026089300231</v>
+        <v>0.9848024082941937</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3034,10 +3034,10 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.1780468144300936</v>
+        <v>0.1780468222597848</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0001108772501680266</v>
+        <v>0.0001108787543910706</v>
       </c>
       <c r="H65" t="n">
         <v>88.31682966530811</v>
@@ -3046,13 +3046,13 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>0.1592834584640467</v>
+        <v>0.1592941758746205</v>
       </c>
       <c r="K65" t="n">
-        <v>836.1837215132331</v>
+        <v>836.1836847416679</v>
       </c>
       <c r="L65" t="n">
-        <v>234.2111690928981</v>
+        <v>234.2079916957525</v>
       </c>
     </row>
     <row r="66">
@@ -3060,13 +3060,13 @@
         <v>640</v>
       </c>
       <c r="B66" t="n">
-        <v>278.0423861811918</v>
+        <v>278.0369912162769</v>
       </c>
       <c r="C66" t="n">
         <v>76.7667846673429</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9847435226266837</v>
+        <v>0.9847433142278439</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3074,10 +3074,10 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0.1780405520345327</v>
+        <v>0.1780405606079473</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0001113165907051094</v>
+        <v>0.0001113181531173971</v>
       </c>
       <c r="H66" t="n">
         <v>88.29817673087797</v>
@@ -3086,13 +3086,13 @@
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>0.1592841729091569</v>
+        <v>0.1592949947654776</v>
       </c>
       <c r="K66" t="n">
-        <v>836.2131334262264</v>
+        <v>836.2130931589869</v>
       </c>
       <c r="L66" t="n">
-        <v>233.2867924104263</v>
+        <v>233.2835181003446</v>
       </c>
     </row>
     <row r="67">
@@ -3100,13 +3100,13 @@
         <v>650</v>
       </c>
       <c r="B67" t="n">
-        <v>276.4495361637707</v>
+        <v>276.4440319158377</v>
       </c>
       <c r="C67" t="n">
         <v>76.7117246097589</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9846833803585405</v>
+        <v>0.9846831639170943</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3114,10 +3114,10 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0.1780344387972843</v>
+        <v>0.1780344481442526</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0001117638192830089</v>
+        <v>0.0001117654419854586</v>
       </c>
       <c r="H67" t="n">
         <v>88.27947728313319</v>
@@ -3126,13 +3126,13 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>0.1592850017421075</v>
+        <v>0.1592959300439239</v>
       </c>
       <c r="K67" t="n">
-        <v>836.2418467993772</v>
+        <v>836.2418028959296</v>
       </c>
       <c r="L67" t="n">
-        <v>232.3532835067242</v>
+        <v>232.3499100109848</v>
       </c>
     </row>
     <row r="68">
@@ -3140,13 +3140,13 @@
         <v>660</v>
       </c>
       <c r="B68" t="n">
-        <v>274.8566766790113</v>
+        <v>274.851062063053</v>
       </c>
       <c r="C68" t="n">
         <v>76.65651576479416</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9846221556173268</v>
+        <v>0.9846219308426709</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3154,10 +3154,10 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0.1780284758849938</v>
+        <v>0.1780284860359977</v>
       </c>
       <c r="G68" t="n">
-        <v>0.000112219135754582</v>
+        <v>0.0001122208209313468</v>
       </c>
       <c r="H68" t="n">
         <v>88.26073120294676</v>
@@ -3166,13 +3166,13 @@
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>0.1592859484759389</v>
+        <v>0.159296985278469</v>
       </c>
       <c r="K68" t="n">
-        <v>836.2698560083608</v>
+        <v>836.2698083251012</v>
       </c>
       <c r="L68" t="n">
-        <v>231.4105362961585</v>
+        <v>231.4070612934304</v>
       </c>
     </row>
     <row r="69">
@@ -3180,13 +3180,13 @@
         <v>670</v>
       </c>
       <c r="B69" t="n">
-        <v>273.2638065118355</v>
+        <v>273.2580804217191</v>
       </c>
       <c r="C69" t="n">
         <v>76.60115768950698</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9845598211712353</v>
+        <v>0.9845595877612995</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3194,10 +3194,10 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0.1780226644637791</v>
+        <v>0.1780226754499669</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0001126827455004512</v>
+        <v>0.0001126844954224262</v>
       </c>
       <c r="H69" t="n">
         <v>88.24193837071202</v>
@@ -3206,13 +3206,13 @@
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>0.1592870167175816</v>
+        <v>0.1592981641333924</v>
       </c>
       <c r="K69" t="n">
-        <v>836.2971554333922</v>
+        <v>836.2971038235758</v>
       </c>
       <c r="L69" t="n">
-        <v>230.4584457214459</v>
+        <v>230.4548668413437</v>
       </c>
     </row>
     <row r="70">
@@ -3220,13 +3220,13 @@
         <v>680</v>
       </c>
       <c r="B70" t="n">
-        <v>271.6709244101288</v>
+        <v>271.6650857180028</v>
       </c>
       <c r="C70" t="n">
         <v>76.54564993895121</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9844963490444858</v>
+        <v>0.9844961066852522</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3234,10 +3234,10 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0.1780170056992322</v>
+        <v>0.1780170175524347</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0001131548595889141</v>
+        <v>0.0001131566766174031</v>
       </c>
       <c r="H70" t="n">
         <v>88.22309866633999</v>
@@ -3246,13 +3246,13 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>0.1592882101706707</v>
+        <v>0.1592994703716288</v>
       </c>
       <c r="K70" t="n">
-        <v>836.3237394593131</v>
+        <v>836.3236837729814</v>
       </c>
       <c r="L70" t="n">
-        <v>229.4969078836046</v>
+        <v>229.4932227062716</v>
       </c>
     </row>
     <row r="71">
@@ -3260,13 +3260,13 @@
         <v>690</v>
       </c>
       <c r="B71" t="n">
-        <v>270.0780290837443</v>
+        <v>270.0720766394252</v>
       </c>
       <c r="C71" t="n">
         <v>76.48999206616378</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9844317104962573</v>
+        <v>0.9844314588612597</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3274,10 +3274,10 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0.1780115007564223</v>
+        <v>0.178011513509169</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0001136356949410083</v>
+        <v>0.0001136375815315564</v>
       </c>
       <c r="H71" t="n">
         <v>88.20421196925663</v>
@@ -3286,13 +3286,13 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>0.1592895326384559</v>
+        <v>0.1593009078577538</v>
       </c>
       <c r="K71" t="n">
-        <v>836.3496024756726</v>
+        <v>836.3495425595781</v>
       </c>
       <c r="L71" t="n">
-        <v>228.5258201759611</v>
+        <v>228.522026231682</v>
       </c>
     </row>
     <row r="72">
@@ -3300,13 +3300,13 @@
         <v>700</v>
       </c>
       <c r="B72" t="n">
-        <v>268.4851192034762</v>
+        <v>268.4790518338145</v>
       </c>
       <c r="C72" t="n">
         <v>76.43418362215289</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9843658759989616</v>
+        <v>0.9843656147487608</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3314,10 +3314,10 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0.1780061507999004</v>
+        <v>0.1780061644854362</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0001141254745009302</v>
+        <v>0.0001141274332073318</v>
       </c>
       <c r="H72" t="n">
         <v>88.18527815840001</v>
@@ -3326,13 +3326,13 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>0.1592909880268099</v>
+        <v>0.1593024805610729</v>
       </c>
       <c r="K72" t="n">
-        <v>836.374738876804</v>
+        <v>836.3746745743318</v>
       </c>
       <c r="L72" t="n">
-        <v>227.5450814221814</v>
+        <v>227.5411761910278</v>
       </c>
     </row>
     <row r="73">
@@ -3340,13 +3340,13 @@
         <v>710</v>
       </c>
       <c r="B73" t="n">
-        <v>266.8921934000027</v>
+        <v>266.8860099082264</v>
       </c>
       <c r="C73" t="n">
         <v>76.37822415588528</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9842988152158331</v>
+        <v>0.9842985439974695</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3354,10 +3354,10 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0.1780009569937053</v>
+        <v>0.1780009716460079</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0001146244274120186</v>
+        <v>0.0001146264608905094</v>
       </c>
       <c r="H73" t="n">
         <v>88.16629711221775</v>
@@ -3366,13 +3366,13 @@
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>0.1592925803473421</v>
+        <v>0.1593041925588163</v>
       </c>
       <c r="K73" t="n">
-        <v>836.3991430618916</v>
+        <v>836.399074212979</v>
       </c>
       <c r="L73" t="n">
-        <v>226.5545920182837</v>
+        <v>226.5505729297914</v>
       </c>
     </row>
     <row r="74">
@@ -3380,13 +3380,13 @@
         <v>720</v>
       </c>
       <c r="B74" t="n">
-        <v>265.2992502627965</v>
+        <v>265.2929494278319</v>
       </c>
       <c r="C74" t="n">
         <v>76.32211321427388</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9842304969778075</v>
+        <v>0.9842302154242285</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3394,10 +3394,10 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0.1779959205013709</v>
+        <v>0.1779959361551689</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0001151327891985258</v>
+        <v>0.0001151349002121678</v>
       </c>
       <c r="H74" t="n">
         <v>88.147268708664</v>
@@ -3406,13 +3406,13 @@
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>0.1592943137206201</v>
+        <v>0.1593060480394472</v>
       </c>
       <c r="K74" t="n">
-        <v>836.4228094350342</v>
+        <v>836.4227358760871</v>
       </c>
       <c r="L74" t="n">
-        <v>225.5542540785743</v>
+        <v>225.5501185114571</v>
       </c>
     </row>
     <row r="75">
@@ -3420,13 +3420,13 @@
         <v>730</v>
       </c>
       <c r="B75" t="n">
-        <v>263.7062883390015</v>
+        <v>263.699868914771</v>
       </c>
       <c r="C75" t="n">
         <v>76.26585034216521</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9841608892596643</v>
+        <v>0.9841605969891249</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3434,10 +3434,10 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0.1779910424859358</v>
+        <v>0.1779910591767271</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0001156508019534051</v>
+        <v>0.0001156529933766747</v>
       </c>
       <c r="H75" t="n">
         <v>88.12819282519681</v>
@@ -3446,13 +3446,13 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>0.1592961923795038</v>
+        <v>0.1593080513060859</v>
       </c>
       <c r="K75" t="n">
-        <v>836.4457324053013</v>
+        <v>836.4456539691079</v>
       </c>
       <c r="L75" t="n">
-        <v>224.5439715854443</v>
+        <v>224.5397168673431</v>
       </c>
     </row>
     <row r="76">
@@ -3460,13 +3460,13 @@
         <v>740</v>
       </c>
       <c r="B76" t="n">
-        <v>262.1133061322756</v>
+        <v>262.1067668469705</v>
       </c>
       <c r="C76" t="n">
         <v>76.20943508232699</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9840899591554025</v>
+        <v>0.9840896557708396</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3474,10 +3474,10 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0.1779863241099531</v>
+        <v>0.1779863418740246</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0001161787145323588</v>
+        <v>0.0001161809893559487</v>
       </c>
       <c r="H76" t="n">
         <v>88.10906933877531</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>0.1592982206725971</v>
+        <v>0.1593102067800559</v>
       </c>
       <c r="K76" t="n">
-        <v>836.4679063867819</v>
+        <v>836.4678229024228</v>
       </c>
       <c r="L76" t="n">
-        <v>223.5236505429425</v>
+        <v>223.5192739502143</v>
       </c>
     </row>
     <row r="77">
@@ -3500,13 +3500,13 @@
         <v>750</v>
       </c>
       <c r="B77" t="n">
-        <v>260.5203021015973</v>
+        <v>260.5136416569249</v>
       </c>
       <c r="C77" t="n">
         <v>76.15286697543496</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9840176728528207</v>
+        <v>0.9840173579411972</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3514,10 +3514,10 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.1779817665355036</v>
+        <v>0.1779817854099508</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0001167167827544026</v>
+        <v>0.0001167191440902488</v>
       </c>
       <c r="H77" t="n">
         <v>88.08989812585673</v>
@@ -3526,13 +3526,13 @@
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>0.1593004030678225</v>
+        <v>0.1593125190045563</v>
       </c>
       <c r="K77" t="n">
-        <v>836.489325798625</v>
+        <v>836.4892370913815</v>
       </c>
       <c r="L77" t="n">
-        <v>222.4931991340353</v>
+        <v>222.4886978915807</v>
       </c>
     </row>
     <row r="78">
@@ -3540,13 +3540,13 @@
         <v>760</v>
       </c>
       <c r="B78" t="n">
-        <v>258.9272746600361</v>
+        <v>258.9204917304402</v>
       </c>
       <c r="C78" t="n">
         <v>76.09614556006022</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9839439956072684</v>
+        <v>0.9839436687388878</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3554,10 +3554,10 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0.1779773709242089</v>
+        <v>0.1779773909469568</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0001172652696092119</v>
+        <v>0.000117267720695756</v>
       </c>
       <c r="H78" t="n">
         <v>88.07067906239359</v>
@@ -3566,13 +3566,13 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>0.1593027441561239</v>
+        <v>0.1593149926484678</v>
       </c>
       <c r="K78" t="n">
-        <v>836.5099850650772</v>
+        <v>836.5098909563343</v>
       </c>
       <c r="L78" t="n">
-        <v>221.4525278814457</v>
+        <v>221.4478991625789</v>
       </c>
     </row>
     <row r="79">
@@ -3580,13 +3580,13 @@
         <v>770</v>
       </c>
       <c r="B79" t="n">
-        <v>257.3342221734831</v>
+        <v>257.3273154053372</v>
       </c>
       <c r="C79" t="n">
         <v>76.03927037265623</v>
       </c>
       <c r="D79" t="n">
-        <v>0.9838688917145387</v>
+        <v>0.9838685524423282</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3594,10 +3594,10 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0.1779731384372479</v>
+        <v>0.1779731596470723</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0001178244454715317</v>
+        <v>0.0001178269896792334</v>
       </c>
       <c r="H79" t="n">
         <v>88.05141202383088</v>
@@ -3606,13 +3606,13 @@
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>0.1593052486553022</v>
+        <v>0.1593176325102958</v>
       </c>
       <c r="K79" t="n">
-        <v>836.5298786155068</v>
+        <v>836.5297789226547</v>
       </c>
       <c r="L79" t="n">
-        <v>220.4015498119505</v>
+        <v>220.3967907383119</v>
       </c>
     </row>
     <row r="80">
@@ -3620,13 +3620,13 @@
         <v>780</v>
       </c>
       <c r="B80" t="n">
-        <v>255.7411429593432</v>
+        <v>255.7341109701146</v>
       </c>
       <c r="C80" t="n">
         <v>75.98224094754602</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9837923244828647</v>
+        <v>0.9837919723416231</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3634,10 +3634,10 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.1779690702353735</v>
+        <v>0.1779690926719235</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0001183945883229459</v>
+        <v>0.0001183972291600565</v>
       </c>
       <c r="H80" t="n">
         <v>88.03209688510309</v>
@@ -3646,13 +3646,13 @@
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>0.1593079214139905</v>
+        <v>0.1593204435222582</v>
       </c>
       <c r="K80" t="n">
-        <v>836.5490008844245</v>
+        <v>836.5488954207558</v>
       </c>
       <c r="L80" t="n">
-        <v>219.3401806240015</v>
+        <v>219.3352882655152</v>
       </c>
     </row>
     <row r="81">
@@ -3660,13 +3660,13 @@
         <v>790</v>
       </c>
       <c r="B81" t="n">
-        <v>254.1480352851854</v>
+        <v>254.1408766625694</v>
       </c>
       <c r="C81" t="n">
         <v>75.92505681690875</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9837142562039843</v>
+        <v>0.9837138907095963</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3674,10 +3674,10 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.177965167478933</v>
+        <v>0.1779651911827535</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0001189759839813145</v>
+        <v>0.0001189787250999269</v>
       </c>
       <c r="H81" t="n">
         <v>88.01273352063137</v>
@@ -3686,13 +3686,13 @@
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>0.1593107674157762</v>
+        <v>0.1593234307545245</v>
       </c>
       <c r="K81" t="n">
-        <v>836.5673463114952</v>
+        <v>836.567234886097</v>
       </c>
       <c r="L81" t="n">
-        <v>218.2683388585188</v>
+        <v>218.2633102333957</v>
       </c>
     </row>
     <row r="82">
@@ -3700,13 +3700,13 @@
         <v>800</v>
       </c>
       <c r="B82" t="n">
-        <v>252.5548973673507</v>
+        <v>252.5476106683733</v>
       </c>
       <c r="C82" t="n">
         <v>75.8677175107664</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9836346481232362</v>
+        <v>0.983634268771848</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3714,10 +3714,10 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.1779614313278882</v>
+        <v>0.1779614563404446</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0001195689263382062</v>
+        <v>0.0001195717715405954</v>
       </c>
       <c r="H82" t="n">
         <v>87.99332180432042</v>
@@ -3726,13 +3726,13 @@
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>0.159313791783473</v>
+        <v>0.1593265994196115</v>
       </c>
       <c r="K82" t="n">
-        <v>836.5849093415382</v>
+        <v>836.5847917591826</v>
       </c>
       <c r="L82" t="n">
-        <v>217.1859460726913</v>
+        <v>217.1807781474803</v>
       </c>
     </row>
     <row r="83">
@@ -3740,13 +3740,13 @@
         <v>810</v>
       </c>
       <c r="B83" t="n">
-        <v>250.9617273695152</v>
+        <v>250.9543111196039</v>
       </c>
       <c r="C83" t="n">
         <v>75.8102225569707</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9835534604086463</v>
+        <v>0.9835530666758031</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3754,10 +3754,10 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.1779578629418396</v>
+        <v>0.1779578893055417</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0001201737176046672</v>
+        <v>0.0001201766708499374</v>
       </c>
       <c r="H83" t="n">
         <v>87.97386160955566</v>
@@ -3766,13 +3766,13 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>0.1593169997835537</v>
+        <v>0.1593299548769449</v>
       </c>
       <c r="K83" t="n">
-        <v>836.6016844245244</v>
+        <v>836.601560485554</v>
       </c>
       <c r="L83" t="n">
-        <v>216.0929270166033</v>
+        <v>216.08761670629</v>
       </c>
     </row>
     <row r="84">
@@ -3780,13 +3780,13 @@
         <v>820</v>
       </c>
       <c r="B84" t="n">
-        <v>249.3685234012077</v>
+        <v>249.3609760932279</v>
       </c>
       <c r="C84" t="n">
         <v>75.75257148118942</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9834706521189615</v>
+        <v>0.9834702434587034</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3794,10 +3794,10 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.1779544634800514</v>
+        <v>0.1779544912382797</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0001207906685656887</v>
+        <v>0.0001207937339767429</v>
       </c>
       <c r="H84" t="n">
         <v>87.95435280920012</v>
@@ -3806,13 +3806,13 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>0.1593203968307482</v>
+        <v>0.1593335026375921</v>
       </c>
       <c r="K84" t="n">
-        <v>836.6176660155594</v>
+        <v>836.6175355157669</v>
       </c>
       <c r="L84" t="n">
-        <v>214.9892098124855</v>
+        <v>214.9837539806422</v>
       </c>
     </row>
     <row r="85">
@@ -3820,13 +3820,13 @@
         <v>830</v>
       </c>
       <c r="B85" t="n">
-        <v>247.7752835162795</v>
+        <v>247.7676036095362</v>
       </c>
       <c r="C85" t="n">
         <v>75.69476380689275</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9833861811705892</v>
+        <v>0.9833857570145031</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -3834,10 +3834,10 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0.1779512341014785</v>
+        <v>0.1779512632986106</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0001214200988437504</v>
+        <v>0.0001214232807146014</v>
       </c>
       <c r="H85" t="n">
         <v>87.93479527559155</v>
@@ -3846,13 +3846,13 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>0.1593239884928164</v>
+        <v>0.1593372483691763</v>
       </c>
       <c r="K85" t="n">
-        <v>836.63284857486</v>
+        <v>836.6327113053663</v>
       </c>
       <c r="L85" t="n">
-        <v>213.8747261363795</v>
+        <v>213.8691215953651</v>
       </c>
     </row>
     <row r="86">
@@ -3860,13 +3860,13 @@
         <v>840</v>
       </c>
       <c r="B86" t="n">
-        <v>246.1820057113245</v>
+        <v>246.1741916305264</v>
       </c>
       <c r="C86" t="n">
         <v>75.63679905533996</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9833000043033935</v>
+        <v>0.9832995640596202</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3874,10 +3874,10 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0.1779481759647966</v>
+        <v>0.177948206646235</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0001220623371718413</v>
+        <v>0.0001220656399752814</v>
       </c>
       <c r="H86" t="n">
         <v>87.91518888053932</v>
@@ -3886,13 +3886,13 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>0.1593277804955011</v>
+        <v>0.1593411979009778</v>
       </c>
       <c r="K86" t="n">
-        <v>836.6472265677199</v>
+        <v>836.6470823148455</v>
       </c>
       <c r="L86" t="n">
-        <v>212.7494114019799</v>
+        <v>212.7436549131923</v>
       </c>
     </row>
     <row r="87">
@@ -3900,13 +3900,13 @@
         <v>850</v>
       </c>
       <c r="B87" t="n">
-        <v>244.5886879240478</v>
+        <v>244.5807380582341</v>
       </c>
       <c r="C87" t="n">
         <v>75.57867674556542</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9832120770453003</v>
+        <v>0.9832116200974919</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3914,10 +3914,10 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.1779452902284339</v>
+        <v>0.1779453224406346</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0001227177216763769</v>
+        <v>0.0001227211500720273</v>
       </c>
       <c r="H87" t="n">
         <v>87.8955334953213</v>
@@ -3926,13 +3926,13 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0.1593317787276735</v>
+        <v>0.1593453572292343</v>
       </c>
       <c r="K87" t="n">
-        <v>836.6607944644671</v>
+        <v>836.6606430095986</v>
       </c>
       <c r="L87" t="n">
-        <v>211.6132049464068</v>
+        <v>211.6072932205878</v>
       </c>
     </row>
     <row r="88">
@@ -3940,13 +3940,13 @@
         <v>860</v>
       </c>
       <c r="B88" t="n">
-        <v>242.995328031581</v>
+        <v>242.9872407330076</v>
       </c>
       <c r="C88" t="n">
         <v>75.52039639436452</v>
       </c>
       <c r="D88" t="n">
-        <v>0.983122353675661</v>
+        <v>0.9831218793818887</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3954,10 +3954,10 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0.177942578050605</v>
+        <v>0.1779426118411075</v>
       </c>
       <c r="G88" t="n">
-        <v>0.000123386600170456</v>
+        <v>0.0001233901590132163</v>
       </c>
       <c r="H88" t="n">
         <v>87.87582899068094</v>
@@ -3966,13 +3966,13 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>0.1593359892466762</v>
+        <v>0.1593497325226468</v>
       </c>
       <c r="K88" t="n">
-        <v>836.6735467404087</v>
+        <v>836.6733878598615</v>
       </c>
       <c r="L88" t="n">
-        <v>210.4660502176415</v>
+        <v>210.4599799152357</v>
       </c>
     </row>
     <row r="89">
@@ -3980,13 +3980,13 @@
         <v>870</v>
       </c>
       <c r="B89" t="n">
-        <v>241.4019238487423</v>
+        <v>241.3936974317266</v>
       </c>
       <c r="C89" t="n">
         <v>75.46195751628028</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9830307871873183</v>
+        <v>0.9830302948789252</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3994,10 +3994,10 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0.1779400405893479</v>
+        <v>0.1779400760068059</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0001240693304579254</v>
+        <v>0.000124073024806846</v>
       </c>
       <c r="H89" t="n">
         <v>87.85607523682401</v>
@@ -4006,13 +4006,13 @@
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>0.1593404182838757</v>
+        <v>0.1593543301281024</v>
       </c>
       <c r="K89" t="n">
-        <v>836.6854778757657</v>
+        <v>836.6853113406405</v>
       </c>
       <c r="L89" t="n">
-        <v>209.3078949633389</v>
+        <v>209.3016626949064</v>
       </c>
     </row>
     <row r="90">
@@ -4020,13 +4020,13 @@
         <v>880</v>
       </c>
       <c r="B90" t="n">
-        <v>239.8084731262379</v>
+        <v>239.8001058659603</v>
       </c>
       <c r="C90" t="n">
         <v>75.40335962358824</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9829373292473189</v>
+        <v>0.9829368182277175</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -4034,10 +4034,10 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0.1779376790025625</v>
+        <v>0.1779377160967767</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0001247662806487431</v>
+        <v>0.0001247701157763446</v>
       </c>
       <c r="H90" t="n">
         <v>87.83627210341545</v>
@@ -4046,13 +4046,13 @@
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>0.159345072250434</v>
+        <v>0.1593591565766249</v>
       </c>
       <c r="K90" t="n">
-        <v>836.6965823555989</v>
+        <v>836.6964079316325</v>
       </c>
       <c r="L90" t="n">
-        <v>208.1386914207164</v>
+        <v>208.1322937473999</v>
       </c>
     </row>
     <row r="91">
@@ -4060,13 +4060,13 @@
         <v>890</v>
       </c>
       <c r="B91" t="n">
-        <v>238.2149735488048</v>
+        <v>238.2064636800647</v>
       </c>
       <c r="C91" t="n">
         <v>75.34460222628297</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9828419301562131</v>
+        <v>0.9828413996996208</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -4074,10 +4074,10 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.1779354944480527</v>
+        <v>0.1779355332700034</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0001254778294861597</v>
+        <v>0.0001254818108882238</v>
       </c>
       <c r="H91" t="n">
         <v>87.81641945957637</v>
@@ -4086,13 +4086,13 @@
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>0.1593499577433083</v>
+        <v>0.1593642185895623</v>
       </c>
       <c r="K91" t="n">
-        <v>836.7068546697204</v>
+        <v>836.7066721171315</v>
       </c>
       <c r="L91" t="n">
-        <v>206.9583965071981</v>
+        <v>206.9518299412457</v>
       </c>
     </row>
     <row r="92">
@@ -4100,13 +4100,13 @@
         <v>900</v>
       </c>
       <c r="B92" t="n">
-        <v>236.6214227332899</v>
+        <v>236.6127684492145</v>
       </c>
       <c r="C92" t="n">
         <v>75.28568483206408</v>
       </c>
       <c r="D92" t="n">
-        <v>0.982744538805877</v>
+        <v>0.9827439881559906</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -4114,10 +4114,10 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0.1779334880835704</v>
+        <v>0.177933528685453</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0001262043666862675</v>
+        <v>0.0001262085000921277</v>
       </c>
       <c r="H92" t="n">
         <v>87.7965171738808</v>
@@ -4126,13 +4126,13 @@
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>0.1593550815514923</v>
+        <v>0.159369523085025</v>
       </c>
       <c r="K92" t="n">
-        <v>836.7162893125943</v>
+        <v>836.7160983859221</v>
       </c>
       <c r="L92" t="n">
-        <v>205.7669720114759</v>
+        <v>205.7602330168176</v>
       </c>
     </row>
     <row r="93">
@@ -4140,13 +4140,13 @@
         <v>910</v>
       </c>
       <c r="B93" t="n">
-        <v>235.0278182266648</v>
+        <v>235.0190176773686</v>
       </c>
       <c r="C93" t="n">
         <v>75.22660694632089</v>
       </c>
       <c r="D93" t="n">
-        <v>0.982645102635792</v>
+        <v>0.9826445310043929</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -4154,10 +4154,10 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0.1779316610668626</v>
+        <v>0.1779317035021233</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0001269462932904936</v>
+        <v>0.0001269505846738535</v>
       </c>
       <c r="H93" t="n">
         <v>87.77656511435249</v>
@@ -4166,13 +4166,13 @@
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>0.159360450662509</v>
+        <v>0.1593750771845851</v>
       </c>
       <c r="K93" t="n">
-        <v>836.7248807832242</v>
+        <v>836.7246812311618</v>
       </c>
       <c r="L93" t="n">
-        <v>204.5643847846316</v>
+        <v>204.5574697775118</v>
       </c>
     </row>
     <row r="94">
@@ -4180,13 +4180,13 @@
         <v>920</v>
       </c>
       <c r="B94" t="n">
-        <v>233.4341575039732</v>
+        <v>233.4252087951661</v>
       </c>
       <c r="C94" t="n">
         <v>75.16736807211805</v>
       </c>
       <c r="D94" t="n">
-        <v>0.982543567587709</v>
+        <v>0.9825429741532001</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -4194,10 +4194,10 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0.1779300145557215</v>
+        <v>0.1779300588790952</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0001277040220316488</v>
+        <v>0.0001277084776219589</v>
       </c>
       <c r="H94" t="n">
         <v>87.75656314846155</v>
@@ -4206,13 +4206,13 @@
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>0.159366072269168</v>
+        <v>0.1593808882202518</v>
       </c>
       <c r="K94" t="n">
-        <v>836.7326235850312</v>
+        <v>836.7324151502513</v>
       </c>
       <c r="L94" t="n">
-        <v>203.3506069309504</v>
+        <v>203.3435122806134</v>
       </c>
     </row>
     <row r="95">
@@ -4220,13 +4220,13 @@
         <v>930</v>
       </c>
       <c r="B95" t="n">
-        <v>231.8404379662072</v>
+        <v>231.8313391577488</v>
       </c>
       <c r="C95" t="n">
         <v>75.10796771018153</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9824398780586274</v>
+        <v>0.9824392619644937</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -4234,10 +4234,10 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0.1779285497080373</v>
+        <v>0.1779285959755862</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0001284779777141774</v>
+        <v>0.0001284826040086034</v>
       </c>
       <c r="H95" t="n">
         <v>87.73651114312143</v>
@@ -4246,13 +4246,13 @@
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>0.1593719537766013</v>
+        <v>0.1593869637417344</v>
       </c>
       <c r="K95" t="n">
-        <v>836.739512225713</v>
+        <v>836.739294644688</v>
       </c>
       <c r="L95" t="n">
-        <v>202.1256159980297</v>
+        <v>202.1183380274604</v>
       </c>
     </row>
     <row r="96">
@@ -4260,13 +4260,13 @@
         <v>940</v>
       </c>
       <c r="B96" t="n">
-        <v>230.2466569381113</v>
+        <v>230.2374060425087</v>
       </c>
       <c r="C96" t="n">
         <v>75.0484053588832</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9823339768520053</v>
+        <v>0.9823333372051952</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -4274,10 +4274,10 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0.1779272676818538</v>
+        <v>0.1779273159510088</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0001292685976092905</v>
+        <v>0.0001292734013853073</v>
       </c>
       <c r="H96" t="n">
         <v>87.71640896468564</v>
@@ -4286,13 +4286,13 @@
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>0.1593781028095907</v>
+        <v>0.1593933115240097</v>
       </c>
       <c r="K96" t="n">
-        <v>836.745541217095</v>
+        <v>836.745314219908</v>
       </c>
       <c r="L96" t="n">
-        <v>200.8893951657821</v>
+        <v>200.8819301524988</v>
       </c>
     </row>
     <row r="97">
@@ -4300,13 +4300,13 @@
         <v>950</v>
       </c>
       <c r="B97" t="n">
-        <v>228.6528116659093</v>
+        <v>228.6434066467566</v>
       </c>
       <c r="C97" t="n">
         <v>74.98868051422596</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9822258051271232</v>
+        <v>0.9822251409963474</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -4314,10 +4314,10 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0.1779261696354282</v>
+        <v>0.1779262199650307</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0001300763318657027</v>
+        <v>0.0001300813201943521</v>
       </c>
       <c r="H97" t="n">
         <v>87.69625647894412</v>
@@ -4326,13 +4326,13 @@
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>0.1593845272202007</v>
+        <v>0.1593999395752081</v>
       </c>
       <c r="K97" t="n">
-        <v>836.750705074961</v>
+        <v>836.7504683851109</v>
       </c>
       <c r="L97" t="n">
-        <v>199.6419334339057</v>
+        <v>199.6342776108046</v>
       </c>
     </row>
     <row r="98">
@@ -4340,13 +4340,13 @@
         <v>960</v>
       </c>
       <c r="B98" t="n">
-        <v>227.0588993149519</v>
+        <v>227.0493380853082</v>
       </c>
       <c r="C98" t="n">
         <v>74.92879266982908</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9821153023465093</v>
+        <v>0.9821146127604501</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -4354,10 +4354,10 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0.1779252567272931</v>
+        <v>0.1779253091776392</v>
       </c>
       <c r="G98" t="n">
-        <v>0.000130901643936735</v>
+        <v>0.0001309068241965856</v>
       </c>
       <c r="H98" t="n">
         <v>87.67605355112038</v>
@@ -4366,13 +4366,13 @@
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>0.1593912350957354</v>
+        <v>0.1594068561448343</v>
       </c>
       <c r="K98" t="n">
-        <v>836.754998318876</v>
+        <v>836.7547516530727</v>
       </c>
       <c r="L98" t="n">
-        <v>198.3832258073853</v>
+        <v>198.3753753636366</v>
       </c>
     </row>
     <row r="99">
@@ -4380,13 +4380,13 @@
         <v>970</v>
       </c>
       <c r="B99" t="n">
-        <v>225.4649169672816</v>
+        <v>225.4551973879848</v>
       </c>
       <c r="C99" t="n">
         <v>74.86874131691269</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9820024062213393</v>
+        <v>0.9820016901667664</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -4394,10 +4394,10 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0.1779245301163225</v>
+        <v>0.1779245847492091</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0001317450110245928</v>
+        <v>0.0001317503909164456</v>
       </c>
       <c r="H99" t="n">
         <v>87.65580004586778</v>
@@ -4406,13 +4406,13 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>0.1593982347670334</v>
+        <v>0.1594140697323417</v>
       </c>
       <c r="K99" t="n">
-        <v>836.7584154719863</v>
+        <v>836.75815853994</v>
       </c>
       <c r="L99" t="n">
-        <v>197.1132734795679</v>
+        <v>197.1052245615594</v>
       </c>
     </row>
     <row r="100">
@@ -4420,13 +4420,13 @@
         <v>980</v>
       </c>
       <c r="B100" t="n">
-        <v>223.8708616191104</v>
+        <v>223.8609814970241</v>
       </c>
       <c r="C100" t="n">
         <v>74.80852594428279</v>
       </c>
       <c r="D100" t="n">
-        <v>0.9818870526547089</v>
+        <v>0.9818863090744953</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -4434,10 +4434,10 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0.1779239909618016</v>
+        <v>0.1779240478405738</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0001326069245426708</v>
+        <v>0.0001326125121050545</v>
       </c>
       <c r="H100" t="n">
         <v>87.63549582726644</v>
@@ -4446,13 +4446,13 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>0.1594055348171182</v>
+        <v>0.1594215890960771</v>
       </c>
       <c r="K100" t="n">
-        <v>836.7609510608078</v>
+        <v>836.7606835650079</v>
       </c>
       <c r="L100" t="n">
-        <v>195.8320840123468</v>
+        <v>195.8238327246758</v>
       </c>
     </row>
     <row r="101">
@@ -4460,13 +4460,13 @@
         <v>990</v>
       </c>
       <c r="B101" t="n">
-        <v>222.2767301782081</v>
+        <v>222.2666872643979</v>
       </c>
       <c r="C101" t="n">
         <v>74.74814603831572</v>
       </c>
       <c r="D101" t="n">
-        <v>0.9817691756826772</v>
+        <v>0.9817684034737106</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -4474,10 +4474,10 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0.1779236404234996</v>
+        <v>0.1779236996131007</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0001334878905967909</v>
+        <v>0.0001334936942222963</v>
       </c>
       <c r="H101" t="n">
         <v>87.61514075881963</v>
@@ -4486,13 +4486,13 @@
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>0.1594131440902262</v>
+        <v>0.1594294232626166</v>
       </c>
       <c r="K101" t="n">
-        <v>836.7625996149982</v>
+        <v>836.762321250482</v>
       </c>
       <c r="L101" t="n">
-        <v>194.5396715129719</v>
+        <v>194.5312139194805</v>
       </c>
     </row>
     <row r="102">
@@ -4500,13 +4500,13 @@
         <v>1000</v>
       </c>
       <c r="B102" t="n">
-        <v>220.6825194611959</v>
+        <v>220.6723114490328</v>
       </c>
       <c r="C102" t="n">
         <v>74.68760108294248</v>
       </c>
       <c r="D102" t="n">
-        <v>0.9816487074129735</v>
+        <v>0.9816479054239554</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -4514,10 +4514,10 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0.177923479661747</v>
+        <v>0.1779235412287705</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0001343884304863321</v>
+        <v>0.0001343944589388362</v>
       </c>
       <c r="H102" t="n">
         <v>87.59473470345041</v>
@@ -4526,13 +4526,13 @@
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>0.1594210717012273</v>
+        <v>0.1594375815365123</v>
       </c>
       <c r="K102" t="n">
-        <v>836.7633556671072</v>
+        <v>836.7630661212222</v>
       </c>
       <c r="L102" t="n">
-        <v>193.2360568069911</v>
+        <v>193.227388931844</v>
       </c>
     </row>
     <row r="103">
@@ -4540,13 +4540,13 @@
         <v>1010</v>
       </c>
       <c r="B103" t="n">
-        <v>219.0882261907412</v>
+        <v>219.077850713928</v>
       </c>
       <c r="C103" t="n">
         <v>74.62689055963313</v>
       </c>
       <c r="D103" t="n">
-        <v>0.9815255779612503</v>
+        <v>0.9815247449903765</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -4554,10 +4554,10 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0.1779235098375165</v>
+        <v>0.1779235738502599</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0001353090812262673</v>
+        <v>0.0001353153436591031</v>
       </c>
       <c r="H103" t="n">
         <v>87.57427752349814</v>
@@ -4566,13 +4566,13 @@
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>0.1594293270454627</v>
+        <v>0.1594460735104736</v>
       </c>
       <c r="K103" t="n">
-        <v>836.7632137523135</v>
+        <v>836.7629127044662</v>
       </c>
       <c r="L103" t="n">
-        <v>191.9212676068189</v>
+        <v>191.9123854356205</v>
       </c>
     </row>
     <row r="104">
@@ -4580,13 +4580,13 @@
         <v>1020</v>
       </c>
       <c r="B104" t="n">
-        <v>217.493846992651</v>
+        <v>217.483301623168</v>
       </c>
       <c r="C104" t="n">
         <v>74.5660139473818</v>
       </c>
       <c r="D104" t="n">
-        <v>0.9813997153847602</v>
+        <v>0.9813988501772759</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -4594,10 +4594,10 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0.1779237321125086</v>
+        <v>0.1779237986410299</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0001362503960911874</v>
+        <v>0.0001362569020663177</v>
       </c>
       <c r="H104" t="n">
         <v>87.55376908071527</v>
@@ -4606,13 +4606,13 @@
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>0.1594379198090215</v>
+        <v>0.1594549090760047</v>
       </c>
       <c r="K104" t="n">
-        <v>836.7621684081397</v>
+        <v>836.7618555295356</v>
       </c>
       <c r="L104" t="n">
-        <v>190.5953386754145</v>
+        <v>190.5862381563614</v>
       </c>
     </row>
     <row r="105">
@@ -4620,13 +4620,13 @@
         <v>1030</v>
       </c>
       <c r="B105" t="n">
-        <v>215.8993783928562</v>
+        <v>215.8886606388227</v>
       </c>
       <c r="C105" t="n">
         <v>74.50497072268968</v>
       </c>
       <c r="D105" t="n">
-        <v>0.9812710456133286</v>
+        <v>0.9812701468589491</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -4634,10 +4634,10 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0.177924147649241</v>
+        <v>0.1779242167654175</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0001372129451824529</v>
+        <v>0.0001372197046907118</v>
       </c>
       <c r="H105" t="n">
         <v>87.53320923626342</v>
@@ -4646,13 +4646,13 @@
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>0.1594468599794785</v>
+        <v>0.1594640984345237</v>
       </c>
       <c r="K105" t="n">
-        <v>836.7602141741484</v>
+        <v>836.7598891275205</v>
       </c>
       <c r="L105" t="n">
-        <v>189.2583119845471</v>
+        <v>189.2489890296129</v>
       </c>
     </row>
     <row r="106">
@@ -4660,13 +4660,13 @@
         <v>1040</v>
       </c>
       <c r="B106" t="n">
-        <v>214.304816814285</v>
+        <v>214.2939241177328</v>
       </c>
       <c r="C106" t="n">
         <v>74.4437603595494</v>
       </c>
       <c r="D106" t="n">
-        <v>0.9811394923774833</v>
+        <v>0.9811385587076744</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -4674,10 +4674,10 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0.1779247576111426</v>
+        <v>0.1779248293887323</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0001381973160196882</v>
+        <v>0.0001382043395021578</v>
       </c>
       <c r="H106" t="n">
         <v>87.51259785071015</v>
@@ -4686,13 +4686,13 @@
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>0.1594561578571206</v>
+        <v>0.1594736521089917</v>
       </c>
       <c r="K106" t="n">
-        <v>836.7573455916179</v>
+        <v>836.7570080309434</v>
       </c>
       <c r="L106" t="n">
-        <v>187.9102368671157</v>
+        <v>187.9006873532635</v>
       </c>
     </row>
     <row r="107">
@@ -4700,13 +4700,13 @@
         <v>1050</v>
       </c>
       <c r="B107" t="n">
-        <v>212.7101585736181</v>
+        <v>212.6990883081721</v>
       </c>
       <c r="C107" t="n">
         <v>74.38238232942905</v>
       </c>
       <c r="D107" t="n">
-        <v>0.9810049771335971</v>
+        <v>0.9810040071187029</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -4714,10 +4714,10 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0.1779255631626526</v>
+        <v>0.1779256376773579</v>
       </c>
       <c r="G107" t="n">
-        <v>0.0001392041141579078</v>
+        <v>0.0001392114125285029</v>
       </c>
       <c r="H107" t="n">
         <v>87.49193478402519</v>
@@ -4726,13 +4726,13 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>0.1594658240666869</v>
+        <v>0.1594835809560766</v>
       </c>
       <c r="K107" t="n">
-        <v>836.7535572031971</v>
+        <v>836.7532067734023</v>
       </c>
       <c r="L107" t="n">
-        <v>186.5511701629835</v>
+        <v>186.5413899334027</v>
       </c>
     </row>
     <row r="108">
@@ -4740,13 +4740,13 @@
         <v>1060</v>
       </c>
       <c r="B108" t="n">
-        <v>211.1153998779216</v>
+        <v>211.1041493463832</v>
       </c>
       <c r="C108" t="n">
         <v>74.32083610125613</v>
       </c>
       <c r="D108" t="n">
-        <v>0.9808674189858876</v>
+        <v>0.9808664111320993</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -4754,10 +4754,10 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0.1779265654693241</v>
+        <v>0.1779266427988588</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0001402339638316424</v>
+        <v>0.0001402415485009807</v>
       </c>
       <c r="H108" t="n">
         <v>87.47121989557711</v>
@@ -4766,13 +4766,13 @@
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>0.1594758695696524</v>
+        <v>0.1594938961788856</v>
       </c>
       <c r="K108" t="n">
-        <v>836.748843552537</v>
+        <v>836.748479889188</v>
       </c>
       <c r="L108" t="n">
-        <v>185.1811763577894</v>
+        <v>185.1711612231495</v>
       </c>
     </row>
     <row r="109">
@@ -4780,13 +4780,13 @@
         <v>1070</v>
       </c>
       <c r="B109" t="n">
-        <v>209.5205368211507</v>
+        <v>209.5091032529803</v>
       </c>
       <c r="C109" t="n">
         <v>74.25912114140056</v>
       </c>
       <c r="D109" t="n">
-        <v>0.9807267346051108</v>
+        <v>0.9807256873512643</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -4794,10 +4794,10 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0.1779277656979333</v>
+        <v>0.1779278459220924</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0001412875086275223</v>
+        <v>0.0001412953915281633</v>
       </c>
       <c r="H109" t="n">
         <v>87.45045304412957</v>
@@ -4806,13 +4806,13 @@
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>0.1594863056770858</v>
+        <v>0.1595046093402948</v>
       </c>
       <c r="K109" t="n">
-        <v>836.7431991838979</v>
+        <v>836.74282191288</v>
       </c>
       <c r="L109" t="n">
-        <v>183.8003277141843</v>
+        <v>183.7900734539039</v>
       </c>
     </row>
     <row r="110">
@@ -4820,13 +4820,13 @@
         <v>1080</v>
       </c>
       <c r="B110" t="n">
-        <v>207.9255653805196</v>
+        <v>207.9139459292111</v>
       </c>
       <c r="C110" t="n">
         <v>74.19723691365829</v>
       </c>
       <c r="D110" t="n">
-        <v>0.9805828381437752</v>
+        <v>0.9805817498579682</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -4834,10 +4834,10 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0.1779291650165933</v>
+        <v>0.1779292482173256</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0001423654121868623</v>
+        <v>0.0001423736058000053</v>
       </c>
       <c r="H110" t="n">
         <v>87.42963408783756</v>
@@ -4846,13 +4846,13 @@
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>0.1594971440631116</v>
+        <v>0.1595157323769131</v>
       </c>
       <c r="K110" t="n">
-        <v>836.7366186417355</v>
+        <v>836.7362273789159</v>
       </c>
       <c r="L110" t="n">
-        <v>182.4087043949546</v>
+        <v>182.3982067584768</v>
       </c>
     </row>
     <row r="111">
@@ -4860,13 +4860,13 @@
         <v>1090</v>
       </c>
       <c r="B111" t="n">
-        <v>206.3304814127294</v>
+        <v>206.318673153074</v>
       </c>
       <c r="C111" t="n">
         <v>74.135182879235</v>
       </c>
       <c r="D111" t="n">
-        <v>0.9804356411476908</v>
+        <v>0.9804345101237053</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -4874,10 +4874,10 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0.1779307645948744</v>
+        <v>0.1779308508563584</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0001434683589398987</v>
+        <v>0.0001434768763236351</v>
       </c>
       <c r="H111" t="n">
         <v>87.40876288424393</v>
@@ -4886,13 +4886,13 @@
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>0.1595083967790151</v>
+        <v>0.1595272776137147</v>
       </c>
       <c r="K111" t="n">
-        <v>836.7290964702594</v>
+        <v>836.7286908211363</v>
       </c>
       <c r="L111" t="n">
-        <v>181.0063945774828</v>
+        <v>180.9956492855524</v>
       </c>
     </row>
     <row r="112">
@@ -4900,13 +4900,13 @@
         <v>1100</v>
       </c>
       <c r="B112" t="n">
-        <v>204.7352806500492</v>
+        <v>204.7232805752802</v>
       </c>
       <c r="C112" t="n">
         <v>74.07295849672903</v>
       </c>
       <c r="D112" t="n">
-        <v>0.9802850524636559</v>
+        <v>0.9802838769171773</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -4914,10 +4914,10 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0.1779325656039293</v>
+        <v>0.1779326550126532</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0001445970548734281</v>
+        <v>0.000144605909692652</v>
       </c>
       <c r="H112" t="n">
         <v>87.38783929027569</v>
@@ -4926,13 +4926,13 @@
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>0.1595200762680245</v>
+        <v>0.1595392577793798</v>
       </c>
       <c r="K112" t="n">
-        <v>836.7206272129644</v>
+        <v>836.7202067723009</v>
       </c>
       <c r="L112" t="n">
-        <v>179.5934945590056</v>
+        <v>179.5824973049413</v>
       </c>
     </row>
     <row r="113">
@@ -4940,13 +4940,13 @@
         <v>1110</v>
       </c>
       <c r="B113" t="n">
-        <v>203.1399586962411</v>
+        <v>203.1277637150563</v>
       </c>
       <c r="C113" t="n">
         <v>74.01056322211429</v>
       </c>
       <c r="D113" t="n">
-        <v>0.9801309781430768</v>
+        <v>0.9801297562076906</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -4954,10 +4954,10 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0.1779345692166253</v>
+        <v>0.1779346618614694</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0001457522283337163</v>
+        <v>0.0001457614348918043</v>
       </c>
       <c r="H113" t="n">
         <v>87.36686316224009</v>
@@ -4966,13 +4966,13 @@
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>0.1595321953808091</v>
+        <v>0.1595516860223851</v>
       </c>
       <c r="K113" t="n">
-        <v>836.711205412136</v>
+        <v>836.7107697635759</v>
       </c>
       <c r="L113" t="n">
-        <v>178.1701088521335</v>
+        <v>178.1588553030866</v>
       </c>
     </row>
     <row r="114">
@@ -4980,13 +4980,13 @@
         <v>1120</v>
       </c>
       <c r="B114" t="n">
-        <v>201.5445110223237</v>
+        <v>201.5321179557774</v>
       </c>
       <c r="C114" t="n">
         <v>73.94799650872341</v>
       </c>
       <c r="D114" t="n">
-        <v>0.9799733213412911</v>
+        <v>0.9799720510642499</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -4994,10 +4994,10 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0.1779367766076818</v>
+        <v>0.1779368725800059</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0001469346308666659</v>
+        <v>0.0001469442041390456</v>
       </c>
       <c r="H114" t="n">
         <v>87.3458343558211</v>
@@ -5006,13 +5006,13 @@
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>0.1595447673917391</v>
+        <v>0.1595645759278884</v>
       </c>
       <c r="K114" t="n">
-        <v>836.7008256083263</v>
+        <v>836.7003743239934</v>
       </c>
       <c r="L114" t="n">
-        <v>176.7363502701023</v>
+        <v>176.7248360682973</v>
       </c>
     </row>
     <row r="115">
@@ -5020,13 +5020,13 @@
         <v>1130</v>
       </c>
       <c r="B115" t="n">
-        <v>199.9489329621642</v>
+        <v>199.9363385404229</v>
       </c>
       <c r="C115" t="n">
         <v>73.88525780723035</v>
       </c>
       <c r="D115" t="n">
-        <v>0.9798119822123665</v>
+        <v>0.979810661550103</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -5034,10 +5034,10 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0.1779391889538157</v>
+        <v>0.1779392883475495</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0001481450380973622</v>
+        <v>0.0001481549937670976</v>
       </c>
       <c r="H115" t="n">
         <v>87.3247527260754</v>
@@ -5046,13 +5046,13 @@
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>0.1595578060159464</v>
+        <v>0.1595779415354536</v>
       </c>
       <c r="K115" t="n">
-        <v>836.6894823397985</v>
+        <v>836.689014979878</v>
       </c>
       <c r="L115" t="n">
-        <v>175.2923400012385</v>
+        <v>175.2805607651842</v>
       </c>
     </row>
     <row r="116">
@@ -5060,13 +5060,13 @@
         <v>1140</v>
       </c>
       <c r="B116" t="n">
-        <v>198.3532197078918</v>
+        <v>198.3404205668462</v>
       </c>
       <c r="C116" t="n">
         <v>73.82234656563293</v>
       </c>
       <c r="D116" t="n">
-        <v>0.9796468577991164</v>
+        <v>0.9796454846124947</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -5074,10 +5074,10 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0.1779418074338927</v>
+        <v>0.1779419103456309</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0001493842506512605</v>
+        <v>0.0001493946051467939</v>
       </c>
       <c r="H116" t="n">
         <v>87.30361812742875</v>
@@ -5086,13 +5086,13 @@
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>0.1595713254272416</v>
+        <v>0.1595917973576689</v>
       </c>
       <c r="K116" t="n">
-        <v>836.6771701419417</v>
+        <v>836.676686254241</v>
       </c>
       <c r="L116" t="n">
-        <v>173.8382076721294</v>
+        <v>173.826158997794</v>
       </c>
     </row>
     <row r="117">
@@ -5100,13 +5100,13 @@
         <v>1150</v>
       </c>
       <c r="B117" t="n">
-        <v>196.7573663051225</v>
+        <v>196.7443589828491</v>
       </c>
       <c r="C117" t="n">
         <v>73.75926222923579</v>
       </c>
       <c r="D117" t="n">
-        <v>0.9794778419180682</v>
+        <v>0.9794764139673484</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -5114,10 +5114,10 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0.1779446332290862</v>
+        <v>0.1779447397581879</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0001506530951194269</v>
+        <v>0.0001506638656546248</v>
       </c>
       <c r="H117" t="n">
         <v>87.28243041367206</v>
@@ -5126,13 +5126,13 @@
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>0.1595853402769315</v>
+        <v>0.1596061583997092</v>
       </c>
       <c r="K117" t="n">
-        <v>836.6638835466509</v>
+        <v>836.6633826661415</v>
       </c>
       <c r="L117" t="n">
-        <v>172.374091399006</v>
+        <v>172.3617688609471</v>
       </c>
     </row>
     <row r="118">
@@ -5140,13 +5140,13 @@
         <v>1160</v>
       </c>
       <c r="B118" t="n">
-        <v>195.5246121777159</v>
+        <v>195.5114404391267</v>
       </c>
       <c r="C118" t="n">
         <v>73.72200503130603</v>
       </c>
       <c r="D118" t="n">
-        <v>0.9793048250390975</v>
+        <v>0.9793033399785974</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -5154,10 +5154,10 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>0.1779476675230442</v>
+        <v>0.1779477777717369</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0001519524250704117</v>
+        <v>0.0001519636296870778</v>
       </c>
       <c r="H118" t="n">
         <v>87.2699194556555</v>
@@ -5166,13 +5166,13 @@
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>0.123275412740663</v>
+        <v>0.1232918543722426</v>
       </c>
       <c r="K118" t="n">
-        <v>836.6496170816725</v>
+        <v>836.6490987300094</v>
       </c>
       <c r="L118" t="n">
-        <v>170.9001378268618</v>
+        <v>170.8875369793006</v>
       </c>
     </row>
     <row r="119">
@@ -5180,13 +5180,13 @@
         <v>1170</v>
       </c>
       <c r="B119" t="n">
-        <v>194.2916918672387</v>
+        <v>194.2783534772451</v>
       </c>
       <c r="C119" t="n">
         <v>73.68474996703048</v>
       </c>
       <c r="D119" t="n">
-        <v>0.979167051803317</v>
+        <v>0.9791655206679636</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -5194,10 +5194,10 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0.1779520612580581</v>
+        <v>0.1779521744744191</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0001529885411611023</v>
+        <v>0.0001530000962502712</v>
       </c>
       <c r="H119" t="n">
         <v>87.25741097189142</v>
@@ -5206,13 +5206,13 @@
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>0.1232920310477158</v>
+        <v>0.1233086961881636</v>
       </c>
       <c r="K119" t="n">
-        <v>836.6289597389534</v>
+        <v>836.6284274606232</v>
       </c>
       <c r="L119" t="n">
-        <v>169.7427153077648</v>
+        <v>169.7298957588937</v>
       </c>
     </row>
     <row r="120">
@@ -5220,13 +5220,13 @@
         <v>1180</v>
       </c>
       <c r="B120" t="n">
-        <v>193.0586010735594</v>
+        <v>193.0450937448028</v>
       </c>
       <c r="C120" t="n">
         <v>73.64749703628695</v>
       </c>
       <c r="D120" t="n">
-        <v>0.9790267212730356</v>
+        <v>0.9790251425204579</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -5234,10 +5234,10 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>0.1779566009164997</v>
+        <v>0.1779567171662656</v>
       </c>
       <c r="G120" t="n">
-        <v>0.0001540441923660395</v>
+        <v>0.0001540561098145828</v>
       </c>
       <c r="H120" t="n">
         <v>87.24490496178987</v>
@@ -5246,13 +5246,13 @@
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>0.1233090793679283</v>
+        <v>0.123325973244228</v>
       </c>
       <c r="K120" t="n">
-        <v>836.607617402114</v>
+        <v>836.607070890349</v>
       </c>
       <c r="L120" t="n">
-        <v>168.5794835156946</v>
+        <v>168.5664425702711</v>
       </c>
     </row>
     <row r="121">
@@ -5260,13 +5260,13 @@
         <v>1190</v>
       </c>
       <c r="B121" t="n">
-        <v>191.8253353966442</v>
+        <v>191.811656787916</v>
       </c>
       <c r="C121" t="n">
         <v>73.61024623895332</v>
       </c>
       <c r="D121" t="n">
-        <v>0.9788837769692903</v>
+        <v>0.9788821489995643</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -5274,10 +5274,10 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0.1779612871903629</v>
+        <v>0.1779614065408065</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0001551198208814626</v>
+        <v>0.0001551321130276618</v>
       </c>
       <c r="H121" t="n">
         <v>87.23240142476105</v>
@@ -5286,13 +5286,13 @@
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>0.1233265676915229</v>
+        <v>0.1233436956886746</v>
       </c>
       <c r="K121" t="n">
-        <v>836.585586923053</v>
+        <v>836.5850258639846</v>
       </c>
       <c r="L121" t="n">
-        <v>167.4105232980101</v>
+        <v>167.3972582519309</v>
       </c>
     </row>
     <row r="122">
@@ -5300,13 +5300,13 @@
         <v>1200</v>
       </c>
       <c r="B122" t="n">
-        <v>190.5918903338943</v>
+        <v>190.5780380484987</v>
       </c>
       <c r="C122" t="n">
         <v>73.57299757490739</v>
       </c>
       <c r="D122" t="n">
-        <v>0.9787381609938332</v>
+        <v>0.9787364821470433</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -5314,10 +5314,10 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>0.1779661207750748</v>
+        <v>0.1779662432950527</v>
       </c>
       <c r="G122" t="n">
-        <v>0.0001562158804332012</v>
+        <v>0.0001562285600862746</v>
       </c>
       <c r="H122" t="n">
         <v>87.21990036021533</v>
@@ -5326,13 +5326,13 @@
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>0.1233445062749906</v>
+        <v>0.1233618739417366</v>
       </c>
       <c r="K122" t="n">
-        <v>836.5628651415946</v>
+        <v>836.5622892140376</v>
       </c>
       <c r="L122" t="n">
-        <v>166.2359186252105</v>
+        <v>166.2224267657493</v>
       </c>
     </row>
     <row r="123">
@@ -5340,13 +5340,13 @@
         <v>1210</v>
       </c>
       <c r="B123" t="n">
-        <v>189.3582612773948</v>
+        <v>189.3442328614512</v>
       </c>
       <c r="C123" t="n">
         <v>73.53575104402694</v>
       </c>
       <c r="D123" t="n">
-        <v>0.9785898139858097</v>
+        <v>0.9785880825394913</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -5354,10 +5354,10 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>0.177971102369603</v>
+        <v>0.1779712281296039</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0001573328366442901</v>
+        <v>0.0001573459171048912</v>
       </c>
       <c r="H123" t="n">
         <v>87.20740176756318</v>
@@ -5366,13 +5366,13 @@
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>0.1233629056499491</v>
+        <v>0.1233805187047438</v>
       </c>
       <c r="K123" t="n">
-        <v>836.5394488850454</v>
+        <v>836.5388577602723</v>
       </c>
       <c r="L123" t="n">
-        <v>165.0557565829136</v>
+        <v>165.0420351889257</v>
       </c>
     </row>
     <row r="124">
@@ -5380,13 +5380,13 @@
         <v>1220</v>
       </c>
       <c r="B124" t="n">
-        <v>188.1244435110711</v>
+        <v>188.1102364517552</v>
       </c>
       <c r="C124" t="n">
         <v>73.49850664618987</v>
       </c>
       <c r="D124" t="n">
-        <v>0.978438675076763</v>
+        <v>0.978436889243219</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -5394,10 +5394,10 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>0.177976232676565</v>
+        <v>0.1779763617487608</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0001584711674173294</v>
+        <v>0.0001584846624990735</v>
       </c>
       <c r="H124" t="n">
         <v>87.19490564621539</v>
@@ -5406,13 +5406,13 @@
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>0.1233817766323658</v>
+        <v>0.1233996409696037</v>
       </c>
       <c r="K124" t="n">
-        <v>836.5153349677317</v>
+        <v>836.5147283092399</v>
       </c>
       <c r="L124" t="n">
-        <v>163.8701273605906</v>
+        <v>163.8561737026828</v>
       </c>
     </row>
     <row r="125">
@@ -5420,13 +5420,13 @@
         <v>1230</v>
       </c>
       <c r="B125" t="n">
-        <v>186.8904322077495</v>
+        <v>186.8760439314683</v>
       </c>
       <c r="C125" t="n">
         <v>73.46126438127396</v>
       </c>
       <c r="D125" t="n">
-        <v>0.9782846818438894</v>
+        <v>0.9782828397673757</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -5434,10 +5434,10 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0.1779815124023428</v>
+        <v>0.1779816448606416</v>
       </c>
       <c r="G125" t="n">
-        <v>0.000159631363332308</v>
+        <v>0.0001596452873843837</v>
       </c>
       <c r="H125" t="n">
         <v>87.18241199558271</v>
@@ -5446,13 +5446,13 @@
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>0.12340113033217</v>
+        <v>0.1234192520286831</v>
       </c>
       <c r="K125" t="n">
-        <v>836.4905201905228</v>
+        <v>836.4898976537924</v>
       </c>
       <c r="L125" t="n">
-        <v>162.6791242370064</v>
+        <v>162.6649355776692</v>
       </c>
     </row>
     <row r="126">
@@ -5460,13 +5460,13 @@
         <v>1240</v>
       </c>
       <c r="B126" t="n">
-        <v>185.6562224261168</v>
+        <v>185.6416502966173</v>
       </c>
       <c r="C126" t="n">
         <v>73.42402424915713</v>
       </c>
       <c r="D126" t="n">
-        <v>0.9781277702614577</v>
+        <v>0.9781258700152264</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -5474,10 +5474,10 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0.1779869422572009</v>
+        <v>0.1779870781773013</v>
       </c>
       <c r="G126" t="n">
-        <v>0.0001608139280606478</v>
+        <v>0.0001608282959915777</v>
       </c>
       <c r="H126" t="n">
         <v>87.1699208150762</v>
@@ -5486,13 +5486,13 @@
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>0.1234209781632689</v>
+        <v>0.1234393634851082</v>
       </c>
       <c r="K126" t="n">
-        <v>836.4650013403349</v>
+        <v>836.4643625725765</v>
       </c>
       <c r="L126" t="n">
-        <v>161.4828435623166</v>
+        <v>161.4684171560157</v>
       </c>
     </row>
     <row r="127">
@@ -5500,13 +5500,13 @@
         <v>1250</v>
       </c>
       <c r="B127" t="n">
-        <v>184.4218091075769</v>
+        <v>184.4070504239822</v>
       </c>
       <c r="C127" t="n">
         <v>73.38678624971726</v>
       </c>
       <c r="D127" t="n">
-        <v>0.9779678746503052</v>
+        <v>0.9779659142335024</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -5514,10 +5514,10 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>0.1779925229554085</v>
+        <v>0.1779926624148568</v>
       </c>
       <c r="G127" t="n">
-        <v>0.0001620193787962736</v>
+        <v>0.0001620342060988912</v>
       </c>
       <c r="H127" t="n">
         <v>87.15743210410706</v>
@@ -5526,13 +5526,13 @@
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>0.1234413318539914</v>
+        <v>0.1234599872635065</v>
       </c>
       <c r="K127" t="n">
-        <v>836.438775189617</v>
+        <v>836.4381198295109</v>
       </c>
       <c r="L127" t="n">
-        <v>160.2813847367777</v>
+        <v>160.2667178300012</v>
       </c>
     </row>
     <row r="128">
@@ -5540,13 +5540,13 @@
         <v>1260</v>
       </c>
       <c r="B128" t="n">
-        <v>183.1871870729971</v>
+        <v>183.1722390677701</v>
       </c>
       <c r="C128" t="n">
         <v>73.34955038283215</v>
       </c>
       <c r="D128" t="n">
-        <v>0.9778049276253201</v>
+        <v>0.9778029049597258</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -5554,10 +5554,10 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>0.1779982552153655</v>
+        <v>0.1779983982936147</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0001632482467045541</v>
+        <v>0.0001632635494822663</v>
       </c>
       <c r="H128" t="n">
         <v>87.14494586208656</v>
@@ -5566,13 +5566,13 @@
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>0.123462203457979</v>
+        <v>0.1234811356212118</v>
       </c>
       <c r="K128" t="n">
-        <v>836.4118384958182</v>
+        <v>836.4111661732428</v>
       </c>
       <c r="L128" t="n">
-        <v>159.0748501860314</v>
+        <v>159.0599400172907</v>
       </c>
     </row>
     <row r="129">
@@ -5580,13 +5580,13 @@
         <v>1270</v>
       </c>
       <c r="B129" t="n">
-        <v>181.9523510193416</v>
+        <v>181.9372108561705</v>
       </c>
       <c r="C129" t="n">
         <v>73.31231664837969</v>
       </c>
       <c r="D129" t="n">
-        <v>0.9776388600408076</v>
+        <v>0.9776367729674108</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -5594,10 +5594,10 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>0.1780041397597333</v>
+        <v>0.1780042865382051</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0001645010773900154</v>
+        <v>0.0001645168723844281</v>
       </c>
       <c r="H129" t="n">
         <v>87.13246208842621</v>
@@ -5606,13 +5606,13 @@
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>0.1234836053655489</v>
+        <v>0.123502821159957</v>
       </c>
       <c r="K129" t="n">
-        <v>836.3841880008347</v>
+        <v>836.3834983365839</v>
       </c>
       <c r="L129" t="n">
-        <v>157.8633453329312</v>
+        <v>157.8481891327108</v>
       </c>
     </row>
     <row r="130">
@@ -5620,13 +5620,13 @@
         <v>1280</v>
       </c>
       <c r="B130" t="n">
-        <v>180.7172955161861</v>
+        <v>180.7019602877897</v>
       </c>
       <c r="C130" t="n">
         <v>73.27508504623779</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9774696009336409</v>
+        <v>0.9774674472090393</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -5634,10 +5634,10 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>0.1780101773155709</v>
+        <v>0.1780103278777187</v>
       </c>
       <c r="G130" t="n">
-        <v>0.0001657784313837726</v>
+        <v>0.00016579473600376</v>
       </c>
       <c r="H130" t="n">
         <v>87.11998078253774</v>
@@ -5646,13 +5646,13 @@
         <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>0.1235055503155526</v>
+        <v>0.1235250568380799</v>
       </c>
       <c r="K130" t="n">
-        <v>836.3558204304361</v>
+        <v>836.3551130359261</v>
       </c>
       <c r="L130" t="n">
-        <v>156.6469785658812</v>
+        <v>156.631573556535</v>
       </c>
     </row>
     <row r="131">
@@ -5660,13 +5660,13 @@
         <v>1290</v>
       </c>
       <c r="B131" t="n">
-        <v>179.4820150021085</v>
+        <v>179.466481727957</v>
       </c>
       <c r="C131" t="n">
         <v>73.23785557628423</v>
       </c>
       <c r="D131" t="n">
-        <v>0.9772970774640823</v>
+        <v>0.9772948547566974</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -5674,10 +5674,10 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>0.178016368614474</v>
+        <v>0.1780165230458502</v>
       </c>
       <c r="G131" t="n">
-        <v>0.0001670808846516894</v>
+        <v>0.0001670977170039927</v>
       </c>
       <c r="H131" t="n">
         <v>87.10750194383283</v>
@@ -5686,13 +5686,13 @@
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>0.1235280514077566</v>
+        <v>0.1235478559832696</v>
       </c>
       <c r="K131" t="n">
-        <v>836.32673249367</v>
+        <v>836.3260069706337</v>
       </c>
       <c r="L131" t="n">
-        <v>155.4258612036662</v>
+        <v>155.4102045992569</v>
       </c>
     </row>
     <row r="132">
@@ -5700,13 +5700,13 @@
         <v>1300</v>
       </c>
       <c r="B132" t="n">
-        <v>178.2465037809508</v>
+        <v>178.2307694048982</v>
       </c>
       <c r="C132" t="n">
         <v>73.20062823839703</v>
       </c>
       <c r="D132" t="n">
-        <v>0.9771212148541634</v>
+        <v>0.9771189207402591</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -5714,10 +5714,10 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>0.1780227143927209</v>
+        <v>0.1780228727810457</v>
       </c>
       <c r="G132" t="n">
-        <v>0.0001684090291243258</v>
+        <v>0.0001684264080457749</v>
       </c>
       <c r="H132" t="n">
         <v>87.0950255717236</v>
@@ -5726,13 +5726,13 @@
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>0.1235511221157717</v>
+        <v>0.1235712323058809</v>
       </c>
       <c r="K132" t="n">
-        <v>836.2969208822442</v>
+        <v>836.2961768224148</v>
       </c>
       <c r="L132" t="n">
-        <v>154.2001074567575</v>
+        <v>154.1841964628343</v>
       </c>
     </row>
     <row r="133">
@@ -5740,13 +5740,13 @@
         <v>1310</v>
       </c>
       <c r="B133" t="n">
-        <v>177.0107560179452</v>
+        <v>176.9948174057697</v>
       </c>
       <c r="C133" t="n">
         <v>73.16340303245397</v>
       </c>
       <c r="D133" t="n">
-        <v>0.9769419363234975</v>
+        <v>0.9769395682829901</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -5754,10 +5754,10 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>0.1780292153914229</v>
+        <v>0.1780293778266561</v>
       </c>
       <c r="G133" t="n">
-        <v>0.0001697634732498103</v>
+        <v>0.0001697814183412642</v>
       </c>
       <c r="H133" t="n">
         <v>87.08255166562211</v>
@@ -5766,13 +5766,13 @@
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>0.1235747763005624</v>
+        <v>0.1235951999128487</v>
       </c>
       <c r="K133" t="n">
-        <v>836.2663822698868</v>
+        <v>836.2656192546673</v>
       </c>
       <c r="L133" t="n">
-        <v>152.9698343850788</v>
+        <v>152.9536661983918</v>
       </c>
     </row>
     <row r="134">
@@ -5780,13 +5780,13 @@
         <v>1320</v>
       </c>
       <c r="B134" t="n">
-        <v>175.4125334131458</v>
+        <v>175.396328490425</v>
       </c>
       <c r="C134" t="n">
         <v>73.1041723466069</v>
       </c>
       <c r="D134" t="n">
-        <v>0.9767591630223977</v>
+        <v>0.9767567184344471</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -5794,10 +5794,10 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>0.1780358723566796</v>
+        <v>0.1780360389310958</v>
       </c>
       <c r="G134" t="n">
-        <v>0.0001711448425708227</v>
+        <v>0.000171163374232938</v>
       </c>
       <c r="H134" t="n">
         <v>87.06270748706801</v>
@@ -5806,13 +5806,13 @@
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>0.1598222604799412</v>
+        <v>0.1598488915344708</v>
       </c>
       <c r="K134" t="n">
-        <v>836.2351133116794</v>
+        <v>836.2343309117981</v>
       </c>
       <c r="L134" t="n">
-        <v>151.735161852236</v>
+        <v>151.718733660381</v>
       </c>
     </row>
     <row r="135">
@@ -5820,13 +5820,13 @@
         <v>1330</v>
       </c>
       <c r="B135" t="n">
-        <v>173.8140812020315</v>
+        <v>173.7976045757319</v>
       </c>
       <c r="C135" t="n">
         <v>73.0449766541675</v>
       </c>
       <c r="D135" t="n">
-        <v>0.9765190239659725</v>
+        <v>0.9765164769539061</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -5834,10 +5834,10 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>0.1780428681033445</v>
+        <v>0.1780430401266459</v>
       </c>
       <c r="G135" t="n">
-        <v>0.0001729593522756097</v>
+        <v>0.0001729786691615025</v>
       </c>
       <c r="H135" t="n">
         <v>87.04287946112481</v>
@@ -5846,13 +5846,13 @@
         <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>0.1598452211114245</v>
+        <v>0.1598723914693078</v>
       </c>
       <c r="K135" t="n">
-        <v>836.2022555563125</v>
+        <v>836.2014476265412</v>
       </c>
       <c r="L135" t="n">
-        <v>150.1433142873841</v>
+        <v>150.1265474728183</v>
       </c>
     </row>
     <row r="136">
@@ -5860,13 +5860,13 @@
         <v>1340</v>
       </c>
       <c r="B136" t="n">
-        <v>172.2153914262274</v>
+        <v>172.1986375236641</v>
       </c>
       <c r="C136" t="n">
         <v>72.98581592614767</v>
       </c>
       <c r="D136" t="n">
-        <v>0.9762727935517922</v>
+        <v>0.97627013938372</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -5874,10 +5874,10 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>0.1780501276374543</v>
+        <v>0.1780503052695202</v>
       </c>
       <c r="G136" t="n">
-        <v>0.0001748208428060931</v>
+        <v>0.000174840981807388</v>
       </c>
       <c r="H136" t="n">
         <v>87.02306756924675</v>
@@ -5886,13 +5886,13 @@
         <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>0.1598689775804065</v>
+        <v>0.1598967052067858</v>
       </c>
       <c r="K136" t="n">
-        <v>836.1681615689761</v>
+        <v>836.1673273649695</v>
       </c>
       <c r="L136" t="n">
-        <v>148.5445898259572</v>
+        <v>148.5274797659706</v>
       </c>
     </row>
     <row r="137">
@@ -5900,13 +5900,13 @@
         <v>1350</v>
       </c>
       <c r="B137" t="n">
-        <v>170.6164558625633</v>
+        <v>170.5994189237434</v>
       </c>
       <c r="C137" t="n">
         <v>72.92669013359398</v>
       </c>
       <c r="D137" t="n">
-        <v>0.9760202886991838</v>
+        <v>0.9760175223948179</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -5914,10 +5914,10 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>0.1780576524166818</v>
+        <v>0.1780578358227529</v>
       </c>
       <c r="G137" t="n">
-        <v>0.0001767307716667812</v>
+        <v>0.0001767517716535726</v>
       </c>
       <c r="H137" t="n">
         <v>87.00327179291673</v>
@@ -5926,13 +5926,13 @@
         <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>0.1598935563664171</v>
+        <v>0.1599218599920657</v>
       </c>
       <c r="K137" t="n">
-        <v>836.132824807385</v>
+        <v>836.1319635600515</v>
       </c>
       <c r="L137" t="n">
-        <v>146.9392689385308</v>
+        <v>146.9218109935384</v>
       </c>
     </row>
     <row r="138">
@@ -5940,13 +5940,13 @@
         <v>1360</v>
       </c>
       <c r="B138" t="n">
-        <v>169.0172660127263</v>
+        <v>168.9999400822994</v>
       </c>
       <c r="C138" t="n">
         <v>72.86759924758815</v>
       </c>
       <c r="D138" t="n">
-        <v>0.9757613198507125</v>
+        <v>0.9757584361663032</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -5954,10 +5954,10 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>0.1780654439080478</v>
+        <v>0.1780656332589615</v>
       </c>
       <c r="G138" t="n">
-        <v>0.0001786906502762002</v>
+        <v>0.0001787125522199477</v>
       </c>
       <c r="H138" t="n">
         <v>86.98349211364639</v>
@@ -5966,13 +5966,13 @@
         <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>0.1599189849836941</v>
+        <v>0.1599478841444062</v>
       </c>
       <c r="K138" t="n">
-        <v>836.0962386986919</v>
+        <v>836.0953496131126</v>
       </c>
       <c r="L138" t="n">
-        <v>145.3276394009408</v>
+        <v>145.3098289128493</v>
       </c>
     </row>
     <row r="139">
@@ -5980,13 +5980,13 @@
         <v>1370</v>
       </c>
       <c r="B139" t="n">
-        <v>167.4178130924005</v>
+        <v>167.4001920111896</v>
       </c>
       <c r="C139" t="n">
         <v>72.80854323924746</v>
       </c>
       <c r="D139" t="n">
-        <v>0.9754956906845489</v>
+        <v>0.9754926840967613</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -5994,10 +5994,10 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0.1780735035883296</v>
+        <v>0.1780736990607675</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0001807020464789273</v>
+        <v>0.0001807248935842042</v>
       </c>
       <c r="H139" t="n">
         <v>86.9637285129762</v>
@@ -6006,13 +6006,13 @@
         <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>0.1599452920325804</v>
+        <v>0.1599748071109749</v>
       </c>
       <c r="K139" t="n">
-        <v>836.058396637785</v>
+        <v>836.0574788920768</v>
       </c>
       <c r="L139" t="n">
-        <v>143.7099960607674</v>
+        <v>143.6918283510279</v>
       </c>
     </row>
     <row r="140">
@@ -6020,13 +6020,13 @@
         <v>1380</v>
       </c>
       <c r="B140" t="n">
-        <v>165.8180880198596</v>
+        <v>165.8001654159496</v>
       </c>
       <c r="C140" t="n">
         <v>72.74952207972331</v>
       </c>
       <c r="D140" t="n">
-        <v>0.9752231978106151</v>
+        <v>0.9752200624992615</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -6034,10 +6034,10 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>0.1780818329444898</v>
+        <v>0.178082034721239</v>
       </c>
       <c r="G140" t="n">
-        <v>0.000182766587205168</v>
+        <v>0.0001827904250509932</v>
       </c>
       <c r="H140" t="n">
         <v>86.943980972475</v>
@@ -6046,13 +6046,13 @@
         <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>0.1599725072540951</v>
+        <v>0.1600026595240066</v>
       </c>
       <c r="K140" t="n">
-        <v>836.0192919854959</v>
+        <v>836.0183447296129</v>
       </c>
       <c r="L140" t="n">
-        <v>142.0866405876891</v>
+        <v>142.0681109550171</v>
       </c>
     </row>
     <row r="141">
@@ -6060,13 +6060,13 @@
         <v>1390</v>
       </c>
       <c r="B141" t="n">
-        <v>164.2180814039805</v>
+        <v>164.1998506833339</v>
       </c>
       <c r="C141" t="n">
         <v>72.69053574020302</v>
       </c>
       <c r="D141" t="n">
-        <v>0.9749436304494009</v>
+        <v>0.9749403602789365</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -6074,10 +6074,10 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>0.178090433474126</v>
+        <v>0.1780906417443544</v>
       </c>
       <c r="G141" t="n">
-        <v>0.0001848859612883107</v>
+        <v>0.0001849108379798658</v>
       </c>
       <c r="H141" t="n">
         <v>86.92424947374047</v>
@@ -6086,13 +6086,13 @@
         <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>0.1600006615879132</v>
+        <v>0.1600314732615587</v>
       </c>
       <c r="K141" t="n">
-        <v>835.9789180667123</v>
+        <v>835.9779404211804</v>
       </c>
       <c r="L141" t="n">
-        <v>140.4578812079936</v>
+        <v>140.4389849257341</v>
       </c>
     </row>
     <row r="142">
@@ -6100,13 +6100,13 @@
         <v>1400</v>
       </c>
       <c r="B142" t="n">
-        <v>162.6177835316404</v>
+        <v>162.5992378682126</v>
       </c>
       <c r="C142" t="n">
         <v>72.6315841919079</v>
       </c>
       <c r="D142" t="n">
-        <v>0.9746567700922545</v>
+        <v>0.9746533585919334</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -6114,10 +6114,10 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0.1780993066859441</v>
+        <v>0.1780995216454904</v>
       </c>
       <c r="G142" t="n">
-        <v>0.0001870619224517622</v>
+        <v>0.0001870878887833671</v>
       </c>
       <c r="H142" t="n">
         <v>86.90453399839862</v>
@@ -6126,13 +6126,13 @@
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>0.1600297872340062</v>
+        <v>0.1600612815121333</v>
       </c>
       <c r="K142" t="n">
-        <v>835.9372681683861</v>
+        <v>835.9362592229705</v>
       </c>
       <c r="L142" t="n">
-        <v>138.8240324235725</v>
+        <v>138.8047647366897</v>
       </c>
     </row>
     <row r="143">
@@ -6140,13 +6140,13 @@
         <v>1410</v>
       </c>
       <c r="B143" t="n">
-        <v>161.0171843544582</v>
+        <v>160.998316679778</v>
       </c>
       <c r="C143" t="n">
         <v>72.57266740609487</v>
       </c>
       <c r="D143" t="n">
-        <v>0.9743623901418523</v>
+        <v>0.9743588304844327</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -6154,10 +6154,10 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0.1781084541002537</v>
+        <v>0.1781086759519345</v>
       </c>
       <c r="G143" t="n">
-        <v>0.0001892962924772852</v>
+        <v>0.0001893234021075921</v>
       </c>
       <c r="H143" t="n">
         <v>86.88483452810405</v>
@@ -6166,13 +6166,13 @@
         <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>0.1600599177182214</v>
+        <v>0.160092118843457</v>
       </c>
       <c r="K143" t="n">
-        <v>835.8943355374367</v>
+        <v>835.8932943497337</v>
       </c>
       <c r="L143" t="n">
-        <v>137.1854147157974</v>
+        <v>137.1657708374652</v>
       </c>
     </row>
     <row r="144">
@@ -6180,13 +6180,13 @@
         <v>1420</v>
       </c>
       <c r="B144" t="n">
-        <v>159.4162734748372</v>
+        <v>159.3970764670206</v>
       </c>
       <c r="C144" t="n">
         <v>72.51378535405547</v>
       </c>
       <c r="D144" t="n">
-        <v>0.9740602555314546</v>
+        <v>0.9740565405103325</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -6194,10 +6194,10 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0.1781178772494912</v>
+        <v>0.178118106203424</v>
       </c>
       <c r="G144" t="n">
-        <v>0.0001915909645681015</v>
+        <v>0.000191619274208559</v>
       </c>
       <c r="H144" t="n">
         <v>86.86515104453977</v>
@@ -6206,13 +6206,13 @@
         <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>0.1600910879620967</v>
+        <v>0.1601240212757397</v>
       </c>
       <c r="K144" t="n">
-        <v>835.8501133785377</v>
+        <v>835.849038972489</v>
       </c>
       <c r="L144" t="n">
-        <v>135.5423542347092</v>
+        <v>135.5223293424796</v>
       </c>
     </row>
     <row r="145">
@@ -6220,13 +6220,13 @@
         <v>1430</v>
       </c>
       <c r="B145" t="n">
-        <v>157.8150401312648</v>
+        <v>157.7955062034231</v>
       </c>
       <c r="C145" t="n">
         <v>72.4549380071154</v>
       </c>
       <c r="D145" t="n">
-        <v>0.9737501223214287</v>
+        <v>0.9737462443260656</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -6234,10 +6234,10 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0.1781275776787677</v>
+        <v>0.1781278139527137</v>
       </c>
       <c r="G145" t="n">
-        <v>0.0001939479069211355</v>
+        <v>0.0001939774765388756</v>
       </c>
       <c r="H145" t="n">
         <v>86.84548352941695</v>
@@ -6246,13 +6246,13 @@
         <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>0.1601233343572381</v>
+        <v>0.1601570263597561</v>
       </c>
       <c r="K145" t="n">
-        <v>835.8045948517816</v>
+        <v>835.8034862161043</v>
       </c>
       <c r="L145" t="n">
-        <v>133.8951824740178</v>
+        <v>133.8747717055428</v>
       </c>
     </row>
     <row r="146">
@@ -6260,13 +6260,13 @@
         <v>1440</v>
       </c>
       <c r="B146" t="n">
-        <v>156.2134731828187</v>
+        <v>156.1935944708218</v>
       </c>
       <c r="C146" t="n">
         <v>72.39612533663592</v>
       </c>
       <c r="D146" t="n">
-        <v>0.9734317372714083</v>
+        <v>0.9734276882609076</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -6274,10 +6274,10 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0.1781375569464471</v>
+        <v>0.178137800766172</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0001963691665240053</v>
+        <v>0.0001964000595604212</v>
       </c>
       <c r="H146" t="n">
         <v>86.82583196447538</v>
@@ -6286,13 +6286,13 @@
         <v>0</v>
       </c>
       <c r="J146" t="n">
-        <v>0.1601566948446152</v>
+        <v>0.1601911732601314</v>
       </c>
       <c r="K146" t="n">
-        <v>835.7577730702174</v>
+        <v>835.756629156745</v>
       </c>
       <c r="L146" t="n">
-        <v>132.2442359324507</v>
+        <v>132.2234343807322</v>
       </c>
     </row>
     <row r="147">
@@ -6300,13 +6300,13 @@
         <v>1450</v>
       </c>
       <c r="B147" t="n">
-        <v>154.6115610928271</v>
+        <v>154.5913294423794</v>
       </c>
       <c r="C147" t="n">
         <v>72.33734731401205</v>
       </c>
       <c r="D147" t="n">
-        <v>0.9731048373863128</v>
+        <v>0.973100608860984</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -6314,10 +6314,10 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0.1781478166247542</v>
+        <v>0.1781480682244106</v>
       </c>
       <c r="G147" t="n">
-        <v>0.0001988568731937278</v>
+        <v>0.0001988891568001361</v>
       </c>
       <c r="H147" t="n">
         <v>86.80619633148278</v>
@@ -6326,13 +6326,13 @@
         <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>0.1601912089991585</v>
+        <v>0.1602265028442378</v>
       </c>
       <c r="K147" t="n">
-        <v>835.7096410972482</v>
+        <v>835.7084608191759</v>
       </c>
       <c r="L147" t="n">
-        <v>130.5898557620402</v>
+        <v>130.568658470181</v>
       </c>
     </row>
     <row r="148">
@@ -6340,13 +6340,13 @@
         <v>1460</v>
       </c>
       <c r="B148" t="n">
-        <v>153.0092919116262</v>
+        <v>152.9886988646078</v>
       </c>
       <c r="C148" t="n">
         <v>72.27860391067418</v>
       </c>
       <c r="D148" t="n">
-        <v>0.9727691494343009</v>
+        <v>0.9727647324050362</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -6354,10 +6354,10 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>0.1781583583004144</v>
+        <v>0.1781586179229465</v>
       </c>
       <c r="G148" t="n">
-        <v>0.0002014132438755718</v>
+        <v>0.0002014469891674928</v>
       </c>
       <c r="H148" t="n">
         <v>86.78657661223528</v>
@@ -6366,13 +6366,13 @@
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>0.1602269181200847</v>
+        <v>0.1602630577771584</v>
       </c>
       <c r="K148" t="n">
-        <v>835.660191943885</v>
+        <v>835.6589741739137</v>
       </c>
       <c r="L148" t="n">
-        <v>128.9323874039885</v>
+        <v>128.9107893594161</v>
       </c>
     </row>
     <row r="149">
@@ -6380,13 +6380,13 @@
         <v>1470</v>
       </c>
       <c r="B149" t="n">
-        <v>151.4066532583522</v>
+        <v>151.3856900383757</v>
       </c>
       <c r="C149" t="n">
         <v>72.21989509808634</v>
       </c>
       <c r="D149" t="n">
-        <v>0.9724243894345734</v>
+        <v>0.9724197743898437</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -6394,10 +6394,10 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0.1781691835753295</v>
+        <v>0.1781694514729012</v>
       </c>
       <c r="G149" t="n">
-        <v>0.0002040405872221439</v>
+        <v>0.0002040758695538896</v>
       </c>
       <c r="H149" t="n">
         <v>86.76697278855693</v>
@@ -6406,13 +6406,13 @@
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>0.1602638653274057</v>
+        <v>0.1603008826232021</v>
       </c>
       <c r="K149" t="n">
-        <v>835.6094185658411</v>
+        <v>835.6081621342124</v>
       </c>
       <c r="L149" t="n">
-        <v>127.2721802127853</v>
+        <v>127.250176340921</v>
       </c>
     </row>
     <row r="150">
@@ -6420,13 +6420,13 @@
         <v>1480</v>
       </c>
       <c r="B150" t="n">
-        <v>149.8036323017009</v>
+        <v>149.7822897988306</v>
       </c>
       <c r="C150" t="n">
         <v>72.16122084774781</v>
       </c>
       <c r="D150" t="n">
-        <v>0.9720702621127558</v>
+        <v>0.9720654389830108</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -6434,10 +6434,10 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>0.1781802940672891</v>
+        <v>0.1781805705017373</v>
       </c>
       <c r="G150" t="n">
-        <v>0.0002067413084745698</v>
+        <v>0.0002067782077360041</v>
       </c>
       <c r="H150" t="n">
         <v>86.74738484230006</v>
@@ -6446,13 +6446,13 @@
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>0.1603020956651281</v>
+        <v>0.1603400239545142</v>
       </c>
       <c r="K150" t="n">
-        <v>835.5573138604645</v>
+        <v>835.5560175528798</v>
       </c>
       <c r="L150" t="n">
-        <v>125.6095870693085</v>
+        <v>125.5871722266484</v>
       </c>
     </row>
     <row r="151">
@@ -6460,13 +6460,13 @@
         <v>1490</v>
       </c>
       <c r="B151" t="n">
-        <v>148.200215739584</v>
+        <v>148.1784844941569</v>
       </c>
       <c r="C151" t="n">
         <v>72.10258113119187</v>
       </c>
       <c r="D151" t="n">
-        <v>0.9717064603213921</v>
+        <v>0.9717014184406338</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -6474,10 +6474,10 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>0.1781916914107212</v>
+        <v>0.178191976654037</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0002095179146696311</v>
+        <v>0.0002095565156071588</v>
       </c>
       <c r="H151" t="n">
         <v>86.727812755345</v>
@@ -6486,13 +6486,13 @@
         <v>0</v>
       </c>
       <c r="J151" t="n">
-        <v>0.1603416562116925</v>
+        <v>0.1603805304673653</v>
       </c>
       <c r="K151" t="n">
-        <v>835.5038706634899</v>
+        <v>835.502533218904</v>
       </c>
       <c r="L151" t="n">
-        <v>123.9449639836613</v>
+        <v>123.9221329502394</v>
       </c>
     </row>
     <row r="152">
@@ -6500,13 +6500,13 @@
         <v>1500</v>
       </c>
       <c r="B152" t="n">
-        <v>146.5963897776014</v>
+        <v>146.5742599630893</v>
       </c>
       <c r="C152" t="n">
         <v>72.04397591998622</v>
       </c>
       <c r="D152" t="n">
-        <v>0.9713326644228691</v>
+        <v>0.9713273924871371</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -6514,10 +6514,10 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>0.1782033772574856</v>
+        <v>0.1782036715923239</v>
       </c>
       <c r="G152" t="n">
-        <v>0.0002123730201988846</v>
+        <v>0.000212413412762944</v>
       </c>
       <c r="H152" t="n">
         <v>86.70825650959992</v>
@@ -6526,13 +6526,13 @@
         <v>0</v>
       </c>
       <c r="J152" t="n">
-        <v>0.160382596198255</v>
+        <v>0.1604224531067668</v>
       </c>
       <c r="K152" t="n">
-        <v>835.4490817456032</v>
+        <v>835.4477018538863</v>
       </c>
       <c r="L152" t="n">
-        <v>122.2786696885504</v>
+        <v>122.255417159747</v>
       </c>
     </row>
     <row r="153">
@@ -6540,13 +6540,13 @@
         <v>1510</v>
       </c>
       <c r="B153" t="n">
-        <v>144.9921401062467</v>
+        <v>144.9696015110881</v>
       </c>
       <c r="C153" t="n">
         <v>71.9854051857327</v>
       </c>
       <c r="D153" t="n">
-        <v>0.9709485416318449</v>
+        <v>0.9709430276543294</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -6554,10 +6554,10 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>0.1782153532777114</v>
+        <v>0.1782156569979317</v>
       </c>
       <c r="G153" t="n">
-        <v>0.0002153093527482152</v>
+        <v>0.000215351632469791</v>
       </c>
       <c r="H153" t="n">
         <v>86.68871608700096</v>
@@ -6566,13 +6566,13 @@
         <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>0.1604249671354743</v>
+        <v>0.160465845200118</v>
       </c>
       <c r="K153" t="n">
-        <v>835.3929398088028</v>
+        <v>835.3915161082591</v>
       </c>
       <c r="L153" t="n">
-        <v>120.6110652240327</v>
+        <v>120.5873858016937</v>
       </c>
     </row>
     <row r="154">
@@ -6580,13 +6580,13 @@
         <v>1520</v>
       </c>
       <c r="B154" t="n">
-        <v>143.3874518767514</v>
+        <v>143.3644938850815</v>
       </c>
       <c r="C154" t="n">
         <v>71.92686890006769</v>
       </c>
       <c r="D154" t="n">
-        <v>0.970553745313992</v>
+        <v>0.970547976576461</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -6594,10 +6594,10 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>0.1782276211606822</v>
+        <v>0.1782279345719234</v>
       </c>
       <c r="G154" t="n">
-        <v>0.0002183297596489373</v>
+        <v>0.0002183740280478797</v>
       </c>
       <c r="H154" t="n">
         <v>86.6691914695122</v>
@@ -6606,13 +6606,13 @@
         <v>0</v>
       </c>
       <c r="J154" t="n">
-        <v>0.1604688229495279</v>
+        <v>0.1605107626006634</v>
       </c>
       <c r="K154" t="n">
-        <v>835.3354374825446</v>
+        <v>835.3339685572781</v>
       </c>
       <c r="L154" t="n">
-        <v>118.9425135144908</v>
+        <v>118.9184016973184</v>
       </c>
     </row>
     <row r="155">
@@ -6620,13 +6620,13 @@
         <v>1530</v>
       </c>
       <c r="B155" t="n">
-        <v>141.7823096754698</v>
+        <v>141.7589212466654</v>
       </c>
       <c r="C155" t="n">
         <v>71.86836703466145</v>
       </c>
       <c r="D155" t="n">
-        <v>0.970147914237582</v>
+        <v>0.9701418772377691</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -6634,10 +6634,10 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>0.1782401826157729</v>
+        <v>0.1782405060360633</v>
       </c>
       <c r="G155" t="n">
-        <v>0.000221437214674508</v>
+        <v>0.0002214835797027513</v>
       </c>
       <c r="H155" t="n">
         <v>86.64968263912543</v>
@@ -6646,13 +6646,13 @@
         <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>0.160514220128156</v>
+        <v>0.1605572638416134</v>
       </c>
       <c r="K155" t="n">
-        <v>835.2765673196575</v>
+        <v>835.2750516967727</v>
       </c>
       <c r="L155" t="n">
-        <v>117.2733789387244</v>
+        <v>117.2488291118976</v>
       </c>
     </row>
     <row r="156">
@@ -6660,13 +6660,13 @@
         <v>1540</v>
       </c>
       <c r="B156" t="n">
-        <v>140.1766974966937</v>
+        <v>140.1528671436467</v>
       </c>
       <c r="C156" t="n">
         <v>71.80989956121869</v>
       </c>
       <c r="D156" t="n">
-        <v>0.9697306717740994</v>
+        <v>0.9697243521686745</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>0.1782530393734417</v>
+        <v>0.1782533731338476</v>
       </c>
       <c r="G156" t="n">
-        <v>0.0002246348253201933</v>
+        <v>0.0002246834018433042</v>
       </c>
       <c r="H156" t="n">
         <v>86.63018957786028</v>
@@ -6686,13 +6686,13 @@
         <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>0.1605612178776105</v>
+        <v>0.1606054103018691</v>
       </c>
       <c r="K156" t="n">
-        <v>835.2163217920064</v>
+        <v>835.2147579386349</v>
       </c>
       <c r="L156" t="n">
-        <v>115.6040268940651</v>
+        <v>115.5790333180463</v>
       </c>
     </row>
     <row r="157">
@@ -6700,13 +6700,13 @@
         <v>1550</v>
       </c>
       <c r="B157" t="n">
-        <v>138.570598713779</v>
+        <v>138.5463144798028</v>
       </c>
       <c r="C157" t="n">
         <v>71.75146645147811</v>
       </c>
       <c r="D157" t="n">
-        <v>0.969301625043742</v>
+        <v>0.9692950075864272</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -6714,10 +6714,10 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>0.1782661931862798</v>
+        <v>0.178266537631596</v>
       </c>
       <c r="G157" t="n">
-        <v>0.0002279258406066553</v>
+        <v>0.000227976750927528</v>
       </c>
       <c r="H157" t="n">
         <v>86.6107122677641</v>
@@ -6726,13 +6726,13 @@
         <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>0.1606098782914735</v>
+        <v>0.160655266384387</v>
       </c>
       <c r="K157" t="n">
-        <v>835.1546932858955</v>
+        <v>835.1530796060302</v>
       </c>
       <c r="L157" t="n">
-        <v>113.9348233554391</v>
+        <v>113.9093801539197</v>
       </c>
     </row>
     <row r="158">
@@ -6740,13 +6740,13 @@
         <v>1560</v>
       </c>
       <c r="B158" t="n">
-        <v>136.9639960484548</v>
+        <v>136.9392454827195</v>
       </c>
       <c r="C158" t="n">
         <v>71.69306767721207</v>
       </c>
       <c r="D158" t="n">
-        <v>0.968860364001242</v>
+        <v>0.9688534324756063</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -6754,10 +6754,10 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>0.1782796458301255</v>
+        <v>0.1782800013196098</v>
       </c>
       <c r="G158" t="n">
-        <v>0.0002313136594524671</v>
+        <v>0.0002313670338814109</v>
       </c>
       <c r="H158" t="n">
         <v>86.59125069091171</v>
@@ -6766,13 +6766,13 @@
         <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>0.1606602665324122</v>
+        <v>0.160706899708327</v>
       </c>
       <c r="K158" t="n">
-        <v>835.0916740971791</v>
+        <v>835.0900089283078</v>
       </c>
       <c r="L158" t="n">
-        <v>112.266134430317</v>
+        <v>112.2402355772504</v>
       </c>
     </row>
     <row r="159">
@@ -6780,13 +6780,13 @@
         <v>1570</v>
       </c>
       <c r="B159" t="n">
-        <v>135.3568715381744</v>
+        <v>135.331641669557</v>
       </c>
       <c r="C159" t="n">
         <v>71.63470321022726</v>
       </c>
       <c r="D159" t="n">
-        <v>0.9684064604570333</v>
+        <v>0.9683991976034322</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -6794,10 +6794,10 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>0.1782933991052452</v>
+        <v>0.1782937660134011</v>
       </c>
       <c r="G159" t="n">
-        <v>0.0002348018396650462</v>
+        <v>0.0002348578171409988</v>
       </c>
       <c r="H159" t="n">
         <v>86.57180482940566</v>
@@ -6806,13 +6806,13 @@
         <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>0.1607124510280447</v>
+        <v>0.1607603813162474</v>
       </c>
       <c r="K159" t="n">
-        <v>835.0272564260728</v>
+        <v>835.0255380355892</v>
       </c>
       <c r="L159" t="n">
-        <v>110.5983259104979</v>
+        <v>110.5719652161662</v>
       </c>
     </row>
     <row r="160">
@@ -6820,13 +6820,13 @@
         <v>1580</v>
       </c>
       <c r="B160" t="n">
-        <v>133.7492065013522</v>
+        <v>133.7234838105796</v>
       </c>
       <c r="C160" t="n">
         <v>71.57637302236435</v>
       </c>
       <c r="D160" t="n">
-        <v>0.9679394670282832</v>
+        <v>0.9679318544643601</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>0.1783074548375879</v>
+        <v>0.1783078335549992</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0002383941076045028</v>
+        <v>0.0002384528363726512</v>
       </c>
       <c r="H160" t="n">
         <v>86.55237466537611</v>
@@ -6846,13 +6846,13 @@
         <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>0.1607665036822165</v>
+        <v>0.1608157858977434</v>
       </c>
       <c r="K160" t="n">
-        <v>834.9614323716276</v>
+        <v>834.9596589530072</v>
       </c>
       <c r="L160" t="n">
-        <v>108.9317628216778</v>
+        <v>108.9049339177316</v>
       </c>
     </row>
     <row r="161">
@@ -6860,13 +6860,13 @@
         <v>1590</v>
       </c>
       <c r="B161" t="n">
-        <v>132.140981500321</v>
+        <v>132.1147518902688</v>
       </c>
       <c r="C161" t="n">
         <v>71.51807708549734</v>
       </c>
       <c r="D161" t="n">
-        <v>0.9674589160137861</v>
+        <v>0.9674509341478787</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -6874,10 +6874,10 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>0.1783218148801181</v>
+        <v>0.1783222058143387</v>
       </c>
       <c r="G161" t="n">
-        <v>0.0002420943685804727</v>
+        <v>0.0002421560069321836</v>
       </c>
       <c r="H161" t="n">
         <v>86.53296018098045</v>
@@ -6886,13 +6886,13 @@
         <v>0</v>
       </c>
       <c r="J161" t="n">
-        <v>0.160822500103125</v>
+        <v>0.1608731920310765</v>
       </c>
       <c r="K161" t="n">
-        <v>834.8941939258546</v>
+        <v>834.8923635945763</v>
       </c>
       <c r="L161" t="n">
-        <v>107.2668089717551</v>
+        <v>107.2395052951622</v>
       </c>
     </row>
     <row r="162">
@@ -6900,13 +6900,13 @@
         <v>1600</v>
       </c>
       <c r="B162" t="n">
-        <v>130.5321763018221</v>
+        <v>130.5054250658237</v>
       </c>
       <c r="C162" t="n">
         <v>71.45981537153466</v>
       </c>
       <c r="D162" t="n">
-        <v>0.9669643181861055</v>
+        <v>0.9669559461228275</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -6914,10 +6914,10 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>0.178336481114233</v>
+        <v>0.1783368846907374</v>
       </c>
       <c r="G162" t="n">
-        <v>0.0002459067180482375</v>
+        <v>0.0002459714351299</v>
       </c>
       <c r="H162" t="n">
         <v>86.51356135840381</v>
@@ -6926,13 +6926,13 @@
         <v>0</v>
       </c>
       <c r="J162" t="n">
-        <v>0.1608805198498869</v>
+        <v>0.1609326824445118</v>
       </c>
       <c r="K162" t="n">
-        <v>834.8255329674641</v>
+        <v>834.8236437566541</v>
       </c>
       <c r="L162" t="n">
-        <v>105.6038264988156</v>
+        <v>105.5760412746501</v>
       </c>
     </row>
     <row r="163">
@@ -6940,13 +6940,13 @@
         <v>1610</v>
       </c>
       <c r="B163" t="n">
-        <v>128.922769834829</v>
+        <v>128.895481622831</v>
       </c>
       <c r="C163" t="n">
         <v>71.4015878524184</v>
       </c>
       <c r="D163" t="n">
-        <v>0.9664551614936913</v>
+        <v>0.9664463769308762</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -6954,10 +6954,10 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0.1783514554512712</v>
+        <v>0.1783518721144703</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0002498354536774095</v>
+        <v>0.0002499034303755908</v>
       </c>
       <c r="H163" t="n">
         <v>86.49417817985858</v>
@@ -6966,13 +6966,13 @@
         <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>0.1609406466993152</v>
+        <v>0.1609943442992675</v>
       </c>
       <c r="K163" t="n">
-        <v>834.7554412551923</v>
+        <v>834.7534911109723</v>
       </c>
       <c r="L163" t="n">
-        <v>103.9431754197318</v>
+        <v>103.9149016427256</v>
       </c>
     </row>
     <row r="164">
@@ -6980,13 +6980,13 @@
         <v>1620</v>
       </c>
       <c r="B164" t="n">
-        <v>127.3127401454803</v>
+        <v>127.2848989278691</v>
       </c>
       <c r="C164" t="n">
         <v>71.34339450012396</v>
       </c>
       <c r="D164" t="n">
-        <v>0.9659309096649509</v>
+        <v>0.965921688781043</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -6994,10 +6994,10 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>0.1783667398341202</v>
+        <v>0.1783671700484464</v>
       </c>
       <c r="G164" t="n">
-        <v>0.000253885088374259</v>
+        <v>0.0002539565182854765</v>
       </c>
       <c r="H164" t="n">
         <v>86.4748106275844</v>
@@ -7006,13 +7006,13 @@
         <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>0.1610029689348702</v>
+        <v>0.1610582694961977</v>
       </c>
       <c r="K164" t="n">
-        <v>834.6839104206812</v>
+        <v>834.6818971971935</v>
       </c>
       <c r="L164" t="n">
-        <v>102.2852131802955</v>
+        <v>102.2564435950702</v>
       </c>
     </row>
     <row r="165">
@@ -7020,13 +7020,13 @@
         <v>1630</v>
       </c>
       <c r="B165" t="n">
-        <v>125.7020643488806</v>
+        <v>125.6736533777834</v>
       </c>
       <c r="C165" t="n">
         <v>71.28523528666051</v>
       </c>
       <c r="D165" t="n">
-        <v>0.9653910007054243</v>
+        <v>0.9653813180362972</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -7034,10 +7034,10 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>0.1783823362389295</v>
+        <v>0.1783827804899999</v>
       </c>
       <c r="G165" t="n">
-        <v>0.0002580603643475319</v>
+        <v>0.0002581354548419733</v>
       </c>
       <c r="H165" t="n">
         <v>86.45545868384824</v>
@@ -7046,13 +7046,13 @@
         <v>0</v>
       </c>
       <c r="J165" t="n">
-        <v>0.1610675796599727</v>
+        <v>0.1611245550085679</v>
       </c>
       <c r="K165" t="n">
-        <v>834.6109319608784</v>
+        <v>834.608853414962</v>
       </c>
       <c r="L165" t="n">
-        <v>100.6302942077808</v>
+        <v>100.6010212876681</v>
       </c>
     </row>
     <row r="166">
@@ -7060,13 +7060,13 @@
         <v>1640</v>
       </c>
       <c r="B166" t="n">
-        <v>124.0907185774994</v>
+        <v>124.0617203453478</v>
       </c>
       <c r="C166" t="n">
         <v>71.22711018407119</v>
       </c>
       <c r="D166" t="n">
-        <v>0.9648348452782792</v>
+        <v>0.9648246735823367</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -7074,10 +7074,10 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>0.17839824667694</v>
+        <v>0.1783987054728006</v>
       </c>
       <c r="G166" t="n">
-        <v>0.0002623662683174503</v>
+        <v>0.0002624452417071454</v>
       </c>
       <c r="H166" t="n">
         <v>86.43612233094434</v>
@@ -7086,13 +7086,13 @@
         <v>0</v>
       </c>
       <c r="J166" t="n">
-        <v>0.1611345771381123</v>
+        <v>0.1611933032435567</v>
       </c>
       <c r="K166" t="n">
-        <v>834.5364972299142</v>
+        <v>834.5343510154034</v>
       </c>
       <c r="L166" t="n">
-        <v>98.97876946680661</v>
+        <v>98.94898539115792</v>
       </c>
     </row>
     <row r="167">
@@ -7100,13 +7100,13 @@
         <v>1650</v>
       </c>
       <c r="B167" t="n">
-        <v>122.4786779258747</v>
+        <v>122.4490741209936</v>
       </c>
       <c r="C167" t="n">
         <v>71.16901916443237</v>
       </c>
       <c r="D167" t="n">
-        <v>0.9642618249573061</v>
+        <v>0.9642511350675746</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -7114,10 +7114,10 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>0.178414473196438</v>
+        <v>0.1784149470688982</v>
       </c>
       <c r="G167" t="n">
-        <v>0.0002668080479786685</v>
+        <v>0.0002668911428019524</v>
       </c>
       <c r="H167" t="n">
         <v>86.41680155119413</v>
@@ -7126,13 +7126,13 @@
         <v>0</v>
       </c>
       <c r="J167" t="n">
-        <v>0.1612040651624707</v>
+        <v>0.1612646224354235</v>
       </c>
       <c r="K167" t="n">
-        <v>834.460597430411</v>
+        <v>834.4583810920226</v>
       </c>
       <c r="L167" t="n">
-        <v>97.33098601934026</v>
+        <v>97.30068264921553</v>
       </c>
     </row>
     <row r="168">
@@ -7140,13 +7140,13 @@
         <v>1660</v>
       </c>
       <c r="B168" t="n">
-        <v>120.8659163912937</v>
+        <v>120.8356878502572</v>
       </c>
       <c r="C168" t="n">
         <v>71.11096219985382</v>
       </c>
       <c r="D168" t="n">
-        <v>0.9636712903404157</v>
+        <v>0.9636600510021843</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -7154,10 +7154,10 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>0.1784310178848439</v>
+        <v>0.1784315073909092</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0002713912298404507</v>
+        <v>0.0002714787022760894</v>
       </c>
       <c r="H168" t="n">
         <v>86.39749632694601</v>
@@ -7166,13 +7166,13 @@
         <v>0</v>
       </c>
       <c r="J168" t="n">
-        <v>0.1612761534580989</v>
+        <v>0.1613386270736335</v>
       </c>
       <c r="K168" t="n">
-        <v>834.3832236041833</v>
+        <v>834.3809345709584</v>
       </c>
       <c r="L168" t="n">
-        <v>95.68728658964433</v>
+        <v>95.65645544175879</v>
       </c>
     </row>
     <row r="169">
@@ -7180,13 +7180,13 @@
         <v>1670</v>
       </c>
       <c r="B169" t="n">
-        <v>119.2524068100932</v>
+        <v>119.221533466561</v>
       </c>
       <c r="C169" t="n">
         <v>71.05293926247884</v>
       </c>
       <c r="D169" t="n">
-        <v>0.9630625590103347</v>
+        <v>0.963050736702706</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -7194,10 +7194,10 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>0.178447882870949</v>
+        <v>0.1784483885943589</v>
       </c>
       <c r="G169" t="n">
-        <v>0.0002761216385814527</v>
+        <v>0.0002762137640075484</v>
       </c>
       <c r="H169" t="n">
         <v>86.37820664057558</v>
@@ -7206,13 +7206,13 @@
         <v>0</v>
       </c>
       <c r="J169" t="n">
-        <v>0.1613509581200474</v>
+        <v>0.1614154383696257</v>
       </c>
       <c r="K169" t="n">
-        <v>834.3043666222674</v>
+        <v>834.3020022005289</v>
       </c>
       <c r="L169" t="n">
-        <v>94.04800913492615</v>
+        <v>94.01664135372185</v>
       </c>
     </row>
     <row r="170">
@@ -7220,13 +7220,13 @@
         <v>1680</v>
       </c>
       <c r="B170" t="n">
-        <v>117.6381207891806</v>
+        <v>117.6065816188974</v>
       </c>
       <c r="C170" t="n">
         <v>70.99495032448408</v>
       </c>
       <c r="D170" t="n">
-        <v>0.962434913327709</v>
+        <v>0.9624224720672218</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -7234,10 +7234,10 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>0.1784650703273122</v>
+        <v>0.1784655928801939</v>
       </c>
       <c r="G170" t="n">
-        <v>0.0002810054180724427</v>
+        <v>0.000281102492787253</v>
       </c>
       <c r="H170" t="n">
         <v>86.35893247448534</v>
@@ -7246,13 +7246,13 @@
         <v>0</v>
       </c>
       <c r="J170" t="n">
-        <v>0.1614286020912663</v>
+        <v>0.1614951847663639</v>
       </c>
       <c r="K170" t="n">
-        <v>834.2240171742291</v>
+        <v>834.2215745400094</v>
       </c>
       <c r="L170" t="n">
-        <v>92.41348642240256</v>
+        <v>92.38157275009706</v>
       </c>
     </row>
     <row r="171">
@@ -7260,13 +7260,13 @@
         <v>1690</v>
       </c>
       <c r="B171" t="n">
-        <v>116.023028632335</v>
+        <v>115.9908015939442</v>
       </c>
       <c r="C171" t="n">
         <v>70.93699535808003</v>
       </c>
       <c r="D171" t="n">
-        <v>0.9617875980401598</v>
+        <v>0.9617744991643965</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -7274,10 +7274,10 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>0.1784825824728299</v>
+        <v>0.1784831224974784</v>
       </c>
       <c r="G171" t="n">
-        <v>0.0002860490542383886</v>
+        <v>0.000286151397362498</v>
       </c>
       <c r="H171" t="n">
         <v>86.33967381110507</v>
@@ -7286,13 +7286,13 @@
         <v>0</v>
       </c>
       <c r="J171" t="n">
-        <v>0.1615092156845548</v>
+        <v>0.1615780024953213</v>
       </c>
       <c r="K171" t="n">
-        <v>834.1421657566808</v>
+        <v>834.1396419475741</v>
       </c>
       <c r="L171" t="n">
-        <v>90.78404561344</v>
+        <v>90.75157635788855</v>
       </c>
     </row>
     <row r="172">
@@ -7300,13 +7300,13 @@
         <v>1700</v>
       </c>
       <c r="B172" t="n">
-        <v>114.4070992608012</v>
+        <v>114.3741612320827</v>
       </c>
       <c r="C172" t="n">
         <v>70.87907433550947</v>
       </c>
       <c r="D172" t="n">
-        <v>0.9611198176889466</v>
+        <v>0.9611060196177715</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -7314,10 +7314,10 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>0.1785004215754971</v>
+        <v>0.1785009797462928</v>
       </c>
       <c r="G172" t="n">
-        <v>0.0002912593999518776</v>
+        <v>0.0002913673555338269</v>
       </c>
       <c r="H172" t="n">
         <v>86.32043063289099</v>
@@ -7326,13 +7326,13 @@
         <v>0</v>
       </c>
       <c r="J172" t="n">
-        <v>0.1615929371533833</v>
+        <v>0.1616640361861405</v>
       </c>
       <c r="K172" t="n">
-        <v>834.0588026609373</v>
+        <v>834.0561945673227</v>
       </c>
       <c r="L172" t="n">
-        <v>89.16000785536824</v>
+        <v>89.12697285555846</v>
       </c>
     </row>
     <row r="173">
@@ -7340,13 +7340,13 @@
         <v>1710</v>
       </c>
       <c r="B173" t="n">
-        <v>112.790300127631</v>
+        <v>112.7566268367339</v>
       </c>
       <c r="C173" t="n">
         <v>70.82118722904909</v>
       </c>
       <c r="D173" t="n">
-        <v>0.9604307337927667</v>
+        <v>0.9604161917645109</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -7354,10 +7354,10 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>0.1785185899553754</v>
+        <v>0.1785191669808511</v>
       </c>
       <c r="G173" t="n">
-        <v>0.0002966437021731824</v>
+        <v>0.0002967576415237339</v>
       </c>
       <c r="H173" t="n">
         <v>86.30120292232641</v>
@@ -7366,13 +7366,13 @@
         <v>0</v>
       </c>
       <c r="J173" t="n">
-        <v>0.1616799133170165</v>
+        <v>0.1617534395348841</v>
       </c>
       <c r="K173" t="n">
-        <v>833.9739179597342</v>
+        <v>833.9712223153119</v>
       </c>
       <c r="L173" t="n">
-        <v>87.54168788150626</v>
+        <v>87.50807647048353</v>
       </c>
     </row>
     <row r="174">
@@ -7380,13 +7380,13 @@
         <v>1720</v>
       </c>
       <c r="B174" t="n">
-        <v>111.1725971251703</v>
+        <v>111.1381630763584</v>
       </c>
       <c r="C174" t="n">
         <v>70.76333401100862</v>
       </c>
       <c r="D174" t="n">
-        <v>0.9597194617857904</v>
+        <v>0.9597041275653463</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -7394,10 +7394,10 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>0.1785370899877871</v>
+        <v>0.1785376866128614</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0003022096315789313</v>
+        <v>0.0003023299558627038</v>
       </c>
       <c r="H174" t="n">
         <v>86.28199066192157</v>
@@ -7406,13 +7406,13 @@
         <v>0</v>
       </c>
       <c r="J174" t="n">
-        <v>0.1617703002460738</v>
+        <v>0.1618463760375555</v>
       </c>
       <c r="K174" t="n">
-        <v>833.8875014929163</v>
+        <v>833.8847148644904</v>
       </c>
       <c r="L174" t="n">
-        <v>85.92939361986126</v>
+        <v>85.89519458486052</v>
       </c>
     </row>
     <row r="175">
@@ -7420,13 +7420,13 @@
         <v>1730</v>
       </c>
       <c r="B175" t="n">
-        <v>109.5539544850157</v>
+        <v>109.5187328783937</v>
       </c>
       <c r="C175" t="n">
         <v>70.70551465373092</v>
       </c>
       <c r="D175" t="n">
-        <v>0.9589850676842939</v>
+        <v>0.9589688892396513</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -7434,10 +7434,10 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>0.1785559241067582</v>
+        <v>0.1785565411151484</v>
       </c>
       <c r="G175" t="n">
-        <v>0.0003079653149517194</v>
+        <v>0.0003080924580690545</v>
       </c>
       <c r="H175" t="n">
         <v>86.26279383421331</v>
@@ -7446,13 +7446,13 @@
         <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>0.161864264015462</v>
+        <v>0.1619430197964674</v>
       </c>
       <c r="K175" t="n">
-        <v>833.7995428520015</v>
+        <v>833.7966616284381</v>
       </c>
       <c r="L175" t="n">
-        <v>84.32342581089181</v>
+        <v>84.28862735042588</v>
       </c>
     </row>
     <row r="176">
@@ -7460,13 +7460,13 @@
         <v>1740</v>
       </c>
       <c r="B176" t="n">
-        <v>107.9343346696902</v>
+        <v>107.8982973143133</v>
       </c>
       <c r="C176" t="n">
         <v>70.64772912959177</v>
       </c>
       <c r="D176" t="n">
-        <v>0.9582265644531178</v>
+        <v>0.95820948559639</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -7474,10 +7474,10 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>0.1785750948087342</v>
+        <v>0.1785757330255673</v>
       </c>
       <c r="G176" t="n">
-        <v>0.0003139193706378084</v>
+        <v>0.0003140538024345167</v>
       </c>
       <c r="H176" t="n">
         <v>86.24361242176514</v>
@@ -7486,13 +7486,13 @@
         <v>0</v>
       </c>
       <c r="J176" t="n">
-        <v>0.1619619815325498</v>
+        <v>0.1620435564080454</v>
       </c>
       <c r="K176" t="n">
-        <v>833.7100313635107</v>
+        <v>833.7070517437891</v>
       </c>
       <c r="L176" t="n">
-        <v>82.72407763463951</v>
+        <v>82.68866731226403</v>
       </c>
     </row>
     <row r="177">
@@ -7500,13 +7500,13 @@
         <v>1750</v>
       </c>
       <c r="B177" t="n">
-        <v>106.3136982551951</v>
+        <v>106.2768154748948</v>
       </c>
       <c r="C177" t="n">
         <v>70.58997741099995</v>
       </c>
       <c r="D177" t="n">
-        <v>0.9574429080396181</v>
+        <v>0.9574248680280352</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -7514,10 +7514,10 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>0.1785946046565925</v>
+        <v>0.1785952649512348</v>
       </c>
       <c r="G177" t="n">
-        <v>0.0003200809474199569</v>
+        <v>0.0003202231772681809</v>
       </c>
       <c r="H177" t="n">
         <v>86.22444640716729</v>
@@ -7526,13 +7526,13 @@
         <v>0</v>
       </c>
       <c r="J177" t="n">
-        <v>0.1620636414495109</v>
+        <v>0.1621481839418429</v>
       </c>
       <c r="K177" t="n">
-        <v>833.6189560709444</v>
+        <v>833.615874051214</v>
       </c>
       <c r="L177" t="n">
-        <v>81.13163434744354</v>
+        <v>81.0955990418862</v>
       </c>
     </row>
     <row r="178">
@@ -7540,13 +7540,13 @@
         <v>1760</v>
       </c>
       <c r="B178" t="n">
-        <v>104.692003803495</v>
+        <v>104.6542443346758</v>
       </c>
       <c r="C178" t="n">
         <v>70.53225947039732</v>
       </c>
       <c r="D178" t="n">
-        <v>0.9566329930386969</v>
+        <v>0.9566139261303932</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -7554,10 +7554,10 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>0.1786144562839865</v>
+        <v>0.1786151395731125</v>
       </c>
       <c r="G178" t="n">
-        <v>0.0003264597671982851</v>
+        <v>0.0003266103479982296</v>
       </c>
       <c r="H178" t="n">
         <v>86.20529577303657</v>
@@ -7566,13 +7566,13 @@
         <v>0</v>
       </c>
       <c r="J178" t="n">
-        <v>0.1621694451700075</v>
+        <v>0.1622571140219001</v>
       </c>
       <c r="K178" t="n">
-        <v>833.5263057152634</v>
+        <v>833.5231170748027</v>
       </c>
       <c r="L178" t="n">
-        <v>79.54637292835655</v>
+        <v>79.50969877966023</v>
       </c>
     </row>
     <row r="179">
@@ -7580,13 +7580,13 @@
         <v>1770</v>
       </c>
       <c r="B179" t="n">
-        <v>103.0692077238769</v>
+        <v>103.0305386044441</v>
       </c>
       <c r="C179" t="n">
         <v>70.47457528025882</v>
       </c>
       <c r="D179" t="n">
-        <v>0.9557956479478414</v>
+        <v>0.9557754829064885</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -7594,10 +7594,10 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>0.1786346524000493</v>
+        <v>0.1786353596509763</v>
       </c>
       <c r="G179" t="n">
-        <v>0.0003330661719249105</v>
+        <v>0.0003332257045848231</v>
       </c>
       <c r="H179" t="n">
         <v>86.18616050201646</v>
@@ -7606,13 +7606,13 @@
         <v>0</v>
       </c>
       <c r="J179" t="n">
-        <v>0.1622796079618064</v>
+        <v>0.1623705730231671</v>
       </c>
       <c r="K179" t="n">
-        <v>833.4320687137331</v>
+        <v>833.4287689996988</v>
       </c>
       <c r="L179" t="n">
-        <v>77.96856173527542</v>
+        <v>77.93123408656152</v>
       </c>
     </row>
     <row r="180">
@@ -7620,13 +7620,13 @@
         <v>1780</v>
       </c>
       <c r="B180" t="n">
-        <v>101.4452641219911</v>
+        <v>101.4056505704686</v>
       </c>
       <c r="C180" t="n">
         <v>70.41692481309212</v>
       </c>
       <c r="D180" t="n">
-        <v>0.9549296299657347</v>
+        <v>0.9549082895071828</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -7634,10 +7634,10 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>0.178655195794499</v>
+        <v>0.1786559280288133</v>
       </c>
       <c r="G180" t="n">
-        <v>0.0003399111752990959</v>
+        <v>0.0003400803137598327</v>
       </c>
       <c r="H180" t="n">
         <v>86.16704057677683</v>
@@ -7646,13 +7646,13 @@
         <v>0</v>
       </c>
       <c r="J180" t="n">
-        <v>0.1623943601885844</v>
+        <v>0.1624888033975522</v>
       </c>
       <c r="K180" t="n">
-        <v>833.336233136948</v>
+        <v>833.3328176477894</v>
       </c>
       <c r="L180" t="n">
-        <v>76.39846017068656</v>
+        <v>76.36046350509584</v>
       </c>
     </row>
     <row r="181">
@@ -7660,13 +7660,13 @@
         <v>1790</v>
       </c>
       <c r="B181" t="n">
-        <v>99.82012463523</v>
+        <v>99.77952991900564</v>
       </c>
       <c r="C181" t="n">
         <v>70.35930804143743</v>
       </c>
       <c r="D181" t="n">
-        <v>0.954033619281849</v>
+        <v>0.954011019454892</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -7674,10 +7674,10 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>0.1786760893431847</v>
+        <v>0.1786768476406918</v>
       </c>
       <c r="G181" t="n">
-        <v>0.0003470065198002676</v>
+        <v>0.0003471859766813139</v>
       </c>
       <c r="H181" t="n">
         <v>86.14793598001394</v>
@@ -7686,13 +7686,13 @@
         <v>0</v>
       </c>
       <c r="J181" t="n">
-        <v>0.162513948676108</v>
+        <v>0.1626120651462975</v>
       </c>
       <c r="K181" t="n">
-        <v>833.2387866838573</v>
+        <v>833.2352504512502</v>
       </c>
       <c r="L181" t="n">
-        <v>74.83631835680345</v>
+        <v>74.79763622911594</v>
       </c>
     </row>
     <row r="182">
@@ -7700,13 +7700,13 @@
         <v>1800</v>
       </c>
       <c r="B182" t="n">
-        <v>98.19373825292767</v>
+        <v>98.15212354442664</v>
       </c>
       <c r="C182" t="n">
         <v>70.30172493786802</v>
       </c>
       <c r="D182" t="n">
-        <v>0.9531062127973243</v>
+        <v>0.9530822622894723</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -7714,10 +7714,10 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>0.1786973360141222</v>
+        <v>0.1786981215171558</v>
       </c>
       <c r="G182" t="n">
-        <v>0.0003543647397182154</v>
+        <v>0.0003545552926744611</v>
       </c>
       <c r="H182" t="n">
         <v>86.1288466944506</v>
@@ -7726,13 +7726,13 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>0.1626386382302324</v>
+        <v>0.1627406374578997</v>
       </c>
       <c r="K182" t="n">
-        <v>833.139716654567</v>
+        <v>833.1360544237091</v>
       </c>
       <c r="L182" t="n">
-        <v>73.28237681973971</v>
+        <v>73.24299178211022</v>
       </c>
     </row>
     <row r="183">
@@ -7740,13 +7740,13 @@
         <v>1810</v>
       </c>
       <c r="B183" t="n">
-        <v>96.56605111965973</v>
+        <v>96.52337533908933</v>
       </c>
       <c r="C183" t="n">
         <v>70.24417547498979</v>
       </c>
       <c r="D183" t="n">
-        <v>0.9521459172092281</v>
+        <v>0.9521205165669253</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -7754,10 +7754,10 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>0.1787189388740726</v>
+        <v>0.1787197527922028</v>
       </c>
       <c r="G183" t="n">
-        <v>0.0003619992309351308</v>
+        <v>0.0003622017298284044</v>
       </c>
       <c r="H183" t="n">
         <v>86.10977270283588</v>
@@ -7766,13 +7766,13 @@
         <v>0</v>
       </c>
       <c r="J183" t="n">
-        <v>0.1627687133267942</v>
+        <v>0.1628748205337304</v>
       </c>
       <c r="K183" t="n">
-        <v>833.0390099206787</v>
+        <v>833.0352161287631</v>
       </c>
       <c r="L183" t="n">
-        <v>71.73686618221782</v>
+        <v>71.69675970338986</v>
       </c>
     </row>
     <row r="184">
@@ -7780,13 +7780,13 @@
         <v>1820</v>
       </c>
       <c r="B184" t="n">
-        <v>94.93700631969394</v>
+        <v>94.89322596281964</v>
       </c>
       <c r="C184" t="n">
         <v>70.18665962544128</v>
       </c>
       <c r="D184" t="n">
-        <v>0.9511511413807712</v>
+        <v>0.9511241821317926</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -7794,10 +7794,10 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>0.1787409010957247</v>
+        <v>0.1787417447109086</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0003699243283253824</v>
+        <v>0.0003701397033322015</v>
       </c>
       <c r="H184" t="n">
         <v>86.09071398794511</v>
@@ -7806,13 +7806,13 @@
         <v>0</v>
       </c>
       <c r="J184" t="n">
-        <v>0.1629044799965794</v>
+        <v>0.163014937626969</v>
       </c>
       <c r="K184" t="n">
-        <v>832.9366528928882</v>
+        <v>832.9327216455529</v>
       </c>
       <c r="L184" t="n">
-        <v>70.20000686415356</v>
+        <v>70.15915924142909</v>
       </c>
     </row>
     <row r="185">
@@ -7820,13 +7820,13 @@
         <v>1830</v>
       </c>
       <c r="B185" t="n">
-        <v>93.30654364037206</v>
+        <v>93.26161258957418</v>
       </c>
       <c r="C185" t="n">
         <v>70.12917736189365</v>
       </c>
       <c r="D185" t="n">
-        <v>0.9501201879090042</v>
+        <v>0.9500915515727479</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -7834,10 +7834,10 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>0.1787632259655493</v>
+        <v>0.1787641006377774</v>
       </c>
       <c r="G185" t="n">
-        <v>0.0003781553917690843</v>
+        <v>0.0003783846625668499</v>
       </c>
       <c r="H185" t="n">
         <v>86.07167053258</v>
@@ -7846,13 +7846,13 @@
         <v>0</v>
       </c>
       <c r="J185" t="n">
-        <v>0.1630462679321872</v>
+        <v>0.1631613373245439</v>
       </c>
       <c r="K185" t="n">
-        <v>832.8326314855345</v>
+        <v>832.8285565310509</v>
       </c>
       <c r="L185" t="n">
-        <v>68.6720087902824</v>
+        <v>68.63039905342703</v>
       </c>
     </row>
     <row r="186">
@@ -7860,13 +7860,13 @@
         <v>1840</v>
       </c>
       <c r="B186" t="n">
-        <v>91.67459931189293</v>
+        <v>91.62846862850824</v>
       </c>
       <c r="C186" t="n">
         <v>70.07172865705047</v>
       </c>
       <c r="D186" t="n">
-        <v>0.949051243788642</v>
+        <v>0.9490208007576275</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -7874,10 +7874,10 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>0.1787859168924041</v>
+        <v>0.1787868240658986</v>
       </c>
       <c r="G186" t="n">
-        <v>0.0003867089019282227</v>
+        <v>0.0003869531881268916</v>
       </c>
       <c r="H186" t="n">
         <v>86.05264231956828</v>
@@ -7886,13 +7886,13 @@
         <v>0</v>
       </c>
       <c r="J186" t="n">
-        <v>0.1631944328479128</v>
+        <v>0.163314396106595</v>
       </c>
       <c r="K186" t="n">
-        <v>832.7269310777413</v>
+        <v>832.7227057786789</v>
       </c>
       <c r="L186" t="n">
-        <v>67.15307110380229</v>
+        <v>67.11067690995083</v>
       </c>
     </row>
     <row r="187">
@@ -7900,13 +7900,13 @@
         <v>1850</v>
       </c>
       <c r="B187" t="n">
-        <v>90.04110572060416</v>
+        <v>89.99372341627118</v>
       </c>
       <c r="C187" t="n">
         <v>70.01431348364804</v>
       </c>
       <c r="D187" t="n">
-        <v>0.9479423700556027</v>
+        <v>0.9479099783286475</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -7914,10 +7914,10 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>0.1788089774169774</v>
+        <v>0.1788099186270099</v>
       </c>
       <c r="G187" t="n">
-        <v>0.0003956025671138603</v>
+        <v>0.0003958631001298385</v>
       </c>
       <c r="H187" t="n">
         <v>86.03362933176402</v>
@@ -7926,13 +7926,13 @@
         <v>0</v>
       </c>
       <c r="J187" t="n">
-        <v>0.1633493591288768</v>
+        <v>0.1634745212237047</v>
       </c>
       <c r="K187" t="n">
-        <v>832.6195364707452</v>
+        <v>832.6151537728113</v>
       </c>
       <c r="L187" t="n">
-        <v>65.64338188479213</v>
+        <v>65.60017940328819</v>
       </c>
     </row>
     <row r="188">
@@ -7940,13 +7940,13 @@
         <v>1860</v>
       </c>
       <c r="B188" t="n">
-        <v>88.40599109248738</v>
+        <v>88.35730187688165</v>
       </c>
       <c r="C188" t="n">
         <v>69.95693181445506</v>
       </c>
       <c r="D188" t="n">
-        <v>0.9467914902762311</v>
+        <v>0.9467569940203574</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -7954,10 +7954,10 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>0.1788324112221743</v>
+        <v>0.1788333881025772</v>
       </c>
       <c r="G188" t="n">
-        <v>0.0004048554427851482</v>
+        <v>0.0004051335793898759</v>
       </c>
       <c r="H188" t="n">
         <v>86.01463155204725</v>
@@ -7966,13 +7966,13 @@
         <v>0</v>
       </c>
       <c r="J188" t="n">
-        <v>0.1635114628116769</v>
+        <v>0.163642153938954</v>
       </c>
       <c r="K188" t="n">
-        <v>832.5104318409556</v>
+        <v>832.5058842386612</v>
       </c>
       <c r="L188" t="n">
-        <v>64.1431178719277</v>
+        <v>64.09908165787598</v>
       </c>
     </row>
     <row r="189">
@@ -7980,13 +7980,13 @@
         <v>1870</v>
       </c>
       <c r="B189" t="n">
-        <v>86.7691791430267</v>
+        <v>86.71912414498149</v>
       </c>
       <c r="C189" t="n">
         <v>69.8995836222723</v>
       </c>
       <c r="D189" t="n">
-        <v>0.945596377727434</v>
+        <v>0.9455596056414833</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -7994,10 +7994,10 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>0.1788562221445583</v>
+        <v>0.1788572364360182</v>
       </c>
       <c r="G189" t="n">
-        <v>0.0004144880654722662</v>
+        <v>0.0004147853032910457</v>
       </c>
       <c r="H189" t="n">
         <v>85.99564896332406</v>
@@ -8006,13 +8006,13 @@
         <v>0</v>
       </c>
       <c r="J189" t="n">
-        <v>0.1636811949460686</v>
+        <v>0.1638177731900162</v>
       </c>
       <c r="K189" t="n">
-        <v>832.3996006882074</v>
+        <v>832.3948801869686</v>
       </c>
       <c r="L189" t="n">
-        <v>62.6524441857466</v>
+        <v>62.60754704087861</v>
       </c>
     </row>
     <row r="190">
@@ -8020,13 +8020,13 @@
         <v>1880</v>
       </c>
       <c r="B190" t="n">
-        <v>85.13058868906855</v>
+        <v>85.07910514761883</v>
       </c>
       <c r="C190" t="n">
         <v>69.84226887993327</v>
       </c>
       <c r="D190" t="n">
-        <v>0.9443546410885271</v>
+        <v>0.9443154045365435</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -8034,10 +8034,10 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>0.178880414186985</v>
+        <v>0.1788814677462166</v>
       </c>
       <c r="G190" t="n">
-        <v>0.0004245226032142115</v>
+        <v>0.0004248405985030113</v>
       </c>
       <c r="H190" t="n">
         <v>85.97668154852661</v>
@@ -8046,13 +8046,13 @@
         <v>0</v>
       </c>
       <c r="J190" t="n">
-        <v>0.1638590453958162</v>
+        <v>0.1640018997362649</v>
       </c>
       <c r="K190" t="n">
-        <v>832.2870257786101</v>
+        <v>832.2821238528246</v>
       </c>
       <c r="L190" t="n">
-        <v>61.17151405140988</v>
+        <v>61.12572687065164</v>
       </c>
     </row>
     <row r="191">
@@ -8060,13 +8060,13 @@
         <v>1890</v>
       </c>
       <c r="B191" t="n">
-        <v>83.48752003017539</v>
+        <v>83.43433561735999</v>
       </c>
       <c r="C191" t="n">
         <v>69.78498756030365</v>
       </c>
       <c r="D191" t="n">
-        <v>0.941595905574204</v>
+        <v>0.9414638225013182</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -8074,25 +8074,25 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0.1787283931557363</v>
+        <v>0.1787187549255718</v>
       </c>
       <c r="G191" t="n">
-        <v>0.0004349830249587782</v>
+        <v>0.0004353236130501602</v>
       </c>
       <c r="H191" t="n">
         <v>85.95772929061293</v>
       </c>
       <c r="I191" t="n">
-        <v>0.01318067437149565</v>
+        <v>0.01399280165245682</v>
       </c>
       <c r="J191" t="n">
-        <v>0.1643068658893145</v>
+        <v>0.1644769530258841</v>
       </c>
       <c r="K191" t="n">
-        <v>832.6575293031457</v>
+        <v>832.6819235096799</v>
       </c>
       <c r="L191" t="n">
-        <v>59.70046851855933</v>
+        <v>59.653760120444</v>
       </c>
     </row>
     <row r="192">
@@ -8100,13 +8100,13 @@
         <v>1900</v>
       </c>
       <c r="B192" t="n">
-        <v>81.83725010490086</v>
+        <v>81.7821920564366</v>
       </c>
       <c r="C192" t="n">
         <v>69.7277396362814</v>
       </c>
       <c r="D192" t="n">
-        <v>0.9373568507766343</v>
+        <v>0.937215388847253</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -8114,25 +8114,25 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>0.1784154813596298</v>
+        <v>0.1784055831006403</v>
       </c>
       <c r="G192" t="n">
-        <v>0.0004459132946296995</v>
+        <v>0.0004462799543806557</v>
       </c>
       <c r="H192" t="n">
         <v>85.93879217256708</v>
       </c>
       <c r="I192" t="n">
-        <v>0.03938144849514875</v>
+        <v>0.04025987727115964</v>
       </c>
       <c r="J192" t="n">
-        <v>0.1650269925274545</v>
+        <v>0.1652143560923399</v>
       </c>
       <c r="K192" t="n">
-        <v>833.4707346333627</v>
+        <v>833.4958289854129</v>
       </c>
       <c r="L192" t="n">
-        <v>58.23708487818122</v>
+        <v>58.1892377928971</v>
       </c>
     </row>
     <row r="193">
@@ -8140,13 +8140,13 @@
         <v>1910</v>
       </c>
       <c r="B193" t="n">
-        <v>80.17933157509965</v>
+        <v>80.12221038385591</v>
       </c>
       <c r="C193" t="n">
         <v>69.67052508079655</v>
       </c>
       <c r="D193" t="n">
-        <v>0.9329406614512306</v>
+        <v>0.9327887682600223</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -8154,25 +8154,25 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>0.1781029876255097</v>
+        <v>0.1780928019919069</v>
       </c>
       <c r="G193" t="n">
-        <v>0.0004573627985705841</v>
+        <v>0.0004577587054891272</v>
       </c>
       <c r="H193" t="n">
         <v>85.91987017739881</v>
       </c>
       <c r="I193" t="n">
-        <v>0.06695168553682183</v>
+        <v>0.06790466046496235</v>
       </c>
       <c r="J193" t="n">
-        <v>0.1657918529801201</v>
+        <v>0.1659981672580684</v>
       </c>
       <c r="K193" t="n">
-        <v>834.284222249217</v>
+        <v>834.3100878056996</v>
       </c>
       <c r="L193" t="n">
-        <v>56.77919251154734</v>
+        <v>56.73008525290856</v>
       </c>
     </row>
     <row r="194">
@@ -8180,13 +8180,13 @@
         <v>1920</v>
       </c>
       <c r="B194" t="n">
-        <v>78.51327513229575</v>
+        <v>78.4538824352593</v>
       </c>
       <c r="C194" t="n">
         <v>69.61334386681142</v>
       </c>
       <c r="D194" t="n">
-        <v>0.9283367653111652</v>
+        <v>0.9281732452201443</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -8194,25 +8194,25 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>0.1777908729444085</v>
+        <v>0.1777803702242224</v>
       </c>
       <c r="G194" t="n">
-        <v>0.0004693698690853647</v>
+        <v>0.0004697986760586948</v>
       </c>
       <c r="H194" t="n">
         <v>85.90096328814369</v>
       </c>
       <c r="I194" t="n">
-        <v>0.09599584512521732</v>
+        <v>0.09703286676196431</v>
       </c>
       <c r="J194" t="n">
-        <v>0.1666056442803904</v>
+        <v>0.1668327948596605</v>
       </c>
       <c r="K194" t="n">
-        <v>835.0980693354471</v>
+        <v>835.1247834472024</v>
       </c>
       <c r="L194" t="n">
-        <v>55.32670948449036</v>
+        <v>55.27621023864872</v>
       </c>
     </row>
     <row r="195">
@@ -8220,13 +8220,13 @@
         <v>1930</v>
       </c>
       <c r="B195" t="n">
-        <v>76.83854427083297</v>
+        <v>76.7766503925956</v>
       </c>
       <c r="C195" t="n">
         <v>69.55619596732026</v>
       </c>
       <c r="D195" t="n">
-        <v>0.9235336771281151</v>
+        <v>0.9233571682285138</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -8234,25 +8234,25 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>0.1774790938399553</v>
+        <v>0.1774682416736227</v>
       </c>
       <c r="G195" t="n">
-        <v>0.0004819769834886185</v>
+        <v>0.000482442906689048</v>
       </c>
       <c r="H195" t="n">
         <v>85.8820714878632</v>
       </c>
       <c r="I195" t="n">
-        <v>0.126629498435277</v>
+        <v>0.1277615510571389</v>
       </c>
       <c r="J195" t="n">
-        <v>0.1674730861462785</v>
+        <v>0.1677232042663703</v>
       </c>
       <c r="K195" t="n">
-        <v>835.9123644051247</v>
+        <v>835.9400114573716</v>
       </c>
       <c r="L195" t="n">
-        <v>53.87952387206157</v>
+        <v>53.82748927925892</v>
       </c>
     </row>
     <row r="196">
@@ -8260,13 +8260,13 @@
         <v>1940</v>
       </c>
       <c r="B196" t="n">
-        <v>75.15454922394828</v>
+        <v>75.08990030705957</v>
       </c>
       <c r="C196" t="n">
         <v>69.49908135534952</v>
       </c>
       <c r="D196" t="n">
-        <v>0.9185188851191561</v>
+        <v>0.918327831791339</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -8274,25 +8274,25 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>0.1771676018046877</v>
+        <v>0.1771563648594802</v>
       </c>
       <c r="G196" t="n">
-        <v>0.000495231368401583</v>
+        <v>0.0004957392916142275</v>
       </c>
       <c r="H196" t="n">
         <v>85.86319475964433</v>
       </c>
       <c r="I196" t="n">
-        <v>0.1589809351564913</v>
+        <v>0.1602207635161436</v>
       </c>
       <c r="J196" t="n">
-        <v>0.1683995046884688</v>
+        <v>0.1686750085536032</v>
       </c>
       <c r="K196" t="n">
-        <v>836.7272087738545</v>
+        <v>836.7558810447122</v>
       </c>
       <c r="L196" t="n">
-        <v>52.43749092767734</v>
+        <v>52.38376466610086</v>
       </c>
     </row>
     <row r="197">
@@ -8300,13 +8300,13 @@
         <v>1950</v>
       </c>
       <c r="B197" t="n">
-        <v>73.46063989584091</v>
+        <v>73.39295453123879</v>
       </c>
       <c r="C197" t="n">
         <v>69.44200000395756</v>
       </c>
       <c r="D197" t="n">
-        <v>0.9132787185747272</v>
+        <v>0.9130713386450782</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -8314,25 +8314,25 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>0.176856342646411</v>
+        <v>0.1768446822379672</v>
       </c>
       <c r="G197" t="n">
-        <v>0.0005091857162778545</v>
+        <v>0.0005097413183195564</v>
       </c>
       <c r="H197" t="n">
         <v>85.84433308659985</v>
       </c>
       <c r="I197" t="n">
-        <v>0.1931930680691138</v>
+        <v>0.1945555154833722</v>
       </c>
       <c r="J197" t="n">
-        <v>0.1693909328107375</v>
+        <v>0.1696945775820782</v>
       </c>
       <c r="K197" t="n">
-        <v>837.5427182691895</v>
+        <v>837.5725169271885</v>
       </c>
       <c r="L197" t="n">
-        <v>51.00042981859402</v>
+        <v>50.94484095044359</v>
       </c>
     </row>
     <row r="198">
@@ -8340,13 +8340,13 @@
         <v>1960</v>
       </c>
       <c r="B198" t="n">
-        <v>71.75609758240273</v>
+        <v>71.68506283100211</v>
       </c>
       <c r="C198" t="n">
         <v>69.38495188623472</v>
       </c>
       <c r="D198" t="n">
-        <v>0.9077981928520493</v>
+        <v>0.9075724380768324</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -8354,25 +8354,25 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>0.1765452557267899</v>
+        <v>0.17653312937691</v>
       </c>
       <c r="G198" t="n">
-        <v>0.0005238990397898034</v>
+        <v>0.0005245089510738528</v>
       </c>
       <c r="H198" t="n">
         <v>85.82548645186806</v>
       </c>
       <c r="I198" t="n">
-        <v>0.2294257030676307</v>
+        <v>0.2309281269065518</v>
       </c>
       <c r="J198" t="n">
-        <v>0.1704542313438178</v>
+        <v>0.1707891700236673</v>
       </c>
       <c r="K198" t="n">
-        <v>838.3590252218052</v>
+        <v>838.3900614908463</v>
       </c>
       <c r="L198" t="n">
-        <v>49.56811983865878</v>
+        <v>49.51048086880552</v>
       </c>
     </row>
     <row r="199">
@@ -8380,13 +8380,13 @@
         <v>1970</v>
       </c>
       <c r="B199" t="n">
-        <v>70.04012522122694</v>
+        <v>69.96539188890311</v>
       </c>
       <c r="C199" t="n">
         <v>69.32793697530303</v>
       </c>
       <c r="D199" t="n">
-        <v>0.9020608268875334</v>
+        <v>0.9018143351403886</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -8394,25 +8394,25 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>0.1762342730700731</v>
+        <v>0.176221633987226</v>
       </c>
       <c r="G199" t="n">
-        <v>0.0005394376967328947</v>
+        <v>0.0005401096928954419</v>
       </c>
       <c r="H199" t="n">
         <v>85.80665483861283</v>
       </c>
       <c r="I199" t="n">
-        <v>0.2678582610376727</v>
+        <v>0.2695210466183589</v>
       </c>
       <c r="J199" t="n">
-        <v>0.1715972361175784</v>
+        <v>0.1719670942098996</v>
       </c>
       <c r="K199" t="n">
-        <v>839.1762807961742</v>
+        <v>839.2086773234849</v>
       </c>
       <c r="L199" t="n">
-        <v>48.14029598772697</v>
+        <v>48.08040057278965</v>
       </c>
     </row>
     <row r="200">
@@ -8420,13 +8420,13 @@
         <v>1980</v>
       </c>
       <c r="B200" t="n">
-        <v>68.31183584389059</v>
+        <v>68.23301283415596</v>
       </c>
       <c r="C200" t="n">
         <v>69.27095524431684</v>
       </c>
       <c r="D200" t="n">
-        <v>0.8960484271219337</v>
+        <v>0.8957784641932082</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -8434,25 +8434,25 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>0.1759233183143517</v>
+        <v>0.1759101147798292</v>
       </c>
       <c r="G200" t="n">
-        <v>0.0005558766274027937</v>
+        <v>0.0005566198704326502</v>
       </c>
       <c r="H200" t="n">
         <v>85.7878382300236</v>
       </c>
       <c r="I200" t="n">
-        <v>0.3086930625538628</v>
+        <v>0.3105402631361555</v>
       </c>
       <c r="J200" t="n">
-        <v>0.1728289377336362</v>
+        <v>0.173237905474716</v>
       </c>
       <c r="K200" t="n">
-        <v>839.9946577328448</v>
+        <v>840.0285502047134</v>
       </c>
       <c r="L200" t="n">
-        <v>46.71664377937962</v>
+        <v>46.65426400871078</v>
       </c>
     </row>
     <row r="201">
@@ -8460,13 +8460,13 @@
         <v>1990</v>
       </c>
       <c r="B201" t="n">
-        <v>66.57023881484319</v>
+        <v>66.48688633311923</v>
       </c>
       <c r="C201" t="n">
         <v>69.21400666646184</v>
       </c>
       <c r="D201" t="n">
-        <v>0.8897408300826516</v>
+        <v>0.8894442183717439</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -8474,25 +8474,25 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>0.1756123054706168</v>
+        <v>0.1755984801086633</v>
       </c>
       <c r="G201" t="n">
-        <v>0.0005733008588241936</v>
+        <v>0.0005741261996011489</v>
       </c>
       <c r="H201" t="n">
         <v>85.76903660931519</v>
       </c>
       <c r="I201" t="n">
-        <v>0.3521593191749472</v>
+        <v>0.3542194589315026</v>
       </c>
       <c r="J201" t="n">
-        <v>0.1741597029047388</v>
+        <v>0.1746126501036726</v>
       </c>
       <c r="K201" t="n">
-        <v>840.8143535930683</v>
+        <v>840.849892655204</v>
       </c>
       <c r="L201" t="n">
-        <v>45.29679310252474</v>
+        <v>45.23167625114469</v>
       </c>
     </row>
     <row r="202">
@@ -8500,13 +8500,13 @@
         <v>2000</v>
       </c>
       <c r="B202" t="n">
-        <v>64.81422332382903</v>
+        <v>64.72584463955238</v>
       </c>
       <c r="C202" t="n">
         <v>69.1570912149557</v>
       </c>
       <c r="D202" t="n">
-        <v>0.8831155936874463</v>
+        <v>0.8827886242214188</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -8514,25 +8514,25 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>0.1753011374455455</v>
+        <v>0.1752866263497013</v>
       </c>
       <c r="G202" t="n">
-        <v>0.000591807346986218</v>
+        <v>0.0005927277079356314</v>
       </c>
       <c r="H202" t="n">
         <v>85.75024995972792</v>
       </c>
       <c r="I202" t="n">
-        <v>0.3985180193981263</v>
+        <v>0.4008251089500139</v>
       </c>
       <c r="J202" t="n">
-        <v>0.1756015491014165</v>
+        <v>0.1761041693566857</v>
       </c>
       <c r="K202" t="n">
-        <v>841.6355946209035</v>
+        <v>841.6729481762436</v>
       </c>
       <c r="L202" t="n">
-        <v>43.88031091520734</v>
+        <v>43.81217554027249</v>
       </c>
     </row>
     <row r="203">
@@ -8540,13 +8540,13 @@
         <v>2010</v>
       </c>
       <c r="B203" t="n">
-        <v>63.04253844164886</v>
+        <v>62.94856982255891</v>
       </c>
       <c r="C203" t="n">
         <v>69.10020886304767</v>
       </c>
       <c r="D203" t="n">
-        <v>0.8761476244223617</v>
+        <v>0.8757859474747106</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -8554,25 +8554,25 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>0.1749897042716138</v>
+        <v>0.1749744359513711</v>
       </c>
       <c r="G203" t="n">
-        <v>0.0006115072511470055</v>
+        <v>0.0006125381144589861</v>
       </c>
       <c r="H203" t="n">
         <v>85.73147826452737</v>
       </c>
       <c r="I203" t="n">
-        <v>0.4480679577854279</v>
+        <v>0.4506627897385497</v>
       </c>
       <c r="J203" t="n">
-        <v>0.1771684882180173</v>
+        <v>0.1777274816993463</v>
       </c>
       <c r="K203" t="n">
-        <v>842.4586403701347</v>
+        <v>842.4979963482549</v>
       </c>
       <c r="L203" t="n">
-        <v>42.46669248639278</v>
+        <v>42.39522370064375</v>
       </c>
     </row>
     <row r="204">
@@ -8580,13 +8580,13 @@
         <v>2020</v>
       </c>
       <c r="B204" t="n">
-        <v>61.25376883637496</v>
+        <v>61.15356714297582</v>
       </c>
       <c r="C204" t="n">
         <v>69.04335958401862</v>
       </c>
       <c r="D204" t="n">
-        <v>0.8688087236154494</v>
+        <v>0.8684072115947234</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -8594,25 +8594,25 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>0.1746778809716681</v>
+        <v>0.1746617750725374</v>
       </c>
       <c r="G204" t="n">
-        <v>0.0006325287659315297</v>
+        <v>0.0006336888023775185</v>
       </c>
       <c r="H204" t="n">
         <v>85.71272150700445</v>
       </c>
       <c r="I204" t="n">
-        <v>0.5011532392951998</v>
+        <v>0.5040850565759247</v>
       </c>
       <c r="J204" t="n">
-        <v>0.1788769605273899</v>
+        <v>0.1795002679583095</v>
       </c>
       <c r="K204" t="n">
-        <v>843.2837892863478</v>
+        <v>843.3253590074693</v>
       </c>
       <c r="L204" t="n">
-        <v>41.0553508177845</v>
+        <v>40.98019452170855</v>
       </c>
     </row>
     <row r="205">
@@ -8620,13 +8620,13 @@
         <v>2030</v>
       </c>
       <c r="B205" t="n">
-        <v>59.44630495562572</v>
+        <v>59.33913220772147</v>
       </c>
       <c r="C205" t="n">
         <v>68.98654335118113</v>
       </c>
       <c r="D205" t="n">
-        <v>0.86106703065604</v>
+        <v>0.8606196046855369</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -8634,25 +8634,25 @@
         </is>
       </c>
       <c r="F205" t="n">
-        <v>0.174365524962864</v>
+        <v>0.1743484906978942</v>
       </c>
       <c r="G205" t="n">
-        <v>0.000655020681282746</v>
+        <v>0.0006563325684843907</v>
       </c>
       <c r="H205" t="n">
         <v>85.6939796704754</v>
       </c>
       <c r="I205" t="n">
-        <v>0.5581727077622693</v>
+        <v>0.5615013741127255</v>
       </c>
       <c r="J205" t="n">
-        <v>0.1807463880749244</v>
+        <v>0.181443493525435</v>
       </c>
       <c r="K205" t="n">
-        <v>844.1113854925553</v>
+        <v>844.1554077885916</v>
       </c>
       <c r="L205" t="n">
-        <v>39.6456037644552</v>
+        <v>39.56635954791393</v>
       </c>
     </row>
     <row r="206">
@@ -8660,13 +8660,13 @@
         <v>2040</v>
       </c>
       <c r="B206" t="n">
-        <v>57.61830607557056</v>
+        <v>57.5033100537394</v>
       </c>
       <c r="C206" t="n">
         <v>68.92976013787927</v>
       </c>
       <c r="D206" t="n">
-        <v>0.852886333573681</v>
+        <v>0.852385741987595</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -8674,25 +8674,25 @@
         </is>
       </c>
       <c r="F206" t="n">
-        <v>0.1740524728745017</v>
+        <v>0.1740344070844289</v>
       </c>
       <c r="G206" t="n">
-        <v>0.0006791569032968353</v>
+        <v>0.0006806484025433866</v>
       </c>
       <c r="H206" t="n">
         <v>85.67525273828163</v>
       </c>
       <c r="I206" t="n">
-        <v>0.6195919134543585</v>
+        <v>0.6233907689674014</v>
       </c>
       <c r="J206" t="n">
-        <v>0.1827998880055162</v>
+        <v>0.183582215398206</v>
       </c>
       <c r="K206" t="n">
-        <v>844.941827106093</v>
+        <v>844.9885734158686</v>
       </c>
       <c r="L206" t="n">
-        <v>38.23665821785699</v>
+        <v>38.15287054317874</v>
       </c>
     </row>
     <row r="207">
@@ -8700,13 +8700,13 @@
         <v>2050</v>
       </c>
       <c r="B207" t="n">
-        <v>55.76765404653143</v>
+        <v>55.6438436335384</v>
       </c>
       <c r="C207" t="n">
         <v>68.87300991748862</v>
       </c>
       <c r="D207" t="n">
-        <v>0.8442252069532745</v>
+        <v>0.8436627393225459</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -8714,25 +8714,25 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>0.1737385366122274</v>
+        <v>0.1737193213420744</v>
       </c>
       <c r="G207" t="n">
-        <v>0.0007051422598011726</v>
+        <v>0.000706847650653615</v>
       </c>
       <c r="H207" t="n">
         <v>85.65654069378978</v>
       </c>
       <c r="I207" t="n">
-        <v>0.6859584739488573</v>
+        <v>0.6903181381850527</v>
       </c>
       <c r="J207" t="n">
-        <v>0.1850652029039129</v>
+        <v>0.1859466420201002</v>
       </c>
       <c r="K207" t="n">
-        <v>845.7755765243628</v>
+        <v>845.8253572570437</v>
       </c>
       <c r="L207" t="n">
-        <v>36.82759049923002</v>
+        <v>36.73873763836698</v>
       </c>
     </row>
     <row r="208">
@@ -8740,13 +8740,13 @@
         <v>2060</v>
       </c>
       <c r="B208" t="n">
-        <v>53.89189474742658</v>
+        <v>53.75810819120615</v>
       </c>
       <c r="C208" t="n">
         <v>68.81629266341633</v>
       </c>
       <c r="D208" t="n">
-        <v>0.8350359222858821</v>
+        <v>0.8344010358192124</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -8754,25 +8754,25 @@
         </is>
       </c>
       <c r="F208" t="n">
-        <v>0.1734234984419812</v>
+        <v>0.1734029978799865</v>
       </c>
       <c r="G208" t="n">
-        <v>0.000733220047768125</v>
+        <v>0.0007351820654036893</v>
       </c>
       <c r="H208" t="n">
         <v>85.63784352039156</v>
       </c>
       <c r="I208" t="n">
-        <v>0.7579220334798363</v>
+        <v>0.7629555394742012</v>
       </c>
       <c r="J208" t="n">
-        <v>0.1875759299104853</v>
+        <v>0.1885735442332254</v>
       </c>
       <c r="K208" t="n">
-        <v>846.6131732713001</v>
+        <v>846.6663458419487</v>
       </c>
       <c r="L208" t="n">
-        <v>35.41732180769781</v>
+        <v>35.32280180610745</v>
       </c>
     </row>
     <row r="209">
@@ -8780,13 +8780,13 @@
         <v>2070</v>
       </c>
       <c r="B209" t="n">
-        <v>52.00803714979549</v>
+        <v>51.86488937866447</v>
       </c>
       <c r="C209" t="n">
         <v>68.75960834910063</v>
       </c>
       <c r="D209" t="n">
-        <v>0.8252630542922595</v>
+        <v>0.8245428793435332</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -8794,25 +8794,25 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>0.1731071047827482</v>
+        <v>0.1730851613465388</v>
       </c>
       <c r="G209" t="n">
-        <v>0.0007636819787434147</v>
+        <v>0.0007659544697412011</v>
       </c>
       <c r="H209" t="n">
         <v>85.61916120150373</v>
       </c>
       <c r="I209" t="n">
-        <v>0.8362605500215365</v>
+        <v>0.8421103792878758</v>
       </c>
       <c r="J209" t="n">
-        <v>0.1883857597631082</v>
+        <v>0.1893218812541677</v>
       </c>
       <c r="K209" t="n">
-        <v>847.4552502166441</v>
+        <v>847.5122293175036</v>
       </c>
       <c r="L209" t="n">
-        <v>34.00458713244603</v>
+        <v>33.90369978052806</v>
       </c>
     </row>
     <row r="210">
@@ -8820,13 +8820,13 @@
         <v>2080</v>
       </c>
       <c r="B210" t="n">
-        <v>50.12060977838694</v>
+        <v>49.96698934211978</v>
       </c>
       <c r="C210" t="n">
         <v>68.70295694801143</v>
       </c>
       <c r="D210" t="n">
-        <v>0.8149538969933687</v>
+        <v>0.8141442736112579</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -8834,25 +8834,25 @@
         </is>
       </c>
       <c r="F210" t="n">
-        <v>0.1727922873280074</v>
+        <v>0.1727690369736922</v>
       </c>
       <c r="G210" t="n">
-        <v>0.0007965195504072426</v>
+        <v>0.0007991327155945728</v>
       </c>
       <c r="H210" t="n">
         <v>85.60049372056812</v>
       </c>
       <c r="I210" t="n">
-        <v>0.9209808687394159</v>
+        <v>0.927729198437495</v>
       </c>
       <c r="J210" t="n">
-        <v>0.1887427371408551</v>
+        <v>0.1897900036544689</v>
       </c>
       <c r="K210" t="n">
-        <v>848.2941608994884</v>
+        <v>848.3545983438567</v>
       </c>
       <c r="L210" t="n">
-        <v>32.60270306533221</v>
+        <v>32.49609217705216</v>
       </c>
     </row>
     <row r="211">
@@ -8860,13 +8860,13 @@
         <v>2090</v>
       </c>
       <c r="B211" t="n">
-        <v>48.22885040039703</v>
+        <v>48.06348346367795</v>
       </c>
       <c r="C211" t="n">
         <v>68.6463384336497</v>
       </c>
       <c r="D211" t="n">
-        <v>0.8040961194783289</v>
+        <v>0.8031824542344023</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -8874,25 +8874,25 @@
         </is>
       </c>
       <c r="F211" t="n">
-        <v>0.1724798675135403</v>
+        <v>0.172455166426177</v>
       </c>
       <c r="G211" t="n">
-        <v>0.0008319257538982703</v>
+        <v>0.0008349478073650494</v>
       </c>
       <c r="H211" t="n">
         <v>85.58184106105153</v>
       </c>
       <c r="I211" t="n">
-        <v>1.012604902243354</v>
+        <v>1.020432499890157</v>
       </c>
       <c r="J211" t="n">
-        <v>0.189175937798991</v>
+        <v>0.1903505878441828</v>
       </c>
       <c r="K211" t="n">
-        <v>849.1277155843183</v>
+        <v>849.1919892545328</v>
       </c>
       <c r="L211" t="n">
-        <v>31.21515383551253</v>
+        <v>31.10217208619534</v>
       </c>
     </row>
     <row r="212">
@@ -8900,13 +8900,13 @@
         <v>2100</v>
       </c>
       <c r="B212" t="n">
-        <v>46.33191144428476</v>
+        <v>46.15332907348572</v>
       </c>
       <c r="C212" t="n">
         <v>68.58975277954789</v>
       </c>
       <c r="D212" t="n">
-        <v>0.7926460835177574</v>
+        <v>0.7916108778483164</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -8914,25 +8914,25 @@
         </is>
       </c>
       <c r="F212" t="n">
-        <v>0.1721697991702441</v>
+        <v>0.1721434846123604</v>
       </c>
       <c r="G212" t="n">
-        <v>0.0008702237450194797</v>
+        <v>0.0008737398711636269</v>
       </c>
       <c r="H212" t="n">
         <v>85.56320320644573</v>
       </c>
       <c r="I212" t="n">
-        <v>1.111991656585459</v>
+        <v>1.121124234146553</v>
       </c>
       <c r="J212" t="n">
-        <v>0.1896938956112263</v>
+        <v>0.1910154390192228</v>
       </c>
       <c r="K212" t="n">
-        <v>849.9559752363198</v>
+        <v>850.0245127119261</v>
       </c>
       <c r="L212" t="n">
-        <v>29.84139485538623</v>
+        <v>29.72130635754866</v>
       </c>
     </row>
     <row r="213">
@@ -8940,13 +8940,13 @@
         <v>2110</v>
       </c>
       <c r="B213" t="n">
-        <v>44.42883850338553</v>
+        <v>44.23533530743795</v>
       </c>
       <c r="C213" t="n">
         <v>68.53319995926938</v>
       </c>
       <c r="D213" t="n">
-        <v>0.7805547806274978</v>
+        <v>0.7793769190105295</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -8954,25 +8954,25 @@
         </is>
       </c>
       <c r="F213" t="n">
-        <v>0.1718620320861718</v>
+        <v>0.1718339187797947</v>
       </c>
       <c r="G213" t="n">
-        <v>0.0009117953504702679</v>
+        <v>0.0009159128980482424</v>
       </c>
       <c r="H213" t="n">
         <v>85.5445801402673</v>
       </c>
       <c r="I213" t="n">
-        <v>1.220154456925108</v>
+        <v>1.230876387216187</v>
       </c>
       <c r="J213" t="n">
-        <v>0.1903072940899234</v>
+        <v>0.1917993766047775</v>
       </c>
       <c r="K213" t="n">
-        <v>850.7790117598363</v>
+        <v>850.8522997715653</v>
       </c>
       <c r="L213" t="n">
-        <v>28.48083221115968</v>
+        <v>28.35279472862215</v>
       </c>
     </row>
     <row r="214">
@@ -8980,13 +8980,13 @@
         <v>2120</v>
       </c>
       <c r="B214" t="n">
-        <v>42.51854412075896</v>
+        <v>42.30812531658636</v>
       </c>
       <c r="C214" t="n">
         <v>68.47667994640881</v>
       </c>
       <c r="D214" t="n">
-        <v>0.7677668401651376</v>
+        <v>0.7664206631984257</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -8994,25 +8994,25 @@
         </is>
       </c>
       <c r="F214" t="n">
-        <v>0.1715565101739936</v>
+        <v>0.1715263857629684</v>
       </c>
       <c r="G214" t="n">
-        <v>0.0009570954614718396</v>
+        <v>0.0009619510745405175</v>
       </c>
       <c r="H214" t="n">
         <v>85.52597184605766</v>
       </c>
       <c r="I214" t="n">
-        <v>1.338298655620543</v>
+        <v>1.350971788469074</v>
       </c>
       <c r="J214" t="n">
-        <v>0.1910294382626573</v>
+        <v>0.1927209990851584</v>
       </c>
       <c r="K214" t="n">
-        <v>851.5969127537387</v>
+        <v>851.6755090399018</v>
       </c>
       <c r="L214" t="n">
-        <v>27.13281112808131</v>
+        <v>26.99585360935676</v>
       </c>
     </row>
     <row r="215">
@@ -9020,13 +9020,13 @@
         <v>2130</v>
       </c>
       <c r="B215" t="n">
-        <v>40.59977520452406</v>
+        <v>40.37008794747489</v>
       </c>
       <c r="C215" t="n">
         <v>68.4201927145923</v>
       </c>
       <c r="D215" t="n">
-        <v>0.754219292156292</v>
+        <v>0.7526733747990135</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -9034,25 +9034,25 @@
         </is>
       </c>
       <c r="F215" t="n">
-        <v>0.1712531693235201</v>
+        <v>0.1712207886125873</v>
       </c>
       <c r="G215" t="n">
-        <v>0.001006670964519083</v>
+        <v>0.001012440522237616</v>
       </c>
       <c r="H215" t="n">
         <v>85.50737830738315</v>
       </c>
       <c r="I215" t="n">
-        <v>1.46787120288722</v>
+        <v>1.482961071247598</v>
       </c>
       <c r="J215" t="n">
-        <v>0.1918768916234899</v>
+        <v>0.1938037369111467</v>
       </c>
       <c r="K215" t="n">
-        <v>852.40978709769</v>
+        <v>852.494335455676</v>
       </c>
       <c r="L215" t="n">
-        <v>25.79660216987112</v>
+        <v>25.64959601801131</v>
       </c>
     </row>
     <row r="216">
@@ -9060,13 +9060,13 @@
         <v>2140</v>
       </c>
       <c r="B216" t="n">
-        <v>38.67107180665471</v>
+        <v>38.41931476528197</v>
       </c>
       <c r="C216" t="n">
         <v>68.36373823747647</v>
       </c>
       <c r="D216" t="n">
-        <v>0.7398400063324621</v>
+        <v>0.7380555256784984</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -9074,25 +9074,25 @@
         </is>
       </c>
       <c r="F216" t="n">
-        <v>0.1709519348103231</v>
+        <v>0.1709170123531011</v>
       </c>
       <c r="G216" t="n">
-        <v>0.001061185998749507</v>
+        <v>0.001068098705933298</v>
       </c>
       <c r="H216" t="n">
         <v>85.48879950783476</v>
       </c>
       <c r="I216" t="n">
-        <v>1.610626751170808</v>
+        <v>1.628739689177628</v>
       </c>
       <c r="J216" t="n">
-        <v>0.1928703397869362</v>
+        <v>0.1950773182192923</v>
       </c>
       <c r="K216" t="n">
-        <v>853.2177717031569</v>
+        <v>853.309021353374</v>
       </c>
       <c r="L216" t="n">
-        <v>24.47138429856835</v>
+        <v>24.31300613267568</v>
       </c>
     </row>
     <row r="217">
@@ -9100,13 +9100,13 @@
         <v>2150</v>
       </c>
       <c r="B217" t="n">
-        <v>36.73071408036242</v>
+        <v>36.45351635274411</v>
       </c>
       <c r="C217" t="n">
         <v>68.30731648874939</v>
       </c>
       <c r="D217" t="n">
-        <v>0.7245456976596182</v>
+        <v>0.7224742192710873</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -9114,25 +9114,25 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>0.1706527180882224</v>
+        <v>0.1706149185094839</v>
       </c>
       <c r="G217" t="n">
-        <v>0.001121456193549956</v>
+        <v>0.001129814935003021</v>
       </c>
       <c r="H217" t="n">
         <v>85.47023543102817</v>
       </c>
       <c r="I217" t="n">
-        <v>1.768717217300291</v>
+        <v>1.79065393230769</v>
       </c>
       <c r="J217" t="n">
-        <v>0.1940357726292287</v>
+        <v>0.1965798412537859</v>
       </c>
       <c r="K217" t="n">
-        <v>854.0210398758348</v>
+        <v>854.1198707431613</v>
       </c>
       <c r="L217" t="n">
-        <v>23.15622361088904</v>
+        <v>22.98490627368968</v>
       </c>
     </row>
     <row r="218">
@@ -9140,13 +9140,13 @@
         <v>2160</v>
       </c>
       <c r="B218" t="n">
-        <v>34.77665284213866</v>
+        <v>34.46990872941729</v>
       </c>
       <c r="C218" t="n">
         <v>68.25092744212975</v>
       </c>
       <c r="D218" t="n">
-        <v>0.708239342264654</v>
+        <v>0.7058197667240405</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -9154,25 +9154,25 @@
         </is>
       </c>
       <c r="F218" t="n">
-        <v>0.1703554127284327</v>
+        <v>0.1703143378790298</v>
       </c>
       <c r="G218" t="n">
-        <v>0.001188495908305403</v>
+        <v>0.001198707280878843</v>
       </c>
       <c r="H218" t="n">
         <v>85.45168606060373</v>
       </c>
       <c r="I218" t="n">
-        <v>1.944815292463687</v>
+        <v>1.971649838835885</v>
       </c>
       <c r="J218" t="n">
-        <v>0.1954061238223762</v>
+        <v>0.1983607623326822</v>
       </c>
       <c r="K218" t="n">
-        <v>854.8198119053689</v>
+        <v>854.927268172691</v>
       </c>
       <c r="L218" t="n">
-        <v>21.85004610128297</v>
+        <v>21.66391311865569</v>
       </c>
     </row>
   </sheetData>

--- a/Relatorio_Grupo2.xlsx
+++ b/Relatorio_Grupo2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U218"/>
+  <dimension ref="A1:W218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,40 +501,50 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>rho_w</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>rho_liq</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>rho_g</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>rho_mix</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>rho_ns</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>dp_fric</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>dp_grav</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>mu_o</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>mu_g</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>mu_mix</t>
         </is>
@@ -583,27 +593,33 @@
         <v>817.1928268811087</v>
       </c>
       <c r="N2" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O2" t="n">
+        <v>871.7468289319761</v>
+      </c>
+      <c r="P2" t="n">
         <v>241.9519218467519</v>
       </c>
-      <c r="O2" t="n">
-        <v>872.0349788167761</v>
-      </c>
-      <c r="P2" t="n">
-        <v>872.0349788167761</v>
-      </c>
       <c r="Q2" t="n">
+        <v>871.7468289319761</v>
+      </c>
+      <c r="R2" t="n">
+        <v>871.7468289319761</v>
+      </c>
+      <c r="S2" t="n">
         <v>0</v>
       </c>
-      <c r="R2" t="n">
+      <c r="T2" t="n">
         <v>0</v>
       </c>
-      <c r="S2" t="n">
+      <c r="U2" t="n">
         <v>0.002222354758441789</v>
       </c>
-      <c r="T2" t="n">
+      <c r="V2" t="n">
         <v>2.644445347090847e-05</v>
       </c>
-      <c r="U2" t="n">
+      <c r="W2" t="n">
         <v>0.002222354758441789</v>
       </c>
     </row>
@@ -650,27 +666,33 @@
         <v>817.1928268811087</v>
       </c>
       <c r="N3" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O3" t="n">
+        <v>871.7468289319761</v>
+      </c>
+      <c r="P3" t="n">
         <v>241.9519218467519</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>922.0015527860087</v>
       </c>
-      <c r="P3" t="n">
+      <c r="R3" t="n">
         <v>922.0008576866976</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="S3" t="n">
         <v>0.03465527469189305</v>
       </c>
-      <c r="R3" t="n">
+      <c r="T3" t="n">
         <v>0.09044835232830747</v>
       </c>
-      <c r="S3" t="n">
+      <c r="U3" t="n">
         <v>0.002222354758441789</v>
       </c>
-      <c r="T3" t="n">
+      <c r="V3" t="n">
         <v>2.644445347090847e-05</v>
       </c>
-      <c r="U3" t="n">
+      <c r="W3" t="n">
         <v>0.001678418516231127</v>
       </c>
     </row>
@@ -717,27 +739,33 @@
         <v>817.206980426832</v>
       </c>
       <c r="N4" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O4" t="n">
+        <v>871.7567364139825</v>
+      </c>
+      <c r="P4" t="n">
         <v>241.3034093288496</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>921.955340557654</v>
       </c>
-      <c r="P4" t="n">
+      <c r="R4" t="n">
         <v>921.9546448024483</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="S4" t="n">
         <v>0.03465969621533418</v>
       </c>
-      <c r="R4" t="n">
+      <c r="T4" t="n">
         <v>0.09044381890870588</v>
       </c>
-      <c r="S4" t="n">
+      <c r="U4" t="n">
         <v>0.002218640462259649</v>
       </c>
-      <c r="T4" t="n">
+      <c r="V4" t="n">
         <v>2.636981482579419e-05</v>
       </c>
-      <c r="U4" t="n">
+      <c r="W4" t="n">
         <v>0.00167576229312417</v>
       </c>
     </row>
@@ -784,27 +812,33 @@
         <v>817.2208236612996</v>
       </c>
       <c r="N5" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O5" t="n">
+        <v>871.7664266781097</v>
+      </c>
+      <c r="P5" t="n">
         <v>240.6503758257027</v>
       </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
         <v>921.9083176895233</v>
       </c>
-      <c r="P5" t="n">
+      <c r="R5" t="n">
         <v>921.9076212740546</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="S5" t="n">
         <v>0.03466419916993489</v>
       </c>
-      <c r="R5" t="n">
+      <c r="T5" t="n">
         <v>0.09043920596534225</v>
       </c>
-      <c r="S5" t="n">
+      <c r="U5" t="n">
         <v>0.002214950453483249</v>
       </c>
-      <c r="T5" t="n">
+      <c r="V5" t="n">
         <v>2.629492816902325e-05</v>
       </c>
-      <c r="U5" t="n">
+      <c r="W5" t="n">
         <v>0.001673123719308863</v>
       </c>
     </row>
@@ -851,27 +885,33 @@
         <v>817.2343546975479</v>
       </c>
       <c r="N6" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O6" t="n">
+        <v>871.7758984034836</v>
+      </c>
+      <c r="P6" t="n">
         <v>239.9927734650126</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
         <v>921.8604711172255</v>
       </c>
-      <c r="P6" t="n">
+      <c r="R6" t="n">
         <v>921.8597740370783</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="S6" t="n">
         <v>0.03466878509866436</v>
       </c>
-      <c r="R6" t="n">
+      <c r="T6" t="n">
         <v>0.09043451221659984</v>
       </c>
-      <c r="S6" t="n">
+      <c r="U6" t="n">
         <v>0.002211284811948492</v>
       </c>
-      <c r="T6" t="n">
+      <c r="V6" t="n">
         <v>2.621979279731048e-05</v>
       </c>
-      <c r="U6" t="n">
+      <c r="W6" t="n">
         <v>0.001670502852116016</v>
       </c>
     </row>
@@ -918,27 +958,33 @@
         <v>817.2475716608493</v>
       </c>
       <c r="N7" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O7" t="n">
+        <v>871.7851502777945</v>
+      </c>
+      <c r="P7" t="n">
         <v>239.3305543444851</v>
       </c>
-      <c r="O7" t="n">
+      <c r="Q7" t="n">
         <v>921.8117875296778</v>
       </c>
-      <c r="P7" t="n">
+      <c r="R7" t="n">
         <v>921.8110897803895</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="S7" t="n">
         <v>0.03467345557620607</v>
       </c>
-      <c r="R7" t="n">
+      <c r="T7" t="n">
         <v>0.09042973635666141</v>
       </c>
-      <c r="S7" t="n">
+      <c r="U7" t="n">
         <v>0.002207643618687254</v>
       </c>
-      <c r="T7" t="n">
+      <c r="V7" t="n">
         <v>2.61444080862478e-05</v>
       </c>
-      <c r="U7" t="n">
+      <c r="W7" t="n">
         <v>0.00166789974973396</v>
       </c>
     </row>
@@ -985,27 +1031,33 @@
         <v>817.2604726888</v>
       </c>
       <c r="N8" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O8" t="n">
+        <v>871.7941809973599</v>
+      </c>
+      <c r="P8" t="n">
         <v>238.6636705530806</v>
       </c>
-      <c r="O8" t="n">
+      <c r="Q8" t="n">
         <v>921.762253363827</v>
       </c>
-      <c r="P8" t="n">
+      <c r="R8" t="n">
         <v>921.761554940888</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="S8" t="n">
         <v>0.03467821220965341</v>
       </c>
-      <c r="R8" t="n">
+      <c r="T8" t="n">
         <v>0.09042487705499144</v>
       </c>
-      <c r="S8" t="n">
+      <c r="U8" t="n">
         <v>0.00220402695594594</v>
       </c>
-      <c r="T8" t="n">
+      <c r="V8" t="n">
         <v>2.606877349291779e-05</v>
       </c>
-      <c r="U8" t="n">
+      <c r="W8" t="n">
         <v>0.001665314471221715</v>
       </c>
     </row>
@@ -1052,27 +1104,33 @@
         <v>817.2730559314073</v>
       </c>
       <c r="N9" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O9" t="n">
+        <v>871.8029892671851</v>
+      </c>
+      <c r="P9" t="n">
         <v>237.9920741929792</v>
       </c>
-      <c r="O9" t="n">
+      <c r="Q9" t="n">
         <v>921.7118547992484</v>
       </c>
-      <c r="P9" t="n">
+      <c r="R9" t="n">
         <v>921.7111556981022</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="S9" t="n">
         <v>0.03468305663922249</v>
       </c>
-      <c r="R9" t="n">
+      <c r="T9" t="n">
         <v>0.09041993295580628</v>
       </c>
-      <c r="S9" t="n">
+      <c r="U9" t="n">
         <v>0.00220043490720436</v>
       </c>
-      <c r="T9" t="n">
+      <c r="V9" t="n">
         <v>2.599288855852502e-05</v>
       </c>
-      <c r="U9" t="n">
+      <c r="W9" t="n">
         <v>0.001662747076522377</v>
       </c>
     </row>
@@ -1119,27 +1177,33 @@
         <v>817.2853195511761</v>
       </c>
       <c r="N10" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O10" t="n">
+        <v>871.8115738010233</v>
+      </c>
+      <c r="P10" t="n">
         <v>237.3157174022723</v>
       </c>
-      <c r="O10" t="n">
+      <c r="Q10" t="n">
         <v>921.6605777526248</v>
       </c>
-      <c r="P10" t="n">
+      <c r="R10" t="n">
         <v>921.6598779686673</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="S10" t="n">
         <v>0.03468799053898206</v>
       </c>
-      <c r="R10" t="n">
+      <c r="T10" t="n">
         <v>0.09041490267753251</v>
       </c>
-      <c r="S10" t="n">
+      <c r="U10" t="n">
         <v>0.002196867557195004</v>
       </c>
-      <c r="T10" t="n">
+      <c r="V10" t="n">
         <v>2.591675291104316e-05</v>
       </c>
-      <c r="U10" t="n">
+      <c r="W10" t="n">
         <v>0.001660197626476793</v>
       </c>
     </row>
@@ -1186,27 +1250,33 @@
         <v>817.2972617231959</v>
       </c>
       <c r="N11" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O11" t="n">
+        <v>871.8199333214371</v>
+      </c>
+      <c r="P11" t="n">
         <v>236.6345523783837</v>
       </c>
-      <c r="O11" t="n">
+      <c r="Q11" t="n">
         <v>921.608407872097</v>
       </c>
-      <c r="P11" t="n">
+      <c r="R11" t="n">
         <v>921.6077074006773</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="S11" t="n">
         <v>0.0346930156176012</v>
       </c>
-      <c r="R11" t="n">
+      <c r="T11" t="n">
         <v>0.09040978481225273</v>
       </c>
-      <c r="S11" t="n">
+      <c r="U11" t="n">
         <v>0.002193324991922669</v>
       </c>
-      <c r="T11" t="n">
+      <c r="V11" t="n">
         <v>2.584036626787552e-05</v>
       </c>
-      <c r="U11" t="n">
+      <c r="W11" t="n">
         <v>0.001657666182837478</v>
       </c>
     </row>
@@ -1253,27 +1323,33 @@
         <v>817.3088806352245</v>
       </c>
       <c r="N12" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O12" t="n">
+        <v>871.8280665598571</v>
+      </c>
+      <c r="P12" t="n">
         <v>235.9485314022278</v>
       </c>
-      <c r="O12" t="n">
+      <c r="Q12" t="n">
         <v>921.5553305314847</v>
       </c>
-      <c r="P12" t="n">
+      <c r="R12" t="n">
         <v>921.5546293679054</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="S12" t="n">
         <v>0.03469813361911531</v>
       </c>
-      <c r="R12" t="n">
+      <c r="T12" t="n">
         <v>0.09040457792513866</v>
       </c>
-      <c r="S12" t="n">
+      <c r="U12" t="n">
         <v>0.002189807298684477</v>
       </c>
-      <c r="T12" t="n">
+      <c r="V12" t="n">
         <v>2.57637284385266e-05</v>
       </c>
-      <c r="U12" t="n">
+      <c r="W12" t="n">
         <v>0.001655152808282819</v>
       </c>
     </row>
@@ -1320,27 +1396,33 @@
         <v>817.3201744877746</v>
       </c>
       <c r="N13" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O13" t="n">
+        <v>871.8359722566422</v>
+      </c>
+      <c r="P13" t="n">
         <v>235.2576068631139</v>
       </c>
-      <c r="O13" t="n">
+      <c r="Q13" t="n">
         <v>921.5013308243766</v>
       </c>
-      <c r="P13" t="n">
+      <c r="R13" t="n">
         <v>921.5006289638928</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="S13" t="n">
         <v>0.03470334632371092</v>
       </c>
-      <c r="R13" t="n">
+      <c r="T13" t="n">
         <v>0.09039928055387136</v>
       </c>
-      <c r="S13" t="n">
+      <c r="U13" t="n">
         <v>0.002186314566090281</v>
       </c>
-      <c r="T13" t="n">
+      <c r="V13" t="n">
         <v>2.568683932728231e-05</v>
       </c>
-      <c r="U13" t="n">
+      <c r="W13" t="n">
         <v>0.00165265756643154</v>
       </c>
     </row>
@@ -1387,27 +1469,33 @@
         <v>817.3311414941968</v>
       </c>
       <c r="N14" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O14" t="n">
+        <v>871.8436491611377</v>
+      </c>
+      <c r="P14" t="n">
         <v>234.5617312843962</v>
       </c>
-      <c r="O14" t="n">
+      <c r="Q14" t="n">
         <v>921.4463935580809</v>
       </c>
-      <c r="P14" t="n">
+      <c r="R14" t="n">
         <v>921.4456909959015</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="S14" t="n">
         <v>0.03470865554853004</v>
       </c>
-      <c r="R14" t="n">
+      <c r="T14" t="n">
         <v>0.09039389120804774</v>
       </c>
-      <c r="S14" t="n">
+      <c r="U14" t="n">
         <v>0.002182846884083474</v>
       </c>
-      <c r="T14" t="n">
+      <c r="V14" t="n">
         <v>2.560969893589592e-05</v>
       </c>
-      <c r="U14" t="n">
+      <c r="W14" t="n">
         <v>0.001650180521857459</v>
       </c>
     </row>
@@ -1454,27 +1542,33 @@
         <v>817.3417798807631</v>
       </c>
       <c r="N15" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O15" t="n">
+        <v>871.8510960317342</v>
+      </c>
+      <c r="P15" t="n">
         <v>233.8608573498806</v>
       </c>
-      <c r="O15" t="n">
+      <c r="Q15" t="n">
         <v>921.3905032474373</v>
       </c>
-      <c r="P15" t="n">
+      <c r="R15" t="n">
         <v>921.3897999787245</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="S15" t="n">
         <v>0.0347140631484941</v>
       </c>
-      <c r="R15" t="n">
+      <c r="T15" t="n">
         <v>0.09038840836857361</v>
       </c>
-      <c r="S15" t="n">
+      <c r="U15" t="n">
         <v>0.002179404343962192</v>
       </c>
-      <c r="T15" t="n">
+      <c r="V15" t="n">
         <v>2.553230736627753e-05</v>
       </c>
-      <c r="U15" t="n">
+      <c r="W15" t="n">
         <v>0.001647721740104524</v>
       </c>
     </row>
@@ -1521,27 +1615,33 @@
         <v>817.3520878867492</v>
       </c>
       <c r="N16" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O16" t="n">
+        <v>871.8583116359245</v>
+      </c>
+      <c r="P16" t="n">
         <v>233.1549379309864</v>
       </c>
-      <c r="O16" t="n">
+      <c r="Q16" t="n">
         <v>921.3336441084847</v>
       </c>
-      <c r="P16" t="n">
+      <c r="R16" t="n">
         <v>921.3329401283543</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="S16" t="n">
         <v>0.03471957101714881</v>
       </c>
-      <c r="R16" t="n">
+      <c r="T16" t="n">
         <v>0.09038283048704236</v>
       </c>
-      <c r="S16" t="n">
+      <c r="U16" t="n">
         <v>0.002175987038400947</v>
       </c>
-      <c r="T16" t="n">
+      <c r="V16" t="n">
         <v>2.545466482318373e-05</v>
       </c>
-      <c r="U16" t="n">
+      <c r="W16" t="n">
         <v>0.001645281287702147</v>
       </c>
     </row>
@@ -1588,27 +1688,33 @@
         <v>817.362063764518</v>
       </c>
       <c r="N17" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O17" t="n">
+        <v>871.8652947503626</v>
+      </c>
+      <c r="P17" t="n">
         <v>232.4439261146716</v>
       </c>
-      <c r="O17" t="n">
+      <c r="Q17" t="n">
         <v>921.2758000519812</v>
       </c>
-      <c r="P17" t="n">
+      <c r="R17" t="n">
         <v>921.2750953555028</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="S17" t="n">
         <v>0.03472518108752983</v>
       </c>
-      <c r="R17" t="n">
+      <c r="T17" t="n">
         <v>0.09037715598509936</v>
       </c>
-      <c r="S17" t="n">
+      <c r="U17" t="n">
         <v>0.002172595061472674</v>
       </c>
-      <c r="T17" t="n">
+      <c r="V17" t="n">
         <v>2.537677161690493e-05</v>
       </c>
-      <c r="U17" t="n">
+      <c r="W17" t="n">
         <v>0.001642859232180837</v>
       </c>
     </row>
@@ -1655,27 +1761,33 @@
         <v>817.3717057795989</v>
       </c>
       <c r="N18" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O18" t="n">
+        <v>871.8720441609192</v>
+      </c>
+      <c r="P18" t="n">
         <v>231.7277752321183</v>
       </c>
-      <c r="O18" t="n">
+      <c r="Q18" t="n">
         <v>921.2169546767699</v>
       </c>
-      <c r="P18" t="n">
+      <c r="R18" t="n">
         <v>921.2162492589673</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="S18" t="n">
         <v>0.03473089533305058</v>
       </c>
-      <c r="R18" t="n">
+      <c r="T18" t="n">
         <v>0.09037138325379114</v>
       </c>
-      <c r="S18" t="n">
+      <c r="U18" t="n">
         <v>0.002169228508671222</v>
       </c>
-      <c r="T18" t="n">
+      <c r="V18" t="n">
         <v>2.529862816594683e-05</v>
       </c>
-      <c r="U18" t="n">
+      <c r="W18" t="n">
         <v>0.001640455642088145</v>
       </c>
     </row>
@@ -1722,27 +1834,33 @@
         <v>817.3810122107691</v>
       </c>
       <c r="N19" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O19" t="n">
+        <v>871.8785586627383</v>
+      </c>
+      <c r="P19" t="n">
         <v>231.006438888186</v>
       </c>
-      <c r="O19" t="n">
+      <c r="Q19" t="n">
         <v>921.157091262992</v>
       </c>
-      <c r="P19" t="n">
+      <c r="R19" t="n">
         <v>921.1563851188436</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="S19" t="n">
         <v>0.03473671576841198</v>
       </c>
-      <c r="R19" t="n">
+      <c r="T19" t="n">
         <v>0.09036551065289952</v>
       </c>
-      <c r="S19" t="n">
+      <c r="U19" t="n">
         <v>0.002165887476934281</v>
       </c>
-      <c r="T19" t="n">
+      <c r="V19" t="n">
         <v>2.522023499970337e-05</v>
       </c>
-      <c r="U19" t="n">
+      <c r="W19" t="n">
         <v>0.001638070587004908</v>
       </c>
     </row>
@@ -1789,27 +1907,33 @@
         <v>817.3899813501332</v>
       </c>
       <c r="N20" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O20" t="n">
+        <v>871.8848370602932</v>
+      </c>
+      <c r="P20" t="n">
         <v>230.2798709916285</v>
       </c>
-      <c r="O20" t="n">
+      <c r="Q20" t="n">
         <v>921.0961927651344</v>
       </c>
-      <c r="P20" t="n">
+      <c r="R20" t="n">
         <v>921.0954858895725</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="S20" t="n">
         <v>0.03474264445053579</v>
       </c>
-      <c r="R20" t="n">
+      <c r="T20" t="n">
         <v>0.0903595365102597</v>
       </c>
-      <c r="S20" t="n">
+      <c r="U20" t="n">
         <v>0.002162572064666757</v>
       </c>
-      <c r="T20" t="n">
+      <c r="V20" t="n">
         <v>2.514159276111755e-05</v>
       </c>
-      <c r="U20" t="n">
+      <c r="W20" t="n">
         <v>0.001635704137561823</v>
       </c>
     </row>
@@ -1856,27 +1980,33 @@
         <v>817.3986115032027</v>
       </c>
       <c r="N21" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O21" t="n">
+        <v>871.8908781674419</v>
+      </c>
+      <c r="P21" t="n">
         <v>229.548025786076</v>
       </c>
-      <c r="O21" t="n">
+      <c r="Q21" t="n">
         <v>921.0342418049179</v>
       </c>
-      <c r="P21" t="n">
+      <c r="R21" t="n">
         <v>921.0335341928304</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="S21" t="n">
         <v>0.03474868347952157</v>
       </c>
-      <c r="R21" t="n">
+      <c r="T21" t="n">
         <v>0.09035345912106245</v>
       </c>
-      <c r="S21" t="n">
+      <c r="U21" t="n">
         <v>0.002159282371764626</v>
       </c>
-      <c r="T21" t="n">
+      <c r="V21" t="n">
         <v>2.506270220932666e-05</v>
       </c>
-      <c r="U21" t="n">
+      <c r="W21" t="n">
         <v>0.001633356365456351</v>
       </c>
     </row>
@@ -1923,27 +2053,33 @@
         <v>817.4069009889726</v>
       </c>
       <c r="N22" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O22" t="n">
+        <v>871.8966808074808</v>
+      </c>
+      <c r="P22" t="n">
         <v>228.8108578817832</v>
       </c>
-      <c r="O22" t="n">
+      <c r="Q22" t="n">
         <v>920.9712206640106</v>
       </c>
-      <c r="P22" t="n">
+      <c r="R22" t="n">
         <v>920.9705123102407</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="S22" t="n">
         <v>0.03475483499962791</v>
       </c>
-      <c r="R22" t="n">
+      <c r="T22" t="n">
         <v>0.09034727674713945</v>
       </c>
-      <c r="S22" t="n">
+      <c r="U22" t="n">
         <v>0.002156018499639263</v>
       </c>
-      <c r="T22" t="n">
+      <c r="V22" t="n">
         <v>2.498356422228877e-05</v>
       </c>
-      <c r="U22" t="n">
+      <c r="W22" t="n">
         <v>0.001631027343469954</v>
       </c>
     </row>
@@ -1990,27 +2126,33 @@
         <v>817.4148481400011</v>
       </c>
       <c r="N23" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O23" t="n">
+        <v>871.9022438132008</v>
+      </c>
+      <c r="P23" t="n">
         <v>228.0683222881368</v>
       </c>
-      <c r="O23" t="n">
+      <c r="Q23" t="n">
         <v>920.9071112765691</v>
       </c>
-      <c r="P23" t="n">
+      <c r="R23" t="n">
         <v>920.9064021759158</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="S23" t="n">
         <v>0.03476110120027959</v>
       </c>
-      <c r="R23" t="n">
+      <c r="T23" t="n">
         <v>0.09034098761623144</v>
       </c>
-      <c r="S23" t="n">
+      <c r="U23" t="n">
         <v>0.002152780551242227</v>
       </c>
-      <c r="T23" t="n">
+      <c r="V23" t="n">
         <v>2.490417979938665e-05</v>
       </c>
-      <c r="U23" t="n">
+      <c r="W23" t="n">
         <v>0.001628717145485663</v>
       </c>
     </row>
@@ -2057,27 +2199,33 @@
         <v>817.4224513024835</v>
       </c>
       <c r="N24" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O24" t="n">
+        <v>871.9075660269384</v>
+      </c>
+      <c r="P24" t="n">
         <v>227.320374446924</v>
       </c>
-      <c r="O24" t="n">
+      <c r="Q24" t="n">
         <v>920.8418952216001</v>
       </c>
-      <c r="P24" t="n">
+      <c r="R24" t="n">
         <v>920.8411853688182</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="S24" t="n">
         <v>0.03476748431709999</v>
       </c>
-      <c r="R24" t="n">
+      <c r="T24" t="n">
         <v>0.09033458992123898</v>
       </c>
-      <c r="S24" t="n">
+      <c r="U24" t="n">
         <v>0.00214956863109058</v>
       </c>
-      <c r="T24" t="n">
+      <c r="V24" t="n">
         <v>2.482455006400514e-05</v>
       </c>
-      <c r="U24" t="n">
+      <c r="W24" t="n">
         <v>0.001626425846506014</v>
       </c>
     </row>
@@ -2124,27 +2272,33 @@
         <v>817.4297088363298</v>
       </c>
       <c r="N25" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O25" t="n">
+        <v>871.9126463006309</v>
+      </c>
+      <c r="P25" t="n">
         <v>226.5669702663531</v>
       </c>
-      <c r="O25" t="n">
+      <c r="Q25" t="n">
         <v>920.7755537151364</v>
       </c>
-      <c r="P25" t="n">
+      <c r="R25" t="n">
         <v>920.7748431049375</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="S25" t="n">
         <v>0.03477398663297122</v>
       </c>
-      <c r="R25" t="n">
+      <c r="T25" t="n">
         <v>0.0903280818194549</v>
       </c>
-      <c r="S25" t="n">
+      <c r="U25" t="n">
         <v>0.002146382845292674</v>
       </c>
-      <c r="T25" t="n">
+      <c r="V25" t="n">
         <v>2.47446762660787e-05</v>
       </c>
-      <c r="U25" t="n">
+      <c r="W25" t="n">
         <v>0.001624153522671318</v>
       </c>
     </row>
@@ -2191,27 +2345,33 @@
         <v>817.4366191152382</v>
       </c>
       <c r="N26" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O26" t="n">
+        <v>871.9174834958667</v>
+      </c>
+      <c r="P26" t="n">
         <v>225.8080661558244</v>
       </c>
-      <c r="O26" t="n">
+      <c r="Q26" t="n">
         <v>920.708067602223</v>
       </c>
-      <c r="P26" t="n">
+      <c r="R26" t="n">
         <v>920.7073562292758</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="S26" t="n">
         <v>0.03478061047912149</v>
       </c>
-      <c r="R26" t="n">
+      <c r="T26" t="n">
         <v>0.09032146143177809</v>
       </c>
-      <c r="S26" t="n">
+      <c r="U26" t="n">
         <v>0.002143223301574498</v>
       </c>
-      <c r="T26" t="n">
+      <c r="V26" t="n">
         <v>2.466455978460485e-05</v>
       </c>
-      <c r="U26" t="n">
+      <c r="W26" t="n">
         <v>0.001621900251278325</v>
       </c>
     </row>
@@ -2258,27 +2418,33 @@
         <v>817.44318052677</v>
       </c>
       <c r="N27" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O27" t="n">
+        <v>871.922076483939</v>
+      </c>
+      <c r="P27" t="n">
         <v>225.0436190614429</v>
       </c>
-      <c r="O27" t="n">
+      <c r="Q27" t="n">
         <v>920.6394173487084</v>
       </c>
-      <c r="P27" t="n">
+      <c r="R27" t="n">
         <v>920.6387052076396</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="S27" t="n">
         <v>0.03478735823624105</v>
       </c>
-      <c r="R27" t="n">
+      <c r="T27" t="n">
         <v>0.09031472684190832</v>
       </c>
-      <c r="S27" t="n">
+      <c r="U27" t="n">
         <v>0.002140090109306509</v>
       </c>
-      <c r="T27" t="n">
+      <c r="V27" t="n">
         <v>2.45842021301195e-05</v>
       </c>
-      <c r="U27" t="n">
+      <c r="W27" t="n">
         <v>0.001619666110799234</v>
       </c>
     </row>
@@ -2325,27 +2491,33 @@
         <v>817.4493914724223</v>
       </c>
       <c r="N28" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O28" t="n">
+        <v>871.9264241458957</v>
+      </c>
+      <c r="P28" t="n">
         <v>224.273586502264</v>
       </c>
-      <c r="O28" t="n">
+      <c r="Q28" t="n">
         <v>920.5695830328345</v>
       </c>
-      <c r="P28" t="n">
+      <c r="R28" t="n">
         <v>920.5688701182285</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="S28" t="n">
         <v>0.03479423233562798</v>
       </c>
-      <c r="R28" t="n">
+      <c r="T28" t="n">
         <v>0.09030787609552109</v>
       </c>
-      <c r="S28" t="n">
+      <c r="U28" t="n">
         <v>0.00213698337953105</v>
       </c>
-      <c r="T28" t="n">
+      <c r="V28" t="n">
         <v>2.450360494713019e-05</v>
       </c>
-      <c r="U28" t="n">
+      <c r="W28" t="n">
         <v>0.001617451180901108</v>
       </c>
     </row>
@@ -2392,27 +2564,33 @@
         <v>817.4552503676998</v>
       </c>
       <c r="N29" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O29" t="n">
+        <v>871.9305253725898</v>
+      </c>
+      <c r="P29" t="n">
         <v>223.4979266072661</v>
       </c>
-      <c r="O29" t="n">
+      <c r="Q29" t="n">
         <v>920.4985443366178</v>
       </c>
-      <c r="P29" t="n">
+      <c r="R29" t="n">
         <v>920.4978306430181</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="S29" t="n">
         <v>0.03480123526036417</v>
       </c>
-      <c r="R29" t="n">
+      <c r="T29" t="n">
         <v>0.09030090719942223</v>
       </c>
-      <c r="S29" t="n">
+      <c r="U29" t="n">
         <v>0.002133903224990278</v>
       </c>
-      <c r="T29" t="n">
+      <c r="V29" t="n">
         <v>2.442277001650293e-05</v>
       </c>
-      <c r="U29" t="n">
+      <c r="W29" t="n">
         <v>0.001615255542465657</v>
       </c>
     </row>
@@ -2459,27 +2637,33 @@
         <v>817.4607556421865</v>
       </c>
       <c r="N30" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O30" t="n">
+        <v>871.9343790647306</v>
+      </c>
+      <c r="P30" t="n">
         <v>222.7165981530354</v>
       </c>
-      <c r="O30" t="n">
+      <c r="Q30" t="n">
         <v>920.4262805370183</v>
       </c>
-      <c r="P30" t="n">
+      <c r="R30" t="n">
         <v>920.4255660589279</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="S30" t="n">
         <v>0.03480836954652287</v>
       </c>
-      <c r="R30" t="n">
+      <c r="T30" t="n">
         <v>0.0902938181206815</v>
       </c>
-      <c r="S30" t="n">
+      <c r="U30" t="n">
         <v>0.002130849760154704</v>
       </c>
-      <c r="T30" t="n">
+      <c r="V30" t="n">
         <v>2.434169925779845e-05</v>
       </c>
-      <c r="U30" t="n">
+      <c r="W30" t="n">
         <v>0.001613079277609451</v>
       </c>
     </row>
@@ -2526,27 +2710,33 @@
         <v>817.4659057396158</v>
       </c>
       <c r="N31" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O31" t="n">
+        <v>871.9379841329311</v>
+      </c>
+      <c r="P31" t="n">
         <v>221.9295606021545</v>
       </c>
-      <c r="O31" t="n">
+      <c r="Q31" t="n">
         <v>920.3527704968908</v>
       </c>
-      <c r="P31" t="n">
+      <c r="R31" t="n">
         <v>920.3520552287727</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="S31" t="n">
         <v>0.03481563778440865</v>
       </c>
-      <c r="R31" t="n">
+      <c r="T31" t="n">
         <v>0.090286606785745</v>
       </c>
-      <c r="S31" t="n">
+      <c r="U31" t="n">
         <v>0.002127823101252275</v>
       </c>
-      <c r="T31" t="n">
+      <c r="V31" t="n">
         <v>2.426039473155331e-05</v>
       </c>
-      <c r="U31" t="n">
+      <c r="W31" t="n">
         <v>0.001610922469704511</v>
       </c>
     </row>
@@ -2593,27 +2783,33 @@
         <v>817.4706991179388</v>
       </c>
       <c r="N32" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O32" t="n">
+        <v>871.9413394977572</v>
+      </c>
+      <c r="P32" t="n">
         <v>221.136774142279</v>
       </c>
-      <c r="O32" t="n">
+      <c r="Q32" t="n">
         <v>920.2779926557048</v>
       </c>
-      <c r="P32" t="n">
+      <c r="R32" t="n">
         <v>920.277276591983</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="S32" t="n">
         <v>0.03482304261983095</v>
       </c>
-      <c r="R32" t="n">
+      <c r="T32" t="n">
         <v>0.09027927107952465</v>
       </c>
-      <c r="S32" t="n">
+      <c r="U32" t="n">
         <v>0.002124823366298066</v>
       </c>
-      <c r="T32" t="n">
+      <c r="V32" t="n">
         <v>2.417885864150172e-05</v>
       </c>
-      <c r="U32" t="n">
+      <c r="W32" t="n">
         <v>0.001608785203399336</v>
       </c>
     </row>
@@ -2660,27 +2856,33 @@
         <v>817.4751342493945</v>
       </c>
       <c r="N33" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O33" t="n">
+        <v>871.9444440897762</v>
+      </c>
+      <c r="P33" t="n">
         <v>220.3381997258896</v>
       </c>
-      <c r="O33" t="n">
+      <c r="Q33" t="n">
         <v>920.2019250200372</v>
       </c>
-      <c r="P33" t="n">
+      <c r="R33" t="n">
         <v>920.2012081550973</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="S33" t="n">
         <v>0.03483058675541206</v>
       </c>
-      <c r="R33" t="n">
+      <c r="T33" t="n">
         <v>0.09027180884446566</v>
       </c>
-      <c r="S33" t="n">
+      <c r="U33" t="n">
         <v>0.002121850675124583</v>
       </c>
-      <c r="T33" t="n">
+      <c r="V33" t="n">
         <v>2.409709333673323e-05</v>
       </c>
-      <c r="U33" t="n">
+      <c r="W33" t="n">
         <v>0.001606667564640355</v>
       </c>
     </row>
@@ -2727,27 +2929,33 @@
         <v>817.4792096205756</v>
       </c>
       <c r="N34" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O34" t="n">
+        <v>871.9472968496029</v>
+      </c>
+      <c r="P34" t="n">
         <v>219.5337991107012</v>
       </c>
-      <c r="O34" t="n">
+      <c r="Q34" t="n">
         <v>920.1245451538208</v>
       </c>
-      <c r="P34" t="n">
+      <c r="R34" t="n">
         <v>920.1238274820107</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="S34" t="n">
         <v>0.03483827295193102</v>
       </c>
-      <c r="R34" t="n">
+      <c r="T34" t="n">
         <v>0.09026421787958984</v>
       </c>
-      <c r="S34" t="n">
+      <c r="U34" t="n">
         <v>0.002118905149412681</v>
       </c>
-      <c r="T34" t="n">
+      <c r="V34" t="n">
         <v>2.401510131378203e-05</v>
       </c>
-      <c r="U34" t="n">
+      <c r="W34" t="n">
         <v>0.001604569640693821</v>
       </c>
     </row>
@@ -2794,27 +3002,33 @@
         <v>817.482923732495</v>
       </c>
       <c r="N35" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O35" t="n">
+        <v>871.9498967279465</v>
+      </c>
+      <c r="P35" t="n">
         <v>218.7235349007115</v>
       </c>
-      <c r="O35" t="n">
+      <c r="Q35" t="n">
         <v>920.0458301683461</v>
       </c>
-      <c r="P35" t="n">
+      <c r="R35" t="n">
         <v>920.0451116839773</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="S35" t="n">
         <v>0.03484610402970444</v>
       </c>
-      <c r="R35" t="n">
+      <c r="T35" t="n">
         <v>0.09025649593951476</v>
       </c>
-      <c r="S35" t="n">
+      <c r="U35" t="n">
         <v>0.002115986912723115</v>
       </c>
-      <c r="T35" t="n">
+      <c r="V35" t="n">
         <v>2.393288521864295e-05</v>
       </c>
-      <c r="U35" t="n">
+      <c r="W35" t="n">
         <v>0.001602491520168143</v>
       </c>
     </row>
@@ -2861,27 +3075,33 @@
         <v>817.4862751006508</v>
       </c>
       <c r="N36" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O36" t="n">
+        <v>871.9522426856555</v>
+      </c>
+      <c r="P36" t="n">
         <v>217.9073705878718</v>
       </c>
-      <c r="O36" t="n">
+      <c r="Q36" t="n">
         <v>919.9657567120101</v>
       </c>
-      <c r="P36" t="n">
+      <c r="R36" t="n">
         <v>919.9650374093577</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="S36" t="n">
         <v>0.03485408287000545</v>
       </c>
-      <c r="R36" t="n">
+      <c r="T36" t="n">
         <v>0.0902486407334482</v>
       </c>
-      <c r="S36" t="n">
+      <c r="U36" t="n">
         <v>0.002113096090528759</v>
       </c>
-      <c r="T36" t="n">
+      <c r="V36" t="n">
         <v>2.385044784870964e-05</v>
       </c>
-      <c r="U36" t="n">
+      <c r="W36" t="n">
         <v>0.00160043329303669</v>
       </c>
     </row>
@@ -2928,27 +3148,33 @@
         <v>817.4892622550916</v>
       </c>
       <c r="N37" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O37" t="n">
+        <v>871.9543336937642</v>
+      </c>
+      <c r="P37" t="n">
         <v>217.0852705943558</v>
       </c>
-      <c r="O37" t="n">
+      <c r="Q37" t="n">
         <v>919.8843009597999</v>
       </c>
-      <c r="P37" t="n">
+      <c r="R37" t="n">
         <v>919.8835808331045</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="S37" t="n">
         <v>0.03486221241652201</v>
       </c>
-      <c r="R37" t="n">
+      <c r="T37" t="n">
         <v>0.09024064992415638</v>
       </c>
-      <c r="S37" t="n">
+      <c r="U37" t="n">
         <v>0.002110232810247456</v>
       </c>
-      <c r="T37" t="n">
+      <c r="V37" t="n">
         <v>2.376779215463019e-05</v>
       </c>
-      <c r="U37" t="n">
+      <c r="W37" t="n">
         <v>0.001598395050661048</v>
       </c>
     </row>
@@ -2995,27 +3221,33 @@
         <v>817.4918837404774</v>
       </c>
       <c r="N38" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O38" t="n">
+        <v>871.9561687335342</v>
+      </c>
+      <c r="P38" t="n">
         <v>216.2572003154062</v>
       </c>
-      <c r="O38" t="n">
+      <c r="Q38" t="n">
         <v>919.8014386025051</v>
       </c>
-      <c r="P38" t="n">
+      <c r="R38" t="n">
         <v>919.8007176459731</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="S38" t="n">
         <v>0.03487049567685625</v>
       </c>
-      <c r="R38" t="n">
+      <c r="T38" t="n">
         <v>0.09023252112690576</v>
       </c>
-      <c r="S38" t="n">
+      <c r="U38" t="n">
         <v>0.002107397201275592</v>
       </c>
-      <c r="T38" t="n">
+      <c r="V38" t="n">
         <v>2.36849212420755e-05</v>
       </c>
-      <c r="U38" t="n">
+      <c r="W38" t="n">
         <v>0.001596376885814776</v>
       </c>
     </row>
@@ -3062,27 +3294,33 @@
         <v>817.4941381161429</v>
       </c>
       <c r="N39" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O39" t="n">
+        <v>871.9577467965</v>
+      </c>
+      <c r="P39" t="n">
         <v>215.4231261627332</v>
       </c>
-      <c r="O39" t="n">
+      <c r="Q39" t="n">
         <v>919.7171448356527</v>
       </c>
-      <c r="P39" t="n">
+      <c r="R39" t="n">
         <v>919.716423043458</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="S39" t="n">
         <v>0.03487893572406571</v>
       </c>
-      <c r="R39" t="n">
+      <c r="T39" t="n">
         <v>0.09022425190837755</v>
       </c>
-      <c r="S39" t="n">
+      <c r="U39" t="n">
         <v>0.002104589395022347</v>
       </c>
-      <c r="T39" t="n">
+      <c r="V39" t="n">
         <v>2.360183837341533e-05</v>
       </c>
-      <c r="U39" t="n">
+      <c r="W39" t="n">
         <v>0.001594378892707648</v>
       </c>
     </row>
@@ -3129,27 +3367,33 @@
         <v>817.4960239561576</v>
       </c>
       <c r="N40" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O40" t="n">
+        <v>871.9590668845103</v>
+      </c>
+      <c r="P40" t="n">
         <v>214.5830156084392</v>
       </c>
-      <c r="O40" t="n">
+      <c r="Q40" t="n">
         <v>919.6313943481516</v>
       </c>
-      <c r="P40" t="n">
+      <c r="R40" t="n">
         <v>919.6306717144357</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="S40" t="n">
         <v>0.03488753569824818</v>
       </c>
-      <c r="R40" t="n">
+      <c r="T40" t="n">
         <v>0.09021583978555368</v>
       </c>
-      <c r="S40" t="n">
+      <c r="U40" t="n">
         <v>0.002101809524944659</v>
       </c>
-      <c r="T40" t="n">
+      <c r="V40" t="n">
         <v>2.351854696929767e-05</v>
       </c>
-      <c r="U40" t="n">
+      <c r="W40" t="n">
         <v>0.001592401167010396</v>
       </c>
     </row>
@@ -3196,27 +3440,33 @@
         <v>817.4975398493857</v>
       </c>
       <c r="N41" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O41" t="n">
+        <v>871.96012800977</v>
+      </c>
+      <c r="P41" t="n">
         <v>213.7368372294418</v>
       </c>
-      <c r="O41" t="n">
+      <c r="Q41" t="n">
         <v>919.5441613106406</v>
       </c>
-      <c r="P41" t="n">
+      <c r="R41" t="n">
         <v>919.5434378295143</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="S41" t="n">
         <v>0.03489629880817215</v>
       </c>
-      <c r="R41" t="n">
+      <c r="T41" t="n">
         <v>0.09020728222457386</v>
       </c>
-      <c r="S41" t="n">
+      <c r="U41" t="n">
         <v>0.002099057726582919</v>
       </c>
-      <c r="T41" t="n">
+      <c r="V41" t="n">
         <v>2.343505061012621e-05</v>
       </c>
-      <c r="U41" t="n">
+      <c r="W41" t="n">
         <v>0.001590443805879961</v>
       </c>
     </row>
@@ -3263,27 +3513,33 @@
         <v>817.4986843995431</v>
       </c>
       <c r="N42" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O42" t="n">
+        <v>871.9609291948801</v>
+      </c>
+      <c r="P42" t="n">
         <v>212.8845607523657</v>
       </c>
-      <c r="O42" t="n">
+      <c r="Q42" t="n">
         <v>919.4554193635287</v>
       </c>
-      <c r="P42" t="n">
+      <c r="R42" t="n">
         <v>919.4546950290735</v>
       </c>
-      <c r="Q42" t="n">
+      <c r="S42" t="n">
         <v>0.03490522833295317</v>
       </c>
-      <c r="R42" t="n">
+      <c r="T42" t="n">
         <v>0.09019857663956217</v>
       </c>
-      <c r="S42" t="n">
+      <c r="U42" t="n">
         <v>0.002096334137597431</v>
       </c>
-      <c r="T42" t="n">
+      <c r="V42" t="n">
         <v>2.335135303743137e-05</v>
       </c>
-      <c r="U42" t="n">
+      <c r="W42" t="n">
         <v>0.001588506907985294</v>
       </c>
     </row>
@@ -3330,27 +3586,33 @@
         <v>817.4994562252557</v>
       </c>
       <c r="N43" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O43" t="n">
+        <v>871.961469472879</v>
+      </c>
+      <c r="P43" t="n">
         <v>212.0261570988712</v>
       </c>
-      <c r="O43" t="n">
+      <c r="Q43" t="n">
         <v>919.3651416047187</v>
       </c>
-      <c r="P43" t="n">
+      <c r="R43" t="n">
         <v>919.3644164109872</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="S43" t="n">
         <v>0.03491432762377893</v>
       </c>
-      <c r="R43" t="n">
+      <c r="T43" t="n">
         <v>0.09018972039142291</v>
       </c>
-      <c r="S43" t="n">
+      <c r="U43" t="n">
         <v>0.002093638897805629</v>
       </c>
-      <c r="T43" t="n">
+      <c r="V43" t="n">
         <v>2.326745815513011e-05</v>
       </c>
-      <c r="U43" t="n">
+      <c r="W43" t="n">
         <v>0.001586590573533683</v>
       </c>
     </row>
@@ -3397,27 +3659,33 @@
         <v>817.4998539601149</v>
       </c>
       <c r="N44" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O44" t="n">
+        <v>871.9617478872805</v>
+      </c>
+      <c r="P44" t="n">
         <v>211.1615984313873</v>
       </c>
-      <c r="O44" t="n">
+      <c r="Q44" t="n">
         <v>919.2733005770043</v>
       </c>
-      <c r="P44" t="n">
+      <c r="R44" t="n">
         <v>919.2725745180221</v>
       </c>
-      <c r="Q44" t="n">
+      <c r="S44" t="n">
         <v>0.03492360010568459</v>
       </c>
-      <c r="R44" t="n">
+      <c r="T44" t="n">
         <v>0.09018071078660413</v>
       </c>
-      <c r="S44" t="n">
+      <c r="U44" t="n">
         <v>0.002090972149220075</v>
       </c>
-      <c r="T44" t="n">
+      <c r="V44" t="n">
         <v>2.318337003066946e-05</v>
       </c>
-      <c r="U44" t="n">
+      <c r="W44" t="n">
         <v>0.001584694904297634</v>
       </c>
     </row>
@@ -3464,27 +3732,33 @@
         <v>817.4998762527309</v>
       </c>
       <c r="N45" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O45" t="n">
+        <v>871.9617634921117</v>
+      </c>
+      <c r="P45" t="n">
         <v>210.290858199211</v>
       </c>
-      <c r="O45" t="n">
+      <c r="Q45" t="n">
         <v>919.1798682551283</v>
       </c>
-      <c r="P45" t="n">
+      <c r="R45" t="n">
         <v>919.1791413248949</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="S45" t="n">
         <v>0.03493304927937921</v>
       </c>
-      <c r="R45" t="n">
+      <c r="T45" t="n">
         <v>0.0901715450758281</v>
       </c>
-      <c r="S45" t="n">
+      <c r="U45" t="n">
         <v>0.002088334036087278</v>
       </c>
-      <c r="T45" t="n">
+      <c r="V45" t="n">
         <v>2.309909289604938e-05</v>
       </c>
-      <c r="U45" t="n">
+      <c r="W45" t="n">
         <v>0.001582820003642329</v>
       </c>
     </row>
@@ -3531,27 +3805,33 @@
         <v>817.4995217667864</v>
       </c>
       <c r="N46" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O46" t="n">
+        <v>871.9615153519505</v>
+      </c>
+      <c r="P46" t="n">
         <v>209.4139111849413</v>
       </c>
-      <c r="O46" t="n">
+      <c r="Q46" t="n">
         <v>919.0848160324928</v>
       </c>
-      <c r="P46" t="n">
+      <c r="R46" t="n">
         <v>919.0840882249834</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="S46" t="n">
         <v>0.03494267872312622</v>
       </c>
-      <c r="R46" t="n">
+      <c r="T46" t="n">
         <v>0.09016222045278756</v>
       </c>
-      <c r="S46" t="n">
+      <c r="U46" t="n">
         <v>0.002085724704927324</v>
       </c>
-      <c r="T46" t="n">
+      <c r="V46" t="n">
         <v>2.301463114872007e-05</v>
       </c>
-      <c r="U46" t="n">
+      <c r="W46" t="n">
         <v>0.001580965976553652</v>
       </c>
     </row>
@@ -3598,27 +3878,33 @@
         <v>817.498789181088</v>
       </c>
       <c r="N47" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O47" t="n">
+        <v>871.9610025419616</v>
+      </c>
+      <c r="P47" t="n">
         <v>208.5307335512023</v>
       </c>
-      <c r="O47" t="n">
+      <c r="Q47" t="n">
         <v>918.9881147075087</v>
       </c>
-      <c r="P47" t="n">
+      <c r="R47" t="n">
         <v>918.9873860166749</v>
       </c>
-      <c r="Q47" t="n">
+      <c r="S47" t="n">
         <v>0.03495249209467933</v>
       </c>
-      <c r="R47" t="n">
+      <c r="T47" t="n">
         <v>0.09015273405280662</v>
       </c>
-      <c r="S47" t="n">
+      <c r="U47" t="n">
         <v>0.002083144304574366</v>
       </c>
-      <c r="T47" t="n">
+      <c r="V47" t="n">
         <v>2.292998935234917e-05</v>
       </c>
-      <c r="U47" t="n">
+      <c r="W47" t="n">
         <v>0.001579132929666834</v>
       </c>
     </row>
@@ -3665,27 +3951,33 @@
         <v>817.4976771896169</v>
       </c>
       <c r="N48" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O48" t="n">
+        <v>871.9602241479319</v>
+      </c>
+      <c r="P48" t="n">
         <v>207.6413028876203</v>
       </c>
-      <c r="O48" t="n">
+      <c r="Q48" t="n">
         <v>918.8897344695728</v>
       </c>
-      <c r="P48" t="n">
+      <c r="R48" t="n">
         <v>918.8890048893445</v>
       </c>
-      <c r="Q48" t="n">
+      <c r="S48" t="n">
         <v>0.03496249313327601</v>
       </c>
-      <c r="R48" t="n">
+      <c r="T48" t="n">
         <v>0.0901430829514651</v>
       </c>
-      <c r="S48" t="n">
+      <c r="U48" t="n">
         <v>0.002080592986217968</v>
       </c>
-      <c r="T48" t="n">
+      <c r="V48" t="n">
         <v>2.284517223745427e-05</v>
       </c>
-      <c r="U48" t="n">
+      <c r="W48" t="n">
         <v>0.001577320971295675</v>
       </c>
     </row>
@@ -3732,27 +4024,33 @@
         <v>817.496184501576</v>
       </c>
       <c r="N49" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O49" t="n">
+        <v>871.9591792663032</v>
+      </c>
+      <c r="P49" t="n">
         <v>206.7455982580069</v>
       </c>
-      <c r="O49" t="n">
+      <c r="Q49" t="n">
         <v>918.7896448846602</v>
       </c>
-      <c r="P49" t="n">
+      <c r="R49" t="n">
         <v>918.7889144089471</v>
       </c>
-      <c r="Q49" t="n">
+      <c r="S49" t="n">
         <v>0.03497268566169015</v>
       </c>
-      <c r="R49" t="n">
+      <c r="T49" t="n">
         <v>0.09013326416318518</v>
       </c>
-      <c r="S49" t="n">
+      <c r="U49" t="n">
         <v>0.002078070903445341</v>
       </c>
-      <c r="T49" t="n">
+      <c r="V49" t="n">
         <v>2.276018470189603e-05</v>
       </c>
-      <c r="U49" t="n">
+      <c r="W49" t="n">
         <v>0.001575530211462427</v>
       </c>
     </row>
@@ -3799,27 +4097,33 @@
         <v>817.494309841439</v>
       </c>
       <c r="N50" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O50" t="n">
+        <v>871.9578670042073</v>
+      </c>
+      <c r="P50" t="n">
         <v>205.8436002477086</v>
       </c>
-      <c r="O50" t="n">
+      <c r="Q50" t="n">
         <v>918.6878148805202</v>
       </c>
-      <c r="P50" t="n">
+      <c r="R50" t="n">
         <v>918.6870835032129</v>
       </c>
-      <c r="Q50" t="n">
+      <c r="S50" t="n">
         <v>0.03498307358834705</v>
       </c>
-      <c r="R50" t="n">
+      <c r="T50" t="n">
         <v>0.09012327463977905</v>
       </c>
-      <c r="S50" t="n">
+      <c r="U50" t="n">
         <v>0.002075578212284491</v>
       </c>
-      <c r="T50" t="n">
+      <c r="V50" t="n">
         <v>2.267503181122806e-05</v>
       </c>
-      <c r="U50" t="n">
+      <c r="W50" t="n">
         <v>0.001573760761928289</v>
       </c>
     </row>
@@ -3866,27 +4170,33 @@
         <v>817.4920519489943</v>
       </c>
       <c r="N51" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O51" t="n">
+        <v>871.956286479496</v>
+      </c>
+      <c r="P51" t="n">
         <v>204.9352910110718</v>
       </c>
-      <c r="O51" t="n">
+      <c r="Q51" t="n">
         <v>918.5842127314583</v>
       </c>
-      <c r="P51" t="n">
+      <c r="R51" t="n">
         <v>918.5834804464303</v>
       </c>
-      <c r="Q51" t="n">
+      <c r="S51" t="n">
         <v>0.03499366090950196</v>
       </c>
-      <c r="R51" t="n">
+      <c r="T51" t="n">
         <v>0.09011311126895606</v>
       </c>
-      <c r="S51" t="n">
+      <c r="U51" t="n">
         <v>0.002073115071248312</v>
       </c>
-      <c r="T51" t="n">
+      <c r="V51" t="n">
         <v>2.258971879889867e-05</v>
       </c>
-      <c r="U51" t="n">
+      <c r="W51" t="n">
         <v>0.001572012736224585</v>
       </c>
     </row>
@@ -3933,27 +4243,33 @@
         <v>817.4894095793901</v>
       </c>
       <c r="N52" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O52" t="n">
+        <v>871.954436820773</v>
+      </c>
+      <c r="P52" t="n">
         <v>204.0206543189763</v>
       </c>
-      <c r="O52" t="n">
+      <c r="Q52" t="n">
         <v>918.4788060426965</v>
       </c>
-      <c r="P52" t="n">
+      <c r="R52" t="n">
         <v>918.4780728438055</v>
       </c>
-      <c r="Q52" t="n">
+      <c r="S52" t="n">
         <v>0.03500445171148515</v>
       </c>
-      <c r="R52" t="n">
+      <c r="T52" t="n">
         <v>0.09010277087278853</v>
       </c>
-      <c r="S52" t="n">
+      <c r="U52" t="n">
         <v>0.002070681641379606</v>
       </c>
-      <c r="T52" t="n">
+      <c r="V52" t="n">
         <v>2.250425106630066e-05</v>
       </c>
-      <c r="U52" t="n">
+      <c r="W52" t="n">
         <v>0.001570286249684592</v>
       </c>
     </row>
@@ -4000,27 +4316,33 @@
         <v>817.4863815031763</v>
       </c>
       <c r="N53" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O53" t="n">
+        <v>871.9523171674234</v>
+      </c>
+      <c r="P53" t="n">
         <v>203.0996756063888</v>
       </c>
-      <c r="O53" t="n">
+      <c r="Q53" t="n">
         <v>918.3715617342912</v>
       </c>
-      <c r="P53" t="n">
+      <c r="R53" t="n">
         <v>918.3708276153811</v>
       </c>
-      <c r="Q53" t="n">
+      <c r="S53" t="n">
         <v>0.03501545017301604</v>
       </c>
-      <c r="R53" t="n">
+      <c r="T53" t="n">
         <v>0.09009225020613398</v>
       </c>
-      <c r="S53" t="n">
+      <c r="U53" t="n">
         <v>0.002068278086297113</v>
       </c>
-      <c r="T53" t="n">
+      <c r="V53" t="n">
         <v>2.241863418266502e-05</v>
       </c>
-      <c r="U53" t="n">
+      <c r="W53" t="n">
         <v>0.001568581419476076</v>
       </c>
     </row>
@@ -4067,27 +4389,33 @@
         <v>817.4829665063446</v>
       </c>
       <c r="N54" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O54" t="n">
+        <v>871.9499266696412</v>
+      </c>
+      <c r="P54" t="n">
         <v>202.1723420198795</v>
       </c>
-      <c r="O54" t="n">
+      <c r="Q54" t="n">
         <v>918.2624460245983</v>
       </c>
-      <c r="P54" t="n">
+      <c r="R54" t="n">
         <v>918.2617109795004</v>
       </c>
-      <c r="Q54" t="n">
+      <c r="S54" t="n">
         <v>0.03502666056758825</v>
       </c>
-      <c r="R54" t="n">
+      <c r="T54" t="n">
         <v>0.09008154595501311</v>
       </c>
-      <c r="S54" t="n">
+      <c r="U54" t="n">
         <v>0.002065904572242541</v>
       </c>
-      <c r="T54" t="n">
+      <c r="V54" t="n">
         <v>2.233287388479467e-05</v>
       </c>
-      <c r="U54" t="n">
+      <c r="W54" t="n">
         <v>0.001566898364634532</v>
       </c>
     </row>
@@ -4134,27 +4462,33 @@
         <v>817.4791633903682</v>
       </c>
       <c r="N55" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O55" t="n">
+        <v>871.9472644884577</v>
+      </c>
+      <c r="P55" t="n">
         <v>201.2386424650526</v>
       </c>
-      <c r="O55" t="n">
+      <c r="Q55" t="n">
         <v>918.1514244132655</v>
       </c>
-      <c r="P55" t="n">
+      <c r="R55" t="n">
         <v>918.1506884358009</v>
       </c>
-      <c r="Q55" t="n">
+      <c r="S55" t="n">
         <v>0.0350380872659292</v>
       </c>
-      <c r="R55" t="n">
+      <c r="T55" t="n">
         <v>0.09007065473494137</v>
       </c>
-      <c r="S55" t="n">
+      <c r="U55" t="n">
         <v>0.002063561268128611</v>
       </c>
-      <c r="T55" t="n">
+      <c r="V55" t="n">
         <v>2.224697607663455e-05</v>
       </c>
-      <c r="U55" t="n">
+      <c r="W55" t="n">
         <v>0.001565237206097146</v>
       </c>
     </row>
@@ -4201,27 +4535,33 @@
         <v>817.4749709722385</v>
       </c>
       <c r="N56" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O56" t="n">
+        <v>871.9443297957669</v>
+      </c>
+      <c r="P56" t="n">
         <v>200.2985676538307</v>
       </c>
-      <c r="O56" t="n">
+      <c r="Q56" t="n">
         <v>918.0384616637393</v>
       </c>
-      <c r="P56" t="n">
+      <c r="R56" t="n">
         <v>918.0377247477202</v>
       </c>
-      <c r="Q56" t="n">
+      <c r="S56" t="n">
         <v>0.03504973473853631</v>
       </c>
-      <c r="R56" t="n">
+      <c r="T56" t="n">
         <v>0.09005957308921284</v>
       </c>
-      <c r="S56" t="n">
+      <c r="U56" t="n">
         <v>0.00206124834558816</v>
       </c>
-      <c r="T56" t="n">
+      <c r="V56" t="n">
         <v>2.216094682867432e-05</v>
       </c>
-      <c r="U56" t="n">
+      <c r="W56" t="n">
         <v>0.001563598066737491</v>
       </c>
     </row>
@@ -4268,27 +4608,33 @@
         <v>817.4703880845005</v>
       </c>
       <c r="N57" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O57" t="n">
+        <v>871.9411217743503</v>
+      </c>
+      <c r="P57" t="n">
         <v>199.3521101515375</v>
       </c>
-      <c r="O57" t="n">
+      <c r="Q57" t="n">
         <v>917.9235217852681</v>
       </c>
-      <c r="P57" t="n">
+      <c r="R57" t="n">
         <v>917.9227839244996</v>
       </c>
-      <c r="Q57" t="n">
+      <c r="S57" t="n">
         <v>0.03506160755829324</v>
       </c>
-      <c r="R57" t="n">
+      <c r="T57" t="n">
         <v>0.09004829748713482</v>
       </c>
-      <c r="S57" t="n">
+      <c r="U57" t="n">
         <v>0.002058965979024377</v>
       </c>
-      <c r="T57" t="n">
+      <c r="V57" t="n">
         <v>2.207479237718048e-05</v>
       </c>
-      <c r="U57" t="n">
+      <c r="W57" t="n">
         <v>0.001561981071401029</v>
       </c>
     </row>
@@ -4335,27 +4681,33 @@
         <v>817.4654135752852</v>
       </c>
       <c r="N58" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O58" t="n">
+        <v>871.9376396178997</v>
+      </c>
+      <c r="P58" t="n">
         <v>198.3992644237188</v>
       </c>
-      <c r="O58" t="n">
+      <c r="Q58" t="n">
         <v>917.8065680143796</v>
       </c>
-      <c r="P58" t="n">
+      <c r="R58" t="n">
         <v>917.8058292026623</v>
       </c>
-      <c r="Q58" t="n">
+      <c r="S58" t="n">
         <v>0.03507371040316881</v>
       </c>
-      <c r="R58" t="n">
+      <c r="T58" t="n">
         <v>0.09003682432221066</v>
       </c>
-      <c r="S58" t="n">
+      <c r="U58" t="n">
         <v>0.002056714345662073</v>
       </c>
-      <c r="T58" t="n">
+      <c r="V58" t="n">
         <v>2.198851912325475e-05</v>
       </c>
-      <c r="U58" t="n">
+      <c r="W58" t="n">
         <v>0.001560386346941339</v>
       </c>
     </row>
@@ -4402,27 +4754,33 @@
         <v>817.4600463083426</v>
       </c>
       <c r="N59" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O59" t="n">
+        <v>871.9338825310398</v>
+      </c>
+      <c r="P59" t="n">
         <v>197.4400268826386</v>
       </c>
-      <c r="O59" t="n">
+      <c r="Q59" t="n">
         <v>917.687562795824</v>
       </c>
-      <c r="P59" t="n">
+      <c r="R59" t="n">
         <v>917.6868230269547</v>
       </c>
-      <c r="Q59" t="n">
+      <c r="S59" t="n">
         <v>0.03508604805900203</v>
       </c>
-      <c r="R59" t="n">
+      <c r="T59" t="n">
         <v>0.09002514991027034</v>
       </c>
-      <c r="S59" t="n">
+      <c r="U59" t="n">
         <v>0.00205449362560016</v>
       </c>
-      <c r="T59" t="n">
+      <c r="V59" t="n">
         <v>2.190213363171543e-05</v>
       </c>
-      <c r="U59" t="n">
+      <c r="W59" t="n">
         <v>0.001558814022257193</v>
       </c>
     </row>
@@ -4469,27 +4827,33 @@
         <v>817.4542851630694</v>
       </c>
       <c r="N60" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O60" t="n">
+        <v>871.9298497293486</v>
+      </c>
+      <c r="P60" t="n">
         <v>196.4743959333913</v>
       </c>
-      <c r="O60" t="n">
+      <c r="Q60" t="n">
         <v>917.5664677629494</v>
       </c>
-      <c r="P60" t="n">
+      <c r="R60" t="n">
         <v>917.5657270307244</v>
       </c>
-      <c r="Q60" t="n">
+      <c r="S60" t="n">
         <v>0.03509862542237663</v>
       </c>
-      <c r="R60" t="n">
+      <c r="T60" t="n">
         <v>0.09001327048754534</v>
       </c>
-      <c r="S60" t="n">
+      <c r="U60" t="n">
         <v>0.002052304001865259</v>
       </c>
-      <c r="T60" t="n">
+      <c r="V60" t="n">
         <v>2.181564262979952e-05</v>
       </c>
-      <c r="U60" t="n">
+      <c r="W60" t="n">
         <v>0.001557264228330428</v>
       </c>
     </row>
@@ -4536,27 +4900,33 @@
         <v>817.4481290345371</v>
       </c>
       <c r="N61" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O61" t="n">
+        <v>871.9255404393761</v>
+      </c>
+      <c r="P61" t="n">
         <v>195.5023720195599</v>
       </c>
-      <c r="O61" t="n">
+      <c r="Q61" t="n">
         <v>917.4432437175037</v>
       </c>
-      <c r="P61" t="n">
+      <c r="R61" t="n">
         <v>917.4425020157203</v>
       </c>
-      <c r="Q61" t="n">
+      <c r="S61" t="n">
         <v>0.03511144750358861</v>
       </c>
-      <c r="R61" t="n">
+      <c r="T61" t="n">
         <v>0.09000118220868712</v>
       </c>
-      <c r="S61" t="n">
+      <c r="U61" t="n">
         <v>0.002050145660466535</v>
       </c>
-      <c r="T61" t="n">
+      <c r="V61" t="n">
         <v>2.172905300568253e-05</v>
       </c>
-      <c r="U61" t="n">
+      <c r="W61" t="n">
         <v>0.001555737098264689</v>
       </c>
     </row>
@@ -4603,27 +4973,33 @@
         <v>817.4415768335165</v>
       </c>
       <c r="N62" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O62" t="n">
+        <v>871.9209538986615</v>
+      </c>
+      <c r="P62" t="n">
         <v>194.5239576683588</v>
       </c>
-      <c r="O62" t="n">
+      <c r="Q62" t="n">
         <v>917.3178506088301</v>
       </c>
-      <c r="P62" t="n">
+      <c r="R62" t="n">
         <v>917.3171079312881</v>
       </c>
-      <c r="Q62" t="n">
+      <c r="S62" t="n">
         <v>0.03512451942970995</v>
       </c>
-      <c r="R62" t="n">
+      <c r="T62" t="n">
         <v>0.08998888114472625</v>
       </c>
-      <c r="S62" t="n">
+      <c r="U62" t="n">
         <v>0.00204801879045176</v>
       </c>
-      <c r="T62" t="n">
+      <c r="V62" t="n">
         <v>2.164237180681417e-05</v>
       </c>
-      <c r="U62" t="n">
+      <c r="W62" t="n">
         <v>0.001554232767325021</v>
       </c>
     </row>
@@ -4670,27 +5046,33 @@
         <v>817.4346274865012</v>
       </c>
       <c r="N63" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O63" t="n">
+        <v>871.9160893557508</v>
+      </c>
+      <c r="P63" t="n">
         <v>193.539157535191</v>
       </c>
-      <c r="O63" t="n">
+      <c r="Q63" t="n">
         <v>917.1902475124423</v>
       </c>
-      <c r="P63" t="n">
+      <c r="R63" t="n">
         <v>917.189503852947</v>
       </c>
-      <c r="Q63" t="n">
+      <c r="S63" t="n">
         <v>0.03513784644775312</v>
       </c>
-      <c r="R63" t="n">
+      <c r="T63" t="n">
         <v>0.08997636328097061</v>
       </c>
-      <c r="S63" t="n">
+      <c r="U63" t="n">
         <v>0.002045923583964623</v>
       </c>
-      <c r="T63" t="n">
+      <c r="V63" t="n">
         <v>2.155560623806769e-05</v>
       </c>
-      <c r="U63" t="n">
+      <c r="W63" t="n">
         <v>0.001552751372978353</v>
       </c>
     </row>
@@ -4737,27 +5119,33 @@
         <v>817.4272799357276</v>
       </c>
       <c r="N64" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O64" t="n">
+        <v>871.9109460702093</v>
+      </c>
+      <c r="P64" t="n">
         <v>192.5479784475507</v>
       </c>
-      <c r="O64" t="n">
+      <c r="Q64" t="n">
         <v>917.0603926079506</v>
       </c>
-      <c r="P64" t="n">
+      <c r="R64" t="n">
         <v>917.0596479603147</v>
       </c>
-      <c r="Q64" t="n">
+      <c r="S64" t="n">
         <v>0.03515143392793972</v>
       </c>
-      <c r="R64" t="n">
+      <c r="T64" t="n">
         <v>0.08996362451483997</v>
       </c>
-      <c r="S64" t="n">
+      <c r="U64" t="n">
         <v>0.002043860236303371</v>
       </c>
-      <c r="T64" t="n">
+      <c r="V64" t="n">
         <v>2.146876365970118e-05</v>
       </c>
-      <c r="U64" t="n">
+      <c r="W64" t="n">
         <v>0.001551293054934913</v>
       </c>
     </row>
@@ -4804,27 +5192,33 @@
         <v>817.4195331391923</v>
       </c>
       <c r="N65" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O65" t="n">
+        <v>871.9055233126346</v>
+      </c>
+      <c r="P65" t="n">
         <v>191.5504294482014</v>
       </c>
-      <c r="O65" t="n">
+      <c r="Q65" t="n">
         <v>916.92824315632</v>
       </c>
-      <c r="P65" t="n">
+      <c r="R65" t="n">
         <v>916.9274975143654</v>
       </c>
-      <c r="Q65" t="n">
+      <c r="S65" t="n">
         <v>0.03516528736707774</v>
       </c>
-      <c r="R65" t="n">
+      <c r="T65" t="n">
         <v>0.08995066065363501</v>
       </c>
-      <c r="S65" t="n">
+      <c r="U65" t="n">
         <v>0.002041828945980756</v>
       </c>
-      <c r="T65" t="n">
+      <c r="V65" t="n">
         <v>2.138185158512958e-05</v>
       </c>
-      <c r="U65" t="n">
+      <c r="W65" t="n">
         <v>0.001549857955190559</v>
       </c>
     </row>
@@ -4871,27 +5265,33 @@
         <v>817.4113860706696</v>
       </c>
       <c r="N66" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O66" t="n">
+        <v>871.8998203646687</v>
+      </c>
+      <c r="P66" t="n">
         <v>190.5465218375574</v>
       </c>
-      <c r="O66" t="n">
+      <c r="Q66" t="n">
         <v>916.7937554764317</v>
       </c>
-      <c r="P66" t="n">
+      <c r="R66" t="n">
         <v>916.7930088339925</v>
       </c>
-      <c r="Q66" t="n">
+      <c r="S66" t="n">
         <v>0.03517941239205192</v>
       </c>
-      <c r="R66" t="n">
+      <c r="T66" t="n">
         <v>0.08993746741223796</v>
       </c>
-      <c r="S66" t="n">
+      <c r="U66" t="n">
         <v>0.002039829914785372</v>
       </c>
-      <c r="T66" t="n">
+      <c r="V66" t="n">
         <v>2.129487767850596e-05</v>
       </c>
-      <c r="U66" t="n">
+      <c r="W66" t="n">
         <v>0.001548446218070092</v>
       </c>
     </row>
@@ -4938,27 +5338,33 @@
         <v>817.402837719723</v>
       </c>
       <c r="N67" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O67" t="n">
+        <v>871.8938365190061</v>
+      </c>
+      <c r="P67" t="n">
         <v>189.5362692151962</v>
       </c>
-      <c r="O67" t="n">
+      <c r="Q67" t="n">
         <v>916.6568849209222</v>
       </c>
-      <c r="P67" t="n">
+      <c r="R67" t="n">
         <v>916.6561372718464</v>
       </c>
-      <c r="Q67" t="n">
+      <c r="S67" t="n">
         <v>0.03519381476343138</v>
       </c>
-      <c r="R67" t="n">
+      <c r="T67" t="n">
         <v>0.08992404041074248</v>
       </c>
-      <c r="S67" t="n">
+      <c r="U67" t="n">
         <v>0.002037863347844393</v>
       </c>
-      <c r="T67" t="n">
+      <c r="V67" t="n">
         <v>2.120784975211163e-05</v>
       </c>
-      <c r="U67" t="n">
+      <c r="W67" t="n">
         <v>0.001547057990271555</v>
       </c>
     </row>
@@ -5005,27 +5411,33 @@
         <v>817.3938870917164</v>
       </c>
       <c r="N68" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O68" t="n">
+        <v>871.8875710794015</v>
+      </c>
+      <c r="P68" t="n">
         <v>188.5196875204262</v>
       </c>
-      <c r="O68" t="n">
+      <c r="Q68" t="n">
         <v>916.517585851275</v>
       </c>
-      <c r="P68" t="n">
+      <c r="R68" t="n">
         <v>916.5168371894268</v>
       </c>
-      <c r="Q68" t="n">
+      <c r="S68" t="n">
         <v>0.03520850037919978</v>
       </c>
-      <c r="R68" t="n">
+      <c r="T68" t="n">
         <v>0.08991037517201009</v>
       </c>
-      <c r="S68" t="n">
+      <c r="U68" t="n">
         <v>0.002035929453687736</v>
       </c>
-      <c r="T68" t="n">
+      <c r="V68" t="n">
         <v>2.112077576355418e-05</v>
       </c>
-      <c r="U68" t="n">
+      <c r="W68" t="n">
         <v>0.001545693420911532</v>
       </c>
     </row>
@@ -5072,27 +5484,33 @@
         <v>817.3845332078211</v>
       </c>
       <c r="N69" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O69" t="n">
+        <v>871.8810233606747</v>
+      </c>
+      <c r="P69" t="n">
         <v>187.4967950718376</v>
       </c>
-      <c r="O69" t="n">
+      <c r="Q69" t="n">
         <v>916.3758116121325</v>
       </c>
-      <c r="P69" t="n">
+      <c r="R69" t="n">
         <v>916.375061931395</v>
       </c>
-      <c r="Q69" t="n">
+      <c r="S69" t="n">
         <v>0.03522347527861287</v>
       </c>
-      <c r="R69" t="n">
+      <c r="T69" t="n">
         <v>0.08989646711915021</v>
       </c>
-      <c r="S69" t="n">
+      <c r="U69" t="n">
         <v>0.002034028444313732</v>
       </c>
-      <c r="T69" t="n">
+      <c r="V69" t="n">
         <v>2.103366381277366e-05</v>
       </c>
-      <c r="U69" t="n">
+      <c r="W69" t="n">
         <v>0.001544352661571507</v>
       </c>
     </row>
@@ -5139,27 +5557,33 @@
         <v>817.374775105022</v>
       </c>
       <c r="N70" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O70" t="n">
+        <v>871.8741926887154</v>
+      </c>
+      <c r="P70" t="n">
         <v>186.4676126057583</v>
       </c>
-      <c r="O70" t="n">
+      <c r="Q70" t="n">
         <v>916.2315145048027</v>
       </c>
-      <c r="P70" t="n">
+      <c r="R70" t="n">
         <v>916.2307637990805</v>
       </c>
-      <c r="Q70" t="n">
+      <c r="S70" t="n">
         <v>0.03523874564618845</v>
       </c>
-      <c r="R70" t="n">
+      <c r="T70" t="n">
         <v>0.08988231157292116</v>
       </c>
-      <c r="S70" t="n">
+      <c r="U70" t="n">
         <v>0.002032160535256328</v>
       </c>
-      <c r="T70" t="n">
+      <c r="V70" t="n">
         <v>2.094652213885682e-05</v>
       </c>
-      <c r="U70" t="n">
+      <c r="W70" t="n">
         <v>0.001543035866345305</v>
       </c>
     </row>
@@ -5206,27 +5630,33 @@
         <v>817.3646118361186</v>
       </c>
       <c r="N71" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O71" t="n">
+        <v>871.867078400483</v>
+      </c>
+      <c r="P71" t="n">
         <v>185.4321633135394</v>
       </c>
-      <c r="O71" t="n">
+      <c r="Q71" t="n">
         <v>916.0846457599272</v>
       </c>
-      <c r="P71" t="n">
+      <c r="R71" t="n">
         <v>916.0838940231481</v>
       </c>
-      <c r="Q71" t="n">
+      <c r="S71" t="n">
         <v>0.03525431781583497</v>
       </c>
-      <c r="R71" t="n">
+      <c r="T71" t="n">
         <v>0.08986790374904886</v>
       </c>
-      <c r="S71" t="n">
+      <c r="U71" t="n">
         <v>0.002030325945653824</v>
       </c>
-      <c r="T71" t="n">
+      <c r="V71" t="n">
         <v>2.085935911666007e-05</v>
       </c>
-      <c r="U71" t="n">
+      <c r="W71" t="n">
         <v>0.001541743191887607</v>
       </c>
     </row>
@@ -5273,27 +5703,33 @@
         <v>817.3540424697238</v>
       </c>
       <c r="N72" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O72" t="n">
+        <v>871.8596798440067</v>
+      </c>
+      <c r="P72" t="n">
         <v>184.390472877592</v>
       </c>
-      <c r="O72" t="n">
+      <c r="Q72" t="n">
         <v>915.9351555092753</v>
       </c>
-      <c r="P72" t="n">
+      <c r="R72" t="n">
         <v>915.9344027353934</v>
       </c>
-      <c r="Q72" t="n">
+      <c r="S72" t="n">
         <v>0.03527019827512354</v>
       </c>
-      <c r="R72" t="n">
+      <c r="T72" t="n">
         <v>0.08985323875545992</v>
       </c>
-      <c r="S72" t="n">
+      <c r="U72" t="n">
         <v>0.002028524898319234</v>
       </c>
-      <c r="T72" t="n">
+      <c r="V72" t="n">
         <v>2.0772183253242e-05</v>
       </c>
-      <c r="U72" t="n">
+      <c r="W72" t="n">
         <v>0.001540474797463612</v>
       </c>
     </row>
@@ -5340,27 +5776,33 @@
         <v>817.3430660902613</v>
       </c>
       <c r="N73" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O73" t="n">
+        <v>871.851996378383</v>
+      </c>
+      <c r="P73" t="n">
         <v>183.3425695061005</v>
       </c>
-      <c r="O73" t="n">
+      <c r="Q73" t="n">
         <v>915.7829927566366</v>
       </c>
-      <c r="P73" t="n">
+      <c r="R73" t="n">
         <v>915.7822389396348</v>
       </c>
-      <c r="Q73" t="n">
+      <c r="S73" t="n">
         <v>0.03528639366971066</v>
       </c>
-      <c r="R73" t="n">
+      <c r="T73" t="n">
         <v>0.08983831158942607</v>
       </c>
-      <c r="S73" t="n">
+      <c r="U73" t="n">
         <v>0.002026757619812321</v>
       </c>
-      <c r="T73" t="n">
+      <c r="V73" t="n">
         <v>2.06850031841066e-05</v>
       </c>
-      <c r="U73" t="n">
+      <c r="W73" t="n">
         <v>0.001539230844999868</v>
       </c>
     </row>
@@ -5407,27 +5849,33 @@
         <v>817.3316817979559</v>
       </c>
       <c r="N74" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O74" t="n">
+        <v>871.8440273737691</v>
+      </c>
+      <c r="P74" t="n">
         <v>182.2884839663305</v>
       </c>
-      <c r="O74" t="n">
+      <c r="Q74" t="n">
         <v>915.6281053477693</v>
       </c>
-      <c r="P74" t="n">
+      <c r="R74" t="n">
         <v>915.6273504816612</v>
       </c>
-      <c r="Q74" t="n">
+      <c r="S74" t="n">
         <v>0.03530291080791677</v>
       </c>
-      <c r="R74" t="n">
+      <c r="T74" t="n">
         <v>0.08982311713461617</v>
       </c>
-      <c r="S74" t="n">
+      <c r="U74" t="n">
         <v>0.002025024340513285</v>
       </c>
-      <c r="T74" t="n">
+      <c r="V74" t="n">
         <v>2.059782766925901e-05</v>
       </c>
-      <c r="U74" t="n">
+      <c r="W74" t="n">
         <v>0.001538011499136277</v>
       </c>
     </row>
@@ -5474,27 +5922,33 @@
         <v>817.319888708825</v>
       </c>
       <c r="N75" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O75" t="n">
+        <v>871.8357722113775</v>
+      </c>
+      <c r="P75" t="n">
         <v>181.2282496164573</v>
       </c>
-      <c r="O75" t="n">
+      <c r="Q75" t="n">
         <v>915.4704399393719</v>
       </c>
-      <c r="P75" t="n">
+      <c r="R75" t="n">
         <v>915.4696840182054</v>
       </c>
-      <c r="Q75" t="n">
+      <c r="S75" t="n">
         <v>0.03531975666546858</v>
       </c>
-      <c r="R75" t="n">
+      <c r="T75" t="n">
         <v>0.08980765015805239</v>
       </c>
-      <c r="S75" t="n">
+      <c r="U75" t="n">
         <v>0.002023325294698236</v>
       </c>
-      <c r="T75" t="n">
+      <c r="V75" t="n">
         <v>2.051066558907564e-05</v>
       </c>
-      <c r="U75" t="n">
+      <c r="W75" t="n">
         <v>0.001536816927279345</v>
       </c>
     </row>
@@ -5541,27 +5995,33 @@
         <v>817.3076859546622</v>
       </c>
       <c r="N76" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O76" t="n">
+        <v>871.8272302834636</v>
+      </c>
+      <c r="P76" t="n">
         <v>180.161902435834</v>
       </c>
-      <c r="O76" t="n">
+      <c r="Q76" t="n">
         <v>915.3099419670365</v>
       </c>
-      <c r="P76" t="n">
+      <c r="R76" t="n">
         <v>915.3091849848958</v>
       </c>
-      <c r="Q76" t="n">
+      <c r="S76" t="n">
         <v>0.03533693839041115</v>
       </c>
-      <c r="R76" t="n">
+      <c r="T76" t="n">
         <v>0.0897919053069663</v>
       </c>
-      <c r="S76" t="n">
+      <c r="U76" t="n">
         <v>0.002021660720616468</v>
       </c>
-      <c r="T76" t="n">
+      <c r="V76" t="n">
         <v>2.042352593999101e-05</v>
       </c>
-      <c r="U76" t="n">
+      <c r="W76" t="n">
         <v>0.001535647299656707</v>
       </c>
     </row>
@@ -5608,27 +6068,33 @@
         <v>817.295072683022</v>
       </c>
       <c r="N77" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O77" t="n">
+        <v>871.8184009933154</v>
+      </c>
+      <c r="P77" t="n">
         <v>179.0894810536222</v>
       </c>
-      <c r="O77" t="n">
+      <c r="Q77" t="n">
         <v>915.1465556121452</v>
       </c>
-      <c r="P77" t="n">
+      <c r="R77" t="n">
         <v>915.1457975631535</v>
       </c>
-      <c r="Q77" t="n">
+      <c r="S77" t="n">
         <v>0.03535446330819782</v>
       </c>
-      <c r="R77" t="n">
+      <c r="T77" t="n">
         <v>0.08977587710555145</v>
       </c>
-      <c r="S77" t="n">
+      <c r="U77" t="n">
         <v>0.00202003086056953</v>
       </c>
-      <c r="T77" t="n">
+      <c r="V77" t="n">
         <v>2.033641783000415e-05</v>
       </c>
-      <c r="U77" t="n">
+      <c r="W77" t="n">
         <v>0.001534502789372904</v>
       </c>
     </row>
@@ -5675,27 +6141,33 @@
         <v>817.2820480571953</v>
       </c>
       <c r="N78" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O78" t="n">
+        <v>871.8092837552367</v>
+      </c>
+      <c r="P78" t="n">
         <v>178.0110267757088</v>
       </c>
-      <c r="O78" t="n">
+      <c r="Q78" t="n">
         <v>914.9802237676615</v>
       </c>
-      <c r="P78" t="n">
+      <c r="R78" t="n">
         <v>914.9794646459836</v>
       </c>
-      <c r="Q78" t="n">
+      <c r="S78" t="n">
         <v>0.03537233892696542</v>
       </c>
-      <c r="R78" t="n">
+      <c r="T78" t="n">
         <v>0.08975955995160761</v>
       </c>
-      <c r="S78" t="n">
+      <c r="U78" t="n">
         <v>0.002018435960992255</v>
       </c>
-      <c r="T78" t="n">
+      <c r="V78" t="n">
         <v>2.024935047400765e-05</v>
       </c>
-      <c r="U78" t="n">
+      <c r="W78" t="n">
         <v>0.001533383572466548</v>
       </c>
     </row>
@@ -5742,27 +6214,33 @@
         <v>817.2686112561863</v>
       </c>
       <c r="N79" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O79" t="n">
+        <v>871.7998779945304</v>
+      </c>
+      <c r="P79" t="n">
         <v>176.9265836098294</v>
       </c>
-      <c r="O79" t="n">
+      <c r="Q79" t="n">
         <v>914.8108880027806</v>
       </c>
-      <c r="P79" t="n">
+      <c r="R79" t="n">
         <v>914.8101278026256</v>
       </c>
-      <c r="Q79" t="n">
+      <c r="S79" t="n">
         <v>0.03539057294300296</v>
       </c>
-      <c r="R79" t="n">
+      <c r="T79" t="n">
         <v>0.08974294811307279</v>
       </c>
-      <c r="S79" t="n">
+      <c r="U79" t="n">
         <v>0.002016876272535695</v>
       </c>
-      <c r="T79" t="n">
+      <c r="V79" t="n">
         <v>2.016233318894284e-05</v>
       </c>
-      <c r="U79" t="n">
+      <c r="W79" t="n">
         <v>0.00153228982796882</v>
       </c>
     </row>
@@ -5809,27 +6287,33 @@
         <v>817.2547614746816</v>
       </c>
       <c r="N80" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O80" t="n">
+        <v>871.7901831474771</v>
+      </c>
+      <c r="P80" t="n">
         <v>175.8361982888239</v>
       </c>
-      <c r="O80" t="n">
+      <c r="Q80" t="n">
         <v>914.6384885263805</v>
       </c>
-      <c r="P80" t="n">
+      <c r="R80" t="n">
         <v>914.637727242005</v>
       </c>
-      <c r="Q80" t="n">
+      <c r="S80" t="n">
         <v>0.03540917324642263</v>
       </c>
-      <c r="R80" t="n">
+      <c r="T80" t="n">
         <v>0.08972603572443794</v>
       </c>
-      <c r="S80" t="n">
+      <c r="U80" t="n">
         <v>0.002015352050152099</v>
       </c>
-      <c r="T80" t="n">
+      <c r="V80" t="n">
         <v>2.007537538878514e-05</v>
       </c>
-      <c r="U80" t="n">
+      <c r="W80" t="n">
         <v>0.001531221737963404</v>
       </c>
     </row>
@@ -5876,27 +6360,33 @@
         <v>817.2404979230164</v>
       </c>
       <c r="N81" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O81" t="n">
+        <v>871.7801986613115</v>
+      </c>
+      <c r="P81" t="n">
         <v>174.7399202919475</v>
       </c>
-      <c r="O81" t="n">
+      <c r="Q81" t="n">
         <v>914.4629641492352</v>
       </c>
-      <c r="P81" t="n">
+      <c r="R81" t="n">
         <v>914.4622017749457</v>
       </c>
-      <c r="Q81" t="n">
+      <c r="S81" t="n">
         <v>0.03542814792704183</v>
       </c>
-      <c r="R81" t="n">
+      <c r="T81" t="n">
         <v>0.08970881678303999</v>
       </c>
-      <c r="S81" t="n">
+      <c r="U81" t="n">
         <v>0.002013863553181942</v>
       </c>
-      <c r="T81" t="n">
+      <c r="V81" t="n">
         <v>1.998848657936366e-05</v>
       </c>
-      <c r="U81" t="n">
+      <c r="W81" t="n">
         <v>0.001530179487647869</v>
       </c>
     </row>
@@ -5943,27 +6433,33 @@
         <v>817.225819827137</v>
       </c>
       <c r="N82" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O82" t="n">
+        <v>871.7699239941959</v>
+      </c>
+      <c r="P82" t="n">
         <v>173.6378018641625</v>
       </c>
-      <c r="O82" t="n">
+      <c r="Q82" t="n">
         <v>914.2842522449306</v>
       </c>
-      <c r="P82" t="n">
+      <c r="R82" t="n">
         <v>914.2834887750859</v>
       </c>
-      <c r="Q82" t="n">
+      <c r="S82" t="n">
         <v>0.03544750528048553</v>
       </c>
-      <c r="R82" t="n">
+      <c r="T82" t="n">
         <v>0.08969128514522771</v>
       </c>
-      <c r="S82" t="n">
+      <c r="U82" t="n">
         <v>0.002012411045443064</v>
       </c>
-      <c r="T82" t="n">
+      <c r="V82" t="n">
         <v>1.990167635301991e-05</v>
       </c>
-      <c r="U82" t="n">
+      <c r="W82" t="n">
         <v>0.001529163265396525</v>
       </c>
     </row>
@@ -6010,27 +6506,33 @@
         <v>817.2107264285582</v>
       </c>
       <c r="N83" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O83" t="n">
+        <v>871.7593586151908</v>
+      </c>
+      <c r="P83" t="n">
         <v>172.5298980333371</v>
       </c>
-      <c r="O83" t="n">
+      <c r="Q83" t="n">
         <v>914.1022887094321</v>
       </c>
-      <c r="P83" t="n">
+      <c r="R83" t="n">
         <v>914.1015241384462</v>
       </c>
-      <c r="Q83" t="n">
+      <c r="S83" t="n">
         <v>0.03546725381451979</v>
       </c>
-      <c r="R83" t="n">
+      <c r="T83" t="n">
         <v>0.0896734345223953</v>
       </c>
-      <c r="S83" t="n">
+      <c r="U83" t="n">
         <v>0.002010994795322033</v>
       </c>
-      <c r="T83" t="n">
+      <c r="V83" t="n">
         <v>1.981495438311056e-05</v>
       </c>
-      <c r="U83" t="n">
+      <c r="W83" t="n">
         <v>0.001528173262824844</v>
       </c>
     </row>
@@ -6077,27 +6579,33 @@
         <v>817.1952169843141</v>
       </c>
       <c r="N84" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O84" t="n">
+        <v>871.7485020042199</v>
+      </c>
+      <c r="P84" t="n">
         <v>171.4162666252804</v>
       </c>
-      <c r="O84" t="n">
+      <c r="Q84" t="n">
         <v>913.9170079192456</v>
       </c>
-      <c r="P84" t="n">
+      <c r="R84" t="n">
         <v>913.9162422415914</v>
       </c>
-      <c r="Q84" t="n">
+      <c r="S84" t="n">
         <v>0.0354874022556261</v>
       </c>
-      <c r="R84" t="n">
+      <c r="T84" t="n">
         <v>0.08965525847687801</v>
       </c>
-      <c r="S84" t="n">
+      <c r="U84" t="n">
         <v>0.002009615075867727</v>
       </c>
-      <c r="T84" t="n">
+      <c r="V84" t="n">
         <v>1.97283304183598e-05</v>
       </c>
-      <c r="U84" t="n">
+      <c r="W84" t="n">
         <v>0.00152720967485545</v>
       </c>
     </row>
@@ -6144,27 +6652,33 @@
         <v>817.1792907669085</v>
       </c>
       <c r="N85" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O85" t="n">
+        <v>871.7373536520359</v>
+      </c>
+      <c r="P85" t="n">
         <v>170.296968276541</v>
       </c>
-      <c r="O85" t="n">
+      <c r="Q85" t="n">
         <v>913.7283426881145</v>
       </c>
-      <c r="P85" t="n">
+      <c r="R85" t="n">
         <v>913.7275758983252</v>
       </c>
-      <c r="Q85" t="n">
+      <c r="S85" t="n">
         <v>0.03550795955582777</v>
       </c>
-      <c r="R85" t="n">
+      <c r="T85" t="n">
         <v>0.08963675041770405</v>
       </c>
-      <c r="S85" t="n">
+      <c r="U85" t="n">
         <v>0.002008272164887262</v>
       </c>
-      <c r="T85" t="n">
+      <c r="V85" t="n">
         <v>1.964181427706694e-05</v>
       </c>
-      <c r="U85" t="n">
+      <c r="W85" t="n">
         <v>0.001526272699785737</v>
       </c>
     </row>
@@ -6211,27 +6725,33 @@
         <v>817.1629470642547</v>
       </c>
       <c r="N86" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O86" t="n">
+        <v>871.7259130601783</v>
+      </c>
+      <c r="P86" t="n">
         <v>169.1720664449013</v>
       </c>
-      <c r="O86" t="n">
+      <c r="Q86" t="n">
         <v>913.5362242221858</v>
       </c>
-      <c r="P86" t="n">
+      <c r="R86" t="n">
         <v>913.5354563148589</v>
       </c>
-      <c r="Q86" t="n">
+      <c r="S86" t="n">
         <v>0.03552893489978038</v>
       </c>
-      <c r="R86" t="n">
+      <c r="T86" t="n">
         <v>0.08961790359619644</v>
       </c>
-      <c r="S86" t="n">
+      <c r="U86" t="n">
         <v>0.002006966345044274</v>
       </c>
-      <c r="T86" t="n">
+      <c r="V86" t="n">
         <v>1.955541584117541e-05</v>
       </c>
-      <c r="U86" t="n">
+      <c r="W86" t="n">
         <v>0.001525362539357166</v>
       </c>
     </row>
@@ -6278,27 +6798,33 @@
         <v>817.1461851796146</v>
       </c>
       <c r="N87" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O87" t="n">
+        <v>871.7141797409301</v>
+      </c>
+      <c r="P87" t="n">
         <v>168.0416274175012</v>
       </c>
-      <c r="O87" t="n">
+      <c r="Q87" t="n">
         <v>913.3405820735848</v>
       </c>
-      <c r="P87" t="n">
+      <c r="R87" t="n">
         <v>913.3398130433842</v>
       </c>
-      <c r="Q87" t="n">
+      <c r="S87" t="n">
         <v>0.03555033771213847</v>
       </c>
-      <c r="R87" t="n">
+      <c r="T87" t="n">
         <v>0.08959871110141868</v>
       </c>
-      <c r="S87" t="n">
+      <c r="U87" t="n">
         <v>0.002005697903959687</v>
       </c>
-      <c r="T87" t="n">
+      <c r="V87" t="n">
         <v>1.946914505020988e-05</v>
       </c>
-      <c r="U87" t="n">
+      <c r="W87" t="n">
         <v>0.001524479398826287</v>
       </c>
     </row>
@@ -6345,27 +6871,33 @@
         <v>817.1290044315288</v>
       </c>
       <c r="N88" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O88" t="n">
+        <v>871.7021532172702</v>
+      </c>
+      <c r="P88" t="n">
         <v>166.9057203165259</v>
       </c>
-      <c r="O88" t="n">
+      <c r="Q88" t="n">
         <v>913.1413440923217</v>
       </c>
-      <c r="P88" t="n">
+      <c r="R88" t="n">
         <v>913.140573933981</v>
       </c>
-      <c r="Q88" t="n">
+      <c r="S88" t="n">
         <v>0.0355721776652109</v>
       </c>
-      <c r="R88" t="n">
+      <c r="T88" t="n">
         <v>0.08957916585545676</v>
       </c>
-      <c r="S88" t="n">
+      <c r="U88" t="n">
         <v>0.002004467134315003</v>
       </c>
-      <c r="T88" t="n">
+      <c r="V88" t="n">
         <v>1.938301189508819e-05</v>
       </c>
-      <c r="U88" t="n">
+      <c r="W88" t="n">
         <v>0.001523623487037542</v>
       </c>
     </row>
@@ -6412,27 +6944,33 @@
         <v>817.1114041537439</v>
       </c>
       <c r="N89" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O89" t="n">
+        <v>871.6898330228207</v>
+      </c>
+      <c r="P89" t="n">
         <v>165.7644171023937</v>
       </c>
-      <c r="O89" t="n">
+      <c r="Q89" t="n">
         <v>912.9384363764663</v>
       </c>
-      <c r="P89" t="n">
+      <c r="R89" t="n">
         <v>912.9376650847912</v>
       </c>
-      <c r="Q89" t="n">
+      <c r="S89" t="n">
         <v>0.03559446468691933</v>
       </c>
-      <c r="R89" t="n">
+      <c r="T89" t="n">
         <v>0.08955926060853135</v>
       </c>
-      <c r="S89" t="n">
+      <c r="U89" t="n">
         <v>0.002003274333958187</v>
       </c>
-      <c r="T89" t="n">
+      <c r="V89" t="n">
         <v>1.929702641181511e-05</v>
       </c>
-      <c r="U89" t="n">
+      <c r="W89" t="n">
         <v>0.001522795016497893</v>
       </c>
     </row>
@@ -6479,27 +7017,33 @@
         <v>817.0933836951307</v>
       </c>
       <c r="N90" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O90" t="n">
+        <v>871.6772187017915</v>
+      </c>
+      <c r="P90" t="n">
         <v>164.6177925743885</v>
       </c>
-      <c r="O90" t="n">
+      <c r="Q90" t="n">
         <v>912.7317832205053</v>
       </c>
-      <c r="P90" t="n">
+      <c r="R90" t="n">
         <v>912.7310107903766</v>
       </c>
-      <c r="Q90" t="n">
+      <c r="S90" t="n">
         <v>0.03561720896907367</v>
       </c>
-      <c r="R90" t="n">
+      <c r="T90" t="n">
         <v>0.08953898793393159</v>
       </c>
-      <c r="S90" t="n">
+      <c r="U90" t="n">
         <v>0.002002119806012257</v>
       </c>
-      <c r="T90" t="n">
+      <c r="V90" t="n">
         <v>1.921119867506588e-05</v>
       </c>
-      <c r="U90" t="n">
+      <c r="W90" t="n">
         <v>0.001521994203453345</v>
       </c>
     </row>
@@ -6546,27 +7090,33 @@
         <v>817.0749424195985</v>
       </c>
       <c r="N91" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O91" t="n">
+        <v>871.6643098089189</v>
+      </c>
+      <c r="P91" t="n">
         <v>163.4659243686736</v>
       </c>
-      <c r="O91" t="n">
+      <c r="Q91" t="n">
         <v>912.5213070618094</v>
       </c>
-      <c r="P91" t="n">
+      <c r="R91" t="n">
         <v>912.5205334881859</v>
       </c>
-      <c r="Q91" t="n">
+      <c r="S91" t="n">
         <v>0.03564042097597972</v>
       </c>
-      <c r="R91" t="n">
+      <c r="T91" t="n">
         <v>0.08951834022276352</v>
       </c>
-      <c r="S91" t="n">
+      <c r="U91" t="n">
         <v>0.00200100385898663</v>
       </c>
-      <c r="T91" t="n">
+      <c r="V91" t="n">
         <v>1.912553879166689e-05</v>
       </c>
-      <c r="U91" t="n">
+      <c r="W91" t="n">
         <v>0.001521221267967403</v>
       </c>
     </row>
@@ -6613,27 +7163,33 @@
         <v>817.0560797060025</v>
       </c>
       <c r="N92" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O92" t="n">
+        <v>871.6511059094017</v>
+      </c>
+      <c r="P92" t="n">
         <v>162.3088929536383</v>
       </c>
-      <c r="O92" t="n">
+      <c r="Q92" t="n">
         <v>912.3069284251201</v>
       </c>
-      <c r="P92" t="n">
+      <c r="R92" t="n">
         <v>912.3061537030414</v>
       </c>
-      <c r="Q92" t="n">
+      <c r="S92" t="n">
         <v>0.03566411145339544</v>
       </c>
-      <c r="R92" t="n">
+      <c r="T92" t="n">
         <v>0.08949730967850429</v>
       </c>
-      <c r="S92" t="n">
+      <c r="U92" t="n">
         <v>0.001999926806891321</v>
       </c>
-      <c r="T92" t="n">
+      <c r="V92" t="n">
         <v>1.904005689398186e-05</v>
       </c>
-      <c r="U92" t="n">
+      <c r="W92" t="n">
         <v>0.00152047643400154</v>
       </c>
     </row>
@@ -6680,27 +7236,33 @@
         <v>817.0367949480424</v>
       </c>
       <c r="N93" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O93" t="n">
+        <v>871.6376065788296</v>
+      </c>
+      <c r="P93" t="n">
         <v>161.146781622522</v>
       </c>
-      <c r="O93" t="n">
+      <c r="Q93" t="n">
         <v>912.0885658649692</v>
       </c>
-      <c r="P93" t="n">
+      <c r="R93" t="n">
         <v>912.0877899895589</v>
       </c>
-      <c r="Q93" t="n">
+      <c r="S93" t="n">
         <v>0.03568829143785246</v>
       </c>
-      <c r="R93" t="n">
+      <c r="T93" t="n">
         <v>0.08947588831135349</v>
       </c>
-      <c r="S93" t="n">
+      <c r="U93" t="n">
         <v>0.001998888969354073</v>
       </c>
-      <c r="T93" t="n">
+      <c r="V93" t="n">
         <v>1.895476313321186e-05</v>
       </c>
-      <c r="U93" t="n">
+      <c r="W93" t="n">
         <v>0.001519759929497715</v>
       </c>
     </row>
@@ -6747,27 +7309,33 @@
         <v>817.0170875541559</v>
       </c>
       <c r="N94" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O94" t="n">
+        <v>871.6238114031091</v>
+      </c>
+      <c r="P94" t="n">
         <v>159.9796764832717</v>
       </c>
-      <c r="O94" t="n">
+      <c r="Q94" t="n">
         <v>911.8661359059381</v>
       </c>
-      <c r="P94" t="n">
+      <c r="R94" t="n">
         <v>911.8653588724056</v>
       </c>
-      <c r="Q94" t="n">
+      <c r="S94" t="n">
         <v>0.03571297226636029</v>
       </c>
-      <c r="R94" t="n">
+      <c r="T94" t="n">
         <v>0.08945406793237254</v>
       </c>
-      <c r="S94" t="n">
+      <c r="U94" t="n">
         <v>0.001997890671740541</v>
       </c>
-      <c r="T94" t="n">
+      <c r="V94" t="n">
         <v>1.886966767261782e-05</v>
       </c>
-      <c r="U94" t="n">
+      <c r="W94" t="n">
         <v>0.001519071986463042</v>
       </c>
     </row>
@@ -6814,27 +7382,33 @@
         <v>816.9969569474043</v>
       </c>
       <c r="N95" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O95" t="n">
+        <v>871.6097199783831</v>
+      </c>
+      <c r="P95" t="n">
         <v>158.8076664455848</v>
       </c>
-      <c r="O95" t="n">
+      <c r="Q95" t="n">
         <v>911.6395529806564</v>
       </c>
-      <c r="P95" t="n">
+      <c r="R95" t="n">
         <v>911.6387747843006</v>
       </c>
-      <c r="Q95" t="n">
+      <c r="S95" t="n">
         <v>0.03573816558651337</v>
       </c>
-      <c r="R95" t="n">
+      <c r="T95" t="n">
         <v>0.08943184014740241</v>
       </c>
-      <c r="S95" t="n">
+      <c r="U95" t="n">
         <v>0.001996932245277576</v>
       </c>
-      <c r="T95" t="n">
+      <c r="V95" t="n">
         <v>1.878478068067434e-05</v>
       </c>
-      <c r="U95" t="n">
+      <c r="W95" t="n">
         <v>0.001518412841056628</v>
       </c>
     </row>
@@ -6881,27 +7455,33 @@
         <v>816.9764025653495</v>
       </c>
       <c r="N96" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O96" t="n">
+        <v>871.5953319109447</v>
+      </c>
+      <c r="P96" t="n">
         <v>157.630843205099</v>
       </c>
-      <c r="O96" t="n">
+      <c r="Q96" t="n">
         <v>911.4087293654351</v>
       </c>
-      <c r="P96" t="n">
+      <c r="R96" t="n">
         <v>911.407950001647</v>
       </c>
-      <c r="Q96" t="n">
+      <c r="S96" t="n">
         <v>0.03576388336701963</v>
       </c>
-      <c r="R96" t="n">
+      <c r="T96" t="n">
         <v>0.08940919635074919</v>
       </c>
-      <c r="S96" t="n">
+      <c r="U96" t="n">
         <v>0.001996014027179738</v>
       </c>
-      <c r="T96" t="n">
+      <c r="V96" t="n">
         <v>1.870011232416399e-05</v>
       </c>
-      <c r="U96" t="n">
+      <c r="W96" t="n">
         <v>0.001517782733678685</v>
       </c>
     </row>
@@ -6948,27 +7528,33 @@
         <v>816.9554238599237</v>
       </c>
       <c r="N97" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O97" t="n">
+        <v>871.5806468171465</v>
+      </c>
+      <c r="P97" t="n">
         <v>156.4493012246924</v>
       </c>
-      <c r="O97" t="n">
+      <c r="Q97" t="n">
         <v>911.1735751134315</v>
       </c>
-      <c r="P97" t="n">
+      <c r="R97" t="n">
         <v>911.1727945776968</v>
       </c>
-      <c r="Q97" t="n">
+      <c r="S97" t="n">
         <v>0.0357901379086725</v>
       </c>
-      <c r="R97" t="n">
+      <c r="T97" t="n">
         <v>0.08938612771862764</v>
       </c>
-      <c r="S97" t="n">
+      <c r="U97" t="n">
         <v>0.001995136360779135</v>
       </c>
-      <c r="T97" t="n">
+      <c r="V97" t="n">
         <v>1.861567276122147e-05</v>
       </c>
-      <c r="U97" t="n">
+      <c r="W97" t="n">
         <v>0.001517181909061971</v>
       </c>
     </row>
@@ -7015,27 +7601,33 @@
         <v>816.9340202972901</v>
       </c>
       <c r="N98" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O98" t="n">
+        <v>871.5656643233031</v>
+      </c>
+      <c r="P98" t="n">
         <v>155.2631377128601</v>
       </c>
-      <c r="O98" t="n">
+      <c r="Q98" t="n">
         <v>910.9339979852178</v>
       </c>
-      <c r="P98" t="n">
+      <c r="R98" t="n">
         <v>910.9332162731196</v>
       </c>
-      <c r="Q98" t="n">
+      <c r="S98" t="n">
         <v>0.03581694185578826</v>
       </c>
-      <c r="R98" t="n">
+      <c r="T98" t="n">
         <v>0.08936262520234989</v>
       </c>
-      <c r="S98" t="n">
+      <c r="U98" t="n">
         <v>0.001994299595658704</v>
       </c>
-      <c r="T98" t="n">
+      <c r="V98" t="n">
         <v>1.853147213433703e-05</v>
       </c>
-      <c r="U98" t="n">
+      <c r="W98" t="n">
         <v>0.001516610616365654</v>
       </c>
     </row>
@@ -7082,27 +7674,33 @@
         <v>816.9121913576945</v>
       </c>
       <c r="N99" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O99" t="n">
+        <v>871.5503840655862</v>
+      </c>
+      <c r="P99" t="n">
         <v>154.072452599139</v>
       </c>
-      <c r="O99" t="n">
+      <c r="Q99" t="n">
         <v>910.6899033766441</v>
       </c>
-      <c r="P99" t="n">
+      <c r="R99" t="n">
         <v>910.6891204838656</v>
       </c>
-      <c r="Q99" t="n">
+      <c r="S99" t="n">
         <v>0.03584430820813294</v>
       </c>
-      <c r="R99" t="n">
+      <c r="T99" t="n">
         <v>0.0893386795212488</v>
       </c>
-      <c r="S99" t="n">
+      <c r="U99" t="n">
         <v>0.001993504087788995</v>
       </c>
-      <c r="T99" t="n">
+      <c r="V99" t="n">
         <v>1.844752056332885e-05</v>
       </c>
-      <c r="U99" t="n">
+      <c r="W99" t="n">
         <v>0.001516069109271624</v>
       </c>
     </row>
@@ -7149,27 +7747,33 @@
         <v>816.8899365353076</v>
       </c>
       <c r="N100" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O100" t="n">
+        <v>871.5348056899153</v>
+      </c>
+      <c r="P100" t="n">
         <v>152.8773485065569</v>
       </c>
-      <c r="O100" t="n">
+      <c r="Q100" t="n">
         <v>910.4411942438595</v>
       </c>
-      <c r="P100" t="n">
+      <c r="R100" t="n">
         <v>910.4404101661871</v>
       </c>
-      <c r="Q100" t="n">
+      <c r="S100" t="n">
         <v>0.03587225033336305</v>
       </c>
-      <c r="R100" t="n">
+      <c r="T100" t="n">
         <v>0.08931428115532263</v>
       </c>
-      <c r="S100" t="n">
+      <c r="U100" t="n">
         <v>0.00199275019966864</v>
       </c>
-      <c r="T100" t="n">
+      <c r="V100" t="n">
         <v>1.836382813829431e-05</v>
       </c>
-      <c r="U100" t="n">
+      <c r="W100" t="n">
         <v>0.0015155576460834</v>
       </c>
     </row>
@@ -7216,27 +7820,33 @@
         <v>816.867255338058</v>
       </c>
       <c r="N101" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O101" t="n">
+        <v>871.5189288518407</v>
+      </c>
+      <c r="P101" t="n">
         <v>151.6779307210858</v>
       </c>
-      <c r="O101" t="n">
+      <c r="Q101" t="n">
         <v>910.18777102536</v>
       </c>
-      <c r="P101" t="n">
+      <c r="R101" t="n">
         <v>910.1869857586858</v>
       </c>
-      <c r="Q101" t="n">
+      <c r="S101" t="n">
         <v>0.03590078198000762</v>
       </c>
-      <c r="R101" t="n">
+      <c r="T101" t="n">
         <v>0.08928942033758783</v>
       </c>
-      <c r="S101" t="n">
+      <c r="U101" t="n">
         <v>0.001992038300468575</v>
       </c>
-      <c r="T101" t="n">
+      <c r="V101" t="n">
         <v>1.828040491254987e-05</v>
       </c>
-      <c r="U101" t="n">
+      <c r="W101" t="n">
         <v>0.001515076489827669</v>
       </c>
     </row>
@@ -7283,27 +7893,33 @@
         <v>816.8441472874551</v>
       </c>
       <c r="N102" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O102" t="n">
+        <v>871.5027532164186</v>
+      </c>
+      <c r="P102" t="n">
         <v>150.4743071580843</v>
       </c>
-      <c r="O102" t="n">
+      <c r="Q102" t="n">
         <v>909.9295315609176</v>
       </c>
-      <c r="P102" t="n">
+      <c r="R102" t="n">
         <v>909.9287451012411</v>
       </c>
-      <c r="Q102" t="n">
+      <c r="S102" t="n">
         <v>0.03592991729101881</v>
       </c>
-      <c r="R102" t="n">
+      <c r="T102" t="n">
         <v>0.08926408704612603</v>
       </c>
-      <c r="S102" t="n">
+      <c r="U102" t="n">
         <v>0.00199136876618016</v>
       </c>
-      <c r="T102" t="n">
+      <c r="V102" t="n">
         <v>1.819726089556977e-05</v>
       </c>
-      <c r="U102" t="n">
+      <c r="W102" t="n">
         <v>0.001514625908358556</v>
       </c>
     </row>
@@ -7350,27 +7966,33 @@
         <v>816.8206119183992</v>
       </c>
       <c r="N103" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O103" t="n">
+        <v>871.4862784580795</v>
+      </c>
+      <c r="P103" t="n">
         <v>149.2665883257182</v>
       </c>
-      <c r="O103" t="n">
+      <c r="Q103" t="n">
         <v>909.6663710072371</v>
       </c>
-      <c r="P103" t="n">
+      <c r="R103" t="n">
         <v>909.6655833506696</v>
       </c>
-      <c r="Q103" t="n">
+      <c r="S103" t="n">
         <v>0.03595967081792138</v>
       </c>
-      <c r="R103" t="n">
+      <c r="T103" t="n">
         <v>0.08923827099580997</v>
       </c>
-      <c r="S103" t="n">
+      <c r="U103" t="n">
         <v>0.0019907419797673</v>
       </c>
-      <c r="T103" t="n">
+      <c r="V103" t="n">
         <v>1.811440604593367e-05</v>
       </c>
-      <c r="U103" t="n">
+      <c r="W103" t="n">
         <v>0.001514206174464704</v>
       </c>
     </row>
@@ -7417,27 +8039,33 @@
         <v>816.7966487789832</v>
       </c>
       <c r="N104" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O104" t="n">
+        <v>871.4695042604883</v>
+      </c>
+      <c r="P104" t="n">
         <v>148.0548872853553</v>
       </c>
-      <c r="O104" t="n">
+      <c r="Q104" t="n">
         <v>909.3981817501916</v>
       </c>
-      <c r="P104" t="n">
+      <c r="R104" t="n">
         <v>909.3973928929571</v>
       </c>
-      <c r="Q104" t="n">
+      <c r="S104" t="n">
         <v>0.03599005753559285</v>
       </c>
-      <c r="R104" t="n">
+      <c r="T104" t="n">
         <v>0.0892119616296938</v>
       </c>
-      <c r="S104" t="n">
+      <c r="U104" t="n">
         <v>0.001990158331322751</v>
       </c>
-      <c r="T104" t="n">
+      <c r="V104" t="n">
         <v>1.803185026429317e-05</v>
       </c>
-      <c r="U104" t="n">
+      <c r="W104" t="n">
         <v>0.001513817565979293</v>
       </c>
     </row>
@@ -7484,27 +8112,33 @@
         <v>816.7722574302798</v>
       </c>
       <c r="N105" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O105" t="n">
+        <v>871.4524303163959</v>
+      </c>
+      <c r="P105" t="n">
         <v>146.8393196089312</v>
       </c>
-      <c r="O105" t="n">
+      <c r="Q105" t="n">
         <v>909.1248533134502</v>
       </c>
-      <c r="P105" t="n">
+      <c r="R105" t="n">
         <v>909.1240632518885</v>
       </c>
-      <c r="Q105" t="n">
+      <c r="S105" t="n">
         <v>0.03602109285770703</v>
       </c>
-      <c r="R105" t="n">
+      <c r="T105" t="n">
         <v>0.08918514811004948</v>
       </c>
-      <c r="S105" t="n">
+      <c r="U105" t="n">
         <v>0.001989618218228672</v>
       </c>
-      <c r="T105" t="n">
+      <c r="V105" t="n">
         <v>1.794960338636762e-05</v>
       </c>
-      <c r="U105" t="n">
+      <c r="W105" t="n">
         <v>0.001513460365893031</v>
       </c>
     </row>
@@ -7551,27 +8185,33 @@
         <v>816.7474374461191</v>
       </c>
       <c r="N106" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O106" t="n">
+        <v>871.4350563274834</v>
+      </c>
+      <c r="P106" t="n">
         <v>145.6200033332928</v>
       </c>
-      <c r="O106" t="n">
+      <c r="Q106" t="n">
         <v>908.8462722633387</v>
       </c>
-      <c r="P106" t="n">
+      <c r="R106" t="n">
         <v>908.8454809939082</v>
       </c>
-      <c r="Q106" t="n">
+      <c r="S106" t="n">
         <v>0.03605279265287797</v>
       </c>
-      <c r="R106" t="n">
+      <c r="T106" t="n">
         <v>0.08915781930903353</v>
       </c>
-      <c r="S106" t="n">
+      <c r="U106" t="n">
         <v>0.001989122045321644</v>
       </c>
-      <c r="T106" t="n">
+      <c r="V106" t="n">
         <v>1.786767517597932e-05</v>
       </c>
-      <c r="U106" t="n">
+      <c r="W106" t="n">
         <v>0.00151313486247028</v>
       </c>
     </row>
@@ -7618,27 +8258,33 @@
         <v>816.7221884128509</v>
       </c>
       <c r="N107" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O107" t="n">
+        <v>871.4173820041956</v>
+      </c>
+      <c r="P107" t="n">
         <v>144.3970589115289</v>
       </c>
-      <c r="O107" t="n">
+      <c r="Q107" t="n">
         <v>908.5623221097308</v>
       </c>
-      <c r="P107" t="n">
+      <c r="R107" t="n">
         <v>908.5615296290104</v>
       </c>
-      <c r="Q107" t="n">
+      <c r="S107" t="n">
         <v>0.03608517326154046</v>
       </c>
-      <c r="R107" t="n">
+      <c r="T107" t="n">
         <v>0.08912996379896461</v>
       </c>
-      <c r="S107" t="n">
+      <c r="U107" t="n">
         <v>0.001988670225062247</v>
       </c>
-      <c r="T107" t="n">
+      <c r="V107" t="n">
         <v>1.778607531813824e-05</v>
       </c>
-      <c r="U107" t="n">
+      <c r="W107" t="n">
         <v>0.001512841349368387</v>
       </c>
     </row>
@@ -7685,27 +8331,33 @@
         <v>816.6965099290934</v>
       </c>
       <c r="N108" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O108" t="n">
+        <v>871.3994070655654</v>
+      </c>
+      <c r="P108" t="n">
         <v>143.1706091613</v>
       </c>
-      <c r="O108" t="n">
+      <c r="Q108" t="n">
         <v>908.2728832027738</v>
       </c>
-      <c r="P108" t="n">
+      <c r="R108" t="n">
         <v>908.2720895074656</v>
       </c>
-      <c r="Q108" t="n">
+      <c r="S108" t="n">
         <v>0.03611825151360884</v>
       </c>
-      <c r="R108" t="n">
+      <c r="T108" t="n">
         <v>0.08910156984219211</v>
       </c>
-      <c r="S108" t="n">
+      <c r="U108" t="n">
         <v>0.001988263177709375</v>
       </c>
-      <c r="T108" t="n">
+      <c r="V108" t="n">
         <v>1.770481341218623e-05</v>
       </c>
-      <c r="U108" t="n">
+      <c r="W108" t="n">
         <v>0.001512580125760325</v>
       </c>
     </row>
@@ -7752,27 +8404,33 @@
         <v>816.6704016054687</v>
       </c>
       <c r="N109" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O109" t="n">
+        <v>871.381131239028</v>
+      </c>
+      <c r="P109" t="n">
         <v>141.9407792101922</v>
       </c>
-      <c r="O109" t="n">
+      <c r="Q109" t="n">
         <v>907.977832625243</v>
       </c>
-      <c r="P109" t="n">
+      <c r="R109" t="n">
         <v>907.9770377121741</v>
       </c>
-      <c r="Q109" t="n">
+      <c r="S109" t="n">
         <v>0.03615204474695616</v>
       </c>
-      <c r="R109" t="n">
+      <c r="T109" t="n">
         <v>0.08907262538053634</v>
       </c>
-      <c r="S109" t="n">
+      <c r="U109" t="n">
         <v>0.001987901331499448</v>
       </c>
-      <c r="T109" t="n">
+      <c r="V109" t="n">
         <v>1.762389896501121e-05</v>
       </c>
-      <c r="U109" t="n">
+      <c r="W109" t="n">
         <v>0.001512351496460777</v>
       </c>
     </row>
@@ -7819,27 +8477,33 @@
         <v>816.6438630643231</v>
       </c>
       <c r="N110" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O110" t="n">
+        <v>871.3625542602261</v>
+      </c>
+      <c r="P110" t="n">
         <v>140.7076964381157</v>
       </c>
-      <c r="O110" t="n">
+      <c r="Q110" t="n">
         <v>907.6770440802916</v>
       </c>
-      <c r="P110" t="n">
+      <c r="R110" t="n">
         <v>907.6762479464173</v>
       </c>
-      <c r="Q110" t="n">
+      <c r="S110" t="n">
         <v>0.03618657082675879</v>
       </c>
-      <c r="R110" t="n">
+      <c r="T110" t="n">
         <v>0.08904311802427661</v>
       </c>
-      <c r="S110" t="n">
+      <c r="U110" t="n">
         <v>0.001987585122830691</v>
       </c>
-      <c r="T110" t="n">
+      <c r="V110" t="n">
         <v>1.754334138434057e-05</v>
       </c>
-      <c r="U110" t="n">
+      <c r="W110" t="n">
         <v>0.001512155772055771</v>
       </c>
     </row>
@@ -7886,27 +8550,33 @@
         <v>816.616893939431</v>
       </c>
       <c r="N111" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O111" t="n">
+        <v>871.3436758728017</v>
+      </c>
+      <c r="P111" t="n">
         <v>139.4714904167813</v>
       </c>
-      <c r="O111" t="n">
+      <c r="Q111" t="n">
         <v>907.3703877743674</v>
       </c>
-      <c r="P111" t="n">
+      <c r="R111" t="n">
         <v>907.3695904167726</v>
       </c>
-      <c r="Q111" t="n">
+      <c r="S111" t="n">
         <v>0.03622184816575592</v>
       </c>
-      <c r="R111" t="n">
+      <c r="T111" t="n">
         <v>0.08901303504066545</v>
       </c>
-      <c r="S111" t="n">
+      <c r="U111" t="n">
         <v>0.001987314996452645</v>
       </c>
-      <c r="T111" t="n">
+      <c r="V111" t="n">
         <v>1.746314997212426e-05</v>
       </c>
-      <c r="U111" t="n">
+      <c r="W111" t="n">
         <v>0.001511993269035979</v>
       </c>
     </row>
@@ -7953,27 +8623,33 @@
         <v>816.589493875681</v>
       </c>
       <c r="N112" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O112" t="n">
+        <v>871.3244958281767</v>
+      </c>
+      <c r="P112" t="n">
         <v>138.2322928462909</v>
       </c>
-      <c r="O112" t="n">
+      <c r="Q112" t="n">
         <v>907.0577302950379</v>
       </c>
-      <c r="P112" t="n">
+      <c r="R112" t="n">
         <v>907.0569317109391</v>
       </c>
-      <c r="Q112" t="n">
+      <c r="S112" t="n">
         <v>0.03625789574547422</v>
       </c>
-      <c r="R112" t="n">
+      <c r="T112" t="n">
         <v>0.08898236334194323</v>
       </c>
-      <c r="S112" t="n">
+      <c r="U112" t="n">
         <v>0.00198709140566109</v>
       </c>
-      <c r="T112" t="n">
+      <c r="V112" t="n">
         <v>1.738333391801673e-05</v>
       </c>
-      <c r="U112" t="n">
+      <c r="W112" t="n">
         <v>0.001511864309933822</v>
       </c>
     </row>
@@ -8020,27 +8696,33 @@
         <v>816.5616625287471</v>
       </c>
       <c r="N113" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O113" t="n">
+        <v>871.305013885323</v>
+      </c>
+      <c r="P113" t="n">
         <v>136.9902374888823</v>
       </c>
-      <c r="O113" t="n">
+      <c r="Q113" t="n">
         <v>906.7389344834647</v>
       </c>
-      <c r="P113" t="n">
+      <c r="R113" t="n">
         <v>906.7381346702126</v>
       </c>
-      <c r="Q113" t="n">
+      <c r="S113" t="n">
         <v>0.03629473313847358</v>
       </c>
-      <c r="R113" t="n">
+      <c r="T113" t="n">
         <v>0.0889510894728279</v>
       </c>
-      <c r="S113" t="n">
+      <c r="U113" t="n">
         <v>0.001986914812498585</v>
       </c>
-      <c r="T113" t="n">
+      <c r="V113" t="n">
         <v>1.730390229296748e-05</v>
       </c>
-      <c r="U113" t="n">
+      <c r="W113" t="n">
         <v>0.001511769223464492</v>
       </c>
     </row>
@@ -8087,27 +8769,33 @@
         <v>816.5333995647392</v>
       </c>
       <c r="N114" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O114" t="n">
+        <v>871.2852298105174</v>
+      </c>
+      <c r="P114" t="n">
         <v>135.7454600998752</v>
       </c>
-      <c r="O114" t="n">
+      <c r="Q114" t="n">
         <v>906.4138593012354</v>
       </c>
-      <c r="P114" t="n">
+      <c r="R114" t="n">
         <v>906.413058256317</v>
       </c>
-      <c r="Q114" t="n">
+      <c r="S114" t="n">
         <v>0.03633238053167197</v>
       </c>
-      <c r="R114" t="n">
+      <c r="T114" t="n">
         <v>0.08891919959745122</v>
       </c>
-      <c r="S114" t="n">
+      <c r="U114" t="n">
         <v>0.001986785687960829</v>
       </c>
-      <c r="T114" t="n">
+      <c r="V114" t="n">
         <v>1.722486404292936e-05</v>
       </c>
-      <c r="U114" t="n">
+      <c r="W114" t="n">
         <v>0.001511708344671081</v>
       </c>
     </row>
@@ -8154,27 +8842,33 @@
         <v>816.5047046598344</v>
       </c>
       <c r="N115" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O115" t="n">
+        <v>871.2651433770841</v>
+      </c>
+      <c r="P115" t="n">
         <v>134.4980983558714</v>
       </c>
-      <c r="O115" t="n">
+      <c r="Q115" t="n">
         <v>906.0823596912628</v>
       </c>
-      <c r="P115" t="n">
+      <c r="R115" t="n">
         <v>906.0815574123025</v>
       </c>
-      <c r="Q115" t="n">
+      <c r="S115" t="n">
         <v>0.03637085875081141</v>
       </c>
-      <c r="R115" t="n">
+      <c r="T115" t="n">
         <v>0.0888866794857129</v>
       </c>
-      <c r="S115" t="n">
+      <c r="U115" t="n">
         <v>0.001986704512208995</v>
       </c>
-      <c r="T115" t="n">
+      <c r="V115" t="n">
         <v>1.714622798269378e-05</v>
       </c>
-      <c r="U115" t="n">
+      <c r="W115" t="n">
         <v>0.001511682015073871</v>
       </c>
     </row>
@@ -8221,27 +8915,33 @@
         <v>816.4755774998894</v>
       </c>
       <c r="N116" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O116" t="n">
+        <v>871.2447543651225</v>
+      </c>
+      <c r="P116" t="n">
         <v>133.2482917802651</v>
       </c>
-      <c r="O116" t="n">
+      <c r="Q116" t="n">
         <v>905.744286432425</v>
       </c>
-      <c r="P116" t="n">
+      <c r="R116" t="n">
         <v>905.743482917187</v>
       </c>
-      <c r="Q116" t="n">
+      <c r="S116" t="n">
         <v>0.03641018928613255</v>
       </c>
-      <c r="R116" t="n">
+      <c r="T116" t="n">
         <v>0.0888535144990209</v>
       </c>
-      <c r="S116" t="n">
+      <c r="U116" t="n">
         <v>0.001986671774788338</v>
       </c>
-      <c r="T116" t="n">
+      <c r="V116" t="n">
         <v>1.706800278986157e-05</v>
       </c>
-      <c r="U116" t="n">
+      <c r="W116" t="n">
         <v>0.001511690582824036</v>
       </c>
     </row>
@@ -8288,27 +8988,33 @@
         <v>816.4460177800288</v>
       </c>
       <c r="N117" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O117" t="n">
+        <v>871.2240625612202</v>
+      </c>
+      <c r="P117" t="n">
         <v>131.9961816661262</v>
       </c>
-      <c r="O117" t="n">
+      <c r="Q117" t="n">
         <v>905.3994859876099</v>
       </c>
-      <c r="P117" t="n">
+      <c r="R117" t="n">
         <v>905.3986812339999</v>
       </c>
-      <c r="Q117" t="n">
+      <c r="S117" t="n">
         <v>0.03645039431932742</v>
       </c>
-      <c r="R117" t="n">
+      <c r="T117" t="n">
         <v>0.08881968957538454</v>
       </c>
-      <c r="S117" t="n">
+      <c r="U117" t="n">
         <v>0.001986687974853221</v>
       </c>
-      <c r="T117" t="n">
+      <c r="V117" t="n">
         <v>1.699019699895804e-05</v>
       </c>
-      <c r="U117" t="n">
+      <c r="W117" t="n">
         <v>0.00151173440286184</v>
       </c>
     </row>
@@ -8355,27 +9061,33 @@
         <v>816.4160252042124</v>
       </c>
       <c r="N118" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O118" t="n">
+        <v>871.2030677581487</v>
+      </c>
+      <c r="P118" t="n">
         <v>130.741910996524</v>
       </c>
-      <c r="O118" t="n">
+      <c r="Q118" t="n">
         <v>905.0478003448076</v>
       </c>
-      <c r="P118" t="n">
+      <c r="R118" t="n">
         <v>905.0469943508751</v>
       </c>
-      <c r="Q118" t="n">
+      <c r="S118" t="n">
         <v>0.03649149675184791</v>
       </c>
-      <c r="R118" t="n">
+      <c r="T118" t="n">
         <v>0.05343226070227747</v>
       </c>
-      <c r="S118" t="n">
+      <c r="U118" t="n">
         <v>0.001986753621398841</v>
       </c>
-      <c r="T118" t="n">
+      <c r="V118" t="n">
         <v>1.691281899570064e-05</v>
       </c>
-      <c r="U118" t="n">
+      <c r="W118" t="n">
         <v>0.001511813837079525</v>
       </c>
     </row>
@@ -8422,27 +9134,33 @@
         <v>816.4447980114918</v>
       </c>
       <c r="N119" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O119" t="n">
+        <v>871.2232087232443</v>
+      </c>
+      <c r="P119" t="n">
         <v>129.8959350325241</v>
       </c>
-      <c r="O119" t="n">
+      <c r="Q119" t="n">
         <v>904.8251766669785</v>
       </c>
-      <c r="P119" t="n">
+      <c r="R119" t="n">
         <v>904.8243698162628</v>
       </c>
-      <c r="Q119" t="n">
+      <c r="S119" t="n">
         <v>0.03652008231563783</v>
       </c>
-      <c r="R119" t="n">
+      <c r="T119" t="n">
         <v>0.05341911743361504</v>
       </c>
-      <c r="S119" t="n">
+      <c r="U119" t="n">
         <v>0.001989603193978369</v>
       </c>
-      <c r="T119" t="n">
+      <c r="V119" t="n">
         <v>1.685869864353295e-05</v>
       </c>
-      <c r="U119" t="n">
+      <c r="W119" t="n">
         <v>0.001513928649325388</v>
       </c>
     </row>
@@ -8489,27 +9207,33 @@
         <v>816.4730516688143</v>
       </c>
       <c r="N120" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O120" t="n">
+        <v>871.24298628337</v>
+      </c>
+      <c r="P120" t="n">
         <v>129.0478499242889</v>
       </c>
-      <c r="O120" t="n">
+      <c r="Q120" t="n">
         <v>904.5988121487172</v>
       </c>
-      <c r="P120" t="n">
+      <c r="R120" t="n">
         <v>904.598004439337</v>
       </c>
-      <c r="Q120" t="n">
+      <c r="S120" t="n">
         <v>0.03654914880779265</v>
       </c>
-      <c r="R120" t="n">
+      <c r="T120" t="n">
         <v>0.05340575331301403</v>
       </c>
-      <c r="S120" t="n">
+      <c r="U120" t="n">
         <v>0.001992472960916084</v>
       </c>
-      <c r="T120" t="n">
+      <c r="V120" t="n">
         <v>1.680471946995135e-05</v>
       </c>
-      <c r="U120" t="n">
+      <c r="W120" t="n">
         <v>0.001516057774177039</v>
       </c>
     </row>
@@ -8556,27 +9280,33 @@
         <v>816.5007851008819</v>
       </c>
       <c r="N121" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O121" t="n">
+        <v>871.2623996858173</v>
+      </c>
+      <c r="P121" t="n">
         <v>128.1977028198419</v>
       </c>
-      <c r="O121" t="n">
+      <c r="Q121" t="n">
         <v>904.368641560108</v>
       </c>
-      <c r="P121" t="n">
+      <c r="R121" t="n">
         <v>904.3678329902289</v>
       </c>
-      <c r="Q121" t="n">
+      <c r="S121" t="n">
         <v>0.03657870556628468</v>
       </c>
-      <c r="R121" t="n">
+      <c r="T121" t="n">
         <v>0.05339216448942719</v>
       </c>
-      <c r="S121" t="n">
+      <c r="U121" t="n">
         <v>0.001995363141600284</v>
       </c>
-      <c r="T121" t="n">
+      <c r="V121" t="n">
         <v>1.675088517880043e-05</v>
       </c>
-      <c r="U121" t="n">
+      <c r="W121" t="n">
         <v>0.001518201365469628</v>
       </c>
     </row>
@@ -8623,27 +9353,33 @@
         <v>816.5279972225646</v>
       </c>
       <c r="N122" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O122" t="n">
+        <v>871.2814481709952</v>
+      </c>
+      <c r="P122" t="n">
         <v>127.3455415677927</v>
       </c>
-      <c r="O122" t="n">
+      <c r="Q122" t="n">
         <v>904.1345982152787</v>
       </c>
-      <c r="P122" t="n">
+      <c r="R122" t="n">
         <v>904.1337887831149</v>
       </c>
-      <c r="Q122" t="n">
+      <c r="S122" t="n">
         <v>0.03660876215968953</v>
       </c>
-      <c r="R122" t="n">
+      <c r="T122" t="n">
         <v>0.05337834702585035</v>
       </c>
-      <c r="S122" t="n">
+      <c r="U122" t="n">
         <v>0.001998273958218031</v>
       </c>
-      <c r="T122" t="n">
+      <c r="V122" t="n">
         <v>1.669719945593873e-05</v>
       </c>
-      <c r="U122" t="n">
+      <c r="W122" t="n">
         <v>0.001520359578994158</v>
       </c>
     </row>
@@ -8690,27 +9426,33 @@
         <v>816.5546869386272</v>
       </c>
       <c r="N123" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O123" t="n">
+        <v>871.3001309722391</v>
+      </c>
+      <c r="P123" t="n">
         <v>126.4914147057455</v>
       </c>
-      <c r="O123" t="n">
+      <c r="Q123" t="n">
         <v>903.8966139314193</v>
       </c>
-      <c r="P123" t="n">
+      <c r="R123" t="n">
         <v>903.8958036352342</v>
       </c>
-      <c r="Q123" t="n">
+      <c r="S123" t="n">
         <v>0.036639328394385</v>
       </c>
-      <c r="R123" t="n">
+      <c r="T123" t="n">
         <v>0.05336429689690315</v>
       </c>
-      <c r="S123" t="n">
+      <c r="U123" t="n">
         <v>0.002001205635805281</v>
       </c>
-      <c r="T123" t="n">
+      <c r="V123" t="n">
         <v>1.664366596783282e-05</v>
       </c>
-      <c r="U123" t="n">
+      <c r="W123" t="n">
         <v>0.001522532572532469</v>
       </c>
     </row>
@@ -8757,27 +9499,33 @@
         <v>816.5808531434443</v>
       </c>
       <c r="N124" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O124" t="n">
+        <v>871.318447315611</v>
+      </c>
+      <c r="P124" t="n">
         <v>125.6353714481615</v>
       </c>
-      <c r="O124" t="n">
+      <c r="Q124" t="n">
         <v>903.6546189863481</v>
       </c>
-      <c r="P124" t="n">
+      <c r="R124" t="n">
         <v>903.6538078244544</v>
       </c>
-      <c r="Q124" t="n">
+      <c r="S124" t="n">
         <v>0.03667041432202886</v>
       </c>
-      <c r="R124" t="n">
+      <c r="T124" t="n">
         <v>0.05335000998632367</v>
       </c>
-      <c r="S124" t="n">
+      <c r="U124" t="n">
         <v>0.002004158402298238</v>
       </c>
-      <c r="T124" t="n">
+      <c r="V124" t="n">
         <v>1.659028836015585e-05</v>
       </c>
-      <c r="U124" t="n">
+      <c r="W124" t="n">
         <v>0.001524720505893057</v>
       </c>
     </row>
@@ -8824,27 +9572,33 @@
         <v>816.6064947207091</v>
       </c>
       <c r="N125" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O125" t="n">
+        <v>871.3363964196964</v>
+      </c>
+      <c r="P125" t="n">
         <v>124.777461673679</v>
       </c>
-      <c r="O125" t="n">
+      <c r="Q125" t="n">
         <v>903.4085420745696</v>
       </c>
-      <c r="P125" t="n">
+      <c r="R125" t="n">
         <v>903.4077300453306</v>
       </c>
-      <c r="Q125" t="n">
+      <c r="S125" t="n">
         <v>0.03670203024732716</v>
       </c>
-      <c r="R125" t="n">
+      <c r="T125" t="n">
         <v>0.05333548208437424</v>
       </c>
-      <c r="S125" t="n">
+      <c r="U125" t="n">
         <v>0.002007132488585966</v>
       </c>
-      <c r="T125" t="n">
+      <c r="V125" t="n">
         <v>1.653707025639241e-05</v>
       </c>
-      <c r="U125" t="n">
+      <c r="W125" t="n">
         <v>0.001526923540947778</v>
       </c>
     </row>
@@ -8891,27 +9645,33 @@
         <v>816.6316105431275</v>
       </c>
       <c r="N126" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O126" t="n">
+        <v>871.3539774953892</v>
+      </c>
+      <c r="P126" t="n">
         <v>123.9177359118892</v>
       </c>
-      <c r="O126" t="n">
+      <c r="Q126" t="n">
         <v>903.158310261756</v>
       </c>
-      <c r="P126" t="n">
+      <c r="R126" t="n">
         <v>903.1574973635861</v>
       </c>
-      <c r="Q126" t="n">
+      <c r="S126" t="n">
         <v>0.0367341867361081</v>
       </c>
-      <c r="R126" t="n">
+      <c r="T126" t="n">
         <v>0.05332070888515408</v>
       </c>
-      <c r="S126" t="n">
+      <c r="U126" t="n">
         <v>0.002010128128564225</v>
       </c>
-      <c r="T126" t="n">
+      <c r="V126" t="n">
         <v>1.648401525645028e-05</v>
       </c>
-      <c r="U126" t="n">
+      <c r="W126" t="n">
         <v>0.001529141841669399</v>
       </c>
     </row>
@@ -8958,27 +9718,33 @@
         <v>816.6561994721073</v>
       </c>
       <c r="N127" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O127" t="n">
+        <v>871.3711897456751</v>
+      </c>
+      <c r="P127" t="n">
         <v>123.0562453295724</v>
       </c>
-      <c r="O127" t="n">
+      <c r="Q127" t="n">
         <v>902.9038489375841</v>
       </c>
-      <c r="P127" t="n">
+      <c r="R127" t="n">
         <v>902.9030351689489</v>
       </c>
-      <c r="Q127" t="n">
+      <c r="S127" t="n">
         <v>0.03676689462371424</v>
       </c>
-      <c r="R127" t="n">
+      <c r="T127" t="n">
         <v>0.05330568598381493</v>
       </c>
-      <c r="S127" t="n">
+      <c r="U127" t="n">
         <v>0.002013145559190692</v>
       </c>
-      <c r="T127" t="n">
+      <c r="V127" t="n">
         <v>1.643112693528064e-05</v>
       </c>
-      <c r="U127" t="n">
+      <c r="W127" t="n">
         <v>0.001531375574170119</v>
       </c>
     </row>
@@ -9025,27 +9791,33 @@
         <v>816.680260357433</v>
       </c>
       <c r="N128" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O128" t="n">
+        <v>871.3880323654031</v>
+      </c>
+      <c r="P128" t="n">
         <v>122.193041716397</v>
       </c>
-      <c r="O128" t="n">
+      <c r="Q128" t="n">
         <v>902.6450817668567</v>
       </c>
-      <c r="P128" t="n">
+      <c r="R128" t="n">
         <v>902.6442671262747</v>
       </c>
-      <c r="Q128" t="n">
+      <c r="S128" t="n">
         <v>0.0368001650237292</v>
       </c>
-      <c r="R128" t="n">
+      <c r="T128" t="n">
         <v>0.0532904088736753</v>
       </c>
-      <c r="S128" t="n">
+      <c r="U128" t="n">
         <v>0.002016185020541517</v>
       </c>
-      <c r="T128" t="n">
+      <c r="V128" t="n">
         <v>1.63784088415076e-05</v>
       </c>
-      <c r="U128" t="n">
+      <c r="W128" t="n">
         <v>0.001533624906741019</v>
       </c>
     </row>
@@ -9092,27 +9864,33 @@
         <v>816.7037920369303</v>
       </c>
       <c r="N129" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O129" t="n">
+        <v>871.4045045410512</v>
+      </c>
+      <c r="P129" t="n">
         <v>121.3281774700824</v>
       </c>
-      <c r="O129" t="n">
+      <c r="Q129" t="n">
         <v>902.3819306388353</v>
       </c>
-      <c r="P129" t="n">
+      <c r="R129" t="n">
         <v>902.3811151248774</v>
       </c>
-      <c r="Q129" t="n">
+      <c r="S129" t="n">
         <v>0.0368340093370537</v>
       </c>
-      <c r="R129" t="n">
+      <c r="T129" t="n">
         <v>0.05327487294322922</v>
       </c>
-      <c r="S129" t="n">
+      <c r="U129" t="n">
         <v>0.002019246755869263</v>
       </c>
-      <c r="T129" t="n">
+      <c r="V129" t="n">
         <v>1.632586449606838e-05</v>
       </c>
-      <c r="U129" t="n">
+      <c r="W129" t="n">
         <v>0.001535890009892466</v>
       </c>
     </row>
@@ -9159,27 +9937,33 @@
         <v>816.7267933361198</v>
       </c>
       <c r="N130" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O130" t="n">
+        <v>871.4206054504839</v>
+      </c>
+      <c r="P130" t="n">
         <v>120.4617055810313</v>
       </c>
-      <c r="O130" t="n">
+      <c r="Q130" t="n">
         <v>902.1143156147003</v>
       </c>
-      <c r="P130" t="n">
+      <c r="R130" t="n">
         <v>902.1134992259912</v>
       </c>
-      <c r="Q130" t="n">
+      <c r="S130" t="n">
         <v>0.03686843926134847</v>
       </c>
-      <c r="R130" t="n">
+      <c r="T130" t="n">
         <v>0.05325907347304435</v>
       </c>
-      <c r="S130" t="n">
+      <c r="U130" t="n">
         <v>0.002022331011662319</v>
       </c>
-      <c r="T130" t="n">
+      <c r="V130" t="n">
         <v>1.627349739086518e-05</v>
       </c>
-      <c r="U130" t="n">
+      <c r="W130" t="n">
         <v>0.001538171056395563</v>
       </c>
     </row>
@@ -9226,27 +10010,33 @@
         <v>816.749263067858</v>
       </c>
       <c r="N131" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O131" t="n">
+        <v>871.4363342627006</v>
+      </c>
+      <c r="P131" t="n">
         <v>119.593679616435</v>
       </c>
-      <c r="O131" t="n">
+      <c r="Q131" t="n">
         <v>901.8421548730606</v>
       </c>
-      <c r="P131" t="n">
+      <c r="R131" t="n">
         <v>901.8413376082788</v>
       </c>
-      <c r="Q131" t="n">
+      <c r="S131" t="n">
         <v>0.03690346680086122</v>
       </c>
-      <c r="R131" t="n">
+      <c r="T131" t="n">
         <v>0.05324300563254501</v>
       </c>
-      <c r="S131" t="n">
+      <c r="U131" t="n">
         <v>0.002025438037705826</v>
       </c>
-      <c r="T131" t="n">
+      <c r="V131" t="n">
         <v>1.622131098742988e-05</v>
       </c>
-      <c r="U131" t="n">
+      <c r="W131" t="n">
         <v>0.00154046822132463</v>
       </c>
     </row>
@@ -9293,27 +10083,33 @@
         <v>816.7712000319648</v>
       </c>
       <c r="N132" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O132" t="n">
+        <v>871.4516901375754</v>
+      </c>
+      <c r="P132" t="n">
         <v>118.7241537038555</v>
       </c>
-      <c r="O132" t="n">
+      <c r="Q132" t="n">
         <v>901.5653646534221</v>
       </c>
-      <c r="P132" t="n">
+      <c r="R132" t="n">
         <v>901.5645465113007</v>
       </c>
-      <c r="Q132" t="n">
+      <c r="S132" t="n">
         <v>0.03693910427665618</v>
       </c>
-      <c r="R132" t="n">
+      <c r="T132" t="n">
         <v>0.05322666447667464</v>
       </c>
-      <c r="S132" t="n">
+      <c r="U132" t="n">
         <v>0.002028568087144117</v>
       </c>
-      <c r="T132" t="n">
+      <c r="V132" t="n">
         <v>1.616930871560261e-05</v>
       </c>
-      <c r="U132" t="n">
+      <c r="W132" t="n">
         <v>0.001542781682100759</v>
       </c>
     </row>
@@ -9360,27 +10156,33 @@
         <v>816.7926030148408</v>
       </c>
       <c r="N133" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O133" t="n">
+        <v>871.4666722255886</v>
+      </c>
+      <c r="P133" t="n">
         <v>117.8531825142896</v>
       </c>
-      <c r="O133" t="n">
+      <c r="Q133" t="n">
         <v>901.2838591975242</v>
       </c>
-      <c r="P133" t="n">
+      <c r="R133" t="n">
         <v>901.2830401768518</v>
       </c>
-      <c r="Q133" t="n">
+      <c r="S133" t="n">
         <v>0.03697536433726611</v>
       </c>
-      <c r="R133" t="n">
+      <c r="T133" t="n">
         <v>0.05321004494243244</v>
       </c>
-      <c r="S133" t="n">
+      <c r="U133" t="n">
         <v>0.002031721416544774</v>
       </c>
-      <c r="T133" t="n">
+      <c r="V133" t="n">
         <v>1.61174939722255e-05</v>
       </c>
-      <c r="U133" t="n">
+      <c r="W133" t="n">
         <v>0.001545111618536482</v>
       </c>
     </row>
@@ -9427,27 +10229,33 @@
         <v>816.8134707890667</v>
       </c>
       <c r="N134" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O134" t="n">
+        <v>871.4812796675467</v>
+      </c>
+      <c r="P134" t="n">
         <v>116.9808212447212</v>
       </c>
-      <c r="O134" t="n">
+      <c r="Q134" t="n">
         <v>900.9975506884483</v>
       </c>
-      <c r="P134" t="n">
+      <c r="R134" t="n">
         <v>900.9967307880693</v>
       </c>
-      <c r="Q134" t="n">
+      <c r="S134" t="n">
         <v>0.03701225996978751</v>
       </c>
-      <c r="R134" t="n">
+      <c r="T134" t="n">
         <v>0.08838785972253678</v>
       </c>
-      <c r="S134" t="n">
+      <c r="U134" t="n">
         <v>0.002034898285964317</v>
       </c>
-      <c r="T134" t="n">
+      <c r="V134" t="n">
         <v>1.606587011985246e-05</v>
       </c>
-      <c r="U134" t="n">
+      <c r="W134" t="n">
         <v>0.001547458212881577</v>
       </c>
     </row>
@@ -9494,27 +10302,33 @@
         <v>816.8190814171905</v>
       </c>
       <c r="N135" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O135" t="n">
+        <v>871.4852071072334</v>
+      </c>
+      <c r="P135" t="n">
         <v>115.7437419719949</v>
       </c>
-      <c r="O135" t="n">
+      <c r="Q135" t="n">
         <v>900.5754930757998</v>
       </c>
-      <c r="P135" t="n">
+      <c r="R135" t="n">
         <v>900.5746719378507</v>
       </c>
-      <c r="Q135" t="n">
+      <c r="S135" t="n">
         <v>0.03706532749158292</v>
       </c>
-      <c r="R135" t="n">
+      <c r="T135" t="n">
         <v>0.08834645587073597</v>
       </c>
-      <c r="S135" t="n">
+      <c r="U135" t="n">
         <v>0.002038052332831749</v>
       </c>
-      <c r="T135" t="n">
+      <c r="V135" t="n">
         <v>1.599416786210879e-05</v>
       </c>
-      <c r="U135" t="n">
+      <c r="W135" t="n">
         <v>0.001549793249573746</v>
       </c>
     </row>
@@ -9561,27 +10375,33 @@
         <v>816.8235259106785</v>
       </c>
       <c r="N136" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O136" t="n">
+        <v>871.488318252675</v>
+      </c>
+      <c r="P136" t="n">
         <v>114.5048628679783</v>
       </c>
-      <c r="O136" t="n">
+      <c r="Q136" t="n">
         <v>900.1436106811245</v>
       </c>
-      <c r="P136" t="n">
+      <c r="R136" t="n">
         <v>900.1427883043145</v>
       </c>
-      <c r="Q136" t="n">
+      <c r="S136" t="n">
         <v>0.03711968675178313</v>
       </c>
-      <c r="R136" t="n">
+      <c r="T136" t="n">
         <v>0.08830408820781832</v>
       </c>
-      <c r="S136" t="n">
+      <c r="U136" t="n">
         <v>0.002041234608614748</v>
       </c>
-      <c r="T136" t="n">
+      <c r="V136" t="n">
         <v>1.592290658285254e-05</v>
       </c>
-      <c r="U136" t="n">
+      <c r="W136" t="n">
         <v>0.001552147931846837</v>
       </c>
     </row>
@@ -9628,27 +10448,33 @@
         <v>816.8268019014998</v>
       </c>
       <c r="N137" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O137" t="n">
+        <v>871.4906114462499</v>
+      </c>
+      <c r="P137" t="n">
         <v>113.2643557753863</v>
       </c>
-      <c r="O137" t="n">
+      <c r="Q137" t="n">
         <v>899.7016526224641</v>
       </c>
-      <c r="P137" t="n">
+      <c r="R137" t="n">
         <v>899.700829005675</v>
       </c>
-      <c r="Q137" t="n">
+      <c r="S137" t="n">
         <v>0.03717537539545755</v>
       </c>
-      <c r="R137" t="n">
+      <c r="T137" t="n">
         <v>0.08826073212226374</v>
       </c>
-      <c r="S137" t="n">
+      <c r="U137" t="n">
         <v>0.002044445616466363</v>
       </c>
-      <c r="T137" t="n">
+      <c r="V137" t="n">
         <v>1.585209509093046e-05</v>
       </c>
-      <c r="U137" t="n">
+      <c r="W137" t="n">
         <v>0.001554522610590183</v>
       </c>
     </row>
@@ -9695,27 +10521,33 @@
         <v>816.8289070002778</v>
       </c>
       <c r="N138" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O138" t="n">
+        <v>871.4920850153944</v>
+      </c>
+      <c r="P138" t="n">
         <v>112.0223938927663</v>
       </c>
-      <c r="O138" t="n">
+      <c r="Q138" t="n">
         <v>899.2493597125089</v>
       </c>
-      <c r="P138" t="n">
+      <c r="R138" t="n">
         <v>899.2485348547974</v>
       </c>
-      <c r="Q138" t="n">
+      <c r="S138" t="n">
         <v>0.03723243248068928</v>
       </c>
-      <c r="R138" t="n">
+      <c r="T138" t="n">
         <v>0.08821636218779713</v>
       </c>
-      <c r="S138" t="n">
+      <c r="U138" t="n">
         <v>0.002047685869078312</v>
       </c>
-      <c r="T138" t="n">
+      <c r="V138" t="n">
         <v>1.578174200227374e-05</v>
       </c>
-      <c r="U138" t="n">
+      <c r="W138" t="n">
         <v>0.001556917643358194</v>
       </c>
     </row>
@@ -9762,27 +10594,33 @@
         <v>816.8298387952233</v>
       </c>
       <c r="N139" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O139" t="n">
+        <v>871.4927372718563</v>
+      </c>
+      <c r="P139" t="n">
         <v>110.7791516494963</v>
       </c>
-      <c r="O139" t="n">
+      <c r="Q139" t="n">
         <v>898.7864641047074</v>
       </c>
-      <c r="P139" t="n">
+      <c r="R139" t="n">
         <v>898.7856380053055</v>
       </c>
-      <c r="Q139" t="n">
+      <c r="S139" t="n">
         <v>0.03729089854642161</v>
       </c>
-      <c r="R139" t="n">
+      <c r="T139" t="n">
         <v>0.08817095212867181</v>
       </c>
-      <c r="S139" t="n">
+      <c r="U139" t="n">
         <v>0.002050955888934083</v>
       </c>
-      <c r="T139" t="n">
+      <c r="V139" t="n">
         <v>1.571185573395561e-05</v>
       </c>
-      <c r="U139" t="n">
+      <c r="W139" t="n">
         <v>0.001559333394547071</v>
       </c>
     </row>
@@ -9829,27 +10667,33 @@
         <v>816.8295948510093</v>
       </c>
       <c r="N140" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O140" t="n">
+        <v>871.4925665109065</v>
+      </c>
+      <c r="P140" t="n">
         <v>109.5348045780686</v>
       </c>
-      <c r="O140" t="n">
+      <c r="Q140" t="n">
         <v>898.3126889203672</v>
       </c>
-      <c r="P140" t="n">
+      <c r="R140" t="n">
         <v>898.3118615786835</v>
       </c>
-      <c r="Q140" t="n">
+      <c r="S140" t="n">
         <v>0.03735081568433988</v>
       </c>
-      <c r="R140" t="n">
+      <c r="T140" t="n">
         <v>0.08812447478308803</v>
       </c>
-      <c r="S140" t="n">
+      <c r="U140" t="n">
         <v>0.002054256208571109</v>
       </c>
-      <c r="T140" t="n">
+      <c r="V140" t="n">
         <v>1.56424444984941e-05</v>
       </c>
-      <c r="U140" t="n">
+      <c r="W140" t="n">
         <v>0.001561770235577826</v>
       </c>
     </row>
@@ -9896,27 +10740,33 @@
         <v>816.8281727075772</v>
       </c>
       <c r="N141" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O141" t="n">
+        <v>871.491571010504</v>
+      </c>
+      <c r="P141" t="n">
         <v>108.2895291838158</v>
       </c>
-      <c r="O141" t="n">
+      <c r="Q141" t="n">
         <v>897.8277478555252</v>
       </c>
-      <c r="P141" t="n">
+      <c r="R141" t="n">
         <v>897.8269192711457</v>
       </c>
-      <c r="Q141" t="n">
+      <c r="S141" t="n">
         <v>0.03741222761507428</v>
       </c>
-      <c r="R141" t="n">
+      <c r="T141" t="n">
         <v>0.08807690206462704</v>
       </c>
-      <c r="S141" t="n">
+      <c r="U141" t="n">
         <v>0.002057587370852522</v>
       </c>
-      <c r="T141" t="n">
+      <c r="V141" t="n">
         <v>1.557351629840831e-05</v>
       </c>
-      <c r="U141" t="n">
+      <c r="W141" t="n">
         <v>0.001564228545085995</v>
       </c>
     </row>
@@ -9963,27 +10813,33 @@
         <v>816.8255698788734</v>
       </c>
       <c r="N142" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O142" t="n">
+        <v>871.4897490304113</v>
+      </c>
+      <c r="P142" t="n">
         <v>107.043502812243</v>
       </c>
-      <c r="O142" t="n">
+      <c r="Q142" t="n">
         <v>897.3313447662654</v>
       </c>
-      <c r="P142" t="n">
+      <c r="R142" t="n">
         <v>897.3305149389552</v>
       </c>
-      <c r="Q142" t="n">
+      <c r="S142" t="n">
         <v>0.0374751797690321</v>
       </c>
-      <c r="R142" t="n">
+      <c r="T142" t="n">
         <v>0.08802820492157064</v>
       </c>
-      <c r="S142" t="n">
+      <c r="U142" t="n">
         <v>0.002060949929248882</v>
       </c>
-      <c r="T142" t="n">
+      <c r="V142" t="n">
         <v>1.550507892103623e-05</v>
       </c>
-      <c r="U142" t="n">
+      <c r="W142" t="n">
         <v>0.001566708709118294</v>
       </c>
     </row>
@@ -10030,27 +10886,33 @@
         <v>816.8217838515103</v>
       </c>
       <c r="N143" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O143" t="n">
+        <v>871.4870988112572</v>
+      </c>
+      <c r="P143" t="n">
         <v>105.7969035141356</v>
       </c>
-      <c r="O143" t="n">
+      <c r="Q143" t="n">
         <v>896.8231732310719</v>
       </c>
-      <c r="P143" t="n">
+      <c r="R143" t="n">
         <v>896.822342160775</v>
       </c>
-      <c r="Q143" t="n">
+      <c r="S143" t="n">
         <v>0.03753971937219399</v>
       </c>
-      <c r="R143" t="n">
+      <c r="T143" t="n">
         <v>0.08797835329396816</v>
       </c>
-      <c r="S143" t="n">
+      <c r="U143" t="n">
         <v>0.002064344448130381</v>
       </c>
-      <c r="T143" t="n">
+      <c r="V143" t="n">
         <v>1.543713993362124e-05</v>
       </c>
-      <c r="U143" t="n">
+      <c r="W143" t="n">
         <v>0.001569211121336579</v>
       </c>
     </row>
@@ -10097,27 +10959,33 @@
         <v>816.8168120833478</v>
       </c>
       <c r="N144" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O144" t="n">
+        <v>871.4836185735435</v>
+      </c>
+      <c r="P144" t="n">
         <v>104.5499099086142</v>
       </c>
-      <c r="O144" t="n">
+      <c r="Q144" t="n">
         <v>896.3029160886855</v>
       </c>
-      <c r="P144" t="n">
+      <c r="R144" t="n">
         <v>896.3020837755257</v>
       </c>
-      <c r="Q144" t="n">
+      <c r="S144" t="n">
         <v>0.03760589553723577</v>
       </c>
-      <c r="R144" t="n">
+      <c r="T144" t="n">
         <v>0.08792731606830005</v>
       </c>
-      <c r="S144" t="n">
+      <c r="U144" t="n">
         <v>0.002067771503070016</v>
       </c>
-      <c r="T144" t="n">
+      <c r="V144" t="n">
         <v>1.536970667867432e-05</v>
       </c>
-      <c r="U144" t="n">
+      <c r="W144" t="n">
         <v>0.001571736183229443</v>
       </c>
     </row>
@@ -10164,27 +11032,33 @@
         <v>816.8106520019874</v>
       </c>
       <c r="N145" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O145" t="n">
+        <v>871.4793065165911</v>
+      </c>
+      <c r="P145" t="n">
         <v>103.3027010443125</v>
       </c>
-      <c r="O145" t="n">
+      <c r="Q145" t="n">
         <v>895.7702449498238</v>
       </c>
-      <c r="P145" t="n">
+      <c r="R145" t="n">
         <v>895.7694113941054</v>
       </c>
-      <c r="Q145" t="n">
+      <c r="S145" t="n">
         <v>0.03767375936036941</v>
       </c>
-      <c r="R145" t="n">
+      <c r="T145" t="n">
         <v>0.08787506102957772</v>
       </c>
-      <c r="S145" t="n">
+      <c r="U145" t="n">
         <v>0.002071231681158268</v>
       </c>
-      <c r="T145" t="n">
+      <c r="V145" t="n">
         <v>1.53027862696176e-05</v>
       </c>
-      <c r="U145" t="n">
+      <c r="W145" t="n">
         <v>0.00157428430433184</v>
       </c>
     </row>
@@ -10231,27 +11105,33 @@
         <v>816.8033010031761</v>
       </c>
       <c r="N146" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O146" t="n">
+        <v>871.4741608174232</v>
+      </c>
+      <c r="P146" t="n">
         <v>102.0554562588613</v>
       </c>
-      <c r="O146" t="n">
+      <c r="Q146" t="n">
         <v>895.2248196809946</v>
       </c>
-      <c r="P146" t="n">
+      <c r="R146" t="n">
         <v>895.2239848832025</v>
       </c>
-      <c r="Q146" t="n">
+      <c r="S146" t="n">
         <v>0.03774336402432858</v>
       </c>
-      <c r="R146" t="n">
+      <c r="T146" t="n">
         <v>0.0878215548107056</v>
       </c>
-      <c r="S146" t="n">
+      <c r="U146" t="n">
         <v>0.002074725581329888</v>
       </c>
-      <c r="T146" t="n">
+      <c r="V146" t="n">
         <v>1.523638558671506e-05</v>
       </c>
-      <c r="U146" t="n">
+      <c r="W146" t="n">
         <v>0.001576855902453137</v>
       </c>
     </row>
@@ -10298,27 +11178,33 @@
         <v>816.7947564491124</v>
       </c>
       <c r="N147" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O147" t="n">
+        <v>871.4681796295787</v>
+      </c>
+      <c r="P147" t="n">
         <v>100.8083550368567</v>
       </c>
-      <c r="O147" t="n">
+      <c r="Q147" t="n">
         <v>894.666287858488</v>
       </c>
-      <c r="P147" t="n">
+      <c r="R147" t="n">
         <v>894.6654518192876</v>
       </c>
-      <c r="Q147" t="n">
+      <c r="S147" t="n">
         <v>0.03781476490796246</v>
       </c>
-      <c r="R147" t="n">
+      <c r="T147" t="n">
         <v>0.08776676283891768</v>
       </c>
-      <c r="S147" t="n">
+      <c r="U147" t="n">
         <v>0.002078253814703356</v>
       </c>
-      <c r="T147" t="n">
+      <c r="V147" t="n">
         <v>1.51705112732949e-05</v>
       </c>
-      <c r="U147" t="n">
+      <c r="W147" t="n">
         <v>0.001579451403913987</v>
       </c>
     </row>
@@ -10365,27 +11251,33 @@
         <v>816.7850156666449</v>
       </c>
       <c r="N148" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O148" t="n">
+        <v>871.4613610818515</v>
+      </c>
+      <c r="P148" t="n">
         <v>99.56157686649992</v>
       </c>
-      <c r="O148" t="n">
+      <c r="Q148" t="n">
         <v>894.0942841904834</v>
       </c>
-      <c r="P148" t="n">
+      <c r="R148" t="n">
         <v>894.0934469107215</v>
       </c>
-      <c r="Q148" t="n">
+      <c r="S148" t="n">
         <v>0.03788801970294119</v>
       </c>
-      <c r="R148" t="n">
+      <c r="T148" t="n">
         <v>0.08771064927908644</v>
       </c>
-      <c r="S148" t="n">
+      <c r="U148" t="n">
         <v>0.002081817004933681</v>
       </c>
-      <c r="T148" t="n">
+      <c r="V148" t="n">
         <v>1.51051697322675e-05</v>
       </c>
-      <c r="U148" t="n">
+      <c r="W148" t="n">
         <v>0.001582071243792521</v>
       </c>
     </row>
@@ -10432,27 +11324,33 @@
         <v>816.7740759453619</v>
       </c>
       <c r="N149" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O149" t="n">
+        <v>871.4537032769533</v>
+      </c>
+      <c r="P149" t="n">
         <v>98.31530109509202</v>
       </c>
-      <c r="O149" t="n">
+      <c r="Q149" t="n">
         <v>893.50842990505</v>
       </c>
-      <c r="P149" t="n">
+      <c r="R149" t="n">
         <v>893.5075913857531</v>
       </c>
-      <c r="Q149" t="n">
+      <c r="S149" t="n">
         <v>0.03796318853812071</v>
       </c>
-      <c r="R149" t="n">
+      <c r="T149" t="n">
         <v>0.08765317697368541</v>
       </c>
-      <c r="S149" t="n">
+      <c r="U149" t="n">
         <v>0.002085415788579221</v>
       </c>
-      <c r="T149" t="n">
+      <c r="V149" t="n">
         <v>1.504036712294285e-05</v>
       </c>
-      <c r="U149" t="n">
+      <c r="W149" t="n">
         <v>0.001584715866180269</v>
       </c>
     </row>
@@ -10499,27 +11397,33 @@
         <v>816.7619345355574</v>
       </c>
       <c r="N150" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O150" t="n">
+        <v>871.4452042900901</v>
+      </c>
+      <c r="P150" t="n">
         <v>97.06970678357165</v>
       </c>
-      <c r="O150" t="n">
+      <c r="Q150" t="n">
         <v>892.9083321016153</v>
       </c>
-      <c r="P150" t="n">
+      <c r="R150" t="n">
         <v>892.9074923439911</v>
       </c>
-      <c r="Q150" t="n">
+      <c r="S150" t="n">
         <v>0.03804033411216459</v>
       </c>
-      <c r="R150" t="n">
+      <c r="T150" t="n">
         <v>0.08759430737916847</v>
       </c>
-      <c r="S150" t="n">
+      <c r="U150" t="n">
         <v>0.002089050815483264</v>
       </c>
-      <c r="T150" t="n">
+      <c r="V150" t="n">
         <v>1.497610935814955e-05</v>
       </c>
-      <c r="U150" t="n">
+      <c r="W150" t="n">
         <v>0.001587385724448393</v>
       </c>
     </row>
@@ -10566,27 +11470,33 @@
         <v>816.7485886460692</v>
       </c>
       <c r="N151" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O151" t="n">
+        <v>871.4358621674484</v>
+      </c>
+      <c r="P151" t="n">
         <v>95.82497256027952</v>
       </c>
-      <c r="O151" t="n">
+      <c r="Q151" t="n">
         <v>892.2935830633096</v>
       </c>
-      <c r="P151" t="n">
+      <c r="R151" t="n">
         <v>892.2927420687454</v>
       </c>
-      <c r="Q151" t="n">
+      <c r="S151" t="n">
         <v>0.03811952183507265</v>
       </c>
-      <c r="R151" t="n">
+      <c r="T151" t="n">
         <v>0.08753400049851068</v>
       </c>
-      <c r="S151" t="n">
+      <c r="U151" t="n">
         <v>0.00209272274917115</v>
       </c>
-      <c r="T151" t="n">
+      <c r="V151" t="n">
         <v>1.491240210165791e-05</v>
       </c>
-      <c r="U151" t="n">
+      <c r="W151" t="n">
         <v>0.001590081281524722</v>
       </c>
     </row>
@@ -10633,27 +11543,33 @@
         <v>817.2685626889988</v>
       </c>
       <c r="N152" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O152" t="n">
+        <v>871.7998439974991</v>
+      </c>
+      <c r="P152" t="n">
         <v>94.58127647413653</v>
       </c>
-      <c r="O152" t="n">
+      <c r="Q152" t="n">
         <v>891.0396332377244</v>
       </c>
-      <c r="P152" t="n">
+      <c r="R152" t="n">
         <v>891.0387907539288</v>
       </c>
-      <c r="Q152" t="n">
+      <c r="S152" t="n">
         <v>0.03832876224385267</v>
       </c>
-      <c r="R152" t="n">
+      <c r="T152" t="n">
         <v>0.08741098802062078</v>
       </c>
-      <c r="S152" t="n">
+      <c r="U152" t="n">
         <v>0.002111655442049621</v>
       </c>
-      <c r="T152" t="n">
+      <c r="V152" t="n">
         <v>1.484925076590825e-05</v>
       </c>
-      <c r="U152" t="n">
+      <c r="W152" t="n">
         <v>0.001601642000160934</v>
       </c>
     </row>
@@ -10700,27 +11616,33 @@
         <v>817.9922753914959</v>
       </c>
       <c r="N153" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O153" t="n">
+        <v>872.3064428892471</v>
+      </c>
+      <c r="P153" t="n">
         <v>93.3380838650602</v>
       </c>
-      <c r="O153" t="n">
+      <c r="Q153" t="n">
         <v>889.5047715051685</v>
       </c>
-      <c r="P153" t="n">
+      <c r="R153" t="n">
         <v>889.503927436628</v>
       </c>
-      <c r="Q153" t="n">
+      <c r="S153" t="n">
         <v>0.03859403811493066</v>
       </c>
-      <c r="R153" t="n">
+      <c r="T153" t="n">
         <v>0.08726041808465704</v>
       </c>
-      <c r="S153" t="n">
+      <c r="U153" t="n">
         <v>0.00213683710839444</v>
       </c>
-      <c r="T153" t="n">
+      <c r="V153" t="n">
         <v>1.478662749777231e-05</v>
       </c>
-      <c r="U153" t="n">
+      <c r="W153" t="n">
         <v>0.001616781687597675</v>
       </c>
     </row>
@@ -10767,27 +11689,33 @@
         <v>818.71601763415</v>
       </c>
       <c r="N154" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O154" t="n">
+        <v>872.813062459105</v>
+      </c>
+      <c r="P154" t="n">
         <v>92.09528019711051</v>
       </c>
-      <c r="O154" t="n">
+      <c r="Q154" t="n">
         <v>887.9211946895202</v>
       </c>
-      <c r="P154" t="n">
+      <c r="R154" t="n">
         <v>887.9203490374772</v>
       </c>
-      <c r="Q154" t="n">
+      <c r="S154" t="n">
         <v>0.03886769589579784</v>
       </c>
-      <c r="R154" t="n">
+      <c r="T154" t="n">
         <v>0.08710506919904194</v>
       </c>
-      <c r="S154" t="n">
+      <c r="U154" t="n">
         <v>0.002162540242287408</v>
       </c>
-      <c r="T154" t="n">
+      <c r="V154" t="n">
         <v>1.472452465942467e-05</v>
       </c>
-      <c r="U154" t="n">
+      <c r="W154" t="n">
         <v>0.001632162303985141</v>
       </c>
     </row>
@@ -10834,27 +11762,33 @@
         <v>819.439772024607</v>
       </c>
       <c r="N155" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O155" t="n">
+        <v>873.3196905324249</v>
+      </c>
+      <c r="P155" t="n">
         <v>90.85301798633051</v>
       </c>
-      <c r="O155" t="n">
+      <c r="Q155" t="n">
         <v>886.2874024517612</v>
       </c>
-      <c r="P155" t="n">
+      <c r="R155" t="n">
         <v>886.2865552176164</v>
       </c>
-      <c r="Q155" t="n">
+      <c r="S155" t="n">
         <v>0.03915009764135741</v>
       </c>
-      <c r="R155" t="n">
+      <c r="T155" t="n">
         <v>0.08694479418051779</v>
       </c>
-      <c r="S155" t="n">
+      <c r="U155" t="n">
         <v>0.00218878042599068</v>
       </c>
-      <c r="T155" t="n">
+      <c r="V155" t="n">
         <v>1.46629470236386e-05</v>
       </c>
-      <c r="U155" t="n">
+      <c r="W155" t="n">
         <v>0.001647788429999572</v>
       </c>
     </row>
@@ -10901,27 +11835,33 @@
         <v>820.1635215448222</v>
       </c>
       <c r="N156" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O156" t="n">
+        <v>873.8263151965755</v>
+      </c>
+      <c r="P156" t="n">
         <v>89.61144777367372</v>
       </c>
-      <c r="O156" t="n">
+      <c r="Q156" t="n">
         <v>884.6018395666541</v>
       </c>
-      <c r="P156" t="n">
+      <c r="R156" t="n">
         <v>884.6009907519652</v>
       </c>
-      <c r="Q156" t="n">
+      <c r="S156" t="n">
         <v>0.03944162543836259</v>
       </c>
-      <c r="R156" t="n">
+      <c r="T156" t="n">
         <v>0.08677944046148878</v>
       </c>
-      <c r="S156" t="n">
+      <c r="U156" t="n">
         <v>0.002215573875301821</v>
       </c>
-      <c r="T156" t="n">
+      <c r="V156" t="n">
         <v>1.460189909502589e-05</v>
       </c>
-      <c r="U156" t="n">
+      <c r="W156" t="n">
         <v>0.001663664725994483</v>
       </c>
     </row>
@@ -10968,27 +11908,33 @@
         <v>820.8872495984305</v>
       </c>
       <c r="N157" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O157" t="n">
+        <v>874.3329248341013</v>
+      </c>
+      <c r="P157" t="n">
         <v>88.37071789901566</v>
       </c>
-      <c r="O157" t="n">
+      <c r="Q157" t="n">
         <v>882.8628932032107</v>
       </c>
-      <c r="P157" t="n">
+      <c r="R157" t="n">
         <v>882.8620428096897</v>
       </c>
-      <c r="Q157" t="n">
+      <c r="S157" t="n">
         <v>0.03974268282299447</v>
       </c>
-      <c r="R157" t="n">
+      <c r="T157" t="n">
         <v>0.08660884982323498</v>
       </c>
-      <c r="S157" t="n">
+      <c r="U157" t="n">
         <v>0.002242937473657235</v>
       </c>
-      <c r="T157" t="n">
+      <c r="V157" t="n">
         <v>1.454138510692993e-05</v>
       </c>
-      <c r="U157" t="n">
+      <c r="W157" t="n">
         <v>0.001679795931543579</v>
       </c>
     </row>
@@ -11035,27 +11981,33 @@
         <v>821.6109400619365</v>
       </c>
       <c r="N158" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O158" t="n">
+        <v>874.8395081585555</v>
+      </c>
+      <c r="P158" t="n">
         <v>87.13097426890239</v>
       </c>
-      <c r="O158" t="n">
+      <c r="Q158" t="n">
         <v>881.0688900118847</v>
       </c>
-      <c r="P158" t="n">
+      <c r="R158" t="n">
         <v>881.0680380413953</v>
       </c>
-      <c r="Q158" t="n">
+      <c r="S158" t="n">
         <v>0.04005369632318893</v>
       </c>
-      <c r="R158" t="n">
+      <c r="T158" t="n">
         <v>0.08643285811016589</v>
       </c>
-      <c r="S158" t="n">
+      <c r="U158" t="n">
         <v>0.002270888808610792</v>
       </c>
-      <c r="T158" t="n">
+      <c r="V158" t="n">
         <v>1.448140901851258e-05</v>
       </c>
-      <c r="U158" t="n">
+      <c r="W158" t="n">
         <v>0.001696186864712213</v>
       </c>
     </row>
@@ -11102,27 +12054,33 @@
         <v>822.3345773400648</v>
       </c>
       <c r="N159" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O159" t="n">
+        <v>875.3460542532454</v>
+      </c>
+      <c r="P159" t="n">
         <v>85.89236011764331</v>
       </c>
-      <c r="O159" t="n">
+      <c r="Q159" t="n">
         <v>879.2180930004798</v>
       </c>
-      <c r="P159" t="n">
+      <c r="R159" t="n">
         <v>879.2172394550339</v>
       </c>
-      <c r="Q159" t="n">
+      <c r="S159" t="n">
         <v>0.04037511713889514</v>
       </c>
-      <c r="R159" t="n">
+      <c r="T159" t="n">
         <v>0.08625129492334707</v>
       </c>
-      <c r="S159" t="n">
+      <c r="U159" t="n">
         <v>0.002299446210895315</v>
       </c>
-      <c r="T159" t="n">
+      <c r="V159" t="n">
         <v>1.442197451202538e-05</v>
       </c>
-      <c r="U159" t="n">
+      <c r="W159" t="n">
         <v>0.001712842421019212</v>
       </c>
     </row>
@@ -11169,27 +12127,33 @@
         <v>823.0581464256422</v>
       </c>
       <c r="N160" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O160" t="n">
+        <v>875.8525526131496</v>
+      </c>
+      <c r="P160" t="n">
         <v>84.65501576128592</v>
       </c>
-      <c r="O160" t="n">
+      <c r="Q160" t="n">
         <v>877.308698178731</v>
       </c>
-      <c r="P160" t="n">
+      <c r="R160" t="n">
         <v>877.3078430604857</v>
       </c>
-      <c r="Q160" t="n">
+      <c r="S160" t="n">
         <v>0.04070742297507757</v>
       </c>
-      <c r="R160" t="n">
+      <c r="T160" t="n">
         <v>0.08606398329133352</v>
       </c>
-      <c r="S160" t="n">
+      <c r="U160" t="n">
         <v>0.0023286287962966</v>
       </c>
-      <c r="T160" t="n">
+      <c r="V160" t="n">
         <v>1.436308499025394e-05</v>
       </c>
-      <c r="U160" t="n">
+      <c r="W160" t="n">
         <v>0.00172976757204572</v>
       </c>
     </row>
@@ -11236,27 +12200,33 @@
         <v>823.7816329644338</v>
       </c>
       <c r="N161" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O161" t="n">
+        <v>876.3589931903036</v>
+      </c>
+      <c r="P161" t="n">
         <v>83.41907834393614</v>
       </c>
-      <c r="O161" t="n">
+      <c r="Q161" t="n">
         <v>875.3388309492735</v>
       </c>
-      <c r="P161" t="n">
+      <c r="R161" t="n">
         <v>875.337974260528</v>
       </c>
-      <c r="Q161" t="n">
+      <c r="S161" t="n">
         <v>0.04105112004413916</v>
       </c>
-      <c r="R161" t="n">
+      <c r="T161" t="n">
         <v>0.08587073931612375</v>
       </c>
-      <c r="S161" t="n">
+      <c r="U161" t="n">
         <v>0.002358456510594418</v>
       </c>
-      <c r="T161" t="n">
+      <c r="V161" t="n">
         <v>1.430474357412317e-05</v>
       </c>
-      <c r="U161" t="n">
+      <c r="W161" t="n">
         <v>0.001746967363641771</v>
       </c>
     </row>
@@ -11303,27 +12273,33 @@
         <v>824.5050233253858</v>
       </c>
       <c r="N162" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O162" t="n">
+        <v>876.8653664429701</v>
+      </c>
+      <c r="P162" t="n">
         <v>82.18468157580021</v>
       </c>
-      <c r="O162" t="n">
+      <c r="Q162" t="n">
         <v>873.3065422201327</v>
       </c>
-      <c r="P162" t="n">
+      <c r="R162" t="n">
         <v>873.3056839633233</v>
       </c>
-      <c r="Q162" t="n">
+      <c r="S162" t="n">
         <v>0.04140674525657477</v>
       </c>
-      <c r="R162" t="n">
+      <c r="T162" t="n">
         <v>0.08567137179179501</v>
       </c>
-      <c r="S162" t="n">
+      <c r="U162" t="n">
         <v>0.002388950177852937</v>
       </c>
-      <c r="T162" t="n">
+      <c r="V162" t="n">
         <v>1.424695310044866e-05</v>
       </c>
-      <c r="U162" t="n">
+      <c r="W162" t="n">
         <v>0.001764446913674523</v>
       </c>
     </row>
@@ -11370,27 +12346,33 @@
         <v>825.2283046767915</v>
       </c>
       <c r="N163" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O163" t="n">
+        <v>877.3716633889541</v>
+      </c>
+      <c r="P163" t="n">
         <v>80.95195546222888</v>
       </c>
-      <c r="O163" t="n">
+      <c r="Q163" t="n">
         <v>871.2098042109624</v>
       </c>
-      <c r="P163" t="n">
+      <c r="R163" t="n">
         <v>871.2089443886596</v>
       </c>
-      <c r="Q163" t="n">
+      <c r="S163" t="n">
         <v>0.04177486862111227</v>
       </c>
-      <c r="R163" t="n">
+      <c r="T163" t="n">
         <v>0.08546568179309541</v>
       </c>
-      <c r="S163" t="n">
+      <c r="U163" t="n">
         <v>0.002420131552374529</v>
       </c>
-      <c r="T163" t="n">
+      <c r="V163" t="n">
         <v>1.418971611981806e-05</v>
       </c>
-      <c r="U163" t="n">
+      <c r="W163" t="n">
         <v>0.001782211409254274</v>
       </c>
     </row>
@@ -11437,27 +12419,33 @@
         <v>825.9514650689526</v>
       </c>
       <c r="N164" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O164" t="n">
+        <v>877.8778756634669</v>
+      </c>
+      <c r="P164" t="n">
         <v>79.7210260229309</v>
       </c>
-      <c r="O164" t="n">
+      <c r="Q164" t="n">
         <v>869.0465059219686</v>
       </c>
-      <c r="P164" t="n">
+      <c r="R164" t="n">
         <v>869.0456445368721</v>
       </c>
-      <c r="Q164" t="n">
+      <c r="S164" t="n">
         <v>0.04215609587841321</v>
       </c>
-      <c r="R164" t="n">
+      <c r="T164" t="n">
         <v>0.08525346223094513</v>
       </c>
-      <c r="S164" t="n">
+      <c r="U164" t="n">
         <v>0.002452023374666643</v>
       </c>
-      <c r="T164" t="n">
+      <c r="V164" t="n">
         <v>1.413303489458394e-05</v>
       </c>
-      <c r="U164" t="n">
+      <c r="W164" t="n">
         <v>0.00180026610336529</v>
       </c>
     </row>
@@ -11504,27 +12492,33 @@
         <v>826.6744935239635</v>
       </c>
       <c r="N165" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O165" t="n">
+        <v>878.3839955819744</v>
+      </c>
+      <c r="P165" t="n">
         <v>78.4920150003997</v>
       </c>
-      <c r="O165" t="n">
+      <c r="Q165" t="n">
         <v>866.8144482306952</v>
       </c>
-      <c r="P165" t="n">
+      <c r="R165" t="n">
         <v>866.813585285629</v>
       </c>
-      <c r="Q165" t="n">
+      <c r="S165" t="n">
         <v>0.0425510713956484</v>
       </c>
-      <c r="R165" t="n">
+      <c r="T165" t="n">
         <v>0.08503449737143122</v>
       </c>
-      <c r="S165" t="n">
+      <c r="U165" t="n">
         <v>0.002484649431811917</v>
       </c>
-      <c r="T165" t="n">
+      <c r="V165" t="n">
         <v>1.407691139694742e-05</v>
       </c>
-      <c r="U165" t="n">
+      <c r="W165" t="n">
         <v>0.001818616310818097</v>
       </c>
     </row>
@@ -11571,27 +12565,33 @@
         <v>827.3973801333359</v>
       </c>
       <c r="N166" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O166" t="n">
+        <v>878.8900162085351</v>
+      </c>
+      <c r="P166" t="n">
         <v>77.26503955645327</v>
       </c>
-      <c r="O166" t="n">
+      <c r="Q166" t="n">
         <v>864.5113385775694</v>
       </c>
-      <c r="P166" t="n">
+      <c r="R166" t="n">
         <v>864.5104740754767</v>
       </c>
-      <c r="Q166" t="n">
+      <c r="S166" t="n">
         <v>0.04296048135301076</v>
       </c>
-      <c r="R166" t="n">
+      <c r="T166" t="n">
         <v>0.08480856231445956</v>
       </c>
-      <c r="S166" t="n">
+      <c r="U166" t="n">
         <v>0.002518034622677776</v>
       </c>
-      <c r="T166" t="n">
+      <c r="V166" t="n">
         <v>1.402134730710958e-05</v>
       </c>
-      <c r="U166" t="n">
+      <c r="W166" t="n">
         <v>0.001837267403427807</v>
       </c>
     </row>
@@ -11638,27 +12638,33 @@
         <v>828.1201161642559</v>
       </c>
       <c r="N167" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O167" t="n">
+        <v>879.3959314301792</v>
+      </c>
+      <c r="P167" t="n">
         <v>76.04021195562336</v>
       </c>
-      <c r="O167" t="n">
+      <c r="Q167" t="n">
         <v>862.1347851962295</v>
       </c>
-      <c r="P167" t="n">
+      <c r="R167" t="n">
         <v>862.1339191401676</v>
       </c>
-      <c r="Q167" t="n">
+      <c r="S167" t="n">
         <v>0.04338505725756926</v>
       </c>
-      <c r="R167" t="n">
+      <c r="T167" t="n">
         <v>0.08457542242775011</v>
       </c>
-      <c r="S167" t="n">
+      <c r="U167" t="n">
         <v>0.002552205028454143</v>
       </c>
-      <c r="T167" t="n">
+      <c r="V167" t="n">
         <v>1.396634401146437e-05</v>
       </c>
-      <c r="U167" t="n">
+      <c r="W167" t="n">
         <v>0.001856224804308995</v>
       </c>
     </row>
@@ -11705,27 +12711,33 @@
         <v>828.8426941753628</v>
       </c>
       <c r="N168" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O168" t="n">
+        <v>879.9017360379539</v>
+      </c>
+      <c r="P168" t="n">
         <v>74.81763923394615</v>
       </c>
-      <c r="O168" t="n">
+      <c r="Q168" t="n">
         <v>859.6822908390513</v>
       </c>
-      <c r="P168" t="n">
+      <c r="R168" t="n">
         <v>859.6814232321851</v>
       </c>
-      <c r="Q168" t="n">
+      <c r="S168" t="n">
         <v>0.04382557982490567</v>
       </c>
-      <c r="R168" t="n">
+      <c r="T168" t="n">
         <v>0.08433483273131095</v>
       </c>
-      <c r="S168" t="n">
+      <c r="U168" t="n">
         <v>0.00258718798906774</v>
       </c>
-      <c r="T168" t="n">
+      <c r="V168" t="n">
         <v>1.391190260080441e-05</v>
       </c>
-      <c r="U168" t="n">
+      <c r="W168" t="n">
         <v>0.001875493981161371</v>
       </c>
     </row>
@@ -11772,27 +12784,33 @@
         <v>829.5651081430566</v>
       </c>
       <c r="N169" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O169" t="n">
+        <v>880.4074258153396</v>
+      </c>
+      <c r="P169" t="n">
         <v>73.5974228514924</v>
       </c>
-      <c r="O169" t="n">
+      <c r="Q169" t="n">
         <v>857.1512459418801</v>
       </c>
-      <c r="P169" t="n">
+      <c r="R169" t="n">
         <v>857.1503767874765</v>
       </c>
-      <c r="Q169" t="n">
+      <c r="S169" t="n">
         <v>0.04428288327484464</v>
       </c>
-      <c r="R169" t="n">
+      <c r="T169" t="n">
         <v>0.08408653722689845</v>
       </c>
-      <c r="S169" t="n">
+      <c r="U169" t="n">
         <v>0.002623012186089974</v>
       </c>
-      <c r="T169" t="n">
+      <c r="V169" t="n">
         <v>1.385802386850705e-05</v>
       </c>
-      <c r="U169" t="n">
+      <c r="W169" t="n">
         <v>0.001895080438401455</v>
       </c>
     </row>
@@ -11839,27 +12857,33 @@
         <v>830.2873535994594</v>
       </c>
       <c r="N170" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O170" t="n">
+        <v>880.9129976348215</v>
+      </c>
+      <c r="P170" t="n">
         <v>72.37965832673231</v>
       </c>
-      <c r="O170" t="n">
+      <c r="Q170" t="n">
         <v>854.5389211645869</v>
       </c>
-      <c r="P170" t="n">
+      <c r="R170" t="n">
         <v>854.5380504660075</v>
       </c>
-      <c r="Q170" t="n">
+      <c r="S170" t="n">
         <v>0.04475786009443586</v>
       </c>
-      <c r="R170" t="n">
+      <c r="T170" t="n">
         <v>0.08383026816624599</v>
       </c>
-      <c r="S170" t="n">
+      <c r="U170" t="n">
         <v>0.002659707732833967</v>
       </c>
-      <c r="T170" t="n">
+      <c r="V170" t="n">
         <v>1.380470830866458e-05</v>
       </c>
-      <c r="U170" t="n">
+      <c r="W170" t="n">
         <v>0.001914989707973306</v>
       </c>
     </row>
@@ -11906,27 +12930,33 @@
         <v>831.0094277833085</v>
       </c>
       <c r="N171" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O171" t="n">
+        <v>881.418449563516</v>
+      </c>
+      <c r="P171" t="n">
         <v>71.16443485055066</v>
       </c>
-      <c r="O171" t="n">
+      <c r="Q171" t="n">
         <v>851.8424592355553</v>
       </c>
-      <c r="P171" t="n">
+      <c r="R171" t="n">
         <v>851.8415869962496</v>
       </c>
-      <c r="Q171" t="n">
+      <c r="S171" t="n">
         <v>0.04525146632936754</v>
       </c>
-      <c r="R171" t="n">
+      <c r="T171" t="n">
         <v>0.08356574525100798</v>
       </c>
-      <c r="S171" t="n">
+      <c r="U171" t="n">
         <v>0.002697306272426555</v>
       </c>
-      <c r="T171" t="n">
+      <c r="V171" t="n">
         <v>1.375195611411813e-05</v>
       </c>
-      <c r="U171" t="n">
+      <c r="W171" t="n">
         <v>0.001935227338645223</v>
       </c>
     </row>
@@ -11973,27 +13003,33 @@
         <v>831.7313298052228</v>
       </c>
       <c r="N172" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O172" t="n">
+        <v>881.9237809788559</v>
+      </c>
+      <c r="P172" t="n">
         <v>69.9518348774052</v>
       </c>
-      <c r="O172" t="n">
+      <c r="Q172" t="n">
         <v>849.0588660183587</v>
       </c>
-      <c r="P172" t="n">
+      <c r="R172" t="n">
         <v>849.0579922418565</v>
       </c>
-      <c r="Q172" t="n">
+      <c r="S172" t="n">
         <v>0.04576472747440554</v>
       </c>
-      <c r="R172" t="n">
+      <c r="T172" t="n">
         <v>0.08329267475640099</v>
       </c>
-      <c r="S172" t="n">
+      <c r="U172" t="n">
         <v>0.002735841084745342</v>
       </c>
-      <c r="T172" t="n">
+      <c r="V172" t="n">
         <v>1.369976717434992e-05</v>
       </c>
-      <c r="U172" t="n">
+      <c r="W172" t="n">
         <v>0.001955798883568831</v>
       </c>
     </row>
@@ -12040,27 +13076,33 @@
         <v>832.4530608289798</v>
       </c>
       <c r="N173" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O173" t="n">
+        <v>882.4289926954858</v>
+      </c>
+      <c r="P173" t="n">
         <v>68.74193369075012</v>
       </c>
-      <c r="O173" t="n">
+      <c r="Q173" t="n">
         <v>846.1850007074731</v>
       </c>
-      <c r="P173" t="n">
+      <c r="R173" t="n">
         <v>846.1841253973762</v>
       </c>
-      <c r="Q173" t="n">
+      <c r="S173" t="n">
         <v>0.04629874504454508</v>
       </c>
-      <c r="R173" t="n">
+      <c r="T173" t="n">
         <v>0.08301074856940312</v>
       </c>
-      <c r="S173" t="n">
+      <c r="U173" t="n">
         <v>0.002775347203231234</v>
       </c>
-      <c r="T173" t="n">
+      <c r="V173" t="n">
         <v>1.364814107318292e-05</v>
       </c>
-      <c r="U173" t="n">
+      <c r="W173" t="n">
         <v>0.001976709885840901</v>
       </c>
     </row>
@@ -12107,27 +13149,33 @@
         <v>833.1746242706693</v>
       </c>
       <c r="N174" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O174" t="n">
+        <v>882.9340871046685</v>
+      </c>
+      <c r="P174" t="n">
         <v>67.53479893941675</v>
       </c>
-      <c r="O174" t="n">
+      <c r="Q174" t="n">
         <v>843.2175650466093</v>
       </c>
-      <c r="P174" t="n">
+      <c r="R174" t="n">
         <v>843.2166882065832</v>
       </c>
-      <c r="Q174" t="n">
+      <c r="S174" t="n">
         <v>0.04685470392166483</v>
       </c>
-      <c r="R174" t="n">
+      <c r="T174" t="n">
         <v>0.08271964313107238</v>
       </c>
-      <c r="S174" t="n">
+      <c r="U174" t="n">
         <v>0.002815861542726691</v>
       </c>
-      <c r="T174" t="n">
+      <c r="V174" t="n">
         <v>1.359707708623076e-05</v>
       </c>
-      <c r="U174" t="n">
+      <c r="W174" t="n">
         <v>0.00199796586176574</v>
       </c>
     </row>
@@ -12174,27 +13222,33 @@
         <v>833.8960260178421</v>
       </c>
       <c r="N175" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O175" t="n">
+        <v>883.4390683276895</v>
+      </c>
+      <c r="P175" t="n">
         <v>66.33049014114177</v>
       </c>
-      <c r="O175" t="n">
+      <c r="Q175" t="n">
         <v>840.153091447756</v>
       </c>
-      <c r="P175" t="n">
+      <c r="R175" t="n">
         <v>840.1522130815202</v>
       </c>
-      <c r="Q175" t="n">
+      <c r="S175" t="n">
         <v>0.04743388058701266</v>
       </c>
-      <c r="R175" t="n">
+      <c r="T175" t="n">
         <v>0.08241901827102488</v>
       </c>
-      <c r="S175" t="n">
+      <c r="U175" t="n">
         <v>0.002857423039652019</v>
       </c>
-      <c r="T175" t="n">
+      <c r="V175" t="n">
         <v>1.354657417803341e-05</v>
       </c>
-      <c r="U175" t="n">
+      <c r="W175" t="n">
         <v>0.002019572281465406</v>
       </c>
     </row>
@@ -12241,27 +13295,33 @@
         <v>834.6172746710885</v>
       </c>
       <c r="N176" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O176" t="n">
+        <v>883.9439423849619</v>
+      </c>
+      <c r="P176" t="n">
         <v>65.12905814885474</v>
       </c>
-      <c r="O176" t="n">
+      <c r="Q176" t="n">
         <v>836.9879298709463</v>
       </c>
-      <c r="P176" t="n">
+      <c r="R176" t="n">
         <v>836.987049982265</v>
       </c>
-      <c r="Q176" t="n">
+      <c r="S176" t="n">
         <v>0.04803765236833074</v>
       </c>
-      <c r="R176" t="n">
+      <c r="T176" t="n">
         <v>0.08210851592033984</v>
       </c>
-      <c r="S176" t="n">
+      <c r="U176" t="n">
         <v>0.002900072806021681</v>
       </c>
-      <c r="T176" t="n">
+      <c r="V176" t="n">
         <v>1.349663099880562e-05</v>
       </c>
-      <c r="U176" t="n">
+      <c r="W176" t="n">
         <v>0.002041534546425171</v>
       </c>
     </row>
@@ -12308,27 +13368,33 @@
         <v>835.3383818108263</v>
       </c>
       <c r="N177" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O177" t="n">
+        <v>884.4487173827783</v>
+      </c>
+      <c r="P177" t="n">
         <v>63.93054457465455</v>
       </c>
-      <c r="O177" t="n">
+      <c r="Q177" t="n">
         <v>833.7182333035111</v>
       </c>
-      <c r="P177" t="n">
+      <c r="R177" t="n">
         <v>833.7173518961819</v>
       </c>
-      <c r="Q177" t="n">
+      <c r="S177" t="n">
         <v>0.0486675078524979</v>
       </c>
-      <c r="R177" t="n">
+      <c r="T177" t="n">
         <v>0.08178775868707444</v>
       </c>
-      <c r="S177" t="n">
+      <c r="U177" t="n">
         <v>0.002943854299024135</v>
       </c>
-      <c r="T177" t="n">
+      <c r="V177" t="n">
         <v>1.344724588071551e-05</v>
       </c>
-      <c r="U177" t="n">
+      <c r="W177" t="n">
         <v>0.002063857963490105</v>
       </c>
     </row>
@@ -12375,27 +13441,33 @@
         <v>836.0593622925068</v>
       </c>
       <c r="N178" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O178" t="n">
+        <v>884.9534037199547</v>
+      </c>
+      <c r="P178" t="n">
         <v>62.7349811656094</v>
       </c>
-      <c r="O178" t="n">
+      <c r="Q178" t="n">
         <v>830.3399416525823</v>
       </c>
-      <c r="P178" t="n">
+      <c r="R178" t="n">
         <v>830.3390587304254</v>
       </c>
-      <c r="Q178" t="n">
+      <c r="S178" t="n">
         <v>0.04932505864100561</v>
       </c>
-      <c r="R178" t="n">
+      <c r="T178" t="n">
         <v>0.08145634827611833</v>
       </c>
-      <c r="S178" t="n">
+      <c r="U178" t="n">
         <v>0.002988813508148727</v>
       </c>
-      <c r="T178" t="n">
+      <c r="V178" t="n">
         <v>1.339841683359924e-05</v>
       </c>
-      <c r="U178" t="n">
+      <c r="W178" t="n">
         <v>0.002086547714742979</v>
       </c>
     </row>
@@ -12442,27 +13514,33 @@
         <v>836.7802345739298</v>
       </c>
       <c r="N179" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O179" t="n">
+        <v>885.4580143169509</v>
+      </c>
+      <c r="P179" t="n">
         <v>61.54238912457628</v>
       </c>
-      <c r="O179" t="n">
+      <c r="Q179" t="n">
         <v>826.848763835073</v>
       </c>
-      <c r="P179" t="n">
+      <c r="R179" t="n">
         <v>826.8478794019193</v>
       </c>
-      <c r="Q179" t="n">
+      <c r="S179" t="n">
         <v>0.05001205265740083</v>
       </c>
-      <c r="R179" t="n">
+      <c r="T179" t="n">
         <v>0.08111386373222067</v>
       </c>
-      <c r="S179" t="n">
+      <c r="U179" t="n">
         <v>0.003034999162149842</v>
       </c>
-      <c r="T179" t="n">
+      <c r="V179" t="n">
         <v>1.335014154000427e-05</v>
       </c>
-      <c r="U179" t="n">
+      <c r="W179" t="n">
         <v>0.002109608822591022</v>
       </c>
     </row>
@@ -12509,27 +13587,33 @@
         <v>837.5010210789435</v>
       </c>
       <c r="N180" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O180" t="n">
+        <v>885.9625648704605</v>
+      </c>
+      <c r="P180" t="n">
         <v>60.35277836813188</v>
       </c>
-      <c r="O180" t="n">
+      <c r="Q180" t="n">
         <v>823.2401578143456</v>
       </c>
-      <c r="P180" t="n">
+      <c r="R180" t="n">
         <v>823.2392718740233</v>
       </c>
-      <c r="Q180" t="n">
+      <c r="S180" t="n">
         <v>0.05073038925425365</v>
       </c>
-      <c r="R180" t="n">
+      <c r="T180" t="n">
         <v>0.08075985948158731</v>
       </c>
-      <c r="S180" t="n">
+      <c r="U180" t="n">
         <v>0.003082462958500637</v>
       </c>
-      <c r="T180" t="n">
+      <c r="V180" t="n">
         <v>1.330241734943824e-05</v>
       </c>
-      <c r="U180" t="n">
+      <c r="W180" t="n">
         <v>0.002133046109265074</v>
       </c>
     </row>
@@ -12576,27 +13660,33 @@
         <v>838.2217486024975</v>
       </c>
       <c r="N181" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O181" t="n">
+        <v>886.4670741369483</v>
+      </c>
+      <c r="P181" t="n">
         <v>59.16614671239337</v>
       </c>
-      <c r="O181" t="n">
+      <c r="Q181" t="n">
         <v>819.5093082910928</v>
       </c>
-      <c r="P181" t="n">
+      <c r="R181" t="n">
         <v>819.5084208474137</v>
       </c>
-      <c r="Q181" t="n">
+      <c r="S181" t="n">
         <v>0.05148213641382738</v>
       </c>
-      <c r="R181" t="n">
+      <c r="T181" t="n">
         <v>0.08039386314335621</v>
       </c>
-      <c r="S181" t="n">
+      <c r="U181" t="n">
         <v>0.003131259818418821</v>
       </c>
-      <c r="T181" t="n">
+      <c r="V181" t="n">
         <v>1.325524127168164e-05</v>
       </c>
-      <c r="U181" t="n">
+      <c r="W181" t="n">
         <v>0.002156864149784866</v>
       </c>
     </row>
@@ -12643,27 +13733,33 @@
         <v>838.9424487628291</v>
       </c>
       <c r="N182" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O182" t="n">
+        <v>886.9715642491803</v>
+      </c>
+      <c r="P182" t="n">
         <v>57.9824789759486</v>
       </c>
-      <c r="O182" t="n">
+      <c r="Q182" t="n">
         <v>815.6511017061538</v>
       </c>
-      <c r="P182" t="n">
+      <c r="R182" t="n">
         <v>815.6502127628977</v>
       </c>
-      <c r="Q182" t="n">
+      <c r="S182" t="n">
         <v>0.05226955039343461</v>
       </c>
-      <c r="R182" t="n">
+      <c r="T182" t="n">
         <v>0.08001537307737369</v>
       </c>
-      <c r="S182" t="n">
+      <c r="U182" t="n">
         <v>0.003181448171058898</v>
       </c>
-      <c r="T182" t="n">
+      <c r="V182" t="n">
         <v>1.320860996900091e-05</v>
       </c>
-      <c r="U182" t="n">
+      <c r="W182" t="n">
         <v>0.002181067217261874</v>
       </c>
     </row>
@@ -12710,27 +13806,33 @@
         <v>839.663158507544</v>
       </c>
       <c r="N183" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O183" t="n">
+        <v>887.4760610704808</v>
+      </c>
+      <c r="P183" t="n">
         <v>56.80174598725112</v>
       </c>
-      <c r="O183" t="n">
+      <c r="Q183" t="n">
         <v>811.660098153244</v>
       </c>
-      <c r="P183" t="n">
+      <c r="R183" t="n">
         <v>811.6592077141437</v>
       </c>
-      <c r="Q183" t="n">
+      <c r="S183" t="n">
         <v>0.05309509823600347</v>
       </c>
-      <c r="R183" t="n">
+      <c r="T183" t="n">
         <v>0.07962385562883326</v>
       </c>
-      <c r="S183" t="n">
+      <c r="U183" t="n">
         <v>0.003233090271078235</v>
       </c>
-      <c r="T183" t="n">
+      <c r="V183" t="n">
         <v>1.316251974707191e-05</v>
       </c>
-      <c r="U183" t="n">
+      <c r="W183" t="n">
         <v>0.002205659219189065</v>
       </c>
     </row>
@@ -12777,27 +13879,33 @@
         <v>840.3839206815343</v>
       </c>
       <c r="N184" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O184" t="n">
+        <v>887.980594592274</v>
+      </c>
+      <c r="P184" t="n">
         <v>55.62390348159818</v>
       </c>
-      <c r="O184" t="n">
+      <c r="Q184" t="n">
         <v>807.5304997275623</v>
       </c>
-      <c r="P184" t="n">
+      <c r="R184" t="n">
         <v>807.5296077962848</v>
       </c>
-      <c r="Q184" t="n">
+      <c r="S184" t="n">
         <v>0.05396148365193398</v>
       </c>
-      <c r="R184" t="n">
+      <c r="T184" t="n">
         <v>0.07921874202327386</v>
       </c>
-      <c r="S184" t="n">
+      <c r="U184" t="n">
         <v>0.003286252554520233</v>
       </c>
-      <c r="T184" t="n">
+      <c r="V184" t="n">
         <v>1.311696654439256e-05</v>
       </c>
-      <c r="U184" t="n">
+      <c r="W184" t="n">
         <v>0.002230643623094413</v>
       </c>
     </row>
@@ -12844,27 +13952,33 @@
         <v>841.1047846660787</v>
       </c>
       <c r="N185" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O185" t="n">
+        <v>888.4851993814551</v>
+      </c>
+      <c r="P185" t="n">
         <v>54.44889087011308</v>
       </c>
-      <c r="O185" t="n">
+      <c r="Q185" t="n">
         <v>803.2561147490753</v>
       </c>
-      <c r="P185" t="n">
+      <c r="R185" t="n">
         <v>803.2552213292033</v>
       </c>
-      <c r="Q185" t="n">
+      <c r="S185" t="n">
         <v>0.05487167688411244</v>
       </c>
-      <c r="R185" t="n">
+      <c r="T185" t="n">
         <v>0.07879942485688431</v>
       </c>
-      <c r="S185" t="n">
+      <c r="U185" t="n">
         <v>0.003341006038846184</v>
       </c>
-      <c r="T185" t="n">
+      <c r="V185" t="n">
         <v>1.307194591992581e-05</v>
       </c>
-      <c r="U185" t="n">
+      <c r="W185" t="n">
         <v>0.002256023369599691</v>
       </c>
     </row>
@@ -12911,27 +14025,33 @@
         <v>841.8258071001948</v>
       </c>
       <c r="N186" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O186" t="n">
+        <v>888.9899150853363</v>
+      </c>
+      <c r="P186" t="n">
         <v>53.27662985988716</v>
       </c>
-      <c r="O186" t="n">
+      <c r="Q186" t="n">
         <v>798.8303171932571</v>
       </c>
-      <c r="P186" t="n">
+      <c r="R186" t="n">
         <v>798.8294222882683</v>
       </c>
-      <c r="Q186" t="n">
+      <c r="S186" t="n">
         <v>0.05584648897899763</v>
       </c>
-      <c r="R186" t="n">
+      <c r="T186" t="n">
         <v>0.07836525411665853</v>
       </c>
-      <c r="S186" t="n">
+      <c r="U186" t="n">
         <v>0.003397426774024348</v>
       </c>
-      <c r="T186" t="n">
+      <c r="V186" t="n">
         <v>1.302745303866806e-05</v>
       </c>
-      <c r="U186" t="n">
+      <c r="W186" t="n">
         <v>0.002281800770510991</v>
       </c>
     </row>
@@ -12978,27 +14098,33 @@
         <v>842.5471360752272</v>
       </c>
       <c r="N187" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O187" t="n">
+        <v>889.4948453678591</v>
+      </c>
+      <c r="P187" t="n">
         <v>52.10686512354172</v>
       </c>
-      <c r="O187" t="n">
+      <c r="Q187" t="n">
         <v>794.2453692251461</v>
       </c>
-      <c r="P187" t="n">
+      <c r="R187" t="n">
         <v>794.2444728381964</v>
       </c>
-      <c r="Q187" t="n">
+      <c r="S187" t="n">
         <v>0.05617914744057779</v>
       </c>
-      <c r="R187" t="n">
+      <c r="T187" t="n">
         <v>0.07791547072098684</v>
       </c>
-      <c r="S187" t="n">
+      <c r="U187" t="n">
         <v>0.003455602574616815</v>
       </c>
-      <c r="T187" t="n">
+      <c r="V187" t="n">
         <v>1.298347732794112e-05</v>
       </c>
-      <c r="U187" t="n">
+      <c r="W187" t="n">
         <v>0.002307979819041584</v>
       </c>
     </row>
@@ -13045,27 +14171,33 @@
         <v>843.2655633187674</v>
       </c>
       <c r="N188" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O188" t="n">
+        <v>889.9977444383371</v>
+      </c>
+      <c r="P188" t="n">
         <v>50.94566900332999</v>
       </c>
-      <c r="O188" t="n">
+      <c r="Q188" t="n">
         <v>789.5192814153328</v>
       </c>
-      <c r="P188" t="n">
+      <c r="R188" t="n">
         <v>789.5183835570577</v>
       </c>
-      <c r="Q188" t="n">
+      <c r="S188" t="n">
         <v>0.05652968731092859</v>
       </c>
-      <c r="R188" t="n">
+      <c r="T188" t="n">
         <v>0.07745184150684416</v>
       </c>
-      <c r="S188" t="n">
+      <c r="U188" t="n">
         <v>0.003515368615478414</v>
       </c>
-      <c r="T188" t="n">
+      <c r="V188" t="n">
         <v>1.294022008353544e-05</v>
       </c>
-      <c r="U188" t="n">
+      <c r="W188" t="n">
         <v>0.002334464295520027</v>
       </c>
     </row>
@@ -13112,27 +14244,33 @@
         <v>843.9810490815798</v>
       </c>
       <c r="N189" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O189" t="n">
+        <v>890.4985844723059</v>
+      </c>
+      <c r="P189" t="n">
         <v>49.79307003990959</v>
       </c>
-      <c r="O189" t="n">
+      <c r="Q189" t="n">
         <v>784.6474591771185</v>
       </c>
-      <c r="P189" t="n">
+      <c r="R189" t="n">
         <v>784.6465598581876</v>
       </c>
-      <c r="Q189" t="n">
+      <c r="S189" t="n">
         <v>0.0568988559024539</v>
       </c>
-      <c r="R189" t="n">
+      <c r="T189" t="n">
         <v>0.07697391574527535</v>
       </c>
-      <c r="S189" t="n">
+      <c r="U189" t="n">
         <v>0.003576784262584131</v>
       </c>
-      <c r="T189" t="n">
+      <c r="V189" t="n">
         <v>1.289767433453954e-05</v>
       </c>
-      <c r="U189" t="n">
+      <c r="W189" t="n">
         <v>0.002361246294229696</v>
       </c>
     </row>
@@ -13179,27 +14317,33 @@
         <v>844.6935539345106</v>
       </c>
       <c r="N190" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O190" t="n">
+        <v>890.9973378693575</v>
+      </c>
+      <c r="P190" t="n">
         <v>48.64908925987375</v>
       </c>
-      <c r="O190" t="n">
+      <c r="Q190" t="n">
         <v>779.6251046294846</v>
       </c>
-      <c r="P190" t="n">
+      <c r="R190" t="n">
         <v>779.6242038605933</v>
       </c>
-      <c r="Q190" t="n">
+      <c r="S190" t="n">
         <v>0.05728747589579502</v>
       </c>
-      <c r="R190" t="n">
+      <c r="T190" t="n">
         <v>0.07648122276415244</v>
       </c>
-      <c r="S190" t="n">
+      <c r="U190" t="n">
         <v>0.003639911731009538</v>
       </c>
-      <c r="T190" t="n">
+      <c r="V190" t="n">
         <v>1.285583298071337e-05</v>
       </c>
-      <c r="U190" t="n">
+      <c r="W190" t="n">
         <v>0.002388316407490536</v>
       </c>
     </row>
@@ -13246,27 +14390,33 @@
         <v>845.4030389604104</v>
       </c>
       <c r="N191" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O191" t="n">
+        <v>891.4939773874872</v>
+      </c>
+      <c r="P191" t="n">
         <v>47.51373981818803</v>
       </c>
-      <c r="O191" t="n">
+      <c r="Q191" t="n">
         <v>774.4472014219415</v>
       </c>
-      <c r="P191" t="n">
+      <c r="R191" t="n">
         <v>774.4462992138032</v>
       </c>
-      <c r="Q191" t="n">
+      <c r="S191" t="n">
         <v>0.05769645135784218</v>
       </c>
-      <c r="R191" t="n">
+      <c r="T191" t="n">
         <v>0.07597327045949247</v>
       </c>
-      <c r="S191" t="n">
+      <c r="U191" t="n">
         <v>0.003704816269174232</v>
       </c>
-      <c r="T191" t="n">
+      <c r="V191" t="n">
         <v>1.281468879327261e-05</v>
       </c>
-      <c r="U191" t="n">
+      <c r="W191" t="n">
         <v>0.00241566355814524</v>
       </c>
     </row>
@@ -13313,27 +14463,33 @@
         <v>846.1094659566641</v>
       </c>
       <c r="N192" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O192" t="n">
+        <v>891.9884762848649</v>
+      </c>
+      <c r="P192" t="n">
         <v>46.38702662494174</v>
       </c>
-      <c r="O192" t="n">
+      <c r="Q192" t="n">
         <v>769.1084979103758</v>
       </c>
-      <c r="P192" t="n">
+      <c r="R192" t="n">
         <v>769.1075942737131</v>
       </c>
-      <c r="Q192" t="n">
+      <c r="S192" t="n">
         <v>0.05812677472790675</v>
       </c>
-      <c r="R192" t="n">
+      <c r="T192" t="n">
         <v>0.07544954364500787</v>
       </c>
-      <c r="S192" t="n">
+      <c r="U192" t="n">
         <v>0.003771566359260535</v>
       </c>
-      <c r="T192" t="n">
+      <c r="V192" t="n">
         <v>1.277423441588642e-05</v>
       </c>
-      <c r="U192" t="n">
+      <c r="W192" t="n">
         <v>0.002443274812512995</v>
       </c>
     </row>
@@ -13380,27 +14536,33 @@
         <v>846.8127976506723</v>
       </c>
       <c r="N193" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O193" t="n">
+        <v>892.4808084706706</v>
+      </c>
+      <c r="P193" t="n">
         <v>45.26894595095671</v>
       </c>
-      <c r="O193" t="n">
+      <c r="Q193" t="n">
         <v>763.603488458028</v>
       </c>
-      <c r="P193" t="n">
+      <c r="R193" t="n">
         <v>763.6025834035636</v>
       </c>
-      <c r="Q193" t="n">
+      <c r="S193" t="n">
         <v>0.05857953490013417</v>
       </c>
-      <c r="R193" t="n">
+      <c r="T193" t="n">
         <v>0.07490950221773256</v>
       </c>
-      <c r="S193" t="n">
+      <c r="U193" t="n">
         <v>0.003840233935780631</v>
       </c>
-      <c r="T193" t="n">
+      <c r="V193" t="n">
         <v>1.273446236578085e-05</v>
       </c>
-      <c r="U193" t="n">
+      <c r="W193" t="n">
         <v>0.002471135171219978</v>
       </c>
     </row>
@@ -13447,27 +14609,33 @@
         <v>847.5129979308975</v>
       </c>
       <c r="N194" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O194" t="n">
+        <v>892.9709486668282</v>
+      </c>
+      <c r="P194" t="n">
         <v>44.15948500617723</v>
       </c>
-      <c r="O194" t="n">
+      <c r="Q194" t="n">
         <v>757.9263925991426</v>
       </c>
-      <c r="P194" t="n">
+      <c r="R194" t="n">
         <v>757.9254861375894</v>
       </c>
-      <c r="Q194" t="n">
+      <c r="S194" t="n">
         <v>0.05905592655753248</v>
       </c>
-      <c r="R194" t="n">
+      <c r="T194" t="n">
         <v>0.0743525791139759</v>
       </c>
-      <c r="S194" t="n">
+      <c r="U194" t="n">
         <v>0.003910894624570982</v>
       </c>
-      <c r="T194" t="n">
+      <c r="V194" t="n">
         <v>1.269536503484076e-05</v>
       </c>
-      <c r="U194" t="n">
+      <c r="W194" t="n">
         <v>0.002499227334905153</v>
       </c>
     </row>
@@ -13514,27 +14682,33 @@
         <v>848.2100320963939</v>
       </c>
       <c r="N195" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O195" t="n">
+        <v>893.4588725826757</v>
+      </c>
+      <c r="P195" t="n">
         <v>43.05862148399186</v>
       </c>
-      <c r="O195" t="n">
+      <c r="Q195" t="n">
         <v>752.0711317591946</v>
       </c>
-      <c r="P195" t="n">
+      <c r="R195" t="n">
         <v>752.0702239012461</v>
       </c>
-      <c r="Q195" t="n">
+      <c r="S195" t="n">
         <v>0.05955726094565874</v>
       </c>
-      <c r="R195" t="n">
+      <c r="T195" t="n">
         <v>0.073778178025577</v>
       </c>
-      <c r="S195" t="n">
+      <c r="U195" t="n">
         <v>0.003983628004856182</v>
       </c>
-      <c r="T195" t="n">
+      <c r="V195" t="n">
         <v>1.265693469060157e-05</v>
       </c>
-      <c r="U195" t="n">
+      <c r="W195" t="n">
         <v>0.002527531441312084</v>
       </c>
     </row>
@@ -13581,27 +14755,33 @@
         <v>848.9038671281581</v>
       </c>
       <c r="N196" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O196" t="n">
+        <v>893.9445571049107</v>
+      </c>
+      <c r="P196" t="n">
         <v>41.9663230636816</v>
       </c>
-      <c r="O196" t="n">
+      <c r="Q196" t="n">
         <v>746.0313031733666</v>
       </c>
-      <c r="P196" t="n">
+      <c r="R196" t="n">
         <v>746.0303939296856</v>
       </c>
-      <c r="Q196" t="n">
+      <c r="S196" t="n">
         <v>0.06008497831347802</v>
       </c>
-      <c r="R196" t="n">
+      <c r="T196" t="n">
         <v>0.07318567084130727</v>
       </c>
-      <c r="S196" t="n">
+      <c r="U196" t="n">
         <v>0.004058517897459328</v>
       </c>
-      <c r="T196" t="n">
+      <c r="V196" t="n">
         <v>1.261916347701819e-05</v>
       </c>
-      <c r="U196" t="n">
+      <c r="W196" t="n">
         <v>0.002556024769695985</v>
       </c>
     </row>
@@ -13648,27 +14828,33 @@
         <v>849.5944719861219</v>
       </c>
       <c r="N197" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O197" t="n">
+        <v>894.4279805054854</v>
+      </c>
+      <c r="P197" t="n">
         <v>40.88254686201169</v>
       </c>
-      <c r="O197" t="n">
+      <c r="Q197" t="n">
         <v>739.8001505821201</v>
       </c>
-      <c r="P197" t="n">
+      <c r="R197" t="n">
         <v>739.7992399633273</v>
       </c>
-      <c r="Q197" t="n">
+      <c r="S197" t="n">
         <v>0.06064066229700121</v>
       </c>
-      <c r="R197" t="n">
+      <c r="T197" t="n">
         <v>0.07257439477210599</v>
       </c>
-      <c r="S197" t="n">
+      <c r="U197" t="n">
         <v>0.004135652682756941</v>
       </c>
-      <c r="T197" t="n">
+      <c r="V197" t="n">
         <v>1.258204341489243e-05</v>
       </c>
-      <c r="U197" t="n">
+      <c r="W197" t="n">
         <v>0.002584681407777912</v>
       </c>
     </row>
@@ -13715,27 +14901,33 @@
         <v>850.2818179362283</v>
       </c>
       <c r="N198" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O198" t="n">
+        <v>894.9091226705598</v>
+      </c>
+      <c r="P198" t="n">
         <v>39.80723882353951</v>
       </c>
-      <c r="O198" t="n">
+      <c r="Q198" t="n">
         <v>733.3705312068374</v>
       </c>
-      <c r="P198" t="n">
+      <c r="R198" t="n">
         <v>733.3696192234995</v>
       </c>
-      <c r="Q198" t="n">
+      <c r="S198" t="n">
         <v>0.06122605658035681</v>
       </c>
-      <c r="R198" t="n">
+      <c r="T198" t="n">
         <v>0.07194364911139077</v>
       </c>
-      <c r="S198" t="n">
+      <c r="U198" t="n">
         <v>0.004215125652605177</v>
       </c>
-      <c r="T198" t="n">
+      <c r="V198" t="n">
         <v>1.254556640183013e-05</v>
       </c>
-      <c r="U198" t="n">
+      <c r="W198" t="n">
         <v>0.002613471875638718</v>
       </c>
     </row>
@@ -13782,27 +14974,33 @@
         <v>850.9658789127908</v>
       </c>
       <c r="N199" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O199" t="n">
+        <v>895.3879653541536</v>
+      </c>
+      <c r="P199" t="n">
         <v>38.74033303743522</v>
       </c>
-      <c r="O199" t="n">
+      <c r="Q199" t="n">
         <v>726.7348784164026</v>
       </c>
-      <c r="P199" t="n">
+      <c r="R199" t="n">
         <v>726.7339650790192</v>
       </c>
-      <c r="Q199" t="n">
+      <c r="S199" t="n">
         <v>0.06184308424196541</v>
       </c>
-      <c r="R199" t="n">
+      <c r="T199" t="n">
         <v>0.0712926915726491</v>
       </c>
-      <c r="S199" t="n">
+      <c r="U199" t="n">
         <v>0.004297035401224891</v>
       </c>
-      <c r="T199" t="n">
+      <c r="V199" t="n">
         <v>1.250972421158723e-05</v>
       </c>
-      <c r="U199" t="n">
+      <c r="W199" t="n">
         <v>0.002642362699929204</v>
       </c>
     </row>
@@ -13849,27 +15047,33 @@
         <v>851.6466319222653</v>
       </c>
       <c r="N200" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O200" t="n">
+        <v>895.8644924607858</v>
+      </c>
+      <c r="P200" t="n">
         <v>37.68175096642807</v>
       </c>
-      <c r="O200" t="n">
+      <c r="Q200" t="n">
         <v>719.8851593832336</v>
       </c>
-      <c r="P200" t="n">
+      <c r="R200" t="n">
         <v>719.8842447022228</v>
       </c>
-      <c r="Q200" t="n">
+      <c r="S200" t="n">
         <v>0.06249387028440787</v>
       </c>
-      <c r="R200" t="n">
+      <c r="T200" t="n">
         <v>0.07062073413549523</v>
       </c>
-      <c r="S200" t="n">
+      <c r="U200" t="n">
         <v>0.00438148626095943</v>
       </c>
-      <c r="T200" t="n">
+      <c r="V200" t="n">
         <v>1.247450849264652e-05</v>
       </c>
-      <c r="U200" t="n">
+      <c r="W200" t="n">
         <v>0.002671315930536628</v>
       </c>
     </row>
@@ -13916,27 +15120,33 @@
         <v>852.3240574957246</v>
       </c>
       <c r="N201" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O201" t="n">
+        <v>896.3386903622072</v>
+      </c>
+      <c r="P201" t="n">
         <v>36.631400570795</v>
       </c>
-      <c r="O201" t="n">
+      <c r="Q201" t="n">
         <v>712.8128268894814</v>
       </c>
-      <c r="P201" t="n">
+      <c r="R201" t="n">
         <v>712.8119108751652</v>
       </c>
-      <c r="Q201" t="n">
+      <c r="S201" t="n">
         <v>0.0631807679605727</v>
       </c>
-      <c r="R201" t="n">
+      <c r="T201" t="n">
         <v>0.06992693831785812</v>
       </c>
-      <c r="S201" t="n">
+      <c r="U201" t="n">
         <v>0.004468588789952129</v>
       </c>
-      <c r="T201" t="n">
+      <c r="V201" t="n">
         <v>1.243991076584519e-05</v>
       </c>
-      <c r="U201" t="n">
+      <c r="W201" t="n">
         <v>0.002700288590334782</v>
       </c>
     </row>
@@ -13983,27 +15193,33 @@
         <v>852.9981401987528</v>
       </c>
       <c r="N202" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O202" t="n">
+        <v>896.8105482543269</v>
+      </c>
+      <c r="P202" t="n">
         <v>35.58917530696723</v>
       </c>
-      <c r="O202" t="n">
+      <c r="Q202" t="n">
         <v>705.5087642741431</v>
       </c>
-      <c r="P202" t="n">
+      <c r="R202" t="n">
         <v>705.5078469367313</v>
       </c>
-      <c r="Q202" t="n">
+      <c r="S202" t="n">
         <v>0.06390638965259648</v>
       </c>
-      <c r="R202" t="n">
+      <c r="T202" t="n">
         <v>0.06921040977529345</v>
       </c>
-      <c r="S202" t="n">
+      <c r="U202" t="n">
         <v>0.004558460320184654</v>
       </c>
-      <c r="T202" t="n">
+      <c r="V202" t="n">
         <v>1.240592242084524e-05</v>
       </c>
-      <c r="U202" t="n">
+      <c r="W202" t="n">
         <v>0.002729232046782533</v>
       </c>
     </row>
@@ -14050,27 +15266,33 @@
         <v>853.6688692092721</v>
       </c>
       <c r="N203" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O203" t="n">
+        <v>897.2800585616905</v>
+      </c>
+      <c r="P203" t="n">
         <v>34.55495297617063</v>
       </c>
-      <c r="O203" t="n">
+      <c r="Q203" t="n">
         <v>697.963222300954</v>
       </c>
-      <c r="P203" t="n">
+      <c r="R203" t="n">
         <v>697.9623036505262</v>
       </c>
-      <c r="Q203" t="n">
+      <c r="S203" t="n">
         <v>0.06467364324313395</v>
       </c>
-      <c r="R203" t="n">
+      <c r="T203" t="n">
         <v>0.06847019210772361</v>
       </c>
-      <c r="S203" t="n">
+      <c r="U203" t="n">
         <v>0.004651225576042081</v>
       </c>
-      <c r="T203" t="n">
+      <c r="V203" t="n">
         <v>1.237253471120322e-05</v>
       </c>
-      <c r="U203" t="n">
+      <c r="W203" t="n">
         <v>0.002758091291828853</v>
       </c>
     </row>
@@ -14117,27 +15339,33 @@
         <v>854.3362389760428</v>
       </c>
       <c r="N204" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O204" t="n">
+        <v>897.7472173984299</v>
+      </c>
+      <c r="P204" t="n">
         <v>33.52859439330733</v>
       </c>
-      <c r="O204" t="n">
+      <c r="Q204" t="n">
         <v>690.1657464636022</v>
       </c>
-      <c r="P204" t="n">
+      <c r="R204" t="n">
         <v>690.1648265100891</v>
       </c>
-      <c r="Q204" t="n">
+      <c r="S204" t="n">
         <v>0.06548577515296358</v>
       </c>
-      <c r="R204" t="n">
+      <c r="T204" t="n">
         <v>0.06770525972807939</v>
       </c>
-      <c r="S204" t="n">
+      <c r="U204" t="n">
         <v>0.004747017375718997</v>
       </c>
-      <c r="T204" t="n">
+      <c r="V204" t="n">
         <v>1.233973874774991e-05</v>
       </c>
-      <c r="U204" t="n">
+      <c r="W204" t="n">
         <v>0.002786804113706524</v>
       </c>
     </row>
@@ -14184,27 +15412,33 @@
         <v>855.0002499734078</v>
       </c>
       <c r="N205" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O205" t="n">
+        <v>898.2120250965854</v>
+      </c>
+      <c r="P205" t="n">
         <v>32.50994183972529</v>
       </c>
-      <c r="O205" t="n">
+      <c r="Q205" t="n">
         <v>682.1050929138019</v>
       </c>
-      <c r="P205" t="n">
+      <c r="R205" t="n">
         <v>682.1041716669641</v>
       </c>
-      <c r="Q205" t="n">
+      <c r="S205" t="n">
         <v>0.0663464215216525</v>
       </c>
-      <c r="R205" t="n">
+      <c r="T205" t="n">
         <v>0.06691450961484396</v>
       </c>
-      <c r="S205" t="n">
+      <c r="U205" t="n">
         <v>0.004845977430472258</v>
       </c>
-      <c r="T205" t="n">
+      <c r="V205" t="n">
         <v>1.230752548993317e-05</v>
       </c>
-      <c r="U205" t="n">
+      <c r="W205" t="n">
         <v>0.00281530014058534</v>
       </c>
     </row>
@@ -14251,27 +15485,33 @@
         <v>855.6609095714231</v>
       </c>
       <c r="N206" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O206" t="n">
+        <v>898.6744868151961</v>
+      </c>
+      <c r="P206" t="n">
         <v>31.49881725520351</v>
       </c>
-      <c r="O206" t="n">
+      <c r="Q206" t="n">
         <v>673.7691307787323</v>
       </c>
-      <c r="P206" t="n">
+      <c r="R206" t="n">
         <v>673.7682082481372</v>
       </c>
-      <c r="Q206" t="n">
+      <c r="S206" t="n">
         <v>0.06725966940204775</v>
       </c>
-      <c r="R206" t="n">
+      <c r="T206" t="n">
         <v>0.06609675172939365</v>
       </c>
-      <c r="S206" t="n">
+      <c r="U206" t="n">
         <v>0.004948257260123778</v>
       </c>
-      <c r="T206" t="n">
+      <c r="V206" t="n">
         <v>1.227588573470242e-05</v>
       </c>
-      <c r="U206" t="n">
+      <c r="W206" t="n">
         <v>0.002843499731488657</v>
       </c>
     </row>
@@ -14318,27 +15558,33 @@
         <v>856.3182330450851</v>
       </c>
       <c r="N207" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O207" t="n">
+        <v>899.1346132467596</v>
+      </c>
+      <c r="P207" t="n">
         <v>30.49502011385425</v>
       </c>
-      <c r="O207" t="n">
+      <c r="Q207" t="n">
         <v>665.1447280997915</v>
       </c>
-      <c r="P207" t="n">
+      <c r="R207" t="n">
         <v>665.1438042947872</v>
       </c>
-      <c r="Q207" t="n">
+      <c r="S207" t="n">
         <v>0.06823013035673225</v>
       </c>
-      <c r="R207" t="n">
+      <c r="T207" t="n">
         <v>0.06525069782658956</v>
       </c>
-      <c r="S207" t="n">
+      <c r="U207" t="n">
         <v>0.005054019247535817</v>
       </c>
-      <c r="T207" t="n">
+      <c r="V207" t="n">
         <v>1.224481010241847e-05</v>
       </c>
-      <c r="U207" t="n">
+      <c r="W207" t="n">
         <v>0.002871312684054733</v>
       </c>
     </row>
@@ -14385,27 +15631,33 @@
         <v>856.9722447522473</v>
       </c>
       <c r="N208" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O208" t="n">
+        <v>899.5924214417731</v>
+      </c>
+      <c r="P208" t="n">
         <v>29.49832491496494</v>
       </c>
-      <c r="O208" t="n">
+      <c r="Q208" t="n">
         <v>656.2176179372392</v>
       </c>
-      <c r="P208" t="n">
+      <c r="R208" t="n">
         <v>656.2166928669269</v>
       </c>
-      <c r="Q208" t="n">
+      <c r="S208" t="n">
         <v>0.06926302953017247</v>
       </c>
-      <c r="R208" t="n">
+      <c r="T208" t="n">
         <v>0.06437494831964317</v>
       </c>
-      <c r="S208" t="n">
+      <c r="U208" t="n">
         <v>0.00516343786031659</v>
       </c>
-      <c r="T208" t="n">
+      <c r="V208" t="n">
         <v>1.221428901914916e-05</v>
       </c>
-      <c r="U208" t="n">
+      <c r="W208" t="n">
         <v>0.002898636721240438</v>
       </c>
     </row>
@@ -14452,27 +15704,33 @@
         <v>857.6229795174468</v>
       </c>
       <c r="N209" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O209" t="n">
+        <v>900.0479357774127</v>
+      </c>
+      <c r="P209" t="n">
         <v>28.50847820204432</v>
       </c>
-      <c r="O209" t="n">
+      <c r="Q209" t="n">
         <v>646.9722402936907</v>
       </c>
-      <c r="P209" t="n">
+      <c r="R209" t="n">
         <v>646.9713139668913</v>
       </c>
-      <c r="Q209" t="n">
+      <c r="S209" t="n">
         <v>0.07036431418772658</v>
       </c>
-      <c r="R209" t="n">
+      <c r="T209" t="n">
         <v>0.06346797677281106</v>
       </c>
-      <c r="S209" t="n">
+      <c r="U209" t="n">
         <v>0.00527670107516727</v>
       </c>
-      <c r="T209" t="n">
+      <c r="V209" t="n">
         <v>1.218431269455099e-05</v>
       </c>
-      <c r="U209" t="n">
+      <c r="W209" t="n">
         <v>0.002925355709358935</v>
       </c>
     </row>
@@ -14519,27 +15777,33 @@
         <v>858.2704842688452</v>
       </c>
       <c r="N210" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O210" t="n">
+        <v>900.5011891033917</v>
+      </c>
+      <c r="P210" t="n">
         <v>27.5251950000727</v>
       </c>
-      <c r="O210" t="n">
+      <c r="Q210" t="n">
         <v>637.3915543421737</v>
       </c>
-      <c r="P210" t="n">
+      <c r="R210" t="n">
         <v>637.3906267673927</v>
       </c>
-      <c r="Q210" t="n">
+      <c r="S210" t="n">
         <v>0.07154078695337095</v>
       </c>
-      <c r="R210" t="n">
+      <c r="T210" t="n">
         <v>0.06252811148096724</v>
       </c>
-      <c r="S210" t="n">
+      <c r="U210" t="n">
         <v>0.005394012049610243</v>
       </c>
-      <c r="T210" t="n">
+      <c r="V210" t="n">
         <v>1.215487109432696e-05</v>
       </c>
-      <c r="U210" t="n">
+      <c r="W210" t="n">
         <v>0.002951337547135405</v>
       </c>
     </row>
@@ -14586,27 +15850,33 @@
         <v>858.9148199887076</v>
       </c>
       <c r="N211" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O211" t="n">
+        <v>900.9522241072953</v>
+      </c>
+      <c r="P211" t="n">
         <v>26.54815453017905</v>
       </c>
-      <c r="O211" t="n">
+      <c r="Q211" t="n">
         <v>627.45681390116</v>
       </c>
-      <c r="P211" t="n">
+      <c r="R211" t="n">
         <v>627.4558850865452</v>
       </c>
-      <c r="Q211" t="n">
+      <c r="S211" t="n">
         <v>0.07280027067483384</v>
       </c>
-      <c r="R211" t="n">
+      <c r="T211" t="n">
         <v>0.0615535134437038</v>
       </c>
-      <c r="S211" t="n">
+      <c r="U211" t="n">
         <v>0.005515591098122562</v>
       </c>
-      <c r="T211" t="n">
+      <c r="V211" t="n">
         <v>1.212595390597251e-05</v>
       </c>
-      <c r="U211" t="n">
+      <c r="W211" t="n">
         <v>0.002976431648657152</v>
       </c>
     </row>
@@ -14653,27 +15923,33 @@
         <v>859.5560640554742</v>
       </c>
       <c r="N212" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O212" t="n">
+        <v>901.4010949540319</v>
+      </c>
+      <c r="P212" t="n">
         <v>25.57699501981659</v>
       </c>
-      <c r="O212" t="n">
+      <c r="Q212" t="n">
         <v>617.1472970364348</v>
       </c>
-      <c r="P212" t="n">
+      <c r="R212" t="n">
         <v>617.1463669897295</v>
       </c>
-      <c r="Q212" t="n">
+      <c r="S212" t="n">
         <v>0.07415181419388907</v>
       </c>
-      <c r="R212" t="n">
+      <c r="T212" t="n">
         <v>0.06054214983927426</v>
       </c>
-      <c r="S212" t="n">
+      <c r="U212" t="n">
         <v>0.005641678046045416</v>
       </c>
-      <c r="T212" t="n">
+      <c r="V212" t="n">
         <v>1.209755049614977e-05</v>
       </c>
-      <c r="U212" t="n">
+      <c r="W212" t="n">
         <v>0.003000465920619537</v>
       </c>
     </row>
@@ -14720,27 +15996,33 @@
         <v>860.1943130793312</v>
       </c>
       <c r="N213" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O213" t="n">
+        <v>901.8478692707318</v>
+      </c>
+      <c r="P213" t="n">
         <v>24.61130737085526</v>
       </c>
-      <c r="O213" t="n">
+      <c r="Q213" t="n">
         <v>606.4399778812768</v>
       </c>
-      <c r="P213" t="n">
+      <c r="R213" t="n">
         <v>606.4390466097642</v>
       </c>
-      <c r="Q213" t="n">
+      <c r="S213" t="n">
         <v>0.07560595159450971</v>
       </c>
-      <c r="R213" t="n">
+      <c r="T213" t="n">
         <v>0.05949176183015327</v>
       </c>
-      <c r="S213" t="n">
+      <c r="U213" t="n">
         <v>0.005772535056640533</v>
       </c>
-      <c r="T213" t="n">
+      <c r="V213" t="n">
         <v>1.206964985752742e-05</v>
       </c>
-      <c r="U213" t="n">
+      <c r="W213" t="n">
         <v>0.00302324310385935</v>
       </c>
     </row>
@@ -14787,27 +16069,33 @@
         <v>860.8296863657971</v>
       </c>
       <c r="N214" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O214" t="n">
+        <v>902.292630571258</v>
+      </c>
+      <c r="P214" t="n">
         <v>23.65062737180267</v>
       </c>
-      <c r="O214" t="n">
+      <c r="Q214" t="n">
         <v>595.3091249491343</v>
       </c>
-      <c r="P214" t="n">
+      <c r="R214" t="n">
         <v>595.3081924595739</v>
       </c>
-      <c r="Q214" t="n">
+      <c r="S214" t="n">
         <v>0.07717503218955997</v>
       </c>
-      <c r="R214" t="n">
+      <c r="T214" t="n">
         <v>0.05839982515751009</v>
       </c>
-      <c r="S214" t="n">
+      <c r="U214" t="n">
         <v>0.005908450056639849</v>
       </c>
-      <c r="T214" t="n">
+      <c r="V214" t="n">
         <v>1.204224054223643e-05</v>
       </c>
-      <c r="U214" t="n">
+      <c r="W214" t="n">
         <v>0.003044536307493593</v>
       </c>
     </row>
@@ -14854,27 +16142,33 @@
         <v>861.4623301870596</v>
       </c>
       <c r="N215" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O215" t="n">
+        <v>902.7354812461417</v>
+      </c>
+      <c r="P215" t="n">
         <v>22.69442603459416</v>
       </c>
-      <c r="O215" t="n">
+      <c r="Q215" t="n">
         <v>583.7258049156189</v>
       </c>
-      <c r="P215" t="n">
+      <c r="R215" t="n">
         <v>583.7248712141713</v>
       </c>
-      <c r="Q215" t="n">
+      <c r="S215" t="n">
         <v>0.07887364528074733</v>
       </c>
-      <c r="R215" t="n">
+      <c r="T215" t="n">
         <v>0.05726350146222223</v>
       </c>
-      <c r="S215" t="n">
+      <c r="U215" t="n">
         <v>0.006049740927025542</v>
       </c>
-      <c r="T215" t="n">
+      <c r="V215" t="n">
         <v>1.201531057813903e-05</v>
       </c>
-      <c r="U215" t="n">
+      <c r="W215" t="n">
         <v>0.003064083506075691</v>
       </c>
     </row>
@@ -14921,27 +16215,33 @@
         <v>862.092423104416</v>
       </c>
       <c r="N216" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O216" t="n">
+        <v>903.1765462882912</v>
+      </c>
+      <c r="P216" t="n">
         <v>21.74209748740689</v>
       </c>
-      <c r="O216" t="n">
+      <c r="Q216" t="n">
         <v>571.9256949001392</v>
       </c>
-      <c r="P216" t="n">
+      <c r="R216" t="n">
         <v>571.6563284773158</v>
       </c>
-      <c r="Q216" t="n">
+      <c r="S216" t="n">
         <v>0.08071149555537811</v>
       </c>
-      <c r="R216" t="n">
+      <c r="T216" t="n">
         <v>0.05610591066970367</v>
       </c>
-      <c r="S216" t="n">
+      <c r="U216" t="n">
         <v>0.006196760683771917</v>
       </c>
-      <c r="T216" t="n">
+      <c r="V216" t="n">
         <v>1.198884736276957e-05</v>
       </c>
-      <c r="U216" t="n">
+      <c r="W216" t="n">
         <v>0.00308158068849701</v>
       </c>
     </row>
@@ -14988,27 +16288,33 @@
         <v>862.7202584638721</v>
       </c>
       <c r="N217" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O217" t="n">
+        <v>903.6160310399105</v>
+      </c>
+      <c r="P217" t="n">
         <v>20.79280983731275</v>
       </c>
-      <c r="O217" t="n">
+      <c r="Q217" t="n">
         <v>562.9790363496992</v>
       </c>
-      <c r="P217" t="n">
+      <c r="R217" t="n">
         <v>559.0633913753728</v>
       </c>
-      <c r="Q217" t="n">
+      <c r="S217" t="n">
         <v>0.08261337273266783</v>
       </c>
-      <c r="R217" t="n">
+      <c r="T217" t="n">
         <v>0.05522824346590549</v>
       </c>
-      <c r="S217" t="n">
+      <c r="U217" t="n">
         <v>0.00634992233235001</v>
       </c>
-      <c r="T217" t="n">
+      <c r="V217" t="n">
         <v>1.1962834439229e-05</v>
       </c>
-      <c r="U217" t="n">
+      <c r="W217" t="n">
         <v>0.003096673413120548</v>
       </c>
     </row>
@@ -15055,27 +16361,33 @@
         <v>863.3470184176473</v>
       </c>
       <c r="N218" t="n">
+        <v>999.0395003840001</v>
+      </c>
+      <c r="O218" t="n">
+        <v>904.0547630075531</v>
+      </c>
+      <c r="P218" t="n">
         <v>19.84413272131714</v>
       </c>
-      <c r="O218" t="n">
+      <c r="Q218" t="n">
         <v>553.5502199761986</v>
       </c>
-      <c r="P218" t="n">
+      <c r="R218" t="n">
         <v>545.8797944476787</v>
       </c>
-      <c r="Q218" t="n">
+      <c r="S218" t="n">
         <v>0.08469362968321101</v>
       </c>
-      <c r="R218" t="n">
+      <c r="T218" t="n">
         <v>0.05430327657966509</v>
       </c>
-      <c r="S218" t="n">
+      <c r="U218" t="n">
         <v>0.006509906376041459</v>
       </c>
-      <c r="T218" t="n">
+      <c r="V218" t="n">
         <v>1.193722089902325e-05</v>
       </c>
-      <c r="U218" t="n">
+      <c r="W218" t="n">
         <v>0.003108940914236312</v>
       </c>
     </row>
